--- a/产品表单.xlsx
+++ b/产品表单.xlsx
@@ -1,149 +1,131 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView windowWidth="18540" windowHeight="7730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>产品标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>产品编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
   </si>
   <si>
     <t>链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进货价</t>
+  </si>
+  <si>
+    <t>国内运费</t>
   </si>
   <si>
     <t>利润率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国内运费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重量/kg</t>
+  </si>
+  <si>
+    <t>产品折扣</t>
+  </si>
+  <si>
+    <t>速卖通标价</t>
+  </si>
+  <si>
+    <t>wish标价</t>
+  </si>
+  <si>
+    <t>成本/￥</t>
+  </si>
+  <si>
+    <t>速卖通售价</t>
+  </si>
+  <si>
+    <t>wish售价</t>
+  </si>
+  <si>
+    <t>获得售价</t>
+  </si>
+  <si>
+    <t>利润</t>
+  </si>
+  <si>
+    <t>Tina</t>
+  </si>
+  <si>
+    <t>Jerry</t>
+  </si>
+  <si>
+    <t>爬爬服</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/525047668329.html?spm=a261y.7663282.0.0.tkCnpt</t>
+  </si>
+  <si>
+    <t>国际运费 1kg/￥</t>
+  </si>
+  <si>
+    <t>国际运费折扣</t>
+  </si>
+  <si>
+    <t>挂号费</t>
   </si>
   <si>
     <t>汇率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wish售价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速卖通售价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国际运费折扣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品折扣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挂号费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重量/kg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>速卖通费率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国际运费 1kg/￥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>wish费率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进货价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速卖通标价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wish标价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得售价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成本/￥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>利润</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tina</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jerry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爬爬服</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="8">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="177" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -151,29 +133,349 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -181,12 +483,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -197,36 +738,82 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -248,15 +835,53 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="171450"/>
-          <a:ext cx="2173209" cy="1095375"/>
+          <a:off x="0" y="177800"/>
+          <a:ext cx="1007110" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>32385</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>855980</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>941705</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="首图"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32385" y="1397000"/>
+          <a:ext cx="823595" cy="817880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -552,25 +1177,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q4" sqref="Q4"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
-    <col min="2" max="3" width="18.75" customWidth="1"/>
-    <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="10.875" customWidth="1"/>
-    <col min="10" max="10" width="12.375" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="13" max="13" width="12.625" customWidth="1"/>
-    <col min="14" max="16" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1272727272727" customWidth="1"/>
+    <col min="2" max="2" width="9.54545454545454" customWidth="1"/>
+    <col min="3" max="3" width="9.63636363636364" customWidth="1"/>
+    <col min="4" max="4" width="7.72727272727273" customWidth="1"/>
+    <col min="5" max="5" width="8.18181818181818" customWidth="1"/>
+    <col min="6" max="6" width="9.81818181818182" customWidth="1"/>
+    <col min="7" max="7" width="8.27272727272727" customWidth="1"/>
+    <col min="10" max="10" width="11.2727272727273" customWidth="1"/>
+    <col min="11" max="11" width="11.0909090909091" customWidth="1"/>
+    <col min="12" max="12" width="7.63636363636364" customWidth="1"/>
+    <col min="13" max="13" width="11.9090909090909" customWidth="1"/>
+    <col min="14" max="15" width="11.6272727272727" customWidth="1"/>
+    <col min="16" max="16" width="7.54545454545455" customWidth="1"/>
+    <col min="17" max="17" width="6.45454545454545" customWidth="1"/>
+    <col min="18" max="18" width="6.81818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -581,63 +1214,63 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="2" spans="1:18" ht="86.25" customHeight="1">
+    <row r="2" ht="86.25" customHeight="1" spans="2:18">
       <c r="B2">
         <v>16072601</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>33</v>
@@ -654,33 +1287,33 @@
       <c r="I2" s="1">
         <v>0.15</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <f>(E2+F2+($K$19*H2+$M$19)*$L$19)/(1-G2)/(1-$O$19)/(1-I2)/$N$19</f>
-        <v>16.551896675735684</v>
-      </c>
-      <c r="K2" s="5">
+        <v>16.5518966757357</v>
+      </c>
+      <c r="K2" s="4">
         <f>(E2+F2+($K$19*H2+$M$19)*$L$19)/(1-G2)/(1-$P$19)/(1-I2)/$N$19</f>
-        <v>18.49917863758694</v>
+        <v>18.4991786375869</v>
       </c>
       <c r="L2">
         <f>E2+F2+($K$19*H2+$M$19)*$L$19</f>
         <v>66.16</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="5">
         <f>L2/(1-G2)/(1-$O$19)/$N$19</f>
-        <v>14.069112174375331</v>
-      </c>
-      <c r="N2" s="6">
+        <v>14.0691121743753</v>
+      </c>
+      <c r="N2" s="5">
         <f>L2/(1-G2)/(1-$P$19)/$N$19</f>
         <v>15.7243018419489</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="5">
         <f>L2/(1-G2)/$N$19</f>
-        <v>13.365656565656565</v>
-      </c>
-      <c r="P2" s="3">
+        <v>13.3656565656566</v>
+      </c>
+      <c r="P2" s="6">
         <f>O2*$N$19-L2</f>
-        <v>22.053333333333327</v>
+        <v>22.0533333333333</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -689,52 +1322,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="86.25" customHeight="1">
+    <row r="3" ht="86.25" customHeight="1" spans="2:16">
+      <c r="B3">
+        <v>16072701</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
       <c r="E3">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1">
         <v>0.25</v>
       </c>
       <c r="H3" s="2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I3" s="1">
         <v>0.25</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <f>(E3+F3+($K$19*H3+$M$19)*$L$19)/(1-G3)/(1-$O$19)/(1-I3)/$N$19</f>
-        <v>21.59418748892433</v>
-      </c>
-      <c r="K3" s="5">
+        <v>10.7630692893851</v>
+      </c>
+      <c r="K3" s="4">
         <f>(E3+F3+($K$19*H3+$M$19)*$L$19)/(1-G3)/(1-$P$19)/(1-I3)/$N$19</f>
-        <v>24.134680134680135</v>
+        <v>12.0293127351951</v>
       </c>
       <c r="L3">
         <f>E3+F3+($K$19*H3+$M$19)*$L$19</f>
-        <v>76.16</v>
-      </c>
-      <c r="M3" s="6">
+        <v>37.96</v>
+      </c>
+      <c r="M3" s="5">
         <f>L3/(1-G3)/(1-$O$19)/$N$19</f>
-        <v>16.19564061669325</v>
-      </c>
-      <c r="N3" s="6">
+        <v>8.07230196703881</v>
+      </c>
+      <c r="N3" s="5">
         <f>L3/(1-G3)/(1-$P$19)/$N$19</f>
-        <v>18.101010101010104</v>
-      </c>
-      <c r="O3" s="6">
+        <v>9.02198455139632</v>
+      </c>
+      <c r="O3" s="5">
         <f>L3/(1-G3)/$N$19</f>
-        <v>15.385858585858587</v>
-      </c>
-      <c r="P3" s="3">
+        <v>7.66868686868687</v>
+      </c>
+      <c r="P3" s="6">
         <f>O3*$N$19-L3</f>
-        <v>25.38666666666667</v>
+        <v>12.6533333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="69.75" customHeight="1">
+    <row r="4" ht="69.75" customHeight="1" spans="5:16">
       <c r="E4">
         <v>16</v>
       </c>
@@ -750,56 +1392,56 @@
       <c r="I4" s="1">
         <v>0</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <f>(E4+F4+($K$19*H4+$M$19)*$L$19)/(1-G4)/(1-$O$19)/(1-I4)/$N$19</f>
-        <v>20.839978734715576</v>
-      </c>
-      <c r="K4" s="5">
+        <v>20.8399787347156</v>
+      </c>
+      <c r="K4" s="4">
         <f>(E4+F4+($K$19*H4+$M$19)*$L$19)/(1-G4)/(1-$P$19)/(1-I4)/$N$19</f>
-        <v>23.291740938799762</v>
+        <v>23.2917409387998</v>
       </c>
       <c r="L4">
         <f>E4+F4+($K$19*H4+$M$19)*$L$19</f>
         <v>98</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <f>L4/(1-G4)/(1-$O$19)/$N$19</f>
-        <v>20.839978734715576</v>
-      </c>
-      <c r="N4" s="6">
+        <v>20.8399787347156</v>
+      </c>
+      <c r="N4" s="5">
         <f>L4/(1-G4)/(1-$P$19)/$N$19</f>
-        <v>23.291740938799762</v>
-      </c>
-      <c r="O4" s="6">
+        <v>23.2917409387998</v>
+      </c>
+      <c r="O4" s="5">
         <f>L4/(1-G4)/$N$19</f>
-        <v>19.797979797979799</v>
-      </c>
-      <c r="P4" s="3">
+        <v>19.7979797979798</v>
+      </c>
+      <c r="P4" s="6">
         <f>O4*$N$19-L4</f>
-        <v>32.666666666666657</v>
+        <v>32.6666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:1">
       <c r="A6" s="2"/>
     </row>
     <row r="18" spans="11:16">
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="11:16">
@@ -823,48 +1465,57 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C6">
+      <formula1>"爬爬服,婴儿套装"</formula1>
+    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C7:C15">
       <formula1>"爬爬服"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6">
-      <formula1>"爬爬服,婴儿套装"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
+      <formula1>"爬爬服,婴儿套装,连衣裙,外套,鞋子"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q5 R2:R4">
       <formula1>"0,1"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/产品表单.xlsx
+++ b/产品表单.xlsx
@@ -104,16 +104,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="177" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,14 +131,62 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,15 +208,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -198,7 +253,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,76 +261,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,115 +283,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,67 +463,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,30 +474,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -523,17 +492,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,9 +518,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,164 +574,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -738,19 +731,19 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1181,10 +1174,10 @@
   <sheetPr/>
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1322,7 +1315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="86.25" customHeight="1" spans="2:16">
+    <row r="3" ht="86.25" customHeight="1" spans="2:18">
       <c r="B3">
         <v>16072701</v>
       </c>
@@ -1374,6 +1367,12 @@
       <c r="P3" s="6">
         <f>O3*$N$19-L3</f>
         <v>12.6533333333333</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="69.75" customHeight="1" spans="5:16">
@@ -1466,14 +1465,14 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C6">
-      <formula1>"爬爬服,婴儿套装"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
+      <formula1>"爬爬服,婴儿套装,连衣裙,外套,鞋子"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C7:C15">
       <formula1>"爬爬服"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
-      <formula1>"爬爬服,婴儿套装,连衣裙,外套,鞋子"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C6">
+      <formula1>"爬爬服,婴儿套装"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q5 R2:R4">
       <formula1>"0,1"</formula1>

--- a/产品表单.xlsx
+++ b/产品表单.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="18540" windowHeight="7730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>产品标题</t>
   </si>
@@ -97,23 +97,22 @@
   </si>
   <si>
     <t>wish费率</t>
+  </si>
+  <si>
+    <t>鞋子</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="4">
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="176" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,344 +130,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -476,251 +158,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -731,82 +174,36 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -828,7 +225,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -866,7 +263,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1170,33 +567,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="Q4" sqref="Q4"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.1272727272727" customWidth="1"/>
-    <col min="2" max="2" width="9.54545454545454" customWidth="1"/>
-    <col min="3" max="3" width="9.63636363636364" customWidth="1"/>
-    <col min="4" max="4" width="7.72727272727273" customWidth="1"/>
-    <col min="5" max="5" width="8.18181818181818" customWidth="1"/>
-    <col min="6" max="6" width="9.81818181818182" customWidth="1"/>
-    <col min="7" max="7" width="8.27272727272727" customWidth="1"/>
-    <col min="10" max="10" width="11.2727272727273" customWidth="1"/>
-    <col min="11" max="11" width="11.0909090909091" customWidth="1"/>
-    <col min="12" max="12" width="7.63636363636364" customWidth="1"/>
-    <col min="13" max="13" width="11.9090909090909" customWidth="1"/>
-    <col min="14" max="15" width="11.6272727272727" customWidth="1"/>
-    <col min="16" max="16" width="7.54545454545455" customWidth="1"/>
-    <col min="17" max="17" width="6.45454545454545" customWidth="1"/>
-    <col min="18" max="18" width="6.81818181818182" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
+    <col min="4" max="4" width="7.75" customWidth="1"/>
+    <col min="5" max="5" width="8.125" customWidth="1"/>
+    <col min="6" max="6" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="8.25" customWidth="1"/>
+    <col min="10" max="10" width="11.25" customWidth="1"/>
+    <col min="11" max="11" width="11.125" customWidth="1"/>
+    <col min="12" max="12" width="7.625" customWidth="1"/>
+    <col min="13" max="13" width="11.875" customWidth="1"/>
+    <col min="14" max="15" width="11.625" customWidth="1"/>
+    <col min="16" max="16" width="9.875" customWidth="1"/>
+    <col min="17" max="17" width="6.5" customWidth="1"/>
+    <col min="18" max="18" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -1255,7 +650,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="86.25" customHeight="1" spans="2:18">
+    <row r="2" spans="1:18" ht="86.25" customHeight="1">
       <c r="B2">
         <v>16072601</v>
       </c>
@@ -1282,11 +677,11 @@
       </c>
       <c r="J2" s="3">
         <f>(E2+F2+($K$19*H2+$M$19)*$L$19)/(1-G2)/(1-$O$19)/(1-I2)/$N$19</f>
-        <v>16.5518966757357</v>
+        <v>16.551896675735701</v>
       </c>
       <c r="K2" s="4">
         <f>(E2+F2+($K$19*H2+$M$19)*$L$19)/(1-G2)/(1-$P$19)/(1-I2)/$N$19</f>
-        <v>18.4991786375869</v>
+        <v>18.499178637586901</v>
       </c>
       <c r="L2">
         <f>E2+F2+($K$19*H2+$M$19)*$L$19</f>
@@ -1306,7 +701,7 @@
       </c>
       <c r="P2" s="6">
         <f>O2*$N$19-L2</f>
-        <v>22.0533333333333</v>
+        <v>22.053333333333299</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -1315,7 +710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="86.25" customHeight="1" spans="2:18">
+    <row r="3" spans="1:18" ht="86.25" customHeight="1">
       <c r="B3">
         <v>16072701</v>
       </c>
@@ -1342,7 +737,7 @@
       </c>
       <c r="J3" s="3">
         <f>(E3+F3+($K$19*H3+$M$19)*$L$19)/(1-G3)/(1-$O$19)/(1-I3)/$N$19</f>
-        <v>10.7630692893851</v>
+        <v>10.763069289385101</v>
       </c>
       <c r="K3" s="4">
         <f>(E3+F3+($K$19*H3+$M$19)*$L$19)/(1-G3)/(1-$P$19)/(1-I3)/$N$19</f>
@@ -1354,15 +749,15 @@
       </c>
       <c r="M3" s="5">
         <f>L3/(1-G3)/(1-$O$19)/$N$19</f>
-        <v>8.07230196703881</v>
+        <v>8.0723019670388094</v>
       </c>
       <c r="N3" s="5">
         <f>L3/(1-G3)/(1-$P$19)/$N$19</f>
-        <v>9.02198455139632</v>
+        <v>9.0219845513963204</v>
       </c>
       <c r="O3" s="5">
         <f>L3/(1-G3)/$N$19</f>
-        <v>7.66868686868687</v>
+        <v>7.6686868686868701</v>
       </c>
       <c r="P3" s="6">
         <f>O3*$N$19-L3</f>
@@ -1375,7 +770,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="69.75" customHeight="1" spans="5:16">
+    <row r="4" spans="1:18" ht="69.75" customHeight="1">
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
       <c r="E4">
         <v>16</v>
       </c>
@@ -1393,11 +791,11 @@
       </c>
       <c r="J4" s="3">
         <f>(E4+F4+($K$19*H4+$M$19)*$L$19)/(1-G4)/(1-$O$19)/(1-I4)/$N$19</f>
-        <v>20.8399787347156</v>
+        <v>20.839978734715601</v>
       </c>
       <c r="K4" s="4">
         <f>(E4+F4+($K$19*H4+$M$19)*$L$19)/(1-G4)/(1-$P$19)/(1-I4)/$N$19</f>
-        <v>23.2917409387998</v>
+        <v>23.291740938799801</v>
       </c>
       <c r="L4">
         <f>E4+F4+($K$19*H4+$M$19)*$L$19</f>
@@ -1405,22 +803,22 @@
       </c>
       <c r="M4" s="5">
         <f>L4/(1-G4)/(1-$O$19)/$N$19</f>
-        <v>20.8399787347156</v>
+        <v>20.839978734715601</v>
       </c>
       <c r="N4" s="5">
         <f>L4/(1-G4)/(1-$P$19)/$N$19</f>
-        <v>23.2917409387998</v>
+        <v>23.291740938799801</v>
       </c>
       <c r="O4" s="5">
         <f>L4/(1-G4)/$N$19</f>
-        <v>19.7979797979798</v>
+        <v>19.797979797979799</v>
       </c>
       <c r="P4" s="6">
         <f>O4*$N$19-L4</f>
         <v>32.6666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:18">
       <c r="A6" s="2"/>
     </row>
     <row r="18" spans="11:16">
@@ -1464,57 +862,51 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4">
       <formula1>"爬爬服,婴儿套装,连衣裙,外套,鞋子"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C7:C15">
       <formula1>"爬爬服"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C6">
       <formula1>"爬爬服,婴儿套装"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q5 R2:R4">
       <formula1>"0,1"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/产品表单.xlsx
+++ b/产品表单.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="7725"/>
+    <workbookView windowWidth="18540" windowHeight="7730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>产品标题</t>
   </si>
@@ -81,6 +81,12 @@
     <t>https://detail.1688.com/offer/525047668329.html?spm=a261y.7663282.0.0.tkCnpt</t>
   </si>
   <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>鞋子</t>
+  </si>
+  <si>
     <t>国际运费 1kg/￥</t>
   </si>
   <si>
@@ -97,22 +103,23 @@
   </si>
   <si>
     <t>wish费率</t>
-  </si>
-  <si>
-    <t>鞋子</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="8">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="180" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="178" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,25 +139,342 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -158,12 +482,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -174,36 +737,82 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -225,7 +834,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -263,7 +872,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:blip r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -567,31 +1176,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="14.1272727272727" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="9.625" customWidth="1"/>
-    <col min="4" max="4" width="7.75" customWidth="1"/>
-    <col min="5" max="5" width="8.125" customWidth="1"/>
-    <col min="6" max="6" width="9.875" customWidth="1"/>
-    <col min="7" max="7" width="8.25" customWidth="1"/>
-    <col min="10" max="10" width="11.25" customWidth="1"/>
-    <col min="11" max="11" width="11.125" customWidth="1"/>
-    <col min="12" max="12" width="7.625" customWidth="1"/>
-    <col min="13" max="13" width="11.875" customWidth="1"/>
-    <col min="14" max="15" width="11.625" customWidth="1"/>
-    <col min="16" max="16" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="9.62727272727273" customWidth="1"/>
+    <col min="4" max="4" width="7.75454545454545" customWidth="1"/>
+    <col min="5" max="5" width="8.12727272727273" customWidth="1"/>
+    <col min="6" max="6" width="9.87272727272727" customWidth="1"/>
+    <col min="7" max="7" width="8.25454545454545" customWidth="1"/>
+    <col min="10" max="10" width="11.2545454545455" customWidth="1"/>
+    <col min="11" max="11" width="11.1272727272727" customWidth="1"/>
+    <col min="12" max="12" width="7.62727272727273" customWidth="1"/>
+    <col min="13" max="13" width="11.8727272727273" customWidth="1"/>
+    <col min="14" max="15" width="11.6272727272727" customWidth="1"/>
+    <col min="16" max="16" width="9.87272727272727" customWidth="1"/>
     <col min="17" max="17" width="6.5" customWidth="1"/>
-    <col min="18" max="18" width="6.875" customWidth="1"/>
+    <col min="18" max="18" width="6.87272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -650,7 +1261,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="86.25" customHeight="1">
+    <row r="2" ht="86.25" customHeight="1" spans="2:18">
       <c r="B2">
         <v>16072601</v>
       </c>
@@ -677,11 +1288,11 @@
       </c>
       <c r="J2" s="3">
         <f>(E2+F2+($K$19*H2+$M$19)*$L$19)/(1-G2)/(1-$O$19)/(1-I2)/$N$19</f>
-        <v>16.551896675735701</v>
+        <v>16.5518966757357</v>
       </c>
       <c r="K2" s="4">
         <f>(E2+F2+($K$19*H2+$M$19)*$L$19)/(1-G2)/(1-$P$19)/(1-I2)/$N$19</f>
-        <v>18.499178637586901</v>
+        <v>18.4991786375869</v>
       </c>
       <c r="L2">
         <f>E2+F2+($K$19*H2+$M$19)*$L$19</f>
@@ -701,7 +1312,7 @@
       </c>
       <c r="P2" s="6">
         <f>O2*$N$19-L2</f>
-        <v>22.053333333333299</v>
+        <v>22.0533333333333</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -710,7 +1321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="86.25" customHeight="1">
+    <row r="3" ht="86.25" customHeight="1" spans="2:18">
       <c r="B3">
         <v>16072701</v>
       </c>
@@ -737,7 +1348,7 @@
       </c>
       <c r="J3" s="3">
         <f>(E3+F3+($K$19*H3+$M$19)*$L$19)/(1-G3)/(1-$O$19)/(1-I3)/$N$19</f>
-        <v>10.763069289385101</v>
+        <v>10.7630692893851</v>
       </c>
       <c r="K3" s="4">
         <f>(E3+F3+($K$19*H3+$M$19)*$L$19)/(1-G3)/(1-$P$19)/(1-I3)/$N$19</f>
@@ -749,15 +1360,15 @@
       </c>
       <c r="M3" s="5">
         <f>L3/(1-G3)/(1-$O$19)/$N$19</f>
-        <v>8.0723019670388094</v>
+        <v>8.07230196703881</v>
       </c>
       <c r="N3" s="5">
         <f>L3/(1-G3)/(1-$P$19)/$N$19</f>
-        <v>9.0219845513963204</v>
+        <v>9.02198455139632</v>
       </c>
       <c r="O3" s="5">
         <f>L3/(1-G3)/$N$19</f>
-        <v>7.6686868686868701</v>
+        <v>7.66868686868687</v>
       </c>
       <c r="P3" s="6">
         <f>O3*$N$19-L3</f>
@@ -770,9 +1381,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="69.75" customHeight="1">
+    <row r="4" ht="69.75" customHeight="1" spans="2:16">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>16</v>
@@ -791,11 +1405,11 @@
       </c>
       <c r="J4" s="3">
         <f>(E4+F4+($K$19*H4+$M$19)*$L$19)/(1-G4)/(1-$O$19)/(1-I4)/$N$19</f>
-        <v>20.839978734715601</v>
+        <v>20.8399787347156</v>
       </c>
       <c r="K4" s="4">
         <f>(E4+F4+($K$19*H4+$M$19)*$L$19)/(1-G4)/(1-$P$19)/(1-I4)/$N$19</f>
-        <v>23.291740938799801</v>
+        <v>23.2917409387998</v>
       </c>
       <c r="L4">
         <f>E4+F4+($K$19*H4+$M$19)*$L$19</f>
@@ -803,42 +1417,42 @@
       </c>
       <c r="M4" s="5">
         <f>L4/(1-G4)/(1-$O$19)/$N$19</f>
-        <v>20.839978734715601</v>
+        <v>20.8399787347156</v>
       </c>
       <c r="N4" s="5">
         <f>L4/(1-G4)/(1-$P$19)/$N$19</f>
-        <v>23.291740938799801</v>
+        <v>23.2917409387998</v>
       </c>
       <c r="O4" s="5">
         <f>L4/(1-G4)/$N$19</f>
-        <v>19.797979797979799</v>
+        <v>19.7979797979798</v>
       </c>
       <c r="P4" s="6">
         <f>O4*$N$19-L4</f>
         <v>32.6666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:1">
       <c r="A6" s="2"/>
     </row>
     <row r="18" spans="11:16">
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="11:16">
@@ -862,51 +1476,57 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4">
-      <formula1>"爬爬服,婴儿套装,连衣裙,外套,鞋子"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q5 R2:R4">
+      <formula1>"0,1"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C6">
+      <formula1>"爬爬服,婴儿套装"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C7:C15">
       <formula1>"爬爬服"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C6">
-      <formula1>"爬爬服,婴儿套装"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q5 R2:R4">
-      <formula1>"0,1"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4">
+      <formula1>"爬爬服,婴儿套装,连衣裙,外套,鞋子"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/产品表单.xlsx
+++ b/产品表单.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="18540" windowHeight="7730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>产品标题</t>
   </si>
@@ -103,23 +103,23 @@
   </si>
   <si>
     <t>wish费率</t>
+  </si>
+  <si>
+    <t>test2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="4">
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="178" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="180" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,342 +139,25 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -482,251 +165,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -737,82 +181,36 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -834,7 +232,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -872,7 +270,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1176,33 +574,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.1272727272727" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="9.62727272727273" customWidth="1"/>
-    <col min="4" max="4" width="7.75454545454545" customWidth="1"/>
-    <col min="5" max="5" width="8.12727272727273" customWidth="1"/>
-    <col min="6" max="6" width="9.87272727272727" customWidth="1"/>
-    <col min="7" max="7" width="8.25454545454545" customWidth="1"/>
-    <col min="10" max="10" width="11.2545454545455" customWidth="1"/>
-    <col min="11" max="11" width="11.1272727272727" customWidth="1"/>
-    <col min="12" max="12" width="7.62727272727273" customWidth="1"/>
-    <col min="13" max="13" width="11.8727272727273" customWidth="1"/>
-    <col min="14" max="15" width="11.6272727272727" customWidth="1"/>
-    <col min="16" max="16" width="9.87272727272727" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
+    <col min="4" max="4" width="7.75" customWidth="1"/>
+    <col min="5" max="5" width="8.125" customWidth="1"/>
+    <col min="6" max="6" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="8.25" customWidth="1"/>
+    <col min="10" max="10" width="11.25" customWidth="1"/>
+    <col min="11" max="11" width="11.125" customWidth="1"/>
+    <col min="12" max="12" width="7.625" customWidth="1"/>
+    <col min="13" max="13" width="11.875" customWidth="1"/>
+    <col min="14" max="15" width="11.625" customWidth="1"/>
+    <col min="16" max="16" width="9.875" customWidth="1"/>
     <col min="17" max="17" width="6.5" customWidth="1"/>
-    <col min="18" max="18" width="6.87272727272727" customWidth="1"/>
+    <col min="18" max="18" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -1261,7 +657,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="86.25" customHeight="1" spans="2:18">
+    <row r="2" spans="1:18" ht="86.25" customHeight="1">
       <c r="B2">
         <v>16072601</v>
       </c>
@@ -1288,11 +684,11 @@
       </c>
       <c r="J2" s="3">
         <f>(E2+F2+($K$19*H2+$M$19)*$L$19)/(1-G2)/(1-$O$19)/(1-I2)/$N$19</f>
-        <v>16.5518966757357</v>
+        <v>16.551896675735701</v>
       </c>
       <c r="K2" s="4">
         <f>(E2+F2+($K$19*H2+$M$19)*$L$19)/(1-G2)/(1-$P$19)/(1-I2)/$N$19</f>
-        <v>18.4991786375869</v>
+        <v>18.499178637586901</v>
       </c>
       <c r="L2">
         <f>E2+F2+($K$19*H2+$M$19)*$L$19</f>
@@ -1312,7 +708,7 @@
       </c>
       <c r="P2" s="6">
         <f>O2*$N$19-L2</f>
-        <v>22.0533333333333</v>
+        <v>22.053333333333299</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -1321,7 +717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="86.25" customHeight="1" spans="2:18">
+    <row r="3" spans="1:18" ht="86.25" customHeight="1">
       <c r="B3">
         <v>16072701</v>
       </c>
@@ -1348,7 +744,7 @@
       </c>
       <c r="J3" s="3">
         <f>(E3+F3+($K$19*H3+$M$19)*$L$19)/(1-G3)/(1-$O$19)/(1-I3)/$N$19</f>
-        <v>10.7630692893851</v>
+        <v>10.763069289385101</v>
       </c>
       <c r="K3" s="4">
         <f>(E3+F3+($K$19*H3+$M$19)*$L$19)/(1-G3)/(1-$P$19)/(1-I3)/$N$19</f>
@@ -1360,15 +756,15 @@
       </c>
       <c r="M3" s="5">
         <f>L3/(1-G3)/(1-$O$19)/$N$19</f>
-        <v>8.07230196703881</v>
+        <v>8.0723019670388094</v>
       </c>
       <c r="N3" s="5">
         <f>L3/(1-G3)/(1-$P$19)/$N$19</f>
-        <v>9.02198455139632</v>
+        <v>9.0219845513963204</v>
       </c>
       <c r="O3" s="5">
         <f>L3/(1-G3)/$N$19</f>
-        <v>7.66868686868687</v>
+        <v>7.6686868686868701</v>
       </c>
       <c r="P3" s="6">
         <f>O3*$N$19-L3</f>
@@ -1381,7 +777,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="69.75" customHeight="1" spans="2:16">
+    <row r="4" spans="1:18" ht="69.75" customHeight="1">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
@@ -1405,11 +804,11 @@
       </c>
       <c r="J4" s="3">
         <f>(E4+F4+($K$19*H4+$M$19)*$L$19)/(1-G4)/(1-$O$19)/(1-I4)/$N$19</f>
-        <v>20.8399787347156</v>
+        <v>20.839978734715601</v>
       </c>
       <c r="K4" s="4">
         <f>(E4+F4+($K$19*H4+$M$19)*$L$19)/(1-G4)/(1-$P$19)/(1-I4)/$N$19</f>
-        <v>23.2917409387998</v>
+        <v>23.291740938799801</v>
       </c>
       <c r="L4">
         <f>E4+F4+($K$19*H4+$M$19)*$L$19</f>
@@ -1417,22 +816,22 @@
       </c>
       <c r="M4" s="5">
         <f>L4/(1-G4)/(1-$O$19)/$N$19</f>
-        <v>20.8399787347156</v>
+        <v>20.839978734715601</v>
       </c>
       <c r="N4" s="5">
         <f>L4/(1-G4)/(1-$P$19)/$N$19</f>
-        <v>23.2917409387998</v>
+        <v>23.291740938799801</v>
       </c>
       <c r="O4" s="5">
         <f>L4/(1-G4)/$N$19</f>
-        <v>19.7979797979798</v>
+        <v>19.797979797979799</v>
       </c>
       <c r="P4" s="6">
         <f>O4*$N$19-L4</f>
         <v>32.6666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:18">
       <c r="A6" s="2"/>
     </row>
     <row r="18" spans="11:16">
@@ -1476,6 +875,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q5 R2:R4">
       <formula1>"0,1"</formula1>
@@ -1490,43 +890,36 @@
       <formula1>"爬爬服,婴儿套装,连衣裙,外套,鞋子"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/产品表单.xlsx
+++ b/产品表单.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="7725"/>
+    <workbookView windowWidth="19100" windowHeight="7730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>产品标题</t>
   </si>
@@ -81,12 +81,18 @@
     <t>https://detail.1688.com/offer/525047668329.html?spm=a261y.7663282.0.0.tkCnpt</t>
   </si>
   <si>
-    <t>test</t>
+    <t>连衣裙</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/532946594199.html?spm=a2615.7691456.0.0.KfqxAP</t>
   </si>
   <si>
     <t>鞋子</t>
   </si>
   <si>
+    <t>https://detail.1688.com/offer/43388465240.html?spm=a2615.7691456.0.0.SVo0SF</t>
+  </si>
+  <si>
     <t>国际运费 1kg/￥</t>
   </si>
   <si>
@@ -103,23 +109,23 @@
   </si>
   <si>
     <t>wish费率</t>
-  </si>
-  <si>
-    <t>test2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="8">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="180" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
+    <numFmt numFmtId="178" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +134,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -137,27 +151,342 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -165,52 +494,343 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -232,7 +852,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -270,7 +890,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:blip r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -279,6 +899,82 @@
         <a:xfrm>
           <a:off x="32385" y="1397000"/>
           <a:ext cx="823595" cy="817880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>185420</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>81915</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>884555</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>803910</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="746-20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="185420" y="2450465"/>
+          <a:ext cx="699135" cy="721995"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>953135</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4" descr="1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635" y="3330575"/>
+          <a:ext cx="923290" cy="876935"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -574,31 +1270,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="14.1272727272727" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="9.625" customWidth="1"/>
-    <col min="4" max="4" width="7.75" customWidth="1"/>
-    <col min="5" max="5" width="8.125" customWidth="1"/>
-    <col min="6" max="6" width="9.875" customWidth="1"/>
-    <col min="7" max="7" width="8.25" customWidth="1"/>
-    <col min="10" max="10" width="11.25" customWidth="1"/>
-    <col min="11" max="11" width="11.125" customWidth="1"/>
-    <col min="12" max="12" width="7.625" customWidth="1"/>
-    <col min="13" max="13" width="11.875" customWidth="1"/>
-    <col min="14" max="15" width="11.625" customWidth="1"/>
-    <col min="16" max="16" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="9.62727272727273" customWidth="1"/>
+    <col min="4" max="4" width="7.75454545454545" customWidth="1"/>
+    <col min="5" max="5" width="8.12727272727273" customWidth="1"/>
+    <col min="6" max="6" width="9.87272727272727" customWidth="1"/>
+    <col min="7" max="7" width="8.25454545454545" customWidth="1"/>
+    <col min="10" max="10" width="11.2545454545455" customWidth="1"/>
+    <col min="11" max="11" width="11.1272727272727" customWidth="1"/>
+    <col min="12" max="12" width="7.62727272727273" customWidth="1"/>
+    <col min="13" max="13" width="11.8727272727273" customWidth="1"/>
+    <col min="14" max="15" width="11.6272727272727" customWidth="1"/>
+    <col min="16" max="16" width="9.87272727272727" customWidth="1"/>
     <col min="17" max="17" width="6.5" customWidth="1"/>
-    <col min="18" max="18" width="6.875" customWidth="1"/>
+    <col min="18" max="18" width="6.87272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -614,19 +1312,19 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -657,7 +1355,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="86.25" customHeight="1">
+    <row r="2" ht="86.25" customHeight="1" spans="2:18">
       <c r="B2">
         <v>16072601</v>
       </c>
@@ -673,42 +1371,42 @@
       <c r="F2">
         <v>2</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>0.25</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="3">
         <v>0.3</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="2">
         <v>0.15</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="5">
         <f>(E2+F2+($K$19*H2+$M$19)*$L$19)/(1-G2)/(1-$O$19)/(1-I2)/$N$19</f>
-        <v>16.551896675735701</v>
-      </c>
-      <c r="K2" s="4">
+        <v>16.5518966757357</v>
+      </c>
+      <c r="K2" s="6">
         <f>(E2+F2+($K$19*H2+$M$19)*$L$19)/(1-G2)/(1-$P$19)/(1-I2)/$N$19</f>
-        <v>18.499178637586901</v>
+        <v>18.4991786375869</v>
       </c>
       <c r="L2">
         <f>E2+F2+($K$19*H2+$M$19)*$L$19</f>
         <v>66.16</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="7">
         <f>L2/(1-G2)/(1-$O$19)/$N$19</f>
         <v>14.0691121743753</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="7">
         <f>L2/(1-G2)/(1-$P$19)/$N$19</f>
         <v>15.7243018419489</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="7">
         <f>L2/(1-G2)/$N$19</f>
         <v>13.3656565656566</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="8">
         <f>O2*$N$19-L2</f>
-        <v>22.053333333333299</v>
+        <v>22.0533333333333</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -717,7 +1415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="86.25" customHeight="1">
+    <row r="3" ht="86.25" customHeight="1" spans="2:18">
       <c r="B3">
         <v>16072701</v>
       </c>
@@ -733,20 +1431,20 @@
       <c r="F3">
         <v>3</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>0.25</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <v>0.2</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <v>0.25</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="5">
         <f>(E3+F3+($K$19*H3+$M$19)*$L$19)/(1-G3)/(1-$O$19)/(1-I3)/$N$19</f>
-        <v>10.763069289385101</v>
-      </c>
-      <c r="K3" s="4">
+        <v>10.7630692893851</v>
+      </c>
+      <c r="K3" s="6">
         <f>(E3+F3+($K$19*H3+$M$19)*$L$19)/(1-G3)/(1-$P$19)/(1-I3)/$N$19</f>
         <v>12.0293127351951</v>
       </c>
@@ -754,19 +1452,19 @@
         <f>E3+F3+($K$19*H3+$M$19)*$L$19</f>
         <v>37.96</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="7">
         <f>L3/(1-G3)/(1-$O$19)/$N$19</f>
-        <v>8.0723019670388094</v>
-      </c>
-      <c r="N3" s="5">
+        <v>8.07230196703881</v>
+      </c>
+      <c r="N3" s="7">
         <f>L3/(1-G3)/(1-$P$19)/$N$19</f>
-        <v>9.0219845513963204</v>
-      </c>
-      <c r="O3" s="5">
+        <v>9.02198455139632</v>
+      </c>
+      <c r="O3" s="7">
         <f>L3/(1-G3)/$N$19</f>
-        <v>7.6686868686868701</v>
-      </c>
-      <c r="P3" s="6">
+        <v>7.66868686868687</v>
+      </c>
+      <c r="P3" s="8">
         <f>O3*$N$19-L3</f>
         <v>12.6533333333333</v>
       </c>
@@ -777,88 +1475,154 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="69.75" customHeight="1">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" ht="69.75" customHeight="1" spans="2:18">
+      <c r="B4">
+        <v>16072901</v>
+      </c>
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2">
         <v>0.25</v>
       </c>
       <c r="H4">
-        <v>0.92</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="J4" s="5">
         <f>(E4+F4+($K$19*H4+$M$19)*$L$19)/(1-G4)/(1-$O$19)/(1-I4)/$N$19</f>
-        <v>20.839978734715601</v>
-      </c>
-      <c r="K4" s="4">
+        <v>18.8228146122883</v>
+      </c>
+      <c r="K4" s="6">
         <f>(E4+F4+($K$19*H4+$M$19)*$L$19)/(1-G4)/(1-$P$19)/(1-I4)/$N$19</f>
-        <v>23.291740938799801</v>
+        <v>21.0372633902046</v>
       </c>
       <c r="L4">
         <f>E4+F4+($K$19*H4+$M$19)*$L$19</f>
-        <v>98</v>
-      </c>
-      <c r="M4" s="5">
+        <v>61.96</v>
+      </c>
+      <c r="M4" s="7">
         <f>L4/(1-G4)/(1-$O$19)/$N$19</f>
-        <v>20.839978734715601</v>
-      </c>
-      <c r="N4" s="5">
+        <v>13.1759702286018</v>
+      </c>
+      <c r="N4" s="7">
         <f>L4/(1-G4)/(1-$P$19)/$N$19</f>
-        <v>23.291740938799801</v>
-      </c>
-      <c r="O4" s="5">
+        <v>14.7260843731432</v>
+      </c>
+      <c r="O4" s="7">
         <f>L4/(1-G4)/$N$19</f>
-        <v>19.797979797979799</v>
-      </c>
-      <c r="P4" s="6">
+        <v>12.5171717171717</v>
+      </c>
+      <c r="P4" s="8">
         <f>O4*$N$19-L4</f>
-        <v>32.6666666666667</v>
+        <v>20.6533333333333</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="2"/>
+    <row r="5" ht="78" customHeight="1" spans="2:18">
+      <c r="B5">
+        <v>16073001</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>27</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H5">
+        <v>0.4</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="J5" s="5">
+        <f>(E5+F5+($K$19*H5+$M$19)*$L$19)/(1-G5)/(1-$O$19)/(1-I5)/$N$19</f>
+        <v>17.8528317228008</v>
+      </c>
+      <c r="K5" s="6">
+        <f>(E5+F5+($K$19*H5+$M$19)*$L$19)/(1-G5)/(1-$P$19)/(1-I5)/$N$19</f>
+        <v>19.9531648666597</v>
+      </c>
+      <c r="L5">
+        <f>E5+F5+($K$19*H5+$M$19)*$L$19</f>
+        <v>71.36</v>
+      </c>
+      <c r="M5" s="7">
+        <f>L5/(1-G5)/(1-$O$19)/$N$19</f>
+        <v>15.1749069643806</v>
+      </c>
+      <c r="N5" s="7">
+        <f>L5/(1-G5)/(1-$P$19)/$N$19</f>
+        <v>16.9601901366607</v>
+      </c>
+      <c r="O5" s="7">
+        <f>L5/(1-G5)/$N$19</f>
+        <v>14.4161616161616</v>
+      </c>
+      <c r="P5" s="8">
+        <f>O5*$N$19-L5</f>
+        <v>23.7866666666667</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3"/>
     </row>
     <row r="18" spans="11:16">
-      <c r="K18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M18" s="7" t="s">
+      <c r="K18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="L18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="O18" s="7" t="s">
+      <c r="M18" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="N18" s="9" t="s">
         <v>28</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="11:16">
-      <c r="K19" s="2">
+      <c r="K19" s="3">
         <v>100</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="2">
         <v>0.82</v>
       </c>
       <c r="M19">
@@ -867,59 +1631,68 @@
       <c r="N19">
         <v>6.6</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="2">
         <v>0.05</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="2">
         <v>0.15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C7:C15">
+      <formula1>"爬爬服"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
+      <formula1>"爬爬服,婴儿套装"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3 C4:C5">
+      <formula1>"爬爬服,婴儿套装,连衣裙,外套,鞋子"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q5 R2:R4">
       <formula1>"0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C6">
-      <formula1>"爬爬服,婴儿套装"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C7:C15">
-      <formula1>"爬爬服"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4">
-      <formula1>"爬爬服,婴儿套装,连衣裙,外套,鞋子"</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId2" display="https://detail.1688.com/offer/43388465240.html?spm=a2615.7691456.0.0.SVo0SF"/>
+  </hyperlinks>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/产品表单.xlsx
+++ b/产品表单.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="7725"/>
+    <workbookView windowWidth="19100" windowHeight="7730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>产品标题</t>
   </si>
@@ -84,9 +84,24 @@
     <t>连衣裙</t>
   </si>
   <si>
+    <t>https://detail.1688.com/offer/532946594199.html?spm=a2615.7691456.0.0.KfqxAP</t>
+  </si>
+  <si>
     <t>鞋子</t>
   </si>
   <si>
+    <t>https://detail.1688.com/offer/43388465240.html?spm=a2615.7691456.0.0.SVo0SF</t>
+  </si>
+  <si>
+    <t>套装</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a230r.1.0.0.NVkYXr&amp;id=535812571550&amp;ns=1#detail</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/40271270024.html?spm=a2615.7691456.0.0.cNqYof</t>
+  </si>
+  <si>
     <t>国际运费 1kg/￥</t>
   </si>
   <si>
@@ -103,34 +118,23 @@
   </si>
   <si>
     <t>wish费率</t>
-  </si>
-  <si>
-    <t>套装</t>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?spm=a230r.1.0.0.NVkYXr&amp;id=535812571550&amp;ns=1#detail</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/43388465240.html?spm=a2615.7691456.0.0.SVo0SF</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/532946594199.html?spm=a2615.7691456.0.0.KfqxAP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="8">
+    <numFmt numFmtId="176" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="180" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,29 +159,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,8 +316,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -199,15 +511,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -215,58 +763,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="百分比" xfId="2" builtinId="5"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -288,7 +881,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -326,7 +919,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:blip r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -364,7 +957,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:blip r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -402,7 +995,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:blip r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -440,15 +1033,53 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:blip r:embed="rId5" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="4238625"/>
-          <a:ext cx="901931" cy="906087"/>
+          <a:off x="0" y="4244975"/>
+          <a:ext cx="901700" cy="905510"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>843280</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>842010</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6" descr="小图03"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="44450" y="5305425"/>
+          <a:ext cx="798830" cy="772160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -744,448 +1375,485 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="14.1272727272727" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="9.625" customWidth="1"/>
-    <col min="4" max="4" width="7.75" customWidth="1"/>
-    <col min="5" max="5" width="8.125" customWidth="1"/>
-    <col min="6" max="6" width="9.875" customWidth="1"/>
-    <col min="7" max="7" width="8.25" customWidth="1"/>
-    <col min="10" max="10" width="11.25" customWidth="1"/>
-    <col min="11" max="11" width="11.125" customWidth="1"/>
-    <col min="12" max="12" width="7.625" customWidth="1"/>
-    <col min="13" max="13" width="11.875" customWidth="1"/>
-    <col min="14" max="15" width="11.625" customWidth="1"/>
-    <col min="16" max="16" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="9.62727272727273" customWidth="1"/>
+    <col min="4" max="4" width="7.75454545454545" customWidth="1"/>
+    <col min="5" max="5" width="8.12727272727273" customWidth="1"/>
+    <col min="6" max="6" width="9.87272727272727" customWidth="1"/>
+    <col min="7" max="7" width="8.25454545454545" customWidth="1"/>
+    <col min="10" max="10" width="11.2545454545455" customWidth="1"/>
+    <col min="11" max="11" width="11.1272727272727" customWidth="1"/>
+    <col min="12" max="12" width="7.62727272727273" customWidth="1"/>
+    <col min="13" max="13" width="11.8727272727273" customWidth="1"/>
+    <col min="14" max="15" width="11.6272727272727" customWidth="1"/>
+    <col min="16" max="16" width="9.87272727272727" customWidth="1"/>
     <col min="17" max="17" width="6.5" customWidth="1"/>
-    <col min="18" max="18" width="6.875" customWidth="1"/>
+    <col min="18" max="18" width="6.87272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="86.25" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5">
+    <row r="2" ht="86.25" customHeight="1" spans="1:18">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1">
         <v>16072601</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="1">
         <v>33</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="1">
         <v>2</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="3">
         <v>0.25</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="4">
         <v>0.3</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="3">
         <v>0.15</v>
       </c>
-      <c r="J2" s="9">
-        <f>(E2+F2+($K$19*H2+$M$19)*$L$19)/(1-G2)/(1-$O$19)/(1-I2)/$N$19</f>
-        <v>16.551896675735701</v>
-      </c>
-      <c r="K2" s="10">
-        <f>(E2+F2+($K$19*H2+$M$19)*$L$19)/(1-G2)/(1-$P$19)/(1-I2)/$N$19</f>
-        <v>18.499178637586901</v>
-      </c>
-      <c r="L2" s="5">
-        <f>E2+F2+($K$19*H2+$M$19)*$L$19</f>
+      <c r="J2" s="6">
+        <f t="shared" ref="J2:J6" si="0">(E2+F2+($K$19*H2+$M$19)*$L$19)/(1-G2)/(1-$O$19)/(1-I2)/$N$19</f>
+        <v>16.5518966757357</v>
+      </c>
+      <c r="K2" s="7">
+        <f t="shared" ref="K2:K6" si="1">(E2+F2+($K$19*H2+$M$19)*$L$19)/(1-G2)/(1-$P$19)/(1-I2)/$N$19</f>
+        <v>18.4991786375869</v>
+      </c>
+      <c r="L2" s="1">
+        <f t="shared" ref="L2:L6" si="2">E2+F2+($K$19*H2+$M$19)*$L$19</f>
         <v>66.16</v>
       </c>
-      <c r="M2" s="11">
-        <f>L2/(1-G2)/(1-$O$19)/$N$19</f>
+      <c r="M2" s="8">
+        <f t="shared" ref="M2:M6" si="3">L2/(1-G2)/(1-$O$19)/$N$19</f>
         <v>14.0691121743753</v>
       </c>
-      <c r="N2" s="11">
-        <f>L2/(1-G2)/(1-$P$19)/$N$19</f>
+      <c r="N2" s="8">
+        <f t="shared" ref="N2:N6" si="4">L2/(1-G2)/(1-$P$19)/$N$19</f>
         <v>15.7243018419489</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="8">
         <f>L2/(1-G2)/$N$19</f>
         <v>13.3656565656566</v>
       </c>
-      <c r="P2" s="12">
+      <c r="P2" s="9">
         <f>O2*$N$19-L2</f>
-        <v>22.053333333333299</v>
-      </c>
-      <c r="Q2" s="5">
+        <v>22.0533333333333</v>
+      </c>
+      <c r="Q2" s="1">
         <v>1</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="86.25" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5">
+    <row r="3" ht="86.25" customHeight="1" spans="1:18">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1">
         <v>16072701</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="1">
         <v>12</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="1">
         <v>3</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="3">
         <v>0.25</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="4">
         <v>0.2</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="3">
         <v>0.25</v>
       </c>
-      <c r="J3" s="9">
-        <f>(E3+F3+($K$19*H3+$M$19)*$L$19)/(1-G3)/(1-$O$19)/(1-I3)/$N$19</f>
-        <v>10.763069289385101</v>
-      </c>
-      <c r="K3" s="10">
-        <f>(E3+F3+($K$19*H3+$M$19)*$L$19)/(1-G3)/(1-$P$19)/(1-I3)/$N$19</f>
+      <c r="J3" s="6">
+        <f t="shared" si="0"/>
+        <v>10.7630692893851</v>
+      </c>
+      <c r="K3" s="7">
+        <f t="shared" si="1"/>
         <v>12.0293127351951</v>
       </c>
-      <c r="L3" s="5">
-        <f>E3+F3+($K$19*H3+$M$19)*$L$19</f>
+      <c r="L3" s="1">
+        <f t="shared" si="2"/>
         <v>37.96</v>
       </c>
-      <c r="M3" s="11">
-        <f>L3/(1-G3)/(1-$O$19)/$N$19</f>
-        <v>8.0723019670388094</v>
-      </c>
-      <c r="N3" s="11">
-        <f>L3/(1-G3)/(1-$P$19)/$N$19</f>
-        <v>9.0219845513963204</v>
-      </c>
-      <c r="O3" s="11">
+      <c r="M3" s="8">
+        <f t="shared" si="3"/>
+        <v>8.07230196703881</v>
+      </c>
+      <c r="N3" s="8">
+        <f t="shared" si="4"/>
+        <v>9.02198455139632</v>
+      </c>
+      <c r="O3" s="8">
         <f>L3/(1-G3)/$N$19</f>
-        <v>7.6686868686868701</v>
-      </c>
-      <c r="P3" s="12">
+        <v>7.66868686868687</v>
+      </c>
+      <c r="P3" s="9">
         <f>O3*$N$19-L3</f>
         <v>12.6533333333333</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="1">
         <v>1</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="69.75" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5">
+    <row r="4" ht="69.75" customHeight="1" spans="1:18">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
         <v>16072901</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="D4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1">
         <v>34</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="1">
         <v>5</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="3">
         <v>0.25</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="1">
         <v>0.2</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="3">
         <v>0.3</v>
       </c>
-      <c r="J4" s="9">
-        <f>(E4+F4+($K$19*H4+$M$19)*$L$19)/(1-G4)/(1-$O$19)/(1-I4)/$N$19</f>
-        <v>18.822814612288301</v>
-      </c>
-      <c r="K4" s="10">
-        <f>(E4+F4+($K$19*H4+$M$19)*$L$19)/(1-G4)/(1-$P$19)/(1-I4)/$N$19</f>
+      <c r="J4" s="6">
+        <f t="shared" si="0"/>
+        <v>18.8228146122883</v>
+      </c>
+      <c r="K4" s="7">
+        <f t="shared" si="1"/>
         <v>21.0372633902046</v>
       </c>
-      <c r="L4" s="5">
-        <f>E4+F4+($K$19*H4+$M$19)*$L$19</f>
+      <c r="L4" s="1">
+        <f t="shared" si="2"/>
         <v>61.96</v>
       </c>
-      <c r="M4" s="11">
-        <f>L4/(1-G4)/(1-$O$19)/$N$19</f>
+      <c r="M4" s="8">
+        <f t="shared" si="3"/>
         <v>13.1759702286018</v>
       </c>
-      <c r="N4" s="11">
-        <f>L4/(1-G4)/(1-$P$19)/$N$19</f>
+      <c r="N4" s="8">
+        <f t="shared" si="4"/>
         <v>14.7260843731432</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="8">
         <f>L4/(1-G4)/$N$19</f>
-        <v>12.517171717171699</v>
-      </c>
-      <c r="P4" s="12">
+        <v>12.5171717171717</v>
+      </c>
+      <c r="P4" s="9">
         <f>O4*$N$19-L4</f>
         <v>20.6533333333333</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="1">
         <v>1</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="78" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5">
+    <row r="5" ht="78" customHeight="1" spans="1:18">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1">
         <v>16073001</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="J5" s="6">
+        <f t="shared" si="0"/>
+        <v>17.8528317228008</v>
+      </c>
+      <c r="K5" s="7">
+        <f t="shared" si="1"/>
+        <v>19.9531648666597</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="2"/>
+        <v>71.36</v>
+      </c>
+      <c r="M5" s="8">
+        <f t="shared" si="3"/>
+        <v>15.1749069643806</v>
+      </c>
+      <c r="N5" s="8">
+        <f t="shared" si="4"/>
+        <v>16.9601901366607</v>
+      </c>
+      <c r="O5" s="8">
+        <f>L5/(1-G5)/$N$19</f>
+        <v>14.4161616161616</v>
+      </c>
+      <c r="P5" s="9">
+        <f>O5*$N$19-L5</f>
+        <v>23.7866666666667</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="78" customHeight="1" spans="1:19">
+      <c r="A6" s="4"/>
+      <c r="B6" s="1">
+        <v>16073002</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1">
         <v>31</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" si="0"/>
+        <v>15.0483159771085</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="1"/>
+        <v>16.8187060920625</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="2"/>
+        <v>64.16</v>
+      </c>
+      <c r="M6" s="8">
+        <f t="shared" si="3"/>
+        <v>12.7910685805423</v>
+      </c>
+      <c r="N6" s="8">
+        <f t="shared" si="4"/>
+        <v>14.2959001782531</v>
+      </c>
+      <c r="O6" s="8">
+        <f t="shared" ref="O6:O7" si="5">L6/(1-G6)/$N$19</f>
+        <v>12.1515151515152</v>
+      </c>
+      <c r="P6" s="9">
+        <f t="shared" ref="P6:P7" si="6">O6*$N$19-L6</f>
+        <v>16.04</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" ht="69" customHeight="1" spans="1:18">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1">
+        <v>16080301</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="5">
+      <c r="E7" s="1">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1">
         <v>5</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G7" s="3">
         <v>0.25</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H7" s="1">
         <v>0.4</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I7" s="3">
         <v>0.15</v>
       </c>
-      <c r="J5" s="9">
-        <f>(E5+F5+($K$19*H5+$M$19)*$L$19)/(1-G5)/(1-$O$19)/(1-I5)/$N$19</f>
-        <v>17.852831722800801</v>
-      </c>
-      <c r="K5" s="10">
-        <f>(E5+F5+($K$19*H5+$M$19)*$L$19)/(1-G5)/(1-$P$19)/(1-I5)/$N$19</f>
-        <v>19.953164866659701</v>
-      </c>
-      <c r="L5" s="5">
-        <f>E5+F5+($K$19*H5+$M$19)*$L$19</f>
-        <v>71.36</v>
-      </c>
-      <c r="M5" s="11">
-        <f>L5/(1-G5)/(1-$O$19)/$N$19</f>
-        <v>15.1749069643806</v>
-      </c>
-      <c r="N5" s="11">
-        <f>L5/(1-G5)/(1-$P$19)/$N$19</f>
-        <v>16.9601901366607</v>
-      </c>
-      <c r="O5" s="11">
-        <f>L5/(1-G5)/$N$19</f>
-        <v>14.416161616161601</v>
-      </c>
-      <c r="P5" s="12">
-        <f>O5*$N$19-L5</f>
-        <v>23.786666666666701</v>
-      </c>
-      <c r="Q5" s="5">
+      <c r="J7" s="6">
+        <f>(E7+F7+($K$19*H7+$M$19)*$L$19)/(1-G7)/(1-$O$19)/(1-I7)/$N$19</f>
+        <v>16.8521124558276</v>
+      </c>
+      <c r="K7" s="7">
+        <f>(E7+F7+($K$19*H7+$M$19)*$L$19)/(1-G7)/(1-$P$19)/(1-I7)/$N$19</f>
+        <v>18.8347139212191</v>
+      </c>
+      <c r="L7" s="1">
+        <f>E7+F7+($K$19*H7+$M$19)*$L$19</f>
+        <v>67.36</v>
+      </c>
+      <c r="M7" s="8">
+        <f>L7/(1-G7)/(1-$O$19)/$N$19</f>
+        <v>14.3242955874535</v>
+      </c>
+      <c r="N7" s="8">
+        <f>L7/(1-G7)/(1-$P$19)/$N$19</f>
+        <v>16.0095068330362</v>
+      </c>
+      <c r="O7" s="8">
+        <f t="shared" si="5"/>
+        <v>13.6080808080808</v>
+      </c>
+      <c r="P7" s="9">
+        <f t="shared" si="6"/>
+        <v>22.4533333333333</v>
+      </c>
+      <c r="Q7" s="1">
         <v>1</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" ht="78" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="5">
-        <v>16073002</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="5">
-        <v>31</v>
-      </c>
-      <c r="F6" s="5">
-        <v>2</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="J6" s="9">
-        <f>(E6+F6+($K$19*H6+$M$19)*$L$19)/(1-G6)/(1-$O$19)/(1-I6)/$N$19</f>
-        <v>15.048315977108548</v>
-      </c>
-      <c r="K6" s="10">
-        <f>(E6+F6+($K$19*H6+$M$19)*$L$19)/(1-G6)/(1-$P$19)/(1-I6)/$N$19</f>
-        <v>16.818706092062492</v>
-      </c>
-      <c r="L6" s="5">
-        <f>E6+F6+($K$19*H6+$M$19)*$L$19</f>
-        <v>64.16</v>
-      </c>
-      <c r="M6" s="11">
-        <f>L6/(1-G6)/(1-$O$19)/$N$19</f>
-        <v>12.791068580542266</v>
-      </c>
-      <c r="N6" s="11">
-        <f>L6/(1-G6)/(1-$P$19)/$N$19</f>
-        <v>14.295900178253119</v>
-      </c>
-      <c r="O6" s="11">
-        <f t="shared" ref="O6:O7" si="0">L6/(1-G6)/$N$19</f>
-        <v>12.15151515151515</v>
-      </c>
-      <c r="P6" s="12">
-        <f t="shared" ref="P6:P7" si="1">O6*$N$19-L6</f>
-        <v>16.039999999999992</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>0</v>
-      </c>
-      <c r="R6" s="5">
-        <v>1</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
     </row>
     <row r="18" spans="11:16">
-      <c r="K18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P18" s="3" t="s">
+      <c r="K18" s="10" t="s">
         <v>28</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="11:16">
-      <c r="K19" s="2">
+      <c r="K19" s="11">
         <v>100</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="12">
         <v>0.82</v>
       </c>
       <c r="M19">
@@ -1194,62 +1862,68 @@
       <c r="N19">
         <v>6.6</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="12">
         <v>0.05</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="12">
         <v>0.15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C7:C15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5 C6:C7">
+      <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C8:C15">
       <formula1>"爬爬服"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q6 R2:R4">
       <formula1>"0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6">
-      <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子"</formula1>
-    </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D6" r:id="rId3" location="detail"/>
-    <hyperlink ref="S6" r:id="rId4" location="detail"/>
+    <hyperlink ref="D5" r:id="rId2" display="https://detail.1688.com/offer/43388465240.html?spm=a2615.7691456.0.0.SVo0SF"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://detail.1688.com/offer/532946594199.html?spm=a2615.7691456.0.0.KfqxAP"/>
+    <hyperlink ref="D6" r:id="rId4" display="https://item.taobao.com/item.htm?spm=a230r.1.0.0.NVkYXr&amp;id=535812571550&amp;ns=1#detail"/>
+    <hyperlink ref="S6" r:id="rId4" display="https://item.taobao.com/item.htm?spm=a230r.1.0.0.NVkYXr&amp;id=535812571550&amp;ns=1#detail"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/产品表单.xlsx
+++ b/产品表单.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>产品标题</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>https://detail.1688.com/offer/40271270024.html?spm=a2615.7691456.0.0.cNqYof</t>
+  </si>
+  <si>
+    <t>外套</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/521926765457.html?spm=a2615.7691456.0.0.Iw9wYb</t>
   </si>
   <si>
     <t>国际运费 1kg/￥</t>
@@ -125,16 +131,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="178" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,11 +165,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,16 +179,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,6 +189,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,38 +216,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -265,8 +240,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,7 +250,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,6 +279,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -295,9 +294,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,13 +316,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,169 +496,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,16 +511,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,11 +540,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,15 +575,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,17 +599,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,10 +615,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -629,137 +627,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -772,31 +770,34 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
@@ -1080,6 +1081,44 @@
         <a:xfrm>
           <a:off x="44450" y="5305425"/>
           <a:ext cx="798830" cy="772160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>829945</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>899160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7" descr="小图01"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635" y="6194425"/>
+          <a:ext cx="829310" cy="816610"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1379,10 +1418,10 @@
   <sheetPr/>
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1486,31 +1525,31 @@
       <c r="I2" s="3">
         <v>0.15</v>
       </c>
-      <c r="J2" s="6">
-        <f t="shared" ref="J2:J6" si="0">(E2+F2+($K$19*H2+$M$19)*$L$19)/(1-G2)/(1-$O$19)/(1-I2)/$N$19</f>
+      <c r="J2" s="7">
+        <f t="shared" ref="J2:J7" si="0">(E2+F2+($K$19*H2+$M$19)*$L$19)/(1-G2)/(1-$O$19)/(1-I2)/$N$19</f>
         <v>16.5518966757357</v>
       </c>
-      <c r="K2" s="7">
-        <f t="shared" ref="K2:K6" si="1">(E2+F2+($K$19*H2+$M$19)*$L$19)/(1-G2)/(1-$P$19)/(1-I2)/$N$19</f>
+      <c r="K2" s="8">
+        <f t="shared" ref="K2:K7" si="1">(E2+F2+($K$19*H2+$M$19)*$L$19)/(1-G2)/(1-$P$19)/(1-I2)/$N$19</f>
         <v>18.4991786375869</v>
       </c>
       <c r="L2" s="1">
-        <f t="shared" ref="L2:L6" si="2">E2+F2+($K$19*H2+$M$19)*$L$19</f>
+        <f t="shared" ref="L2:L7" si="2">E2+F2+($K$19*H2+$M$19)*$L$19</f>
         <v>66.16</v>
       </c>
-      <c r="M2" s="8">
-        <f t="shared" ref="M2:M6" si="3">L2/(1-G2)/(1-$O$19)/$N$19</f>
+      <c r="M2" s="9">
+        <f t="shared" ref="M2:M7" si="3">L2/(1-G2)/(1-$O$19)/$N$19</f>
         <v>14.0691121743753</v>
       </c>
-      <c r="N2" s="8">
-        <f t="shared" ref="N2:N6" si="4">L2/(1-G2)/(1-$P$19)/$N$19</f>
+      <c r="N2" s="9">
+        <f t="shared" ref="N2:N7" si="4">L2/(1-G2)/(1-$P$19)/$N$19</f>
         <v>15.7243018419489</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="9">
         <f>L2/(1-G2)/$N$19</f>
         <v>13.3656565656566</v>
       </c>
-      <c r="P2" s="9">
+      <c r="P2" s="10">
         <f>O2*$N$19-L2</f>
         <v>22.0533333333333</v>
       </c>
@@ -1547,11 +1586,11 @@
       <c r="I3" s="3">
         <v>0.25</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="7">
         <f t="shared" si="0"/>
         <v>10.7630692893851</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="8">
         <f t="shared" si="1"/>
         <v>12.0293127351951</v>
       </c>
@@ -1559,19 +1598,19 @@
         <f t="shared" si="2"/>
         <v>37.96</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="9">
         <f t="shared" si="3"/>
         <v>8.07230196703881</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="9">
         <f t="shared" si="4"/>
         <v>9.02198455139632</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="9">
         <f>L3/(1-G3)/$N$19</f>
         <v>7.66868686868687</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="10">
         <f>O3*$N$19-L3</f>
         <v>12.6533333333333</v>
       </c>
@@ -1608,11 +1647,11 @@
       <c r="I4" s="3">
         <v>0.3</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="7">
         <f t="shared" si="0"/>
         <v>18.8228146122883</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="8">
         <f t="shared" si="1"/>
         <v>21.0372633902046</v>
       </c>
@@ -1620,19 +1659,19 @@
         <f t="shared" si="2"/>
         <v>61.96</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="9">
         <f t="shared" si="3"/>
         <v>13.1759702286018</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="9">
         <f t="shared" si="4"/>
         <v>14.7260843731432</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="9">
         <f>L4/(1-G4)/$N$19</f>
         <v>12.5171717171717</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="10">
         <f>O4*$N$19-L4</f>
         <v>20.6533333333333</v>
       </c>
@@ -1669,11 +1708,11 @@
       <c r="I5" s="3">
         <v>0.15</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="7">
         <f t="shared" si="0"/>
         <v>17.8528317228008</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="8">
         <f t="shared" si="1"/>
         <v>19.9531648666597</v>
       </c>
@@ -1681,19 +1720,19 @@
         <f t="shared" si="2"/>
         <v>71.36</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="9">
         <f t="shared" si="3"/>
         <v>15.1749069643806</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="9">
         <f t="shared" si="4"/>
         <v>16.9601901366607</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="9">
         <f>L5/(1-G5)/$N$19</f>
         <v>14.4161616161616</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="10">
         <f>O5*$N$19-L5</f>
         <v>23.7866666666667</v>
       </c>
@@ -1730,11 +1769,11 @@
       <c r="I6" s="3">
         <v>0.15</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="7">
         <f t="shared" si="0"/>
         <v>15.0483159771085</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="8">
         <f t="shared" si="1"/>
         <v>16.8187060920625</v>
       </c>
@@ -1742,19 +1781,19 @@
         <f t="shared" si="2"/>
         <v>64.16</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="9">
         <f t="shared" si="3"/>
         <v>12.7910685805423</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="9">
         <f t="shared" si="4"/>
         <v>14.2959001782531</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="9">
         <f t="shared" ref="O6:O7" si="5">L6/(1-G6)/$N$19</f>
         <v>12.1515151515152</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="10">
         <f t="shared" ref="P6:P7" si="6">O6*$N$19-L6</f>
         <v>16.04</v>
       </c>
@@ -1764,7 +1803,7 @@
       <c r="R6" s="1">
         <v>1</v>
       </c>
-      <c r="S6" s="13" t="s">
+      <c r="S6" s="14" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1794,31 +1833,31 @@
       <c r="I7" s="3">
         <v>0.15</v>
       </c>
-      <c r="J7" s="6">
-        <f>(E7+F7+($K$19*H7+$M$19)*$L$19)/(1-G7)/(1-$O$19)/(1-I7)/$N$19</f>
+      <c r="J7" s="7">
+        <f t="shared" si="0"/>
         <v>16.8521124558276</v>
       </c>
-      <c r="K7" s="7">
-        <f>(E7+F7+($K$19*H7+$M$19)*$L$19)/(1-G7)/(1-$P$19)/(1-I7)/$N$19</f>
+      <c r="K7" s="8">
+        <f t="shared" si="1"/>
         <v>18.8347139212191</v>
       </c>
       <c r="L7" s="1">
-        <f>E7+F7+($K$19*H7+$M$19)*$L$19</f>
+        <f t="shared" si="2"/>
         <v>67.36</v>
       </c>
-      <c r="M7" s="8">
-        <f>L7/(1-G7)/(1-$O$19)/$N$19</f>
+      <c r="M7" s="9">
+        <f t="shared" si="3"/>
         <v>14.3242955874535</v>
       </c>
-      <c r="N7" s="8">
-        <f>L7/(1-G7)/(1-$P$19)/$N$19</f>
+      <c r="N7" s="9">
+        <f t="shared" si="4"/>
         <v>16.0095068330362</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="9">
         <f t="shared" si="5"/>
         <v>13.6080808080808</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="10">
         <f t="shared" si="6"/>
         <v>22.4533333333333</v>
       </c>
@@ -1829,31 +1868,91 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" ht="78" customHeight="1" spans="2:18">
+      <c r="B8">
+        <v>16080401</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8">
+        <v>39</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H8">
+        <v>0.45</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="7">
+        <f>(E8+F8+($K$19*H8+$M$19)*$L$19)/(1-G8)/(1-$O$19)/(1-I8)/$N$19</f>
+        <v>34.8724082934609</v>
+      </c>
+      <c r="K8" s="8">
+        <f>(E8+F8+($K$19*H8+$M$19)*$L$19)/(1-G8)/(1-$P$19)/(1-I8)/$N$19</f>
+        <v>38.9750445632799</v>
+      </c>
+      <c r="L8" s="1">
+        <f>E8+F8+($K$19*H8+$M$19)*$L$19</f>
+        <v>87.46</v>
+      </c>
+      <c r="M8" s="9">
+        <f>L8/(1-G8)/(1-$O$19)/$N$19</f>
+        <v>17.4362041467305</v>
+      </c>
+      <c r="N8" s="9">
+        <f>L8/(1-G8)/(1-$P$19)/$N$19</f>
+        <v>19.4875222816399</v>
+      </c>
+      <c r="O8" s="9">
+        <f>L8/(1-G8)/$N$19</f>
+        <v>16.5643939393939</v>
+      </c>
+      <c r="P8" s="10">
+        <f>O8*$N$19-L8</f>
+        <v>21.865</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+    </row>
     <row r="18" spans="11:16">
-      <c r="K18" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M18" s="10" t="s">
+      <c r="K18" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="N18" s="10" t="s">
+      <c r="L18" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="O18" s="10" t="s">
+      <c r="M18" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="P18" s="10" t="s">
+      <c r="N18" s="12" t="s">
         <v>33</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="11:16">
-      <c r="K19" s="11">
+      <c r="K19" s="13">
         <v>100</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="11">
         <v>0.82</v>
       </c>
       <c r="M19">
@@ -1862,20 +1961,20 @@
       <c r="N19">
         <v>6.6</v>
       </c>
-      <c r="O19" s="12">
+      <c r="O19" s="11">
         <v>0.05</v>
       </c>
-      <c r="P19" s="12">
+      <c r="P19" s="11">
         <v>0.15</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5 C6:C7">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C9:C15">
+      <formula1>"爬爬服"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C2:C5 C7:C8">
       <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C8:C15">
-      <formula1>"爬爬服"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q6 R2:R4">
       <formula1>"0,1"</formula1>
@@ -1886,6 +1985,7 @@
     <hyperlink ref="D4" r:id="rId3" display="https://detail.1688.com/offer/532946594199.html?spm=a2615.7691456.0.0.KfqxAP"/>
     <hyperlink ref="D6" r:id="rId4" display="https://item.taobao.com/item.htm?spm=a230r.1.0.0.NVkYXr&amp;id=535812571550&amp;ns=1#detail"/>
     <hyperlink ref="S6" r:id="rId4" display="https://item.taobao.com/item.htm?spm=a230r.1.0.0.NVkYXr&amp;id=535812571550&amp;ns=1#detail"/>
+    <hyperlink ref="D8" r:id="rId5" display="https://detail.1688.com/offer/521926765457.html?spm=a2615.7691456.0.0.Iw9wYb"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>

--- a/产品表单.xlsx
+++ b/产品表单.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>产品标题</t>
   </si>
@@ -124,23 +124,23 @@
   </si>
   <si>
     <t>wish费率</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/539601777542.html?spm=b26110380.8015204.1688002.1.tV3mIo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+  <numFmts count="4">
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="178" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,140 +168,17 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,194 +191,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -509,251 +200,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -770,97 +225,52 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
+    <cellStyle name="百分比" xfId="2" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -882,7 +292,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -920,7 +330,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -958,7 +368,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -996,7 +406,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1034,7 +444,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1072,7 +482,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1092,15 +502,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>635</xdr:colOff>
+      <xdr:colOff>114935</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>829945</xdr:colOff>
+      <xdr:colOff>944245</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>899160</xdr:rowOff>
+      <xdr:rowOff>889635</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1110,15 +520,53 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635" y="6194425"/>
+          <a:off x="114935" y="6178550"/>
           <a:ext cx="829310" cy="816610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>954024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9" descr="xiaotu1.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7096125"/>
+          <a:ext cx="1066800" cy="954024"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1414,36 +862,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.1272727272727" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="9.62727272727273" customWidth="1"/>
-    <col min="4" max="4" width="7.75454545454545" customWidth="1"/>
-    <col min="5" max="5" width="8.12727272727273" customWidth="1"/>
-    <col min="6" max="6" width="9.87272727272727" customWidth="1"/>
-    <col min="7" max="7" width="8.25454545454545" customWidth="1"/>
-    <col min="10" max="10" width="11.2545454545455" customWidth="1"/>
-    <col min="11" max="11" width="11.1272727272727" customWidth="1"/>
-    <col min="12" max="12" width="7.62727272727273" customWidth="1"/>
-    <col min="13" max="13" width="11.8727272727273" customWidth="1"/>
-    <col min="14" max="15" width="11.6272727272727" customWidth="1"/>
-    <col min="16" max="16" width="9.87272727272727" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
+    <col min="4" max="4" width="7.75" customWidth="1"/>
+    <col min="5" max="5" width="8.125" customWidth="1"/>
+    <col min="6" max="6" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="8.25" customWidth="1"/>
+    <col min="10" max="10" width="11.25" customWidth="1"/>
+    <col min="11" max="11" width="11.125" customWidth="1"/>
+    <col min="12" max="12" width="7.625" customWidth="1"/>
+    <col min="13" max="13" width="11.875" customWidth="1"/>
+    <col min="14" max="15" width="11.625" customWidth="1"/>
+    <col min="16" max="16" width="9.875" customWidth="1"/>
     <col min="17" max="17" width="6.5" customWidth="1"/>
-    <col min="18" max="18" width="6.87272727272727" customWidth="1"/>
+    <col min="18" max="18" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1499,7 +945,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="86.25" customHeight="1" spans="1:18">
+    <row r="2" spans="1:19" ht="86.25" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
         <v>16072601</v>
@@ -1527,11 +973,11 @@
       </c>
       <c r="J2" s="7">
         <f t="shared" ref="J2:J7" si="0">(E2+F2+($K$19*H2+$M$19)*$L$19)/(1-G2)/(1-$O$19)/(1-I2)/$N$19</f>
-        <v>16.5518966757357</v>
+        <v>16.551896675735701</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" ref="K2:K7" si="1">(E2+F2+($K$19*H2+$M$19)*$L$19)/(1-G2)/(1-$P$19)/(1-I2)/$N$19</f>
-        <v>18.4991786375869</v>
+        <v>18.499178637586901</v>
       </c>
       <c r="L2" s="1">
         <f t="shared" ref="L2:L7" si="2">E2+F2+($K$19*H2+$M$19)*$L$19</f>
@@ -1551,7 +997,7 @@
       </c>
       <c r="P2" s="10">
         <f>O2*$N$19-L2</f>
-        <v>22.0533333333333</v>
+        <v>22.053333333333299</v>
       </c>
       <c r="Q2" s="1">
         <v>1</v>
@@ -1560,7 +1006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="86.25" customHeight="1" spans="1:18">
+    <row r="3" spans="1:19" ht="86.25" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>16072701</v>
@@ -1588,7 +1034,7 @@
       </c>
       <c r="J3" s="7">
         <f t="shared" si="0"/>
-        <v>10.7630692893851</v>
+        <v>10.763069289385101</v>
       </c>
       <c r="K3" s="8">
         <f t="shared" si="1"/>
@@ -1600,15 +1046,15 @@
       </c>
       <c r="M3" s="9">
         <f t="shared" si="3"/>
-        <v>8.07230196703881</v>
+        <v>8.0723019670388094</v>
       </c>
       <c r="N3" s="9">
         <f t="shared" si="4"/>
-        <v>9.02198455139632</v>
+        <v>9.0219845513963204</v>
       </c>
       <c r="O3" s="9">
         <f>L3/(1-G3)/$N$19</f>
-        <v>7.66868686868687</v>
+        <v>7.6686868686868701</v>
       </c>
       <c r="P3" s="10">
         <f>O3*$N$19-L3</f>
@@ -1621,7 +1067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="69.75" customHeight="1" spans="1:18">
+    <row r="4" spans="1:19" ht="69.75" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>16072901</v>
@@ -1649,7 +1095,7 @@
       </c>
       <c r="J4" s="7">
         <f t="shared" si="0"/>
-        <v>18.8228146122883</v>
+        <v>18.822814612288301</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" si="1"/>
@@ -1669,7 +1115,7 @@
       </c>
       <c r="O4" s="9">
         <f>L4/(1-G4)/$N$19</f>
-        <v>12.5171717171717</v>
+        <v>12.517171717171699</v>
       </c>
       <c r="P4" s="10">
         <f>O4*$N$19-L4</f>
@@ -1682,7 +1128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="78" customHeight="1" spans="1:18">
+    <row r="5" spans="1:19" ht="78" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>16073001</v>
@@ -1710,11 +1156,11 @@
       </c>
       <c r="J5" s="7">
         <f t="shared" si="0"/>
-        <v>17.8528317228008</v>
+        <v>17.852831722800801</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" si="1"/>
-        <v>19.9531648666597</v>
+        <v>19.953164866659701</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="2"/>
@@ -1730,11 +1176,11 @@
       </c>
       <c r="O5" s="9">
         <f>L5/(1-G5)/$N$19</f>
-        <v>14.4161616161616</v>
+        <v>14.416161616161601</v>
       </c>
       <c r="P5" s="10">
         <f>O5*$N$19-L5</f>
-        <v>23.7866666666667</v>
+        <v>23.786666666666701</v>
       </c>
       <c r="Q5" s="1">
         <v>1</v>
@@ -1743,7 +1189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="78" customHeight="1" spans="1:19">
+    <row r="6" spans="1:19" ht="78" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="1">
         <v>16073002</v>
@@ -1775,7 +1221,7 @@
       </c>
       <c r="K6" s="8">
         <f t="shared" si="1"/>
-        <v>16.8187060920625</v>
+        <v>16.818706092062499</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="2"/>
@@ -1787,7 +1233,7 @@
       </c>
       <c r="N6" s="9">
         <f t="shared" si="4"/>
-        <v>14.2959001782531</v>
+        <v>14.295900178253101</v>
       </c>
       <c r="O6" s="9">
         <f t="shared" ref="O6:O7" si="5">L6/(1-G6)/$N$19</f>
@@ -1807,7 +1253,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" ht="69" customHeight="1" spans="1:18">
+    <row r="7" spans="1:19" ht="69" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>16080301</v>
@@ -1835,11 +1281,11 @@
       </c>
       <c r="J7" s="7">
         <f t="shared" si="0"/>
-        <v>16.8521124558276</v>
+        <v>16.852112455827601</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" si="1"/>
-        <v>18.8347139212191</v>
+        <v>18.834713921219102</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="2"/>
@@ -1851,7 +1297,7 @@
       </c>
       <c r="N7" s="9">
         <f t="shared" si="4"/>
-        <v>16.0095068330362</v>
+        <v>16.009506833036198</v>
       </c>
       <c r="O7" s="9">
         <f t="shared" si="5"/>
@@ -1859,7 +1305,7 @@
       </c>
       <c r="P7" s="10">
         <f t="shared" si="6"/>
-        <v>22.4533333333333</v>
+        <v>22.453333333333301</v>
       </c>
       <c r="Q7" s="1">
         <v>1</v>
@@ -1868,7 +1314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="78" customHeight="1" spans="2:18">
+    <row r="8" spans="1:19" ht="78" customHeight="1">
       <c r="B8">
         <v>16080401</v>
       </c>
@@ -1899,7 +1345,7 @@
       </c>
       <c r="K8" s="8">
         <f>(E8+F8+($K$19*H8+$M$19)*$L$19)/(1-G8)/(1-$P$19)/(1-I8)/$N$19</f>
-        <v>38.9750445632799</v>
+        <v>38.975044563279901</v>
       </c>
       <c r="L8" s="1">
         <f>E8+F8+($K$19*H8+$M$19)*$L$19</f>
@@ -1911,20 +1357,80 @@
       </c>
       <c r="N8" s="9">
         <f>L8/(1-G8)/(1-$P$19)/$N$19</f>
-        <v>19.4875222816399</v>
+        <v>19.487522281639901</v>
       </c>
       <c r="O8" s="9">
         <f>L8/(1-G8)/$N$19</f>
-        <v>16.5643939393939</v>
+        <v>16.564393939393899</v>
       </c>
       <c r="P8" s="10">
         <f>O8*$N$19-L8</f>
-        <v>21.865</v>
+        <v>21.864999999999998</v>
       </c>
       <c r="Q8">
         <v>1</v>
       </c>
       <c r="R8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="92.25" customHeight="1">
+      <c r="B9">
+        <v>16100801</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9">
+        <v>32</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H9">
+        <v>0.45</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="J9" s="7">
+        <f>(E9+F9+($K$19*H9+$M$19)*$L$19)/(1-G9)/(1-$O$19)/(1-I9)/$N$19</f>
+        <v>20.590111642743221</v>
+      </c>
+      <c r="K9" s="8">
+        <f>(E9+F9+($K$19*H9+$M$19)*$L$19)/(1-G9)/(1-$P$19)/(1-I9)/$N$19</f>
+        <v>23.012477718360074</v>
+      </c>
+      <c r="L9" s="1">
+        <f>E9+F9+($K$19*H9+$M$19)*$L$19</f>
+        <v>77.460000000000008</v>
+      </c>
+      <c r="M9" s="9">
+        <f>L9/(1-G9)/(1-$O$19)/$N$19</f>
+        <v>16.47208931419458</v>
+      </c>
+      <c r="N9" s="9">
+        <f>L9/(1-G9)/(1-$P$19)/$N$19</f>
+        <v>18.409982174688061</v>
+      </c>
+      <c r="O9" s="9">
+        <f>L9/(1-G9)/$N$19</f>
+        <v>15.648484848484852</v>
+      </c>
+      <c r="P9" s="10">
+        <f>O9*$N$19-L9</f>
+        <v>25.820000000000007</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
         <v>1</v>
       </c>
     </row>
@@ -1969,11 +1475,12 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C9:C15">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C10:C15">
       <formula1>"爬爬服"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C2:C5 C7:C8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C9">
       <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q6 R2:R4">
@@ -1981,49 +1488,43 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId2" display="https://detail.1688.com/offer/43388465240.html?spm=a2615.7691456.0.0.SVo0SF"/>
-    <hyperlink ref="D4" r:id="rId3" display="https://detail.1688.com/offer/532946594199.html?spm=a2615.7691456.0.0.KfqxAP"/>
-    <hyperlink ref="D6" r:id="rId4" display="https://item.taobao.com/item.htm?spm=a230r.1.0.0.NVkYXr&amp;id=535812571550&amp;ns=1#detail"/>
-    <hyperlink ref="S6" r:id="rId4" display="https://item.taobao.com/item.htm?spm=a230r.1.0.0.NVkYXr&amp;id=535812571550&amp;ns=1#detail"/>
-    <hyperlink ref="D8" r:id="rId5" display="https://detail.1688.com/offer/521926765457.html?spm=a2615.7691456.0.0.Iw9wYb"/>
+    <hyperlink ref="D5" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="S6" r:id="rId4"/>
+    <hyperlink ref="D8" r:id="rId5"/>
+    <hyperlink ref="D9" r:id="rId6"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/产品表单.xlsx
+++ b/产品表单.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>产品标题</t>
   </si>
@@ -127,6 +127,10 @@
   </si>
   <si>
     <t>https://detail.1688.com/offer/539601777542.html?spm=b26110380.8015204.1688002.1.tV3mIo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/534650922032.html</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -136,9 +140,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="180" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -225,7 +229,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -237,22 +241,22 @@
     <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
@@ -575,6 +579,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1029287</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1000125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11" descr="QQ截图20161009224643.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8267701"/>
+          <a:ext cx="1029287" cy="1000124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -866,8 +908,8 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1434,6 +1476,66 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10" spans="1:19" ht="89.25" customHeight="1">
+      <c r="B10">
+        <v>16100901</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10">
+        <v>46</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H10">
+        <v>0.8</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="J10" s="7">
+        <f>(E10+F10+($K$19*H10+$M$19)*$L$19)/(1-G10)/(1-$O$19)/(1-I10)/$N$19</f>
+        <v>36.503379661274401</v>
+      </c>
+      <c r="K10" s="8">
+        <f>(E10+F10+($K$19*H10+$M$19)*$L$19)/(1-G10)/(1-$P$19)/(1-I10)/$N$19</f>
+        <v>40.797894915541981</v>
+      </c>
+      <c r="L10" s="1">
+        <f>E10+F10+($K$19*H10+$M$19)*$L$19</f>
+        <v>120.16</v>
+      </c>
+      <c r="M10" s="9">
+        <f>L10/(1-G10)/(1-$O$19)/$N$19</f>
+        <v>25.552365762892084</v>
+      </c>
+      <c r="N10" s="9">
+        <f>L10/(1-G10)/(1-$P$19)/$N$19</f>
+        <v>28.558526440879387</v>
+      </c>
+      <c r="O10" s="9">
+        <f>L10/(1-G10)/$N$19</f>
+        <v>24.274747474747478</v>
+      </c>
+      <c r="P10" s="10">
+        <f>O10*$N$19-L10</f>
+        <v>40.053333333333342</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+    </row>
     <row r="18" spans="11:16">
       <c r="K18" s="12" t="s">
         <v>30</v>
@@ -1477,10 +1579,10 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C10:C15">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C11:C15">
       <formula1>"爬爬服"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C10">
       <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q6 R2:R4">
@@ -1494,10 +1596,11 @@
     <hyperlink ref="S6" r:id="rId4"/>
     <hyperlink ref="D8" r:id="rId5"/>
     <hyperlink ref="D9" r:id="rId6"/>
+    <hyperlink ref="D10" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/产品表单.xlsx
+++ b/产品表单.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>产品标题</t>
   </si>
@@ -131,6 +131,14 @@
   </si>
   <si>
     <t>https://detail.1688.com/offer/534650922032.html</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/525196220868.html?spm=b26110380.8015204.xshy005.911.FMmHAe</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/525739109360.html?spm=b26110380.sw311.0.0.2w3SJa</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -609,6 +617,82 @@
         <a:xfrm>
           <a:off x="0" y="8267701"/>
           <a:ext cx="1029287" cy="1000124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>961635</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>981075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10" descr="QQ截图20161016225716.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9401175"/>
+          <a:ext cx="961635" cy="981075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1028701</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1028701</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12" descr="QQ截图20161016234633.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="10610851"/>
+          <a:ext cx="1028700" cy="1028700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -909,7 +993,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -917,7 +1001,7 @@
     <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="9.625" customWidth="1"/>
-    <col min="4" max="4" width="7.75" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
     <col min="5" max="5" width="8.125" customWidth="1"/>
     <col min="6" max="6" width="9.875" customWidth="1"/>
     <col min="7" max="7" width="8.25" customWidth="1"/>
@@ -1536,6 +1620,126 @@
         <v>1</v>
       </c>
     </row>
+    <row r="11" spans="1:19" ht="95.25" customHeight="1">
+      <c r="B11">
+        <v>16101601</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11">
+        <v>88</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H11">
+        <v>0.4</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="J11" s="7">
+        <f>(E11+F11+($K$19*H11+$M$19)*$L$19)/(1-G11)/(1-$O$19)/(1-I11)/$N$19</f>
+        <v>32.363261093911255</v>
+      </c>
+      <c r="K11" s="8">
+        <f>(E11+F11+($K$19*H11+$M$19)*$L$19)/(1-G11)/(1-$P$19)/(1-I11)/$N$19</f>
+        <v>36.170703575547869</v>
+      </c>
+      <c r="L11" s="1">
+        <f>E11+F11+($K$19*H11+$M$19)*$L$19</f>
+        <v>129.36000000000001</v>
+      </c>
+      <c r="M11" s="9">
+        <f>L11/(1-G11)/(1-$O$19)/$N$19</f>
+        <v>27.508771929824569</v>
+      </c>
+      <c r="N11" s="9">
+        <f>L11/(1-G11)/(1-$P$19)/$N$19</f>
+        <v>30.745098039215691</v>
+      </c>
+      <c r="O11" s="9">
+        <f>L11/(1-G11)/$N$19</f>
+        <v>26.133333333333336</v>
+      </c>
+      <c r="P11" s="10">
+        <f>O11*$N$19-L11</f>
+        <v>43.120000000000005</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="81.75" customHeight="1">
+      <c r="B12">
+        <v>16101602</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12">
+        <v>78</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="H12">
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="J12" s="7">
+        <f>(E12+F12+($K$19*H12+$M$19)*$L$19)/(1-G12)/(1-$O$19)/(1-I12)/$N$19</f>
+        <v>32.344193334905412</v>
+      </c>
+      <c r="K12" s="8">
+        <f>(E12+F12+($K$19*H12+$M$19)*$L$19)/(1-G12)/(1-$P$19)/(1-I12)/$N$19</f>
+        <v>36.149392550776639</v>
+      </c>
+      <c r="L12" s="1">
+        <f>E12+F12+($K$19*H12+$M$19)*$L$19</f>
+        <v>127.56</v>
+      </c>
+      <c r="M12" s="9">
+        <f>L12/(1-G12)/(1-$O$19)/$N$19</f>
+        <v>27.492564334669598</v>
+      </c>
+      <c r="N12" s="9">
+        <f>L12/(1-G12)/(1-$P$19)/$N$19</f>
+        <v>30.726983668160141</v>
+      </c>
+      <c r="O12" s="9">
+        <f>L12/(1-G12)/$N$19</f>
+        <v>26.117936117936122</v>
+      </c>
+      <c r="P12" s="10">
+        <f>O12*$N$19-L12</f>
+        <v>44.818378378378384</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+    </row>
     <row r="18" spans="11:16">
       <c r="K18" s="12" t="s">
         <v>30</v>
@@ -1579,10 +1783,10 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C11:C15">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C13:C15">
       <formula1>"爬爬服"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C12">
       <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q6 R2:R4">
@@ -1597,10 +1801,12 @@
     <hyperlink ref="D8" r:id="rId5"/>
     <hyperlink ref="D9" r:id="rId6"/>
     <hyperlink ref="D10" r:id="rId7"/>
+    <hyperlink ref="D11" r:id="rId8"/>
+    <hyperlink ref="D12" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <drawing r:id="rId8"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/产品表单.xlsx
+++ b/产品表单.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="7725"/>
+    <workbookView windowWidth="19100" windowHeight="8690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>产品标题</t>
   </si>
@@ -108,6 +108,21 @@
     <t>https://detail.1688.com/offer/521926765457.html?spm=a2615.7691456.0.0.Iw9wYb</t>
   </si>
   <si>
+    <t>https://detail.1688.com/offer/539601777542.html?spm=b26110380.8015204.1688002.1.tV3mIo</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/534650922032.html</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/525196220868.html?spm=b26110380.8015204.xshy005.911.FMmHAe</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/525739109360.html?spm=b26110380.sw311.0.0.2w3SJa</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/536964765017.html?spm=b26110380.8015204.1688002.2.0qEfTf</t>
+  </si>
+  <si>
     <t>国际运费 1kg/￥</t>
   </si>
   <si>
@@ -124,35 +139,23 @@
   </si>
   <si>
     <t>wish费率</t>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/539601777542.html?spm=b26110380.8015204.1688002.1.tV3mIo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/534650922032.html</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/525196220868.html?spm=b26110380.8015204.xshy005.911.FMmHAe</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/525739109360.html?spm=b26110380.sw311.0.0.2w3SJa</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="8">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
     <numFmt numFmtId="176" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
+    <numFmt numFmtId="177" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,19 +181,142 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,8 +329,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -212,15 +524,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -237,52 +785,97 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="百分比" xfId="2" builtinId="5"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -304,7 +897,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -342,7 +935,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:blip r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -380,7 +973,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:blip r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -418,7 +1011,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:blip r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -456,7 +1049,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:blip r:embed="rId5" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -494,7 +1087,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:blip r:embed="rId6" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -532,14 +1125,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:blip r:embed="rId7" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="114935" y="6178550"/>
+          <a:off x="114935" y="6184900"/>
           <a:ext cx="829310" cy="816610"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -557,8 +1150,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>954024</xdr:rowOff>
     </xdr:to>
@@ -570,15 +1163,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:blip r:embed="rId8" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="7096125"/>
-          <a:ext cx="1066800" cy="954024"/>
+          <a:off x="0" y="7102475"/>
+          <a:ext cx="986790" cy="953770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -595,8 +1188,8 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1029287</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>1000125</xdr:rowOff>
     </xdr:to>
@@ -608,15 +1201,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:blip r:embed="rId9" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="8267701"/>
-          <a:ext cx="1029287" cy="1000124"/>
+          <a:off x="0" y="8274050"/>
+          <a:ext cx="986790" cy="1000125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -646,15 +1239,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
+        <a:blip r:embed="rId10" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="9401175"/>
-          <a:ext cx="961635" cy="981075"/>
+          <a:off x="0" y="9407525"/>
+          <a:ext cx="961390" cy="981075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -671,8 +1264,8 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1028701</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>1028701</xdr:rowOff>
     </xdr:to>
@@ -684,19 +1277,61 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
+        <a:blip r:embed="rId11" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="10610851"/>
-          <a:ext cx="1028700" cy="1028700"/>
+          <a:off x="0" y="10617200"/>
+          <a:ext cx="986790" cy="1028700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>926465</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1038860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635" y="11684000"/>
+          <a:ext cx="925830" cy="1010285"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -988,34 +1623,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="14.1272727272727" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="9.625" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="8.125" customWidth="1"/>
-    <col min="6" max="6" width="9.875" customWidth="1"/>
-    <col min="7" max="7" width="8.25" customWidth="1"/>
-    <col min="10" max="10" width="11.25" customWidth="1"/>
-    <col min="11" max="11" width="11.125" customWidth="1"/>
-    <col min="12" max="12" width="7.625" customWidth="1"/>
-    <col min="13" max="13" width="11.875" customWidth="1"/>
-    <col min="14" max="15" width="11.625" customWidth="1"/>
-    <col min="16" max="16" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="9.62727272727273" customWidth="1"/>
+    <col min="4" max="4" width="17.3727272727273" customWidth="1"/>
+    <col min="5" max="5" width="8.12727272727273" customWidth="1"/>
+    <col min="6" max="6" width="9.87272727272727" customWidth="1"/>
+    <col min="7" max="7" width="8.25454545454545" customWidth="1"/>
+    <col min="10" max="10" width="11.2545454545455" customWidth="1"/>
+    <col min="11" max="11" width="11.1272727272727" customWidth="1"/>
+    <col min="12" max="12" width="7.62727272727273" customWidth="1"/>
+    <col min="13" max="13" width="11.8727272727273" customWidth="1"/>
+    <col min="14" max="15" width="11.6272727272727" customWidth="1"/>
+    <col min="16" max="16" width="9.87272727272727" customWidth="1"/>
     <col min="17" max="17" width="6.5" customWidth="1"/>
-    <col min="18" max="18" width="6.875" customWidth="1"/>
+    <col min="18" max="18" width="6.87272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1071,7 +1708,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="86.25" customHeight="1">
+    <row r="2" ht="86.25" customHeight="1" spans="1:18">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
         <v>16072601</v>
@@ -1098,23 +1735,23 @@
         <v>0.15</v>
       </c>
       <c r="J2" s="7">
-        <f t="shared" ref="J2:J7" si="0">(E2+F2+($K$19*H2+$M$19)*$L$19)/(1-G2)/(1-$O$19)/(1-I2)/$N$19</f>
-        <v>16.551896675735701</v>
+        <f t="shared" ref="J2:J13" si="0">(E2+F2+($K$19*H2+$M$19)*$L$19)/(1-G2)/(1-$O$19)/(1-I2)/$N$19</f>
+        <v>16.5518966757357</v>
       </c>
       <c r="K2" s="8">
-        <f t="shared" ref="K2:K7" si="1">(E2+F2+($K$19*H2+$M$19)*$L$19)/(1-G2)/(1-$P$19)/(1-I2)/$N$19</f>
-        <v>18.499178637586901</v>
+        <f t="shared" ref="K2:K13" si="1">(E2+F2+($K$19*H2+$M$19)*$L$19)/(1-G2)/(1-$P$19)/(1-I2)/$N$19</f>
+        <v>18.4991786375869</v>
       </c>
       <c r="L2" s="1">
-        <f t="shared" ref="L2:L7" si="2">E2+F2+($K$19*H2+$M$19)*$L$19</f>
+        <f t="shared" ref="L2:L13" si="2">E2+F2+($K$19*H2+$M$19)*$L$19</f>
         <v>66.16</v>
       </c>
       <c r="M2" s="9">
-        <f t="shared" ref="M2:M7" si="3">L2/(1-G2)/(1-$O$19)/$N$19</f>
+        <f t="shared" ref="M2:M13" si="3">L2/(1-G2)/(1-$O$19)/$N$19</f>
         <v>14.0691121743753</v>
       </c>
       <c r="N2" s="9">
-        <f t="shared" ref="N2:N7" si="4">L2/(1-G2)/(1-$P$19)/$N$19</f>
+        <f t="shared" ref="N2:N13" si="4">L2/(1-G2)/(1-$P$19)/$N$19</f>
         <v>15.7243018419489</v>
       </c>
       <c r="O2" s="9">
@@ -1123,7 +1760,7 @@
       </c>
       <c r="P2" s="10">
         <f>O2*$N$19-L2</f>
-        <v>22.053333333333299</v>
+        <v>22.0533333333333</v>
       </c>
       <c r="Q2" s="1">
         <v>1</v>
@@ -1132,7 +1769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="86.25" customHeight="1">
+    <row r="3" ht="86.25" customHeight="1" spans="1:18">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>16072701</v>
@@ -1160,7 +1797,7 @@
       </c>
       <c r="J3" s="7">
         <f t="shared" si="0"/>
-        <v>10.763069289385101</v>
+        <v>10.7630692893851</v>
       </c>
       <c r="K3" s="8">
         <f t="shared" si="1"/>
@@ -1172,15 +1809,15 @@
       </c>
       <c r="M3" s="9">
         <f t="shared" si="3"/>
-        <v>8.0723019670388094</v>
+        <v>8.07230196703881</v>
       </c>
       <c r="N3" s="9">
         <f t="shared" si="4"/>
-        <v>9.0219845513963204</v>
+        <v>9.02198455139632</v>
       </c>
       <c r="O3" s="9">
         <f>L3/(1-G3)/$N$19</f>
-        <v>7.6686868686868701</v>
+        <v>7.66868686868687</v>
       </c>
       <c r="P3" s="10">
         <f>O3*$N$19-L3</f>
@@ -1193,7 +1830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="69.75" customHeight="1">
+    <row r="4" ht="69.75" customHeight="1" spans="1:18">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>16072901</v>
@@ -1221,7 +1858,7 @@
       </c>
       <c r="J4" s="7">
         <f t="shared" si="0"/>
-        <v>18.822814612288301</v>
+        <v>18.8228146122883</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" si="1"/>
@@ -1241,7 +1878,7 @@
       </c>
       <c r="O4" s="9">
         <f>L4/(1-G4)/$N$19</f>
-        <v>12.517171717171699</v>
+        <v>12.5171717171717</v>
       </c>
       <c r="P4" s="10">
         <f>O4*$N$19-L4</f>
@@ -1254,7 +1891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="78" customHeight="1">
+    <row r="5" ht="78" customHeight="1" spans="1:18">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>16073001</v>
@@ -1282,11 +1919,11 @@
       </c>
       <c r="J5" s="7">
         <f t="shared" si="0"/>
-        <v>17.852831722800801</v>
+        <v>17.8528317228008</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" si="1"/>
-        <v>19.953164866659701</v>
+        <v>19.9531648666597</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="2"/>
@@ -1302,11 +1939,11 @@
       </c>
       <c r="O5" s="9">
         <f>L5/(1-G5)/$N$19</f>
-        <v>14.416161616161601</v>
+        <v>14.4161616161616</v>
       </c>
       <c r="P5" s="10">
         <f>O5*$N$19-L5</f>
-        <v>23.786666666666701</v>
+        <v>23.7866666666667</v>
       </c>
       <c r="Q5" s="1">
         <v>1</v>
@@ -1315,7 +1952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="78" customHeight="1">
+    <row r="6" ht="78" customHeight="1" spans="1:19">
       <c r="A6" s="4"/>
       <c r="B6" s="1">
         <v>16073002</v>
@@ -1347,7 +1984,7 @@
       </c>
       <c r="K6" s="8">
         <f t="shared" si="1"/>
-        <v>16.818706092062499</v>
+        <v>16.8187060920625</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="2"/>
@@ -1359,14 +1996,14 @@
       </c>
       <c r="N6" s="9">
         <f t="shared" si="4"/>
-        <v>14.295900178253101</v>
+        <v>14.2959001782531</v>
       </c>
       <c r="O6" s="9">
-        <f t="shared" ref="O6:O7" si="5">L6/(1-G6)/$N$19</f>
+        <f t="shared" ref="O6:O13" si="5">L6/(1-G6)/$N$19</f>
         <v>12.1515151515152</v>
       </c>
       <c r="P6" s="10">
-        <f t="shared" ref="P6:P7" si="6">O6*$N$19-L6</f>
+        <f t="shared" ref="P6:P13" si="6">O6*$N$19-L6</f>
         <v>16.04</v>
       </c>
       <c r="Q6" s="1">
@@ -1379,7 +2016,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="69" customHeight="1">
+    <row r="7" ht="69" customHeight="1" spans="1:18">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>16080301</v>
@@ -1407,11 +2044,11 @@
       </c>
       <c r="J7" s="7">
         <f t="shared" si="0"/>
-        <v>16.852112455827601</v>
+        <v>16.8521124558276</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" si="1"/>
-        <v>18.834713921219102</v>
+        <v>18.8347139212191</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="2"/>
@@ -1423,7 +2060,7 @@
       </c>
       <c r="N7" s="9">
         <f t="shared" si="4"/>
-        <v>16.009506833036198</v>
+        <v>16.0095068330362</v>
       </c>
       <c r="O7" s="9">
         <f t="shared" si="5"/>
@@ -1431,7 +2068,7 @@
       </c>
       <c r="P7" s="10">
         <f t="shared" si="6"/>
-        <v>22.453333333333301</v>
+        <v>22.4533333333333</v>
       </c>
       <c r="Q7" s="1">
         <v>1</v>
@@ -1440,7 +2077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="78" customHeight="1">
+    <row r="8" ht="78" customHeight="1" spans="2:18">
       <c r="B8">
         <v>16080401</v>
       </c>
@@ -1466,32 +2103,32 @@
         <v>0.5</v>
       </c>
       <c r="J8" s="7">
-        <f>(E8+F8+($K$19*H8+$M$19)*$L$19)/(1-G8)/(1-$O$19)/(1-I8)/$N$19</f>
+        <f t="shared" si="0"/>
         <v>34.8724082934609</v>
       </c>
       <c r="K8" s="8">
-        <f>(E8+F8+($K$19*H8+$M$19)*$L$19)/(1-G8)/(1-$P$19)/(1-I8)/$N$19</f>
-        <v>38.975044563279901</v>
+        <f t="shared" si="1"/>
+        <v>38.9750445632799</v>
       </c>
       <c r="L8" s="1">
-        <f>E8+F8+($K$19*H8+$M$19)*$L$19</f>
+        <f t="shared" si="2"/>
         <v>87.46</v>
       </c>
       <c r="M8" s="9">
-        <f>L8/(1-G8)/(1-$O$19)/$N$19</f>
+        <f t="shared" si="3"/>
         <v>17.4362041467305</v>
       </c>
       <c r="N8" s="9">
-        <f>L8/(1-G8)/(1-$P$19)/$N$19</f>
-        <v>19.487522281639901</v>
+        <f t="shared" si="4"/>
+        <v>19.4875222816399</v>
       </c>
       <c r="O8" s="9">
-        <f>L8/(1-G8)/$N$19</f>
-        <v>16.564393939393899</v>
+        <f t="shared" si="5"/>
+        <v>16.5643939393939</v>
       </c>
       <c r="P8" s="10">
-        <f>O8*$N$19-L8</f>
-        <v>21.864999999999998</v>
+        <f t="shared" si="6"/>
+        <v>21.865</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -1500,7 +2137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="92.25" customHeight="1">
+    <row r="9" ht="92.25" customHeight="1" spans="2:18">
       <c r="B9">
         <v>16100801</v>
       </c>
@@ -1508,7 +2145,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>32</v>
@@ -1526,32 +2163,32 @@
         <v>0.2</v>
       </c>
       <c r="J9" s="7">
-        <f>(E9+F9+($K$19*H9+$M$19)*$L$19)/(1-G9)/(1-$O$19)/(1-I9)/$N$19</f>
-        <v>20.590111642743221</v>
+        <f t="shared" si="0"/>
+        <v>20.5901116427432</v>
       </c>
       <c r="K9" s="8">
-        <f>(E9+F9+($K$19*H9+$M$19)*$L$19)/(1-G9)/(1-$P$19)/(1-I9)/$N$19</f>
-        <v>23.012477718360074</v>
+        <f t="shared" si="1"/>
+        <v>23.0124777183601</v>
       </c>
       <c r="L9" s="1">
-        <f>E9+F9+($K$19*H9+$M$19)*$L$19</f>
-        <v>77.460000000000008</v>
+        <f t="shared" si="2"/>
+        <v>77.46</v>
       </c>
       <c r="M9" s="9">
-        <f>L9/(1-G9)/(1-$O$19)/$N$19</f>
-        <v>16.47208931419458</v>
+        <f t="shared" si="3"/>
+        <v>16.4720893141946</v>
       </c>
       <c r="N9" s="9">
-        <f>L9/(1-G9)/(1-$P$19)/$N$19</f>
-        <v>18.409982174688061</v>
+        <f t="shared" si="4"/>
+        <v>18.4099821746881</v>
       </c>
       <c r="O9" s="9">
-        <f>L9/(1-G9)/$N$19</f>
-        <v>15.648484848484852</v>
+        <f t="shared" si="5"/>
+        <v>15.6484848484849</v>
       </c>
       <c r="P9" s="10">
-        <f>O9*$N$19-L9</f>
-        <v>25.820000000000007</v>
+        <f t="shared" si="6"/>
+        <v>25.82</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -1560,7 +2197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="89.25" customHeight="1">
+    <row r="10" ht="89.25" customHeight="1" spans="2:18">
       <c r="B10">
         <v>16100901</v>
       </c>
@@ -1568,7 +2205,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>46</v>
@@ -1586,32 +2223,32 @@
         <v>0.3</v>
       </c>
       <c r="J10" s="7">
-        <f>(E10+F10+($K$19*H10+$M$19)*$L$19)/(1-G10)/(1-$O$19)/(1-I10)/$N$19</f>
-        <v>36.503379661274401</v>
+        <f t="shared" si="0"/>
+        <v>36.5033796612744</v>
       </c>
       <c r="K10" s="8">
-        <f>(E10+F10+($K$19*H10+$M$19)*$L$19)/(1-G10)/(1-$P$19)/(1-I10)/$N$19</f>
-        <v>40.797894915541981</v>
+        <f t="shared" si="1"/>
+        <v>40.797894915542</v>
       </c>
       <c r="L10" s="1">
-        <f>E10+F10+($K$19*H10+$M$19)*$L$19</f>
+        <f t="shared" si="2"/>
         <v>120.16</v>
       </c>
       <c r="M10" s="9">
-        <f>L10/(1-G10)/(1-$O$19)/$N$19</f>
-        <v>25.552365762892084</v>
+        <f t="shared" si="3"/>
+        <v>25.5523657628921</v>
       </c>
       <c r="N10" s="9">
-        <f>L10/(1-G10)/(1-$P$19)/$N$19</f>
-        <v>28.558526440879387</v>
+        <f t="shared" si="4"/>
+        <v>28.5585264408794</v>
       </c>
       <c r="O10" s="9">
-        <f>L10/(1-G10)/$N$19</f>
-        <v>24.274747474747478</v>
+        <f t="shared" si="5"/>
+        <v>24.2747474747475</v>
       </c>
       <c r="P10" s="10">
-        <f>O10*$N$19-L10</f>
-        <v>40.053333333333342</v>
+        <f t="shared" si="6"/>
+        <v>40.0533333333333</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -1620,7 +2257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="95.25" customHeight="1">
+    <row r="11" ht="95.25" customHeight="1" spans="2:18">
       <c r="B11">
         <v>16101601</v>
       </c>
@@ -1628,7 +2265,7 @@
         <v>18</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E11">
         <v>88</v>
@@ -1646,32 +2283,32 @@
         <v>0.15</v>
       </c>
       <c r="J11" s="7">
-        <f>(E11+F11+($K$19*H11+$M$19)*$L$19)/(1-G11)/(1-$O$19)/(1-I11)/$N$19</f>
-        <v>32.363261093911255</v>
+        <f t="shared" si="0"/>
+        <v>32.3632610939113</v>
       </c>
       <c r="K11" s="8">
-        <f>(E11+F11+($K$19*H11+$M$19)*$L$19)/(1-G11)/(1-$P$19)/(1-I11)/$N$19</f>
-        <v>36.170703575547869</v>
+        <f t="shared" si="1"/>
+        <v>36.1707035755479</v>
       </c>
       <c r="L11" s="1">
-        <f>E11+F11+($K$19*H11+$M$19)*$L$19</f>
-        <v>129.36000000000001</v>
+        <f t="shared" si="2"/>
+        <v>129.36</v>
       </c>
       <c r="M11" s="9">
-        <f>L11/(1-G11)/(1-$O$19)/$N$19</f>
-        <v>27.508771929824569</v>
+        <f t="shared" si="3"/>
+        <v>27.5087719298246</v>
       </c>
       <c r="N11" s="9">
-        <f>L11/(1-G11)/(1-$P$19)/$N$19</f>
-        <v>30.745098039215691</v>
+        <f t="shared" si="4"/>
+        <v>30.7450980392157</v>
       </c>
       <c r="O11" s="9">
-        <f>L11/(1-G11)/$N$19</f>
-        <v>26.133333333333336</v>
+        <f t="shared" si="5"/>
+        <v>26.1333333333333</v>
       </c>
       <c r="P11" s="10">
-        <f>O11*$N$19-L11</f>
-        <v>43.120000000000005</v>
+        <f t="shared" si="6"/>
+        <v>43.12</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -1680,7 +2317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="81.75" customHeight="1">
+    <row r="12" ht="81.75" customHeight="1" spans="2:18">
       <c r="B12">
         <v>16101602</v>
       </c>
@@ -1688,7 +2325,7 @@
         <v>18</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E12">
         <v>78</v>
@@ -1706,58 +2343,118 @@
         <v>0.15</v>
       </c>
       <c r="J12" s="7">
-        <f>(E12+F12+($K$19*H12+$M$19)*$L$19)/(1-G12)/(1-$O$19)/(1-I12)/$N$19</f>
-        <v>32.344193334905412</v>
+        <f t="shared" si="0"/>
+        <v>32.3441933349054</v>
       </c>
       <c r="K12" s="8">
-        <f>(E12+F12+($K$19*H12+$M$19)*$L$19)/(1-G12)/(1-$P$19)/(1-I12)/$N$19</f>
-        <v>36.149392550776639</v>
+        <f t="shared" si="1"/>
+        <v>36.1493925507766</v>
       </c>
       <c r="L12" s="1">
-        <f>E12+F12+($K$19*H12+$M$19)*$L$19</f>
+        <f t="shared" si="2"/>
         <v>127.56</v>
       </c>
       <c r="M12" s="9">
-        <f>L12/(1-G12)/(1-$O$19)/$N$19</f>
-        <v>27.492564334669598</v>
+        <f t="shared" si="3"/>
+        <v>27.4925643346696</v>
       </c>
       <c r="N12" s="9">
-        <f>L12/(1-G12)/(1-$P$19)/$N$19</f>
-        <v>30.726983668160141</v>
+        <f t="shared" si="4"/>
+        <v>30.7269836681601</v>
       </c>
       <c r="O12" s="9">
-        <f>L12/(1-G12)/$N$19</f>
-        <v>26.117936117936122</v>
+        <f t="shared" si="5"/>
+        <v>26.1179361179361</v>
       </c>
       <c r="P12" s="10">
-        <f>O12*$N$19-L12</f>
-        <v>44.818378378378384</v>
+        <f t="shared" si="6"/>
+        <v>44.8183783783784</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="89" customHeight="1" spans="2:18">
+      <c r="B13">
+        <v>16101701</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13">
+        <v>23</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H13">
+        <v>0.35</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="J13" s="7">
+        <f t="shared" si="0"/>
+        <v>14.825655940207</v>
+      </c>
+      <c r="K13" s="8">
+        <f t="shared" si="1"/>
+        <v>16.569850756702</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="2"/>
+        <v>59.26</v>
+      </c>
+      <c r="M13" s="9">
+        <f t="shared" si="3"/>
+        <v>12.601807549176</v>
+      </c>
+      <c r="N13" s="9">
+        <f t="shared" si="4"/>
+        <v>14.0843731431967</v>
+      </c>
+      <c r="O13" s="9">
+        <f t="shared" si="5"/>
+        <v>11.9717171717172</v>
+      </c>
+      <c r="P13" s="10">
+        <f t="shared" si="6"/>
+        <v>19.7533333333333</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="11:16">
       <c r="K18" s="12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="11:16">
@@ -1781,12 +2478,11 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C13:C15">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C15">
       <formula1>"爬爬服"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11 C12:C13">
       <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q6 R2:R4">
@@ -1794,46 +2490,54 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D6" r:id="rId3"/>
-    <hyperlink ref="S6" r:id="rId4"/>
-    <hyperlink ref="D8" r:id="rId5"/>
-    <hyperlink ref="D9" r:id="rId6"/>
-    <hyperlink ref="D10" r:id="rId7"/>
-    <hyperlink ref="D11" r:id="rId8"/>
-    <hyperlink ref="D12" r:id="rId9"/>
+    <hyperlink ref="D5" r:id="rId2" display="https://detail.1688.com/offer/43388465240.html?spm=a2615.7691456.0.0.SVo0SF"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://detail.1688.com/offer/532946594199.html?spm=a2615.7691456.0.0.KfqxAP"/>
+    <hyperlink ref="D6" r:id="rId4" display="https://item.taobao.com/item.htm?spm=a230r.1.0.0.NVkYXr&amp;id=535812571550&amp;ns=1#detail"/>
+    <hyperlink ref="S6" r:id="rId4" display="https://item.taobao.com/item.htm?spm=a230r.1.0.0.NVkYXr&amp;id=535812571550&amp;ns=1#detail"/>
+    <hyperlink ref="D8" r:id="rId5" display="https://detail.1688.com/offer/521926765457.html?spm=a2615.7691456.0.0.Iw9wYb"/>
+    <hyperlink ref="D9" r:id="rId6" display="https://detail.1688.com/offer/539601777542.html?spm=b26110380.8015204.1688002.1.tV3mIo"/>
+    <hyperlink ref="D10" r:id="rId7" display="https://detail.1688.com/offer/534650922032.html"/>
+    <hyperlink ref="D11" r:id="rId8" display="https://detail.1688.com/offer/525196220868.html?spm=b26110380.8015204.xshy005.911.FMmHAe"/>
+    <hyperlink ref="D12" r:id="rId9" display="https://detail.1688.com/offer/525739109360.html?spm=b26110380.sw311.0.0.2w3SJa"/>
+    <hyperlink ref="D13" r:id="rId10" display="https://detail.1688.com/offer/536964765017.html?spm=b26110380.8015204.1688002.2.0qEfTf"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <drawing r:id="rId10"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/产品表单.xlsx
+++ b/产品表单.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="8690"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="8685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>产品标题</t>
   </si>
@@ -139,23 +139,30 @@
   </si>
   <si>
     <t>wish费率</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/523084291442.html?spm=b26110380.8015204.tkhy006.2.7zxqcs</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>婴儿套装</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/539464650849.html?spm=b26110380.8015204.tkhy006.13.LriGRm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="4">
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="176" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="177" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="179" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
+    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +175,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -176,147 +184,27 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,194 +217,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -524,251 +226,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -785,25 +251,25 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -812,70 +278,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
+    <cellStyle name="百分比" xfId="2" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -897,7 +318,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -935,7 +356,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -973,7 +394,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1011,7 +432,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1049,7 +470,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1087,7 +508,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1125,7 +546,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1163,7 +584,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1201,7 +622,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1239,7 +660,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1277,7 +698,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1315,7 +736,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1332,6 +753,82 @@
         <a:ln w="9525">
           <a:noFill/>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1000126</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1000126</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15" descr="QQ截图20161017222412_副本.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2" y="11649077"/>
+          <a:ext cx="1000124" cy="1000124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1037551</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1019175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16" descr="QQ截图20161017204316.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="12687301"/>
+          <a:ext cx="1037550" cy="1019174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1623,36 +1120,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:S19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.1272727272727" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="9.62727272727273" customWidth="1"/>
-    <col min="4" max="4" width="17.3727272727273" customWidth="1"/>
-    <col min="5" max="5" width="8.12727272727273" customWidth="1"/>
-    <col min="6" max="6" width="9.87272727272727" customWidth="1"/>
-    <col min="7" max="7" width="8.25454545454545" customWidth="1"/>
-    <col min="10" max="10" width="11.2545454545455" customWidth="1"/>
-    <col min="11" max="11" width="11.1272727272727" customWidth="1"/>
-    <col min="12" max="12" width="7.62727272727273" customWidth="1"/>
-    <col min="13" max="13" width="11.8727272727273" customWidth="1"/>
-    <col min="14" max="15" width="11.6272727272727" customWidth="1"/>
-    <col min="16" max="16" width="9.87272727272727" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="8.125" customWidth="1"/>
+    <col min="6" max="6" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="8.25" customWidth="1"/>
+    <col min="10" max="10" width="11.25" customWidth="1"/>
+    <col min="11" max="11" width="11.125" customWidth="1"/>
+    <col min="12" max="12" width="7.625" customWidth="1"/>
+    <col min="13" max="13" width="11.875" customWidth="1"/>
+    <col min="14" max="15" width="11.625" customWidth="1"/>
+    <col min="16" max="16" width="9.875" customWidth="1"/>
     <col min="17" max="17" width="6.5" customWidth="1"/>
-    <col min="18" max="18" width="6.87272727272727" customWidth="1"/>
+    <col min="18" max="18" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1708,7 +1203,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="86.25" customHeight="1" spans="1:18">
+    <row r="2" spans="1:19" ht="86.25" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
         <v>16072601</v>
@@ -1735,32 +1230,32 @@
         <v>0.15</v>
       </c>
       <c r="J2" s="7">
-        <f t="shared" ref="J2:J13" si="0">(E2+F2+($K$19*H2+$M$19)*$L$19)/(1-G2)/(1-$O$19)/(1-I2)/$N$19</f>
-        <v>16.5518966757357</v>
+        <f t="shared" ref="J2:J13" si="0">(E2+F2+($K$24*H2+$M$24)*$L$24)/(1-G2)/(1-$O$24)/(1-I2)/$N$24</f>
+        <v>16.551896675735684</v>
       </c>
       <c r="K2" s="8">
-        <f t="shared" ref="K2:K13" si="1">(E2+F2+($K$19*H2+$M$19)*$L$19)/(1-G2)/(1-$P$19)/(1-I2)/$N$19</f>
-        <v>18.4991786375869</v>
+        <f t="shared" ref="K2:K13" si="1">(E2+F2+($K$24*H2+$M$24)*$L$24)/(1-G2)/(1-$P$24)/(1-I2)/$N$24</f>
+        <v>18.49917863758694</v>
       </c>
       <c r="L2" s="1">
-        <f t="shared" ref="L2:L13" si="2">E2+F2+($K$19*H2+$M$19)*$L$19</f>
+        <f t="shared" ref="L2:L13" si="2">E2+F2+($K$24*H2+$M$24)*$L$24</f>
         <v>66.16</v>
       </c>
       <c r="M2" s="9">
-        <f t="shared" ref="M2:M13" si="3">L2/(1-G2)/(1-$O$19)/$N$19</f>
-        <v>14.0691121743753</v>
+        <f t="shared" ref="M2:M13" si="3">L2/(1-G2)/(1-$O$24)/$N$24</f>
+        <v>14.069112174375331</v>
       </c>
       <c r="N2" s="9">
-        <f t="shared" ref="N2:N13" si="4">L2/(1-G2)/(1-$P$19)/$N$19</f>
+        <f t="shared" ref="N2:N13" si="4">L2/(1-G2)/(1-$P$24)/$N$24</f>
         <v>15.7243018419489</v>
       </c>
       <c r="O2" s="9">
-        <f>L2/(1-G2)/$N$19</f>
-        <v>13.3656565656566</v>
+        <f>L2/(1-G2)/$N$24</f>
+        <v>13.365656565656565</v>
       </c>
       <c r="P2" s="10">
-        <f>O2*$N$19-L2</f>
-        <v>22.0533333333333</v>
+        <f>O2*$N$24-L2</f>
+        <v>22.053333333333327</v>
       </c>
       <c r="Q2" s="1">
         <v>1</v>
@@ -1769,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="86.25" customHeight="1" spans="1:18">
+    <row r="3" spans="1:19" ht="86.25" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>16072701</v>
@@ -1797,31 +1292,31 @@
       </c>
       <c r="J3" s="7">
         <f t="shared" si="0"/>
-        <v>10.7630692893851</v>
+        <v>10.763069289385077</v>
       </c>
       <c r="K3" s="8">
         <f t="shared" si="1"/>
-        <v>12.0293127351951</v>
+        <v>12.029312735195086</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" si="2"/>
-        <v>37.96</v>
+        <v>37.959999999999994</v>
       </c>
       <c r="M3" s="9">
         <f t="shared" si="3"/>
-        <v>8.07230196703881</v>
+        <v>8.0723019670388076</v>
       </c>
       <c r="N3" s="9">
         <f t="shared" si="4"/>
-        <v>9.02198455139632</v>
+        <v>9.0219845513963151</v>
       </c>
       <c r="O3" s="9">
-        <f>L3/(1-G3)/$N$19</f>
-        <v>7.66868686868687</v>
+        <f>L3/(1-G3)/$N$24</f>
+        <v>7.6686868686868674</v>
       </c>
       <c r="P3" s="10">
-        <f>O3*$N$19-L3</f>
-        <v>12.6533333333333</v>
+        <f>O3*$N$24-L3</f>
+        <v>12.653333333333329</v>
       </c>
       <c r="Q3" s="1">
         <v>1</v>
@@ -1830,7 +1325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="69.75" customHeight="1" spans="1:18">
+    <row r="4" spans="1:19" ht="69.75" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>16072901</v>
@@ -1858,31 +1353,31 @@
       </c>
       <c r="J4" s="7">
         <f t="shared" si="0"/>
-        <v>18.8228146122883</v>
+        <v>18.822814612288298</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" si="1"/>
-        <v>21.0372633902046</v>
+        <v>21.037263390204565</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="2"/>
-        <v>61.96</v>
+        <v>61.959999999999994</v>
       </c>
       <c r="M4" s="9">
         <f t="shared" si="3"/>
-        <v>13.1759702286018</v>
+        <v>13.175970228601807</v>
       </c>
       <c r="N4" s="9">
         <f t="shared" si="4"/>
-        <v>14.7260843731432</v>
+        <v>14.726084373143197</v>
       </c>
       <c r="O4" s="9">
-        <f>L4/(1-G4)/$N$19</f>
-        <v>12.5171717171717</v>
+        <f>L4/(1-G4)/$N$24</f>
+        <v>12.517171717171717</v>
       </c>
       <c r="P4" s="10">
-        <f>O4*$N$19-L4</f>
-        <v>20.6533333333333</v>
+        <f>O4*$N$24-L4</f>
+        <v>20.653333333333336</v>
       </c>
       <c r="Q4" s="1">
         <v>1</v>
@@ -1891,7 +1386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="78" customHeight="1" spans="1:18">
+    <row r="5" spans="1:19" ht="78" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>16073001</v>
@@ -1919,11 +1414,11 @@
       </c>
       <c r="J5" s="7">
         <f t="shared" si="0"/>
-        <v>17.8528317228008</v>
+        <v>17.852831722800765</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" si="1"/>
-        <v>19.9531648666597</v>
+        <v>19.953164866659677</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="2"/>
@@ -1931,19 +1426,19 @@
       </c>
       <c r="M5" s="9">
         <f t="shared" si="3"/>
-        <v>15.1749069643806</v>
+        <v>15.17490696438065</v>
       </c>
       <c r="N5" s="9">
         <f t="shared" si="4"/>
-        <v>16.9601901366607</v>
+        <v>16.960190136660724</v>
       </c>
       <c r="O5" s="9">
-        <f>L5/(1-G5)/$N$19</f>
-        <v>14.4161616161616</v>
+        <f>L5/(1-G5)/$N$24</f>
+        <v>14.416161616161617</v>
       </c>
       <c r="P5" s="10">
-        <f>O5*$N$19-L5</f>
-        <v>23.7866666666667</v>
+        <f>O5*$N$24-L5</f>
+        <v>23.786666666666662</v>
       </c>
       <c r="Q5" s="1">
         <v>1</v>
@@ -1952,7 +1447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="78" customHeight="1" spans="1:19">
+    <row r="6" spans="1:19" ht="78" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="1">
         <v>16073002</v>
@@ -1980,11 +1475,11 @@
       </c>
       <c r="J6" s="7">
         <f t="shared" si="0"/>
-        <v>15.0483159771085</v>
+        <v>15.048315977108548</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" si="1"/>
-        <v>16.8187060920625</v>
+        <v>16.818706092062492</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="2"/>
@@ -1992,19 +1487,19 @@
       </c>
       <c r="M6" s="9">
         <f t="shared" si="3"/>
-        <v>12.7910685805423</v>
+        <v>12.791068580542266</v>
       </c>
       <c r="N6" s="9">
         <f t="shared" si="4"/>
-        <v>14.2959001782531</v>
+        <v>14.295900178253119</v>
       </c>
       <c r="O6" s="9">
-        <f t="shared" ref="O6:O13" si="5">L6/(1-G6)/$N$19</f>
-        <v>12.1515151515152</v>
+        <f t="shared" ref="O6:O13" si="5">L6/(1-G6)/$N$24</f>
+        <v>12.15151515151515</v>
       </c>
       <c r="P6" s="10">
-        <f t="shared" ref="P6:P13" si="6">O6*$N$19-L6</f>
-        <v>16.04</v>
+        <f t="shared" ref="P6:P13" si="6">O6*$N$24-L6</f>
+        <v>16.039999999999992</v>
       </c>
       <c r="Q6" s="1">
         <v>0</v>
@@ -2016,7 +1511,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" ht="69" customHeight="1" spans="1:18">
+    <row r="7" spans="1:19" ht="69" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>16080301</v>
@@ -2044,11 +1539,11 @@
       </c>
       <c r="J7" s="7">
         <f t="shared" si="0"/>
-        <v>16.8521124558276</v>
+        <v>16.85211245582763</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" si="1"/>
-        <v>18.8347139212191</v>
+        <v>18.834713921219112</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="2"/>
@@ -2056,19 +1551,19 @@
       </c>
       <c r="M7" s="9">
         <f t="shared" si="3"/>
-        <v>14.3242955874535</v>
+        <v>14.324295587453484</v>
       </c>
       <c r="N7" s="9">
         <f t="shared" si="4"/>
-        <v>16.0095068330362</v>
+        <v>16.009506833036248</v>
       </c>
       <c r="O7" s="9">
         <f t="shared" si="5"/>
-        <v>13.6080808080808</v>
+        <v>13.608080808080809</v>
       </c>
       <c r="P7" s="10">
         <f t="shared" si="6"/>
-        <v>22.4533333333333</v>
+        <v>22.453333333333333</v>
       </c>
       <c r="Q7" s="1">
         <v>1</v>
@@ -2077,7 +1572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="78" customHeight="1" spans="2:18">
+    <row r="8" spans="1:19" ht="78" customHeight="1">
       <c r="B8">
         <v>16080401</v>
       </c>
@@ -2104,31 +1599,31 @@
       </c>
       <c r="J8" s="7">
         <f t="shared" si="0"/>
-        <v>34.8724082934609</v>
+        <v>34.872408293460929</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" si="1"/>
-        <v>38.9750445632799</v>
+        <v>38.975044563279859</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="2"/>
-        <v>87.46</v>
+        <v>87.460000000000008</v>
       </c>
       <c r="M8" s="9">
         <f t="shared" si="3"/>
-        <v>17.4362041467305</v>
+        <v>17.436204146730464</v>
       </c>
       <c r="N8" s="9">
         <f t="shared" si="4"/>
-        <v>19.4875222816399</v>
+        <v>19.487522281639929</v>
       </c>
       <c r="O8" s="9">
         <f t="shared" si="5"/>
-        <v>16.5643939393939</v>
+        <v>16.564393939393941</v>
       </c>
       <c r="P8" s="10">
         <f t="shared" si="6"/>
-        <v>21.865</v>
+        <v>21.864999999999995</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -2137,7 +1632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="92.25" customHeight="1" spans="2:18">
+    <row r="9" spans="1:19" ht="92.25" customHeight="1">
       <c r="B9">
         <v>16100801</v>
       </c>
@@ -2164,31 +1659,31 @@
       </c>
       <c r="J9" s="7">
         <f t="shared" si="0"/>
-        <v>20.5901116427432</v>
+        <v>20.590111642743221</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" si="1"/>
-        <v>23.0124777183601</v>
+        <v>23.012477718360074</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="2"/>
-        <v>77.46</v>
+        <v>77.460000000000008</v>
       </c>
       <c r="M9" s="9">
         <f t="shared" si="3"/>
-        <v>16.4720893141946</v>
+        <v>16.47208931419458</v>
       </c>
       <c r="N9" s="9">
         <f t="shared" si="4"/>
-        <v>18.4099821746881</v>
+        <v>18.409982174688061</v>
       </c>
       <c r="O9" s="9">
         <f t="shared" si="5"/>
-        <v>15.6484848484849</v>
+        <v>15.648484848484852</v>
       </c>
       <c r="P9" s="10">
         <f t="shared" si="6"/>
-        <v>25.82</v>
+        <v>25.820000000000007</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2197,7 +1692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="89.25" customHeight="1" spans="2:18">
+    <row r="10" spans="1:19" ht="89.25" customHeight="1">
       <c r="B10">
         <v>16100901</v>
       </c>
@@ -2224,11 +1719,11 @@
       </c>
       <c r="J10" s="7">
         <f t="shared" si="0"/>
-        <v>36.5033796612744</v>
+        <v>36.503379661274401</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" si="1"/>
-        <v>40.797894915542</v>
+        <v>40.797894915541981</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="2"/>
@@ -2236,19 +1731,19 @@
       </c>
       <c r="M10" s="9">
         <f t="shared" si="3"/>
-        <v>25.5523657628921</v>
+        <v>25.552365762892084</v>
       </c>
       <c r="N10" s="9">
         <f t="shared" si="4"/>
-        <v>28.5585264408794</v>
+        <v>28.558526440879387</v>
       </c>
       <c r="O10" s="9">
         <f t="shared" si="5"/>
-        <v>24.2747474747475</v>
+        <v>24.274747474747478</v>
       </c>
       <c r="P10" s="10">
         <f t="shared" si="6"/>
-        <v>40.0533333333333</v>
+        <v>40.053333333333342</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2257,7 +1752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="95.25" customHeight="1" spans="2:18">
+    <row r="11" spans="1:19" ht="95.25" customHeight="1">
       <c r="B11">
         <v>16101601</v>
       </c>
@@ -2284,31 +1779,31 @@
       </c>
       <c r="J11" s="7">
         <f t="shared" si="0"/>
-        <v>32.3632610939113</v>
+        <v>32.363261093911255</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" si="1"/>
-        <v>36.1707035755479</v>
+        <v>36.170703575547869</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="2"/>
-        <v>129.36</v>
+        <v>129.36000000000001</v>
       </c>
       <c r="M11" s="9">
         <f t="shared" si="3"/>
-        <v>27.5087719298246</v>
+        <v>27.508771929824569</v>
       </c>
       <c r="N11" s="9">
         <f t="shared" si="4"/>
-        <v>30.7450980392157</v>
+        <v>30.745098039215691</v>
       </c>
       <c r="O11" s="9">
         <f t="shared" si="5"/>
-        <v>26.1333333333333</v>
+        <v>26.133333333333336</v>
       </c>
       <c r="P11" s="10">
         <f t="shared" si="6"/>
-        <v>43.12</v>
+        <v>43.120000000000005</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -2317,7 +1812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="81.75" customHeight="1" spans="2:18">
+    <row r="12" spans="1:19" ht="81.75" customHeight="1">
       <c r="B12">
         <v>16101602</v>
       </c>
@@ -2344,11 +1839,11 @@
       </c>
       <c r="J12" s="7">
         <f t="shared" si="0"/>
-        <v>32.3441933349054</v>
+        <v>32.344193334905412</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" si="1"/>
-        <v>36.1493925507766</v>
+        <v>36.149392550776639</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="2"/>
@@ -2356,19 +1851,19 @@
       </c>
       <c r="M12" s="9">
         <f t="shared" si="3"/>
-        <v>27.4925643346696</v>
+        <v>27.492564334669598</v>
       </c>
       <c r="N12" s="9">
         <f t="shared" si="4"/>
-        <v>30.7269836681601</v>
+        <v>30.726983668160141</v>
       </c>
       <c r="O12" s="9">
         <f t="shared" si="5"/>
-        <v>26.1179361179361</v>
+        <v>26.117936117936122</v>
       </c>
       <c r="P12" s="10">
         <f t="shared" si="6"/>
-        <v>44.8183783783784</v>
+        <v>44.818378378378384</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -2377,7 +1872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="89" customHeight="1" spans="2:18">
+    <row r="13" spans="1:19" ht="89.1" customHeight="1">
       <c r="B13">
         <v>16101701</v>
       </c>
@@ -2404,11 +1899,11 @@
       </c>
       <c r="J13" s="7">
         <f t="shared" si="0"/>
-        <v>14.825655940207</v>
+        <v>14.825655940207024</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" si="1"/>
-        <v>16.569850756702</v>
+        <v>16.569850756701971</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="2"/>
@@ -2416,19 +1911,19 @@
       </c>
       <c r="M13" s="9">
         <f t="shared" si="3"/>
-        <v>12.601807549176</v>
+        <v>12.601807549175971</v>
       </c>
       <c r="N13" s="9">
         <f t="shared" si="4"/>
-        <v>14.0843731431967</v>
+        <v>14.084373143196675</v>
       </c>
       <c r="O13" s="9">
         <f t="shared" si="5"/>
-        <v>11.9717171717172</v>
+        <v>11.971717171717172</v>
       </c>
       <c r="P13" s="10">
         <f t="shared" si="6"/>
-        <v>19.7533333333333</v>
+        <v>19.753333333333337</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -2437,52 +1932,238 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="11:16">
-      <c r="K18" s="12" t="s">
+    <row r="14" spans="1:19" ht="84" customHeight="1">
+      <c r="B14">
+        <v>16101703</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14">
+        <v>80</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H14">
+        <v>0.6</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J14" s="7">
+        <f>(E14+F14+($K$24*H14+$M$24)*$L$24)/(1-G14)/(1-$O$24)/(1-I14)/$N$24</f>
+        <v>58.590111642743217</v>
+      </c>
+      <c r="K14" s="8">
+        <f>(E14+F14+($K$24*H14+$M$24)*$L$24)/(1-G14)/(1-$P$24)/(1-I14)/$N$24</f>
+        <v>65.48306595365419</v>
+      </c>
+      <c r="L14" s="1">
+        <f>E14+F14+($K$24*H14+$M$24)*$L$24</f>
+        <v>137.76</v>
+      </c>
+      <c r="M14" s="9">
+        <f>L14/(1-G14)/(1-$O$24)/$N$24</f>
+        <v>29.295055821371609</v>
+      </c>
+      <c r="N14" s="9">
+        <f>L14/(1-G14)/(1-$P$24)/$N$24</f>
+        <v>32.741532976827095</v>
+      </c>
+      <c r="O14" s="9">
+        <f>L14/(1-G14)/$N$24</f>
+        <v>27.830303030303028</v>
+      </c>
+      <c r="P14" s="10">
+        <f>O14*$N$24-L14</f>
+        <v>45.919999999999987</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="90.75" customHeight="1">
+      <c r="B15">
+        <v>16101702</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H15">
+        <v>0.4</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="J15" s="7">
+        <f>(E15+F15+(Sheet1!$K$24*H15+Sheet1!$M$24)*Sheet1!$L$24)/(1-G15)/(1-Sheet1!$O$24)/(1-I15)/Sheet1!$N$24</f>
+        <v>22.606248240923168</v>
+      </c>
+      <c r="K15" s="8">
+        <f>(E15+F15+(Sheet1!$K$24*H15+Sheet1!$M$24)*Sheet1!$L$24)/(1-G15)/(1-Sheet1!$P$24)/(1-I15)/Sheet1!$N$24</f>
+        <v>25.265806857502362</v>
+      </c>
+      <c r="L15" s="1">
+        <f>E15+F15+(Sheet1!$K$24*H15+Sheet1!$M$24)*Sheet1!$L$24</f>
+        <v>90.36</v>
+      </c>
+      <c r="M15" s="9">
+        <f>L15/(1-G15)/(1-Sheet1!$O$24)/Sheet1!$N$24</f>
+        <v>19.215311004784692</v>
+      </c>
+      <c r="N15" s="9">
+        <f>L15/(1-G15)/(1-Sheet1!$P$24)/Sheet1!$N$24</f>
+        <v>21.475935828877009</v>
+      </c>
+      <c r="O15" s="9">
+        <f>L15/(1-G15)/Sheet1!$N$24</f>
+        <v>18.254545454545458</v>
+      </c>
+      <c r="P15" s="10">
+        <f>O15*Sheet1!$N$24-L15</f>
+        <v>30.120000000000019</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="90.75" customHeight="1">
+      <c r="C16" s="1"/>
+      <c r="D16" s="14"/>
+      <c r="G16" s="3"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="10"/>
+    </row>
+    <row r="17" spans="3:16" ht="90.75" customHeight="1">
+      <c r="C17" s="1"/>
+      <c r="D17" s="14"/>
+      <c r="G17" s="3"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="10"/>
+    </row>
+    <row r="18" spans="3:16" ht="90.75" customHeight="1">
+      <c r="C18" s="1"/>
+      <c r="D18" s="14"/>
+      <c r="G18" s="3"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="10"/>
+    </row>
+    <row r="19" spans="3:16" ht="90.75" customHeight="1">
+      <c r="C19" s="1"/>
+      <c r="D19" s="14"/>
+      <c r="G19" s="3"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="10"/>
+    </row>
+    <row r="20" spans="3:16" ht="90.75" customHeight="1">
+      <c r="C20" s="1"/>
+      <c r="D20" s="14"/>
+      <c r="G20" s="3"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="10"/>
+    </row>
+    <row r="23" spans="3:16">
+      <c r="K23" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L18" s="12" t="s">
+      <c r="L23" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="M18" s="12" t="s">
+      <c r="M23" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="N18" s="12" t="s">
+      <c r="N23" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="O18" s="12" t="s">
+      <c r="O23" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="P18" s="12" t="s">
+      <c r="P23" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="11:16">
-      <c r="K19" s="13">
+    <row r="24" spans="3:16">
+      <c r="K24" s="13">
         <v>100</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L24" s="11">
         <v>0.82</v>
       </c>
-      <c r="M19">
+      <c r="M24">
         <v>8</v>
       </c>
-      <c r="N19">
+      <c r="N24">
         <v>6.6</v>
       </c>
-      <c r="O19" s="11">
+      <c r="O24" s="11">
         <v>0.05</v>
       </c>
-      <c r="P19" s="11">
+      <c r="P24" s="11">
         <v>0.15</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14:C15">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"爬爬服"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11 C12:C13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C20">
       <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q6 R2:R4">
@@ -2490,54 +2171,49 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId2" display="https://detail.1688.com/offer/43388465240.html?spm=a2615.7691456.0.0.SVo0SF"/>
-    <hyperlink ref="D4" r:id="rId3" display="https://detail.1688.com/offer/532946594199.html?spm=a2615.7691456.0.0.KfqxAP"/>
-    <hyperlink ref="D6" r:id="rId4" display="https://item.taobao.com/item.htm?spm=a230r.1.0.0.NVkYXr&amp;id=535812571550&amp;ns=1#detail"/>
-    <hyperlink ref="S6" r:id="rId4" display="https://item.taobao.com/item.htm?spm=a230r.1.0.0.NVkYXr&amp;id=535812571550&amp;ns=1#detail"/>
-    <hyperlink ref="D8" r:id="rId5" display="https://detail.1688.com/offer/521926765457.html?spm=a2615.7691456.0.0.Iw9wYb"/>
-    <hyperlink ref="D9" r:id="rId6" display="https://detail.1688.com/offer/539601777542.html?spm=b26110380.8015204.1688002.1.tV3mIo"/>
-    <hyperlink ref="D10" r:id="rId7" display="https://detail.1688.com/offer/534650922032.html"/>
-    <hyperlink ref="D11" r:id="rId8" display="https://detail.1688.com/offer/525196220868.html?spm=b26110380.8015204.xshy005.911.FMmHAe"/>
-    <hyperlink ref="D12" r:id="rId9" display="https://detail.1688.com/offer/525739109360.html?spm=b26110380.sw311.0.0.2w3SJa"/>
-    <hyperlink ref="D13" r:id="rId10" display="https://detail.1688.com/offer/536964765017.html?spm=b26110380.8015204.1688002.2.0qEfTf"/>
+    <hyperlink ref="D5" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="S6" r:id="rId4"/>
+    <hyperlink ref="D8" r:id="rId5"/>
+    <hyperlink ref="D9" r:id="rId6"/>
+    <hyperlink ref="D10" r:id="rId7"/>
+    <hyperlink ref="D11" r:id="rId8"/>
+    <hyperlink ref="D12" r:id="rId9"/>
+    <hyperlink ref="D13" r:id="rId10"/>
+    <hyperlink ref="D14" r:id="rId11"/>
+    <hyperlink ref="D15" r:id="rId12"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/产品表单.xlsx
+++ b/产品表单.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$C$17</definedName>
+  </definedNames>
   <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>产品标题</t>
   </si>
@@ -150,6 +153,17 @@
   <si>
     <t>https://detail.1688.com/offer/539464650849.html?spm=b26110380.8015204.tkhy006.13.LriGRm</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/539024831638.html?spm=a2615.7691456.0.0.erl0H2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>爬爬服</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>裤子</t>
   </si>
 </sst>
 </file>
@@ -158,9 +172,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="179" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="177" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -251,7 +265,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -263,13 +277,13 @@
     <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -278,7 +292,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
@@ -825,6 +839,44 @@
         <a:xfrm>
           <a:off x="1" y="12687301"/>
           <a:ext cx="1037550" cy="1019174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>998131</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>993913</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17" descr="QQ截图20161019222415.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="14999804"/>
+          <a:ext cx="998130" cy="993913"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1124,8 +1176,8 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1209,7 +1261,7 @@
         <v>16072601</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>19</v>
@@ -2053,17 +2105,64 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="90.75" customHeight="1">
-      <c r="C16" s="1"/>
-      <c r="D16" s="14"/>
-      <c r="G16" s="3"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="10"/>
+      <c r="B16">
+        <v>16101901</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16">
+        <v>18</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H16">
+        <v>0.2</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="J16" s="7">
+        <f>(E16+F16+(Sheet1!$K$24*H16+Sheet1!$M$24)*Sheet1!$L$24)/(1-G16)/(1-Sheet1!$O$24)/(1-I16)/Sheet1!$N$24</f>
+        <v>11.419457735247208</v>
+      </c>
+      <c r="K16" s="8">
+        <f>(E16+F16+(Sheet1!$K$24*H16+Sheet1!$M$24)*Sheet1!$L$24)/(1-G16)/(1-Sheet1!$P$24)/(1-I16)/Sheet1!$N$24</f>
+        <v>12.762923351158644</v>
+      </c>
+      <c r="L16" s="1">
+        <f>E16+F16+(Sheet1!$K$24*H16+Sheet1!$M$24)*Sheet1!$L$24</f>
+        <v>42.959999999999994</v>
+      </c>
+      <c r="M16" s="9">
+        <f>L16/(1-G16)/(1-Sheet1!$O$24)/Sheet1!$N$24</f>
+        <v>8.5645933014354068</v>
+      </c>
+      <c r="N16" s="9">
+        <f>L16/(1-G16)/(1-Sheet1!$P$24)/Sheet1!$N$24</f>
+        <v>9.5721925133689822</v>
+      </c>
+      <c r="O16" s="9">
+        <f>L16/(1-G16)/Sheet1!$N$24</f>
+        <v>8.1363636363636349</v>
+      </c>
+      <c r="P16" s="10">
+        <f>O16*Sheet1!$N$24-L16</f>
+        <v>10.739999999999995</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="3:16" ht="90.75" customHeight="1">
       <c r="C17" s="1"/>
@@ -2159,15 +2258,18 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"爬爬服"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18:C20">
       <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q6 R2:R4">
       <formula1>"0,1"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C17">
+      <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子,裤子"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -2183,10 +2285,11 @@
     <hyperlink ref="D13" r:id="rId10"/>
     <hyperlink ref="D14" r:id="rId11"/>
     <hyperlink ref="D15" r:id="rId12"/>
+    <hyperlink ref="D16" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <drawing r:id="rId13"/>
+  <drawing r:id="rId14"/>
 </worksheet>
 </file>
 

--- a/产品表单.xlsx
+++ b/产品表单.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="8685"/>
+    <workbookView windowWidth="14640" windowHeight="8690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$C$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$C$27</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>产品标题</t>
   </si>
@@ -126,6 +129,48 @@
     <t>https://detail.1688.com/offer/536964765017.html?spm=b26110380.8015204.1688002.2.0qEfTf</t>
   </si>
   <si>
+    <t>https://detail.1688.com/offer/523084291442.html?spm=b26110380.8015204.tkhy006.2.7zxqcs</t>
+  </si>
+  <si>
+    <t>婴儿套装</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/539464650849.html?spm=b26110380.8015204.tkhy006.13.LriGRm</t>
+  </si>
+  <si>
+    <t>裤子</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/539024831638.html?spm=a2615.7691456.0.0.erl0H2</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/540414065861.html?spm=a2615.7691456.0.0.SB2g3d</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/537572849225.html?spm=a2615.7691456.0.0.0jr1X8</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/37436493140.html?spm=a261y.7663282.0.0.Bdoqfg</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/525328573875.html?spm=a2615.2177701.0.0.inGNvk</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/531099455627.html?spm=b26110380.sw311.0.0.NlP3tV</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/539748592006.html?spm=a2615.7691456.0.0.gzA0aC</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/542005628301.html?spm=a2615.7691456.0.0.E27Va6</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/537712350771.html?spm=a261y.7663282.0.0.HGrgRG&amp;sk=consign</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/535604104982.html?spm=a2615.7691456.0.0.ceDRcB</t>
+  </si>
+  <si>
     <t>国际运费 1kg/￥</t>
   </si>
   <si>
@@ -142,41 +187,23 @@
   </si>
   <si>
     <t>wish费率</t>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/523084291442.html?spm=b26110380.8015204.tkhy006.2.7zxqcs</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>婴儿套装</t>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/539464650849.html?spm=b26110380.8015204.tkhy006.13.LriGRm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/539024831638.html?spm=a2615.7691456.0.0.erl0H2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>爬爬服</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>裤子</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="8">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="176" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="177" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,7 +216,14 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -198,7 +232,96 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -206,19 +329,57 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,8 +392,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -240,19 +587,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -268,49 +851,100 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="百分比" xfId="2" builtinId="5"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -332,7 +966,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -370,7 +1004,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:blip r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -408,7 +1042,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:blip r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -446,7 +1080,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:blip r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -484,7 +1118,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:blip r:embed="rId5" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -522,7 +1156,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:blip r:embed="rId6" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -560,7 +1194,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:blip r:embed="rId7" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -598,7 +1232,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:blip r:embed="rId8" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -636,7 +1270,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:blip r:embed="rId9" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -674,7 +1308,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
+        <a:blip r:embed="rId10" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -712,7 +1346,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
+        <a:blip r:embed="rId11" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -750,7 +1384,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
+        <a:blip r:embed="rId12" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -779,8 +1413,8 @@
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1000126</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>1000126</xdr:rowOff>
     </xdr:to>
@@ -792,15 +1426,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
+        <a:blip r:embed="rId13" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2" y="11649077"/>
-          <a:ext cx="1000124" cy="1000124"/>
+          <a:off x="0" y="12786995"/>
+          <a:ext cx="986790" cy="1000125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -817,8 +1451,8 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1037551</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>1019175</xdr:rowOff>
     </xdr:to>
@@ -830,15 +1464,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
+        <a:blip r:embed="rId14" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="12687301"/>
-          <a:ext cx="1037550" cy="1019174"/>
+          <a:off x="0" y="13853795"/>
+          <a:ext cx="986790" cy="1019175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -855,8 +1489,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>998131</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>993913</xdr:rowOff>
     </xdr:to>
@@ -868,15 +1502,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print"/>
+        <a:blip r:embed="rId15" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="14999804"/>
-          <a:ext cx="998130" cy="993913"/>
+          <a:off x="0" y="15006320"/>
+          <a:ext cx="986790" cy="993775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -885,7 +1519,465 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>8255</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>951865</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1125855</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12700" y="16167100"/>
+          <a:ext cx="939165" cy="1117600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>73660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>923290</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1058545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6350" y="17385030"/>
+          <a:ext cx="916940" cy="984885"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>977265</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1040765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635" y="18601055"/>
+          <a:ext cx="976630" cy="903605"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>17780</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>937895</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1043940</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17780" y="19724370"/>
+          <a:ext cx="920115" cy="935990"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>58420</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>878205</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1040765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635" y="20827365"/>
+          <a:ext cx="877570" cy="982345"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>113665</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>861060</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1109980</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6350" y="22035135"/>
+          <a:ext cx="854710" cy="996315"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>45085</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>916940</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1144270</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="45085" y="23092410"/>
+          <a:ext cx="871855" cy="1129030"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>39370</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>77470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>849630</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1141095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="39370" y="24310340"/>
+          <a:ext cx="810260" cy="1063625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>23495</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>40005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>897255</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1129665</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23495" y="25425400"/>
+          <a:ext cx="873760" cy="1089660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>45085</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>963295</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1125220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="图片 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635" y="26583005"/>
+          <a:ext cx="962660" cy="1080135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="26">
+          <cell r="K26">
+            <v>100</v>
+          </cell>
+          <cell r="L26">
+            <v>0.82</v>
+          </cell>
+          <cell r="M26">
+            <v>8</v>
+          </cell>
+          <cell r="N26">
+            <v>6.6</v>
+          </cell>
+          <cell r="O26">
+            <v>0.05</v>
+          </cell>
+          <cell r="P26">
+            <v>0.15</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1172,34 +2264,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="$A17:$XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="14.1272727272727" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="9.625" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="8.125" customWidth="1"/>
-    <col min="6" max="6" width="9.875" customWidth="1"/>
-    <col min="7" max="7" width="8.25" customWidth="1"/>
-    <col min="10" max="10" width="11.25" customWidth="1"/>
-    <col min="11" max="11" width="11.125" customWidth="1"/>
-    <col min="12" max="12" width="7.625" customWidth="1"/>
-    <col min="13" max="13" width="11.875" customWidth="1"/>
-    <col min="14" max="15" width="11.625" customWidth="1"/>
-    <col min="16" max="16" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="9.62727272727273" customWidth="1"/>
+    <col min="4" max="4" width="17.3727272727273" customWidth="1"/>
+    <col min="5" max="5" width="8.12727272727273" customWidth="1"/>
+    <col min="6" max="6" width="9.87272727272727" customWidth="1"/>
+    <col min="7" max="7" width="8.25454545454545" customWidth="1"/>
+    <col min="10" max="10" width="11.2545454545455" customWidth="1"/>
+    <col min="11" max="11" width="11.1272727272727" customWidth="1"/>
+    <col min="12" max="12" width="7.62727272727273" customWidth="1"/>
+    <col min="13" max="13" width="11.8727272727273" customWidth="1"/>
+    <col min="14" max="15" width="11.6272727272727" customWidth="1"/>
+    <col min="16" max="16" width="9.87272727272727" customWidth="1"/>
     <col min="17" max="17" width="6.5" customWidth="1"/>
-    <col min="18" max="18" width="6.875" customWidth="1"/>
+    <col min="18" max="18" width="6.87272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1255,13 +2349,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="86.25" customHeight="1">
+    <row r="2" ht="86.25" customHeight="1" spans="1:18">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
         <v>16072601</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>19</v>
@@ -1281,33 +2375,33 @@
       <c r="I2" s="3">
         <v>0.15</v>
       </c>
-      <c r="J2" s="7">
-        <f t="shared" ref="J2:J13" si="0">(E2+F2+($K$24*H2+$M$24)*$L$24)/(1-G2)/(1-$O$24)/(1-I2)/$N$24</f>
-        <v>16.551896675735684</v>
-      </c>
-      <c r="K2" s="8">
-        <f t="shared" ref="K2:K13" si="1">(E2+F2+($K$24*H2+$M$24)*$L$24)/(1-G2)/(1-$P$24)/(1-I2)/$N$24</f>
-        <v>18.49917863758694</v>
+      <c r="J2" s="10">
+        <f t="shared" ref="J2:J14" si="0">(E2+F2+($K$34*H2+$M$34)*$L$34)/(1-G2)/(1-$O$34)/(1-I2)/$N$34</f>
+        <v>16.5518966757357</v>
+      </c>
+      <c r="K2" s="11">
+        <f t="shared" ref="K2:K14" si="1">(E2+F2+($K$34*H2+$M$34)*$L$34)/(1-G2)/(1-$P$34)/(1-I2)/$N$34</f>
+        <v>18.4991786375869</v>
       </c>
       <c r="L2" s="1">
-        <f t="shared" ref="L2:L13" si="2">E2+F2+($K$24*H2+$M$24)*$L$24</f>
+        <f t="shared" ref="L2:L14" si="2">E2+F2+($K$34*H2+$M$34)*$L$34</f>
         <v>66.16</v>
       </c>
-      <c r="M2" s="9">
-        <f t="shared" ref="M2:M13" si="3">L2/(1-G2)/(1-$O$24)/$N$24</f>
-        <v>14.069112174375331</v>
-      </c>
-      <c r="N2" s="9">
-        <f t="shared" ref="N2:N13" si="4">L2/(1-G2)/(1-$P$24)/$N$24</f>
+      <c r="M2" s="12">
+        <f t="shared" ref="M2:M14" si="3">L2/(1-G2)/(1-$O$34)/$N$34</f>
+        <v>14.0691121743753</v>
+      </c>
+      <c r="N2" s="12">
+        <f t="shared" ref="N2:N14" si="4">L2/(1-G2)/(1-$P$34)/$N$34</f>
         <v>15.7243018419489</v>
       </c>
-      <c r="O2" s="9">
-        <f>L2/(1-G2)/$N$24</f>
-        <v>13.365656565656565</v>
-      </c>
-      <c r="P2" s="10">
-        <f>O2*$N$24-L2</f>
-        <v>22.053333333333327</v>
+      <c r="O2" s="12">
+        <f>L2/(1-G2)/$N$34</f>
+        <v>13.3656565656566</v>
+      </c>
+      <c r="P2" s="13">
+        <f>O2*$N$34-L2</f>
+        <v>22.0533333333333</v>
       </c>
       <c r="Q2" s="1">
         <v>1</v>
@@ -1316,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="86.25" customHeight="1">
+    <row r="3" ht="86.25" customHeight="1" spans="1:18">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>16072701</v>
@@ -1342,33 +2436,33 @@
       <c r="I3" s="3">
         <v>0.25</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="10">
         <f t="shared" si="0"/>
-        <v>10.763069289385077</v>
-      </c>
-      <c r="K3" s="8">
+        <v>10.7630692893851</v>
+      </c>
+      <c r="K3" s="11">
         <f t="shared" si="1"/>
-        <v>12.029312735195086</v>
+        <v>12.0293127351951</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" si="2"/>
-        <v>37.959999999999994</v>
-      </c>
-      <c r="M3" s="9">
+        <v>37.96</v>
+      </c>
+      <c r="M3" s="12">
         <f t="shared" si="3"/>
-        <v>8.0723019670388076</v>
-      </c>
-      <c r="N3" s="9">
+        <v>8.07230196703881</v>
+      </c>
+      <c r="N3" s="12">
         <f t="shared" si="4"/>
-        <v>9.0219845513963151</v>
-      </c>
-      <c r="O3" s="9">
-        <f>L3/(1-G3)/$N$24</f>
-        <v>7.6686868686868674</v>
-      </c>
-      <c r="P3" s="10">
-        <f>O3*$N$24-L3</f>
-        <v>12.653333333333329</v>
+        <v>9.02198455139632</v>
+      </c>
+      <c r="O3" s="12">
+        <f>L3/(1-G3)/$N$34</f>
+        <v>7.66868686868687</v>
+      </c>
+      <c r="P3" s="13">
+        <f>O3*$N$34-L3</f>
+        <v>12.6533333333333</v>
       </c>
       <c r="Q3" s="1">
         <v>1</v>
@@ -1377,7 +2471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="69.75" customHeight="1">
+    <row r="4" ht="69.75" customHeight="1" spans="1:18">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>16072901</v>
@@ -1403,33 +2497,33 @@
       <c r="I4" s="3">
         <v>0.3</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="10">
         <f t="shared" si="0"/>
-        <v>18.822814612288298</v>
-      </c>
-      <c r="K4" s="8">
+        <v>18.8228146122883</v>
+      </c>
+      <c r="K4" s="11">
         <f t="shared" si="1"/>
-        <v>21.037263390204565</v>
+        <v>21.0372633902046</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="2"/>
-        <v>61.959999999999994</v>
-      </c>
-      <c r="M4" s="9">
+        <v>61.96</v>
+      </c>
+      <c r="M4" s="12">
         <f t="shared" si="3"/>
-        <v>13.175970228601807</v>
-      </c>
-      <c r="N4" s="9">
+        <v>13.1759702286018</v>
+      </c>
+      <c r="N4" s="12">
         <f t="shared" si="4"/>
-        <v>14.726084373143197</v>
-      </c>
-      <c r="O4" s="9">
-        <f>L4/(1-G4)/$N$24</f>
-        <v>12.517171717171717</v>
-      </c>
-      <c r="P4" s="10">
-        <f>O4*$N$24-L4</f>
-        <v>20.653333333333336</v>
+        <v>14.7260843731432</v>
+      </c>
+      <c r="O4" s="12">
+        <f>L4/(1-G4)/$N$34</f>
+        <v>12.5171717171717</v>
+      </c>
+      <c r="P4" s="13">
+        <f>O4*$N$34-L4</f>
+        <v>20.6533333333333</v>
       </c>
       <c r="Q4" s="1">
         <v>1</v>
@@ -1438,7 +2532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="78" customHeight="1">
+    <row r="5" ht="78" customHeight="1" spans="1:18">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>16073001</v>
@@ -1464,33 +2558,33 @@
       <c r="I5" s="3">
         <v>0.15</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="10">
         <f t="shared" si="0"/>
-        <v>17.852831722800765</v>
-      </c>
-      <c r="K5" s="8">
+        <v>17.8528317228008</v>
+      </c>
+      <c r="K5" s="11">
         <f t="shared" si="1"/>
-        <v>19.953164866659677</v>
+        <v>19.9531648666597</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="2"/>
         <v>71.36</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="12">
         <f t="shared" si="3"/>
-        <v>15.17490696438065</v>
-      </c>
-      <c r="N5" s="9">
+        <v>15.1749069643806</v>
+      </c>
+      <c r="N5" s="12">
         <f t="shared" si="4"/>
-        <v>16.960190136660724</v>
-      </c>
-      <c r="O5" s="9">
-        <f>L5/(1-G5)/$N$24</f>
-        <v>14.416161616161617</v>
-      </c>
-      <c r="P5" s="10">
-        <f>O5*$N$24-L5</f>
-        <v>23.786666666666662</v>
+        <v>16.9601901366607</v>
+      </c>
+      <c r="O5" s="12">
+        <f>L5/(1-G5)/$N$34</f>
+        <v>14.4161616161616</v>
+      </c>
+      <c r="P5" s="13">
+        <f>O5*$N$34-L5</f>
+        <v>23.7866666666667</v>
       </c>
       <c r="Q5" s="1">
         <v>1</v>
@@ -1499,7 +2593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="78" customHeight="1">
+    <row r="6" ht="78" customHeight="1" spans="1:19">
       <c r="A6" s="4"/>
       <c r="B6" s="1">
         <v>16073002</v>
@@ -1525,33 +2619,33 @@
       <c r="I6" s="3">
         <v>0.15</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="10">
         <f t="shared" si="0"/>
-        <v>15.048315977108548</v>
-      </c>
-      <c r="K6" s="8">
+        <v>15.0483159771085</v>
+      </c>
+      <c r="K6" s="11">
         <f t="shared" si="1"/>
-        <v>16.818706092062492</v>
+        <v>16.8187060920625</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="2"/>
         <v>64.16</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="12">
         <f t="shared" si="3"/>
-        <v>12.791068580542266</v>
-      </c>
-      <c r="N6" s="9">
+        <v>12.7910685805423</v>
+      </c>
+      <c r="N6" s="12">
         <f t="shared" si="4"/>
-        <v>14.295900178253119</v>
-      </c>
-      <c r="O6" s="9">
-        <f t="shared" ref="O6:O13" si="5">L6/(1-G6)/$N$24</f>
-        <v>12.15151515151515</v>
-      </c>
-      <c r="P6" s="10">
-        <f t="shared" ref="P6:P13" si="6">O6*$N$24-L6</f>
-        <v>16.039999999999992</v>
+        <v>14.2959001782531</v>
+      </c>
+      <c r="O6" s="12">
+        <f t="shared" ref="O6:O14" si="5">L6/(1-G6)/$N$34</f>
+        <v>12.1515151515152</v>
+      </c>
+      <c r="P6" s="13">
+        <f t="shared" ref="P6:P14" si="6">O6*$N$34-L6</f>
+        <v>16.04</v>
       </c>
       <c r="Q6" s="1">
         <v>0</v>
@@ -1559,11 +2653,11 @@
       <c r="R6" s="1">
         <v>1</v>
       </c>
-      <c r="S6" s="14" t="s">
+      <c r="S6" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="69" customHeight="1">
+    <row r="7" ht="69" customHeight="1" spans="1:18">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>16080301</v>
@@ -1589,33 +2683,33 @@
       <c r="I7" s="3">
         <v>0.15</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="10">
         <f t="shared" si="0"/>
-        <v>16.85211245582763</v>
-      </c>
-      <c r="K7" s="8">
+        <v>16.8521124558276</v>
+      </c>
+      <c r="K7" s="11">
         <f t="shared" si="1"/>
-        <v>18.834713921219112</v>
+        <v>18.8347139212191</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="2"/>
         <v>67.36</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="12">
         <f t="shared" si="3"/>
-        <v>14.324295587453484</v>
-      </c>
-      <c r="N7" s="9">
+        <v>14.3242955874535</v>
+      </c>
+      <c r="N7" s="12">
         <f t="shared" si="4"/>
-        <v>16.009506833036248</v>
-      </c>
-      <c r="O7" s="9">
+        <v>16.0095068330362</v>
+      </c>
+      <c r="O7" s="12">
         <f t="shared" si="5"/>
-        <v>13.608080808080809</v>
-      </c>
-      <c r="P7" s="10">
+        <v>13.6080808080808</v>
+      </c>
+      <c r="P7" s="13">
         <f t="shared" si="6"/>
-        <v>22.453333333333333</v>
+        <v>22.4533333333333</v>
       </c>
       <c r="Q7" s="1">
         <v>1</v>
@@ -1624,7 +2718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="78" customHeight="1">
+    <row r="8" ht="78" customHeight="1" spans="2:18">
       <c r="B8">
         <v>16080401</v>
       </c>
@@ -1646,36 +2740,36 @@
       <c r="H8">
         <v>0.45</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="14">
         <v>0.5</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="10">
         <f t="shared" si="0"/>
-        <v>34.872408293460929</v>
-      </c>
-      <c r="K8" s="8">
+        <v>34.8724082934609</v>
+      </c>
+      <c r="K8" s="11">
         <f t="shared" si="1"/>
-        <v>38.975044563279859</v>
+        <v>38.9750445632799</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="2"/>
-        <v>87.460000000000008</v>
-      </c>
-      <c r="M8" s="9">
+        <v>87.46</v>
+      </c>
+      <c r="M8" s="12">
         <f t="shared" si="3"/>
-        <v>17.436204146730464</v>
-      </c>
-      <c r="N8" s="9">
+        <v>17.4362041467305</v>
+      </c>
+      <c r="N8" s="12">
         <f t="shared" si="4"/>
-        <v>19.487522281639929</v>
-      </c>
-      <c r="O8" s="9">
+        <v>19.4875222816399</v>
+      </c>
+      <c r="O8" s="12">
         <f t="shared" si="5"/>
-        <v>16.564393939393941</v>
-      </c>
-      <c r="P8" s="10">
+        <v>16.5643939393939</v>
+      </c>
+      <c r="P8" s="13">
         <f t="shared" si="6"/>
-        <v>21.864999999999995</v>
+        <v>21.865</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -1684,7 +2778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="92.25" customHeight="1">
+    <row r="9" ht="92.25" customHeight="1" spans="2:18">
       <c r="B9">
         <v>16100801</v>
       </c>
@@ -1706,36 +2800,36 @@
       <c r="H9">
         <v>0.45</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="14">
         <v>0.2</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="10">
         <f t="shared" si="0"/>
-        <v>20.590111642743221</v>
-      </c>
-      <c r="K9" s="8">
+        <v>20.5901116427432</v>
+      </c>
+      <c r="K9" s="11">
         <f t="shared" si="1"/>
-        <v>23.012477718360074</v>
+        <v>23.0124777183601</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="2"/>
-        <v>77.460000000000008</v>
-      </c>
-      <c r="M9" s="9">
+        <v>77.46</v>
+      </c>
+      <c r="M9" s="12">
         <f t="shared" si="3"/>
-        <v>16.47208931419458</v>
-      </c>
-      <c r="N9" s="9">
+        <v>16.4720893141946</v>
+      </c>
+      <c r="N9" s="12">
         <f t="shared" si="4"/>
-        <v>18.409982174688061</v>
-      </c>
-      <c r="O9" s="9">
+        <v>18.4099821746881</v>
+      </c>
+      <c r="O9" s="12">
         <f t="shared" si="5"/>
-        <v>15.648484848484852</v>
-      </c>
-      <c r="P9" s="10">
+        <v>15.6484848484849</v>
+      </c>
+      <c r="P9" s="13">
         <f t="shared" si="6"/>
-        <v>25.820000000000007</v>
+        <v>25.82</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -1744,7 +2838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="89.25" customHeight="1">
+    <row r="10" ht="89.25" customHeight="1" spans="2:18">
       <c r="B10">
         <v>16100901</v>
       </c>
@@ -1766,36 +2860,36 @@
       <c r="H10">
         <v>0.8</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="14">
         <v>0.3</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="10">
         <f t="shared" si="0"/>
-        <v>36.503379661274401</v>
-      </c>
-      <c r="K10" s="8">
+        <v>36.5033796612744</v>
+      </c>
+      <c r="K10" s="11">
         <f t="shared" si="1"/>
-        <v>40.797894915541981</v>
+        <v>40.797894915542</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="2"/>
         <v>120.16</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="12">
         <f t="shared" si="3"/>
-        <v>25.552365762892084</v>
-      </c>
-      <c r="N10" s="9">
+        <v>25.5523657628921</v>
+      </c>
+      <c r="N10" s="12">
         <f t="shared" si="4"/>
-        <v>28.558526440879387</v>
-      </c>
-      <c r="O10" s="9">
+        <v>28.5585264408794</v>
+      </c>
+      <c r="O10" s="12">
         <f t="shared" si="5"/>
-        <v>24.274747474747478</v>
-      </c>
-      <c r="P10" s="10">
+        <v>24.2747474747475</v>
+      </c>
+      <c r="P10" s="13">
         <f t="shared" si="6"/>
-        <v>40.053333333333342</v>
+        <v>40.0533333333333</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -1804,7 +2898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="95.25" customHeight="1">
+    <row r="11" ht="95.25" customHeight="1" spans="2:18">
       <c r="B11">
         <v>16101601</v>
       </c>
@@ -1826,36 +2920,36 @@
       <c r="H11">
         <v>0.4</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="14">
         <v>0.15</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="10">
         <f t="shared" si="0"/>
-        <v>32.363261093911255</v>
-      </c>
-      <c r="K11" s="8">
+        <v>32.3632610939113</v>
+      </c>
+      <c r="K11" s="11">
         <f t="shared" si="1"/>
-        <v>36.170703575547869</v>
+        <v>36.1707035755479</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="2"/>
-        <v>129.36000000000001</v>
-      </c>
-      <c r="M11" s="9">
+        <v>129.36</v>
+      </c>
+      <c r="M11" s="12">
         <f t="shared" si="3"/>
-        <v>27.508771929824569</v>
-      </c>
-      <c r="N11" s="9">
+        <v>27.5087719298246</v>
+      </c>
+      <c r="N11" s="12">
         <f t="shared" si="4"/>
-        <v>30.745098039215691</v>
-      </c>
-      <c r="O11" s="9">
+        <v>30.7450980392157</v>
+      </c>
+      <c r="O11" s="12">
         <f t="shared" si="5"/>
-        <v>26.133333333333336</v>
-      </c>
-      <c r="P11" s="10">
+        <v>26.1333333333333</v>
+      </c>
+      <c r="P11" s="13">
         <f t="shared" si="6"/>
-        <v>43.120000000000005</v>
+        <v>43.12</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -1864,7 +2958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="81.75" customHeight="1">
+    <row r="12" ht="81.75" customHeight="1" spans="2:18">
       <c r="B12">
         <v>16101602</v>
       </c>
@@ -1886,36 +2980,36 @@
       <c r="H12">
         <v>0.5</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="14">
         <v>0.15</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="10">
         <f t="shared" si="0"/>
-        <v>32.344193334905412</v>
-      </c>
-      <c r="K12" s="8">
+        <v>32.3441933349054</v>
+      </c>
+      <c r="K12" s="11">
         <f t="shared" si="1"/>
-        <v>36.149392550776639</v>
+        <v>36.1493925507766</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="2"/>
         <v>127.56</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="12">
         <f t="shared" si="3"/>
-        <v>27.492564334669598</v>
-      </c>
-      <c r="N12" s="9">
+        <v>27.4925643346696</v>
+      </c>
+      <c r="N12" s="12">
         <f t="shared" si="4"/>
-        <v>30.726983668160141</v>
-      </c>
-      <c r="O12" s="9">
+        <v>30.7269836681601</v>
+      </c>
+      <c r="O12" s="12">
         <f t="shared" si="5"/>
-        <v>26.117936117936122</v>
-      </c>
-      <c r="P12" s="10">
+        <v>26.1179361179361</v>
+      </c>
+      <c r="P12" s="13">
         <f t="shared" si="6"/>
-        <v>44.818378378378384</v>
+        <v>44.8183783783784</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1924,7 +3018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="89.1" customHeight="1">
+    <row r="13" ht="89.1" customHeight="1" spans="2:18">
       <c r="B13">
         <v>16101701</v>
       </c>
@@ -1946,36 +3040,36 @@
       <c r="H13">
         <v>0.35</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="14">
         <v>0.15</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="10">
         <f t="shared" si="0"/>
-        <v>14.825655940207024</v>
-      </c>
-      <c r="K13" s="8">
+        <v>14.825655940207</v>
+      </c>
+      <c r="K13" s="11">
         <f t="shared" si="1"/>
-        <v>16.569850756701971</v>
+        <v>16.569850756702</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="2"/>
         <v>59.26</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="12">
         <f t="shared" si="3"/>
-        <v>12.601807549175971</v>
-      </c>
-      <c r="N13" s="9">
+        <v>12.601807549176</v>
+      </c>
+      <c r="N13" s="12">
         <f t="shared" si="4"/>
-        <v>14.084373143196675</v>
-      </c>
-      <c r="O13" s="9">
+        <v>14.0843731431967</v>
+      </c>
+      <c r="O13" s="12">
         <f t="shared" si="5"/>
-        <v>11.971717171717172</v>
-      </c>
-      <c r="P13" s="10">
+        <v>11.9717171717172</v>
+      </c>
+      <c r="P13" s="13">
         <f t="shared" si="6"/>
-        <v>19.753333333333337</v>
+        <v>19.7533333333333</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -1984,15 +3078,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="84" customHeight="1">
+    <row r="14" ht="84" customHeight="1" spans="2:18">
       <c r="B14">
         <v>16101703</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>41</v>
+      <c r="D14" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="E14">
         <v>80</v>
@@ -2006,36 +3100,36 @@
       <c r="H14">
         <v>0.6</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="14">
         <v>0.5</v>
       </c>
-      <c r="J14" s="7">
-        <f>(E14+F14+($K$24*H14+$M$24)*$L$24)/(1-G14)/(1-$O$24)/(1-I14)/$N$24</f>
-        <v>58.590111642743217</v>
-      </c>
-      <c r="K14" s="8">
-        <f>(E14+F14+($K$24*H14+$M$24)*$L$24)/(1-G14)/(1-$P$24)/(1-I14)/$N$24</f>
-        <v>65.48306595365419</v>
+      <c r="J14" s="10">
+        <f t="shared" si="0"/>
+        <v>58.5901116427432</v>
+      </c>
+      <c r="K14" s="11">
+        <f t="shared" si="1"/>
+        <v>65.4830659536542</v>
       </c>
       <c r="L14" s="1">
-        <f>E14+F14+($K$24*H14+$M$24)*$L$24</f>
+        <f t="shared" si="2"/>
         <v>137.76</v>
       </c>
-      <c r="M14" s="9">
-        <f>L14/(1-G14)/(1-$O$24)/$N$24</f>
-        <v>29.295055821371609</v>
-      </c>
-      <c r="N14" s="9">
-        <f>L14/(1-G14)/(1-$P$24)/$N$24</f>
-        <v>32.741532976827095</v>
-      </c>
-      <c r="O14" s="9">
-        <f>L14/(1-G14)/$N$24</f>
-        <v>27.830303030303028</v>
-      </c>
-      <c r="P14" s="10">
-        <f>O14*$N$24-L14</f>
-        <v>45.919999999999987</v>
+      <c r="M14" s="12">
+        <f t="shared" si="3"/>
+        <v>29.2950558213716</v>
+      </c>
+      <c r="N14" s="12">
+        <f t="shared" si="4"/>
+        <v>32.7415329768271</v>
+      </c>
+      <c r="O14" s="12">
+        <f t="shared" si="5"/>
+        <v>27.830303030303</v>
+      </c>
+      <c r="P14" s="13">
+        <f t="shared" si="6"/>
+        <v>45.92</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -2044,15 +3138,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="90.75" customHeight="1">
+    <row r="15" ht="90.75" customHeight="1" spans="2:18">
       <c r="B15">
         <v>16101702</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>43</v>
+        <v>36</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="E15">
         <v>50</v>
@@ -2066,36 +3160,36 @@
       <c r="H15">
         <v>0.4</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="14">
         <v>0.15</v>
       </c>
-      <c r="J15" s="7">
-        <f>(E15+F15+(Sheet1!$K$24*H15+Sheet1!$M$24)*Sheet1!$L$24)/(1-G15)/(1-Sheet1!$O$24)/(1-I15)/Sheet1!$N$24</f>
-        <v>22.606248240923168</v>
-      </c>
-      <c r="K15" s="8">
-        <f>(E15+F15+(Sheet1!$K$24*H15+Sheet1!$M$24)*Sheet1!$L$24)/(1-G15)/(1-Sheet1!$P$24)/(1-I15)/Sheet1!$N$24</f>
-        <v>25.265806857502362</v>
+      <c r="J15" s="10">
+        <f>(E15+F15+(Sheet1!$K$34*H15+Sheet1!$M$34)*Sheet1!$L$34)/(1-G15)/(1-Sheet1!$O$34)/(1-I15)/Sheet1!$N$34</f>
+        <v>22.6062482409232</v>
+      </c>
+      <c r="K15" s="11">
+        <f>(E15+F15+(Sheet1!$K$34*H15+Sheet1!$M$34)*Sheet1!$L$34)/(1-G15)/(1-Sheet1!$P$34)/(1-I15)/Sheet1!$N$34</f>
+        <v>25.2658068575024</v>
       </c>
       <c r="L15" s="1">
-        <f>E15+F15+(Sheet1!$K$24*H15+Sheet1!$M$24)*Sheet1!$L$24</f>
+        <f>E15+F15+(Sheet1!$K$34*H15+Sheet1!$M$34)*Sheet1!$L$34</f>
         <v>90.36</v>
       </c>
-      <c r="M15" s="9">
-        <f>L15/(1-G15)/(1-Sheet1!$O$24)/Sheet1!$N$24</f>
-        <v>19.215311004784692</v>
-      </c>
-      <c r="N15" s="9">
-        <f>L15/(1-G15)/(1-Sheet1!$P$24)/Sheet1!$N$24</f>
-        <v>21.475935828877009</v>
-      </c>
-      <c r="O15" s="9">
-        <f>L15/(1-G15)/Sheet1!$N$24</f>
-        <v>18.254545454545458</v>
-      </c>
-      <c r="P15" s="10">
-        <f>O15*Sheet1!$N$24-L15</f>
-        <v>30.120000000000019</v>
+      <c r="M15" s="12">
+        <f>L15/(1-G15)/(1-Sheet1!$O$34)/Sheet1!$N$34</f>
+        <v>19.2153110047847</v>
+      </c>
+      <c r="N15" s="12">
+        <f>L15/(1-G15)/(1-Sheet1!$P$34)/Sheet1!$N$34</f>
+        <v>21.475935828877</v>
+      </c>
+      <c r="O15" s="12">
+        <f>L15/(1-G15)/Sheet1!$N$34</f>
+        <v>18.2545454545455</v>
+      </c>
+      <c r="P15" s="13">
+        <f>O15*Sheet1!$N$34-L15</f>
+        <v>30.12</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -2104,15 +3198,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="90.75" customHeight="1">
+    <row r="16" ht="90.75" customHeight="1" spans="2:18">
       <c r="B16">
         <v>16101901</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E16">
         <v>18</v>
@@ -2126,36 +3220,36 @@
       <c r="H16">
         <v>0.2</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="14">
         <v>0.25</v>
       </c>
-      <c r="J16" s="7">
-        <f>(E16+F16+(Sheet1!$K$24*H16+Sheet1!$M$24)*Sheet1!$L$24)/(1-G16)/(1-Sheet1!$O$24)/(1-I16)/Sheet1!$N$24</f>
-        <v>11.419457735247208</v>
-      </c>
-      <c r="K16" s="8">
-        <f>(E16+F16+(Sheet1!$K$24*H16+Sheet1!$M$24)*Sheet1!$L$24)/(1-G16)/(1-Sheet1!$P$24)/(1-I16)/Sheet1!$N$24</f>
-        <v>12.762923351158644</v>
+      <c r="J16" s="10">
+        <f>(E16+F16+(Sheet1!$K$34*H16+Sheet1!$M$34)*Sheet1!$L$34)/(1-G16)/(1-Sheet1!$O$34)/(1-I16)/Sheet1!$N$34</f>
+        <v>11.4194577352472</v>
+      </c>
+      <c r="K16" s="11">
+        <f>(E16+F16+(Sheet1!$K$34*H16+Sheet1!$M$34)*Sheet1!$L$34)/(1-G16)/(1-Sheet1!$P$34)/(1-I16)/Sheet1!$N$34</f>
+        <v>12.7629233511586</v>
       </c>
       <c r="L16" s="1">
-        <f>E16+F16+(Sheet1!$K$24*H16+Sheet1!$M$24)*Sheet1!$L$24</f>
-        <v>42.959999999999994</v>
-      </c>
-      <c r="M16" s="9">
-        <f>L16/(1-G16)/(1-Sheet1!$O$24)/Sheet1!$N$24</f>
-        <v>8.5645933014354068</v>
-      </c>
-      <c r="N16" s="9">
-        <f>L16/(1-G16)/(1-Sheet1!$P$24)/Sheet1!$N$24</f>
-        <v>9.5721925133689822</v>
-      </c>
-      <c r="O16" s="9">
-        <f>L16/(1-G16)/Sheet1!$N$24</f>
-        <v>8.1363636363636349</v>
-      </c>
-      <c r="P16" s="10">
-        <f>O16*Sheet1!$N$24-L16</f>
-        <v>10.739999999999995</v>
+        <f>E16+F16+(Sheet1!$K$34*H16+Sheet1!$M$34)*Sheet1!$L$34</f>
+        <v>42.96</v>
+      </c>
+      <c r="M16" s="12">
+        <f>L16/(1-G16)/(1-Sheet1!$O$34)/Sheet1!$N$34</f>
+        <v>8.56459330143541</v>
+      </c>
+      <c r="N16" s="12">
+        <f>L16/(1-G16)/(1-Sheet1!$P$34)/Sheet1!$N$34</f>
+        <v>9.57219251336898</v>
+      </c>
+      <c r="O16" s="12">
+        <f>L16/(1-G16)/Sheet1!$N$34</f>
+        <v>8.13636363636363</v>
+      </c>
+      <c r="P16" s="13">
+        <f>O16*Sheet1!$N$34-L16</f>
+        <v>10.74</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -2164,159 +3258,732 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:16" ht="90.75" customHeight="1">
-      <c r="C17" s="1"/>
-      <c r="D17" s="14"/>
-      <c r="G17" s="3"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="10"/>
+    <row r="17" ht="90.75" customHeight="1" spans="2:18">
+      <c r="B17">
+        <v>16110801</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H17">
+        <v>0.4</v>
+      </c>
+      <c r="I17" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="J17" s="10">
+        <f>(E17+F17+([1]Sheet1!$K$26*H17+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G17)/(1-[1]Sheet1!$O$26)/(1-I17)/[1]Sheet1!$N$26</f>
+        <v>16.1015730055978</v>
+      </c>
+      <c r="K17" s="11">
+        <f>(E17+F17+([1]Sheet1!$K$26*H17+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G17)/(1-[1]Sheet1!$P$26)/(1-I17)/[1]Sheet1!$N$26</f>
+        <v>17.9958757121387</v>
+      </c>
+      <c r="L17" s="1">
+        <f>E17+F17+([1]Sheet1!$K$26*H17+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
+        <v>64.36</v>
+      </c>
+      <c r="M17" s="12">
+        <f>L17/(1-G17)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
+        <v>13.6863370547581</v>
+      </c>
+      <c r="N17" s="12">
+        <f>L17/(1-G17)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
+        <v>15.2964943553179</v>
+      </c>
+      <c r="O17" s="12">
+        <f>L17/(1-G17)/[1]Sheet1!$N$26</f>
+        <v>13.0020202020202</v>
+      </c>
+      <c r="P17" s="13">
+        <f>O17*[1]Sheet1!$N$26-L17</f>
+        <v>21.4533333333333</v>
+      </c>
+      <c r="Q17" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="R17" s="14">
+        <v>0.45</v>
+      </c>
     </row>
-    <row r="18" spans="3:16" ht="90.75" customHeight="1">
-      <c r="C18" s="1"/>
-      <c r="D18" s="14"/>
-      <c r="G18" s="3"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="10"/>
+    <row r="18" ht="90.75" customHeight="1" spans="2:18">
+      <c r="B18">
+        <v>16110802</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H18">
+        <v>0.4</v>
+      </c>
+      <c r="I18" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="J18" s="10">
+        <f>(E18+F18+([1]Sheet1!$K$26*H18+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G18)/(1-[1]Sheet1!$O$26)/(1-I18)/[1]Sheet1!$N$26</f>
+        <v>16.1015730055978</v>
+      </c>
+      <c r="K18" s="11">
+        <f>(E18+F18+([1]Sheet1!$K$26*H18+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G18)/(1-[1]Sheet1!$P$26)/(1-I18)/[1]Sheet1!$N$26</f>
+        <v>17.9958757121387</v>
+      </c>
+      <c r="L18" s="1">
+        <f>E18+F18+([1]Sheet1!$K$26*H18+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
+        <v>64.36</v>
+      </c>
+      <c r="M18" s="12">
+        <f>L18/(1-G18)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
+        <v>13.6863370547581</v>
+      </c>
+      <c r="N18" s="12">
+        <f>L18/(1-G18)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
+        <v>15.2964943553179</v>
+      </c>
+      <c r="O18" s="12">
+        <f>L18/(1-G18)/[1]Sheet1!$N$26</f>
+        <v>13.0020202020202</v>
+      </c>
+      <c r="P18" s="13">
+        <f>O18*[1]Sheet1!$N$26-L18</f>
+        <v>21.4533333333333</v>
+      </c>
+      <c r="Q18" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="R18" s="14">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="19" spans="3:16" ht="90.75" customHeight="1">
+    <row r="19" ht="90.75" customHeight="1" spans="2:18">
+      <c r="B19">
+        <v>16110901</v>
+      </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="14"/>
-      <c r="G19" s="3"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="10"/>
+      <c r="D19" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19">
+        <v>18.5</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H19">
+        <v>0.15</v>
+      </c>
+      <c r="I19" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="J19" s="10">
+        <f>(E19+F19+([1]Sheet1!$K$26*H19+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G19)/(1-[1]Sheet1!$O$26)/(1-I19)/[1]Sheet1!$N$26</f>
+        <v>16.7400318979266</v>
+      </c>
+      <c r="K19" s="11">
+        <f>(E19+F19+([1]Sheet1!$K$26*H19+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G19)/(1-[1]Sheet1!$P$26)/(1-I19)/[1]Sheet1!$N$26</f>
+        <v>18.7094474153298</v>
+      </c>
+      <c r="L19" s="1">
+        <f>E19+F19+([1]Sheet1!$K$26*H19+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
+        <v>39.36</v>
+      </c>
+      <c r="M19" s="12">
+        <f>L19/(1-G19)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
+        <v>8.37001594896332</v>
+      </c>
+      <c r="N19" s="12">
+        <f>L19/(1-G19)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
+        <v>9.35472370766488</v>
+      </c>
+      <c r="O19" s="12">
+        <f>L19/(1-G19)/[1]Sheet1!$N$26</f>
+        <v>7.95151515151515</v>
+      </c>
+      <c r="P19" s="13">
+        <f>O19*[1]Sheet1!$N$26-L19</f>
+        <v>13.12</v>
+      </c>
+      <c r="Q19">
+        <v>15</v>
+      </c>
+      <c r="R19">
+        <v>50</v>
+      </c>
     </row>
-    <row r="20" spans="3:16" ht="90.75" customHeight="1">
+    <row r="20" ht="90.75" customHeight="1" spans="2:18">
+      <c r="B20">
+        <v>16111001</v>
+      </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="14"/>
-      <c r="G20" s="3"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="10"/>
+      <c r="D20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20">
+        <v>25.5</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H20">
+        <v>0.3</v>
+      </c>
+      <c r="I20" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="J20" s="10">
+        <f>(E20+F20+([1]Sheet1!$K$26*H20+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G20)/(1-[1]Sheet1!$O$26)/(1-I20)/[1]Sheet1!$N$26</f>
+        <v>18.1240981240981</v>
+      </c>
+      <c r="K20" s="11">
+        <f>(E20+F20+([1]Sheet1!$K$26*H20+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G20)/(1-[1]Sheet1!$P$26)/(1-I20)/[1]Sheet1!$N$26</f>
+        <v>20.2563449622273</v>
+      </c>
+      <c r="L20" s="1">
+        <f>E20+F20+([1]Sheet1!$K$26*H20+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
+        <v>59.66</v>
+      </c>
+      <c r="M20" s="12">
+        <f>L20/(1-G20)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
+        <v>12.6868686868687</v>
+      </c>
+      <c r="N20" s="12">
+        <f>L20/(1-G20)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
+        <v>14.1794414735591</v>
+      </c>
+      <c r="O20" s="12">
+        <f>L20/(1-G20)/[1]Sheet1!$N$26</f>
+        <v>12.0525252525253</v>
+      </c>
+      <c r="P20" s="13">
+        <f>O20*[1]Sheet1!$N$26-L20</f>
+        <v>19.8866666666667</v>
+      </c>
+      <c r="R20">
+        <v>30</v>
+      </c>
     </row>
-    <row r="23" spans="3:16">
-      <c r="K23" s="12" t="s">
+    <row r="21" ht="90.75" customHeight="1" spans="2:18">
+      <c r="B21">
+        <v>16111901</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21">
+        <v>34</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H21">
+        <v>0.25</v>
+      </c>
+      <c r="I21" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="J21" s="10">
+        <f>(E21+F21+([1]Sheet1!$K$26*H21+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G21)/(1-[1]Sheet1!$O$26)/(1-I21)/[1]Sheet1!$N$26</f>
+        <v>25.541539799913</v>
+      </c>
+      <c r="K21" s="11">
+        <f>(E21+F21+([1]Sheet1!$K$26*H21+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G21)/(1-[1]Sheet1!$P$26)/(1-I21)/[1]Sheet1!$N$26</f>
+        <v>28.5464268351969</v>
+      </c>
+      <c r="L21" s="1">
+        <f>E21+F21+([1]Sheet1!$K$26*H21+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
+        <v>66.06</v>
+      </c>
+      <c r="M21" s="12">
+        <f>L21/(1-G21)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
+        <v>14.0478468899522</v>
+      </c>
+      <c r="N21" s="12">
+        <f>L21/(1-G21)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
+        <v>15.7005347593583</v>
+      </c>
+      <c r="O21" s="12">
+        <f>L21/(1-G21)/[1]Sheet1!$N$26</f>
+        <v>13.3454545454545</v>
+      </c>
+      <c r="P21" s="13">
+        <f>O21*[1]Sheet1!$N$26-L21</f>
+        <v>22.02</v>
+      </c>
+      <c r="R21">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" ht="91" customHeight="1" spans="2:18">
+      <c r="B22">
+        <v>16112001</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22">
+        <v>34</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H22">
+        <v>0.25</v>
+      </c>
+      <c r="I22" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="J22" s="10">
+        <f>(E22+F22+([1]Sheet1!$K$26*H22+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G22)/(1-[1]Sheet1!$O$26)/(1-I22)/[1]Sheet1!$N$26</f>
+        <v>25.541539799913</v>
+      </c>
+      <c r="K22" s="11">
+        <f>(E22+F22+([1]Sheet1!$K$26*H22+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G22)/(1-[1]Sheet1!$P$26)/(1-I22)/[1]Sheet1!$N$26</f>
+        <v>28.5464268351969</v>
+      </c>
+      <c r="L22" s="1">
+        <f>E22+F22+([1]Sheet1!$K$26*H22+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
+        <v>66.06</v>
+      </c>
+      <c r="M22" s="12">
+        <f>L22/(1-G22)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
+        <v>14.0478468899522</v>
+      </c>
+      <c r="N22" s="12">
+        <f>L22/(1-G22)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
+        <v>15.7005347593583</v>
+      </c>
+      <c r="O22" s="12">
+        <f>L22/(1-G22)/[1]Sheet1!$N$26</f>
+        <v>13.3454545454545</v>
+      </c>
+      <c r="P22" s="13">
+        <f>O22*[1]Sheet1!$N$26-L22</f>
+        <v>22.02</v>
+      </c>
+      <c r="R22">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" ht="91" customHeight="1" spans="2:18">
+      <c r="B23">
+        <v>16112002</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23">
+        <v>38</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H23">
+        <v>0.25</v>
+      </c>
+      <c r="I23" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="J23" s="10">
+        <f>(E23+F23+([1]Sheet1!$K$26*H23+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G23)/(1-[1]Sheet1!$O$26)/(1-I23)/[1]Sheet1!$N$26</f>
+        <v>27.0881059397806</v>
+      </c>
+      <c r="K23" s="11">
+        <f>(E23+F23+([1]Sheet1!$K$26*H23+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G23)/(1-[1]Sheet1!$P$26)/(1-I23)/[1]Sheet1!$N$26</f>
+        <v>30.2749419326959</v>
+      </c>
+      <c r="L23" s="1">
+        <f>E23+F23+([1]Sheet1!$K$26*H23+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
+        <v>70.06</v>
+      </c>
+      <c r="M23" s="12">
+        <f>L23/(1-G23)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
+        <v>14.8984582668793</v>
+      </c>
+      <c r="N23" s="12">
+        <f>L23/(1-G23)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
+        <v>16.6512180629828</v>
+      </c>
+      <c r="O23" s="12">
+        <f>L23/(1-G23)/[1]Sheet1!$N$26</f>
+        <v>14.1535353535354</v>
+      </c>
+      <c r="P23" s="13">
+        <f>O23*[1]Sheet1!$N$26-L23</f>
+        <v>23.3533333333333</v>
+      </c>
+      <c r="R23">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" ht="90.75" customHeight="1" spans="2:18">
+      <c r="B24">
+        <v>16112003</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24">
         <v>35</v>
       </c>
-      <c r="L23" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="M23" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="N23" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="O23" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="P23" s="12" t="s">
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H24">
+        <v>0.25</v>
+      </c>
+      <c r="I24" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="J24" s="10">
+        <f>(E24+F24+([1]Sheet1!$K$26*H24+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G24)/(1-[1]Sheet1!$O$26)/(1-I24)/[1]Sheet1!$N$26</f>
+        <v>25.9281813348799</v>
+      </c>
+      <c r="K24" s="11">
+        <f>(E24+F24+([1]Sheet1!$K$26*H24+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G24)/(1-[1]Sheet1!$P$26)/(1-I24)/[1]Sheet1!$N$26</f>
+        <v>28.9785556095717</v>
+      </c>
+      <c r="L24" s="1">
+        <f>E24+F24+([1]Sheet1!$K$26*H24+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
+        <v>67.06</v>
+      </c>
+      <c r="M24" s="12">
+        <f>L24/(1-G24)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
+        <v>14.2604997341839</v>
+      </c>
+      <c r="N24" s="12">
+        <f>L24/(1-G24)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
+        <v>15.9382055852644</v>
+      </c>
+      <c r="O24" s="12">
+        <f>L24/(1-G24)/[1]Sheet1!$N$26</f>
+        <v>13.5474747474747</v>
+      </c>
+      <c r="P24" s="13">
+        <f>O24*[1]Sheet1!$N$26-L24</f>
+        <v>22.3533333333333</v>
+      </c>
+      <c r="R24">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" ht="90.75" customHeight="1" spans="2:18">
+      <c r="B25">
+        <v>16112301</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25">
+        <v>32</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H25">
+        <v>0.35</v>
+      </c>
+      <c r="I25" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="J25" s="10">
+        <f>(E25+F25+([1]Sheet1!$K$26*H25+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G25)/(1-[1]Sheet1!$O$26)/(1-I25)/[1]Sheet1!$N$26</f>
+        <v>24.9016480595428</v>
+      </c>
+      <c r="K25" s="11"/>
+      <c r="L25" s="1">
+        <f>E25+F25+([1]Sheet1!$K$26*H25+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
+        <v>70.26</v>
+      </c>
+      <c r="M25" s="12">
+        <f>L25/(1-G25)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
+        <v>14.9409888357257</v>
+      </c>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12">
+        <f>L25/(1-G25)/[1]Sheet1!$N$26</f>
+        <v>14.1939393939394</v>
+      </c>
+      <c r="P25" s="13">
+        <f>O25*[1]Sheet1!$N$26-L25</f>
+        <v>23.42</v>
+      </c>
+      <c r="R25">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="3:16">
-      <c r="K24" s="13">
+    <row r="26" ht="90.75" customHeight="1" spans="2:18">
+      <c r="B26">
+        <v>16112302</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26">
+        <v>33</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H26">
+        <v>0.25</v>
+      </c>
+      <c r="I26" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="J26" s="10">
+        <f>(E26+F26+([1]Sheet1!$K$26*H26+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G26)/(1-[1]Sheet1!$O$26)/(1-I26)/[1]Sheet1!$N$26</f>
+        <v>22.3498139287613</v>
+      </c>
+      <c r="K26" s="11"/>
+      <c r="L26" s="1">
+        <f>E26+F26+([1]Sheet1!$K$26*H26+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
+        <v>63.06</v>
+      </c>
+      <c r="M26" s="12">
+        <f>L26/(1-G26)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
+        <v>13.4098883572568</v>
+      </c>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12">
+        <f>L26/(1-G26)/[1]Sheet1!$N$26</f>
+        <v>12.7393939393939</v>
+      </c>
+      <c r="P26" s="13">
+        <f>O26*[1]Sheet1!$N$26-L26</f>
+        <v>21.02</v>
+      </c>
+      <c r="R26">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" ht="90.75" customHeight="1" spans="3:16">
+      <c r="C27" s="1"/>
+      <c r="D27" s="7"/>
+      <c r="G27" s="3"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="13"/>
+    </row>
+    <row r="28" ht="90.75" customHeight="1" spans="3:16">
+      <c r="C28" s="1"/>
+      <c r="D28" s="7"/>
+      <c r="G28" s="3"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="13"/>
+    </row>
+    <row r="29" ht="90.75" customHeight="1" spans="3:16">
+      <c r="C29" s="1"/>
+      <c r="D29" s="7"/>
+      <c r="G29" s="3"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="13"/>
+    </row>
+    <row r="30" ht="90.75" customHeight="1" spans="3:16">
+      <c r="C30" s="1"/>
+      <c r="D30" s="7"/>
+      <c r="G30" s="3"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="13"/>
+    </row>
+    <row r="33" spans="11:16">
+      <c r="K33" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L33" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="M33" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="N33" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="O33" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="11:16">
+      <c r="K34" s="16">
         <v>100</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L34" s="14">
         <v>0.82</v>
       </c>
-      <c r="M24">
+      <c r="M34">
         <v>8</v>
       </c>
-      <c r="N24">
+      <c r="N34">
         <v>6.6</v>
       </c>
-      <c r="O24" s="11">
+      <c r="O34" s="14">
         <v>0.05</v>
       </c>
-      <c r="P24" s="11">
+      <c r="P34" s="14">
         <v>0.15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24 C25 C26 C17:C21 C28:C30">
+      <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子"</formula1>
+    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"爬爬服"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18:C20">
-      <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27 C2:C16">
+      <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子,裤子"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q6 R2:R4">
       <formula1>"0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C17">
-      <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子,裤子"</formula1>
-    </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D6" r:id="rId3"/>
-    <hyperlink ref="S6" r:id="rId4"/>
-    <hyperlink ref="D8" r:id="rId5"/>
-    <hyperlink ref="D9" r:id="rId6"/>
-    <hyperlink ref="D10" r:id="rId7"/>
-    <hyperlink ref="D11" r:id="rId8"/>
-    <hyperlink ref="D12" r:id="rId9"/>
-    <hyperlink ref="D13" r:id="rId10"/>
-    <hyperlink ref="D14" r:id="rId11"/>
-    <hyperlink ref="D15" r:id="rId12"/>
-    <hyperlink ref="D16" r:id="rId13"/>
+    <hyperlink ref="D5" r:id="rId2" display="https://detail.1688.com/offer/43388465240.html?spm=a2615.7691456.0.0.SVo0SF"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://detail.1688.com/offer/532946594199.html?spm=a2615.7691456.0.0.KfqxAP"/>
+    <hyperlink ref="D6" r:id="rId4" display="https://item.taobao.com/item.htm?spm=a230r.1.0.0.NVkYXr&amp;id=535812571550&amp;ns=1#detail"/>
+    <hyperlink ref="S6" r:id="rId4" display="https://item.taobao.com/item.htm?spm=a230r.1.0.0.NVkYXr&amp;id=535812571550&amp;ns=1#detail"/>
+    <hyperlink ref="D8" r:id="rId5" display="https://detail.1688.com/offer/521926765457.html?spm=a2615.7691456.0.0.Iw9wYb"/>
+    <hyperlink ref="D9" r:id="rId6" display="https://detail.1688.com/offer/539601777542.html?spm=b26110380.8015204.1688002.1.tV3mIo"/>
+    <hyperlink ref="D10" r:id="rId7" display="https://detail.1688.com/offer/534650922032.html"/>
+    <hyperlink ref="D11" r:id="rId8" display="https://detail.1688.com/offer/525196220868.html?spm=b26110380.8015204.xshy005.911.FMmHAe"/>
+    <hyperlink ref="D12" r:id="rId9" display="https://detail.1688.com/offer/525739109360.html?spm=b26110380.sw311.0.0.2w3SJa"/>
+    <hyperlink ref="D13" r:id="rId10" display="https://detail.1688.com/offer/536964765017.html?spm=b26110380.8015204.1688002.2.0qEfTf"/>
+    <hyperlink ref="D14" r:id="rId11" display="https://detail.1688.com/offer/523084291442.html?spm=b26110380.8015204.tkhy006.2.7zxqcs"/>
+    <hyperlink ref="D15" r:id="rId12" display="https://detail.1688.com/offer/539464650849.html?spm=b26110380.8015204.tkhy006.13.LriGRm"/>
+    <hyperlink ref="D16" r:id="rId13" display="https://detail.1688.com/offer/539024831638.html?spm=a2615.7691456.0.0.erl0H2"/>
+    <hyperlink ref="D19" r:id="rId14" display="https://detail.1688.com/offer/37436493140.html?spm=a261y.7663282.0.0.Bdoqfg"/>
+    <hyperlink ref="D20" r:id="rId15" display="https://detail.1688.com/offer/525328573875.html?spm=a2615.2177701.0.0.inGNvk"/>
+    <hyperlink ref="D21" r:id="rId16" display="https://detail.1688.com/offer/531099455627.html?spm=b26110380.sw311.0.0.NlP3tV"/>
+    <hyperlink ref="D22" r:id="rId17" display="https://detail.1688.com/offer/539748592006.html?spm=a2615.7691456.0.0.gzA0aC"/>
+    <hyperlink ref="D23" r:id="rId18" display="https://detail.1688.com/offer/542005628301.html?spm=a2615.7691456.0.0.E27Va6" tooltip="https://detail.1688.com/offer/542005628301.html?spm=a2615.7691456.0.0.E27Va6"/>
+    <hyperlink ref="D24" r:id="rId16" display="https://detail.1688.com/offer/531099455627.html?spm=b26110380.sw311.0.0.NlP3tV"/>
+    <hyperlink ref="D25" r:id="rId19" display="https://detail.1688.com/offer/537712350771.html?spm=a261y.7663282.0.0.HGrgRG&amp;sk=consign"/>
+    <hyperlink ref="D26" r:id="rId20" display="https://detail.1688.com/offer/535604104982.html?spm=a2615.7691456.0.0.ceDRcB" tooltip="https://detail.1688.com/offer/535604104982.html?spm=a2615.7691456.0.0.ceDRcB"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <drawing r:id="rId14"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/产品表单.xlsx
+++ b/产品表单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14640" windowHeight="8690"/>
+    <workbookView windowWidth="19100" windowHeight="8690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>产品标题</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>https://detail.1688.com/offer/535604104982.html?spm=a2615.7691456.0.0.ceDRcB</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/37168671718.html?spm=a2615.7691456.0.0.lpzicl</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/538358020263.html?spm=a2615.7691456.0.0.BXbA7w</t>
   </si>
   <si>
     <t>国际运费 1kg/￥</t>
@@ -194,16 +200,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="177" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,7 +228,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -237,7 +243,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,8 +295,52 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,8 +362,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,96 +372,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,13 +393,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,7 +441,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,19 +459,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,109 +471,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,13 +495,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,6 +584,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -612,6 +637,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -623,30 +666,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,26 +684,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -693,10 +692,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -705,137 +704,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -863,19 +862,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1927,6 +1923,90 @@
         <a:xfrm>
           <a:off x="635" y="26583005"/>
           <a:ext cx="962660" cy="1080135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1123315</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="图片 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6350" y="27710765"/>
+          <a:ext cx="920750" cy="1102995"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>75565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1115695</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="图片 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12700" y="28918535"/>
+          <a:ext cx="949325" cy="1040130"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2266,12 +2346,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="$A17:$XFD26"/>
+      <selection pane="bottomLeft" activeCell="P27" sqref="P27:P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2375,32 +2455,32 @@
       <c r="I2" s="3">
         <v>0.15</v>
       </c>
-      <c r="J2" s="10">
-        <f t="shared" ref="J2:J14" si="0">(E2+F2+($K$34*H2+$M$34)*$L$34)/(1-G2)/(1-$O$34)/(1-I2)/$N$34</f>
+      <c r="J2" s="9">
+        <f t="shared" ref="J2:J14" si="0">(E2+F2+($K$37*H2+$M$37)*$L$37)/(1-G2)/(1-$O$37)/(1-I2)/$N$37</f>
         <v>16.5518966757357</v>
       </c>
-      <c r="K2" s="11">
-        <f t="shared" ref="K2:K14" si="1">(E2+F2+($K$34*H2+$M$34)*$L$34)/(1-G2)/(1-$P$34)/(1-I2)/$N$34</f>
+      <c r="K2" s="10">
+        <f t="shared" ref="K2:K14" si="1">(E2+F2+($K$37*H2+$M$37)*$L$37)/(1-G2)/(1-$P$37)/(1-I2)/$N$37</f>
         <v>18.4991786375869</v>
       </c>
       <c r="L2" s="1">
-        <f t="shared" ref="L2:L14" si="2">E2+F2+($K$34*H2+$M$34)*$L$34</f>
+        <f t="shared" ref="L2:L14" si="2">E2+F2+($K$37*H2+$M$37)*$L$37</f>
         <v>66.16</v>
       </c>
-      <c r="M2" s="12">
-        <f t="shared" ref="M2:M14" si="3">L2/(1-G2)/(1-$O$34)/$N$34</f>
+      <c r="M2" s="11">
+        <f t="shared" ref="M2:M14" si="3">L2/(1-G2)/(1-$O$37)/$N$37</f>
         <v>14.0691121743753</v>
       </c>
-      <c r="N2" s="12">
-        <f t="shared" ref="N2:N14" si="4">L2/(1-G2)/(1-$P$34)/$N$34</f>
+      <c r="N2" s="11">
+        <f t="shared" ref="N2:N14" si="4">L2/(1-G2)/(1-$P$37)/$N$37</f>
         <v>15.7243018419489</v>
       </c>
-      <c r="O2" s="12">
-        <f>L2/(1-G2)/$N$34</f>
+      <c r="O2" s="11">
+        <f>L2/(1-G2)/$N$37</f>
         <v>13.3656565656566</v>
       </c>
-      <c r="P2" s="13">
-        <f>O2*$N$34-L2</f>
+      <c r="P2" s="12">
+        <f>O2*$N$37-L2</f>
         <v>22.0533333333333</v>
       </c>
       <c r="Q2" s="1">
@@ -2436,11 +2516,11 @@
       <c r="I3" s="3">
         <v>0.25</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="9">
         <f t="shared" si="0"/>
         <v>10.7630692893851</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="10">
         <f t="shared" si="1"/>
         <v>12.0293127351951</v>
       </c>
@@ -2448,20 +2528,20 @@
         <f t="shared" si="2"/>
         <v>37.96</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="11">
         <f t="shared" si="3"/>
         <v>8.07230196703881</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="11">
         <f t="shared" si="4"/>
         <v>9.02198455139632</v>
       </c>
-      <c r="O3" s="12">
-        <f>L3/(1-G3)/$N$34</f>
+      <c r="O3" s="11">
+        <f>L3/(1-G3)/$N$37</f>
         <v>7.66868686868687</v>
       </c>
-      <c r="P3" s="13">
-        <f>O3*$N$34-L3</f>
+      <c r="P3" s="12">
+        <f>O3*$N$37-L3</f>
         <v>12.6533333333333</v>
       </c>
       <c r="Q3" s="1">
@@ -2497,11 +2577,11 @@
       <c r="I4" s="3">
         <v>0.3</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
         <f t="shared" si="0"/>
         <v>18.8228146122883</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="10">
         <f t="shared" si="1"/>
         <v>21.0372633902046</v>
       </c>
@@ -2509,20 +2589,20 @@
         <f t="shared" si="2"/>
         <v>61.96</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="11">
         <f t="shared" si="3"/>
         <v>13.1759702286018</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="11">
         <f t="shared" si="4"/>
         <v>14.7260843731432</v>
       </c>
-      <c r="O4" s="12">
-        <f>L4/(1-G4)/$N$34</f>
+      <c r="O4" s="11">
+        <f>L4/(1-G4)/$N$37</f>
         <v>12.5171717171717</v>
       </c>
-      <c r="P4" s="13">
-        <f>O4*$N$34-L4</f>
+      <c r="P4" s="12">
+        <f>O4*$N$37-L4</f>
         <v>20.6533333333333</v>
       </c>
       <c r="Q4" s="1">
@@ -2558,11 +2638,11 @@
       <c r="I5" s="3">
         <v>0.15</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="9">
         <f t="shared" si="0"/>
         <v>17.8528317228008</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="10">
         <f t="shared" si="1"/>
         <v>19.9531648666597</v>
       </c>
@@ -2570,20 +2650,20 @@
         <f t="shared" si="2"/>
         <v>71.36</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="11">
         <f t="shared" si="3"/>
         <v>15.1749069643806</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="11">
         <f t="shared" si="4"/>
         <v>16.9601901366607</v>
       </c>
-      <c r="O5" s="12">
-        <f>L5/(1-G5)/$N$34</f>
+      <c r="O5" s="11">
+        <f>L5/(1-G5)/$N$37</f>
         <v>14.4161616161616</v>
       </c>
-      <c r="P5" s="13">
-        <f>O5*$N$34-L5</f>
+      <c r="P5" s="12">
+        <f>O5*$N$37-L5</f>
         <v>23.7866666666667</v>
       </c>
       <c r="Q5" s="1">
@@ -2619,11 +2699,11 @@
       <c r="I6" s="3">
         <v>0.15</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="9">
         <f t="shared" si="0"/>
         <v>15.0483159771085</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="10">
         <f t="shared" si="1"/>
         <v>16.8187060920625</v>
       </c>
@@ -2631,20 +2711,20 @@
         <f t="shared" si="2"/>
         <v>64.16</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="11">
         <f t="shared" si="3"/>
         <v>12.7910685805423</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="11">
         <f t="shared" si="4"/>
         <v>14.2959001782531</v>
       </c>
-      <c r="O6" s="12">
-        <f t="shared" ref="O6:O14" si="5">L6/(1-G6)/$N$34</f>
+      <c r="O6" s="11">
+        <f t="shared" ref="O6:O14" si="5">L6/(1-G6)/$N$37</f>
         <v>12.1515151515152</v>
       </c>
-      <c r="P6" s="13">
-        <f t="shared" ref="P6:P14" si="6">O6*$N$34-L6</f>
+      <c r="P6" s="12">
+        <f t="shared" ref="P6:P14" si="6">O6*$N$37-L6</f>
         <v>16.04</v>
       </c>
       <c r="Q6" s="1">
@@ -2683,11 +2763,11 @@
       <c r="I7" s="3">
         <v>0.15</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="9">
         <f t="shared" si="0"/>
         <v>16.8521124558276</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="10">
         <f t="shared" si="1"/>
         <v>18.8347139212191</v>
       </c>
@@ -2695,19 +2775,19 @@
         <f t="shared" si="2"/>
         <v>67.36</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="11">
         <f t="shared" si="3"/>
         <v>14.3242955874535</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="11">
         <f t="shared" si="4"/>
         <v>16.0095068330362</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="11">
         <f t="shared" si="5"/>
         <v>13.6080808080808</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="12">
         <f t="shared" si="6"/>
         <v>22.4533333333333</v>
       </c>
@@ -2740,14 +2820,14 @@
       <c r="H8">
         <v>0.45</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="13">
         <v>0.5</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="9">
         <f t="shared" si="0"/>
         <v>34.8724082934609</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="10">
         <f t="shared" si="1"/>
         <v>38.9750445632799</v>
       </c>
@@ -2755,19 +2835,19 @@
         <f t="shared" si="2"/>
         <v>87.46</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="11">
         <f t="shared" si="3"/>
         <v>17.4362041467305</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="11">
         <f t="shared" si="4"/>
         <v>19.4875222816399</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="11">
         <f t="shared" si="5"/>
         <v>16.5643939393939</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="12">
         <f t="shared" si="6"/>
         <v>21.865</v>
       </c>
@@ -2800,14 +2880,14 @@
       <c r="H9">
         <v>0.45</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="13">
         <v>0.2</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <f t="shared" si="0"/>
         <v>20.5901116427432</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <f t="shared" si="1"/>
         <v>23.0124777183601</v>
       </c>
@@ -2815,19 +2895,19 @@
         <f t="shared" si="2"/>
         <v>77.46</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="11">
         <f t="shared" si="3"/>
         <v>16.4720893141946</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="11">
         <f t="shared" si="4"/>
         <v>18.4099821746881</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="11">
         <f t="shared" si="5"/>
         <v>15.6484848484849</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="12">
         <f t="shared" si="6"/>
         <v>25.82</v>
       </c>
@@ -2860,14 +2940,14 @@
       <c r="H10">
         <v>0.8</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="13">
         <v>0.3</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="9">
         <f t="shared" si="0"/>
         <v>36.5033796612744</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="10">
         <f t="shared" si="1"/>
         <v>40.797894915542</v>
       </c>
@@ -2875,19 +2955,19 @@
         <f t="shared" si="2"/>
         <v>120.16</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="11">
         <f t="shared" si="3"/>
         <v>25.5523657628921</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="11">
         <f t="shared" si="4"/>
         <v>28.5585264408794</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="11">
         <f t="shared" si="5"/>
         <v>24.2747474747475</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="12">
         <f t="shared" si="6"/>
         <v>40.0533333333333</v>
       </c>
@@ -2920,14 +3000,14 @@
       <c r="H11">
         <v>0.4</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="13">
         <v>0.15</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="9">
         <f t="shared" si="0"/>
         <v>32.3632610939113</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="10">
         <f t="shared" si="1"/>
         <v>36.1707035755479</v>
       </c>
@@ -2935,19 +3015,19 @@
         <f t="shared" si="2"/>
         <v>129.36</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="11">
         <f t="shared" si="3"/>
         <v>27.5087719298246</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="11">
         <f t="shared" si="4"/>
         <v>30.7450980392157</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="11">
         <f t="shared" si="5"/>
         <v>26.1333333333333</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="12">
         <f t="shared" si="6"/>
         <v>43.12</v>
       </c>
@@ -2980,14 +3060,14 @@
       <c r="H12">
         <v>0.5</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="13">
         <v>0.15</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="9">
         <f t="shared" si="0"/>
         <v>32.3441933349054</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="10">
         <f t="shared" si="1"/>
         <v>36.1493925507766</v>
       </c>
@@ -2995,19 +3075,19 @@
         <f t="shared" si="2"/>
         <v>127.56</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="11">
         <f t="shared" si="3"/>
         <v>27.4925643346696</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="11">
         <f t="shared" si="4"/>
         <v>30.7269836681601</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="11">
         <f t="shared" si="5"/>
         <v>26.1179361179361</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="12">
         <f t="shared" si="6"/>
         <v>44.8183783783784</v>
       </c>
@@ -3040,14 +3120,14 @@
       <c r="H13">
         <v>0.35</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="13">
         <v>0.15</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="9">
         <f t="shared" si="0"/>
         <v>14.825655940207</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="10">
         <f t="shared" si="1"/>
         <v>16.569850756702</v>
       </c>
@@ -3055,19 +3135,19 @@
         <f t="shared" si="2"/>
         <v>59.26</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="11">
         <f t="shared" si="3"/>
         <v>12.601807549176</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="11">
         <f t="shared" si="4"/>
         <v>14.0843731431967</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="11">
         <f t="shared" si="5"/>
         <v>11.9717171717172</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="12">
         <f t="shared" si="6"/>
         <v>19.7533333333333</v>
       </c>
@@ -3100,14 +3180,14 @@
       <c r="H14">
         <v>0.6</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="13">
         <v>0.5</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="9">
         <f t="shared" si="0"/>
         <v>58.5901116427432</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="10">
         <f t="shared" si="1"/>
         <v>65.4830659536542</v>
       </c>
@@ -3115,19 +3195,19 @@
         <f t="shared" si="2"/>
         <v>137.76</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="11">
         <f t="shared" si="3"/>
         <v>29.2950558213716</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="11">
         <f t="shared" si="4"/>
         <v>32.7415329768271</v>
       </c>
-      <c r="O14" s="12">
+      <c r="O14" s="11">
         <f t="shared" si="5"/>
         <v>27.830303030303</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P14" s="12">
         <f t="shared" si="6"/>
         <v>45.92</v>
       </c>
@@ -3160,35 +3240,35 @@
       <c r="H15">
         <v>0.4</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="13">
         <v>0.15</v>
       </c>
-      <c r="J15" s="10">
-        <f>(E15+F15+(Sheet1!$K$34*H15+Sheet1!$M$34)*Sheet1!$L$34)/(1-G15)/(1-Sheet1!$O$34)/(1-I15)/Sheet1!$N$34</f>
+      <c r="J15" s="9">
+        <f>(E15+F15+(Sheet1!$K$37*H15+Sheet1!$M$37)*Sheet1!$L$37)/(1-G15)/(1-Sheet1!$O$37)/(1-I15)/Sheet1!$N$37</f>
         <v>22.6062482409232</v>
       </c>
-      <c r="K15" s="11">
-        <f>(E15+F15+(Sheet1!$K$34*H15+Sheet1!$M$34)*Sheet1!$L$34)/(1-G15)/(1-Sheet1!$P$34)/(1-I15)/Sheet1!$N$34</f>
+      <c r="K15" s="10">
+        <f>(E15+F15+(Sheet1!$K$37*H15+Sheet1!$M$37)*Sheet1!$L$37)/(1-G15)/(1-Sheet1!$P$37)/(1-I15)/Sheet1!$N$37</f>
         <v>25.2658068575024</v>
       </c>
       <c r="L15" s="1">
-        <f>E15+F15+(Sheet1!$K$34*H15+Sheet1!$M$34)*Sheet1!$L$34</f>
+        <f>E15+F15+(Sheet1!$K$37*H15+Sheet1!$M$37)*Sheet1!$L$37</f>
         <v>90.36</v>
       </c>
-      <c r="M15" s="12">
-        <f>L15/(1-G15)/(1-Sheet1!$O$34)/Sheet1!$N$34</f>
+      <c r="M15" s="11">
+        <f>L15/(1-G15)/(1-Sheet1!$O$37)/Sheet1!$N$37</f>
         <v>19.2153110047847</v>
       </c>
-      <c r="N15" s="12">
-        <f>L15/(1-G15)/(1-Sheet1!$P$34)/Sheet1!$N$34</f>
+      <c r="N15" s="11">
+        <f>L15/(1-G15)/(1-Sheet1!$P$37)/Sheet1!$N$37</f>
         <v>21.475935828877</v>
       </c>
-      <c r="O15" s="12">
-        <f>L15/(1-G15)/Sheet1!$N$34</f>
+      <c r="O15" s="11">
+        <f>L15/(1-G15)/Sheet1!$N$37</f>
         <v>18.2545454545455</v>
       </c>
-      <c r="P15" s="13">
-        <f>O15*Sheet1!$N$34-L15</f>
+      <c r="P15" s="12">
+        <f>O15*Sheet1!$N$37-L15</f>
         <v>30.12</v>
       </c>
       <c r="Q15">
@@ -3220,35 +3300,35 @@
       <c r="H16">
         <v>0.2</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="13">
         <v>0.25</v>
       </c>
-      <c r="J16" s="10">
-        <f>(E16+F16+(Sheet1!$K$34*H16+Sheet1!$M$34)*Sheet1!$L$34)/(1-G16)/(1-Sheet1!$O$34)/(1-I16)/Sheet1!$N$34</f>
+      <c r="J16" s="9">
+        <f>(E16+F16+(Sheet1!$K$37*H16+Sheet1!$M$37)*Sheet1!$L$37)/(1-G16)/(1-Sheet1!$O$37)/(1-I16)/Sheet1!$N$37</f>
         <v>11.4194577352472</v>
       </c>
-      <c r="K16" s="11">
-        <f>(E16+F16+(Sheet1!$K$34*H16+Sheet1!$M$34)*Sheet1!$L$34)/(1-G16)/(1-Sheet1!$P$34)/(1-I16)/Sheet1!$N$34</f>
+      <c r="K16" s="10">
+        <f>(E16+F16+(Sheet1!$K$37*H16+Sheet1!$M$37)*Sheet1!$L$37)/(1-G16)/(1-Sheet1!$P$37)/(1-I16)/Sheet1!$N$37</f>
         <v>12.7629233511586</v>
       </c>
       <c r="L16" s="1">
-        <f>E16+F16+(Sheet1!$K$34*H16+Sheet1!$M$34)*Sheet1!$L$34</f>
+        <f>E16+F16+(Sheet1!$K$37*H16+Sheet1!$M$37)*Sheet1!$L$37</f>
         <v>42.96</v>
       </c>
-      <c r="M16" s="12">
-        <f>L16/(1-G16)/(1-Sheet1!$O$34)/Sheet1!$N$34</f>
+      <c r="M16" s="11">
+        <f>L16/(1-G16)/(1-Sheet1!$O$37)/Sheet1!$N$37</f>
         <v>8.56459330143541</v>
       </c>
-      <c r="N16" s="12">
-        <f>L16/(1-G16)/(1-Sheet1!$P$34)/Sheet1!$N$34</f>
+      <c r="N16" s="11">
+        <f>L16/(1-G16)/(1-Sheet1!$P$37)/Sheet1!$N$37</f>
         <v>9.57219251336898</v>
       </c>
-      <c r="O16" s="12">
-        <f>L16/(1-G16)/Sheet1!$N$34</f>
+      <c r="O16" s="11">
+        <f>L16/(1-G16)/Sheet1!$N$37</f>
         <v>8.13636363636363</v>
       </c>
-      <c r="P16" s="13">
-        <f>O16*Sheet1!$N$34-L16</f>
+      <c r="P16" s="12">
+        <f>O16*Sheet1!$N$37-L16</f>
         <v>10.74</v>
       </c>
       <c r="Q16">
@@ -3265,7 +3345,7 @@
       <c r="C17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E17">
@@ -3280,14 +3360,14 @@
       <c r="H17">
         <v>0.4</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="13">
         <v>0.15</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="9">
         <f>(E17+F17+([1]Sheet1!$K$26*H17+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G17)/(1-[1]Sheet1!$O$26)/(1-I17)/[1]Sheet1!$N$26</f>
         <v>16.1015730055978</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="10">
         <f>(E17+F17+([1]Sheet1!$K$26*H17+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G17)/(1-[1]Sheet1!$P$26)/(1-I17)/[1]Sheet1!$N$26</f>
         <v>17.9958757121387</v>
       </c>
@@ -3295,26 +3375,26 @@
         <f>E17+F17+([1]Sheet1!$K$26*H17+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>64.36</v>
       </c>
-      <c r="M17" s="12">
+      <c r="M17" s="11">
         <f>L17/(1-G17)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
         <v>13.6863370547581</v>
       </c>
-      <c r="N17" s="12">
+      <c r="N17" s="11">
         <f>L17/(1-G17)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
         <v>15.2964943553179</v>
       </c>
-      <c r="O17" s="12">
+      <c r="O17" s="11">
         <f>L17/(1-G17)/[1]Sheet1!$N$26</f>
         <v>13.0020202020202</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="12">
         <f>O17*[1]Sheet1!$N$26-L17</f>
         <v>21.4533333333333</v>
       </c>
-      <c r="Q17" s="14">
+      <c r="Q17" s="13">
         <v>0.15</v>
       </c>
-      <c r="R17" s="14">
+      <c r="R17" s="13">
         <v>0.45</v>
       </c>
     </row>
@@ -3340,14 +3420,14 @@
       <c r="H18">
         <v>0.4</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="13">
         <v>0.15</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="9">
         <f>(E18+F18+([1]Sheet1!$K$26*H18+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G18)/(1-[1]Sheet1!$O$26)/(1-I18)/[1]Sheet1!$N$26</f>
         <v>16.1015730055978</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="10">
         <f>(E18+F18+([1]Sheet1!$K$26*H18+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G18)/(1-[1]Sheet1!$P$26)/(1-I18)/[1]Sheet1!$N$26</f>
         <v>17.9958757121387</v>
       </c>
@@ -3355,26 +3435,26 @@
         <f>E18+F18+([1]Sheet1!$K$26*H18+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>64.36</v>
       </c>
-      <c r="M18" s="12">
+      <c r="M18" s="11">
         <f>L18/(1-G18)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
         <v>13.6863370547581</v>
       </c>
-      <c r="N18" s="12">
+      <c r="N18" s="11">
         <f>L18/(1-G18)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
         <v>15.2964943553179</v>
       </c>
-      <c r="O18" s="12">
+      <c r="O18" s="11">
         <f>L18/(1-G18)/[1]Sheet1!$N$26</f>
         <v>13.0020202020202</v>
       </c>
-      <c r="P18" s="13">
+      <c r="P18" s="12">
         <f>O18*[1]Sheet1!$N$26-L18</f>
         <v>21.4533333333333</v>
       </c>
-      <c r="Q18" s="14">
+      <c r="Q18" s="13">
         <v>0.15</v>
       </c>
-      <c r="R18" s="14">
+      <c r="R18" s="13">
         <v>0.4</v>
       </c>
     </row>
@@ -3383,7 +3463,7 @@
         <v>16110901</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E19">
@@ -3398,14 +3478,14 @@
       <c r="H19">
         <v>0.15</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="13">
         <v>0.5</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="9">
         <f>(E19+F19+([1]Sheet1!$K$26*H19+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G19)/(1-[1]Sheet1!$O$26)/(1-I19)/[1]Sheet1!$N$26</f>
         <v>16.7400318979266</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="10">
         <f>(E19+F19+([1]Sheet1!$K$26*H19+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G19)/(1-[1]Sheet1!$P$26)/(1-I19)/[1]Sheet1!$N$26</f>
         <v>18.7094474153298</v>
       </c>
@@ -3413,19 +3493,19 @@
         <f>E19+F19+([1]Sheet1!$K$26*H19+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>39.36</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="11">
         <f>L19/(1-G19)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
         <v>8.37001594896332</v>
       </c>
-      <c r="N19" s="12">
+      <c r="N19" s="11">
         <f>L19/(1-G19)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
         <v>9.35472370766488</v>
       </c>
-      <c r="O19" s="12">
+      <c r="O19" s="11">
         <f>L19/(1-G19)/[1]Sheet1!$N$26</f>
         <v>7.95151515151515</v>
       </c>
-      <c r="P19" s="13">
+      <c r="P19" s="12">
         <f>O19*[1]Sheet1!$N$26-L19</f>
         <v>13.12</v>
       </c>
@@ -3441,7 +3521,7 @@
         <v>16111001</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E20">
@@ -3456,14 +3536,14 @@
       <c r="H20">
         <v>0.3</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="13">
         <v>0.3</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="9">
         <f>(E20+F20+([1]Sheet1!$K$26*H20+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G20)/(1-[1]Sheet1!$O$26)/(1-I20)/[1]Sheet1!$N$26</f>
         <v>18.1240981240981</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="10">
         <f>(E20+F20+([1]Sheet1!$K$26*H20+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G20)/(1-[1]Sheet1!$P$26)/(1-I20)/[1]Sheet1!$N$26</f>
         <v>20.2563449622273</v>
       </c>
@@ -3471,19 +3551,19 @@
         <f>E20+F20+([1]Sheet1!$K$26*H20+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>59.66</v>
       </c>
-      <c r="M20" s="12">
+      <c r="M20" s="11">
         <f>L20/(1-G20)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
         <v>12.6868686868687</v>
       </c>
-      <c r="N20" s="12">
+      <c r="N20" s="11">
         <f>L20/(1-G20)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
         <v>14.1794414735591</v>
       </c>
-      <c r="O20" s="12">
+      <c r="O20" s="11">
         <f>L20/(1-G20)/[1]Sheet1!$N$26</f>
         <v>12.0525252525253</v>
       </c>
-      <c r="P20" s="13">
+      <c r="P20" s="12">
         <f>O20*[1]Sheet1!$N$26-L20</f>
         <v>19.8866666666667</v>
       </c>
@@ -3498,7 +3578,7 @@
       <c r="C21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E21">
@@ -3513,14 +3593,14 @@
       <c r="H21">
         <v>0.25</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="13">
         <v>0.45</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="9">
         <f>(E21+F21+([1]Sheet1!$K$26*H21+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G21)/(1-[1]Sheet1!$O$26)/(1-I21)/[1]Sheet1!$N$26</f>
         <v>25.541539799913</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="10">
         <f>(E21+F21+([1]Sheet1!$K$26*H21+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G21)/(1-[1]Sheet1!$P$26)/(1-I21)/[1]Sheet1!$N$26</f>
         <v>28.5464268351969</v>
       </c>
@@ -3528,19 +3608,19 @@
         <f>E21+F21+([1]Sheet1!$K$26*H21+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>66.06</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M21" s="11">
         <f>L21/(1-G21)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
         <v>14.0478468899522</v>
       </c>
-      <c r="N21" s="12">
+      <c r="N21" s="11">
         <f>L21/(1-G21)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
         <v>15.7005347593583</v>
       </c>
-      <c r="O21" s="12">
+      <c r="O21" s="11">
         <f>L21/(1-G21)/[1]Sheet1!$N$26</f>
         <v>13.3454545454545</v>
       </c>
-      <c r="P21" s="13">
+      <c r="P21" s="12">
         <f>O21*[1]Sheet1!$N$26-L21</f>
         <v>22.02</v>
       </c>
@@ -3552,8 +3632,7 @@
       <c r="B22">
         <v>16112001</v>
       </c>
-      <c r="C22"/>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E22">
@@ -3568,14 +3647,14 @@
       <c r="H22">
         <v>0.25</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="13">
         <v>0.45</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="9">
         <f>(E22+F22+([1]Sheet1!$K$26*H22+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G22)/(1-[1]Sheet1!$O$26)/(1-I22)/[1]Sheet1!$N$26</f>
         <v>25.541539799913</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="10">
         <f>(E22+F22+([1]Sheet1!$K$26*H22+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G22)/(1-[1]Sheet1!$P$26)/(1-I22)/[1]Sheet1!$N$26</f>
         <v>28.5464268351969</v>
       </c>
@@ -3583,19 +3662,19 @@
         <f>E22+F22+([1]Sheet1!$K$26*H22+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>66.06</v>
       </c>
-      <c r="M22" s="12">
+      <c r="M22" s="11">
         <f>L22/(1-G22)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
         <v>14.0478468899522</v>
       </c>
-      <c r="N22" s="12">
+      <c r="N22" s="11">
         <f>L22/(1-G22)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
         <v>15.7005347593583</v>
       </c>
-      <c r="O22" s="12">
+      <c r="O22" s="11">
         <f>L22/(1-G22)/[1]Sheet1!$N$26</f>
         <v>13.3454545454545</v>
       </c>
-      <c r="P22" s="13">
+      <c r="P22" s="12">
         <f>O22*[1]Sheet1!$N$26-L22</f>
         <v>22.02</v>
       </c>
@@ -3607,8 +3686,7 @@
       <c r="B23">
         <v>16112002</v>
       </c>
-      <c r="C23"/>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="7" t="s">
         <v>46</v>
       </c>
       <c r="E23">
@@ -3623,14 +3701,14 @@
       <c r="H23">
         <v>0.25</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I23" s="13">
         <v>0.45</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="9">
         <f>(E23+F23+([1]Sheet1!$K$26*H23+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G23)/(1-[1]Sheet1!$O$26)/(1-I23)/[1]Sheet1!$N$26</f>
         <v>27.0881059397806</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="10">
         <f>(E23+F23+([1]Sheet1!$K$26*H23+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G23)/(1-[1]Sheet1!$P$26)/(1-I23)/[1]Sheet1!$N$26</f>
         <v>30.2749419326959</v>
       </c>
@@ -3638,19 +3716,19 @@
         <f>E23+F23+([1]Sheet1!$K$26*H23+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>70.06</v>
       </c>
-      <c r="M23" s="12">
+      <c r="M23" s="11">
         <f>L23/(1-G23)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
         <v>14.8984582668793</v>
       </c>
-      <c r="N23" s="12">
+      <c r="N23" s="11">
         <f>L23/(1-G23)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
         <v>16.6512180629828</v>
       </c>
-      <c r="O23" s="12">
+      <c r="O23" s="11">
         <f>L23/(1-G23)/[1]Sheet1!$N$26</f>
         <v>14.1535353535354</v>
       </c>
-      <c r="P23" s="13">
+      <c r="P23" s="12">
         <f>O23*[1]Sheet1!$N$26-L23</f>
         <v>23.3533333333333</v>
       </c>
@@ -3665,7 +3743,7 @@
       <c r="C24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E24">
@@ -3680,14 +3758,14 @@
       <c r="H24">
         <v>0.25</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="13">
         <v>0.45</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J24" s="9">
         <f>(E24+F24+([1]Sheet1!$K$26*H24+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G24)/(1-[1]Sheet1!$O$26)/(1-I24)/[1]Sheet1!$N$26</f>
         <v>25.9281813348799</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K24" s="10">
         <f>(E24+F24+([1]Sheet1!$K$26*H24+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G24)/(1-[1]Sheet1!$P$26)/(1-I24)/[1]Sheet1!$N$26</f>
         <v>28.9785556095717</v>
       </c>
@@ -3695,19 +3773,19 @@
         <f>E24+F24+([1]Sheet1!$K$26*H24+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>67.06</v>
       </c>
-      <c r="M24" s="12">
+      <c r="M24" s="11">
         <f>L24/(1-G24)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
         <v>14.2604997341839</v>
       </c>
-      <c r="N24" s="12">
+      <c r="N24" s="11">
         <f>L24/(1-G24)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
         <v>15.9382055852644</v>
       </c>
-      <c r="O24" s="12">
+      <c r="O24" s="11">
         <f>L24/(1-G24)/[1]Sheet1!$N$26</f>
         <v>13.5474747474747</v>
       </c>
-      <c r="P24" s="13">
+      <c r="P24" s="12">
         <f>O24*[1]Sheet1!$N$26-L24</f>
         <v>22.3533333333333</v>
       </c>
@@ -3722,7 +3800,7 @@
       <c r="C25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="8" t="s">
         <v>47</v>
       </c>
       <c r="E25">
@@ -3737,28 +3815,28 @@
       <c r="H25">
         <v>0.35</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25" s="13">
         <v>0.4</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="9">
         <f>(E25+F25+([1]Sheet1!$K$26*H25+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G25)/(1-[1]Sheet1!$O$26)/(1-I25)/[1]Sheet1!$N$26</f>
         <v>24.9016480595428</v>
       </c>
-      <c r="K25" s="11"/>
+      <c r="K25" s="10"/>
       <c r="L25" s="1">
         <f>E25+F25+([1]Sheet1!$K$26*H25+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>70.26</v>
       </c>
-      <c r="M25" s="12">
+      <c r="M25" s="11">
         <f>L25/(1-G25)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
         <v>14.9409888357257</v>
       </c>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12">
+      <c r="N25" s="11"/>
+      <c r="O25" s="11">
         <f>L25/(1-G25)/[1]Sheet1!$N$26</f>
         <v>14.1939393939394</v>
       </c>
-      <c r="P25" s="13">
+      <c r="P25" s="12">
         <f>O25*[1]Sheet1!$N$26-L25</f>
         <v>23.42</v>
       </c>
@@ -3773,7 +3851,7 @@
       <c r="C26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="7" t="s">
         <v>48</v>
       </c>
       <c r="E26">
@@ -3788,28 +3866,28 @@
       <c r="H26">
         <v>0.25</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="13">
         <v>0.4</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J26" s="9">
         <f>(E26+F26+([1]Sheet1!$K$26*H26+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G26)/(1-[1]Sheet1!$O$26)/(1-I26)/[1]Sheet1!$N$26</f>
         <v>22.3498139287613</v>
       </c>
-      <c r="K26" s="11"/>
+      <c r="K26" s="10"/>
       <c r="L26" s="1">
         <f>E26+F26+([1]Sheet1!$K$26*H26+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>63.06</v>
       </c>
-      <c r="M26" s="12">
+      <c r="M26" s="11">
         <f>L26/(1-G26)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
         <v>13.4098883572568</v>
       </c>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12">
+      <c r="N26" s="11"/>
+      <c r="O26" s="11">
         <f>L26/(1-G26)/[1]Sheet1!$N$26</f>
         <v>12.7393939393939</v>
       </c>
-      <c r="P26" s="13">
+      <c r="P26" s="12">
         <f>O26*[1]Sheet1!$N$26-L26</f>
         <v>21.02</v>
       </c>
@@ -3817,105 +3895,220 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" ht="90.75" customHeight="1" spans="3:16">
-      <c r="C27" s="1"/>
-      <c r="D27" s="7"/>
-      <c r="G27" s="3"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="13"/>
+    <row r="27" ht="90.75" customHeight="1" spans="2:18">
+      <c r="B27">
+        <v>16112401</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27">
+        <v>35</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H27">
+        <v>0.22</v>
+      </c>
+      <c r="I27" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="J27" s="9">
+        <f>(E27+F27+([1]Sheet1!$K$26*H27+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G27)/(1-[1]Sheet1!$O$26)/(1-I27)/[1]Sheet1!$N$26</f>
+        <v>19.0172400698717</v>
+      </c>
+      <c r="K27" s="10"/>
+      <c r="L27" s="1">
+        <f>E27+F27+([1]Sheet1!$K$26*H27+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
+        <v>62.6</v>
+      </c>
+      <c r="M27" s="11">
+        <f>L27/(1-G27)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
+        <v>13.3120680489102</v>
+      </c>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11">
+        <f>L27/(1-G27)/[1]Sheet1!$N$26</f>
+        <v>12.6464646464646</v>
+      </c>
+      <c r="P27" s="12">
+        <f>O27*[1]Sheet1!$N$26-L27</f>
+        <v>20.8666666666667</v>
+      </c>
+      <c r="Q27">
+        <v>40</v>
+      </c>
+      <c r="R27">
+        <v>30</v>
+      </c>
     </row>
-    <row r="28" ht="90.75" customHeight="1" spans="3:16">
-      <c r="C28" s="1"/>
-      <c r="D28" s="7"/>
-      <c r="G28" s="3"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="13"/>
+    <row r="28" ht="90.75" customHeight="1" spans="2:16">
+      <c r="B28">
+        <v>16112501</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28">
+        <v>26</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H28">
+        <v>0.45</v>
+      </c>
+      <c r="I28" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="J28" s="9">
+        <f>(E28+F28+([1]Sheet1!$K$26*H28+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G28)/(1-[1]Sheet1!$O$26)/(1-I28)/[1]Sheet1!$N$26</f>
+        <v>22.0126072757652</v>
+      </c>
+      <c r="K28" s="10"/>
+      <c r="L28" s="1">
+        <f>E28+F28+([1]Sheet1!$K$26*H28+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
+        <v>72.46</v>
+      </c>
+      <c r="M28" s="11">
+        <f>L28/(1-G28)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
+        <v>15.4088250930356</v>
+      </c>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11">
+        <f>L28/(1-G28)/[1]Sheet1!$N$26</f>
+        <v>14.6383838383838</v>
+      </c>
+      <c r="P28" s="12">
+        <f>O28*[1]Sheet1!$N$26-L28</f>
+        <v>24.1533333333333</v>
+      </c>
     </row>
     <row r="29" ht="90.75" customHeight="1" spans="3:16">
       <c r="C29" s="1"/>
-      <c r="D29" s="7"/>
+      <c r="D29" s="6"/>
       <c r="G29" s="3"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="11"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="10"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="13"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="12"/>
     </row>
     <row r="30" ht="90.75" customHeight="1" spans="3:16">
       <c r="C30" s="1"/>
-      <c r="D30" s="7"/>
+      <c r="D30" s="6"/>
       <c r="G30" s="3"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="11"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="10"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="13"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="12"/>
     </row>
-    <row r="33" spans="11:16">
-      <c r="K33" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="L33" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="M33" s="15" t="s">
+    <row r="31" ht="90.75" customHeight="1" spans="3:16">
+      <c r="C31" s="1"/>
+      <c r="D31" s="6"/>
+      <c r="G31" s="3"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="12"/>
+    </row>
+    <row r="32" ht="90.75" customHeight="1" spans="3:16">
+      <c r="C32" s="1"/>
+      <c r="D32" s="7"/>
+      <c r="G32" s="3"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="12"/>
+    </row>
+    <row r="33" ht="90.75" customHeight="1" spans="3:16">
+      <c r="C33" s="1"/>
+      <c r="D33" s="7"/>
+      <c r="G33" s="3"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="12"/>
+    </row>
+    <row r="36" spans="11:16">
+      <c r="K36" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="N33" s="15" t="s">
+      <c r="L36" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="O33" s="15" t="s">
+      <c r="M36" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="P33" s="15" t="s">
+      <c r="N36" s="14" t="s">
         <v>54</v>
       </c>
+      <c r="O36" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="P36" s="14" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="34" spans="11:16">
-      <c r="K34" s="16">
+    <row r="37" spans="11:16">
+      <c r="K37" s="15">
         <v>100</v>
       </c>
-      <c r="L34" s="14">
+      <c r="L37" s="13">
         <v>0.82</v>
       </c>
-      <c r="M34">
+      <c r="M37">
         <v>8</v>
       </c>
-      <c r="N34">
+      <c r="N37">
         <v>6.6</v>
       </c>
-      <c r="O34" s="14">
+      <c r="O37" s="13">
         <v>0.05</v>
       </c>
-      <c r="P34" s="14">
+      <c r="P37" s="13">
         <v>0.15</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24 C25 C26 C17:C21 C28:C30">
-      <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子"</formula1>
-    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"爬爬服"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24 C25 C26 C28 C29 C17:C21 C30:C31 C32:C33">
+      <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27 C2:C16">
       <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子,裤子"</formula1>
@@ -3946,6 +4139,8 @@
     <hyperlink ref="D24" r:id="rId16" display="https://detail.1688.com/offer/531099455627.html?spm=b26110380.sw311.0.0.NlP3tV"/>
     <hyperlink ref="D25" r:id="rId19" display="https://detail.1688.com/offer/537712350771.html?spm=a261y.7663282.0.0.HGrgRG&amp;sk=consign"/>
     <hyperlink ref="D26" r:id="rId20" display="https://detail.1688.com/offer/535604104982.html?spm=a2615.7691456.0.0.ceDRcB" tooltip="https://detail.1688.com/offer/535604104982.html?spm=a2615.7691456.0.0.ceDRcB"/>
+    <hyperlink ref="D18" r:id="rId21" display="https://detail.1688.com/offer/537572849225.html?spm=a2615.7691456.0.0.0jr1X8"/>
+    <hyperlink ref="D28" r:id="rId22" display="https://detail.1688.com/offer/538358020263.html?spm=a2615.7691456.0.0.BXbA7w"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>

--- a/产品表单.xlsx
+++ b/产品表单.xlsx
@@ -200,14 +200,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="176" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="177" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -243,15 +243,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,14 +264,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,7 +272,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,6 +280,14 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -303,17 +303,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -333,14 +325,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,7 +364,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,7 +372,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,7 +393,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,7 +405,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,43 +477,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,61 +489,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,31 +525,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,7 +573,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,11 +589,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,6 +607,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,30 +659,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -684,6 +673,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -692,10 +692,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,7 +704,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -713,7 +713,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -725,16 +725,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -743,94 +743,94 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -847,40 +847,40 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2351,7 +2351,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P27" sqref="P27:P28"/>
+      <selection pane="bottomLeft" activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3949,7 +3949,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" ht="90.75" customHeight="1" spans="2:16">
+    <row r="28" ht="90.75" customHeight="1" spans="2:18">
       <c r="B28">
         <v>16112501</v>
       </c>
@@ -3972,11 +3972,11 @@
         <v>0.45</v>
       </c>
       <c r="I28" s="13">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="J28" s="9">
         <f>(E28+F28+([1]Sheet1!$K$26*H28+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G28)/(1-[1]Sheet1!$O$26)/(1-I28)/[1]Sheet1!$N$26</f>
-        <v>22.0126072757652</v>
+        <v>28.0160456237011</v>
       </c>
       <c r="K28" s="10"/>
       <c r="L28" s="1">
@@ -3995,6 +3995,12 @@
       <c r="P28" s="12">
         <f>O28*[1]Sheet1!$N$26-L28</f>
         <v>24.1533333333333</v>
+      </c>
+      <c r="Q28">
+        <v>45</v>
+      </c>
+      <c r="R28">
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="90.75" customHeight="1" spans="3:16">

--- a/产品表单.xlsx
+++ b/产品表单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="8690"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="8685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$C$27</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
   <si>
     <t>产品标题</t>
   </si>
@@ -193,23 +193,23 @@
   </si>
   <si>
     <t>wish费率</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/536605241945.html?spm=b26110380.8015204.xshy005.79.X6yxQK</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="4">
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,142 +243,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -391,194 +268,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -586,251 +277,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -847,31 +302,31 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -880,67 +335,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
+    <cellStyle name="百分比" xfId="2" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -962,7 +372,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1000,7 +410,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1038,7 +448,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1076,7 +486,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1114,7 +524,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1152,7 +562,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1190,7 +600,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1228,7 +638,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1266,7 +676,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1304,7 +714,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1342,7 +752,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1380,7 +790,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1422,7 +832,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1460,7 +870,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId14" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1498,7 +908,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId15" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1536,7 +946,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1578,7 +988,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1620,7 +1030,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1662,7 +1072,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1704,7 +1114,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1746,7 +1156,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId21"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1788,7 +1198,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId22"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1830,7 +1240,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId23"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1872,7 +1282,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId24"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1914,7 +1324,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId25"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1956,7 +1366,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId26"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1998,7 +1408,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId27"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2019,6 +1429,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>16564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1053293</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1068457</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="图片 28" descr="QQ截图20161128230924.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="29983042"/>
+          <a:ext cx="1053292" cy="1051893"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2031,7 +1479,7 @@
       <sheetName val="Sheet3"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="26">
           <cell r="K26">
             <v>100</v>
@@ -2053,8 +1501,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2344,36 +1792,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="S28" sqref="S28"/>
+      <selection pane="bottomLeft" activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.1272727272727" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="9.62727272727273" customWidth="1"/>
-    <col min="4" max="4" width="17.3727272727273" customWidth="1"/>
-    <col min="5" max="5" width="8.12727272727273" customWidth="1"/>
-    <col min="6" max="6" width="9.87272727272727" customWidth="1"/>
-    <col min="7" max="7" width="8.25454545454545" customWidth="1"/>
-    <col min="10" max="10" width="11.2545454545455" customWidth="1"/>
-    <col min="11" max="11" width="11.1272727272727" customWidth="1"/>
-    <col min="12" max="12" width="7.62727272727273" customWidth="1"/>
-    <col min="13" max="13" width="11.8727272727273" customWidth="1"/>
-    <col min="14" max="15" width="11.6272727272727" customWidth="1"/>
-    <col min="16" max="16" width="9.87272727272727" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="8.125" customWidth="1"/>
+    <col min="6" max="6" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="8.25" customWidth="1"/>
+    <col min="10" max="10" width="11.25" customWidth="1"/>
+    <col min="11" max="11" width="11.125" customWidth="1"/>
+    <col min="12" max="12" width="7.625" customWidth="1"/>
+    <col min="13" max="13" width="11.875" customWidth="1"/>
+    <col min="14" max="15" width="11.625" customWidth="1"/>
+    <col min="16" max="16" width="9.875" customWidth="1"/>
     <col min="17" max="17" width="6.5" customWidth="1"/>
-    <col min="18" max="18" width="6.87272727272727" customWidth="1"/>
+    <col min="18" max="18" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2429,7 +1875,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="86.25" customHeight="1" spans="1:18">
+    <row r="2" spans="1:19" ht="86.25" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
         <v>16072601</v>
@@ -2457,11 +1903,11 @@
       </c>
       <c r="J2" s="9">
         <f t="shared" ref="J2:J14" si="0">(E2+F2+($K$37*H2+$M$37)*$L$37)/(1-G2)/(1-$O$37)/(1-I2)/$N$37</f>
-        <v>16.5518966757357</v>
+        <v>16.551896675735701</v>
       </c>
       <c r="K2" s="10">
         <f t="shared" ref="K2:K14" si="1">(E2+F2+($K$37*H2+$M$37)*$L$37)/(1-G2)/(1-$P$37)/(1-I2)/$N$37</f>
-        <v>18.4991786375869</v>
+        <v>18.499178637586901</v>
       </c>
       <c r="L2" s="1">
         <f t="shared" ref="L2:L14" si="2">E2+F2+($K$37*H2+$M$37)*$L$37</f>
@@ -2481,7 +1927,7 @@
       </c>
       <c r="P2" s="12">
         <f>O2*$N$37-L2</f>
-        <v>22.0533333333333</v>
+        <v>22.053333333333299</v>
       </c>
       <c r="Q2" s="1">
         <v>1</v>
@@ -2490,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="86.25" customHeight="1" spans="1:18">
+    <row r="3" spans="1:19" ht="86.25" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>16072701</v>
@@ -2518,7 +1964,7 @@
       </c>
       <c r="J3" s="9">
         <f t="shared" si="0"/>
-        <v>10.7630692893851</v>
+        <v>10.763069289385101</v>
       </c>
       <c r="K3" s="10">
         <f t="shared" si="1"/>
@@ -2530,15 +1976,15 @@
       </c>
       <c r="M3" s="11">
         <f t="shared" si="3"/>
-        <v>8.07230196703881</v>
+        <v>8.0723019670388094</v>
       </c>
       <c r="N3" s="11">
         <f t="shared" si="4"/>
-        <v>9.02198455139632</v>
+        <v>9.0219845513963204</v>
       </c>
       <c r="O3" s="11">
         <f>L3/(1-G3)/$N$37</f>
-        <v>7.66868686868687</v>
+        <v>7.6686868686868701</v>
       </c>
       <c r="P3" s="12">
         <f>O3*$N$37-L3</f>
@@ -2551,7 +1997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="69.75" customHeight="1" spans="1:18">
+    <row r="4" spans="1:19" ht="69.75" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>16072901</v>
@@ -2579,7 +2025,7 @@
       </c>
       <c r="J4" s="9">
         <f t="shared" si="0"/>
-        <v>18.8228146122883</v>
+        <v>18.822814612288301</v>
       </c>
       <c r="K4" s="10">
         <f t="shared" si="1"/>
@@ -2599,7 +2045,7 @@
       </c>
       <c r="O4" s="11">
         <f>L4/(1-G4)/$N$37</f>
-        <v>12.5171717171717</v>
+        <v>12.517171717171699</v>
       </c>
       <c r="P4" s="12">
         <f>O4*$N$37-L4</f>
@@ -2612,7 +2058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="78" customHeight="1" spans="1:18">
+    <row r="5" spans="1:19" ht="78" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>16073001</v>
@@ -2640,11 +2086,11 @@
       </c>
       <c r="J5" s="9">
         <f t="shared" si="0"/>
-        <v>17.8528317228008</v>
+        <v>17.852831722800801</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" si="1"/>
-        <v>19.9531648666597</v>
+        <v>19.953164866659701</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="2"/>
@@ -2660,11 +2106,11 @@
       </c>
       <c r="O5" s="11">
         <f>L5/(1-G5)/$N$37</f>
-        <v>14.4161616161616</v>
+        <v>14.416161616161601</v>
       </c>
       <c r="P5" s="12">
         <f>O5*$N$37-L5</f>
-        <v>23.7866666666667</v>
+        <v>23.786666666666701</v>
       </c>
       <c r="Q5" s="1">
         <v>1</v>
@@ -2673,7 +2119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="78" customHeight="1" spans="1:19">
+    <row r="6" spans="1:19" ht="78" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="1">
         <v>16073002</v>
@@ -2705,7 +2151,7 @@
       </c>
       <c r="K6" s="10">
         <f t="shared" si="1"/>
-        <v>16.8187060920625</v>
+        <v>16.818706092062499</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="2"/>
@@ -2717,7 +2163,7 @@
       </c>
       <c r="N6" s="11">
         <f t="shared" si="4"/>
-        <v>14.2959001782531</v>
+        <v>14.295900178253101</v>
       </c>
       <c r="O6" s="11">
         <f t="shared" ref="O6:O14" si="5">L6/(1-G6)/$N$37</f>
@@ -2737,7 +2183,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" ht="69" customHeight="1" spans="1:18">
+    <row r="7" spans="1:19" ht="69" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>16080301</v>
@@ -2765,11 +2211,11 @@
       </c>
       <c r="J7" s="9">
         <f t="shared" si="0"/>
-        <v>16.8521124558276</v>
+        <v>16.852112455827601</v>
       </c>
       <c r="K7" s="10">
         <f t="shared" si="1"/>
-        <v>18.8347139212191</v>
+        <v>18.834713921219102</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="2"/>
@@ -2781,7 +2227,7 @@
       </c>
       <c r="N7" s="11">
         <f t="shared" si="4"/>
-        <v>16.0095068330362</v>
+        <v>16.009506833036198</v>
       </c>
       <c r="O7" s="11">
         <f t="shared" si="5"/>
@@ -2789,7 +2235,7 @@
       </c>
       <c r="P7" s="12">
         <f t="shared" si="6"/>
-        <v>22.4533333333333</v>
+        <v>22.453333333333301</v>
       </c>
       <c r="Q7" s="1">
         <v>1</v>
@@ -2798,7 +2244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="78" customHeight="1" spans="2:18">
+    <row r="8" spans="1:19" ht="78" customHeight="1">
       <c r="B8">
         <v>16080401</v>
       </c>
@@ -2829,7 +2275,7 @@
       </c>
       <c r="K8" s="10">
         <f t="shared" si="1"/>
-        <v>38.9750445632799</v>
+        <v>38.975044563279901</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="2"/>
@@ -2841,15 +2287,15 @@
       </c>
       <c r="N8" s="11">
         <f t="shared" si="4"/>
-        <v>19.4875222816399</v>
+        <v>19.487522281639901</v>
       </c>
       <c r="O8" s="11">
         <f t="shared" si="5"/>
-        <v>16.5643939393939</v>
+        <v>16.564393939393899</v>
       </c>
       <c r="P8" s="12">
         <f t="shared" si="6"/>
-        <v>21.865</v>
+        <v>21.864999999999998</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -2858,7 +2304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="92.25" customHeight="1" spans="2:18">
+    <row r="9" spans="1:19" ht="92.25" customHeight="1">
       <c r="B9">
         <v>16100801</v>
       </c>
@@ -2885,19 +2331,19 @@
       </c>
       <c r="J9" s="9">
         <f t="shared" si="0"/>
-        <v>20.5901116427432</v>
+        <v>20.590111642743199</v>
       </c>
       <c r="K9" s="10">
         <f t="shared" si="1"/>
-        <v>23.0124777183601</v>
+        <v>23.012477718360099</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="2"/>
-        <v>77.46</v>
+        <v>77.459999999999994</v>
       </c>
       <c r="M9" s="11">
         <f t="shared" si="3"/>
-        <v>16.4720893141946</v>
+        <v>16.472089314194601</v>
       </c>
       <c r="N9" s="11">
         <f t="shared" si="4"/>
@@ -2918,7 +2364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="89.25" customHeight="1" spans="2:18">
+    <row r="10" spans="1:19" ht="89.25" customHeight="1">
       <c r="B10">
         <v>16100901</v>
       </c>
@@ -2945,11 +2391,11 @@
       </c>
       <c r="J10" s="9">
         <f t="shared" si="0"/>
-        <v>36.5033796612744</v>
+        <v>36.503379661274401</v>
       </c>
       <c r="K10" s="10">
         <f t="shared" si="1"/>
-        <v>40.797894915542</v>
+        <v>40.797894915542003</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="2"/>
@@ -2957,11 +2403,11 @@
       </c>
       <c r="M10" s="11">
         <f t="shared" si="3"/>
-        <v>25.5523657628921</v>
+        <v>25.552365762892101</v>
       </c>
       <c r="N10" s="11">
         <f t="shared" si="4"/>
-        <v>28.5585264408794</v>
+        <v>28.558526440879401</v>
       </c>
       <c r="O10" s="11">
         <f t="shared" si="5"/>
@@ -2969,7 +2415,7 @@
       </c>
       <c r="P10" s="12">
         <f t="shared" si="6"/>
-        <v>40.0533333333333</v>
+        <v>40.053333333333299</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2978,7 +2424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="95.25" customHeight="1" spans="2:18">
+    <row r="11" spans="1:19" ht="95.25" customHeight="1">
       <c r="B11">
         <v>16101601</v>
       </c>
@@ -3005,27 +2451,27 @@
       </c>
       <c r="J11" s="9">
         <f t="shared" si="0"/>
-        <v>32.3632610939113</v>
+        <v>32.363261093911298</v>
       </c>
       <c r="K11" s="10">
         <f t="shared" si="1"/>
-        <v>36.1707035755479</v>
+        <v>36.170703575547897</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="2"/>
-        <v>129.36</v>
+        <v>129.36000000000001</v>
       </c>
       <c r="M11" s="11">
         <f t="shared" si="3"/>
-        <v>27.5087719298246</v>
+        <v>27.508771929824601</v>
       </c>
       <c r="N11" s="11">
         <f t="shared" si="4"/>
-        <v>30.7450980392157</v>
+        <v>30.745098039215701</v>
       </c>
       <c r="O11" s="11">
         <f t="shared" si="5"/>
-        <v>26.1333333333333</v>
+        <v>26.133333333333301</v>
       </c>
       <c r="P11" s="12">
         <f t="shared" si="6"/>
@@ -3038,7 +2484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="81.75" customHeight="1" spans="2:18">
+    <row r="12" spans="1:19" ht="81.75" customHeight="1">
       <c r="B12">
         <v>16101602</v>
       </c>
@@ -3065,11 +2511,11 @@
       </c>
       <c r="J12" s="9">
         <f t="shared" si="0"/>
-        <v>32.3441933349054</v>
+        <v>32.344193334905398</v>
       </c>
       <c r="K12" s="10">
         <f t="shared" si="1"/>
-        <v>36.1493925507766</v>
+        <v>36.149392550776597</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="2"/>
@@ -3077,11 +2523,11 @@
       </c>
       <c r="M12" s="11">
         <f t="shared" si="3"/>
-        <v>27.4925643346696</v>
+        <v>27.492564334669598</v>
       </c>
       <c r="N12" s="11">
         <f t="shared" si="4"/>
-        <v>30.7269836681601</v>
+        <v>30.726983668160099</v>
       </c>
       <c r="O12" s="11">
         <f t="shared" si="5"/>
@@ -3089,7 +2535,7 @@
       </c>
       <c r="P12" s="12">
         <f t="shared" si="6"/>
-        <v>44.8183783783784</v>
+        <v>44.818378378378398</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3098,7 +2544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="89.1" customHeight="1" spans="2:18">
+    <row r="13" spans="1:19" ht="89.1" customHeight="1">
       <c r="B13">
         <v>16101701</v>
       </c>
@@ -3129,7 +2575,7 @@
       </c>
       <c r="K13" s="10">
         <f t="shared" si="1"/>
-        <v>16.569850756702</v>
+        <v>16.569850756701999</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="2"/>
@@ -3149,7 +2595,7 @@
       </c>
       <c r="P13" s="12">
         <f t="shared" si="6"/>
-        <v>19.7533333333333</v>
+        <v>19.753333333333298</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -3158,7 +2604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="84" customHeight="1" spans="2:18">
+    <row r="14" spans="1:19" ht="84" customHeight="1">
       <c r="B14">
         <v>16101703</v>
       </c>
@@ -3185,11 +2631,11 @@
       </c>
       <c r="J14" s="9">
         <f t="shared" si="0"/>
-        <v>58.5901116427432</v>
+        <v>58.590111642743203</v>
       </c>
       <c r="K14" s="10">
         <f t="shared" si="1"/>
-        <v>65.4830659536542</v>
+        <v>65.483065953654204</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="2"/>
@@ -3197,11 +2643,11 @@
       </c>
       <c r="M14" s="11">
         <f t="shared" si="3"/>
-        <v>29.2950558213716</v>
+        <v>29.295055821371601</v>
       </c>
       <c r="N14" s="11">
         <f t="shared" si="4"/>
-        <v>32.7415329768271</v>
+        <v>32.741532976827102</v>
       </c>
       <c r="O14" s="11">
         <f t="shared" si="5"/>
@@ -3218,7 +2664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="90.75" customHeight="1" spans="2:18">
+    <row r="15" spans="1:19" ht="90.75" customHeight="1">
       <c r="B15">
         <v>16101702</v>
       </c>
@@ -3249,7 +2695,7 @@
       </c>
       <c r="K15" s="10">
         <f>(E15+F15+(Sheet1!$K$37*H15+Sheet1!$M$37)*Sheet1!$L$37)/(1-G15)/(1-Sheet1!$P$37)/(1-I15)/Sheet1!$N$37</f>
-        <v>25.2658068575024</v>
+        <v>25.265806857502401</v>
       </c>
       <c r="L15" s="1">
         <f>E15+F15+(Sheet1!$K$37*H15+Sheet1!$M$37)*Sheet1!$L$37</f>
@@ -3257,11 +2703,11 @@
       </c>
       <c r="M15" s="11">
         <f>L15/(1-G15)/(1-Sheet1!$O$37)/Sheet1!$N$37</f>
-        <v>19.2153110047847</v>
+        <v>19.215311004784699</v>
       </c>
       <c r="N15" s="11">
         <f>L15/(1-G15)/(1-Sheet1!$P$37)/Sheet1!$N$37</f>
-        <v>21.475935828877</v>
+        <v>21.475935828876999</v>
       </c>
       <c r="O15" s="11">
         <f>L15/(1-G15)/Sheet1!$N$37</f>
@@ -3278,7 +2724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="90.75" customHeight="1" spans="2:18">
+    <row r="16" spans="1:19" ht="90.75" customHeight="1">
       <c r="B16">
         <v>16101901</v>
       </c>
@@ -3317,15 +2763,15 @@
       </c>
       <c r="M16" s="11">
         <f>L16/(1-G16)/(1-Sheet1!$O$37)/Sheet1!$N$37</f>
-        <v>8.56459330143541</v>
+        <v>8.5645933014354103</v>
       </c>
       <c r="N16" s="11">
         <f>L16/(1-G16)/(1-Sheet1!$P$37)/Sheet1!$N$37</f>
-        <v>9.57219251336898</v>
+        <v>9.5721925133689805</v>
       </c>
       <c r="O16" s="11">
         <f>L16/(1-G16)/Sheet1!$N$37</f>
-        <v>8.13636363636363</v>
+        <v>8.1363636363636296</v>
       </c>
       <c r="P16" s="12">
         <f>O16*Sheet1!$N$37-L16</f>
@@ -3338,7 +2784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="90.75" customHeight="1" spans="2:18">
+    <row r="17" spans="2:18" ht="90.75" customHeight="1">
       <c r="B17">
         <v>16110801</v>
       </c>
@@ -3369,7 +2815,7 @@
       </c>
       <c r="K17" s="10">
         <f>(E17+F17+([1]Sheet1!$K$26*H17+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G17)/(1-[1]Sheet1!$P$26)/(1-I17)/[1]Sheet1!$N$26</f>
-        <v>17.9958757121387</v>
+        <v>17.995875712138702</v>
       </c>
       <c r="L17" s="1">
         <f>E17+F17+([1]Sheet1!$K$26*H17+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -3389,7 +2835,7 @@
       </c>
       <c r="P17" s="12">
         <f>O17*[1]Sheet1!$N$26-L17</f>
-        <v>21.4533333333333</v>
+        <v>21.453333333333301</v>
       </c>
       <c r="Q17" s="13">
         <v>0.15</v>
@@ -3398,7 +2844,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="18" ht="90.75" customHeight="1" spans="2:18">
+    <row r="18" spans="2:18" ht="90.75" customHeight="1">
       <c r="B18">
         <v>16110802</v>
       </c>
@@ -3429,7 +2875,7 @@
       </c>
       <c r="K18" s="10">
         <f>(E18+F18+([1]Sheet1!$K$26*H18+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G18)/(1-[1]Sheet1!$P$26)/(1-I18)/[1]Sheet1!$N$26</f>
-        <v>17.9958757121387</v>
+        <v>17.995875712138702</v>
       </c>
       <c r="L18" s="1">
         <f>E18+F18+([1]Sheet1!$K$26*H18+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -3449,7 +2895,7 @@
       </c>
       <c r="P18" s="12">
         <f>O18*[1]Sheet1!$N$26-L18</f>
-        <v>21.4533333333333</v>
+        <v>21.453333333333301</v>
       </c>
       <c r="Q18" s="13">
         <v>0.15</v>
@@ -3458,7 +2904,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" ht="90.75" customHeight="1" spans="2:18">
+    <row r="19" spans="2:18" ht="90.75" customHeight="1">
       <c r="B19">
         <v>16110901</v>
       </c>
@@ -3483,11 +2929,11 @@
       </c>
       <c r="J19" s="9">
         <f>(E19+F19+([1]Sheet1!$K$26*H19+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G19)/(1-[1]Sheet1!$O$26)/(1-I19)/[1]Sheet1!$N$26</f>
-        <v>16.7400318979266</v>
+        <v>16.740031897926599</v>
       </c>
       <c r="K19" s="10">
         <f>(E19+F19+([1]Sheet1!$K$26*H19+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G19)/(1-[1]Sheet1!$P$26)/(1-I19)/[1]Sheet1!$N$26</f>
-        <v>18.7094474153298</v>
+        <v>18.709447415329802</v>
       </c>
       <c r="L19" s="1">
         <f>E19+F19+([1]Sheet1!$K$26*H19+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -3495,15 +2941,15 @@
       </c>
       <c r="M19" s="11">
         <f>L19/(1-G19)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>8.37001594896332</v>
+        <v>8.3700159489633208</v>
       </c>
       <c r="N19" s="11">
         <f>L19/(1-G19)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>9.35472370766488</v>
+        <v>9.3547237076648795</v>
       </c>
       <c r="O19" s="11">
         <f>L19/(1-G19)/[1]Sheet1!$N$26</f>
-        <v>7.95151515151515</v>
+        <v>7.9515151515151503</v>
       </c>
       <c r="P19" s="12">
         <f>O19*[1]Sheet1!$N$26-L19</f>
@@ -3516,7 +2962,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" ht="90.75" customHeight="1" spans="2:18">
+    <row r="20" spans="2:18" ht="90.75" customHeight="1">
       <c r="B20">
         <v>16111001</v>
       </c>
@@ -3541,11 +2987,11 @@
       </c>
       <c r="J20" s="9">
         <f>(E20+F20+([1]Sheet1!$K$26*H20+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G20)/(1-[1]Sheet1!$O$26)/(1-I20)/[1]Sheet1!$N$26</f>
-        <v>18.1240981240981</v>
+        <v>18.124098124098101</v>
       </c>
       <c r="K20" s="10">
         <f>(E20+F20+([1]Sheet1!$K$26*H20+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G20)/(1-[1]Sheet1!$P$26)/(1-I20)/[1]Sheet1!$N$26</f>
-        <v>20.2563449622273</v>
+        <v>20.256344962227299</v>
       </c>
       <c r="L20" s="1">
         <f>E20+F20+([1]Sheet1!$K$26*H20+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -3553,7 +2999,7 @@
       </c>
       <c r="M20" s="11">
         <f>L20/(1-G20)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>12.6868686868687</v>
+        <v>12.686868686868699</v>
       </c>
       <c r="N20" s="11">
         <f>L20/(1-G20)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
@@ -3561,17 +3007,17 @@
       </c>
       <c r="O20" s="11">
         <f>L20/(1-G20)/[1]Sheet1!$N$26</f>
-        <v>12.0525252525253</v>
+        <v>12.052525252525299</v>
       </c>
       <c r="P20" s="12">
         <f>O20*[1]Sheet1!$N$26-L20</f>
-        <v>19.8866666666667</v>
+        <v>19.886666666666699</v>
       </c>
       <c r="R20">
         <v>30</v>
       </c>
     </row>
-    <row r="21" ht="90.75" customHeight="1" spans="2:18">
+    <row r="21" spans="2:18" ht="90.75" customHeight="1">
       <c r="B21">
         <v>16111901</v>
       </c>
@@ -3610,7 +3056,7 @@
       </c>
       <c r="M21" s="11">
         <f>L21/(1-G21)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.0478468899522</v>
+        <v>14.047846889952201</v>
       </c>
       <c r="N21" s="11">
         <f>L21/(1-G21)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
@@ -3618,7 +3064,7 @@
       </c>
       <c r="O21" s="11">
         <f>L21/(1-G21)/[1]Sheet1!$N$26</f>
-        <v>13.3454545454545</v>
+        <v>13.345454545454499</v>
       </c>
       <c r="P21" s="12">
         <f>O21*[1]Sheet1!$N$26-L21</f>
@@ -3628,7 +3074,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" ht="91" customHeight="1" spans="2:18">
+    <row r="22" spans="2:18" ht="90.95" customHeight="1">
       <c r="B22">
         <v>16112001</v>
       </c>
@@ -3664,7 +3110,7 @@
       </c>
       <c r="M22" s="11">
         <f>L22/(1-G22)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.0478468899522</v>
+        <v>14.047846889952201</v>
       </c>
       <c r="N22" s="11">
         <f>L22/(1-G22)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
@@ -3672,7 +3118,7 @@
       </c>
       <c r="O22" s="11">
         <f>L22/(1-G22)/[1]Sheet1!$N$26</f>
-        <v>13.3454545454545</v>
+        <v>13.345454545454499</v>
       </c>
       <c r="P22" s="12">
         <f>O22*[1]Sheet1!$N$26-L22</f>
@@ -3682,7 +3128,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" ht="91" customHeight="1" spans="2:18">
+    <row r="23" spans="2:18" ht="90.95" customHeight="1">
       <c r="B23">
         <v>16112002</v>
       </c>
@@ -3706,11 +3152,11 @@
       </c>
       <c r="J23" s="9">
         <f>(E23+F23+([1]Sheet1!$K$26*H23+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G23)/(1-[1]Sheet1!$O$26)/(1-I23)/[1]Sheet1!$N$26</f>
-        <v>27.0881059397806</v>
+        <v>27.088105939780601</v>
       </c>
       <c r="K23" s="10">
         <f>(E23+F23+([1]Sheet1!$K$26*H23+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G23)/(1-[1]Sheet1!$P$26)/(1-I23)/[1]Sheet1!$N$26</f>
-        <v>30.2749419326959</v>
+        <v>30.274941932695899</v>
       </c>
       <c r="L23" s="1">
         <f>E23+F23+([1]Sheet1!$K$26*H23+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -3718,11 +3164,11 @@
       </c>
       <c r="M23" s="11">
         <f>L23/(1-G23)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.8984582668793</v>
+        <v>14.898458266879301</v>
       </c>
       <c r="N23" s="11">
         <f>L23/(1-G23)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>16.6512180629828</v>
+        <v>16.651218062982799</v>
       </c>
       <c r="O23" s="11">
         <f>L23/(1-G23)/[1]Sheet1!$N$26</f>
@@ -3736,7 +3182,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" ht="90.75" customHeight="1" spans="2:18">
+    <row r="24" spans="2:18" ht="90.75" customHeight="1">
       <c r="B24">
         <v>16112003</v>
       </c>
@@ -3763,7 +3209,7 @@
       </c>
       <c r="J24" s="9">
         <f>(E24+F24+([1]Sheet1!$K$26*H24+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G24)/(1-[1]Sheet1!$O$26)/(1-I24)/[1]Sheet1!$N$26</f>
-        <v>25.9281813348799</v>
+        <v>25.928181334879898</v>
       </c>
       <c r="K24" s="10">
         <f>(E24+F24+([1]Sheet1!$K$26*H24+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G24)/(1-[1]Sheet1!$P$26)/(1-I24)/[1]Sheet1!$N$26</f>
@@ -3775,7 +3221,7 @@
       </c>
       <c r="M24" s="11">
         <f>L24/(1-G24)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.2604997341839</v>
+        <v>14.260499734183901</v>
       </c>
       <c r="N24" s="11">
         <f>L24/(1-G24)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
@@ -3793,7 +3239,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" ht="90.75" customHeight="1" spans="2:18">
+    <row r="25" spans="2:18" ht="90.75" customHeight="1">
       <c r="B25">
         <v>16112301</v>
       </c>
@@ -3820,21 +3266,27 @@
       </c>
       <c r="J25" s="9">
         <f>(E25+F25+([1]Sheet1!$K$26*H25+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G25)/(1-[1]Sheet1!$O$26)/(1-I25)/[1]Sheet1!$N$26</f>
-        <v>24.9016480595428</v>
-      </c>
-      <c r="K25" s="10"/>
+        <v>24.901648059542801</v>
+      </c>
+      <c r="K25" s="10">
+        <f>(E25+F25+([1]Sheet1!$K$26*H25+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G25)/(1-[1]Sheet1!$P$26)/(1-I25)/[1]Sheet1!$N$26</f>
+        <v>27.831253713606657</v>
+      </c>
       <c r="L25" s="1">
         <f>E25+F25+([1]Sheet1!$K$26*H25+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
-        <v>70.26</v>
+        <v>70.260000000000005</v>
       </c>
       <c r="M25" s="11">
         <f>L25/(1-G25)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.9409888357257</v>
-      </c>
-      <c r="N25" s="11"/>
+        <v>14.940988835725699</v>
+      </c>
+      <c r="N25" s="11">
+        <f>L25/(1-G25)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
+        <v>16.698752228163993</v>
+      </c>
       <c r="O25" s="11">
         <f>L25/(1-G25)/[1]Sheet1!$N$26</f>
-        <v>14.1939393939394</v>
+        <v>14.193939393939401</v>
       </c>
       <c r="P25" s="12">
         <f>O25*[1]Sheet1!$N$26-L25</f>
@@ -3844,7 +3296,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" ht="90.75" customHeight="1" spans="2:18">
+    <row r="26" spans="2:18" ht="90.75" customHeight="1">
       <c r="B26">
         <v>16112302</v>
       </c>
@@ -3873,19 +3325,25 @@
         <f>(E26+F26+([1]Sheet1!$K$26*H26+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G26)/(1-[1]Sheet1!$O$26)/(1-I26)/[1]Sheet1!$N$26</f>
         <v>22.3498139287613</v>
       </c>
-      <c r="K26" s="10"/>
+      <c r="K26" s="10">
+        <f>(E26+F26+([1]Sheet1!$K$26*H26+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G26)/(1-[1]Sheet1!$P$26)/(1-I26)/[1]Sheet1!$N$26</f>
+        <v>24.979203802733217</v>
+      </c>
       <c r="L26" s="1">
         <f>E26+F26+([1]Sheet1!$K$26*H26+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>63.06</v>
       </c>
       <c r="M26" s="11">
         <f>L26/(1-G26)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>13.4098883572568</v>
-      </c>
-      <c r="N26" s="11"/>
+        <v>13.409888357256801</v>
+      </c>
+      <c r="N26" s="11">
+        <f>L26/(1-G26)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
+        <v>14.987522281639929</v>
+      </c>
       <c r="O26" s="11">
         <f>L26/(1-G26)/[1]Sheet1!$N$26</f>
-        <v>12.7393939393939</v>
+        <v>12.739393939393899</v>
       </c>
       <c r="P26" s="12">
         <f>O26*[1]Sheet1!$N$26-L26</f>
@@ -3895,7 +3353,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" ht="90.75" customHeight="1" spans="2:18">
+    <row r="27" spans="2:18" ht="90.75" customHeight="1">
       <c r="B27">
         <v>16112401</v>
       </c>
@@ -3922,9 +3380,12 @@
       </c>
       <c r="J27" s="9">
         <f>(E27+F27+([1]Sheet1!$K$26*H27+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G27)/(1-[1]Sheet1!$O$26)/(1-I27)/[1]Sheet1!$N$26</f>
-        <v>19.0172400698717</v>
-      </c>
-      <c r="K27" s="10"/>
+        <v>19.017240069871701</v>
+      </c>
+      <c r="K27" s="10">
+        <f>(E27+F27+([1]Sheet1!$K$26*H27+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G27)/(1-[1]Sheet1!$P$26)/(1-I27)/[1]Sheet1!$N$26</f>
+        <v>21.254562431033019</v>
+      </c>
       <c r="L27" s="1">
         <f>E27+F27+([1]Sheet1!$K$26*H27+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>62.6</v>
@@ -3933,14 +3394,17 @@
         <f>L27/(1-G27)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
         <v>13.3120680489102</v>
       </c>
-      <c r="N27" s="11"/>
+      <c r="N27" s="11">
+        <f>L27/(1-G27)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
+        <v>14.878193701723115</v>
+      </c>
       <c r="O27" s="11">
         <f>L27/(1-G27)/[1]Sheet1!$N$26</f>
-        <v>12.6464646464646</v>
+        <v>12.646464646464599</v>
       </c>
       <c r="P27" s="12">
         <f>O27*[1]Sheet1!$N$26-L27</f>
-        <v>20.8666666666667</v>
+        <v>20.866666666666699</v>
       </c>
       <c r="Q27">
         <v>40</v>
@@ -3949,7 +3413,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" ht="90.75" customHeight="1" spans="2:18">
+    <row r="28" spans="2:18" ht="90.75" customHeight="1">
       <c r="B28">
         <v>16112501</v>
       </c>
@@ -3978,19 +3442,25 @@
         <f>(E28+F28+([1]Sheet1!$K$26*H28+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G28)/(1-[1]Sheet1!$O$26)/(1-I28)/[1]Sheet1!$N$26</f>
         <v>28.0160456237011</v>
       </c>
-      <c r="K28" s="10"/>
+      <c r="K28" s="10">
+        <f>(E28+F28+([1]Sheet1!$K$26*H28+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G28)/(1-[1]Sheet1!$P$26)/(1-I28)/[1]Sheet1!$N$26</f>
+        <v>31.312050991195381</v>
+      </c>
       <c r="L28" s="1">
         <f>E28+F28+([1]Sheet1!$K$26*H28+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
-        <v>72.46</v>
+        <v>72.459999999999994</v>
       </c>
       <c r="M28" s="11">
         <f>L28/(1-G28)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>15.4088250930356</v>
-      </c>
-      <c r="N28" s="11"/>
+        <v>15.408825093035601</v>
+      </c>
+      <c r="N28" s="11">
+        <f>L28/(1-G28)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
+        <v>17.221628045157455</v>
+      </c>
       <c r="O28" s="11">
         <f>L28/(1-G28)/[1]Sheet1!$N$26</f>
-        <v>14.6383838383838</v>
+        <v>14.638383838383801</v>
       </c>
       <c r="P28" s="12">
         <f>O28*[1]Sheet1!$N$26-L28</f>
@@ -4003,20 +3473,67 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" ht="90.75" customHeight="1" spans="3:16">
-      <c r="C29" s="1"/>
-      <c r="D29" s="6"/>
-      <c r="G29" s="3"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="12"/>
+    <row r="29" spans="2:18" ht="90.75" customHeight="1">
+      <c r="B29">
+        <v>16112801</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29">
+        <v>30</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H29">
+        <v>0.45</v>
+      </c>
+      <c r="I29" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="J29" s="9">
+        <f>(E29+F29+([1]Sheet1!$K$26*H29+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G29)/(1-[1]Sheet1!$O$26)/(1-I29)/[1]Sheet1!$N$26</f>
+        <v>21.112174375332273</v>
+      </c>
+      <c r="K29" s="10">
+        <f>(E29+F29+([1]Sheet1!$K$26*H29+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G29)/(1-[1]Sheet1!$P$26)/(1-I29)/[1]Sheet1!$N$26</f>
+        <v>23.595959595959602</v>
+      </c>
+      <c r="L29" s="1">
+        <f>E29+F29+([1]Sheet1!$K$26*H29+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
+        <v>74.460000000000008</v>
+      </c>
+      <c r="M29" s="11">
+        <f>L29/(1-G29)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
+        <v>15.834130781499207</v>
+      </c>
+      <c r="N29" s="11">
+        <f>L29/(1-G29)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
+        <v>17.696969696969703</v>
+      </c>
+      <c r="O29" s="11">
+        <f>L29/(1-G29)/[1]Sheet1!$N$26</f>
+        <v>15.042424242424245</v>
+      </c>
+      <c r="P29" s="12">
+        <f>O29*[1]Sheet1!$N$26-L29</f>
+        <v>24.820000000000007</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>25</v>
+      </c>
     </row>
-    <row r="30" ht="90.75" customHeight="1" spans="3:16">
+    <row r="30" spans="2:18" ht="90.75" customHeight="1">
       <c r="C30" s="1"/>
       <c r="D30" s="6"/>
       <c r="G30" s="3"/>
@@ -4029,7 +3546,7 @@
       <c r="O30" s="11"/>
       <c r="P30" s="12"/>
     </row>
-    <row r="31" ht="90.75" customHeight="1" spans="3:16">
+    <row r="31" spans="2:18" ht="90.75" customHeight="1">
       <c r="C31" s="1"/>
       <c r="D31" s="6"/>
       <c r="G31" s="3"/>
@@ -4042,7 +3559,7 @@
       <c r="O31" s="11"/>
       <c r="P31" s="12"/>
     </row>
-    <row r="32" ht="90.75" customHeight="1" spans="3:16">
+    <row r="32" spans="2:18" ht="90.75" customHeight="1">
       <c r="C32" s="1"/>
       <c r="D32" s="7"/>
       <c r="G32" s="3"/>
@@ -4055,7 +3572,7 @@
       <c r="O32" s="11"/>
       <c r="P32" s="12"/>
     </row>
-    <row r="33" ht="90.75" customHeight="1" spans="3:16">
+    <row r="33" spans="3:16" ht="90.75" customHeight="1">
       <c r="C33" s="1"/>
       <c r="D33" s="7"/>
       <c r="G33" s="3"/>
@@ -4068,7 +3585,7 @@
       <c r="O33" s="11"/>
       <c r="P33" s="12"/>
     </row>
-    <row r="36" spans="11:16">
+    <row r="36" spans="3:16">
       <c r="K36" s="14" t="s">
         <v>51</v>
       </c>
@@ -4088,7 +3605,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="11:16">
+    <row r="37" spans="3:16">
       <c r="K37" s="15">
         <v>100</v>
       </c>
@@ -4109,14 +3626,15 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"爬爬服"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24 C25 C26 C28 C29 C17:C21 C30:C31 C32:C33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24:C26 C17:C21 C28 C30:C33">
       <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27 C2:C16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27 C2:C16 C29">
       <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子,裤子"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q6 R2:R4">
@@ -4124,67 +3642,61 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId2" display="https://detail.1688.com/offer/43388465240.html?spm=a2615.7691456.0.0.SVo0SF"/>
-    <hyperlink ref="D4" r:id="rId3" display="https://detail.1688.com/offer/532946594199.html?spm=a2615.7691456.0.0.KfqxAP"/>
-    <hyperlink ref="D6" r:id="rId4" display="https://item.taobao.com/item.htm?spm=a230r.1.0.0.NVkYXr&amp;id=535812571550&amp;ns=1#detail"/>
-    <hyperlink ref="S6" r:id="rId4" display="https://item.taobao.com/item.htm?spm=a230r.1.0.0.NVkYXr&amp;id=535812571550&amp;ns=1#detail"/>
-    <hyperlink ref="D8" r:id="rId5" display="https://detail.1688.com/offer/521926765457.html?spm=a2615.7691456.0.0.Iw9wYb"/>
-    <hyperlink ref="D9" r:id="rId6" display="https://detail.1688.com/offer/539601777542.html?spm=b26110380.8015204.1688002.1.tV3mIo"/>
-    <hyperlink ref="D10" r:id="rId7" display="https://detail.1688.com/offer/534650922032.html"/>
-    <hyperlink ref="D11" r:id="rId8" display="https://detail.1688.com/offer/525196220868.html?spm=b26110380.8015204.xshy005.911.FMmHAe"/>
-    <hyperlink ref="D12" r:id="rId9" display="https://detail.1688.com/offer/525739109360.html?spm=b26110380.sw311.0.0.2w3SJa"/>
-    <hyperlink ref="D13" r:id="rId10" display="https://detail.1688.com/offer/536964765017.html?spm=b26110380.8015204.1688002.2.0qEfTf"/>
-    <hyperlink ref="D14" r:id="rId11" display="https://detail.1688.com/offer/523084291442.html?spm=b26110380.8015204.tkhy006.2.7zxqcs"/>
-    <hyperlink ref="D15" r:id="rId12" display="https://detail.1688.com/offer/539464650849.html?spm=b26110380.8015204.tkhy006.13.LriGRm"/>
-    <hyperlink ref="D16" r:id="rId13" display="https://detail.1688.com/offer/539024831638.html?spm=a2615.7691456.0.0.erl0H2"/>
-    <hyperlink ref="D19" r:id="rId14" display="https://detail.1688.com/offer/37436493140.html?spm=a261y.7663282.0.0.Bdoqfg"/>
-    <hyperlink ref="D20" r:id="rId15" display="https://detail.1688.com/offer/525328573875.html?spm=a2615.2177701.0.0.inGNvk"/>
-    <hyperlink ref="D21" r:id="rId16" display="https://detail.1688.com/offer/531099455627.html?spm=b26110380.sw311.0.0.NlP3tV"/>
-    <hyperlink ref="D22" r:id="rId17" display="https://detail.1688.com/offer/539748592006.html?spm=a2615.7691456.0.0.gzA0aC"/>
-    <hyperlink ref="D23" r:id="rId18" display="https://detail.1688.com/offer/542005628301.html?spm=a2615.7691456.0.0.E27Va6" tooltip="https://detail.1688.com/offer/542005628301.html?spm=a2615.7691456.0.0.E27Va6"/>
-    <hyperlink ref="D24" r:id="rId16" display="https://detail.1688.com/offer/531099455627.html?spm=b26110380.sw311.0.0.NlP3tV"/>
-    <hyperlink ref="D25" r:id="rId19" display="https://detail.1688.com/offer/537712350771.html?spm=a261y.7663282.0.0.HGrgRG&amp;sk=consign"/>
-    <hyperlink ref="D26" r:id="rId20" display="https://detail.1688.com/offer/535604104982.html?spm=a2615.7691456.0.0.ceDRcB" tooltip="https://detail.1688.com/offer/535604104982.html?spm=a2615.7691456.0.0.ceDRcB"/>
-    <hyperlink ref="D18" r:id="rId21" display="https://detail.1688.com/offer/537572849225.html?spm=a2615.7691456.0.0.0jr1X8"/>
-    <hyperlink ref="D28" r:id="rId22" display="https://detail.1688.com/offer/538358020263.html?spm=a2615.7691456.0.0.BXbA7w"/>
+    <hyperlink ref="D5" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="S6" r:id="rId4"/>
+    <hyperlink ref="D8" r:id="rId5"/>
+    <hyperlink ref="D9" r:id="rId6"/>
+    <hyperlink ref="D10" r:id="rId7"/>
+    <hyperlink ref="D11" r:id="rId8"/>
+    <hyperlink ref="D12" r:id="rId9"/>
+    <hyperlink ref="D13" r:id="rId10"/>
+    <hyperlink ref="D14" r:id="rId11"/>
+    <hyperlink ref="D15" r:id="rId12"/>
+    <hyperlink ref="D16" r:id="rId13"/>
+    <hyperlink ref="D19" r:id="rId14"/>
+    <hyperlink ref="D20" r:id="rId15"/>
+    <hyperlink ref="D21" r:id="rId16"/>
+    <hyperlink ref="D22" r:id="rId17"/>
+    <hyperlink ref="D23" r:id="rId18" tooltip="https://detail.1688.com/offer/542005628301.html?spm=a2615.7691456.0.0.E27Va6"/>
+    <hyperlink ref="D24" r:id="rId19"/>
+    <hyperlink ref="D25" r:id="rId20"/>
+    <hyperlink ref="D26" r:id="rId21" tooltip="https://detail.1688.com/offer/535604104982.html?spm=a2615.7691456.0.0.ceDRcB"/>
+    <hyperlink ref="D18" r:id="rId22"/>
+    <hyperlink ref="D28" r:id="rId23"/>
+    <hyperlink ref="D29" r:id="rId24"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId25"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/产品表单.xlsx
+++ b/产品表单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="8685"/>
+    <workbookView windowWidth="19100" windowHeight="8690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$C$27</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
   <si>
     <t>产品标题</t>
   </si>
@@ -177,6 +177,12 @@
     <t>https://detail.1688.com/offer/538358020263.html?spm=a2615.7691456.0.0.BXbA7w</t>
   </si>
   <si>
+    <t>https://detail.1688.com/offer/536605241945.html?spm=b26110380.8015204.xshy005.79.X6yxQK</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/522617209176.html?spm=0.0.0.0.OkHehB&amp;sk=consign</t>
+  </si>
+  <si>
     <t>国际运费 1kg/￥</t>
   </si>
   <si>
@@ -193,23 +199,23 @@
   </si>
   <si>
     <t>wish费率</t>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/536605241945.html?spm=b26110380.8015204.xshy005.79.X6yxQK</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="8">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="180" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,19 +249,142 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,8 +397,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -277,15 +592,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -302,55 +853,100 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="百分比" xfId="2" builtinId="5"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -372,7 +968,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -410,7 +1006,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:blip r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -448,7 +1044,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:blip r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -486,7 +1082,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:blip r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -524,7 +1120,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:blip r:embed="rId5" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -562,7 +1158,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:blip r:embed="rId6" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -600,7 +1196,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:blip r:embed="rId7" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -638,7 +1234,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:blip r:embed="rId8" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -676,7 +1272,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:blip r:embed="rId9" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -714,7 +1310,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
+        <a:blip r:embed="rId10" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -752,7 +1348,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
+        <a:blip r:embed="rId11" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -790,7 +1386,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
+        <a:blip r:embed="rId12" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -832,7 +1428,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
+        <a:blip r:embed="rId13" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -870,7 +1466,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
+        <a:blip r:embed="rId14" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -908,7 +1504,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print"/>
+        <a:blip r:embed="rId15" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -946,7 +1542,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print"/>
+        <a:blip r:embed="rId16" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -988,7 +1584,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print"/>
+        <a:blip r:embed="rId17" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1030,7 +1626,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print"/>
+        <a:blip r:embed="rId18" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1072,7 +1668,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print"/>
+        <a:blip r:embed="rId19" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1114,7 +1710,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print"/>
+        <a:blip r:embed="rId20" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1156,7 +1752,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print"/>
+        <a:blip r:embed="rId21" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1198,14 +1794,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print"/>
+        <a:blip r:embed="rId22" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="45085" y="23092410"/>
+          <a:off x="45085" y="23091775"/>
           <a:ext cx="871855" cy="1129030"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1240,14 +1836,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print"/>
+        <a:blip r:embed="rId23" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="39370" y="24310340"/>
+          <a:off x="39370" y="24309070"/>
           <a:ext cx="810260" cy="1063625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1282,14 +1878,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print"/>
+        <a:blip r:embed="rId24" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23495" y="25425400"/>
+          <a:off x="23495" y="25424130"/>
           <a:ext cx="873760" cy="1089660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1324,14 +1920,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print"/>
+        <a:blip r:embed="rId25" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635" y="26583005"/>
+          <a:off x="635" y="26581735"/>
           <a:ext cx="962660" cy="1080135"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1366,14 +1962,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:blip r:embed="rId26"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6350" y="27710765"/>
+          <a:off x="6350" y="27709495"/>
           <a:ext cx="920750" cy="1102995"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1408,14 +2004,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print"/>
+        <a:blip r:embed="rId27" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12700" y="28918535"/>
+          <a:off x="12700" y="28917265"/>
           <a:ext cx="949325" cy="1040130"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1437,8 +2033,8 @@
       <xdr:rowOff>16564</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1053293</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>1068457</xdr:rowOff>
     </xdr:to>
@@ -1450,19 +2046,61 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print"/>
+        <a:blip r:embed="rId28" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="29983042"/>
-          <a:ext cx="1053292" cy="1051893"/>
+          <a:off x="0" y="30010735"/>
+          <a:ext cx="986790" cy="1051560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>50165</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>883285</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1061085</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="图片 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="50165" y="31177230"/>
+          <a:ext cx="833120" cy="1030605"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1479,7 +2117,7 @@
       <sheetName val="Sheet3"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
+      <sheetData sheetId="0">
         <row r="26">
           <cell r="K26">
             <v>100</v>
@@ -1501,8 +2139,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1792,34 +2430,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q30" sqref="Q30"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="14.1272727272727" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="9.625" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="8.125" customWidth="1"/>
-    <col min="6" max="6" width="9.875" customWidth="1"/>
-    <col min="7" max="7" width="8.25" customWidth="1"/>
-    <col min="10" max="10" width="11.25" customWidth="1"/>
-    <col min="11" max="11" width="11.125" customWidth="1"/>
-    <col min="12" max="12" width="7.625" customWidth="1"/>
-    <col min="13" max="13" width="11.875" customWidth="1"/>
-    <col min="14" max="15" width="11.625" customWidth="1"/>
-    <col min="16" max="16" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="9.62727272727273" customWidth="1"/>
+    <col min="4" max="4" width="17.3727272727273" customWidth="1"/>
+    <col min="5" max="5" width="8.12727272727273" customWidth="1"/>
+    <col min="6" max="6" width="9.87272727272727" customWidth="1"/>
+    <col min="7" max="7" width="8.25454545454545" customWidth="1"/>
+    <col min="10" max="10" width="11.2545454545455" customWidth="1"/>
+    <col min="11" max="11" width="11.1272727272727" customWidth="1"/>
+    <col min="12" max="12" width="7.62727272727273" customWidth="1"/>
+    <col min="13" max="13" width="11.8727272727273" customWidth="1"/>
+    <col min="14" max="15" width="11.6272727272727" customWidth="1"/>
+    <col min="16" max="16" width="9.87272727272727" customWidth="1"/>
     <col min="17" max="17" width="6.5" customWidth="1"/>
-    <col min="18" max="18" width="6.875" customWidth="1"/>
+    <col min="18" max="18" width="6.87272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1875,7 +2515,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="86.25" customHeight="1">
+    <row r="2" ht="86.25" customHeight="1" spans="1:18">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
         <v>16072601</v>
@@ -1902,32 +2542,32 @@
         <v>0.15</v>
       </c>
       <c r="J2" s="9">
-        <f t="shared" ref="J2:J14" si="0">(E2+F2+($K$37*H2+$M$37)*$L$37)/(1-G2)/(1-$O$37)/(1-I2)/$N$37</f>
-        <v>16.551896675735701</v>
+        <f t="shared" ref="J2:J14" si="0">(E2+F2+($K$38*H2+$M$38)*$L$38)/(1-G2)/(1-$O$38)/(1-I2)/$N$38</f>
+        <v>16.5518966757357</v>
       </c>
       <c r="K2" s="10">
-        <f t="shared" ref="K2:K14" si="1">(E2+F2+($K$37*H2+$M$37)*$L$37)/(1-G2)/(1-$P$37)/(1-I2)/$N$37</f>
-        <v>18.499178637586901</v>
+        <f t="shared" ref="K2:K14" si="1">(E2+F2+($K$38*H2+$M$38)*$L$38)/(1-G2)/(1-$P$38)/(1-I2)/$N$38</f>
+        <v>18.4991786375869</v>
       </c>
       <c r="L2" s="1">
-        <f t="shared" ref="L2:L14" si="2">E2+F2+($K$37*H2+$M$37)*$L$37</f>
+        <f t="shared" ref="L2:L14" si="2">E2+F2+($K$38*H2+$M$38)*$L$38</f>
         <v>66.16</v>
       </c>
       <c r="M2" s="11">
-        <f t="shared" ref="M2:M14" si="3">L2/(1-G2)/(1-$O$37)/$N$37</f>
+        <f t="shared" ref="M2:M14" si="3">L2/(1-G2)/(1-$O$38)/$N$38</f>
         <v>14.0691121743753</v>
       </c>
       <c r="N2" s="11">
-        <f t="shared" ref="N2:N14" si="4">L2/(1-G2)/(1-$P$37)/$N$37</f>
+        <f t="shared" ref="N2:N14" si="4">L2/(1-G2)/(1-$P$38)/$N$38</f>
         <v>15.7243018419489</v>
       </c>
       <c r="O2" s="11">
-        <f>L2/(1-G2)/$N$37</f>
+        <f>L2/(1-G2)/$N$38</f>
         <v>13.3656565656566</v>
       </c>
       <c r="P2" s="12">
-        <f>O2*$N$37-L2</f>
-        <v>22.053333333333299</v>
+        <f>O2*$N$38-L2</f>
+        <v>22.0533333333333</v>
       </c>
       <c r="Q2" s="1">
         <v>1</v>
@@ -1936,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="86.25" customHeight="1">
+    <row r="3" ht="86.25" customHeight="1" spans="1:18">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>16072701</v>
@@ -1964,7 +2604,7 @@
       </c>
       <c r="J3" s="9">
         <f t="shared" si="0"/>
-        <v>10.763069289385101</v>
+        <v>10.7630692893851</v>
       </c>
       <c r="K3" s="10">
         <f t="shared" si="1"/>
@@ -1976,18 +2616,18 @@
       </c>
       <c r="M3" s="11">
         <f t="shared" si="3"/>
-        <v>8.0723019670388094</v>
+        <v>8.07230196703881</v>
       </c>
       <c r="N3" s="11">
         <f t="shared" si="4"/>
-        <v>9.0219845513963204</v>
+        <v>9.02198455139632</v>
       </c>
       <c r="O3" s="11">
-        <f>L3/(1-G3)/$N$37</f>
-        <v>7.6686868686868701</v>
+        <f>L3/(1-G3)/$N$38</f>
+        <v>7.66868686868687</v>
       </c>
       <c r="P3" s="12">
-        <f>O3*$N$37-L3</f>
+        <f>O3*$N$38-L3</f>
         <v>12.6533333333333</v>
       </c>
       <c r="Q3" s="1">
@@ -1997,7 +2637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="69.75" customHeight="1">
+    <row r="4" ht="69.75" customHeight="1" spans="1:18">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>16072901</v>
@@ -2025,7 +2665,7 @@
       </c>
       <c r="J4" s="9">
         <f t="shared" si="0"/>
-        <v>18.822814612288301</v>
+        <v>18.8228146122883</v>
       </c>
       <c r="K4" s="10">
         <f t="shared" si="1"/>
@@ -2044,11 +2684,11 @@
         <v>14.7260843731432</v>
       </c>
       <c r="O4" s="11">
-        <f>L4/(1-G4)/$N$37</f>
-        <v>12.517171717171699</v>
+        <f>L4/(1-G4)/$N$38</f>
+        <v>12.5171717171717</v>
       </c>
       <c r="P4" s="12">
-        <f>O4*$N$37-L4</f>
+        <f>O4*$N$38-L4</f>
         <v>20.6533333333333</v>
       </c>
       <c r="Q4" s="1">
@@ -2058,7 +2698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="78" customHeight="1">
+    <row r="5" ht="78" customHeight="1" spans="1:18">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>16073001</v>
@@ -2086,11 +2726,11 @@
       </c>
       <c r="J5" s="9">
         <f t="shared" si="0"/>
-        <v>17.852831722800801</v>
+        <v>17.8528317228008</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" si="1"/>
-        <v>19.953164866659701</v>
+        <v>19.9531648666597</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="2"/>
@@ -2105,12 +2745,12 @@
         <v>16.9601901366607</v>
       </c>
       <c r="O5" s="11">
-        <f>L5/(1-G5)/$N$37</f>
-        <v>14.416161616161601</v>
+        <f>L5/(1-G5)/$N$38</f>
+        <v>14.4161616161616</v>
       </c>
       <c r="P5" s="12">
-        <f>O5*$N$37-L5</f>
-        <v>23.786666666666701</v>
+        <f>O5*$N$38-L5</f>
+        <v>23.7866666666667</v>
       </c>
       <c r="Q5" s="1">
         <v>1</v>
@@ -2119,7 +2759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="78" customHeight="1">
+    <row r="6" ht="78" customHeight="1" spans="1:19">
       <c r="A6" s="4"/>
       <c r="B6" s="1">
         <v>16073002</v>
@@ -2151,7 +2791,7 @@
       </c>
       <c r="K6" s="10">
         <f t="shared" si="1"/>
-        <v>16.818706092062499</v>
+        <v>16.8187060920625</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="2"/>
@@ -2163,14 +2803,14 @@
       </c>
       <c r="N6" s="11">
         <f t="shared" si="4"/>
-        <v>14.295900178253101</v>
+        <v>14.2959001782531</v>
       </c>
       <c r="O6" s="11">
-        <f t="shared" ref="O6:O14" si="5">L6/(1-G6)/$N$37</f>
+        <f t="shared" ref="O6:O14" si="5">L6/(1-G6)/$N$38</f>
         <v>12.1515151515152</v>
       </c>
       <c r="P6" s="12">
-        <f t="shared" ref="P6:P14" si="6">O6*$N$37-L6</f>
+        <f t="shared" ref="P6:P14" si="6">O6*$N$38-L6</f>
         <v>16.04</v>
       </c>
       <c r="Q6" s="1">
@@ -2183,7 +2823,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="69" customHeight="1">
+    <row r="7" ht="69" customHeight="1" spans="1:18">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>16080301</v>
@@ -2211,11 +2851,11 @@
       </c>
       <c r="J7" s="9">
         <f t="shared" si="0"/>
-        <v>16.852112455827601</v>
+        <v>16.8521124558276</v>
       </c>
       <c r="K7" s="10">
         <f t="shared" si="1"/>
-        <v>18.834713921219102</v>
+        <v>18.8347139212191</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="2"/>
@@ -2227,7 +2867,7 @@
       </c>
       <c r="N7" s="11">
         <f t="shared" si="4"/>
-        <v>16.009506833036198</v>
+        <v>16.0095068330362</v>
       </c>
       <c r="O7" s="11">
         <f t="shared" si="5"/>
@@ -2235,7 +2875,7 @@
       </c>
       <c r="P7" s="12">
         <f t="shared" si="6"/>
-        <v>22.453333333333301</v>
+        <v>22.4533333333333</v>
       </c>
       <c r="Q7" s="1">
         <v>1</v>
@@ -2244,7 +2884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="78" customHeight="1">
+    <row r="8" ht="78" customHeight="1" spans="2:18">
       <c r="B8">
         <v>16080401</v>
       </c>
@@ -2275,7 +2915,7 @@
       </c>
       <c r="K8" s="10">
         <f t="shared" si="1"/>
-        <v>38.975044563279901</v>
+        <v>38.9750445632799</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="2"/>
@@ -2287,15 +2927,15 @@
       </c>
       <c r="N8" s="11">
         <f t="shared" si="4"/>
-        <v>19.487522281639901</v>
+        <v>19.4875222816399</v>
       </c>
       <c r="O8" s="11">
         <f t="shared" si="5"/>
-        <v>16.564393939393899</v>
+        <v>16.5643939393939</v>
       </c>
       <c r="P8" s="12">
         <f t="shared" si="6"/>
-        <v>21.864999999999998</v>
+        <v>21.865</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -2304,7 +2944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="92.25" customHeight="1">
+    <row r="9" ht="92.25" customHeight="1" spans="2:18">
       <c r="B9">
         <v>16100801</v>
       </c>
@@ -2331,19 +2971,19 @@
       </c>
       <c r="J9" s="9">
         <f t="shared" si="0"/>
-        <v>20.590111642743199</v>
+        <v>20.5901116427432</v>
       </c>
       <c r="K9" s="10">
         <f t="shared" si="1"/>
-        <v>23.012477718360099</v>
+        <v>23.0124777183601</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="2"/>
-        <v>77.459999999999994</v>
+        <v>77.46</v>
       </c>
       <c r="M9" s="11">
         <f t="shared" si="3"/>
-        <v>16.472089314194601</v>
+        <v>16.4720893141946</v>
       </c>
       <c r="N9" s="11">
         <f t="shared" si="4"/>
@@ -2364,7 +3004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="89.25" customHeight="1">
+    <row r="10" ht="89.25" customHeight="1" spans="2:18">
       <c r="B10">
         <v>16100901</v>
       </c>
@@ -2391,11 +3031,11 @@
       </c>
       <c r="J10" s="9">
         <f t="shared" si="0"/>
-        <v>36.503379661274401</v>
+        <v>36.5033796612744</v>
       </c>
       <c r="K10" s="10">
         <f t="shared" si="1"/>
-        <v>40.797894915542003</v>
+        <v>40.797894915542</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="2"/>
@@ -2403,11 +3043,11 @@
       </c>
       <c r="M10" s="11">
         <f t="shared" si="3"/>
-        <v>25.552365762892101</v>
+        <v>25.5523657628921</v>
       </c>
       <c r="N10" s="11">
         <f t="shared" si="4"/>
-        <v>28.558526440879401</v>
+        <v>28.5585264408794</v>
       </c>
       <c r="O10" s="11">
         <f t="shared" si="5"/>
@@ -2415,7 +3055,7 @@
       </c>
       <c r="P10" s="12">
         <f t="shared" si="6"/>
-        <v>40.053333333333299</v>
+        <v>40.0533333333333</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2424,7 +3064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="95.25" customHeight="1">
+    <row r="11" ht="95.25" customHeight="1" spans="2:18">
       <c r="B11">
         <v>16101601</v>
       </c>
@@ -2451,27 +3091,27 @@
       </c>
       <c r="J11" s="9">
         <f t="shared" si="0"/>
-        <v>32.363261093911298</v>
+        <v>32.3632610939113</v>
       </c>
       <c r="K11" s="10">
         <f t="shared" si="1"/>
-        <v>36.170703575547897</v>
+        <v>36.1707035755479</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="2"/>
-        <v>129.36000000000001</v>
+        <v>129.36</v>
       </c>
       <c r="M11" s="11">
         <f t="shared" si="3"/>
-        <v>27.508771929824601</v>
+        <v>27.5087719298246</v>
       </c>
       <c r="N11" s="11">
         <f t="shared" si="4"/>
-        <v>30.745098039215701</v>
+        <v>30.7450980392157</v>
       </c>
       <c r="O11" s="11">
         <f t="shared" si="5"/>
-        <v>26.133333333333301</v>
+        <v>26.1333333333333</v>
       </c>
       <c r="P11" s="12">
         <f t="shared" si="6"/>
@@ -2484,7 +3124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="81.75" customHeight="1">
+    <row r="12" ht="81.75" customHeight="1" spans="2:18">
       <c r="B12">
         <v>16101602</v>
       </c>
@@ -2511,11 +3151,11 @@
       </c>
       <c r="J12" s="9">
         <f t="shared" si="0"/>
-        <v>32.344193334905398</v>
+        <v>32.3441933349054</v>
       </c>
       <c r="K12" s="10">
         <f t="shared" si="1"/>
-        <v>36.149392550776597</v>
+        <v>36.1493925507766</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="2"/>
@@ -2523,11 +3163,11 @@
       </c>
       <c r="M12" s="11">
         <f t="shared" si="3"/>
-        <v>27.492564334669598</v>
+        <v>27.4925643346696</v>
       </c>
       <c r="N12" s="11">
         <f t="shared" si="4"/>
-        <v>30.726983668160099</v>
+        <v>30.7269836681601</v>
       </c>
       <c r="O12" s="11">
         <f t="shared" si="5"/>
@@ -2535,7 +3175,7 @@
       </c>
       <c r="P12" s="12">
         <f t="shared" si="6"/>
-        <v>44.818378378378398</v>
+        <v>44.8183783783784</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -2544,7 +3184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="89.1" customHeight="1">
+    <row r="13" ht="89.1" customHeight="1" spans="2:18">
       <c r="B13">
         <v>16101701</v>
       </c>
@@ -2575,7 +3215,7 @@
       </c>
       <c r="K13" s="10">
         <f t="shared" si="1"/>
-        <v>16.569850756701999</v>
+        <v>16.569850756702</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="2"/>
@@ -2595,7 +3235,7 @@
       </c>
       <c r="P13" s="12">
         <f t="shared" si="6"/>
-        <v>19.753333333333298</v>
+        <v>19.7533333333333</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -2604,7 +3244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="84" customHeight="1">
+    <row r="14" ht="84" customHeight="1" spans="2:18">
       <c r="B14">
         <v>16101703</v>
       </c>
@@ -2631,11 +3271,11 @@
       </c>
       <c r="J14" s="9">
         <f t="shared" si="0"/>
-        <v>58.590111642743203</v>
+        <v>58.5901116427432</v>
       </c>
       <c r="K14" s="10">
         <f t="shared" si="1"/>
-        <v>65.483065953654204</v>
+        <v>65.4830659536542</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="2"/>
@@ -2643,11 +3283,11 @@
       </c>
       <c r="M14" s="11">
         <f t="shared" si="3"/>
-        <v>29.295055821371601</v>
+        <v>29.2950558213716</v>
       </c>
       <c r="N14" s="11">
         <f t="shared" si="4"/>
-        <v>32.741532976827102</v>
+        <v>32.7415329768271</v>
       </c>
       <c r="O14" s="11">
         <f t="shared" si="5"/>
@@ -2664,7 +3304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="90.75" customHeight="1">
+    <row r="15" ht="90.75" customHeight="1" spans="2:18">
       <c r="B15">
         <v>16101702</v>
       </c>
@@ -2690,31 +3330,31 @@
         <v>0.15</v>
       </c>
       <c r="J15" s="9">
-        <f>(E15+F15+(Sheet1!$K$37*H15+Sheet1!$M$37)*Sheet1!$L$37)/(1-G15)/(1-Sheet1!$O$37)/(1-I15)/Sheet1!$N$37</f>
+        <f>(E15+F15+(Sheet1!$K$38*H15+Sheet1!$M$38)*Sheet1!$L$38)/(1-G15)/(1-Sheet1!$O$38)/(1-I15)/Sheet1!$N$38</f>
         <v>22.6062482409232</v>
       </c>
       <c r="K15" s="10">
-        <f>(E15+F15+(Sheet1!$K$37*H15+Sheet1!$M$37)*Sheet1!$L$37)/(1-G15)/(1-Sheet1!$P$37)/(1-I15)/Sheet1!$N$37</f>
-        <v>25.265806857502401</v>
+        <f>(E15+F15+(Sheet1!$K$38*H15+Sheet1!$M$38)*Sheet1!$L$38)/(1-G15)/(1-Sheet1!$P$38)/(1-I15)/Sheet1!$N$38</f>
+        <v>25.2658068575024</v>
       </c>
       <c r="L15" s="1">
-        <f>E15+F15+(Sheet1!$K$37*H15+Sheet1!$M$37)*Sheet1!$L$37</f>
+        <f>E15+F15+(Sheet1!$K$38*H15+Sheet1!$M$38)*Sheet1!$L$38</f>
         <v>90.36</v>
       </c>
       <c r="M15" s="11">
-        <f>L15/(1-G15)/(1-Sheet1!$O$37)/Sheet1!$N$37</f>
-        <v>19.215311004784699</v>
+        <f>L15/(1-G15)/(1-Sheet1!$O$38)/Sheet1!$N$38</f>
+        <v>19.2153110047847</v>
       </c>
       <c r="N15" s="11">
-        <f>L15/(1-G15)/(1-Sheet1!$P$37)/Sheet1!$N$37</f>
-        <v>21.475935828876999</v>
+        <f>L15/(1-G15)/(1-Sheet1!$P$38)/Sheet1!$N$38</f>
+        <v>21.475935828877</v>
       </c>
       <c r="O15" s="11">
-        <f>L15/(1-G15)/Sheet1!$N$37</f>
+        <f>L15/(1-G15)/Sheet1!$N$38</f>
         <v>18.2545454545455</v>
       </c>
       <c r="P15" s="12">
-        <f>O15*Sheet1!$N$37-L15</f>
+        <f>O15*Sheet1!$N$38-L15</f>
         <v>30.12</v>
       </c>
       <c r="Q15">
@@ -2724,7 +3364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="90.75" customHeight="1">
+    <row r="16" ht="90.75" customHeight="1" spans="2:18">
       <c r="B16">
         <v>16101901</v>
       </c>
@@ -2750,31 +3390,31 @@
         <v>0.25</v>
       </c>
       <c r="J16" s="9">
-        <f>(E16+F16+(Sheet1!$K$37*H16+Sheet1!$M$37)*Sheet1!$L$37)/(1-G16)/(1-Sheet1!$O$37)/(1-I16)/Sheet1!$N$37</f>
+        <f>(E16+F16+(Sheet1!$K$38*H16+Sheet1!$M$38)*Sheet1!$L$38)/(1-G16)/(1-Sheet1!$O$38)/(1-I16)/Sheet1!$N$38</f>
         <v>11.4194577352472</v>
       </c>
       <c r="K16" s="10">
-        <f>(E16+F16+(Sheet1!$K$37*H16+Sheet1!$M$37)*Sheet1!$L$37)/(1-G16)/(1-Sheet1!$P$37)/(1-I16)/Sheet1!$N$37</f>
+        <f>(E16+F16+(Sheet1!$K$38*H16+Sheet1!$M$38)*Sheet1!$L$38)/(1-G16)/(1-Sheet1!$P$38)/(1-I16)/Sheet1!$N$38</f>
         <v>12.7629233511586</v>
       </c>
       <c r="L16" s="1">
-        <f>E16+F16+(Sheet1!$K$37*H16+Sheet1!$M$37)*Sheet1!$L$37</f>
+        <f>E16+F16+(Sheet1!$K$38*H16+Sheet1!$M$38)*Sheet1!$L$38</f>
         <v>42.96</v>
       </c>
       <c r="M16" s="11">
-        <f>L16/(1-G16)/(1-Sheet1!$O$37)/Sheet1!$N$37</f>
-        <v>8.5645933014354103</v>
+        <f>L16/(1-G16)/(1-Sheet1!$O$38)/Sheet1!$N$38</f>
+        <v>8.56459330143541</v>
       </c>
       <c r="N16" s="11">
-        <f>L16/(1-G16)/(1-Sheet1!$P$37)/Sheet1!$N$37</f>
-        <v>9.5721925133689805</v>
+        <f>L16/(1-G16)/(1-Sheet1!$P$38)/Sheet1!$N$38</f>
+        <v>9.57219251336898</v>
       </c>
       <c r="O16" s="11">
-        <f>L16/(1-G16)/Sheet1!$N$37</f>
-        <v>8.1363636363636296</v>
+        <f>L16/(1-G16)/Sheet1!$N$38</f>
+        <v>8.13636363636363</v>
       </c>
       <c r="P16" s="12">
-        <f>O16*Sheet1!$N$37-L16</f>
+        <f>O16*Sheet1!$N$38-L16</f>
         <v>10.74</v>
       </c>
       <c r="Q16">
@@ -2784,7 +3424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="90.75" customHeight="1">
+    <row r="17" ht="90.75" customHeight="1" spans="2:18">
       <c r="B17">
         <v>16110801</v>
       </c>
@@ -2815,7 +3455,7 @@
       </c>
       <c r="K17" s="10">
         <f>(E17+F17+([1]Sheet1!$K$26*H17+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G17)/(1-[1]Sheet1!$P$26)/(1-I17)/[1]Sheet1!$N$26</f>
-        <v>17.995875712138702</v>
+        <v>17.9958757121387</v>
       </c>
       <c r="L17" s="1">
         <f>E17+F17+([1]Sheet1!$K$26*H17+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -2835,7 +3475,7 @@
       </c>
       <c r="P17" s="12">
         <f>O17*[1]Sheet1!$N$26-L17</f>
-        <v>21.453333333333301</v>
+        <v>21.4533333333333</v>
       </c>
       <c r="Q17" s="13">
         <v>0.15</v>
@@ -2844,7 +3484,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="18" spans="2:18" ht="90.75" customHeight="1">
+    <row r="18" ht="90.75" customHeight="1" spans="2:18">
       <c r="B18">
         <v>16110802</v>
       </c>
@@ -2875,7 +3515,7 @@
       </c>
       <c r="K18" s="10">
         <f>(E18+F18+([1]Sheet1!$K$26*H18+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G18)/(1-[1]Sheet1!$P$26)/(1-I18)/[1]Sheet1!$N$26</f>
-        <v>17.995875712138702</v>
+        <v>17.9958757121387</v>
       </c>
       <c r="L18" s="1">
         <f>E18+F18+([1]Sheet1!$K$26*H18+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -2895,7 +3535,7 @@
       </c>
       <c r="P18" s="12">
         <f>O18*[1]Sheet1!$N$26-L18</f>
-        <v>21.453333333333301</v>
+        <v>21.4533333333333</v>
       </c>
       <c r="Q18" s="13">
         <v>0.15</v>
@@ -2904,7 +3544,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="2:18" ht="90.75" customHeight="1">
+    <row r="19" ht="90.75" customHeight="1" spans="2:18">
       <c r="B19">
         <v>16110901</v>
       </c>
@@ -2929,11 +3569,11 @@
       </c>
       <c r="J19" s="9">
         <f>(E19+F19+([1]Sheet1!$K$26*H19+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G19)/(1-[1]Sheet1!$O$26)/(1-I19)/[1]Sheet1!$N$26</f>
-        <v>16.740031897926599</v>
+        <v>16.7400318979266</v>
       </c>
       <c r="K19" s="10">
         <f>(E19+F19+([1]Sheet1!$K$26*H19+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G19)/(1-[1]Sheet1!$P$26)/(1-I19)/[1]Sheet1!$N$26</f>
-        <v>18.709447415329802</v>
+        <v>18.7094474153298</v>
       </c>
       <c r="L19" s="1">
         <f>E19+F19+([1]Sheet1!$K$26*H19+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -2941,15 +3581,15 @@
       </c>
       <c r="M19" s="11">
         <f>L19/(1-G19)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>8.3700159489633208</v>
+        <v>8.37001594896332</v>
       </c>
       <c r="N19" s="11">
         <f>L19/(1-G19)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>9.3547237076648795</v>
+        <v>9.35472370766488</v>
       </c>
       <c r="O19" s="11">
         <f>L19/(1-G19)/[1]Sheet1!$N$26</f>
-        <v>7.9515151515151503</v>
+        <v>7.95151515151515</v>
       </c>
       <c r="P19" s="12">
         <f>O19*[1]Sheet1!$N$26-L19</f>
@@ -2962,7 +3602,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:18" ht="90.75" customHeight="1">
+    <row r="20" ht="90.75" customHeight="1" spans="2:18">
       <c r="B20">
         <v>16111001</v>
       </c>
@@ -2987,11 +3627,11 @@
       </c>
       <c r="J20" s="9">
         <f>(E20+F20+([1]Sheet1!$K$26*H20+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G20)/(1-[1]Sheet1!$O$26)/(1-I20)/[1]Sheet1!$N$26</f>
-        <v>18.124098124098101</v>
+        <v>18.1240981240981</v>
       </c>
       <c r="K20" s="10">
         <f>(E20+F20+([1]Sheet1!$K$26*H20+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G20)/(1-[1]Sheet1!$P$26)/(1-I20)/[1]Sheet1!$N$26</f>
-        <v>20.256344962227299</v>
+        <v>20.2563449622273</v>
       </c>
       <c r="L20" s="1">
         <f>E20+F20+([1]Sheet1!$K$26*H20+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -2999,7 +3639,7 @@
       </c>
       <c r="M20" s="11">
         <f>L20/(1-G20)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>12.686868686868699</v>
+        <v>12.6868686868687</v>
       </c>
       <c r="N20" s="11">
         <f>L20/(1-G20)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
@@ -3007,17 +3647,17 @@
       </c>
       <c r="O20" s="11">
         <f>L20/(1-G20)/[1]Sheet1!$N$26</f>
-        <v>12.052525252525299</v>
+        <v>12.0525252525253</v>
       </c>
       <c r="P20" s="12">
         <f>O20*[1]Sheet1!$N$26-L20</f>
-        <v>19.886666666666699</v>
+        <v>19.8866666666667</v>
       </c>
       <c r="R20">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="2:18" ht="90.75" customHeight="1">
+    <row r="21" ht="90.75" customHeight="1" spans="2:18">
       <c r="B21">
         <v>16111901</v>
       </c>
@@ -3056,7 +3696,7 @@
       </c>
       <c r="M21" s="11">
         <f>L21/(1-G21)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.047846889952201</v>
+        <v>14.0478468899522</v>
       </c>
       <c r="N21" s="11">
         <f>L21/(1-G21)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
@@ -3064,7 +3704,7 @@
       </c>
       <c r="O21" s="11">
         <f>L21/(1-G21)/[1]Sheet1!$N$26</f>
-        <v>13.345454545454499</v>
+        <v>13.3454545454545</v>
       </c>
       <c r="P21" s="12">
         <f>O21*[1]Sheet1!$N$26-L21</f>
@@ -3074,7 +3714,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:18" ht="90.95" customHeight="1">
+    <row r="22" ht="90.95" customHeight="1" spans="2:18">
       <c r="B22">
         <v>16112001</v>
       </c>
@@ -3110,7 +3750,7 @@
       </c>
       <c r="M22" s="11">
         <f>L22/(1-G22)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.047846889952201</v>
+        <v>14.0478468899522</v>
       </c>
       <c r="N22" s="11">
         <f>L22/(1-G22)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
@@ -3118,7 +3758,7 @@
       </c>
       <c r="O22" s="11">
         <f>L22/(1-G22)/[1]Sheet1!$N$26</f>
-        <v>13.345454545454499</v>
+        <v>13.3454545454545</v>
       </c>
       <c r="P22" s="12">
         <f>O22*[1]Sheet1!$N$26-L22</f>
@@ -3128,7 +3768,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="2:18" ht="90.95" customHeight="1">
+    <row r="23" ht="90.95" customHeight="1" spans="2:18">
       <c r="B23">
         <v>16112002</v>
       </c>
@@ -3152,11 +3792,11 @@
       </c>
       <c r="J23" s="9">
         <f>(E23+F23+([1]Sheet1!$K$26*H23+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G23)/(1-[1]Sheet1!$O$26)/(1-I23)/[1]Sheet1!$N$26</f>
-        <v>27.088105939780601</v>
+        <v>27.0881059397806</v>
       </c>
       <c r="K23" s="10">
         <f>(E23+F23+([1]Sheet1!$K$26*H23+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G23)/(1-[1]Sheet1!$P$26)/(1-I23)/[1]Sheet1!$N$26</f>
-        <v>30.274941932695899</v>
+        <v>30.2749419326959</v>
       </c>
       <c r="L23" s="1">
         <f>E23+F23+([1]Sheet1!$K$26*H23+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -3164,11 +3804,11 @@
       </c>
       <c r="M23" s="11">
         <f>L23/(1-G23)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.898458266879301</v>
+        <v>14.8984582668793</v>
       </c>
       <c r="N23" s="11">
         <f>L23/(1-G23)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>16.651218062982799</v>
+        <v>16.6512180629828</v>
       </c>
       <c r="O23" s="11">
         <f>L23/(1-G23)/[1]Sheet1!$N$26</f>
@@ -3182,7 +3822,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="2:18" ht="90.75" customHeight="1">
+    <row r="24" ht="90.75" customHeight="1" spans="2:18">
       <c r="B24">
         <v>16112003</v>
       </c>
@@ -3209,7 +3849,7 @@
       </c>
       <c r="J24" s="9">
         <f>(E24+F24+([1]Sheet1!$K$26*H24+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G24)/(1-[1]Sheet1!$O$26)/(1-I24)/[1]Sheet1!$N$26</f>
-        <v>25.928181334879898</v>
+        <v>25.9281813348799</v>
       </c>
       <c r="K24" s="10">
         <f>(E24+F24+([1]Sheet1!$K$26*H24+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G24)/(1-[1]Sheet1!$P$26)/(1-I24)/[1]Sheet1!$N$26</f>
@@ -3221,7 +3861,7 @@
       </c>
       <c r="M24" s="11">
         <f>L24/(1-G24)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.260499734183901</v>
+        <v>14.2604997341839</v>
       </c>
       <c r="N24" s="11">
         <f>L24/(1-G24)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
@@ -3239,7 +3879,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:18" ht="90.75" customHeight="1">
+    <row r="25" ht="90.75" customHeight="1" spans="2:18">
       <c r="B25">
         <v>16112301</v>
       </c>
@@ -3266,27 +3906,27 @@
       </c>
       <c r="J25" s="9">
         <f>(E25+F25+([1]Sheet1!$K$26*H25+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G25)/(1-[1]Sheet1!$O$26)/(1-I25)/[1]Sheet1!$N$26</f>
-        <v>24.901648059542801</v>
+        <v>24.9016480595428</v>
       </c>
       <c r="K25" s="10">
         <f>(E25+F25+([1]Sheet1!$K$26*H25+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G25)/(1-[1]Sheet1!$P$26)/(1-I25)/[1]Sheet1!$N$26</f>
-        <v>27.831253713606657</v>
+        <v>27.8312537136067</v>
       </c>
       <c r="L25" s="1">
         <f>E25+F25+([1]Sheet1!$K$26*H25+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
-        <v>70.260000000000005</v>
+        <v>70.26</v>
       </c>
       <c r="M25" s="11">
         <f>L25/(1-G25)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.940988835725699</v>
+        <v>14.9409888357257</v>
       </c>
       <c r="N25" s="11">
         <f>L25/(1-G25)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>16.698752228163993</v>
+        <v>16.698752228164</v>
       </c>
       <c r="O25" s="11">
         <f>L25/(1-G25)/[1]Sheet1!$N$26</f>
-        <v>14.193939393939401</v>
+        <v>14.1939393939394</v>
       </c>
       <c r="P25" s="12">
         <f>O25*[1]Sheet1!$N$26-L25</f>
@@ -3296,7 +3936,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="2:18" ht="90.75" customHeight="1">
+    <row r="26" ht="90.75" customHeight="1" spans="2:18">
       <c r="B26">
         <v>16112302</v>
       </c>
@@ -3327,7 +3967,7 @@
       </c>
       <c r="K26" s="10">
         <f>(E26+F26+([1]Sheet1!$K$26*H26+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G26)/(1-[1]Sheet1!$P$26)/(1-I26)/[1]Sheet1!$N$26</f>
-        <v>24.979203802733217</v>
+        <v>24.9792038027332</v>
       </c>
       <c r="L26" s="1">
         <f>E26+F26+([1]Sheet1!$K$26*H26+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -3335,15 +3975,15 @@
       </c>
       <c r="M26" s="11">
         <f>L26/(1-G26)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>13.409888357256801</v>
+        <v>13.4098883572568</v>
       </c>
       <c r="N26" s="11">
         <f>L26/(1-G26)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>14.987522281639929</v>
+        <v>14.9875222816399</v>
       </c>
       <c r="O26" s="11">
         <f>L26/(1-G26)/[1]Sheet1!$N$26</f>
-        <v>12.739393939393899</v>
+        <v>12.7393939393939</v>
       </c>
       <c r="P26" s="12">
         <f>O26*[1]Sheet1!$N$26-L26</f>
@@ -3353,7 +3993,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="2:18" ht="90.75" customHeight="1">
+    <row r="27" ht="90.75" customHeight="1" spans="2:18">
       <c r="B27">
         <v>16112401</v>
       </c>
@@ -3380,11 +4020,11 @@
       </c>
       <c r="J27" s="9">
         <f>(E27+F27+([1]Sheet1!$K$26*H27+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G27)/(1-[1]Sheet1!$O$26)/(1-I27)/[1]Sheet1!$N$26</f>
-        <v>19.017240069871701</v>
+        <v>19.0172400698717</v>
       </c>
       <c r="K27" s="10">
         <f>(E27+F27+([1]Sheet1!$K$26*H27+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G27)/(1-[1]Sheet1!$P$26)/(1-I27)/[1]Sheet1!$N$26</f>
-        <v>21.254562431033019</v>
+        <v>21.254562431033</v>
       </c>
       <c r="L27" s="1">
         <f>E27+F27+([1]Sheet1!$K$26*H27+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -3396,15 +4036,15 @@
       </c>
       <c r="N27" s="11">
         <f>L27/(1-G27)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>14.878193701723115</v>
+        <v>14.8781937017231</v>
       </c>
       <c r="O27" s="11">
         <f>L27/(1-G27)/[1]Sheet1!$N$26</f>
-        <v>12.646464646464599</v>
+        <v>12.6464646464646</v>
       </c>
       <c r="P27" s="12">
         <f>O27*[1]Sheet1!$N$26-L27</f>
-        <v>20.866666666666699</v>
+        <v>20.8666666666667</v>
       </c>
       <c r="Q27">
         <v>40</v>
@@ -3413,14 +4053,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="2:18" ht="90.75" customHeight="1">
+    <row r="28" ht="90.75" customHeight="1" spans="2:18">
       <c r="B28">
         <v>16112501</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="8" t="s">
         <v>50</v>
       </c>
       <c r="E28">
@@ -3444,23 +4084,23 @@
       </c>
       <c r="K28" s="10">
         <f>(E28+F28+([1]Sheet1!$K$26*H28+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G28)/(1-[1]Sheet1!$P$26)/(1-I28)/[1]Sheet1!$N$26</f>
-        <v>31.312050991195381</v>
+        <v>31.3120509911954</v>
       </c>
       <c r="L28" s="1">
         <f>E28+F28+([1]Sheet1!$K$26*H28+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
-        <v>72.459999999999994</v>
+        <v>72.46</v>
       </c>
       <c r="M28" s="11">
         <f>L28/(1-G28)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>15.408825093035601</v>
+        <v>15.4088250930356</v>
       </c>
       <c r="N28" s="11">
         <f>L28/(1-G28)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>17.221628045157455</v>
+        <v>17.2216280451575</v>
       </c>
       <c r="O28" s="11">
         <f>L28/(1-G28)/[1]Sheet1!$N$26</f>
-        <v>14.638383838383801</v>
+        <v>14.6383838383838</v>
       </c>
       <c r="P28" s="12">
         <f>O28*[1]Sheet1!$N$26-L28</f>
@@ -3473,7 +4113,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="2:18" ht="90.75" customHeight="1">
+    <row r="29" ht="90.75" customHeight="1" spans="2:18">
       <c r="B29">
         <v>16112801</v>
       </c>
@@ -3481,7 +4121,7 @@
         <v>38</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E29">
         <v>30</v>
@@ -3500,31 +4140,31 @@
       </c>
       <c r="J29" s="9">
         <f>(E29+F29+([1]Sheet1!$K$26*H29+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G29)/(1-[1]Sheet1!$O$26)/(1-I29)/[1]Sheet1!$N$26</f>
-        <v>21.112174375332273</v>
+        <v>21.1121743753323</v>
       </c>
       <c r="K29" s="10">
         <f>(E29+F29+([1]Sheet1!$K$26*H29+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G29)/(1-[1]Sheet1!$P$26)/(1-I29)/[1]Sheet1!$N$26</f>
-        <v>23.595959595959602</v>
+        <v>23.5959595959596</v>
       </c>
       <c r="L29" s="1">
         <f>E29+F29+([1]Sheet1!$K$26*H29+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
-        <v>74.460000000000008</v>
+        <v>74.46</v>
       </c>
       <c r="M29" s="11">
         <f>L29/(1-G29)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>15.834130781499207</v>
+        <v>15.8341307814992</v>
       </c>
       <c r="N29" s="11">
         <f>L29/(1-G29)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>17.696969696969703</v>
+        <v>17.6969696969697</v>
       </c>
       <c r="O29" s="11">
         <f>L29/(1-G29)/[1]Sheet1!$N$26</f>
-        <v>15.042424242424245</v>
+        <v>15.0424242424242</v>
       </c>
       <c r="P29" s="12">
         <f>O29*[1]Sheet1!$N$26-L29</f>
-        <v>24.820000000000007</v>
+        <v>24.82</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -3533,20 +4173,67 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="2:18" ht="90.75" customHeight="1">
-      <c r="C30" s="1"/>
-      <c r="D30" s="6"/>
-      <c r="G30" s="3"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="12"/>
+    <row r="30" ht="90.75" customHeight="1" spans="2:18">
+      <c r="B30">
+        <v>16112901</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30">
+        <v>25</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H30">
+        <v>0.4</v>
+      </c>
+      <c r="I30" s="13">
+        <v>0.45</v>
+      </c>
+      <c r="J30" s="9">
+        <f>(E30+F30+([1]Sheet1!$K$26*H30+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G30)/(1-[1]Sheet1!$O$26)/(1-I30)/[1]Sheet1!$N$26</f>
+        <v>26.04417379537</v>
+      </c>
+      <c r="K30" s="10">
+        <f>(E30+F30+([1]Sheet1!$K$26*H30+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G30)/(1-[1]Sheet1!$P$26)/(1-I30)/[1]Sheet1!$N$26</f>
+        <v>29.1081942418841</v>
+      </c>
+      <c r="L30" s="1">
+        <f>E30+F30+([1]Sheet1!$K$26*H30+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
+        <v>67.36</v>
+      </c>
+      <c r="M30" s="11">
+        <f>L30/(1-G30)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
+        <v>14.3242955874535</v>
+      </c>
+      <c r="N30" s="11">
+        <f>L30/(1-G30)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
+        <v>16.0095068330362</v>
+      </c>
+      <c r="O30" s="11">
+        <f>L30/(1-G30)/[1]Sheet1!$N$26</f>
+        <v>13.6080808080808</v>
+      </c>
+      <c r="P30" s="12">
+        <f>O30*[1]Sheet1!$N$26-L30</f>
+        <v>22.4533333333333</v>
+      </c>
+      <c r="Q30">
+        <v>30</v>
+      </c>
+      <c r="R30">
+        <v>45</v>
+      </c>
     </row>
-    <row r="31" spans="2:18" ht="90.75" customHeight="1">
+    <row r="31" ht="90.75" customHeight="1" spans="3:16">
       <c r="C31" s="1"/>
       <c r="D31" s="6"/>
       <c r="G31" s="3"/>
@@ -3559,9 +4246,9 @@
       <c r="O31" s="11"/>
       <c r="P31" s="12"/>
     </row>
-    <row r="32" spans="2:18" ht="90.75" customHeight="1">
+    <row r="32" ht="90.75" customHeight="1" spans="3:16">
       <c r="C32" s="1"/>
-      <c r="D32" s="7"/>
+      <c r="D32" s="6"/>
       <c r="G32" s="3"/>
       <c r="I32" s="13"/>
       <c r="J32" s="9"/>
@@ -3572,7 +4259,7 @@
       <c r="O32" s="11"/>
       <c r="P32" s="12"/>
     </row>
-    <row r="33" spans="3:16" ht="90.75" customHeight="1">
+    <row r="33" ht="90.75" customHeight="1" spans="3:16">
       <c r="C33" s="1"/>
       <c r="D33" s="7"/>
       <c r="G33" s="3"/>
@@ -3585,118 +4272,138 @@
       <c r="O33" s="11"/>
       <c r="P33" s="12"/>
     </row>
-    <row r="36" spans="3:16">
-      <c r="K36" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="L36" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="M36" s="14" t="s">
+    <row r="34" ht="90.75" customHeight="1" spans="3:16">
+      <c r="C34" s="1"/>
+      <c r="D34" s="7"/>
+      <c r="G34" s="3"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="12"/>
+    </row>
+    <row r="37" spans="11:16">
+      <c r="K37" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="N36" s="14" t="s">
+      <c r="L37" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="O36" s="14" t="s">
+      <c r="M37" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="P36" s="14" t="s">
+      <c r="N37" s="14" t="s">
         <v>56</v>
       </c>
+      <c r="O37" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="P37" s="14" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="37" spans="3:16">
-      <c r="K37" s="15">
+    <row r="38" spans="11:16">
+      <c r="K38" s="15">
         <v>100</v>
       </c>
-      <c r="L37" s="13">
+      <c r="L38" s="13">
         <v>0.82</v>
       </c>
-      <c r="M37">
+      <c r="M38">
         <v>8</v>
       </c>
-      <c r="N37">
+      <c r="N38">
         <v>6.6</v>
       </c>
-      <c r="O37" s="13">
+      <c r="O38" s="13">
         <v>0.05</v>
       </c>
-      <c r="P37" s="13">
+      <c r="P38" s="13">
         <v>0.15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"爬爬服"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24:C26 C17:C21 C28 C30:C33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27 C29 C30 C2:C16">
+      <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子,裤子"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28 C17:C21 C24:C26 C31:C34">
       <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27 C2:C16 C29">
-      <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子,裤子"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q6 R2:R4">
       <formula1>"0,1"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D6" r:id="rId3"/>
-    <hyperlink ref="S6" r:id="rId4"/>
-    <hyperlink ref="D8" r:id="rId5"/>
-    <hyperlink ref="D9" r:id="rId6"/>
-    <hyperlink ref="D10" r:id="rId7"/>
-    <hyperlink ref="D11" r:id="rId8"/>
-    <hyperlink ref="D12" r:id="rId9"/>
-    <hyperlink ref="D13" r:id="rId10"/>
-    <hyperlink ref="D14" r:id="rId11"/>
-    <hyperlink ref="D15" r:id="rId12"/>
-    <hyperlink ref="D16" r:id="rId13"/>
-    <hyperlink ref="D19" r:id="rId14"/>
-    <hyperlink ref="D20" r:id="rId15"/>
-    <hyperlink ref="D21" r:id="rId16"/>
-    <hyperlink ref="D22" r:id="rId17"/>
-    <hyperlink ref="D23" r:id="rId18" tooltip="https://detail.1688.com/offer/542005628301.html?spm=a2615.7691456.0.0.E27Va6"/>
-    <hyperlink ref="D24" r:id="rId19"/>
-    <hyperlink ref="D25" r:id="rId20"/>
-    <hyperlink ref="D26" r:id="rId21" tooltip="https://detail.1688.com/offer/535604104982.html?spm=a2615.7691456.0.0.ceDRcB"/>
-    <hyperlink ref="D18" r:id="rId22"/>
-    <hyperlink ref="D28" r:id="rId23"/>
-    <hyperlink ref="D29" r:id="rId24"/>
+    <hyperlink ref="D5" r:id="rId2" display="https://detail.1688.com/offer/43388465240.html?spm=a2615.7691456.0.0.SVo0SF"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://detail.1688.com/offer/532946594199.html?spm=a2615.7691456.0.0.KfqxAP"/>
+    <hyperlink ref="D6" r:id="rId4" display="https://item.taobao.com/item.htm?spm=a230r.1.0.0.NVkYXr&amp;id=535812571550&amp;ns=1#detail"/>
+    <hyperlink ref="S6" r:id="rId4" display="https://item.taobao.com/item.htm?spm=a230r.1.0.0.NVkYXr&amp;id=535812571550&amp;ns=1#detail"/>
+    <hyperlink ref="D8" r:id="rId5" display="https://detail.1688.com/offer/521926765457.html?spm=a2615.7691456.0.0.Iw9wYb"/>
+    <hyperlink ref="D9" r:id="rId6" display="https://detail.1688.com/offer/539601777542.html?spm=b26110380.8015204.1688002.1.tV3mIo"/>
+    <hyperlink ref="D10" r:id="rId7" display="https://detail.1688.com/offer/534650922032.html"/>
+    <hyperlink ref="D11" r:id="rId8" display="https://detail.1688.com/offer/525196220868.html?spm=b26110380.8015204.xshy005.911.FMmHAe"/>
+    <hyperlink ref="D12" r:id="rId9" display="https://detail.1688.com/offer/525739109360.html?spm=b26110380.sw311.0.0.2w3SJa"/>
+    <hyperlink ref="D13" r:id="rId10" display="https://detail.1688.com/offer/536964765017.html?spm=b26110380.8015204.1688002.2.0qEfTf"/>
+    <hyperlink ref="D14" r:id="rId11" display="https://detail.1688.com/offer/523084291442.html?spm=b26110380.8015204.tkhy006.2.7zxqcs"/>
+    <hyperlink ref="D15" r:id="rId12" display="https://detail.1688.com/offer/539464650849.html?spm=b26110380.8015204.tkhy006.13.LriGRm"/>
+    <hyperlink ref="D16" r:id="rId13" display="https://detail.1688.com/offer/539024831638.html?spm=a2615.7691456.0.0.erl0H2"/>
+    <hyperlink ref="D19" r:id="rId14" display="https://detail.1688.com/offer/37436493140.html?spm=a261y.7663282.0.0.Bdoqfg"/>
+    <hyperlink ref="D20" r:id="rId15" display="https://detail.1688.com/offer/525328573875.html?spm=a2615.2177701.0.0.inGNvk"/>
+    <hyperlink ref="D21" r:id="rId16" display="https://detail.1688.com/offer/531099455627.html?spm=b26110380.sw311.0.0.NlP3tV"/>
+    <hyperlink ref="D22" r:id="rId17" display="https://detail.1688.com/offer/539748592006.html?spm=a2615.7691456.0.0.gzA0aC"/>
+    <hyperlink ref="D23" r:id="rId18" display="https://detail.1688.com/offer/542005628301.html?spm=a2615.7691456.0.0.E27Va6" tooltip="https://detail.1688.com/offer/542005628301.html?spm=a2615.7691456.0.0.E27Va6"/>
+    <hyperlink ref="D24" r:id="rId16" display="https://detail.1688.com/offer/531099455627.html?spm=b26110380.sw311.0.0.NlP3tV"/>
+    <hyperlink ref="D25" r:id="rId19" display="https://detail.1688.com/offer/537712350771.html?spm=a261y.7663282.0.0.HGrgRG&amp;sk=consign"/>
+    <hyperlink ref="D26" r:id="rId20" display="https://detail.1688.com/offer/535604104982.html?spm=a2615.7691456.0.0.ceDRcB" tooltip="https://detail.1688.com/offer/535604104982.html?spm=a2615.7691456.0.0.ceDRcB"/>
+    <hyperlink ref="D18" r:id="rId21" display="https://detail.1688.com/offer/537572849225.html?spm=a2615.7691456.0.0.0jr1X8"/>
+    <hyperlink ref="D28" r:id="rId22" display="https://detail.1688.com/offer/538358020263.html?spm=a2615.7691456.0.0.BXbA7w"/>
+    <hyperlink ref="D29" r:id="rId23" display="https://detail.1688.com/offer/536605241945.html?spm=b26110380.8015204.xshy005.79.X6yxQK"/>
+    <hyperlink ref="D30" r:id="rId24" display="https://detail.1688.com/offer/522617209176.html?spm=0.0.0.0.OkHehB&amp;sk=consign"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <drawing r:id="rId25"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/产品表单.xlsx
+++ b/产品表单.xlsx
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$C$27</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>产品标题</t>
   </si>
@@ -181,6 +181,15 @@
   </si>
   <si>
     <t>https://detail.1688.com/offer/522617209176.html?spm=0.0.0.0.OkHehB&amp;sk=consign</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/536564720843.html?spm=a261y.7663282.0.0.CfpkXA&amp;sk=consign</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/522866160965.html?spm=b26110380.8015204.1688002.2.oTUzYR</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/537733197961.html?spm=b26110380.8015204.tkhy006.2.6IBVa5</t>
   </si>
   <si>
     <t>国际运费 1kg/￥</t>
@@ -206,14 +215,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="177" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -249,7 +258,89 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,81 +363,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,14 +380,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,7 +408,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,7 +438,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,13 +492,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,73 +564,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,61 +588,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,50 +599,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -661,6 +626,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -672,6 +672,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,10 +707,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -710,16 +719,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -728,115 +737,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -853,40 +862,40 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2093,6 +2102,132 @@
         <a:xfrm>
           <a:off x="50165" y="31177230"/>
           <a:ext cx="833120" cy="1030605"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>67310</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>109220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>883920</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1033145</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="图片 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="67310" y="32408495"/>
+          <a:ext cx="816610" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>969010</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1099820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="图片 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="50800" y="33474025"/>
+          <a:ext cx="918210" cy="1077595"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>100330</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>24765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>892810</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1004570</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="图片 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="100330" y="34629090"/>
+          <a:ext cx="792480" cy="979805"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2434,10 +2569,10 @@
   <sheetPr/>
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M31" sqref="M31"/>
+      <selection pane="bottomLeft" activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4233,44 +4368,185 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" ht="90.75" customHeight="1" spans="3:16">
-      <c r="C31" s="1"/>
-      <c r="D31" s="6"/>
-      <c r="G31" s="3"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="12"/>
+    <row r="31" ht="90.75" customHeight="1" spans="2:18">
+      <c r="B31">
+        <v>16113001</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31">
+        <v>15</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H31">
+        <v>0.25</v>
+      </c>
+      <c r="I31" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="J31" s="9">
+        <f>(E31+F31+([1]Sheet1!$K$26*H31+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G31)/(1-[1]Sheet1!$O$26)/(1-I31)/[1]Sheet1!$N$26</f>
+        <v>12.5093035619351</v>
+      </c>
+      <c r="K31" s="10">
+        <f>(E31+F31+([1]Sheet1!$K$26*H31+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G31)/(1-[1]Sheet1!$P$26)/(1-I31)/[1]Sheet1!$N$26</f>
+        <v>13.9809863339275</v>
+      </c>
+      <c r="L31" s="1">
+        <f>E31+F31+([1]Sheet1!$K$26*H31+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
+        <v>47.06</v>
+      </c>
+      <c r="M31" s="11">
+        <f>L31/(1-G31)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
+        <v>10.0074428495481</v>
+      </c>
+      <c r="N31" s="11">
+        <f>L31/(1-G31)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
+        <v>11.184789067142</v>
+      </c>
+      <c r="O31" s="11">
+        <f>L31/(1-G31)/[1]Sheet1!$N$26</f>
+        <v>9.50707070707071</v>
+      </c>
+      <c r="P31" s="12">
+        <f>O31*[1]Sheet1!$N$26-L31</f>
+        <v>15.6866666666667</v>
+      </c>
+      <c r="Q31">
+        <v>20</v>
+      </c>
+      <c r="R31">
+        <v>45</v>
+      </c>
     </row>
-    <row r="32" ht="90.75" customHeight="1" spans="3:16">
-      <c r="C32" s="1"/>
-      <c r="D32" s="6"/>
-      <c r="G32" s="3"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="12"/>
+    <row r="32" ht="90.75" customHeight="1" spans="2:18">
+      <c r="B32">
+        <v>16113002</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32">
+        <v>22</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H32">
+        <v>0.2</v>
+      </c>
+      <c r="I32" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="J32" s="9">
+        <f>(E32+F32+([1]Sheet1!$K$26*H32+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G32)/(1-[1]Sheet1!$O$26)/(1-I32)/[1]Sheet1!$N$26</f>
+        <v>17.7068934963672</v>
+      </c>
+      <c r="K32" s="10">
+        <f>(E32+F32+([1]Sheet1!$K$26*H32+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G32)/(1-[1]Sheet1!$P$26)/(1-I32)/[1]Sheet1!$N$26</f>
+        <v>19.7900574371163</v>
+      </c>
+      <c r="L32" s="1">
+        <f>E32+F32+([1]Sheet1!$K$26*H32+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
+        <v>49.96</v>
+      </c>
+      <c r="M32" s="11">
+        <f>L32/(1-G32)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
+        <v>10.6241360978203</v>
+      </c>
+      <c r="N32" s="11">
+        <f>L32/(1-G32)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
+        <v>11.8740344622698</v>
+      </c>
+      <c r="O32" s="11">
+        <f>L32/(1-G32)/[1]Sheet1!$N$26</f>
+        <v>10.0929292929293</v>
+      </c>
+      <c r="P32" s="12">
+        <f>O32*[1]Sheet1!$N$26-L32</f>
+        <v>16.6533333333333</v>
+      </c>
+      <c r="Q32">
+        <v>20</v>
+      </c>
+      <c r="R32">
+        <v>40</v>
+      </c>
     </row>
-    <row r="33" ht="90.75" customHeight="1" spans="3:16">
-      <c r="C33" s="1"/>
-      <c r="D33" s="7"/>
-      <c r="G33" s="3"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="12"/>
+    <row r="33" ht="90.75" customHeight="1" spans="2:18">
+      <c r="B33">
+        <v>16113003</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33">
+        <v>32</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H33">
+        <v>0.3</v>
+      </c>
+      <c r="I33" s="13">
+        <v>0.45</v>
+      </c>
+      <c r="J33" s="9">
+        <f>(E33+F33+([1]Sheet1!$K$26*H33+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G33)/(1-[1]Sheet1!$O$26)/(1-I33)/[1]Sheet1!$N$26</f>
+        <v>25.5802039534097</v>
+      </c>
+      <c r="K33" s="10">
+        <f>(E33+F33+([1]Sheet1!$K$26*H33+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G33)/(1-[1]Sheet1!$P$26)/(1-I33)/[1]Sheet1!$N$26</f>
+        <v>28.5896397126344</v>
+      </c>
+      <c r="L33" s="1">
+        <f>E33+F33+([1]Sheet1!$K$26*H33+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
+        <v>66.16</v>
+      </c>
+      <c r="M33" s="11">
+        <f>L33/(1-G33)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
+        <v>14.0691121743753</v>
+      </c>
+      <c r="N33" s="11">
+        <f>L33/(1-G33)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
+        <v>15.7243018419489</v>
+      </c>
+      <c r="O33" s="11">
+        <f>L33/(1-G33)/[1]Sheet1!$N$26</f>
+        <v>13.3656565656566</v>
+      </c>
+      <c r="P33" s="12">
+        <f>O33*[1]Sheet1!$N$26-L33</f>
+        <v>22.0533333333333</v>
+      </c>
+      <c r="Q33">
+        <v>45</v>
+      </c>
+      <c r="R33">
+        <v>30</v>
+      </c>
     </row>
     <row r="34" ht="90.75" customHeight="1" spans="3:16">
       <c r="C34" s="1"/>
@@ -4287,22 +4563,22 @@
     </row>
     <row r="37" spans="11:16">
       <c r="K37" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L37" s="14" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M37" s="14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N37" s="14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="O37" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P37" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="11:16">
@@ -4366,6 +4642,9 @@
     <hyperlink ref="D28" r:id="rId22" display="https://detail.1688.com/offer/538358020263.html?spm=a2615.7691456.0.0.BXbA7w"/>
     <hyperlink ref="D29" r:id="rId23" display="https://detail.1688.com/offer/536605241945.html?spm=b26110380.8015204.xshy005.79.X6yxQK"/>
     <hyperlink ref="D30" r:id="rId24" display="https://detail.1688.com/offer/522617209176.html?spm=0.0.0.0.OkHehB&amp;sk=consign"/>
+    <hyperlink ref="D31" r:id="rId25" display="https://detail.1688.com/offer/536564720843.html?spm=a261y.7663282.0.0.CfpkXA&amp;sk=consign"/>
+    <hyperlink ref="D32" r:id="rId26" display="https://detail.1688.com/offer/522866160965.html?spm=b26110380.8015204.1688002.2.oTUzYR"/>
+    <hyperlink ref="D33" r:id="rId27" display="https://detail.1688.com/offer/537733197961.html?spm=b26110380.8015204.tkhy006.2.6IBVa5"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>

--- a/产品表单.xlsx
+++ b/产品表单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="8690"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="8685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$C$27</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
   <si>
     <t>产品标题</t>
   </si>
@@ -214,17 +214,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
+  <numFmts count="4">
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="177" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="179" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
+    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,140 +256,17 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,194 +279,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -601,251 +288,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -862,31 +313,31 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -895,67 +346,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
+    <cellStyle name="百分比" xfId="2" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -977,7 +383,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1015,7 +421,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1053,7 +459,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1091,7 +497,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1129,7 +535,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1167,7 +573,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1205,7 +611,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1243,7 +649,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1281,7 +687,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1319,7 +725,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1357,7 +763,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1395,7 +801,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1437,7 +843,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1475,7 +881,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId14" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1513,7 +919,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId15" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1551,7 +957,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId16" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1593,7 +999,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId17" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1635,7 +1041,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId18" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1677,7 +1083,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId19" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1719,7 +1125,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId20" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1761,7 +1167,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId21" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1803,7 +1209,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId22" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1845,7 +1251,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId23" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1887,7 +1293,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId24" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1929,7 +1335,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId25" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1971,7 +1377,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId26"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2013,7 +1419,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId27" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2055,7 +1461,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId28" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2093,7 +1499,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId29"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2135,7 +1541,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId30"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2177,7 +1583,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId31"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2219,7 +1625,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId32"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2240,6 +1646,82 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="图片 33" descr="1.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="0" y="35722891"/>
+          <a:ext cx="0" cy="2932044"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>8282</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>33131</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1038770</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1043610</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="图片 34" descr="1.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8282" y="35756022"/>
+          <a:ext cx="1030488" cy="1010479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2252,7 +1734,7 @@
       <sheetName val="Sheet3"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="26">
           <cell r="K26">
             <v>100</v>
@@ -2274,8 +1756,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2565,36 +2047,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="N34" sqref="N34"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.1272727272727" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="9.62727272727273" customWidth="1"/>
-    <col min="4" max="4" width="17.3727272727273" customWidth="1"/>
-    <col min="5" max="5" width="8.12727272727273" customWidth="1"/>
-    <col min="6" max="6" width="9.87272727272727" customWidth="1"/>
-    <col min="7" max="7" width="8.25454545454545" customWidth="1"/>
-    <col min="10" max="10" width="11.2545454545455" customWidth="1"/>
-    <col min="11" max="11" width="11.1272727272727" customWidth="1"/>
-    <col min="12" max="12" width="7.62727272727273" customWidth="1"/>
-    <col min="13" max="13" width="11.8727272727273" customWidth="1"/>
-    <col min="14" max="15" width="11.6272727272727" customWidth="1"/>
-    <col min="16" max="16" width="9.87272727272727" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="8.125" customWidth="1"/>
+    <col min="6" max="6" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="8.25" customWidth="1"/>
+    <col min="10" max="10" width="11.25" customWidth="1"/>
+    <col min="11" max="11" width="11.125" customWidth="1"/>
+    <col min="12" max="12" width="7.625" customWidth="1"/>
+    <col min="13" max="13" width="11.875" customWidth="1"/>
+    <col min="14" max="15" width="11.625" customWidth="1"/>
+    <col min="16" max="16" width="9.875" customWidth="1"/>
     <col min="17" max="17" width="6.5" customWidth="1"/>
-    <col min="18" max="18" width="6.87272727272727" customWidth="1"/>
+    <col min="18" max="18" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2650,7 +2130,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="86.25" customHeight="1" spans="1:18">
+    <row r="2" spans="1:19" ht="86.25" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
         <v>16072601</v>
@@ -2678,11 +2158,11 @@
       </c>
       <c r="J2" s="9">
         <f t="shared" ref="J2:J14" si="0">(E2+F2+($K$38*H2+$M$38)*$L$38)/(1-G2)/(1-$O$38)/(1-I2)/$N$38</f>
-        <v>16.5518966757357</v>
+        <v>16.551896675735701</v>
       </c>
       <c r="K2" s="10">
         <f t="shared" ref="K2:K14" si="1">(E2+F2+($K$38*H2+$M$38)*$L$38)/(1-G2)/(1-$P$38)/(1-I2)/$N$38</f>
-        <v>18.4991786375869</v>
+        <v>18.499178637586901</v>
       </c>
       <c r="L2" s="1">
         <f t="shared" ref="L2:L14" si="2">E2+F2+($K$38*H2+$M$38)*$L$38</f>
@@ -2702,7 +2182,7 @@
       </c>
       <c r="P2" s="12">
         <f>O2*$N$38-L2</f>
-        <v>22.0533333333333</v>
+        <v>22.053333333333299</v>
       </c>
       <c r="Q2" s="1">
         <v>1</v>
@@ -2711,7 +2191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="86.25" customHeight="1" spans="1:18">
+    <row r="3" spans="1:19" ht="86.25" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>16072701</v>
@@ -2739,7 +2219,7 @@
       </c>
       <c r="J3" s="9">
         <f t="shared" si="0"/>
-        <v>10.7630692893851</v>
+        <v>10.763069289385101</v>
       </c>
       <c r="K3" s="10">
         <f t="shared" si="1"/>
@@ -2751,15 +2231,15 @@
       </c>
       <c r="M3" s="11">
         <f t="shared" si="3"/>
-        <v>8.07230196703881</v>
+        <v>8.0723019670388094</v>
       </c>
       <c r="N3" s="11">
         <f t="shared" si="4"/>
-        <v>9.02198455139632</v>
+        <v>9.0219845513963204</v>
       </c>
       <c r="O3" s="11">
         <f>L3/(1-G3)/$N$38</f>
-        <v>7.66868686868687</v>
+        <v>7.6686868686868701</v>
       </c>
       <c r="P3" s="12">
         <f>O3*$N$38-L3</f>
@@ -2772,7 +2252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="69.75" customHeight="1" spans="1:18">
+    <row r="4" spans="1:19" ht="69.75" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>16072901</v>
@@ -2800,7 +2280,7 @@
       </c>
       <c r="J4" s="9">
         <f t="shared" si="0"/>
-        <v>18.8228146122883</v>
+        <v>18.822814612288301</v>
       </c>
       <c r="K4" s="10">
         <f t="shared" si="1"/>
@@ -2820,7 +2300,7 @@
       </c>
       <c r="O4" s="11">
         <f>L4/(1-G4)/$N$38</f>
-        <v>12.5171717171717</v>
+        <v>12.517171717171699</v>
       </c>
       <c r="P4" s="12">
         <f>O4*$N$38-L4</f>
@@ -2833,7 +2313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="78" customHeight="1" spans="1:18">
+    <row r="5" spans="1:19" ht="78" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>16073001</v>
@@ -2861,11 +2341,11 @@
       </c>
       <c r="J5" s="9">
         <f t="shared" si="0"/>
-        <v>17.8528317228008</v>
+        <v>17.852831722800801</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" si="1"/>
-        <v>19.9531648666597</v>
+        <v>19.953164866659701</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="2"/>
@@ -2881,11 +2361,11 @@
       </c>
       <c r="O5" s="11">
         <f>L5/(1-G5)/$N$38</f>
-        <v>14.4161616161616</v>
+        <v>14.416161616161601</v>
       </c>
       <c r="P5" s="12">
         <f>O5*$N$38-L5</f>
-        <v>23.7866666666667</v>
+        <v>23.786666666666701</v>
       </c>
       <c r="Q5" s="1">
         <v>1</v>
@@ -2894,7 +2374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="78" customHeight="1" spans="1:19">
+    <row r="6" spans="1:19" ht="78" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="1">
         <v>16073002</v>
@@ -2926,7 +2406,7 @@
       </c>
       <c r="K6" s="10">
         <f t="shared" si="1"/>
-        <v>16.8187060920625</v>
+        <v>16.818706092062499</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="2"/>
@@ -2938,7 +2418,7 @@
       </c>
       <c r="N6" s="11">
         <f t="shared" si="4"/>
-        <v>14.2959001782531</v>
+        <v>14.295900178253101</v>
       </c>
       <c r="O6" s="11">
         <f t="shared" ref="O6:O14" si="5">L6/(1-G6)/$N$38</f>
@@ -2958,7 +2438,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" ht="69" customHeight="1" spans="1:18">
+    <row r="7" spans="1:19" ht="69" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>16080301</v>
@@ -2986,11 +2466,11 @@
       </c>
       <c r="J7" s="9">
         <f t="shared" si="0"/>
-        <v>16.8521124558276</v>
+        <v>16.852112455827601</v>
       </c>
       <c r="K7" s="10">
         <f t="shared" si="1"/>
-        <v>18.8347139212191</v>
+        <v>18.834713921219102</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="2"/>
@@ -3002,7 +2482,7 @@
       </c>
       <c r="N7" s="11">
         <f t="shared" si="4"/>
-        <v>16.0095068330362</v>
+        <v>16.009506833036198</v>
       </c>
       <c r="O7" s="11">
         <f t="shared" si="5"/>
@@ -3010,7 +2490,7 @@
       </c>
       <c r="P7" s="12">
         <f t="shared" si="6"/>
-        <v>22.4533333333333</v>
+        <v>22.453333333333301</v>
       </c>
       <c r="Q7" s="1">
         <v>1</v>
@@ -3019,7 +2499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="78" customHeight="1" spans="2:18">
+    <row r="8" spans="1:19" ht="78" customHeight="1">
       <c r="B8">
         <v>16080401</v>
       </c>
@@ -3050,7 +2530,7 @@
       </c>
       <c r="K8" s="10">
         <f t="shared" si="1"/>
-        <v>38.9750445632799</v>
+        <v>38.975044563279901</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="2"/>
@@ -3062,15 +2542,15 @@
       </c>
       <c r="N8" s="11">
         <f t="shared" si="4"/>
-        <v>19.4875222816399</v>
+        <v>19.487522281639901</v>
       </c>
       <c r="O8" s="11">
         <f t="shared" si="5"/>
-        <v>16.5643939393939</v>
+        <v>16.564393939393899</v>
       </c>
       <c r="P8" s="12">
         <f t="shared" si="6"/>
-        <v>21.865</v>
+        <v>21.864999999999998</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -3079,7 +2559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="92.25" customHeight="1" spans="2:18">
+    <row r="9" spans="1:19" ht="92.25" customHeight="1">
       <c r="B9">
         <v>16100801</v>
       </c>
@@ -3106,19 +2586,19 @@
       </c>
       <c r="J9" s="9">
         <f t="shared" si="0"/>
-        <v>20.5901116427432</v>
+        <v>20.590111642743199</v>
       </c>
       <c r="K9" s="10">
         <f t="shared" si="1"/>
-        <v>23.0124777183601</v>
+        <v>23.012477718360099</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="2"/>
-        <v>77.46</v>
+        <v>77.459999999999994</v>
       </c>
       <c r="M9" s="11">
         <f t="shared" si="3"/>
-        <v>16.4720893141946</v>
+        <v>16.472089314194601</v>
       </c>
       <c r="N9" s="11">
         <f t="shared" si="4"/>
@@ -3139,7 +2619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="89.25" customHeight="1" spans="2:18">
+    <row r="10" spans="1:19" ht="89.25" customHeight="1">
       <c r="B10">
         <v>16100901</v>
       </c>
@@ -3166,11 +2646,11 @@
       </c>
       <c r="J10" s="9">
         <f t="shared" si="0"/>
-        <v>36.5033796612744</v>
+        <v>36.503379661274401</v>
       </c>
       <c r="K10" s="10">
         <f t="shared" si="1"/>
-        <v>40.797894915542</v>
+        <v>40.797894915542003</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="2"/>
@@ -3178,11 +2658,11 @@
       </c>
       <c r="M10" s="11">
         <f t="shared" si="3"/>
-        <v>25.5523657628921</v>
+        <v>25.552365762892101</v>
       </c>
       <c r="N10" s="11">
         <f t="shared" si="4"/>
-        <v>28.5585264408794</v>
+        <v>28.558526440879401</v>
       </c>
       <c r="O10" s="11">
         <f t="shared" si="5"/>
@@ -3190,7 +2670,7 @@
       </c>
       <c r="P10" s="12">
         <f t="shared" si="6"/>
-        <v>40.0533333333333</v>
+        <v>40.053333333333299</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -3199,7 +2679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="95.25" customHeight="1" spans="2:18">
+    <row r="11" spans="1:19" ht="95.25" customHeight="1">
       <c r="B11">
         <v>16101601</v>
       </c>
@@ -3226,27 +2706,27 @@
       </c>
       <c r="J11" s="9">
         <f t="shared" si="0"/>
-        <v>32.3632610939113</v>
+        <v>32.363261093911298</v>
       </c>
       <c r="K11" s="10">
         <f t="shared" si="1"/>
-        <v>36.1707035755479</v>
+        <v>36.170703575547897</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="2"/>
-        <v>129.36</v>
+        <v>129.36000000000001</v>
       </c>
       <c r="M11" s="11">
         <f t="shared" si="3"/>
-        <v>27.5087719298246</v>
+        <v>27.508771929824601</v>
       </c>
       <c r="N11" s="11">
         <f t="shared" si="4"/>
-        <v>30.7450980392157</v>
+        <v>30.745098039215701</v>
       </c>
       <c r="O11" s="11">
         <f t="shared" si="5"/>
-        <v>26.1333333333333</v>
+        <v>26.133333333333301</v>
       </c>
       <c r="P11" s="12">
         <f t="shared" si="6"/>
@@ -3259,7 +2739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="81.75" customHeight="1" spans="2:18">
+    <row r="12" spans="1:19" ht="81.75" customHeight="1">
       <c r="B12">
         <v>16101602</v>
       </c>
@@ -3286,11 +2766,11 @@
       </c>
       <c r="J12" s="9">
         <f t="shared" si="0"/>
-        <v>32.3441933349054</v>
+        <v>32.344193334905398</v>
       </c>
       <c r="K12" s="10">
         <f t="shared" si="1"/>
-        <v>36.1493925507766</v>
+        <v>36.149392550776597</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="2"/>
@@ -3298,11 +2778,11 @@
       </c>
       <c r="M12" s="11">
         <f t="shared" si="3"/>
-        <v>27.4925643346696</v>
+        <v>27.492564334669598</v>
       </c>
       <c r="N12" s="11">
         <f t="shared" si="4"/>
-        <v>30.7269836681601</v>
+        <v>30.726983668160099</v>
       </c>
       <c r="O12" s="11">
         <f t="shared" si="5"/>
@@ -3310,7 +2790,7 @@
       </c>
       <c r="P12" s="12">
         <f t="shared" si="6"/>
-        <v>44.8183783783784</v>
+        <v>44.818378378378398</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3319,7 +2799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="89.1" customHeight="1" spans="2:18">
+    <row r="13" spans="1:19" ht="89.1" customHeight="1">
       <c r="B13">
         <v>16101701</v>
       </c>
@@ -3350,7 +2830,7 @@
       </c>
       <c r="K13" s="10">
         <f t="shared" si="1"/>
-        <v>16.569850756702</v>
+        <v>16.569850756701999</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="2"/>
@@ -3370,7 +2850,7 @@
       </c>
       <c r="P13" s="12">
         <f t="shared" si="6"/>
-        <v>19.7533333333333</v>
+        <v>19.753333333333298</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -3379,7 +2859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="84" customHeight="1" spans="2:18">
+    <row r="14" spans="1:19" ht="84" customHeight="1">
       <c r="B14">
         <v>16101703</v>
       </c>
@@ -3406,11 +2886,11 @@
       </c>
       <c r="J14" s="9">
         <f t="shared" si="0"/>
-        <v>58.5901116427432</v>
+        <v>58.590111642743203</v>
       </c>
       <c r="K14" s="10">
         <f t="shared" si="1"/>
-        <v>65.4830659536542</v>
+        <v>65.483065953654204</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="2"/>
@@ -3418,11 +2898,11 @@
       </c>
       <c r="M14" s="11">
         <f t="shared" si="3"/>
-        <v>29.2950558213716</v>
+        <v>29.295055821371601</v>
       </c>
       <c r="N14" s="11">
         <f t="shared" si="4"/>
-        <v>32.7415329768271</v>
+        <v>32.741532976827102</v>
       </c>
       <c r="O14" s="11">
         <f t="shared" si="5"/>
@@ -3439,7 +2919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="90.75" customHeight="1" spans="2:18">
+    <row r="15" spans="1:19" ht="90.75" customHeight="1">
       <c r="B15">
         <v>16101702</v>
       </c>
@@ -3470,7 +2950,7 @@
       </c>
       <c r="K15" s="10">
         <f>(E15+F15+(Sheet1!$K$38*H15+Sheet1!$M$38)*Sheet1!$L$38)/(1-G15)/(1-Sheet1!$P$38)/(1-I15)/Sheet1!$N$38</f>
-        <v>25.2658068575024</v>
+        <v>25.265806857502401</v>
       </c>
       <c r="L15" s="1">
         <f>E15+F15+(Sheet1!$K$38*H15+Sheet1!$M$38)*Sheet1!$L$38</f>
@@ -3478,11 +2958,11 @@
       </c>
       <c r="M15" s="11">
         <f>L15/(1-G15)/(1-Sheet1!$O$38)/Sheet1!$N$38</f>
-        <v>19.2153110047847</v>
+        <v>19.215311004784699</v>
       </c>
       <c r="N15" s="11">
         <f>L15/(1-G15)/(1-Sheet1!$P$38)/Sheet1!$N$38</f>
-        <v>21.475935828877</v>
+        <v>21.475935828876999</v>
       </c>
       <c r="O15" s="11">
         <f>L15/(1-G15)/Sheet1!$N$38</f>
@@ -3499,7 +2979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="90.75" customHeight="1" spans="2:18">
+    <row r="16" spans="1:19" ht="90.75" customHeight="1">
       <c r="B16">
         <v>16101901</v>
       </c>
@@ -3538,15 +3018,15 @@
       </c>
       <c r="M16" s="11">
         <f>L16/(1-G16)/(1-Sheet1!$O$38)/Sheet1!$N$38</f>
-        <v>8.56459330143541</v>
+        <v>8.5645933014354103</v>
       </c>
       <c r="N16" s="11">
         <f>L16/(1-G16)/(1-Sheet1!$P$38)/Sheet1!$N$38</f>
-        <v>9.57219251336898</v>
+        <v>9.5721925133689805</v>
       </c>
       <c r="O16" s="11">
         <f>L16/(1-G16)/Sheet1!$N$38</f>
-        <v>8.13636363636363</v>
+        <v>8.1363636363636296</v>
       </c>
       <c r="P16" s="12">
         <f>O16*Sheet1!$N$38-L16</f>
@@ -3559,7 +3039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="90.75" customHeight="1" spans="2:18">
+    <row r="17" spans="2:18" ht="90.75" customHeight="1">
       <c r="B17">
         <v>16110801</v>
       </c>
@@ -3590,7 +3070,7 @@
       </c>
       <c r="K17" s="10">
         <f>(E17+F17+([1]Sheet1!$K$26*H17+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G17)/(1-[1]Sheet1!$P$26)/(1-I17)/[1]Sheet1!$N$26</f>
-        <v>17.9958757121387</v>
+        <v>17.995875712138702</v>
       </c>
       <c r="L17" s="1">
         <f>E17+F17+([1]Sheet1!$K$26*H17+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -3610,7 +3090,7 @@
       </c>
       <c r="P17" s="12">
         <f>O17*[1]Sheet1!$N$26-L17</f>
-        <v>21.4533333333333</v>
+        <v>21.453333333333301</v>
       </c>
       <c r="Q17" s="13">
         <v>0.15</v>
@@ -3619,7 +3099,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="18" ht="90.75" customHeight="1" spans="2:18">
+    <row r="18" spans="2:18" ht="90.75" customHeight="1">
       <c r="B18">
         <v>16110802</v>
       </c>
@@ -3650,7 +3130,7 @@
       </c>
       <c r="K18" s="10">
         <f>(E18+F18+([1]Sheet1!$K$26*H18+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G18)/(1-[1]Sheet1!$P$26)/(1-I18)/[1]Sheet1!$N$26</f>
-        <v>17.9958757121387</v>
+        <v>17.995875712138702</v>
       </c>
       <c r="L18" s="1">
         <f>E18+F18+([1]Sheet1!$K$26*H18+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -3670,7 +3150,7 @@
       </c>
       <c r="P18" s="12">
         <f>O18*[1]Sheet1!$N$26-L18</f>
-        <v>21.4533333333333</v>
+        <v>21.453333333333301</v>
       </c>
       <c r="Q18" s="13">
         <v>0.15</v>
@@ -3679,7 +3159,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" ht="90.75" customHeight="1" spans="2:18">
+    <row r="19" spans="2:18" ht="90.75" customHeight="1">
       <c r="B19">
         <v>16110901</v>
       </c>
@@ -3704,11 +3184,11 @@
       </c>
       <c r="J19" s="9">
         <f>(E19+F19+([1]Sheet1!$K$26*H19+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G19)/(1-[1]Sheet1!$O$26)/(1-I19)/[1]Sheet1!$N$26</f>
-        <v>16.7400318979266</v>
+        <v>16.740031897926599</v>
       </c>
       <c r="K19" s="10">
         <f>(E19+F19+([1]Sheet1!$K$26*H19+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G19)/(1-[1]Sheet1!$P$26)/(1-I19)/[1]Sheet1!$N$26</f>
-        <v>18.7094474153298</v>
+        <v>18.709447415329802</v>
       </c>
       <c r="L19" s="1">
         <f>E19+F19+([1]Sheet1!$K$26*H19+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -3716,15 +3196,15 @@
       </c>
       <c r="M19" s="11">
         <f>L19/(1-G19)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>8.37001594896332</v>
+        <v>8.3700159489633208</v>
       </c>
       <c r="N19" s="11">
         <f>L19/(1-G19)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>9.35472370766488</v>
+        <v>9.3547237076648795</v>
       </c>
       <c r="O19" s="11">
         <f>L19/(1-G19)/[1]Sheet1!$N$26</f>
-        <v>7.95151515151515</v>
+        <v>7.9515151515151503</v>
       </c>
       <c r="P19" s="12">
         <f>O19*[1]Sheet1!$N$26-L19</f>
@@ -3737,7 +3217,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" ht="90.75" customHeight="1" spans="2:18">
+    <row r="20" spans="2:18" ht="90.75" customHeight="1">
       <c r="B20">
         <v>16111001</v>
       </c>
@@ -3762,11 +3242,11 @@
       </c>
       <c r="J20" s="9">
         <f>(E20+F20+([1]Sheet1!$K$26*H20+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G20)/(1-[1]Sheet1!$O$26)/(1-I20)/[1]Sheet1!$N$26</f>
-        <v>18.1240981240981</v>
+        <v>18.124098124098101</v>
       </c>
       <c r="K20" s="10">
         <f>(E20+F20+([1]Sheet1!$K$26*H20+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G20)/(1-[1]Sheet1!$P$26)/(1-I20)/[1]Sheet1!$N$26</f>
-        <v>20.2563449622273</v>
+        <v>20.256344962227299</v>
       </c>
       <c r="L20" s="1">
         <f>E20+F20+([1]Sheet1!$K$26*H20+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -3774,7 +3254,7 @@
       </c>
       <c r="M20" s="11">
         <f>L20/(1-G20)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>12.6868686868687</v>
+        <v>12.686868686868699</v>
       </c>
       <c r="N20" s="11">
         <f>L20/(1-G20)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
@@ -3782,17 +3262,17 @@
       </c>
       <c r="O20" s="11">
         <f>L20/(1-G20)/[1]Sheet1!$N$26</f>
-        <v>12.0525252525253</v>
+        <v>12.052525252525299</v>
       </c>
       <c r="P20" s="12">
         <f>O20*[1]Sheet1!$N$26-L20</f>
-        <v>19.8866666666667</v>
+        <v>19.886666666666699</v>
       </c>
       <c r="R20">
         <v>30</v>
       </c>
     </row>
-    <row r="21" ht="90.75" customHeight="1" spans="2:18">
+    <row r="21" spans="2:18" ht="90.75" customHeight="1">
       <c r="B21">
         <v>16111901</v>
       </c>
@@ -3831,7 +3311,7 @@
       </c>
       <c r="M21" s="11">
         <f>L21/(1-G21)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.0478468899522</v>
+        <v>14.047846889952201</v>
       </c>
       <c r="N21" s="11">
         <f>L21/(1-G21)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
@@ -3839,7 +3319,7 @@
       </c>
       <c r="O21" s="11">
         <f>L21/(1-G21)/[1]Sheet1!$N$26</f>
-        <v>13.3454545454545</v>
+        <v>13.345454545454499</v>
       </c>
       <c r="P21" s="12">
         <f>O21*[1]Sheet1!$N$26-L21</f>
@@ -3849,7 +3329,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" ht="90.95" customHeight="1" spans="2:18">
+    <row r="22" spans="2:18" ht="90.95" customHeight="1">
       <c r="B22">
         <v>16112001</v>
       </c>
@@ -3885,7 +3365,7 @@
       </c>
       <c r="M22" s="11">
         <f>L22/(1-G22)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.0478468899522</v>
+        <v>14.047846889952201</v>
       </c>
       <c r="N22" s="11">
         <f>L22/(1-G22)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
@@ -3893,7 +3373,7 @@
       </c>
       <c r="O22" s="11">
         <f>L22/(1-G22)/[1]Sheet1!$N$26</f>
-        <v>13.3454545454545</v>
+        <v>13.345454545454499</v>
       </c>
       <c r="P22" s="12">
         <f>O22*[1]Sheet1!$N$26-L22</f>
@@ -3903,7 +3383,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" ht="90.95" customHeight="1" spans="2:18">
+    <row r="23" spans="2:18" ht="90.95" customHeight="1">
       <c r="B23">
         <v>16112002</v>
       </c>
@@ -3927,11 +3407,11 @@
       </c>
       <c r="J23" s="9">
         <f>(E23+F23+([1]Sheet1!$K$26*H23+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G23)/(1-[1]Sheet1!$O$26)/(1-I23)/[1]Sheet1!$N$26</f>
-        <v>27.0881059397806</v>
+        <v>27.088105939780601</v>
       </c>
       <c r="K23" s="10">
         <f>(E23+F23+([1]Sheet1!$K$26*H23+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G23)/(1-[1]Sheet1!$P$26)/(1-I23)/[1]Sheet1!$N$26</f>
-        <v>30.2749419326959</v>
+        <v>30.274941932695899</v>
       </c>
       <c r="L23" s="1">
         <f>E23+F23+([1]Sheet1!$K$26*H23+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -3939,11 +3419,11 @@
       </c>
       <c r="M23" s="11">
         <f>L23/(1-G23)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.8984582668793</v>
+        <v>14.898458266879301</v>
       </c>
       <c r="N23" s="11">
         <f>L23/(1-G23)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>16.6512180629828</v>
+        <v>16.651218062982799</v>
       </c>
       <c r="O23" s="11">
         <f>L23/(1-G23)/[1]Sheet1!$N$26</f>
@@ -3957,7 +3437,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" ht="90.75" customHeight="1" spans="2:18">
+    <row r="24" spans="2:18" ht="90.75" customHeight="1">
       <c r="B24">
         <v>16112003</v>
       </c>
@@ -3984,7 +3464,7 @@
       </c>
       <c r="J24" s="9">
         <f>(E24+F24+([1]Sheet1!$K$26*H24+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G24)/(1-[1]Sheet1!$O$26)/(1-I24)/[1]Sheet1!$N$26</f>
-        <v>25.9281813348799</v>
+        <v>25.928181334879898</v>
       </c>
       <c r="K24" s="10">
         <f>(E24+F24+([1]Sheet1!$K$26*H24+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G24)/(1-[1]Sheet1!$P$26)/(1-I24)/[1]Sheet1!$N$26</f>
@@ -3996,7 +3476,7 @@
       </c>
       <c r="M24" s="11">
         <f>L24/(1-G24)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.2604997341839</v>
+        <v>14.260499734183901</v>
       </c>
       <c r="N24" s="11">
         <f>L24/(1-G24)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
@@ -4014,7 +3494,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" ht="90.75" customHeight="1" spans="2:18">
+    <row r="25" spans="2:18" ht="90.75" customHeight="1">
       <c r="B25">
         <v>16112301</v>
       </c>
@@ -4041,19 +3521,19 @@
       </c>
       <c r="J25" s="9">
         <f>(E25+F25+([1]Sheet1!$K$26*H25+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G25)/(1-[1]Sheet1!$O$26)/(1-I25)/[1]Sheet1!$N$26</f>
-        <v>24.9016480595428</v>
+        <v>24.901648059542801</v>
       </c>
       <c r="K25" s="10">
         <f>(E25+F25+([1]Sheet1!$K$26*H25+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G25)/(1-[1]Sheet1!$P$26)/(1-I25)/[1]Sheet1!$N$26</f>
-        <v>27.8312537136067</v>
+        <v>27.831253713606699</v>
       </c>
       <c r="L25" s="1">
         <f>E25+F25+([1]Sheet1!$K$26*H25+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
-        <v>70.26</v>
+        <v>70.260000000000005</v>
       </c>
       <c r="M25" s="11">
         <f>L25/(1-G25)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.9409888357257</v>
+        <v>14.940988835725699</v>
       </c>
       <c r="N25" s="11">
         <f>L25/(1-G25)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
@@ -4061,7 +3541,7 @@
       </c>
       <c r="O25" s="11">
         <f>L25/(1-G25)/[1]Sheet1!$N$26</f>
-        <v>14.1939393939394</v>
+        <v>14.193939393939401</v>
       </c>
       <c r="P25" s="12">
         <f>O25*[1]Sheet1!$N$26-L25</f>
@@ -4071,7 +3551,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" ht="90.75" customHeight="1" spans="2:18">
+    <row r="26" spans="2:18" ht="90.75" customHeight="1">
       <c r="B26">
         <v>16112302</v>
       </c>
@@ -4102,7 +3582,7 @@
       </c>
       <c r="K26" s="10">
         <f>(E26+F26+([1]Sheet1!$K$26*H26+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G26)/(1-[1]Sheet1!$P$26)/(1-I26)/[1]Sheet1!$N$26</f>
-        <v>24.9792038027332</v>
+        <v>24.979203802733199</v>
       </c>
       <c r="L26" s="1">
         <f>E26+F26+([1]Sheet1!$K$26*H26+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -4110,15 +3590,15 @@
       </c>
       <c r="M26" s="11">
         <f>L26/(1-G26)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>13.4098883572568</v>
+        <v>13.409888357256801</v>
       </c>
       <c r="N26" s="11">
         <f>L26/(1-G26)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>14.9875222816399</v>
+        <v>14.987522281639899</v>
       </c>
       <c r="O26" s="11">
         <f>L26/(1-G26)/[1]Sheet1!$N$26</f>
-        <v>12.7393939393939</v>
+        <v>12.739393939393899</v>
       </c>
       <c r="P26" s="12">
         <f>O26*[1]Sheet1!$N$26-L26</f>
@@ -4128,7 +3608,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" ht="90.75" customHeight="1" spans="2:18">
+    <row r="27" spans="2:18" ht="90.75" customHeight="1">
       <c r="B27">
         <v>16112401</v>
       </c>
@@ -4155,11 +3635,11 @@
       </c>
       <c r="J27" s="9">
         <f>(E27+F27+([1]Sheet1!$K$26*H27+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G27)/(1-[1]Sheet1!$O$26)/(1-I27)/[1]Sheet1!$N$26</f>
-        <v>19.0172400698717</v>
+        <v>19.017240069871701</v>
       </c>
       <c r="K27" s="10">
         <f>(E27+F27+([1]Sheet1!$K$26*H27+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G27)/(1-[1]Sheet1!$P$26)/(1-I27)/[1]Sheet1!$N$26</f>
-        <v>21.254562431033</v>
+        <v>21.254562431033001</v>
       </c>
       <c r="L27" s="1">
         <f>E27+F27+([1]Sheet1!$K$26*H27+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -4171,15 +3651,15 @@
       </c>
       <c r="N27" s="11">
         <f>L27/(1-G27)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>14.8781937017231</v>
+        <v>14.878193701723101</v>
       </c>
       <c r="O27" s="11">
         <f>L27/(1-G27)/[1]Sheet1!$N$26</f>
-        <v>12.6464646464646</v>
+        <v>12.646464646464599</v>
       </c>
       <c r="P27" s="12">
         <f>O27*[1]Sheet1!$N$26-L27</f>
-        <v>20.8666666666667</v>
+        <v>20.866666666666699</v>
       </c>
       <c r="Q27">
         <v>40</v>
@@ -4188,7 +3668,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" ht="90.75" customHeight="1" spans="2:18">
+    <row r="28" spans="2:18" ht="90.75" customHeight="1">
       <c r="B28">
         <v>16112501</v>
       </c>
@@ -4219,23 +3699,23 @@
       </c>
       <c r="K28" s="10">
         <f>(E28+F28+([1]Sheet1!$K$26*H28+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G28)/(1-[1]Sheet1!$P$26)/(1-I28)/[1]Sheet1!$N$26</f>
-        <v>31.3120509911954</v>
+        <v>31.312050991195399</v>
       </c>
       <c r="L28" s="1">
         <f>E28+F28+([1]Sheet1!$K$26*H28+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
-        <v>72.46</v>
+        <v>72.459999999999994</v>
       </c>
       <c r="M28" s="11">
         <f>L28/(1-G28)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>15.4088250930356</v>
+        <v>15.408825093035601</v>
       </c>
       <c r="N28" s="11">
         <f>L28/(1-G28)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>17.2216280451575</v>
+        <v>17.221628045157502</v>
       </c>
       <c r="O28" s="11">
         <f>L28/(1-G28)/[1]Sheet1!$N$26</f>
-        <v>14.6383838383838</v>
+        <v>14.638383838383801</v>
       </c>
       <c r="P28" s="12">
         <f>O28*[1]Sheet1!$N$26-L28</f>
@@ -4248,7 +3728,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" ht="90.75" customHeight="1" spans="2:18">
+    <row r="29" spans="2:18" ht="90.75" customHeight="1">
       <c r="B29">
         <v>16112801</v>
       </c>
@@ -4275,15 +3755,15 @@
       </c>
       <c r="J29" s="9">
         <f>(E29+F29+([1]Sheet1!$K$26*H29+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G29)/(1-[1]Sheet1!$O$26)/(1-I29)/[1]Sheet1!$N$26</f>
-        <v>21.1121743753323</v>
+        <v>21.112174375332302</v>
       </c>
       <c r="K29" s="10">
         <f>(E29+F29+([1]Sheet1!$K$26*H29+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G29)/(1-[1]Sheet1!$P$26)/(1-I29)/[1]Sheet1!$N$26</f>
-        <v>23.5959595959596</v>
+        <v>23.595959595959599</v>
       </c>
       <c r="L29" s="1">
         <f>E29+F29+([1]Sheet1!$K$26*H29+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
-        <v>74.46</v>
+        <v>74.459999999999994</v>
       </c>
       <c r="M29" s="11">
         <f>L29/(1-G29)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
@@ -4291,7 +3771,7 @@
       </c>
       <c r="N29" s="11">
         <f>L29/(1-G29)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>17.6969696969697</v>
+        <v>17.696969696969699</v>
       </c>
       <c r="O29" s="11">
         <f>L29/(1-G29)/[1]Sheet1!$N$26</f>
@@ -4308,7 +3788,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" ht="90.75" customHeight="1" spans="2:18">
+    <row r="30" spans="2:18" ht="90.75" customHeight="1">
       <c r="B30">
         <v>16112901</v>
       </c>
@@ -4351,7 +3831,7 @@
       </c>
       <c r="N30" s="11">
         <f>L30/(1-G30)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>16.0095068330362</v>
+        <v>16.009506833036198</v>
       </c>
       <c r="O30" s="11">
         <f>L30/(1-G30)/[1]Sheet1!$N$26</f>
@@ -4359,7 +3839,7 @@
       </c>
       <c r="P30" s="12">
         <f>O30*[1]Sheet1!$N$26-L30</f>
-        <v>22.4533333333333</v>
+        <v>22.453333333333301</v>
       </c>
       <c r="Q30">
         <v>30</v>
@@ -4368,7 +3848,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" ht="90.75" customHeight="1" spans="2:18">
+    <row r="31" spans="2:18" ht="90.75" customHeight="1">
       <c r="B31">
         <v>16113001</v>
       </c>
@@ -4411,15 +3891,15 @@
       </c>
       <c r="N31" s="11">
         <f>L31/(1-G31)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>11.184789067142</v>
+        <v>11.184789067142001</v>
       </c>
       <c r="O31" s="11">
         <f>L31/(1-G31)/[1]Sheet1!$N$26</f>
-        <v>9.50707070707071</v>
+        <v>9.5070707070707101</v>
       </c>
       <c r="P31" s="12">
         <f>O31*[1]Sheet1!$N$26-L31</f>
-        <v>15.6866666666667</v>
+        <v>15.686666666666699</v>
       </c>
       <c r="Q31">
         <v>20</v>
@@ -4428,7 +3908,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" ht="90.75" customHeight="1" spans="2:18">
+    <row r="32" spans="2:18" ht="90.75" customHeight="1">
       <c r="B32">
         <v>16113002</v>
       </c>
@@ -4455,7 +3935,7 @@
       </c>
       <c r="J32" s="9">
         <f>(E32+F32+([1]Sheet1!$K$26*H32+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G32)/(1-[1]Sheet1!$O$26)/(1-I32)/[1]Sheet1!$N$26</f>
-        <v>17.7068934963672</v>
+        <v>17.706893496367201</v>
       </c>
       <c r="K32" s="10">
         <f>(E32+F32+([1]Sheet1!$K$26*H32+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G32)/(1-[1]Sheet1!$P$26)/(1-I32)/[1]Sheet1!$N$26</f>
@@ -4467,11 +3947,11 @@
       </c>
       <c r="M32" s="11">
         <f>L32/(1-G32)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>10.6241360978203</v>
+        <v>10.624136097820299</v>
       </c>
       <c r="N32" s="11">
         <f>L32/(1-G32)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>11.8740344622698</v>
+        <v>11.874034462269799</v>
       </c>
       <c r="O32" s="11">
         <f>L32/(1-G32)/[1]Sheet1!$N$26</f>
@@ -4488,7 +3968,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" ht="90.75" customHeight="1" spans="2:18">
+    <row r="33" spans="2:18" ht="90.75" customHeight="1">
       <c r="B33">
         <v>16113003</v>
       </c>
@@ -4515,11 +3995,11 @@
       </c>
       <c r="J33" s="9">
         <f>(E33+F33+([1]Sheet1!$K$26*H33+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G33)/(1-[1]Sheet1!$O$26)/(1-I33)/[1]Sheet1!$N$26</f>
-        <v>25.5802039534097</v>
+        <v>25.580203953409701</v>
       </c>
       <c r="K33" s="10">
         <f>(E33+F33+([1]Sheet1!$K$26*H33+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G33)/(1-[1]Sheet1!$P$26)/(1-I33)/[1]Sheet1!$N$26</f>
-        <v>28.5896397126344</v>
+        <v>28.589639712634401</v>
       </c>
       <c r="L33" s="1">
         <f>E33+F33+([1]Sheet1!$K$26*H33+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -4539,7 +4019,7 @@
       </c>
       <c r="P33" s="12">
         <f>O33*[1]Sheet1!$N$26-L33</f>
-        <v>22.0533333333333</v>
+        <v>22.053333333333299</v>
       </c>
       <c r="Q33">
         <v>45</v>
@@ -4548,20 +4028,67 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" ht="90.75" customHeight="1" spans="3:16">
-      <c r="C34" s="1"/>
-      <c r="D34" s="7"/>
-      <c r="G34" s="3"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="12"/>
+    <row r="34" spans="2:18" ht="90.75" customHeight="1">
+      <c r="B34">
+        <v>16113004</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34">
+        <v>36</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H34">
+        <v>0.3</v>
+      </c>
+      <c r="I34" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="J34" s="9">
+        <f>(E34+F34+([1]Sheet1!$K$26*H34+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G34)/(1-[1]Sheet1!$O$26)/(1-I34)/[1]Sheet1!$N$26</f>
+        <v>19.609427609427609</v>
+      </c>
+      <c r="K34" s="10">
+        <f>(E34+F34+([1]Sheet1!$K$26*H34+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G34)/(1-[1]Sheet1!$P$26)/(1-I34)/[1]Sheet1!$N$26</f>
+        <v>21.916419092889683</v>
+      </c>
+      <c r="L34" s="1">
+        <f>E34+F34+([1]Sheet1!$K$26*H34+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
+        <v>69.16</v>
+      </c>
+      <c r="M34" s="11">
+        <f>L34/(1-G34)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
+        <v>14.707070707070708</v>
+      </c>
+      <c r="N34" s="11">
+        <f>L34/(1-G34)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
+        <v>16.437314319667262</v>
+      </c>
+      <c r="O34" s="11">
+        <f>L34/(1-G34)/[1]Sheet1!$N$26</f>
+        <v>13.97171717171717</v>
+      </c>
+      <c r="P34" s="12">
+        <f>O34*[1]Sheet1!$N$26-L34</f>
+        <v>23.053333333333327</v>
+      </c>
+      <c r="Q34">
+        <v>45</v>
+      </c>
+      <c r="R34">
+        <v>30</v>
+      </c>
     </row>
-    <row r="37" spans="11:16">
+    <row r="37" spans="2:18">
       <c r="K37" s="14" t="s">
         <v>56</v>
       </c>
@@ -4581,7 +4108,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="11:16">
+    <row r="38" spans="2:18">
       <c r="K38" s="15">
         <v>100</v>
       </c>
@@ -4602,11 +4129,12 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"爬爬服"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27 C29 C30 C2:C16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27 C29:C30 C2:C16">
       <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子,裤子"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28 C17:C21 C24:C26 C31:C34">
@@ -4617,72 +4145,66 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId2" display="https://detail.1688.com/offer/43388465240.html?spm=a2615.7691456.0.0.SVo0SF"/>
-    <hyperlink ref="D4" r:id="rId3" display="https://detail.1688.com/offer/532946594199.html?spm=a2615.7691456.0.0.KfqxAP"/>
-    <hyperlink ref="D6" r:id="rId4" display="https://item.taobao.com/item.htm?spm=a230r.1.0.0.NVkYXr&amp;id=535812571550&amp;ns=1#detail"/>
-    <hyperlink ref="S6" r:id="rId4" display="https://item.taobao.com/item.htm?spm=a230r.1.0.0.NVkYXr&amp;id=535812571550&amp;ns=1#detail"/>
-    <hyperlink ref="D8" r:id="rId5" display="https://detail.1688.com/offer/521926765457.html?spm=a2615.7691456.0.0.Iw9wYb"/>
-    <hyperlink ref="D9" r:id="rId6" display="https://detail.1688.com/offer/539601777542.html?spm=b26110380.8015204.1688002.1.tV3mIo"/>
-    <hyperlink ref="D10" r:id="rId7" display="https://detail.1688.com/offer/534650922032.html"/>
-    <hyperlink ref="D11" r:id="rId8" display="https://detail.1688.com/offer/525196220868.html?spm=b26110380.8015204.xshy005.911.FMmHAe"/>
-    <hyperlink ref="D12" r:id="rId9" display="https://detail.1688.com/offer/525739109360.html?spm=b26110380.sw311.0.0.2w3SJa"/>
-    <hyperlink ref="D13" r:id="rId10" display="https://detail.1688.com/offer/536964765017.html?spm=b26110380.8015204.1688002.2.0qEfTf"/>
-    <hyperlink ref="D14" r:id="rId11" display="https://detail.1688.com/offer/523084291442.html?spm=b26110380.8015204.tkhy006.2.7zxqcs"/>
-    <hyperlink ref="D15" r:id="rId12" display="https://detail.1688.com/offer/539464650849.html?spm=b26110380.8015204.tkhy006.13.LriGRm"/>
-    <hyperlink ref="D16" r:id="rId13" display="https://detail.1688.com/offer/539024831638.html?spm=a2615.7691456.0.0.erl0H2"/>
-    <hyperlink ref="D19" r:id="rId14" display="https://detail.1688.com/offer/37436493140.html?spm=a261y.7663282.0.0.Bdoqfg"/>
-    <hyperlink ref="D20" r:id="rId15" display="https://detail.1688.com/offer/525328573875.html?spm=a2615.2177701.0.0.inGNvk"/>
-    <hyperlink ref="D21" r:id="rId16" display="https://detail.1688.com/offer/531099455627.html?spm=b26110380.sw311.0.0.NlP3tV"/>
-    <hyperlink ref="D22" r:id="rId17" display="https://detail.1688.com/offer/539748592006.html?spm=a2615.7691456.0.0.gzA0aC"/>
-    <hyperlink ref="D23" r:id="rId18" display="https://detail.1688.com/offer/542005628301.html?spm=a2615.7691456.0.0.E27Va6" tooltip="https://detail.1688.com/offer/542005628301.html?spm=a2615.7691456.0.0.E27Va6"/>
-    <hyperlink ref="D24" r:id="rId16" display="https://detail.1688.com/offer/531099455627.html?spm=b26110380.sw311.0.0.NlP3tV"/>
-    <hyperlink ref="D25" r:id="rId19" display="https://detail.1688.com/offer/537712350771.html?spm=a261y.7663282.0.0.HGrgRG&amp;sk=consign"/>
-    <hyperlink ref="D26" r:id="rId20" display="https://detail.1688.com/offer/535604104982.html?spm=a2615.7691456.0.0.ceDRcB" tooltip="https://detail.1688.com/offer/535604104982.html?spm=a2615.7691456.0.0.ceDRcB"/>
-    <hyperlink ref="D18" r:id="rId21" display="https://detail.1688.com/offer/537572849225.html?spm=a2615.7691456.0.0.0jr1X8"/>
-    <hyperlink ref="D28" r:id="rId22" display="https://detail.1688.com/offer/538358020263.html?spm=a2615.7691456.0.0.BXbA7w"/>
-    <hyperlink ref="D29" r:id="rId23" display="https://detail.1688.com/offer/536605241945.html?spm=b26110380.8015204.xshy005.79.X6yxQK"/>
-    <hyperlink ref="D30" r:id="rId24" display="https://detail.1688.com/offer/522617209176.html?spm=0.0.0.0.OkHehB&amp;sk=consign"/>
-    <hyperlink ref="D31" r:id="rId25" display="https://detail.1688.com/offer/536564720843.html?spm=a261y.7663282.0.0.CfpkXA&amp;sk=consign"/>
-    <hyperlink ref="D32" r:id="rId26" display="https://detail.1688.com/offer/522866160965.html?spm=b26110380.8015204.1688002.2.oTUzYR"/>
-    <hyperlink ref="D33" r:id="rId27" display="https://detail.1688.com/offer/537733197961.html?spm=b26110380.8015204.tkhy006.2.6IBVa5"/>
+    <hyperlink ref="D5" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="S6" r:id="rId4"/>
+    <hyperlink ref="D8" r:id="rId5"/>
+    <hyperlink ref="D9" r:id="rId6"/>
+    <hyperlink ref="D10" r:id="rId7"/>
+    <hyperlink ref="D11" r:id="rId8"/>
+    <hyperlink ref="D12" r:id="rId9"/>
+    <hyperlink ref="D13" r:id="rId10"/>
+    <hyperlink ref="D14" r:id="rId11"/>
+    <hyperlink ref="D15" r:id="rId12"/>
+    <hyperlink ref="D16" r:id="rId13"/>
+    <hyperlink ref="D19" r:id="rId14"/>
+    <hyperlink ref="D20" r:id="rId15"/>
+    <hyperlink ref="D21" r:id="rId16"/>
+    <hyperlink ref="D22" r:id="rId17"/>
+    <hyperlink ref="D23" r:id="rId18" tooltip="https://detail.1688.com/offer/542005628301.html?spm=a2615.7691456.0.0.E27Va6"/>
+    <hyperlink ref="D24" r:id="rId19"/>
+    <hyperlink ref="D25" r:id="rId20"/>
+    <hyperlink ref="D26" r:id="rId21" tooltip="https://detail.1688.com/offer/535604104982.html?spm=a2615.7691456.0.0.ceDRcB"/>
+    <hyperlink ref="D18" r:id="rId22"/>
+    <hyperlink ref="D28" r:id="rId23"/>
+    <hyperlink ref="D29" r:id="rId24"/>
+    <hyperlink ref="D30" r:id="rId25"/>
+    <hyperlink ref="D31" r:id="rId26"/>
+    <hyperlink ref="D32" r:id="rId27"/>
+    <hyperlink ref="D33" r:id="rId28"/>
+    <hyperlink ref="D34" r:id="rId29"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId30"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/产品表单.xlsx
+++ b/产品表单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="8685"/>
+    <workbookView windowWidth="19100" windowHeight="8690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$C$27</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
   <si>
     <t>产品标题</t>
   </si>
@@ -190,6 +190,18 @@
   </si>
   <si>
     <t>https://detail.1688.com/offer/537733197961.html?spm=b26110380.8015204.tkhy006.2.6IBVa5</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/542572158509.html?spm=a2615.7691456.0.0.tHKJGY</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/539745622902.html?spm=b26110380.8015204.1688002.2.A6aG7S</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/39363390916.html?spm=b26110380.sw56474001.0.0.AOuyqk</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/523975460031.html?spm=b26110380.8015204.1688002.1.dPdaJX</t>
   </si>
   <si>
     <t>国际运费 1kg/￥</t>
@@ -214,13 +226,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="8">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="179" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,17 +272,140 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,8 +418,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -288,19 +613,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -313,31 +874,34 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -346,22 +910,67 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="百分比" xfId="2" builtinId="5"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -383,7 +992,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -421,7 +1030,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:blip r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -459,7 +1068,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:blip r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -497,7 +1106,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:blip r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -535,7 +1144,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:blip r:embed="rId5" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -573,7 +1182,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:blip r:embed="rId6" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -611,7 +1220,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:blip r:embed="rId7" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -649,7 +1258,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:blip r:embed="rId8" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -687,7 +1296,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:blip r:embed="rId9" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -725,7 +1334,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
+        <a:blip r:embed="rId10" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -763,7 +1372,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
+        <a:blip r:embed="rId11" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -801,7 +1410,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
+        <a:blip r:embed="rId12" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -843,7 +1452,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
+        <a:blip r:embed="rId13" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -881,7 +1490,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
+        <a:blip r:embed="rId14" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -919,7 +1528,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print"/>
+        <a:blip r:embed="rId15" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -957,7 +1566,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print"/>
+        <a:blip r:embed="rId16" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -999,7 +1608,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print"/>
+        <a:blip r:embed="rId17" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1041,7 +1650,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print"/>
+        <a:blip r:embed="rId18" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1083,7 +1692,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print"/>
+        <a:blip r:embed="rId19" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1125,7 +1734,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print"/>
+        <a:blip r:embed="rId20" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1167,7 +1776,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print"/>
+        <a:blip r:embed="rId21" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1209,7 +1818,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print"/>
+        <a:blip r:embed="rId22" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1251,7 +1860,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print"/>
+        <a:blip r:embed="rId23" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1293,7 +1902,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print"/>
+        <a:blip r:embed="rId24" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1335,7 +1944,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print"/>
+        <a:blip r:embed="rId25" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1377,7 +1986,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:blip r:embed="rId26"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1419,7 +2028,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print"/>
+        <a:blip r:embed="rId27" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1461,7 +2070,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print"/>
+        <a:blip r:embed="rId28" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1499,7 +2108,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print"/>
+        <a:blip r:embed="rId29" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1541,7 +2150,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print"/>
+        <a:blip r:embed="rId30" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1583,7 +2192,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print"/>
+        <a:blip r:embed="rId31" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1625,7 +2234,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32" cstate="print"/>
+        <a:blip r:embed="rId32" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1656,8 +2265,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>41413</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>666888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1667,15 +2276,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:blip r:embed="rId33"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="0" y="35722891"/>
-          <a:ext cx="0" cy="2932044"/>
+          <a:off x="0" y="35756850"/>
+          <a:ext cx="0" cy="2971800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1692,8 +2301,8 @@
       <xdr:rowOff>33131</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1038770</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>1043610</xdr:rowOff>
     </xdr:to>
@@ -1705,19 +2314,187 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34" cstate="print"/>
+        <a:blip r:embed="rId34" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8282" y="35756022"/>
-          <a:ext cx="1030488" cy="1010479"/>
+          <a:off x="8255" y="35789870"/>
+          <a:ext cx="978535" cy="1010285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>84455</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>899160</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>949960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="图片 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="84455" y="37035105"/>
+          <a:ext cx="814705" cy="824230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78105</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>936625</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1026795</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="图片 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="78105" y="38141910"/>
+          <a:ext cx="858520" cy="946785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>116840</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>43180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>886460</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1021715</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="图片 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="116840" y="39257605"/>
+          <a:ext cx="769620" cy="978535"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>33655</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>904240</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>680720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="图片 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33655" y="40424735"/>
+          <a:ext cx="870585" cy="622935"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1734,7 +2511,7 @@
       <sheetName val="Sheet3"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
+      <sheetData sheetId="0">
         <row r="26">
           <cell r="K26">
             <v>100</v>
@@ -1756,8 +2533,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2047,34 +2824,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="14.1272727272727" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="9.625" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="8.125" customWidth="1"/>
-    <col min="6" max="6" width="9.875" customWidth="1"/>
-    <col min="7" max="7" width="8.25" customWidth="1"/>
-    <col min="10" max="10" width="11.25" customWidth="1"/>
-    <col min="11" max="11" width="11.125" customWidth="1"/>
-    <col min="12" max="12" width="7.625" customWidth="1"/>
-    <col min="13" max="13" width="11.875" customWidth="1"/>
-    <col min="14" max="15" width="11.625" customWidth="1"/>
-    <col min="16" max="16" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="9.62727272727273" customWidth="1"/>
+    <col min="4" max="4" width="17.3727272727273" customWidth="1"/>
+    <col min="5" max="5" width="8.12727272727273" customWidth="1"/>
+    <col min="6" max="6" width="9.87272727272727" customWidth="1"/>
+    <col min="7" max="7" width="8.25454545454545" customWidth="1"/>
+    <col min="10" max="10" width="11.2545454545455" customWidth="1"/>
+    <col min="11" max="11" width="11.1272727272727" customWidth="1"/>
+    <col min="12" max="12" width="7.62727272727273" customWidth="1"/>
+    <col min="13" max="13" width="11.8727272727273" customWidth="1"/>
+    <col min="14" max="15" width="11.6272727272727" customWidth="1"/>
+    <col min="16" max="16" width="9.87272727272727" customWidth="1"/>
     <col min="17" max="17" width="6.5" customWidth="1"/>
-    <col min="18" max="18" width="6.875" customWidth="1"/>
+    <col min="18" max="18" width="6.87272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2130,7 +2909,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="86.25" customHeight="1">
+    <row r="2" ht="86.25" customHeight="1" spans="1:18">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
         <v>16072601</v>
@@ -2156,33 +2935,33 @@
       <c r="I2" s="3">
         <v>0.15</v>
       </c>
-      <c r="J2" s="9">
-        <f t="shared" ref="J2:J14" si="0">(E2+F2+($K$38*H2+$M$38)*$L$38)/(1-G2)/(1-$O$38)/(1-I2)/$N$38</f>
-        <v>16.551896675735701</v>
-      </c>
-      <c r="K2" s="10">
-        <f t="shared" ref="K2:K14" si="1">(E2+F2+($K$38*H2+$M$38)*$L$38)/(1-G2)/(1-$P$38)/(1-I2)/$N$38</f>
-        <v>18.499178637586901</v>
+      <c r="J2" s="10">
+        <f t="shared" ref="J2:J14" si="0">(E2+F2+($K$42*H2+$M$42)*$L$42)/(1-G2)/(1-$O$42)/(1-I2)/$N$42</f>
+        <v>16.5518966757357</v>
+      </c>
+      <c r="K2" s="11">
+        <f t="shared" ref="K2:K14" si="1">(E2+F2+($K$42*H2+$M$42)*$L$42)/(1-G2)/(1-$P$42)/(1-I2)/$N$42</f>
+        <v>18.4991786375869</v>
       </c>
       <c r="L2" s="1">
-        <f t="shared" ref="L2:L14" si="2">E2+F2+($K$38*H2+$M$38)*$L$38</f>
+        <f t="shared" ref="L2:L14" si="2">E2+F2+($K$42*H2+$M$42)*$L$42</f>
         <v>66.16</v>
       </c>
-      <c r="M2" s="11">
-        <f t="shared" ref="M2:M14" si="3">L2/(1-G2)/(1-$O$38)/$N$38</f>
+      <c r="M2" s="12">
+        <f t="shared" ref="M2:M14" si="3">L2/(1-G2)/(1-$O$42)/$N$42</f>
         <v>14.0691121743753</v>
       </c>
-      <c r="N2" s="11">
-        <f t="shared" ref="N2:N14" si="4">L2/(1-G2)/(1-$P$38)/$N$38</f>
+      <c r="N2" s="12">
+        <f t="shared" ref="N2:N14" si="4">L2/(1-G2)/(1-$P$42)/$N$42</f>
         <v>15.7243018419489</v>
       </c>
-      <c r="O2" s="11">
-        <f>L2/(1-G2)/$N$38</f>
+      <c r="O2" s="12">
+        <f>L2/(1-G2)/$N$42</f>
         <v>13.3656565656566</v>
       </c>
-      <c r="P2" s="12">
-        <f>O2*$N$38-L2</f>
-        <v>22.053333333333299</v>
+      <c r="P2" s="13">
+        <f>O2*$N$42-L2</f>
+        <v>22.0533333333333</v>
       </c>
       <c r="Q2" s="1">
         <v>1</v>
@@ -2191,7 +2970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="86.25" customHeight="1">
+    <row r="3" ht="86.25" customHeight="1" spans="1:18">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>16072701</v>
@@ -2217,11 +2996,11 @@
       <c r="I3" s="3">
         <v>0.25</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="10">
         <f t="shared" si="0"/>
-        <v>10.763069289385101</v>
-      </c>
-      <c r="K3" s="10">
+        <v>10.7630692893851</v>
+      </c>
+      <c r="K3" s="11">
         <f t="shared" si="1"/>
         <v>12.0293127351951</v>
       </c>
@@ -2229,20 +3008,20 @@
         <f t="shared" si="2"/>
         <v>37.96</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="12">
         <f t="shared" si="3"/>
-        <v>8.0723019670388094</v>
-      </c>
-      <c r="N3" s="11">
+        <v>8.07230196703881</v>
+      </c>
+      <c r="N3" s="12">
         <f t="shared" si="4"/>
-        <v>9.0219845513963204</v>
-      </c>
-      <c r="O3" s="11">
-        <f>L3/(1-G3)/$N$38</f>
-        <v>7.6686868686868701</v>
-      </c>
-      <c r="P3" s="12">
-        <f>O3*$N$38-L3</f>
+        <v>9.02198455139632</v>
+      </c>
+      <c r="O3" s="12">
+        <f>L3/(1-G3)/$N$42</f>
+        <v>7.66868686868687</v>
+      </c>
+      <c r="P3" s="13">
+        <f>O3*$N$42-L3</f>
         <v>12.6533333333333</v>
       </c>
       <c r="Q3" s="1">
@@ -2252,7 +3031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="69.75" customHeight="1">
+    <row r="4" ht="69.75" customHeight="1" spans="1:18">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>16072901</v>
@@ -2278,11 +3057,11 @@
       <c r="I4" s="3">
         <v>0.3</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="10">
         <f t="shared" si="0"/>
-        <v>18.822814612288301</v>
-      </c>
-      <c r="K4" s="10">
+        <v>18.8228146122883</v>
+      </c>
+      <c r="K4" s="11">
         <f t="shared" si="1"/>
         <v>21.0372633902046</v>
       </c>
@@ -2290,20 +3069,20 @@
         <f t="shared" si="2"/>
         <v>61.96</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="12">
         <f t="shared" si="3"/>
         <v>13.1759702286018</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="12">
         <f t="shared" si="4"/>
         <v>14.7260843731432</v>
       </c>
-      <c r="O4" s="11">
-        <f>L4/(1-G4)/$N$38</f>
-        <v>12.517171717171699</v>
-      </c>
-      <c r="P4" s="12">
-        <f>O4*$N$38-L4</f>
+      <c r="O4" s="12">
+        <f>L4/(1-G4)/$N$42</f>
+        <v>12.5171717171717</v>
+      </c>
+      <c r="P4" s="13">
+        <f>O4*$N$42-L4</f>
         <v>20.6533333333333</v>
       </c>
       <c r="Q4" s="1">
@@ -2313,7 +3092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="78" customHeight="1">
+    <row r="5" ht="78" customHeight="1" spans="1:18">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>16073001</v>
@@ -2339,33 +3118,33 @@
       <c r="I5" s="3">
         <v>0.15</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="10">
         <f t="shared" si="0"/>
-        <v>17.852831722800801</v>
-      </c>
-      <c r="K5" s="10">
+        <v>17.8528317228008</v>
+      </c>
+      <c r="K5" s="11">
         <f t="shared" si="1"/>
-        <v>19.953164866659701</v>
+        <v>19.9531648666597</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="2"/>
         <v>71.36</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="12">
         <f t="shared" si="3"/>
         <v>15.1749069643806</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="12">
         <f t="shared" si="4"/>
         <v>16.9601901366607</v>
       </c>
-      <c r="O5" s="11">
-        <f>L5/(1-G5)/$N$38</f>
-        <v>14.416161616161601</v>
-      </c>
-      <c r="P5" s="12">
-        <f>O5*$N$38-L5</f>
-        <v>23.786666666666701</v>
+      <c r="O5" s="12">
+        <f>L5/(1-G5)/$N$42</f>
+        <v>14.4161616161616</v>
+      </c>
+      <c r="P5" s="13">
+        <f>O5*$N$42-L5</f>
+        <v>23.7866666666667</v>
       </c>
       <c r="Q5" s="1">
         <v>1</v>
@@ -2374,7 +3153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="78" customHeight="1">
+    <row r="6" ht="78" customHeight="1" spans="1:19">
       <c r="A6" s="4"/>
       <c r="B6" s="1">
         <v>16073002</v>
@@ -2400,32 +3179,32 @@
       <c r="I6" s="3">
         <v>0.15</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="10">
         <f t="shared" si="0"/>
         <v>15.0483159771085</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="11">
         <f t="shared" si="1"/>
-        <v>16.818706092062499</v>
+        <v>16.8187060920625</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="2"/>
         <v>64.16</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="12">
         <f t="shared" si="3"/>
         <v>12.7910685805423</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="12">
         <f t="shared" si="4"/>
-        <v>14.295900178253101</v>
-      </c>
-      <c r="O6" s="11">
-        <f t="shared" ref="O6:O14" si="5">L6/(1-G6)/$N$38</f>
+        <v>14.2959001782531</v>
+      </c>
+      <c r="O6" s="12">
+        <f t="shared" ref="O6:O14" si="5">L6/(1-G6)/$N$42</f>
         <v>12.1515151515152</v>
       </c>
-      <c r="P6" s="12">
-        <f t="shared" ref="P6:P14" si="6">O6*$N$38-L6</f>
+      <c r="P6" s="13">
+        <f t="shared" ref="P6:P14" si="6">O6*$N$42-L6</f>
         <v>16.04</v>
       </c>
       <c r="Q6" s="1">
@@ -2438,7 +3217,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="69" customHeight="1">
+    <row r="7" ht="69" customHeight="1" spans="1:18">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>16080301</v>
@@ -2464,33 +3243,33 @@
       <c r="I7" s="3">
         <v>0.15</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="10">
         <f t="shared" si="0"/>
-        <v>16.852112455827601</v>
-      </c>
-      <c r="K7" s="10">
+        <v>16.8521124558276</v>
+      </c>
+      <c r="K7" s="11">
         <f t="shared" si="1"/>
-        <v>18.834713921219102</v>
+        <v>18.8347139212191</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="2"/>
         <v>67.36</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="12">
         <f t="shared" si="3"/>
         <v>14.3242955874535</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="12">
         <f t="shared" si="4"/>
-        <v>16.009506833036198</v>
-      </c>
-      <c r="O7" s="11">
+        <v>16.0095068330362</v>
+      </c>
+      <c r="O7" s="12">
         <f t="shared" si="5"/>
         <v>13.6080808080808</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="13">
         <f t="shared" si="6"/>
-        <v>22.453333333333301</v>
+        <v>22.4533333333333</v>
       </c>
       <c r="Q7" s="1">
         <v>1</v>
@@ -2499,7 +3278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="78" customHeight="1">
+    <row r="8" ht="78" customHeight="1" spans="2:18">
       <c r="B8">
         <v>16080401</v>
       </c>
@@ -2521,36 +3300,36 @@
       <c r="H8">
         <v>0.45</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="14">
         <v>0.5</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="10">
         <f t="shared" si="0"/>
         <v>34.8724082934609</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="11">
         <f t="shared" si="1"/>
-        <v>38.975044563279901</v>
+        <v>38.9750445632799</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="2"/>
         <v>87.46</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="12">
         <f t="shared" si="3"/>
         <v>17.4362041467305</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="12">
         <f t="shared" si="4"/>
-        <v>19.487522281639901</v>
-      </c>
-      <c r="O8" s="11">
+        <v>19.4875222816399</v>
+      </c>
+      <c r="O8" s="12">
         <f t="shared" si="5"/>
-        <v>16.564393939393899</v>
-      </c>
-      <c r="P8" s="12">
+        <v>16.5643939393939</v>
+      </c>
+      <c r="P8" s="13">
         <f t="shared" si="6"/>
-        <v>21.864999999999998</v>
+        <v>21.865</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -2559,7 +3338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="92.25" customHeight="1">
+    <row r="9" ht="92.25" customHeight="1" spans="2:18">
       <c r="B9">
         <v>16100801</v>
       </c>
@@ -2581,34 +3360,34 @@
       <c r="H9">
         <v>0.45</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="14">
         <v>0.2</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="10">
         <f t="shared" si="0"/>
-        <v>20.590111642743199</v>
-      </c>
-      <c r="K9" s="10">
+        <v>20.5901116427432</v>
+      </c>
+      <c r="K9" s="11">
         <f t="shared" si="1"/>
-        <v>23.012477718360099</v>
+        <v>23.0124777183601</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="2"/>
-        <v>77.459999999999994</v>
-      </c>
-      <c r="M9" s="11">
+        <v>77.46</v>
+      </c>
+      <c r="M9" s="12">
         <f t="shared" si="3"/>
-        <v>16.472089314194601</v>
-      </c>
-      <c r="N9" s="11">
+        <v>16.4720893141946</v>
+      </c>
+      <c r="N9" s="12">
         <f t="shared" si="4"/>
         <v>18.4099821746881</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9" s="12">
         <f t="shared" si="5"/>
         <v>15.6484848484849</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="13">
         <f t="shared" si="6"/>
         <v>25.82</v>
       </c>
@@ -2619,7 +3398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="89.25" customHeight="1">
+    <row r="10" ht="89.25" customHeight="1" spans="2:18">
       <c r="B10">
         <v>16100901</v>
       </c>
@@ -2641,36 +3420,36 @@
       <c r="H10">
         <v>0.8</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="14">
         <v>0.3</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="10">
         <f t="shared" si="0"/>
-        <v>36.503379661274401</v>
-      </c>
-      <c r="K10" s="10">
+        <v>36.5033796612744</v>
+      </c>
+      <c r="K10" s="11">
         <f t="shared" si="1"/>
-        <v>40.797894915542003</v>
+        <v>40.797894915542</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="2"/>
         <v>120.16</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="12">
         <f t="shared" si="3"/>
-        <v>25.552365762892101</v>
-      </c>
-      <c r="N10" s="11">
+        <v>25.5523657628921</v>
+      </c>
+      <c r="N10" s="12">
         <f t="shared" si="4"/>
-        <v>28.558526440879401</v>
-      </c>
-      <c r="O10" s="11">
+        <v>28.5585264408794</v>
+      </c>
+      <c r="O10" s="12">
         <f t="shared" si="5"/>
         <v>24.2747474747475</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="13">
         <f t="shared" si="6"/>
-        <v>40.053333333333299</v>
+        <v>40.0533333333333</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2679,7 +3458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="95.25" customHeight="1">
+    <row r="11" ht="95.25" customHeight="1" spans="2:18">
       <c r="B11">
         <v>16101601</v>
       </c>
@@ -2701,34 +3480,34 @@
       <c r="H11">
         <v>0.4</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="14">
         <v>0.15</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="10">
         <f t="shared" si="0"/>
-        <v>32.363261093911298</v>
-      </c>
-      <c r="K11" s="10">
+        <v>32.3632610939113</v>
+      </c>
+      <c r="K11" s="11">
         <f t="shared" si="1"/>
-        <v>36.170703575547897</v>
+        <v>36.1707035755479</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="2"/>
-        <v>129.36000000000001</v>
-      </c>
-      <c r="M11" s="11">
+        <v>129.36</v>
+      </c>
+      <c r="M11" s="12">
         <f t="shared" si="3"/>
-        <v>27.508771929824601</v>
-      </c>
-      <c r="N11" s="11">
+        <v>27.5087719298246</v>
+      </c>
+      <c r="N11" s="12">
         <f t="shared" si="4"/>
-        <v>30.745098039215701</v>
-      </c>
-      <c r="O11" s="11">
+        <v>30.7450980392157</v>
+      </c>
+      <c r="O11" s="12">
         <f t="shared" si="5"/>
-        <v>26.133333333333301</v>
-      </c>
-      <c r="P11" s="12">
+        <v>26.1333333333333</v>
+      </c>
+      <c r="P11" s="13">
         <f t="shared" si="6"/>
         <v>43.12</v>
       </c>
@@ -2739,7 +3518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="81.75" customHeight="1">
+    <row r="12" ht="81.75" customHeight="1" spans="2:18">
       <c r="B12">
         <v>16101602</v>
       </c>
@@ -2761,36 +3540,36 @@
       <c r="H12">
         <v>0.5</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="14">
         <v>0.15</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="10">
         <f t="shared" si="0"/>
-        <v>32.344193334905398</v>
-      </c>
-      <c r="K12" s="10">
+        <v>32.3441933349054</v>
+      </c>
+      <c r="K12" s="11">
         <f t="shared" si="1"/>
-        <v>36.149392550776597</v>
+        <v>36.1493925507766</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="2"/>
         <v>127.56</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="12">
         <f t="shared" si="3"/>
-        <v>27.492564334669598</v>
-      </c>
-      <c r="N12" s="11">
+        <v>27.4925643346696</v>
+      </c>
+      <c r="N12" s="12">
         <f t="shared" si="4"/>
-        <v>30.726983668160099</v>
-      </c>
-      <c r="O12" s="11">
+        <v>30.7269836681601</v>
+      </c>
+      <c r="O12" s="12">
         <f t="shared" si="5"/>
         <v>26.1179361179361</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="13">
         <f t="shared" si="6"/>
-        <v>44.818378378378398</v>
+        <v>44.8183783783784</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -2799,7 +3578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="89.1" customHeight="1">
+    <row r="13" ht="89.1" customHeight="1" spans="2:18">
       <c r="B13">
         <v>16101701</v>
       </c>
@@ -2821,36 +3600,36 @@
       <c r="H13">
         <v>0.35</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="14">
         <v>0.15</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="10">
         <f t="shared" si="0"/>
         <v>14.825655940207</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="11">
         <f t="shared" si="1"/>
-        <v>16.569850756701999</v>
+        <v>16.569850756702</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="2"/>
         <v>59.26</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="12">
         <f t="shared" si="3"/>
         <v>12.601807549176</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N13" s="12">
         <f t="shared" si="4"/>
         <v>14.0843731431967</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O13" s="12">
         <f t="shared" si="5"/>
         <v>11.9717171717172</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="13">
         <f t="shared" si="6"/>
-        <v>19.753333333333298</v>
+        <v>19.7533333333333</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -2859,7 +3638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="84" customHeight="1">
+    <row r="14" ht="84" customHeight="1" spans="2:18">
       <c r="B14">
         <v>16101703</v>
       </c>
@@ -2881,34 +3660,34 @@
       <c r="H14">
         <v>0.6</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="14">
         <v>0.5</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="10">
         <f t="shared" si="0"/>
-        <v>58.590111642743203</v>
-      </c>
-      <c r="K14" s="10">
+        <v>58.5901116427432</v>
+      </c>
+      <c r="K14" s="11">
         <f t="shared" si="1"/>
-        <v>65.483065953654204</v>
+        <v>65.4830659536542</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="2"/>
         <v>137.76</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="12">
         <f t="shared" si="3"/>
-        <v>29.295055821371601</v>
-      </c>
-      <c r="N14" s="11">
+        <v>29.2950558213716</v>
+      </c>
+      <c r="N14" s="12">
         <f t="shared" si="4"/>
-        <v>32.741532976827102</v>
-      </c>
-      <c r="O14" s="11">
+        <v>32.7415329768271</v>
+      </c>
+      <c r="O14" s="12">
         <f t="shared" si="5"/>
         <v>27.830303030303</v>
       </c>
-      <c r="P14" s="12">
+      <c r="P14" s="13">
         <f t="shared" si="6"/>
         <v>45.92</v>
       </c>
@@ -2919,7 +3698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="90.75" customHeight="1">
+    <row r="15" ht="90.75" customHeight="1" spans="2:18">
       <c r="B15">
         <v>16101702</v>
       </c>
@@ -2941,35 +3720,35 @@
       <c r="H15">
         <v>0.4</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="14">
         <v>0.15</v>
       </c>
-      <c r="J15" s="9">
-        <f>(E15+F15+(Sheet1!$K$38*H15+Sheet1!$M$38)*Sheet1!$L$38)/(1-G15)/(1-Sheet1!$O$38)/(1-I15)/Sheet1!$N$38</f>
+      <c r="J15" s="10">
+        <f>(E15+F15+(Sheet1!$K$42*H15+Sheet1!$M$42)*Sheet1!$L$42)/(1-G15)/(1-Sheet1!$O$42)/(1-I15)/Sheet1!$N$42</f>
         <v>22.6062482409232</v>
       </c>
-      <c r="K15" s="10">
-        <f>(E15+F15+(Sheet1!$K$38*H15+Sheet1!$M$38)*Sheet1!$L$38)/(1-G15)/(1-Sheet1!$P$38)/(1-I15)/Sheet1!$N$38</f>
-        <v>25.265806857502401</v>
+      <c r="K15" s="11">
+        <f>(E15+F15+(Sheet1!$K$42*H15+Sheet1!$M$42)*Sheet1!$L$42)/(1-G15)/(1-Sheet1!$P$42)/(1-I15)/Sheet1!$N$42</f>
+        <v>25.2658068575024</v>
       </c>
       <c r="L15" s="1">
-        <f>E15+F15+(Sheet1!$K$38*H15+Sheet1!$M$38)*Sheet1!$L$38</f>
+        <f>E15+F15+(Sheet1!$K$42*H15+Sheet1!$M$42)*Sheet1!$L$42</f>
         <v>90.36</v>
       </c>
-      <c r="M15" s="11">
-        <f>L15/(1-G15)/(1-Sheet1!$O$38)/Sheet1!$N$38</f>
-        <v>19.215311004784699</v>
-      </c>
-      <c r="N15" s="11">
-        <f>L15/(1-G15)/(1-Sheet1!$P$38)/Sheet1!$N$38</f>
-        <v>21.475935828876999</v>
-      </c>
-      <c r="O15" s="11">
-        <f>L15/(1-G15)/Sheet1!$N$38</f>
+      <c r="M15" s="12">
+        <f>L15/(1-G15)/(1-Sheet1!$O$42)/Sheet1!$N$42</f>
+        <v>19.2153110047847</v>
+      </c>
+      <c r="N15" s="12">
+        <f>L15/(1-G15)/(1-Sheet1!$P$42)/Sheet1!$N$42</f>
+        <v>21.475935828877</v>
+      </c>
+      <c r="O15" s="12">
+        <f>L15/(1-G15)/Sheet1!$N$42</f>
         <v>18.2545454545455</v>
       </c>
-      <c r="P15" s="12">
-        <f>O15*Sheet1!$N$38-L15</f>
+      <c r="P15" s="13">
+        <f>O15*Sheet1!$N$42-L15</f>
         <v>30.12</v>
       </c>
       <c r="Q15">
@@ -2979,7 +3758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="90.75" customHeight="1">
+    <row r="16" ht="90.75" customHeight="1" spans="2:18">
       <c r="B16">
         <v>16101901</v>
       </c>
@@ -3001,35 +3780,35 @@
       <c r="H16">
         <v>0.2</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="14">
         <v>0.25</v>
       </c>
-      <c r="J16" s="9">
-        <f>(E16+F16+(Sheet1!$K$38*H16+Sheet1!$M$38)*Sheet1!$L$38)/(1-G16)/(1-Sheet1!$O$38)/(1-I16)/Sheet1!$N$38</f>
+      <c r="J16" s="10">
+        <f>(E16+F16+(Sheet1!$K$42*H16+Sheet1!$M$42)*Sheet1!$L$42)/(1-G16)/(1-Sheet1!$O$42)/(1-I16)/Sheet1!$N$42</f>
         <v>11.4194577352472</v>
       </c>
-      <c r="K16" s="10">
-        <f>(E16+F16+(Sheet1!$K$38*H16+Sheet1!$M$38)*Sheet1!$L$38)/(1-G16)/(1-Sheet1!$P$38)/(1-I16)/Sheet1!$N$38</f>
+      <c r="K16" s="11">
+        <f>(E16+F16+(Sheet1!$K$42*H16+Sheet1!$M$42)*Sheet1!$L$42)/(1-G16)/(1-Sheet1!$P$42)/(1-I16)/Sheet1!$N$42</f>
         <v>12.7629233511586</v>
       </c>
       <c r="L16" s="1">
-        <f>E16+F16+(Sheet1!$K$38*H16+Sheet1!$M$38)*Sheet1!$L$38</f>
+        <f>E16+F16+(Sheet1!$K$42*H16+Sheet1!$M$42)*Sheet1!$L$42</f>
         <v>42.96</v>
       </c>
-      <c r="M16" s="11">
-        <f>L16/(1-G16)/(1-Sheet1!$O$38)/Sheet1!$N$38</f>
-        <v>8.5645933014354103</v>
-      </c>
-      <c r="N16" s="11">
-        <f>L16/(1-G16)/(1-Sheet1!$P$38)/Sheet1!$N$38</f>
-        <v>9.5721925133689805</v>
-      </c>
-      <c r="O16" s="11">
-        <f>L16/(1-G16)/Sheet1!$N$38</f>
-        <v>8.1363636363636296</v>
-      </c>
-      <c r="P16" s="12">
-        <f>O16*Sheet1!$N$38-L16</f>
+      <c r="M16" s="12">
+        <f>L16/(1-G16)/(1-Sheet1!$O$42)/Sheet1!$N$42</f>
+        <v>8.56459330143541</v>
+      </c>
+      <c r="N16" s="12">
+        <f>L16/(1-G16)/(1-Sheet1!$P$42)/Sheet1!$N$42</f>
+        <v>9.57219251336898</v>
+      </c>
+      <c r="O16" s="12">
+        <f>L16/(1-G16)/Sheet1!$N$42</f>
+        <v>8.13636363636363</v>
+      </c>
+      <c r="P16" s="13">
+        <f>O16*Sheet1!$N$42-L16</f>
         <v>10.74</v>
       </c>
       <c r="Q16">
@@ -3039,7 +3818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="90.75" customHeight="1">
+    <row r="17" ht="90.75" customHeight="1" spans="2:18">
       <c r="B17">
         <v>16110801</v>
       </c>
@@ -3061,45 +3840,45 @@
       <c r="H17">
         <v>0.4</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="14">
         <v>0.15</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="10">
         <f>(E17+F17+([1]Sheet1!$K$26*H17+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G17)/(1-[1]Sheet1!$O$26)/(1-I17)/[1]Sheet1!$N$26</f>
         <v>16.1015730055978</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="11">
         <f>(E17+F17+([1]Sheet1!$K$26*H17+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G17)/(1-[1]Sheet1!$P$26)/(1-I17)/[1]Sheet1!$N$26</f>
-        <v>17.995875712138702</v>
+        <v>17.9958757121387</v>
       </c>
       <c r="L17" s="1">
         <f>E17+F17+([1]Sheet1!$K$26*H17+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>64.36</v>
       </c>
-      <c r="M17" s="11">
+      <c r="M17" s="12">
         <f>L17/(1-G17)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
         <v>13.6863370547581</v>
       </c>
-      <c r="N17" s="11">
+      <c r="N17" s="12">
         <f>L17/(1-G17)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
         <v>15.2964943553179</v>
       </c>
-      <c r="O17" s="11">
+      <c r="O17" s="12">
         <f>L17/(1-G17)/[1]Sheet1!$N$26</f>
         <v>13.0020202020202</v>
       </c>
-      <c r="P17" s="12">
+      <c r="P17" s="13">
         <f>O17*[1]Sheet1!$N$26-L17</f>
-        <v>21.453333333333301</v>
-      </c>
-      <c r="Q17" s="13">
+        <v>21.4533333333333</v>
+      </c>
+      <c r="Q17" s="14">
         <v>0.15</v>
       </c>
-      <c r="R17" s="13">
+      <c r="R17" s="14">
         <v>0.45</v>
       </c>
     </row>
-    <row r="18" spans="2:18" ht="90.75" customHeight="1">
+    <row r="18" ht="90.75" customHeight="1" spans="2:18">
       <c r="B18">
         <v>16110802</v>
       </c>
@@ -3121,45 +3900,45 @@
       <c r="H18">
         <v>0.4</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="14">
         <v>0.15</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="10">
         <f>(E18+F18+([1]Sheet1!$K$26*H18+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G18)/(1-[1]Sheet1!$O$26)/(1-I18)/[1]Sheet1!$N$26</f>
         <v>16.1015730055978</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="11">
         <f>(E18+F18+([1]Sheet1!$K$26*H18+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G18)/(1-[1]Sheet1!$P$26)/(1-I18)/[1]Sheet1!$N$26</f>
-        <v>17.995875712138702</v>
+        <v>17.9958757121387</v>
       </c>
       <c r="L18" s="1">
         <f>E18+F18+([1]Sheet1!$K$26*H18+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>64.36</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M18" s="12">
         <f>L18/(1-G18)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
         <v>13.6863370547581</v>
       </c>
-      <c r="N18" s="11">
+      <c r="N18" s="12">
         <f>L18/(1-G18)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
         <v>15.2964943553179</v>
       </c>
-      <c r="O18" s="11">
+      <c r="O18" s="12">
         <f>L18/(1-G18)/[1]Sheet1!$N$26</f>
         <v>13.0020202020202</v>
       </c>
-      <c r="P18" s="12">
+      <c r="P18" s="13">
         <f>O18*[1]Sheet1!$N$26-L18</f>
-        <v>21.453333333333301</v>
-      </c>
-      <c r="Q18" s="13">
+        <v>21.4533333333333</v>
+      </c>
+      <c r="Q18" s="14">
         <v>0.15</v>
       </c>
-      <c r="R18" s="13">
+      <c r="R18" s="14">
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="2:18" ht="90.75" customHeight="1">
+    <row r="19" ht="90.75" customHeight="1" spans="2:18">
       <c r="B19">
         <v>16110901</v>
       </c>
@@ -3179,34 +3958,34 @@
       <c r="H19">
         <v>0.15</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="14">
         <v>0.5</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="10">
         <f>(E19+F19+([1]Sheet1!$K$26*H19+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G19)/(1-[1]Sheet1!$O$26)/(1-I19)/[1]Sheet1!$N$26</f>
-        <v>16.740031897926599</v>
-      </c>
-      <c r="K19" s="10">
+        <v>16.7400318979266</v>
+      </c>
+      <c r="K19" s="11">
         <f>(E19+F19+([1]Sheet1!$K$26*H19+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G19)/(1-[1]Sheet1!$P$26)/(1-I19)/[1]Sheet1!$N$26</f>
-        <v>18.709447415329802</v>
+        <v>18.7094474153298</v>
       </c>
       <c r="L19" s="1">
         <f>E19+F19+([1]Sheet1!$K$26*H19+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>39.36</v>
       </c>
-      <c r="M19" s="11">
+      <c r="M19" s="12">
         <f>L19/(1-G19)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>8.3700159489633208</v>
-      </c>
-      <c r="N19" s="11">
+        <v>8.37001594896332</v>
+      </c>
+      <c r="N19" s="12">
         <f>L19/(1-G19)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>9.3547237076648795</v>
-      </c>
-      <c r="O19" s="11">
+        <v>9.35472370766488</v>
+      </c>
+      <c r="O19" s="12">
         <f>L19/(1-G19)/[1]Sheet1!$N$26</f>
-        <v>7.9515151515151503</v>
-      </c>
-      <c r="P19" s="12">
+        <v>7.95151515151515</v>
+      </c>
+      <c r="P19" s="13">
         <f>O19*[1]Sheet1!$N$26-L19</f>
         <v>13.12</v>
       </c>
@@ -3217,7 +3996,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:18" ht="90.75" customHeight="1">
+    <row r="20" ht="90.75" customHeight="1" spans="2:18">
       <c r="B20">
         <v>16111001</v>
       </c>
@@ -3237,42 +4016,42 @@
       <c r="H20">
         <v>0.3</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="14">
         <v>0.3</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="10">
         <f>(E20+F20+([1]Sheet1!$K$26*H20+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G20)/(1-[1]Sheet1!$O$26)/(1-I20)/[1]Sheet1!$N$26</f>
-        <v>18.124098124098101</v>
-      </c>
-      <c r="K20" s="10">
+        <v>18.1240981240981</v>
+      </c>
+      <c r="K20" s="11">
         <f>(E20+F20+([1]Sheet1!$K$26*H20+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G20)/(1-[1]Sheet1!$P$26)/(1-I20)/[1]Sheet1!$N$26</f>
-        <v>20.256344962227299</v>
+        <v>20.2563449622273</v>
       </c>
       <c r="L20" s="1">
         <f>E20+F20+([1]Sheet1!$K$26*H20+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>59.66</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M20" s="12">
         <f>L20/(1-G20)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>12.686868686868699</v>
-      </c>
-      <c r="N20" s="11">
+        <v>12.6868686868687</v>
+      </c>
+      <c r="N20" s="12">
         <f>L20/(1-G20)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
         <v>14.1794414735591</v>
       </c>
-      <c r="O20" s="11">
+      <c r="O20" s="12">
         <f>L20/(1-G20)/[1]Sheet1!$N$26</f>
-        <v>12.052525252525299</v>
-      </c>
-      <c r="P20" s="12">
+        <v>12.0525252525253</v>
+      </c>
+      <c r="P20" s="13">
         <f>O20*[1]Sheet1!$N$26-L20</f>
-        <v>19.886666666666699</v>
+        <v>19.8866666666667</v>
       </c>
       <c r="R20">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="2:18" ht="90.75" customHeight="1">
+    <row r="21" ht="90.75" customHeight="1" spans="2:18">
       <c r="B21">
         <v>16111901</v>
       </c>
@@ -3294,14 +4073,14 @@
       <c r="H21">
         <v>0.25</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="14">
         <v>0.45</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="10">
         <f>(E21+F21+([1]Sheet1!$K$26*H21+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G21)/(1-[1]Sheet1!$O$26)/(1-I21)/[1]Sheet1!$N$26</f>
         <v>25.541539799913</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K21" s="11">
         <f>(E21+F21+([1]Sheet1!$K$26*H21+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G21)/(1-[1]Sheet1!$P$26)/(1-I21)/[1]Sheet1!$N$26</f>
         <v>28.5464268351969</v>
       </c>
@@ -3309,19 +4088,19 @@
         <f>E21+F21+([1]Sheet1!$K$26*H21+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>66.06</v>
       </c>
-      <c r="M21" s="11">
+      <c r="M21" s="12">
         <f>L21/(1-G21)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.047846889952201</v>
-      </c>
-      <c r="N21" s="11">
+        <v>14.0478468899522</v>
+      </c>
+      <c r="N21" s="12">
         <f>L21/(1-G21)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
         <v>15.7005347593583</v>
       </c>
-      <c r="O21" s="11">
+      <c r="O21" s="12">
         <f>L21/(1-G21)/[1]Sheet1!$N$26</f>
-        <v>13.345454545454499</v>
-      </c>
-      <c r="P21" s="12">
+        <v>13.3454545454545</v>
+      </c>
+      <c r="P21" s="13">
         <f>O21*[1]Sheet1!$N$26-L21</f>
         <v>22.02</v>
       </c>
@@ -3329,7 +4108,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:18" ht="90.95" customHeight="1">
+    <row r="22" ht="90.95" customHeight="1" spans="2:18">
       <c r="B22">
         <v>16112001</v>
       </c>
@@ -3348,14 +4127,14 @@
       <c r="H22">
         <v>0.25</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="14">
         <v>0.45</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="10">
         <f>(E22+F22+([1]Sheet1!$K$26*H22+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G22)/(1-[1]Sheet1!$O$26)/(1-I22)/[1]Sheet1!$N$26</f>
         <v>25.541539799913</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="11">
         <f>(E22+F22+([1]Sheet1!$K$26*H22+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G22)/(1-[1]Sheet1!$P$26)/(1-I22)/[1]Sheet1!$N$26</f>
         <v>28.5464268351969</v>
       </c>
@@ -3363,19 +4142,19 @@
         <f>E22+F22+([1]Sheet1!$K$26*H22+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>66.06</v>
       </c>
-      <c r="M22" s="11">
+      <c r="M22" s="12">
         <f>L22/(1-G22)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.047846889952201</v>
-      </c>
-      <c r="N22" s="11">
+        <v>14.0478468899522</v>
+      </c>
+      <c r="N22" s="12">
         <f>L22/(1-G22)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
         <v>15.7005347593583</v>
       </c>
-      <c r="O22" s="11">
+      <c r="O22" s="12">
         <f>L22/(1-G22)/[1]Sheet1!$N$26</f>
-        <v>13.345454545454499</v>
-      </c>
-      <c r="P22" s="12">
+        <v>13.3454545454545</v>
+      </c>
+      <c r="P22" s="13">
         <f>O22*[1]Sheet1!$N$26-L22</f>
         <v>22.02</v>
       </c>
@@ -3383,7 +4162,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="2:18" ht="90.95" customHeight="1">
+    <row r="23" ht="90.95" customHeight="1" spans="2:18">
       <c r="B23">
         <v>16112002</v>
       </c>
@@ -3402,34 +4181,34 @@
       <c r="H23">
         <v>0.25</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="14">
         <v>0.45</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="10">
         <f>(E23+F23+([1]Sheet1!$K$26*H23+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G23)/(1-[1]Sheet1!$O$26)/(1-I23)/[1]Sheet1!$N$26</f>
-        <v>27.088105939780601</v>
-      </c>
-      <c r="K23" s="10">
+        <v>27.0881059397806</v>
+      </c>
+      <c r="K23" s="11">
         <f>(E23+F23+([1]Sheet1!$K$26*H23+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G23)/(1-[1]Sheet1!$P$26)/(1-I23)/[1]Sheet1!$N$26</f>
-        <v>30.274941932695899</v>
+        <v>30.2749419326959</v>
       </c>
       <c r="L23" s="1">
         <f>E23+F23+([1]Sheet1!$K$26*H23+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>70.06</v>
       </c>
-      <c r="M23" s="11">
+      <c r="M23" s="12">
         <f>L23/(1-G23)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.898458266879301</v>
-      </c>
-      <c r="N23" s="11">
+        <v>14.8984582668793</v>
+      </c>
+      <c r="N23" s="12">
         <f>L23/(1-G23)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>16.651218062982799</v>
-      </c>
-      <c r="O23" s="11">
+        <v>16.6512180629828</v>
+      </c>
+      <c r="O23" s="12">
         <f>L23/(1-G23)/[1]Sheet1!$N$26</f>
         <v>14.1535353535354</v>
       </c>
-      <c r="P23" s="12">
+      <c r="P23" s="13">
         <f>O23*[1]Sheet1!$N$26-L23</f>
         <v>23.3533333333333</v>
       </c>
@@ -3437,7 +4216,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="2:18" ht="90.75" customHeight="1">
+    <row r="24" ht="90.75" customHeight="1" spans="2:18">
       <c r="B24">
         <v>16112003</v>
       </c>
@@ -3459,14 +4238,14 @@
       <c r="H24">
         <v>0.25</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="14">
         <v>0.45</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="10">
         <f>(E24+F24+([1]Sheet1!$K$26*H24+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G24)/(1-[1]Sheet1!$O$26)/(1-I24)/[1]Sheet1!$N$26</f>
-        <v>25.928181334879898</v>
-      </c>
-      <c r="K24" s="10">
+        <v>25.9281813348799</v>
+      </c>
+      <c r="K24" s="11">
         <f>(E24+F24+([1]Sheet1!$K$26*H24+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G24)/(1-[1]Sheet1!$P$26)/(1-I24)/[1]Sheet1!$N$26</f>
         <v>28.9785556095717</v>
       </c>
@@ -3474,19 +4253,19 @@
         <f>E24+F24+([1]Sheet1!$K$26*H24+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>67.06</v>
       </c>
-      <c r="M24" s="11">
+      <c r="M24" s="12">
         <f>L24/(1-G24)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.260499734183901</v>
-      </c>
-      <c r="N24" s="11">
+        <v>14.2604997341839</v>
+      </c>
+      <c r="N24" s="12">
         <f>L24/(1-G24)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
         <v>15.9382055852644</v>
       </c>
-      <c r="O24" s="11">
+      <c r="O24" s="12">
         <f>L24/(1-G24)/[1]Sheet1!$N$26</f>
         <v>13.5474747474747</v>
       </c>
-      <c r="P24" s="12">
+      <c r="P24" s="13">
         <f>O24*[1]Sheet1!$N$26-L24</f>
         <v>22.3533333333333</v>
       </c>
@@ -3494,7 +4273,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:18" ht="90.75" customHeight="1">
+    <row r="25" ht="90.75" customHeight="1" spans="2:18">
       <c r="B25">
         <v>16112301</v>
       </c>
@@ -3516,34 +4295,34 @@
       <c r="H25">
         <v>0.35</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="14">
         <v>0.4</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="10">
         <f>(E25+F25+([1]Sheet1!$K$26*H25+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G25)/(1-[1]Sheet1!$O$26)/(1-I25)/[1]Sheet1!$N$26</f>
-        <v>24.901648059542801</v>
-      </c>
-      <c r="K25" s="10">
+        <v>24.9016480595428</v>
+      </c>
+      <c r="K25" s="11">
         <f>(E25+F25+([1]Sheet1!$K$26*H25+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G25)/(1-[1]Sheet1!$P$26)/(1-I25)/[1]Sheet1!$N$26</f>
-        <v>27.831253713606699</v>
+        <v>27.8312537136067</v>
       </c>
       <c r="L25" s="1">
         <f>E25+F25+([1]Sheet1!$K$26*H25+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
-        <v>70.260000000000005</v>
-      </c>
-      <c r="M25" s="11">
+        <v>70.26</v>
+      </c>
+      <c r="M25" s="12">
         <f>L25/(1-G25)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.940988835725699</v>
-      </c>
-      <c r="N25" s="11">
+        <v>14.9409888357257</v>
+      </c>
+      <c r="N25" s="12">
         <f>L25/(1-G25)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
         <v>16.698752228164</v>
       </c>
-      <c r="O25" s="11">
+      <c r="O25" s="12">
         <f>L25/(1-G25)/[1]Sheet1!$N$26</f>
-        <v>14.193939393939401</v>
-      </c>
-      <c r="P25" s="12">
+        <v>14.1939393939394</v>
+      </c>
+      <c r="P25" s="13">
         <f>O25*[1]Sheet1!$N$26-L25</f>
         <v>23.42</v>
       </c>
@@ -3551,7 +4330,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="2:18" ht="90.75" customHeight="1">
+    <row r="26" ht="90.75" customHeight="1" spans="2:18">
       <c r="B26">
         <v>16112302</v>
       </c>
@@ -3573,34 +4352,34 @@
       <c r="H26">
         <v>0.25</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="14">
         <v>0.4</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="10">
         <f>(E26+F26+([1]Sheet1!$K$26*H26+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G26)/(1-[1]Sheet1!$O$26)/(1-I26)/[1]Sheet1!$N$26</f>
         <v>22.3498139287613</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K26" s="11">
         <f>(E26+F26+([1]Sheet1!$K$26*H26+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G26)/(1-[1]Sheet1!$P$26)/(1-I26)/[1]Sheet1!$N$26</f>
-        <v>24.979203802733199</v>
+        <v>24.9792038027332</v>
       </c>
       <c r="L26" s="1">
         <f>E26+F26+([1]Sheet1!$K$26*H26+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>63.06</v>
       </c>
-      <c r="M26" s="11">
+      <c r="M26" s="12">
         <f>L26/(1-G26)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>13.409888357256801</v>
-      </c>
-      <c r="N26" s="11">
+        <v>13.4098883572568</v>
+      </c>
+      <c r="N26" s="12">
         <f>L26/(1-G26)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>14.987522281639899</v>
-      </c>
-      <c r="O26" s="11">
+        <v>14.9875222816399</v>
+      </c>
+      <c r="O26" s="12">
         <f>L26/(1-G26)/[1]Sheet1!$N$26</f>
-        <v>12.739393939393899</v>
-      </c>
-      <c r="P26" s="12">
+        <v>12.7393939393939</v>
+      </c>
+      <c r="P26" s="13">
         <f>O26*[1]Sheet1!$N$26-L26</f>
         <v>21.02</v>
       </c>
@@ -3608,7 +4387,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="2:18" ht="90.75" customHeight="1">
+    <row r="27" ht="90.75" customHeight="1" spans="2:18">
       <c r="B27">
         <v>16112401</v>
       </c>
@@ -3630,36 +4409,36 @@
       <c r="H27">
         <v>0.22</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="14">
         <v>0.3</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="10">
         <f>(E27+F27+([1]Sheet1!$K$26*H27+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G27)/(1-[1]Sheet1!$O$26)/(1-I27)/[1]Sheet1!$N$26</f>
-        <v>19.017240069871701</v>
-      </c>
-      <c r="K27" s="10">
+        <v>19.0172400698717</v>
+      </c>
+      <c r="K27" s="11">
         <f>(E27+F27+([1]Sheet1!$K$26*H27+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G27)/(1-[1]Sheet1!$P$26)/(1-I27)/[1]Sheet1!$N$26</f>
-        <v>21.254562431033001</v>
+        <v>21.254562431033</v>
       </c>
       <c r="L27" s="1">
         <f>E27+F27+([1]Sheet1!$K$26*H27+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>62.6</v>
       </c>
-      <c r="M27" s="11">
+      <c r="M27" s="12">
         <f>L27/(1-G27)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
         <v>13.3120680489102</v>
       </c>
-      <c r="N27" s="11">
+      <c r="N27" s="12">
         <f>L27/(1-G27)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>14.878193701723101</v>
-      </c>
-      <c r="O27" s="11">
+        <v>14.8781937017231</v>
+      </c>
+      <c r="O27" s="12">
         <f>L27/(1-G27)/[1]Sheet1!$N$26</f>
-        <v>12.646464646464599</v>
-      </c>
-      <c r="P27" s="12">
+        <v>12.6464646464646</v>
+      </c>
+      <c r="P27" s="13">
         <f>O27*[1]Sheet1!$N$26-L27</f>
-        <v>20.866666666666699</v>
+        <v>20.8666666666667</v>
       </c>
       <c r="Q27">
         <v>40</v>
@@ -3668,7 +4447,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="2:18" ht="90.75" customHeight="1">
+    <row r="28" ht="90.75" customHeight="1" spans="2:18">
       <c r="B28">
         <v>16112501</v>
       </c>
@@ -3690,34 +4469,34 @@
       <c r="H28">
         <v>0.45</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I28" s="14">
         <v>0.45</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="10">
         <f>(E28+F28+([1]Sheet1!$K$26*H28+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G28)/(1-[1]Sheet1!$O$26)/(1-I28)/[1]Sheet1!$N$26</f>
         <v>28.0160456237011</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K28" s="11">
         <f>(E28+F28+([1]Sheet1!$K$26*H28+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G28)/(1-[1]Sheet1!$P$26)/(1-I28)/[1]Sheet1!$N$26</f>
-        <v>31.312050991195399</v>
+        <v>31.3120509911954</v>
       </c>
       <c r="L28" s="1">
         <f>E28+F28+([1]Sheet1!$K$26*H28+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
-        <v>72.459999999999994</v>
-      </c>
-      <c r="M28" s="11">
+        <v>72.46</v>
+      </c>
+      <c r="M28" s="12">
         <f>L28/(1-G28)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>15.408825093035601</v>
-      </c>
-      <c r="N28" s="11">
+        <v>15.4088250930356</v>
+      </c>
+      <c r="N28" s="12">
         <f>L28/(1-G28)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>17.221628045157502</v>
-      </c>
-      <c r="O28" s="11">
+        <v>17.2216280451575</v>
+      </c>
+      <c r="O28" s="12">
         <f>L28/(1-G28)/[1]Sheet1!$N$26</f>
-        <v>14.638383838383801</v>
-      </c>
-      <c r="P28" s="12">
+        <v>14.6383838383838</v>
+      </c>
+      <c r="P28" s="13">
         <f>O28*[1]Sheet1!$N$26-L28</f>
         <v>24.1533333333333</v>
       </c>
@@ -3728,7 +4507,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="2:18" ht="90.75" customHeight="1">
+    <row r="29" ht="90.75" customHeight="1" spans="2:18">
       <c r="B29">
         <v>16112801</v>
       </c>
@@ -3750,34 +4529,34 @@
       <c r="H29">
         <v>0.45</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I29" s="14">
         <v>0.25</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="10">
         <f>(E29+F29+([1]Sheet1!$K$26*H29+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G29)/(1-[1]Sheet1!$O$26)/(1-I29)/[1]Sheet1!$N$26</f>
-        <v>21.112174375332302</v>
-      </c>
-      <c r="K29" s="10">
+        <v>21.1121743753323</v>
+      </c>
+      <c r="K29" s="11">
         <f>(E29+F29+([1]Sheet1!$K$26*H29+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G29)/(1-[1]Sheet1!$P$26)/(1-I29)/[1]Sheet1!$N$26</f>
-        <v>23.595959595959599</v>
+        <v>23.5959595959596</v>
       </c>
       <c r="L29" s="1">
         <f>E29+F29+([1]Sheet1!$K$26*H29+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
-        <v>74.459999999999994</v>
-      </c>
-      <c r="M29" s="11">
+        <v>74.46</v>
+      </c>
+      <c r="M29" s="12">
         <f>L29/(1-G29)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
         <v>15.8341307814992</v>
       </c>
-      <c r="N29" s="11">
+      <c r="N29" s="12">
         <f>L29/(1-G29)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>17.696969696969699</v>
-      </c>
-      <c r="O29" s="11">
+        <v>17.6969696969697</v>
+      </c>
+      <c r="O29" s="12">
         <f>L29/(1-G29)/[1]Sheet1!$N$26</f>
         <v>15.0424242424242</v>
       </c>
-      <c r="P29" s="12">
+      <c r="P29" s="13">
         <f>O29*[1]Sheet1!$N$26-L29</f>
         <v>24.82</v>
       </c>
@@ -3788,7 +4567,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="2:18" ht="90.75" customHeight="1">
+    <row r="30" ht="90.75" customHeight="1" spans="2:18">
       <c r="B30">
         <v>16112901</v>
       </c>
@@ -3810,14 +4589,14 @@
       <c r="H30">
         <v>0.4</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I30" s="14">
         <v>0.45</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="10">
         <f>(E30+F30+([1]Sheet1!$K$26*H30+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G30)/(1-[1]Sheet1!$O$26)/(1-I30)/[1]Sheet1!$N$26</f>
         <v>26.04417379537</v>
       </c>
-      <c r="K30" s="10">
+      <c r="K30" s="11">
         <f>(E30+F30+([1]Sheet1!$K$26*H30+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G30)/(1-[1]Sheet1!$P$26)/(1-I30)/[1]Sheet1!$N$26</f>
         <v>29.1081942418841</v>
       </c>
@@ -3825,21 +4604,21 @@
         <f>E30+F30+([1]Sheet1!$K$26*H30+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>67.36</v>
       </c>
-      <c r="M30" s="11">
+      <c r="M30" s="12">
         <f>L30/(1-G30)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
         <v>14.3242955874535</v>
       </c>
-      <c r="N30" s="11">
+      <c r="N30" s="12">
         <f>L30/(1-G30)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>16.009506833036198</v>
-      </c>
-      <c r="O30" s="11">
+        <v>16.0095068330362</v>
+      </c>
+      <c r="O30" s="12">
         <f>L30/(1-G30)/[1]Sheet1!$N$26</f>
         <v>13.6080808080808</v>
       </c>
-      <c r="P30" s="12">
+      <c r="P30" s="13">
         <f>O30*[1]Sheet1!$N$26-L30</f>
-        <v>22.453333333333301</v>
+        <v>22.4533333333333</v>
       </c>
       <c r="Q30">
         <v>30</v>
@@ -3848,7 +4627,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="2:18" ht="90.75" customHeight="1">
+    <row r="31" ht="90.75" customHeight="1" spans="2:18">
       <c r="B31">
         <v>16113001</v>
       </c>
@@ -3870,14 +4649,14 @@
       <c r="H31">
         <v>0.25</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I31" s="14">
         <v>0.2</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="10">
         <f>(E31+F31+([1]Sheet1!$K$26*H31+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G31)/(1-[1]Sheet1!$O$26)/(1-I31)/[1]Sheet1!$N$26</f>
         <v>12.5093035619351</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K31" s="11">
         <f>(E31+F31+([1]Sheet1!$K$26*H31+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G31)/(1-[1]Sheet1!$P$26)/(1-I31)/[1]Sheet1!$N$26</f>
         <v>13.9809863339275</v>
       </c>
@@ -3885,21 +4664,21 @@
         <f>E31+F31+([1]Sheet1!$K$26*H31+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>47.06</v>
       </c>
-      <c r="M31" s="11">
+      <c r="M31" s="12">
         <f>L31/(1-G31)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
         <v>10.0074428495481</v>
       </c>
-      <c r="N31" s="11">
+      <c r="N31" s="12">
         <f>L31/(1-G31)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>11.184789067142001</v>
-      </c>
-      <c r="O31" s="11">
+        <v>11.184789067142</v>
+      </c>
+      <c r="O31" s="12">
         <f>L31/(1-G31)/[1]Sheet1!$N$26</f>
-        <v>9.5070707070707101</v>
-      </c>
-      <c r="P31" s="12">
+        <v>9.50707070707071</v>
+      </c>
+      <c r="P31" s="13">
         <f>O31*[1]Sheet1!$N$26-L31</f>
-        <v>15.686666666666699</v>
+        <v>15.6866666666667</v>
       </c>
       <c r="Q31">
         <v>20</v>
@@ -3908,14 +4687,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="2:18" ht="90.75" customHeight="1">
+    <row r="32" ht="90.75" customHeight="1" spans="2:18">
       <c r="B32">
         <v>16113002</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="8" t="s">
         <v>54</v>
       </c>
       <c r="E32">
@@ -3930,14 +4709,14 @@
       <c r="H32">
         <v>0.2</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I32" s="14">
         <v>0.4</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="10">
         <f>(E32+F32+([1]Sheet1!$K$26*H32+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G32)/(1-[1]Sheet1!$O$26)/(1-I32)/[1]Sheet1!$N$26</f>
-        <v>17.706893496367201</v>
-      </c>
-      <c r="K32" s="10">
+        <v>17.7068934963672</v>
+      </c>
+      <c r="K32" s="11">
         <f>(E32+F32+([1]Sheet1!$K$26*H32+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G32)/(1-[1]Sheet1!$P$26)/(1-I32)/[1]Sheet1!$N$26</f>
         <v>19.7900574371163</v>
       </c>
@@ -3945,19 +4724,19 @@
         <f>E32+F32+([1]Sheet1!$K$26*H32+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>49.96</v>
       </c>
-      <c r="M32" s="11">
+      <c r="M32" s="12">
         <f>L32/(1-G32)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>10.624136097820299</v>
-      </c>
-      <c r="N32" s="11">
+        <v>10.6241360978203</v>
+      </c>
+      <c r="N32" s="12">
         <f>L32/(1-G32)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>11.874034462269799</v>
-      </c>
-      <c r="O32" s="11">
+        <v>11.8740344622698</v>
+      </c>
+      <c r="O32" s="12">
         <f>L32/(1-G32)/[1]Sheet1!$N$26</f>
         <v>10.0929292929293</v>
       </c>
-      <c r="P32" s="12">
+      <c r="P32" s="13">
         <f>O32*[1]Sheet1!$N$26-L32</f>
         <v>16.6533333333333</v>
       </c>
@@ -3968,7 +4747,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="2:18" ht="90.75" customHeight="1">
+    <row r="33" ht="90.75" customHeight="1" spans="2:18">
       <c r="B33">
         <v>16113003</v>
       </c>
@@ -3990,36 +4769,36 @@
       <c r="H33">
         <v>0.3</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I33" s="14">
         <v>0.45</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="10">
         <f>(E33+F33+([1]Sheet1!$K$26*H33+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G33)/(1-[1]Sheet1!$O$26)/(1-I33)/[1]Sheet1!$N$26</f>
-        <v>25.580203953409701</v>
-      </c>
-      <c r="K33" s="10">
+        <v>25.5802039534097</v>
+      </c>
+      <c r="K33" s="11">
         <f>(E33+F33+([1]Sheet1!$K$26*H33+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G33)/(1-[1]Sheet1!$P$26)/(1-I33)/[1]Sheet1!$N$26</f>
-        <v>28.589639712634401</v>
+        <v>28.5896397126344</v>
       </c>
       <c r="L33" s="1">
         <f>E33+F33+([1]Sheet1!$K$26*H33+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>66.16</v>
       </c>
-      <c r="M33" s="11">
+      <c r="M33" s="12">
         <f>L33/(1-G33)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
         <v>14.0691121743753</v>
       </c>
-      <c r="N33" s="11">
+      <c r="N33" s="12">
         <f>L33/(1-G33)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
         <v>15.7243018419489</v>
       </c>
-      <c r="O33" s="11">
+      <c r="O33" s="12">
         <f>L33/(1-G33)/[1]Sheet1!$N$26</f>
         <v>13.3656565656566</v>
       </c>
-      <c r="P33" s="12">
+      <c r="P33" s="13">
         <f>O33*[1]Sheet1!$N$26-L33</f>
-        <v>22.053333333333299</v>
+        <v>22.0533333333333</v>
       </c>
       <c r="Q33">
         <v>45</v>
@@ -4028,14 +4807,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="2:18" ht="90.75" customHeight="1">
+    <row r="34" ht="90.75" customHeight="1" spans="2:18">
       <c r="B34">
         <v>16113004</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="8" t="s">
         <v>55</v>
       </c>
       <c r="E34">
@@ -4050,36 +4829,36 @@
       <c r="H34">
         <v>0.3</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I34" s="14">
         <v>0.25</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34" s="10">
         <f>(E34+F34+([1]Sheet1!$K$26*H34+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G34)/(1-[1]Sheet1!$O$26)/(1-I34)/[1]Sheet1!$N$26</f>
-        <v>19.609427609427609</v>
-      </c>
-      <c r="K34" s="10">
+        <v>19.6094276094276</v>
+      </c>
+      <c r="K34" s="11">
         <f>(E34+F34+([1]Sheet1!$K$26*H34+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G34)/(1-[1]Sheet1!$P$26)/(1-I34)/[1]Sheet1!$N$26</f>
-        <v>21.916419092889683</v>
+        <v>21.9164190928897</v>
       </c>
       <c r="L34" s="1">
         <f>E34+F34+([1]Sheet1!$K$26*H34+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>69.16</v>
       </c>
-      <c r="M34" s="11">
+      <c r="M34" s="12">
         <f>L34/(1-G34)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.707070707070708</v>
-      </c>
-      <c r="N34" s="11">
+        <v>14.7070707070707</v>
+      </c>
+      <c r="N34" s="12">
         <f>L34/(1-G34)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>16.437314319667262</v>
-      </c>
-      <c r="O34" s="11">
+        <v>16.4373143196673</v>
+      </c>
+      <c r="O34" s="12">
         <f>L34/(1-G34)/[1]Sheet1!$N$26</f>
-        <v>13.97171717171717</v>
-      </c>
-      <c r="P34" s="12">
+        <v>13.9717171717172</v>
+      </c>
+      <c r="P34" s="13">
         <f>O34*[1]Sheet1!$N$26-L34</f>
-        <v>23.053333333333327</v>
+        <v>23.0533333333333</v>
       </c>
       <c r="Q34">
         <v>45</v>
@@ -4088,56 +4867,293 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="2:18">
-      <c r="K37" s="14" t="s">
+    <row r="35" ht="90.75" customHeight="1" spans="2:18">
+      <c r="B35">
+        <v>16120201</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="L37" s="14" t="s">
+      <c r="E35">
+        <v>24</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H35">
+        <v>0.3</v>
+      </c>
+      <c r="I35" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="J35" s="10">
+        <f>(E35+F35+([1]Sheet1!$K$26*H35+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G35)/(1-[1]Sheet1!$O$26)/(1-I35)/[1]Sheet1!$N$26</f>
+        <v>15.725677830941</v>
+      </c>
+      <c r="K35" s="11">
+        <f>(E35+F35+([1]Sheet1!$K$26*H35+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G35)/(1-[1]Sheet1!$P$26)/(1-I35)/[1]Sheet1!$N$26</f>
+        <v>17.5757575757576</v>
+      </c>
+      <c r="L35" s="1">
+        <f>E35+F35+([1]Sheet1!$K$26*H35+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
+        <v>59.16</v>
+      </c>
+      <c r="M35" s="12">
+        <f>L35/(1-G35)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
+        <v>12.5805422647528</v>
+      </c>
+      <c r="N35" s="12">
+        <f>L35/(1-G35)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
+        <v>14.0606060606061</v>
+      </c>
+      <c r="O35" s="12">
+        <f>L35/(1-G35)/[1]Sheet1!$N$26</f>
+        <v>11.9515151515152</v>
+      </c>
+      <c r="P35" s="13">
+        <f>O35*[1]Sheet1!$N$26-L35</f>
+        <v>19.72</v>
+      </c>
+      <c r="R35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" ht="90.75" customHeight="1" spans="2:17">
+      <c r="B36">
+        <v>16120301</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="M37" s="14" t="s">
+      <c r="E36">
+        <v>28</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H36">
+        <v>0.3</v>
+      </c>
+      <c r="I36" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="J36" s="10">
+        <f>(E36+F36+([1]Sheet1!$K$26*H36+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G36)/(1-[1]Sheet1!$O$26)/(1-I36)/[1]Sheet1!$N$26</f>
+        <v>24.0336378135421</v>
+      </c>
+      <c r="K36" s="11">
+        <f>(E36+F36+([1]Sheet1!$K$26*H36+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G36)/(1-[1]Sheet1!$P$26)/(1-I36)/[1]Sheet1!$N$26</f>
+        <v>26.8611246151353</v>
+      </c>
+      <c r="L36" s="1">
+        <f>E36+F36+([1]Sheet1!$K$26*H36+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
+        <v>62.16</v>
+      </c>
+      <c r="M36" s="12">
+        <f>L36/(1-G36)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
+        <v>13.2185007974482</v>
+      </c>
+      <c r="N36" s="12">
+        <f>L36/(1-G36)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
+        <v>14.7736185383244</v>
+      </c>
+      <c r="O36" s="12">
+        <f>L36/(1-G36)/[1]Sheet1!$N$26</f>
+        <v>12.5575757575758</v>
+      </c>
+      <c r="P36" s="13">
+        <f>O36*[1]Sheet1!$N$26-L36</f>
+        <v>20.72</v>
+      </c>
+      <c r="Q36">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" ht="90.75" customHeight="1" spans="2:17">
+      <c r="B37">
+        <v>16120302</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="N37" s="14" t="s">
+      <c r="E37">
+        <v>6</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H37">
+        <v>0.15</v>
+      </c>
+      <c r="I37" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="J37" s="10">
+        <f>(E37+F37+([1]Sheet1!$K$26*H37+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G37)/(1-[1]Sheet1!$O$26)/(1-I37)/[1]Sheet1!$N$26</f>
+        <v>7.1398192450824</v>
+      </c>
+      <c r="K37" s="11">
+        <f>(E37+F37+([1]Sheet1!$K$26*H37+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G37)/(1-[1]Sheet1!$P$26)/(1-I37)/[1]Sheet1!$N$26</f>
+        <v>7.97979797979798</v>
+      </c>
+      <c r="L37" s="1">
+        <f>E37+F37+([1]Sheet1!$K$26*H37+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
+        <v>26.86</v>
+      </c>
+      <c r="M37" s="12">
+        <f>L37/(1-G37)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
+        <v>5.71185539606592</v>
+      </c>
+      <c r="N37" s="12">
+        <f>L37/(1-G37)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
+        <v>6.38383838383838</v>
+      </c>
+      <c r="O37" s="12">
+        <f>L37/(1-G37)/[1]Sheet1!$N$26</f>
+        <v>5.42626262626263</v>
+      </c>
+      <c r="P37" s="13">
+        <f>O37*[1]Sheet1!$N$26-L37</f>
+        <v>8.95333333333333</v>
+      </c>
+      <c r="Q37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" ht="90.75" customHeight="1" spans="2:18">
+      <c r="B38">
+        <v>16120401</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="O37" s="14" t="s">
+      <c r="E38">
+        <v>21</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H38">
+        <v>0.1</v>
+      </c>
+      <c r="I38" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="J38" s="10">
+        <f>(E38+F38+([1]Sheet1!$K$26*H38+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G38)/(1-[1]Sheet1!$O$26)/(1-I38)/[1]Sheet1!$N$26</f>
+        <v>16.0595427963849</v>
+      </c>
+      <c r="K38" s="11">
+        <f>(E38+F38+([1]Sheet1!$K$26*H38+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G38)/(1-[1]Sheet1!$P$26)/(1-I38)/[1]Sheet1!$N$26</f>
+        <v>17.9489007724302</v>
+      </c>
+      <c r="L38" s="1">
+        <f>E38+F38+([1]Sheet1!$K$26*H38+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
+        <v>37.76</v>
+      </c>
+      <c r="M38" s="12">
+        <f>L38/(1-G38)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
+        <v>8.02977139819245</v>
+      </c>
+      <c r="N38" s="12">
+        <f>L38/(1-G38)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
+        <v>8.97445038621509</v>
+      </c>
+      <c r="O38" s="12">
+        <f>L38/(1-G38)/[1]Sheet1!$N$26</f>
+        <v>7.62828282828283</v>
+      </c>
+      <c r="P38" s="13">
+        <f>O38*[1]Sheet1!$N$26-L38</f>
+        <v>12.5866666666667</v>
+      </c>
+      <c r="Q38">
+        <v>20</v>
+      </c>
+      <c r="R38">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" ht="90.75" customHeight="1" spans="3:16">
+      <c r="C39" s="1"/>
+      <c r="D39" s="6"/>
+      <c r="G39" s="3"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="13"/>
+    </row>
+    <row r="41" spans="11:16">
+      <c r="K41" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="P37" s="14" t="s">
+      <c r="L41" s="15" t="s">
         <v>61</v>
       </c>
+      <c r="M41" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="N41" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="O41" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="P41" s="15" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="38" spans="2:18">
-      <c r="K38" s="15">
+    <row r="42" spans="11:16">
+      <c r="K42" s="16">
         <v>100</v>
       </c>
-      <c r="L38" s="13">
+      <c r="L42" s="14">
         <v>0.82</v>
       </c>
-      <c r="M38">
+      <c r="M42">
         <v>8</v>
       </c>
-      <c r="N38">
+      <c r="N42">
         <v>6.6</v>
       </c>
-      <c r="O38" s="13">
+      <c r="O42" s="14">
         <v>0.05</v>
       </c>
-      <c r="P38" s="13">
+      <c r="P42" s="14">
         <v>0.15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"爬爬服"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27 C29:C30 C2:C16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27 C2:C16 C29:C30">
       <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子,裤子"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28 C17:C21 C24:C26 C31:C34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28 C35 C36 C37 C38 C39 C17:C21 C24:C26 C31:C34">
       <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q6 R2:R4">
@@ -4145,66 +5161,75 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D6" r:id="rId3"/>
-    <hyperlink ref="S6" r:id="rId4"/>
-    <hyperlink ref="D8" r:id="rId5"/>
-    <hyperlink ref="D9" r:id="rId6"/>
-    <hyperlink ref="D10" r:id="rId7"/>
-    <hyperlink ref="D11" r:id="rId8"/>
-    <hyperlink ref="D12" r:id="rId9"/>
-    <hyperlink ref="D13" r:id="rId10"/>
-    <hyperlink ref="D14" r:id="rId11"/>
-    <hyperlink ref="D15" r:id="rId12"/>
-    <hyperlink ref="D16" r:id="rId13"/>
-    <hyperlink ref="D19" r:id="rId14"/>
-    <hyperlink ref="D20" r:id="rId15"/>
-    <hyperlink ref="D21" r:id="rId16"/>
-    <hyperlink ref="D22" r:id="rId17"/>
-    <hyperlink ref="D23" r:id="rId18" tooltip="https://detail.1688.com/offer/542005628301.html?spm=a2615.7691456.0.0.E27Va6"/>
-    <hyperlink ref="D24" r:id="rId19"/>
-    <hyperlink ref="D25" r:id="rId20"/>
-    <hyperlink ref="D26" r:id="rId21" tooltip="https://detail.1688.com/offer/535604104982.html?spm=a2615.7691456.0.0.ceDRcB"/>
-    <hyperlink ref="D18" r:id="rId22"/>
-    <hyperlink ref="D28" r:id="rId23"/>
-    <hyperlink ref="D29" r:id="rId24"/>
-    <hyperlink ref="D30" r:id="rId25"/>
-    <hyperlink ref="D31" r:id="rId26"/>
-    <hyperlink ref="D32" r:id="rId27"/>
-    <hyperlink ref="D33" r:id="rId28"/>
-    <hyperlink ref="D34" r:id="rId29"/>
+    <hyperlink ref="D5" r:id="rId2" display="https://detail.1688.com/offer/43388465240.html?spm=a2615.7691456.0.0.SVo0SF"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://detail.1688.com/offer/532946594199.html?spm=a2615.7691456.0.0.KfqxAP"/>
+    <hyperlink ref="D6" r:id="rId4" display="https://item.taobao.com/item.htm?spm=a230r.1.0.0.NVkYXr&amp;id=535812571550&amp;ns=1#detail"/>
+    <hyperlink ref="S6" r:id="rId4" display="https://item.taobao.com/item.htm?spm=a230r.1.0.0.NVkYXr&amp;id=535812571550&amp;ns=1#detail"/>
+    <hyperlink ref="D8" r:id="rId5" display="https://detail.1688.com/offer/521926765457.html?spm=a2615.7691456.0.0.Iw9wYb"/>
+    <hyperlink ref="D9" r:id="rId6" display="https://detail.1688.com/offer/539601777542.html?spm=b26110380.8015204.1688002.1.tV3mIo"/>
+    <hyperlink ref="D10" r:id="rId7" display="https://detail.1688.com/offer/534650922032.html"/>
+    <hyperlink ref="D11" r:id="rId8" display="https://detail.1688.com/offer/525196220868.html?spm=b26110380.8015204.xshy005.911.FMmHAe"/>
+    <hyperlink ref="D12" r:id="rId9" display="https://detail.1688.com/offer/525739109360.html?spm=b26110380.sw311.0.0.2w3SJa"/>
+    <hyperlink ref="D13" r:id="rId10" display="https://detail.1688.com/offer/536964765017.html?spm=b26110380.8015204.1688002.2.0qEfTf"/>
+    <hyperlink ref="D14" r:id="rId11" display="https://detail.1688.com/offer/523084291442.html?spm=b26110380.8015204.tkhy006.2.7zxqcs"/>
+    <hyperlink ref="D15" r:id="rId12" display="https://detail.1688.com/offer/539464650849.html?spm=b26110380.8015204.tkhy006.13.LriGRm"/>
+    <hyperlink ref="D16" r:id="rId13" display="https://detail.1688.com/offer/539024831638.html?spm=a2615.7691456.0.0.erl0H2"/>
+    <hyperlink ref="D19" r:id="rId14" display="https://detail.1688.com/offer/37436493140.html?spm=a261y.7663282.0.0.Bdoqfg"/>
+    <hyperlink ref="D20" r:id="rId15" display="https://detail.1688.com/offer/525328573875.html?spm=a2615.2177701.0.0.inGNvk"/>
+    <hyperlink ref="D21" r:id="rId16" display="https://detail.1688.com/offer/531099455627.html?spm=b26110380.sw311.0.0.NlP3tV"/>
+    <hyperlink ref="D22" r:id="rId17" display="https://detail.1688.com/offer/539748592006.html?spm=a2615.7691456.0.0.gzA0aC"/>
+    <hyperlink ref="D23" r:id="rId18" display="https://detail.1688.com/offer/542005628301.html?spm=a2615.7691456.0.0.E27Va6" tooltip="https://detail.1688.com/offer/542005628301.html?spm=a2615.7691456.0.0.E27Va6"/>
+    <hyperlink ref="D24" r:id="rId16" display="https://detail.1688.com/offer/531099455627.html?spm=b26110380.sw311.0.0.NlP3tV"/>
+    <hyperlink ref="D25" r:id="rId19" display="https://detail.1688.com/offer/537712350771.html?spm=a261y.7663282.0.0.HGrgRG&amp;sk=consign"/>
+    <hyperlink ref="D26" r:id="rId20" display="https://detail.1688.com/offer/535604104982.html?spm=a2615.7691456.0.0.ceDRcB" tooltip="https://detail.1688.com/offer/535604104982.html?spm=a2615.7691456.0.0.ceDRcB"/>
+    <hyperlink ref="D18" r:id="rId21" display="https://detail.1688.com/offer/537572849225.html?spm=a2615.7691456.0.0.0jr1X8"/>
+    <hyperlink ref="D28" r:id="rId22" display="https://detail.1688.com/offer/538358020263.html?spm=a2615.7691456.0.0.BXbA7w"/>
+    <hyperlink ref="D29" r:id="rId23" display="https://detail.1688.com/offer/536605241945.html?spm=b26110380.8015204.xshy005.79.X6yxQK"/>
+    <hyperlink ref="D30" r:id="rId24" display="https://detail.1688.com/offer/522617209176.html?spm=0.0.0.0.OkHehB&amp;sk=consign"/>
+    <hyperlink ref="D31" r:id="rId25" display="https://detail.1688.com/offer/536564720843.html?spm=a261y.7663282.0.0.CfpkXA&amp;sk=consign"/>
+    <hyperlink ref="D32" r:id="rId26" display="https://detail.1688.com/offer/522866160965.html?spm=b26110380.8015204.1688002.2.oTUzYR" tooltip="https://detail.1688.com/offer/522866160965.html?spm=b26110380.8015204.1688002.2.oTUzYR"/>
+    <hyperlink ref="D33" r:id="rId27" display="https://detail.1688.com/offer/537733197961.html?spm=b26110380.8015204.tkhy006.2.6IBVa5"/>
+    <hyperlink ref="D34" r:id="rId27" display="https://detail.1688.com/offer/537733197961.html?spm=b26110380.8015204.tkhy006.2.6IBVa5"/>
+    <hyperlink ref="D37" r:id="rId28" display="https://detail.1688.com/offer/39363390916.html?spm=b26110380.sw56474001.0.0.AOuyqk"/>
+    <hyperlink ref="D38" r:id="rId29" display="https://detail.1688.com/offer/523975460031.html?spm=b26110380.8015204.1688002.1.dPdaJX"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <drawing r:id="rId30"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/产品表单.xlsx
+++ b/产品表单.xlsx
@@ -227,14 +227,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="176" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -270,20 +270,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -298,9 +290,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,14 +359,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,54 +398,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,7 +420,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,7 +534,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,73 +570,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,79 +600,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,17 +611,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -636,6 +625,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,6 +659,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -669,15 +684,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,17 +703,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,10 +719,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -731,16 +731,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -749,119 +749,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -874,43 +874,40 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2826,12 +2823,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S42"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
+      <selection pane="bottomLeft" activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2935,32 +2932,32 @@
       <c r="I2" s="3">
         <v>0.15</v>
       </c>
-      <c r="J2" s="10">
-        <f t="shared" ref="J2:J14" si="0">(E2+F2+($K$42*H2+$M$42)*$L$42)/(1-G2)/(1-$O$42)/(1-I2)/$N$42</f>
+      <c r="J2" s="9">
+        <f t="shared" ref="J2:J14" si="0">(E2+F2+($K$43*H2+$M$43)*$L$43)/(1-G2)/(1-$O$43)/(1-I2)/$N$43</f>
         <v>16.5518966757357</v>
       </c>
-      <c r="K2" s="11">
-        <f t="shared" ref="K2:K14" si="1">(E2+F2+($K$42*H2+$M$42)*$L$42)/(1-G2)/(1-$P$42)/(1-I2)/$N$42</f>
+      <c r="K2" s="10">
+        <f t="shared" ref="K2:K14" si="1">(E2+F2+($K$43*H2+$M$43)*$L$43)/(1-G2)/(1-$P$43)/(1-I2)/$N$43</f>
         <v>18.4991786375869</v>
       </c>
       <c r="L2" s="1">
-        <f t="shared" ref="L2:L14" si="2">E2+F2+($K$42*H2+$M$42)*$L$42</f>
+        <f t="shared" ref="L2:L14" si="2">E2+F2+($K$43*H2+$M$43)*$L$43</f>
         <v>66.16</v>
       </c>
-      <c r="M2" s="12">
-        <f t="shared" ref="M2:M14" si="3">L2/(1-G2)/(1-$O$42)/$N$42</f>
+      <c r="M2" s="11">
+        <f t="shared" ref="M2:M14" si="3">L2/(1-G2)/(1-$O$43)/$N$43</f>
         <v>14.0691121743753</v>
       </c>
-      <c r="N2" s="12">
-        <f t="shared" ref="N2:N14" si="4">L2/(1-G2)/(1-$P$42)/$N$42</f>
+      <c r="N2" s="11">
+        <f t="shared" ref="N2:N14" si="4">L2/(1-G2)/(1-$P$43)/$N$43</f>
         <v>15.7243018419489</v>
       </c>
-      <c r="O2" s="12">
-        <f>L2/(1-G2)/$N$42</f>
+      <c r="O2" s="11">
+        <f>L2/(1-G2)/$N$43</f>
         <v>13.3656565656566</v>
       </c>
-      <c r="P2" s="13">
-        <f>O2*$N$42-L2</f>
+      <c r="P2" s="12">
+        <f>O2*$N$43-L2</f>
         <v>22.0533333333333</v>
       </c>
       <c r="Q2" s="1">
@@ -2996,11 +2993,11 @@
       <c r="I3" s="3">
         <v>0.25</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="9">
         <f t="shared" si="0"/>
         <v>10.7630692893851</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="10">
         <f t="shared" si="1"/>
         <v>12.0293127351951</v>
       </c>
@@ -3008,20 +3005,20 @@
         <f t="shared" si="2"/>
         <v>37.96</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="11">
         <f t="shared" si="3"/>
         <v>8.07230196703881</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="11">
         <f t="shared" si="4"/>
         <v>9.02198455139632</v>
       </c>
-      <c r="O3" s="12">
-        <f>L3/(1-G3)/$N$42</f>
+      <c r="O3" s="11">
+        <f>L3/(1-G3)/$N$43</f>
         <v>7.66868686868687</v>
       </c>
-      <c r="P3" s="13">
-        <f>O3*$N$42-L3</f>
+      <c r="P3" s="12">
+        <f>O3*$N$43-L3</f>
         <v>12.6533333333333</v>
       </c>
       <c r="Q3" s="1">
@@ -3057,11 +3054,11 @@
       <c r="I4" s="3">
         <v>0.3</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
         <f t="shared" si="0"/>
         <v>18.8228146122883</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="10">
         <f t="shared" si="1"/>
         <v>21.0372633902046</v>
       </c>
@@ -3069,20 +3066,20 @@
         <f t="shared" si="2"/>
         <v>61.96</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="11">
         <f t="shared" si="3"/>
         <v>13.1759702286018</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="11">
         <f t="shared" si="4"/>
         <v>14.7260843731432</v>
       </c>
-      <c r="O4" s="12">
-        <f>L4/(1-G4)/$N$42</f>
+      <c r="O4" s="11">
+        <f>L4/(1-G4)/$N$43</f>
         <v>12.5171717171717</v>
       </c>
-      <c r="P4" s="13">
-        <f>O4*$N$42-L4</f>
+      <c r="P4" s="12">
+        <f>O4*$N$43-L4</f>
         <v>20.6533333333333</v>
       </c>
       <c r="Q4" s="1">
@@ -3118,11 +3115,11 @@
       <c r="I5" s="3">
         <v>0.15</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="9">
         <f t="shared" si="0"/>
         <v>17.8528317228008</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="10">
         <f t="shared" si="1"/>
         <v>19.9531648666597</v>
       </c>
@@ -3130,20 +3127,20 @@
         <f t="shared" si="2"/>
         <v>71.36</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="11">
         <f t="shared" si="3"/>
         <v>15.1749069643806</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="11">
         <f t="shared" si="4"/>
         <v>16.9601901366607</v>
       </c>
-      <c r="O5" s="12">
-        <f>L5/(1-G5)/$N$42</f>
+      <c r="O5" s="11">
+        <f>L5/(1-G5)/$N$43</f>
         <v>14.4161616161616</v>
       </c>
-      <c r="P5" s="13">
-        <f>O5*$N$42-L5</f>
+      <c r="P5" s="12">
+        <f>O5*$N$43-L5</f>
         <v>23.7866666666667</v>
       </c>
       <c r="Q5" s="1">
@@ -3179,11 +3176,11 @@
       <c r="I6" s="3">
         <v>0.15</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="9">
         <f t="shared" si="0"/>
         <v>15.0483159771085</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="10">
         <f t="shared" si="1"/>
         <v>16.8187060920625</v>
       </c>
@@ -3191,20 +3188,20 @@
         <f t="shared" si="2"/>
         <v>64.16</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="11">
         <f t="shared" si="3"/>
         <v>12.7910685805423</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="11">
         <f t="shared" si="4"/>
         <v>14.2959001782531</v>
       </c>
-      <c r="O6" s="12">
-        <f t="shared" ref="O6:O14" si="5">L6/(1-G6)/$N$42</f>
+      <c r="O6" s="11">
+        <f t="shared" ref="O6:O14" si="5">L6/(1-G6)/$N$43</f>
         <v>12.1515151515152</v>
       </c>
-      <c r="P6" s="13">
-        <f t="shared" ref="P6:P14" si="6">O6*$N$42-L6</f>
+      <c r="P6" s="12">
+        <f t="shared" ref="P6:P14" si="6">O6*$N$43-L6</f>
         <v>16.04</v>
       </c>
       <c r="Q6" s="1">
@@ -3243,11 +3240,11 @@
       <c r="I7" s="3">
         <v>0.15</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="9">
         <f t="shared" si="0"/>
         <v>16.8521124558276</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="10">
         <f t="shared" si="1"/>
         <v>18.8347139212191</v>
       </c>
@@ -3255,19 +3252,19 @@
         <f t="shared" si="2"/>
         <v>67.36</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="11">
         <f t="shared" si="3"/>
         <v>14.3242955874535</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="11">
         <f t="shared" si="4"/>
         <v>16.0095068330362</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="11">
         <f t="shared" si="5"/>
         <v>13.6080808080808</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="12">
         <f t="shared" si="6"/>
         <v>22.4533333333333</v>
       </c>
@@ -3300,14 +3297,14 @@
       <c r="H8">
         <v>0.45</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="13">
         <v>0.5</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="9">
         <f t="shared" si="0"/>
         <v>34.8724082934609</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="10">
         <f t="shared" si="1"/>
         <v>38.9750445632799</v>
       </c>
@@ -3315,19 +3312,19 @@
         <f t="shared" si="2"/>
         <v>87.46</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="11">
         <f t="shared" si="3"/>
         <v>17.4362041467305</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="11">
         <f t="shared" si="4"/>
         <v>19.4875222816399</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="11">
         <f t="shared" si="5"/>
         <v>16.5643939393939</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="12">
         <f t="shared" si="6"/>
         <v>21.865</v>
       </c>
@@ -3360,14 +3357,14 @@
       <c r="H9">
         <v>0.45</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="13">
         <v>0.2</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <f t="shared" si="0"/>
         <v>20.5901116427432</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <f t="shared" si="1"/>
         <v>23.0124777183601</v>
       </c>
@@ -3375,19 +3372,19 @@
         <f t="shared" si="2"/>
         <v>77.46</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="11">
         <f t="shared" si="3"/>
         <v>16.4720893141946</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="11">
         <f t="shared" si="4"/>
         <v>18.4099821746881</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="11">
         <f t="shared" si="5"/>
         <v>15.6484848484849</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="12">
         <f t="shared" si="6"/>
         <v>25.82</v>
       </c>
@@ -3420,14 +3417,14 @@
       <c r="H10">
         <v>0.8</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="13">
         <v>0.3</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="9">
         <f t="shared" si="0"/>
         <v>36.5033796612744</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="10">
         <f t="shared" si="1"/>
         <v>40.797894915542</v>
       </c>
@@ -3435,19 +3432,19 @@
         <f t="shared" si="2"/>
         <v>120.16</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="11">
         <f t="shared" si="3"/>
         <v>25.5523657628921</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="11">
         <f t="shared" si="4"/>
         <v>28.5585264408794</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="11">
         <f t="shared" si="5"/>
         <v>24.2747474747475</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="12">
         <f t="shared" si="6"/>
         <v>40.0533333333333</v>
       </c>
@@ -3480,14 +3477,14 @@
       <c r="H11">
         <v>0.4</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="13">
         <v>0.15</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="9">
         <f t="shared" si="0"/>
         <v>32.3632610939113</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="10">
         <f t="shared" si="1"/>
         <v>36.1707035755479</v>
       </c>
@@ -3495,19 +3492,19 @@
         <f t="shared" si="2"/>
         <v>129.36</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="11">
         <f t="shared" si="3"/>
         <v>27.5087719298246</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="11">
         <f t="shared" si="4"/>
         <v>30.7450980392157</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="11">
         <f t="shared" si="5"/>
         <v>26.1333333333333</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="12">
         <f t="shared" si="6"/>
         <v>43.12</v>
       </c>
@@ -3540,14 +3537,14 @@
       <c r="H12">
         <v>0.5</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="13">
         <v>0.15</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="9">
         <f t="shared" si="0"/>
         <v>32.3441933349054</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="10">
         <f t="shared" si="1"/>
         <v>36.1493925507766</v>
       </c>
@@ -3555,19 +3552,19 @@
         <f t="shared" si="2"/>
         <v>127.56</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="11">
         <f t="shared" si="3"/>
         <v>27.4925643346696</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="11">
         <f t="shared" si="4"/>
         <v>30.7269836681601</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="11">
         <f t="shared" si="5"/>
         <v>26.1179361179361</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="12">
         <f t="shared" si="6"/>
         <v>44.8183783783784</v>
       </c>
@@ -3600,14 +3597,14 @@
       <c r="H13">
         <v>0.35</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="13">
         <v>0.15</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="9">
         <f t="shared" si="0"/>
         <v>14.825655940207</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="10">
         <f t="shared" si="1"/>
         <v>16.569850756702</v>
       </c>
@@ -3615,19 +3612,19 @@
         <f t="shared" si="2"/>
         <v>59.26</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="11">
         <f t="shared" si="3"/>
         <v>12.601807549176</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="11">
         <f t="shared" si="4"/>
         <v>14.0843731431967</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="11">
         <f t="shared" si="5"/>
         <v>11.9717171717172</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="12">
         <f t="shared" si="6"/>
         <v>19.7533333333333</v>
       </c>
@@ -3660,14 +3657,14 @@
       <c r="H14">
         <v>0.6</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="13">
         <v>0.5</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="9">
         <f t="shared" si="0"/>
         <v>58.5901116427432</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="10">
         <f t="shared" si="1"/>
         <v>65.4830659536542</v>
       </c>
@@ -3675,19 +3672,19 @@
         <f t="shared" si="2"/>
         <v>137.76</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="11">
         <f t="shared" si="3"/>
         <v>29.2950558213716</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="11">
         <f t="shared" si="4"/>
         <v>32.7415329768271</v>
       </c>
-      <c r="O14" s="12">
+      <c r="O14" s="11">
         <f t="shared" si="5"/>
         <v>27.830303030303</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P14" s="12">
         <f t="shared" si="6"/>
         <v>45.92</v>
       </c>
@@ -3720,35 +3717,35 @@
       <c r="H15">
         <v>0.4</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="13">
         <v>0.15</v>
       </c>
-      <c r="J15" s="10">
-        <f>(E15+F15+(Sheet1!$K$42*H15+Sheet1!$M$42)*Sheet1!$L$42)/(1-G15)/(1-Sheet1!$O$42)/(1-I15)/Sheet1!$N$42</f>
+      <c r="J15" s="9">
+        <f>(E15+F15+(Sheet1!$K$43*H15+Sheet1!$M$43)*Sheet1!$L$43)/(1-G15)/(1-Sheet1!$O$43)/(1-I15)/Sheet1!$N$43</f>
         <v>22.6062482409232</v>
       </c>
-      <c r="K15" s="11">
-        <f>(E15+F15+(Sheet1!$K$42*H15+Sheet1!$M$42)*Sheet1!$L$42)/(1-G15)/(1-Sheet1!$P$42)/(1-I15)/Sheet1!$N$42</f>
+      <c r="K15" s="10">
+        <f>(E15+F15+(Sheet1!$K$43*H15+Sheet1!$M$43)*Sheet1!$L$43)/(1-G15)/(1-Sheet1!$P$43)/(1-I15)/Sheet1!$N$43</f>
         <v>25.2658068575024</v>
       </c>
       <c r="L15" s="1">
-        <f>E15+F15+(Sheet1!$K$42*H15+Sheet1!$M$42)*Sheet1!$L$42</f>
+        <f>E15+F15+(Sheet1!$K$43*H15+Sheet1!$M$43)*Sheet1!$L$43</f>
         <v>90.36</v>
       </c>
-      <c r="M15" s="12">
-        <f>L15/(1-G15)/(1-Sheet1!$O$42)/Sheet1!$N$42</f>
+      <c r="M15" s="11">
+        <f>L15/(1-G15)/(1-Sheet1!$O$43)/Sheet1!$N$43</f>
         <v>19.2153110047847</v>
       </c>
-      <c r="N15" s="12">
-        <f>L15/(1-G15)/(1-Sheet1!$P$42)/Sheet1!$N$42</f>
+      <c r="N15" s="11">
+        <f>L15/(1-G15)/(1-Sheet1!$P$43)/Sheet1!$N$43</f>
         <v>21.475935828877</v>
       </c>
-      <c r="O15" s="12">
-        <f>L15/(1-G15)/Sheet1!$N$42</f>
+      <c r="O15" s="11">
+        <f>L15/(1-G15)/Sheet1!$N$43</f>
         <v>18.2545454545455</v>
       </c>
-      <c r="P15" s="13">
-        <f>O15*Sheet1!$N$42-L15</f>
+      <c r="P15" s="12">
+        <f>O15*Sheet1!$N$43-L15</f>
         <v>30.12</v>
       </c>
       <c r="Q15">
@@ -3780,35 +3777,35 @@
       <c r="H16">
         <v>0.2</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="13">
         <v>0.25</v>
       </c>
-      <c r="J16" s="10">
-        <f>(E16+F16+(Sheet1!$K$42*H16+Sheet1!$M$42)*Sheet1!$L$42)/(1-G16)/(1-Sheet1!$O$42)/(1-I16)/Sheet1!$N$42</f>
+      <c r="J16" s="9">
+        <f>(E16+F16+(Sheet1!$K$43*H16+Sheet1!$M$43)*Sheet1!$L$43)/(1-G16)/(1-Sheet1!$O$43)/(1-I16)/Sheet1!$N$43</f>
         <v>11.4194577352472</v>
       </c>
-      <c r="K16" s="11">
-        <f>(E16+F16+(Sheet1!$K$42*H16+Sheet1!$M$42)*Sheet1!$L$42)/(1-G16)/(1-Sheet1!$P$42)/(1-I16)/Sheet1!$N$42</f>
+      <c r="K16" s="10">
+        <f>(E16+F16+(Sheet1!$K$43*H16+Sheet1!$M$43)*Sheet1!$L$43)/(1-G16)/(1-Sheet1!$P$43)/(1-I16)/Sheet1!$N$43</f>
         <v>12.7629233511586</v>
       </c>
       <c r="L16" s="1">
-        <f>E16+F16+(Sheet1!$K$42*H16+Sheet1!$M$42)*Sheet1!$L$42</f>
+        <f>E16+F16+(Sheet1!$K$43*H16+Sheet1!$M$43)*Sheet1!$L$43</f>
         <v>42.96</v>
       </c>
-      <c r="M16" s="12">
-        <f>L16/(1-G16)/(1-Sheet1!$O$42)/Sheet1!$N$42</f>
+      <c r="M16" s="11">
+        <f>L16/(1-G16)/(1-Sheet1!$O$43)/Sheet1!$N$43</f>
         <v>8.56459330143541</v>
       </c>
-      <c r="N16" s="12">
-        <f>L16/(1-G16)/(1-Sheet1!$P$42)/Sheet1!$N$42</f>
+      <c r="N16" s="11">
+        <f>L16/(1-G16)/(1-Sheet1!$P$43)/Sheet1!$N$43</f>
         <v>9.57219251336898</v>
       </c>
-      <c r="O16" s="12">
-        <f>L16/(1-G16)/Sheet1!$N$42</f>
+      <c r="O16" s="11">
+        <f>L16/(1-G16)/Sheet1!$N$43</f>
         <v>8.13636363636363</v>
       </c>
-      <c r="P16" s="13">
-        <f>O16*Sheet1!$N$42-L16</f>
+      <c r="P16" s="12">
+        <f>O16*Sheet1!$N$43-L16</f>
         <v>10.74</v>
       </c>
       <c r="Q16">
@@ -3840,14 +3837,14 @@
       <c r="H17">
         <v>0.4</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="13">
         <v>0.15</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="9">
         <f>(E17+F17+([1]Sheet1!$K$26*H17+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G17)/(1-[1]Sheet1!$O$26)/(1-I17)/[1]Sheet1!$N$26</f>
         <v>16.1015730055978</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="10">
         <f>(E17+F17+([1]Sheet1!$K$26*H17+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G17)/(1-[1]Sheet1!$P$26)/(1-I17)/[1]Sheet1!$N$26</f>
         <v>17.9958757121387</v>
       </c>
@@ -3855,26 +3852,26 @@
         <f>E17+F17+([1]Sheet1!$K$26*H17+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>64.36</v>
       </c>
-      <c r="M17" s="12">
+      <c r="M17" s="11">
         <f>L17/(1-G17)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
         <v>13.6863370547581</v>
       </c>
-      <c r="N17" s="12">
+      <c r="N17" s="11">
         <f>L17/(1-G17)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
         <v>15.2964943553179</v>
       </c>
-      <c r="O17" s="12">
+      <c r="O17" s="11">
         <f>L17/(1-G17)/[1]Sheet1!$N$26</f>
         <v>13.0020202020202</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="12">
         <f>O17*[1]Sheet1!$N$26-L17</f>
         <v>21.4533333333333</v>
       </c>
-      <c r="Q17" s="14">
+      <c r="Q17" s="13">
         <v>0.15</v>
       </c>
-      <c r="R17" s="14">
+      <c r="R17" s="13">
         <v>0.45</v>
       </c>
     </row>
@@ -3900,14 +3897,14 @@
       <c r="H18">
         <v>0.4</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="13">
         <v>0.15</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="9">
         <f>(E18+F18+([1]Sheet1!$K$26*H18+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G18)/(1-[1]Sheet1!$O$26)/(1-I18)/[1]Sheet1!$N$26</f>
         <v>16.1015730055978</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="10">
         <f>(E18+F18+([1]Sheet1!$K$26*H18+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G18)/(1-[1]Sheet1!$P$26)/(1-I18)/[1]Sheet1!$N$26</f>
         <v>17.9958757121387</v>
       </c>
@@ -3915,26 +3912,26 @@
         <f>E18+F18+([1]Sheet1!$K$26*H18+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>64.36</v>
       </c>
-      <c r="M18" s="12">
+      <c r="M18" s="11">
         <f>L18/(1-G18)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
         <v>13.6863370547581</v>
       </c>
-      <c r="N18" s="12">
+      <c r="N18" s="11">
         <f>L18/(1-G18)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
         <v>15.2964943553179</v>
       </c>
-      <c r="O18" s="12">
+      <c r="O18" s="11">
         <f>L18/(1-G18)/[1]Sheet1!$N$26</f>
         <v>13.0020202020202</v>
       </c>
-      <c r="P18" s="13">
+      <c r="P18" s="12">
         <f>O18*[1]Sheet1!$N$26-L18</f>
         <v>21.4533333333333</v>
       </c>
-      <c r="Q18" s="14">
+      <c r="Q18" s="13">
         <v>0.15</v>
       </c>
-      <c r="R18" s="14">
+      <c r="R18" s="13">
         <v>0.4</v>
       </c>
     </row>
@@ -3958,14 +3955,14 @@
       <c r="H19">
         <v>0.15</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="13">
         <v>0.5</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="9">
         <f>(E19+F19+([1]Sheet1!$K$26*H19+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G19)/(1-[1]Sheet1!$O$26)/(1-I19)/[1]Sheet1!$N$26</f>
         <v>16.7400318979266</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="10">
         <f>(E19+F19+([1]Sheet1!$K$26*H19+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G19)/(1-[1]Sheet1!$P$26)/(1-I19)/[1]Sheet1!$N$26</f>
         <v>18.7094474153298</v>
       </c>
@@ -3973,19 +3970,19 @@
         <f>E19+F19+([1]Sheet1!$K$26*H19+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>39.36</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="11">
         <f>L19/(1-G19)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
         <v>8.37001594896332</v>
       </c>
-      <c r="N19" s="12">
+      <c r="N19" s="11">
         <f>L19/(1-G19)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
         <v>9.35472370766488</v>
       </c>
-      <c r="O19" s="12">
+      <c r="O19" s="11">
         <f>L19/(1-G19)/[1]Sheet1!$N$26</f>
         <v>7.95151515151515</v>
       </c>
-      <c r="P19" s="13">
+      <c r="P19" s="12">
         <f>O19*[1]Sheet1!$N$26-L19</f>
         <v>13.12</v>
       </c>
@@ -4016,14 +4013,14 @@
       <c r="H20">
         <v>0.3</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="13">
         <v>0.3</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="9">
         <f>(E20+F20+([1]Sheet1!$K$26*H20+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G20)/(1-[1]Sheet1!$O$26)/(1-I20)/[1]Sheet1!$N$26</f>
         <v>18.1240981240981</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="10">
         <f>(E20+F20+([1]Sheet1!$K$26*H20+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G20)/(1-[1]Sheet1!$P$26)/(1-I20)/[1]Sheet1!$N$26</f>
         <v>20.2563449622273</v>
       </c>
@@ -4031,19 +4028,19 @@
         <f>E20+F20+([1]Sheet1!$K$26*H20+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>59.66</v>
       </c>
-      <c r="M20" s="12">
+      <c r="M20" s="11">
         <f>L20/(1-G20)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
         <v>12.6868686868687</v>
       </c>
-      <c r="N20" s="12">
+      <c r="N20" s="11">
         <f>L20/(1-G20)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
         <v>14.1794414735591</v>
       </c>
-      <c r="O20" s="12">
+      <c r="O20" s="11">
         <f>L20/(1-G20)/[1]Sheet1!$N$26</f>
         <v>12.0525252525253</v>
       </c>
-      <c r="P20" s="13">
+      <c r="P20" s="12">
         <f>O20*[1]Sheet1!$N$26-L20</f>
         <v>19.8866666666667</v>
       </c>
@@ -4073,14 +4070,14 @@
       <c r="H21">
         <v>0.25</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="13">
         <v>0.45</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="9">
         <f>(E21+F21+([1]Sheet1!$K$26*H21+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G21)/(1-[1]Sheet1!$O$26)/(1-I21)/[1]Sheet1!$N$26</f>
         <v>25.541539799913</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="10">
         <f>(E21+F21+([1]Sheet1!$K$26*H21+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G21)/(1-[1]Sheet1!$P$26)/(1-I21)/[1]Sheet1!$N$26</f>
         <v>28.5464268351969</v>
       </c>
@@ -4088,19 +4085,19 @@
         <f>E21+F21+([1]Sheet1!$K$26*H21+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>66.06</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M21" s="11">
         <f>L21/(1-G21)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
         <v>14.0478468899522</v>
       </c>
-      <c r="N21" s="12">
+      <c r="N21" s="11">
         <f>L21/(1-G21)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
         <v>15.7005347593583</v>
       </c>
-      <c r="O21" s="12">
+      <c r="O21" s="11">
         <f>L21/(1-G21)/[1]Sheet1!$N$26</f>
         <v>13.3454545454545</v>
       </c>
-      <c r="P21" s="13">
+      <c r="P21" s="12">
         <f>O21*[1]Sheet1!$N$26-L21</f>
         <v>22.02</v>
       </c>
@@ -4127,14 +4124,14 @@
       <c r="H22">
         <v>0.25</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="13">
         <v>0.45</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="9">
         <f>(E22+F22+([1]Sheet1!$K$26*H22+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G22)/(1-[1]Sheet1!$O$26)/(1-I22)/[1]Sheet1!$N$26</f>
         <v>25.541539799913</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="10">
         <f>(E22+F22+([1]Sheet1!$K$26*H22+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G22)/(1-[1]Sheet1!$P$26)/(1-I22)/[1]Sheet1!$N$26</f>
         <v>28.5464268351969</v>
       </c>
@@ -4142,19 +4139,19 @@
         <f>E22+F22+([1]Sheet1!$K$26*H22+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>66.06</v>
       </c>
-      <c r="M22" s="12">
+      <c r="M22" s="11">
         <f>L22/(1-G22)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
         <v>14.0478468899522</v>
       </c>
-      <c r="N22" s="12">
+      <c r="N22" s="11">
         <f>L22/(1-G22)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
         <v>15.7005347593583</v>
       </c>
-      <c r="O22" s="12">
+      <c r="O22" s="11">
         <f>L22/(1-G22)/[1]Sheet1!$N$26</f>
         <v>13.3454545454545</v>
       </c>
-      <c r="P22" s="13">
+      <c r="P22" s="12">
         <f>O22*[1]Sheet1!$N$26-L22</f>
         <v>22.02</v>
       </c>
@@ -4181,14 +4178,14 @@
       <c r="H23">
         <v>0.25</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I23" s="13">
         <v>0.45</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="9">
         <f>(E23+F23+([1]Sheet1!$K$26*H23+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G23)/(1-[1]Sheet1!$O$26)/(1-I23)/[1]Sheet1!$N$26</f>
         <v>27.0881059397806</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="10">
         <f>(E23+F23+([1]Sheet1!$K$26*H23+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G23)/(1-[1]Sheet1!$P$26)/(1-I23)/[1]Sheet1!$N$26</f>
         <v>30.2749419326959</v>
       </c>
@@ -4196,19 +4193,19 @@
         <f>E23+F23+([1]Sheet1!$K$26*H23+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>70.06</v>
       </c>
-      <c r="M23" s="12">
+      <c r="M23" s="11">
         <f>L23/(1-G23)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
         <v>14.8984582668793</v>
       </c>
-      <c r="N23" s="12">
+      <c r="N23" s="11">
         <f>L23/(1-G23)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
         <v>16.6512180629828</v>
       </c>
-      <c r="O23" s="12">
+      <c r="O23" s="11">
         <f>L23/(1-G23)/[1]Sheet1!$N$26</f>
         <v>14.1535353535354</v>
       </c>
-      <c r="P23" s="13">
+      <c r="P23" s="12">
         <f>O23*[1]Sheet1!$N$26-L23</f>
         <v>23.3533333333333</v>
       </c>
@@ -4238,14 +4235,14 @@
       <c r="H24">
         <v>0.25</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="13">
         <v>0.45</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J24" s="9">
         <f>(E24+F24+([1]Sheet1!$K$26*H24+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G24)/(1-[1]Sheet1!$O$26)/(1-I24)/[1]Sheet1!$N$26</f>
         <v>25.9281813348799</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K24" s="10">
         <f>(E24+F24+([1]Sheet1!$K$26*H24+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G24)/(1-[1]Sheet1!$P$26)/(1-I24)/[1]Sheet1!$N$26</f>
         <v>28.9785556095717</v>
       </c>
@@ -4253,19 +4250,19 @@
         <f>E24+F24+([1]Sheet1!$K$26*H24+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>67.06</v>
       </c>
-      <c r="M24" s="12">
+      <c r="M24" s="11">
         <f>L24/(1-G24)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
         <v>14.2604997341839</v>
       </c>
-      <c r="N24" s="12">
+      <c r="N24" s="11">
         <f>L24/(1-G24)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
         <v>15.9382055852644</v>
       </c>
-      <c r="O24" s="12">
+      <c r="O24" s="11">
         <f>L24/(1-G24)/[1]Sheet1!$N$26</f>
         <v>13.5474747474747</v>
       </c>
-      <c r="P24" s="13">
+      <c r="P24" s="12">
         <f>O24*[1]Sheet1!$N$26-L24</f>
         <v>22.3533333333333</v>
       </c>
@@ -4295,14 +4292,14 @@
       <c r="H25">
         <v>0.35</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25" s="13">
         <v>0.4</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="9">
         <f>(E25+F25+([1]Sheet1!$K$26*H25+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G25)/(1-[1]Sheet1!$O$26)/(1-I25)/[1]Sheet1!$N$26</f>
         <v>24.9016480595428</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K25" s="10">
         <f>(E25+F25+([1]Sheet1!$K$26*H25+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G25)/(1-[1]Sheet1!$P$26)/(1-I25)/[1]Sheet1!$N$26</f>
         <v>27.8312537136067</v>
       </c>
@@ -4310,19 +4307,19 @@
         <f>E25+F25+([1]Sheet1!$K$26*H25+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>70.26</v>
       </c>
-      <c r="M25" s="12">
+      <c r="M25" s="11">
         <f>L25/(1-G25)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
         <v>14.9409888357257</v>
       </c>
-      <c r="N25" s="12">
+      <c r="N25" s="11">
         <f>L25/(1-G25)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
         <v>16.698752228164</v>
       </c>
-      <c r="O25" s="12">
+      <c r="O25" s="11">
         <f>L25/(1-G25)/[1]Sheet1!$N$26</f>
         <v>14.1939393939394</v>
       </c>
-      <c r="P25" s="13">
+      <c r="P25" s="12">
         <f>O25*[1]Sheet1!$N$26-L25</f>
         <v>23.42</v>
       </c>
@@ -4352,14 +4349,14 @@
       <c r="H26">
         <v>0.25</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="13">
         <v>0.4</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J26" s="9">
         <f>(E26+F26+([1]Sheet1!$K$26*H26+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G26)/(1-[1]Sheet1!$O$26)/(1-I26)/[1]Sheet1!$N$26</f>
         <v>22.3498139287613</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K26" s="10">
         <f>(E26+F26+([1]Sheet1!$K$26*H26+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G26)/(1-[1]Sheet1!$P$26)/(1-I26)/[1]Sheet1!$N$26</f>
         <v>24.9792038027332</v>
       </c>
@@ -4367,19 +4364,19 @@
         <f>E26+F26+([1]Sheet1!$K$26*H26+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>63.06</v>
       </c>
-      <c r="M26" s="12">
+      <c r="M26" s="11">
         <f>L26/(1-G26)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
         <v>13.4098883572568</v>
       </c>
-      <c r="N26" s="12">
+      <c r="N26" s="11">
         <f>L26/(1-G26)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
         <v>14.9875222816399</v>
       </c>
-      <c r="O26" s="12">
+      <c r="O26" s="11">
         <f>L26/(1-G26)/[1]Sheet1!$N$26</f>
         <v>12.7393939393939</v>
       </c>
-      <c r="P26" s="13">
+      <c r="P26" s="12">
         <f>O26*[1]Sheet1!$N$26-L26</f>
         <v>21.02</v>
       </c>
@@ -4409,14 +4406,14 @@
       <c r="H27">
         <v>0.22</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27" s="13">
         <v>0.3</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J27" s="9">
         <f>(E27+F27+([1]Sheet1!$K$26*H27+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G27)/(1-[1]Sheet1!$O$26)/(1-I27)/[1]Sheet1!$N$26</f>
         <v>19.0172400698717</v>
       </c>
-      <c r="K27" s="11">
+      <c r="K27" s="10">
         <f>(E27+F27+([1]Sheet1!$K$26*H27+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G27)/(1-[1]Sheet1!$P$26)/(1-I27)/[1]Sheet1!$N$26</f>
         <v>21.254562431033</v>
       </c>
@@ -4424,19 +4421,19 @@
         <f>E27+F27+([1]Sheet1!$K$26*H27+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>62.6</v>
       </c>
-      <c r="M27" s="12">
+      <c r="M27" s="11">
         <f>L27/(1-G27)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
         <v>13.3120680489102</v>
       </c>
-      <c r="N27" s="12">
+      <c r="N27" s="11">
         <f>L27/(1-G27)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
         <v>14.8781937017231</v>
       </c>
-      <c r="O27" s="12">
+      <c r="O27" s="11">
         <f>L27/(1-G27)/[1]Sheet1!$N$26</f>
         <v>12.6464646464646</v>
       </c>
-      <c r="P27" s="13">
+      <c r="P27" s="12">
         <f>O27*[1]Sheet1!$N$26-L27</f>
         <v>20.8666666666667</v>
       </c>
@@ -4469,14 +4466,14 @@
       <c r="H28">
         <v>0.45</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28" s="13">
         <v>0.45</v>
       </c>
-      <c r="J28" s="10">
+      <c r="J28" s="9">
         <f>(E28+F28+([1]Sheet1!$K$26*H28+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G28)/(1-[1]Sheet1!$O$26)/(1-I28)/[1]Sheet1!$N$26</f>
         <v>28.0160456237011</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K28" s="10">
         <f>(E28+F28+([1]Sheet1!$K$26*H28+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G28)/(1-[1]Sheet1!$P$26)/(1-I28)/[1]Sheet1!$N$26</f>
         <v>31.3120509911954</v>
       </c>
@@ -4484,19 +4481,19 @@
         <f>E28+F28+([1]Sheet1!$K$26*H28+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>72.46</v>
       </c>
-      <c r="M28" s="12">
+      <c r="M28" s="11">
         <f>L28/(1-G28)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
         <v>15.4088250930356</v>
       </c>
-      <c r="N28" s="12">
+      <c r="N28" s="11">
         <f>L28/(1-G28)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
         <v>17.2216280451575</v>
       </c>
-      <c r="O28" s="12">
+      <c r="O28" s="11">
         <f>L28/(1-G28)/[1]Sheet1!$N$26</f>
         <v>14.6383838383838</v>
       </c>
-      <c r="P28" s="13">
+      <c r="P28" s="12">
         <f>O28*[1]Sheet1!$N$26-L28</f>
         <v>24.1533333333333</v>
       </c>
@@ -4529,14 +4526,14 @@
       <c r="H29">
         <v>0.45</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29" s="13">
         <v>0.25</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J29" s="9">
         <f>(E29+F29+([1]Sheet1!$K$26*H29+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G29)/(1-[1]Sheet1!$O$26)/(1-I29)/[1]Sheet1!$N$26</f>
         <v>21.1121743753323</v>
       </c>
-      <c r="K29" s="11">
+      <c r="K29" s="10">
         <f>(E29+F29+([1]Sheet1!$K$26*H29+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G29)/(1-[1]Sheet1!$P$26)/(1-I29)/[1]Sheet1!$N$26</f>
         <v>23.5959595959596</v>
       </c>
@@ -4544,19 +4541,19 @@
         <f>E29+F29+([1]Sheet1!$K$26*H29+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>74.46</v>
       </c>
-      <c r="M29" s="12">
+      <c r="M29" s="11">
         <f>L29/(1-G29)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
         <v>15.8341307814992</v>
       </c>
-      <c r="N29" s="12">
+      <c r="N29" s="11">
         <f>L29/(1-G29)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
         <v>17.6969696969697</v>
       </c>
-      <c r="O29" s="12">
+      <c r="O29" s="11">
         <f>L29/(1-G29)/[1]Sheet1!$N$26</f>
         <v>15.0424242424242</v>
       </c>
-      <c r="P29" s="13">
+      <c r="P29" s="12">
         <f>O29*[1]Sheet1!$N$26-L29</f>
         <v>24.82</v>
       </c>
@@ -4589,14 +4586,14 @@
       <c r="H30">
         <v>0.4</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I30" s="13">
         <v>0.45</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="9">
         <f>(E30+F30+([1]Sheet1!$K$26*H30+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G30)/(1-[1]Sheet1!$O$26)/(1-I30)/[1]Sheet1!$N$26</f>
         <v>26.04417379537</v>
       </c>
-      <c r="K30" s="11">
+      <c r="K30" s="10">
         <f>(E30+F30+([1]Sheet1!$K$26*H30+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G30)/(1-[1]Sheet1!$P$26)/(1-I30)/[1]Sheet1!$N$26</f>
         <v>29.1081942418841</v>
       </c>
@@ -4604,19 +4601,19 @@
         <f>E30+F30+([1]Sheet1!$K$26*H30+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>67.36</v>
       </c>
-      <c r="M30" s="12">
+      <c r="M30" s="11">
         <f>L30/(1-G30)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
         <v>14.3242955874535</v>
       </c>
-      <c r="N30" s="12">
+      <c r="N30" s="11">
         <f>L30/(1-G30)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
         <v>16.0095068330362</v>
       </c>
-      <c r="O30" s="12">
+      <c r="O30" s="11">
         <f>L30/(1-G30)/[1]Sheet1!$N$26</f>
         <v>13.6080808080808</v>
       </c>
-      <c r="P30" s="13">
+      <c r="P30" s="12">
         <f>O30*[1]Sheet1!$N$26-L30</f>
         <v>22.4533333333333</v>
       </c>
@@ -4649,14 +4646,14 @@
       <c r="H31">
         <v>0.25</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I31" s="13">
         <v>0.2</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J31" s="9">
         <f>(E31+F31+([1]Sheet1!$K$26*H31+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G31)/(1-[1]Sheet1!$O$26)/(1-I31)/[1]Sheet1!$N$26</f>
         <v>12.5093035619351</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K31" s="10">
         <f>(E31+F31+([1]Sheet1!$K$26*H31+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G31)/(1-[1]Sheet1!$P$26)/(1-I31)/[1]Sheet1!$N$26</f>
         <v>13.9809863339275</v>
       </c>
@@ -4664,19 +4661,19 @@
         <f>E31+F31+([1]Sheet1!$K$26*H31+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>47.06</v>
       </c>
-      <c r="M31" s="12">
+      <c r="M31" s="11">
         <f>L31/(1-G31)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
         <v>10.0074428495481</v>
       </c>
-      <c r="N31" s="12">
+      <c r="N31" s="11">
         <f>L31/(1-G31)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
         <v>11.184789067142</v>
       </c>
-      <c r="O31" s="12">
+      <c r="O31" s="11">
         <f>L31/(1-G31)/[1]Sheet1!$N$26</f>
         <v>9.50707070707071</v>
       </c>
-      <c r="P31" s="13">
+      <c r="P31" s="12">
         <f>O31*[1]Sheet1!$N$26-L31</f>
         <v>15.6866666666667</v>
       </c>
@@ -4709,14 +4706,14 @@
       <c r="H32">
         <v>0.2</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I32" s="13">
         <v>0.4</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="9">
         <f>(E32+F32+([1]Sheet1!$K$26*H32+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G32)/(1-[1]Sheet1!$O$26)/(1-I32)/[1]Sheet1!$N$26</f>
         <v>17.7068934963672</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K32" s="10">
         <f>(E32+F32+([1]Sheet1!$K$26*H32+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G32)/(1-[1]Sheet1!$P$26)/(1-I32)/[1]Sheet1!$N$26</f>
         <v>19.7900574371163</v>
       </c>
@@ -4724,19 +4721,19 @@
         <f>E32+F32+([1]Sheet1!$K$26*H32+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>49.96</v>
       </c>
-      <c r="M32" s="12">
+      <c r="M32" s="11">
         <f>L32/(1-G32)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
         <v>10.6241360978203</v>
       </c>
-      <c r="N32" s="12">
+      <c r="N32" s="11">
         <f>L32/(1-G32)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
         <v>11.8740344622698</v>
       </c>
-      <c r="O32" s="12">
+      <c r="O32" s="11">
         <f>L32/(1-G32)/[1]Sheet1!$N$26</f>
         <v>10.0929292929293</v>
       </c>
-      <c r="P32" s="13">
+      <c r="P32" s="12">
         <f>O32*[1]Sheet1!$N$26-L32</f>
         <v>16.6533333333333</v>
       </c>
@@ -4769,14 +4766,14 @@
       <c r="H33">
         <v>0.3</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I33" s="13">
         <v>0.45</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J33" s="9">
         <f>(E33+F33+([1]Sheet1!$K$26*H33+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G33)/(1-[1]Sheet1!$O$26)/(1-I33)/[1]Sheet1!$N$26</f>
         <v>25.5802039534097</v>
       </c>
-      <c r="K33" s="11">
+      <c r="K33" s="10">
         <f>(E33+F33+([1]Sheet1!$K$26*H33+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G33)/(1-[1]Sheet1!$P$26)/(1-I33)/[1]Sheet1!$N$26</f>
         <v>28.5896397126344</v>
       </c>
@@ -4784,19 +4781,19 @@
         <f>E33+F33+([1]Sheet1!$K$26*H33+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>66.16</v>
       </c>
-      <c r="M33" s="12">
+      <c r="M33" s="11">
         <f>L33/(1-G33)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
         <v>14.0691121743753</v>
       </c>
-      <c r="N33" s="12">
+      <c r="N33" s="11">
         <f>L33/(1-G33)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
         <v>15.7243018419489</v>
       </c>
-      <c r="O33" s="12">
+      <c r="O33" s="11">
         <f>L33/(1-G33)/[1]Sheet1!$N$26</f>
         <v>13.3656565656566</v>
       </c>
-      <c r="P33" s="13">
+      <c r="P33" s="12">
         <f>O33*[1]Sheet1!$N$26-L33</f>
         <v>22.0533333333333</v>
       </c>
@@ -4829,14 +4826,14 @@
       <c r="H34">
         <v>0.3</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I34" s="13">
         <v>0.25</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J34" s="9">
         <f>(E34+F34+([1]Sheet1!$K$26*H34+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G34)/(1-[1]Sheet1!$O$26)/(1-I34)/[1]Sheet1!$N$26</f>
         <v>19.6094276094276</v>
       </c>
-      <c r="K34" s="11">
+      <c r="K34" s="10">
         <f>(E34+F34+([1]Sheet1!$K$26*H34+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G34)/(1-[1]Sheet1!$P$26)/(1-I34)/[1]Sheet1!$N$26</f>
         <v>21.9164190928897</v>
       </c>
@@ -4844,19 +4841,19 @@
         <f>E34+F34+([1]Sheet1!$K$26*H34+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>69.16</v>
       </c>
-      <c r="M34" s="12">
+      <c r="M34" s="11">
         <f>L34/(1-G34)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
         <v>14.7070707070707</v>
       </c>
-      <c r="N34" s="12">
+      <c r="N34" s="11">
         <f>L34/(1-G34)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
         <v>16.4373143196673</v>
       </c>
-      <c r="O34" s="12">
+      <c r="O34" s="11">
         <f>L34/(1-G34)/[1]Sheet1!$N$26</f>
         <v>13.9717171717172</v>
       </c>
-      <c r="P34" s="13">
+      <c r="P34" s="12">
         <f>O34*[1]Sheet1!$N$26-L34</f>
         <v>23.0533333333333</v>
       </c>
@@ -4874,7 +4871,7 @@
       <c r="C35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="8" t="s">
         <v>56</v>
       </c>
       <c r="E35">
@@ -4889,14 +4886,14 @@
       <c r="H35">
         <v>0.3</v>
       </c>
-      <c r="I35" s="14">
+      <c r="I35" s="13">
         <v>0.2</v>
       </c>
-      <c r="J35" s="10">
+      <c r="J35" s="9">
         <f>(E35+F35+([1]Sheet1!$K$26*H35+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G35)/(1-[1]Sheet1!$O$26)/(1-I35)/[1]Sheet1!$N$26</f>
         <v>15.725677830941</v>
       </c>
-      <c r="K35" s="11">
+      <c r="K35" s="10">
         <f>(E35+F35+([1]Sheet1!$K$26*H35+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G35)/(1-[1]Sheet1!$P$26)/(1-I35)/[1]Sheet1!$N$26</f>
         <v>17.5757575757576</v>
       </c>
@@ -4904,19 +4901,19 @@
         <f>E35+F35+([1]Sheet1!$K$26*H35+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>59.16</v>
       </c>
-      <c r="M35" s="12">
+      <c r="M35" s="11">
         <f>L35/(1-G35)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
         <v>12.5805422647528</v>
       </c>
-      <c r="N35" s="12">
+      <c r="N35" s="11">
         <f>L35/(1-G35)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
         <v>14.0606060606061</v>
       </c>
-      <c r="O35" s="12">
+      <c r="O35" s="11">
         <f>L35/(1-G35)/[1]Sheet1!$N$26</f>
         <v>11.9515151515152</v>
       </c>
-      <c r="P35" s="13">
+      <c r="P35" s="12">
         <f>O35*[1]Sheet1!$N$26-L35</f>
         <v>19.72</v>
       </c>
@@ -4929,7 +4926,7 @@
         <v>16120301</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="8" t="s">
         <v>57</v>
       </c>
       <c r="E36">
@@ -4944,14 +4941,14 @@
       <c r="H36">
         <v>0.3</v>
       </c>
-      <c r="I36" s="14">
+      <c r="I36" s="13">
         <v>0.45</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J36" s="9">
         <f>(E36+F36+([1]Sheet1!$K$26*H36+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G36)/(1-[1]Sheet1!$O$26)/(1-I36)/[1]Sheet1!$N$26</f>
         <v>24.0336378135421</v>
       </c>
-      <c r="K36" s="11">
+      <c r="K36" s="10">
         <f>(E36+F36+([1]Sheet1!$K$26*H36+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G36)/(1-[1]Sheet1!$P$26)/(1-I36)/[1]Sheet1!$N$26</f>
         <v>26.8611246151353</v>
       </c>
@@ -4959,19 +4956,19 @@
         <f>E36+F36+([1]Sheet1!$K$26*H36+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>62.16</v>
       </c>
-      <c r="M36" s="12">
+      <c r="M36" s="11">
         <f>L36/(1-G36)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
         <v>13.2185007974482</v>
       </c>
-      <c r="N36" s="12">
+      <c r="N36" s="11">
         <f>L36/(1-G36)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
         <v>14.7736185383244</v>
       </c>
-      <c r="O36" s="12">
+      <c r="O36" s="11">
         <f>L36/(1-G36)/[1]Sheet1!$N$26</f>
         <v>12.5575757575758</v>
       </c>
-      <c r="P36" s="13">
+      <c r="P36" s="12">
         <f>O36*[1]Sheet1!$N$26-L36</f>
         <v>20.72</v>
       </c>
@@ -4999,14 +4996,14 @@
       <c r="H37">
         <v>0.15</v>
       </c>
-      <c r="I37" s="14">
+      <c r="I37" s="13">
         <v>0.2</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J37" s="9">
         <f>(E37+F37+([1]Sheet1!$K$26*H37+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G37)/(1-[1]Sheet1!$O$26)/(1-I37)/[1]Sheet1!$N$26</f>
         <v>7.1398192450824</v>
       </c>
-      <c r="K37" s="11">
+      <c r="K37" s="10">
         <f>(E37+F37+([1]Sheet1!$K$26*H37+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G37)/(1-[1]Sheet1!$P$26)/(1-I37)/[1]Sheet1!$N$26</f>
         <v>7.97979797979798</v>
       </c>
@@ -5014,19 +5011,19 @@
         <f>E37+F37+([1]Sheet1!$K$26*H37+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>26.86</v>
       </c>
-      <c r="M37" s="12">
+      <c r="M37" s="11">
         <f>L37/(1-G37)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
         <v>5.71185539606592</v>
       </c>
-      <c r="N37" s="12">
+      <c r="N37" s="11">
         <f>L37/(1-G37)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
         <v>6.38383838383838</v>
       </c>
-      <c r="O37" s="12">
+      <c r="O37" s="11">
         <f>L37/(1-G37)/[1]Sheet1!$N$26</f>
         <v>5.42626262626263</v>
       </c>
-      <c r="P37" s="13">
+      <c r="P37" s="12">
         <f>O37*[1]Sheet1!$N$26-L37</f>
         <v>8.95333333333333</v>
       </c>
@@ -5054,14 +5051,14 @@
       <c r="H38">
         <v>0.1</v>
       </c>
-      <c r="I38" s="14">
+      <c r="I38" s="13">
         <v>0.5</v>
       </c>
-      <c r="J38" s="10">
+      <c r="J38" s="9">
         <f>(E38+F38+([1]Sheet1!$K$26*H38+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G38)/(1-[1]Sheet1!$O$26)/(1-I38)/[1]Sheet1!$N$26</f>
         <v>16.0595427963849</v>
       </c>
-      <c r="K38" s="11">
+      <c r="K38" s="10">
         <f>(E38+F38+([1]Sheet1!$K$26*H38+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G38)/(1-[1]Sheet1!$P$26)/(1-I38)/[1]Sheet1!$N$26</f>
         <v>17.9489007724302</v>
       </c>
@@ -5069,19 +5066,19 @@
         <f>E38+F38+([1]Sheet1!$K$26*H38+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>37.76</v>
       </c>
-      <c r="M38" s="12">
+      <c r="M38" s="11">
         <f>L38/(1-G38)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
         <v>8.02977139819245</v>
       </c>
-      <c r="N38" s="12">
+      <c r="N38" s="11">
         <f>L38/(1-G38)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
         <v>8.97445038621509</v>
       </c>
-      <c r="O38" s="12">
+      <c r="O38" s="11">
         <f>L38/(1-G38)/[1]Sheet1!$N$26</f>
         <v>7.62828282828283</v>
       </c>
-      <c r="P38" s="13">
+      <c r="P38" s="12">
         <f>O38*[1]Sheet1!$N$26-L38</f>
         <v>12.5866666666667</v>
       </c>
@@ -5095,69 +5092,91 @@
     <row r="39" customFormat="1" ht="90.75" customHeight="1" spans="3:16">
       <c r="C39" s="1"/>
       <c r="D39" s="6"/>
+      <c r="E39"/>
+      <c r="F39"/>
       <c r="G39" s="3"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="11"/>
+      <c r="H39"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="10"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="13"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11">
+        <f>L39/(1-G39)/[1]Sheet1!$N$26</f>
+        <v>0</v>
+      </c>
+      <c r="P39" s="12">
+        <f>O39*[1]Sheet1!$N$26-L39</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="11:16">
-      <c r="K41" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="L41" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="M41" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="N41" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="O41" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="P41" s="15" t="s">
-        <v>65</v>
-      </c>
+    <row r="40" customFormat="1" ht="90.75" customHeight="1" spans="3:16">
+      <c r="C40" s="1"/>
+      <c r="D40" s="6"/>
+      <c r="G40" s="3"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="12"/>
     </row>
     <row r="42" spans="11:16">
-      <c r="K42" s="16">
+      <c r="K42" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L42" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="M42" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="N42" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O42" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="P42" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="11:16">
+      <c r="K43" s="15">
         <v>100</v>
       </c>
-      <c r="L42" s="14">
+      <c r="L43" s="13">
         <v>0.82</v>
       </c>
-      <c r="M42">
+      <c r="M43">
         <v>8</v>
       </c>
-      <c r="N42">
+      <c r="N43">
         <v>6.6</v>
       </c>
-      <c r="O42" s="14">
+      <c r="O43" s="13">
         <v>0.05</v>
       </c>
-      <c r="P42" s="14">
+      <c r="P43" s="13">
         <v>0.15</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q6 R2:R4">
+      <formula1>"0,1"</formula1>
+    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"爬爬服"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27 C2:C16 C29:C30">
       <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子,裤子"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28 C35 C36 C37 C38 C39 C17:C21 C24:C26 C31:C34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28 C35 C36 C37 C38 C39 C40 C17:C21 C24:C26 C31:C34">
       <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q6 R2:R4">
-      <formula1>"0,1"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/产品表单.xlsx
+++ b/产品表单.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
   <si>
     <t>产品标题</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>https://detail.1688.com/offer/523975460031.html?spm=b26110380.8015204.1688002.1.dPdaJX</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/531232169182.html?spm=a261y.7663282.0.0.1DCfuw</t>
   </si>
   <si>
     <t>国际运费 1kg/￥</t>
@@ -228,12 +231,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
   </numFmts>
   <fonts count="22">
@@ -270,14 +273,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,83 +310,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,6 +332,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -398,8 +348,61 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,19 +423,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,13 +453,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,7 +507,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,127 +603,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,6 +614,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -625,35 +643,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,6 +662,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -688,21 +686,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -711,6 +694,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -719,10 +722,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -731,16 +734,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -749,115 +752,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2484,6 +2487,48 @@
         <a:xfrm>
           <a:off x="33655" y="40424735"/>
           <a:ext cx="870585" cy="622935"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>27940</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>975360</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="图片 41"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27940" y="41549955"/>
+          <a:ext cx="947420" cy="1038225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2825,10 +2870,10 @@
   <sheetPr/>
   <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Q40" sqref="Q40"/>
+      <selection pane="bottomLeft" activeCell="N38" sqref="N38:N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -5089,26 +5134,62 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" customFormat="1" ht="90.75" customHeight="1" spans="3:16">
+    <row r="39" customFormat="1" ht="84" customHeight="1" spans="2:18">
+      <c r="B39">
+        <v>16122001</v>
+      </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="6"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39" s="3"/>
-      <c r="H39"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
+      <c r="D39" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39">
+        <v>22</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H39">
+        <v>0.2</v>
+      </c>
+      <c r="I39" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="J39" s="9">
+        <f>(E39+F39+([1]Sheet1!$K$26*H39+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G39)/(1-[1]Sheet1!$O$26)/(1-I39)/[1]Sheet1!$N$26</f>
+        <v>17.7068934963672</v>
+      </c>
+      <c r="K39" s="10">
+        <f>(E39+F39+([1]Sheet1!$K$26*H39+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G39)/(1-[1]Sheet1!$P$26)/(1-I39)/[1]Sheet1!$N$26</f>
+        <v>19.7900574371163</v>
+      </c>
+      <c r="L39" s="1">
+        <f>E39+F39+([1]Sheet1!$K$26*H39+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
+        <v>49.96</v>
+      </c>
+      <c r="M39" s="11">
+        <f>L39/(1-G39)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
+        <v>10.6241360978203</v>
+      </c>
+      <c r="N39" s="11">
+        <f>L39/(1-G39)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
+        <v>11.8740344622698</v>
+      </c>
       <c r="O39" s="11">
         <f>L39/(1-G39)/[1]Sheet1!$N$26</f>
-        <v>0</v>
+        <v>10.0929292929293</v>
       </c>
       <c r="P39" s="12">
         <f>O39*[1]Sheet1!$N$26-L39</f>
-        <v>0</v>
+        <v>16.6533333333333</v>
+      </c>
+      <c r="Q39">
+        <v>20</v>
+      </c>
+      <c r="R39">
+        <v>40</v>
       </c>
     </row>
     <row r="40" customFormat="1" ht="90.75" customHeight="1" spans="3:16">
@@ -5126,22 +5207,22 @@
     </row>
     <row r="42" spans="11:16">
       <c r="K42" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L42" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M42" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N42" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O42" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P42" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="11:16">
@@ -5166,14 +5247,14 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q6 R2:R4">
-      <formula1>"0,1"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27 C2:C16 C29:C30">
+      <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子,裤子"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"爬爬服"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27 C2:C16 C29:C30">
-      <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子,裤子"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q6 R2:R4">
+      <formula1>"0,1"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28 C35 C36 C37 C38 C39 C40 C17:C21 C24:C26 C31:C34">
       <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子"</formula1>
@@ -5211,6 +5292,7 @@
     <hyperlink ref="D34" r:id="rId27" display="https://detail.1688.com/offer/537733197961.html?spm=b26110380.8015204.tkhy006.2.6IBVa5"/>
     <hyperlink ref="D37" r:id="rId28" display="https://detail.1688.com/offer/39363390916.html?spm=b26110380.sw56474001.0.0.AOuyqk"/>
     <hyperlink ref="D38" r:id="rId29" display="https://detail.1688.com/offer/523975460031.html?spm=b26110380.8015204.1688002.1.dPdaJX"/>
+    <hyperlink ref="D39" r:id="rId30" display="https://detail.1688.com/offer/531232169182.html?spm=a261y.7663282.0.0.1DCfuw"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>

--- a/产品表单.xlsx
+++ b/产品表单.xlsx
@@ -230,11 +230,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
@@ -273,30 +273,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,21 +288,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,13 +301,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -347,11 +309,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -371,14 +355,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,7 +363,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,6 +392,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -423,7 +423,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,37 +549,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,31 +591,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,97 +603,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,51 +614,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -689,8 +644,53 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,8 +698,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,10 +722,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -734,16 +734,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -752,115 +752,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2873,7 +2873,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N38" sqref="N38:N39"/>
+      <selection pane="bottomLeft" activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2979,31 +2979,31 @@
       </c>
       <c r="J2" s="9">
         <f t="shared" ref="J2:J14" si="0">(E2+F2+($K$43*H2+$M$43)*$L$43)/(1-G2)/(1-$O$43)/(1-I2)/$N$43</f>
-        <v>16.5518966757357</v>
+        <v>17.3861375907412</v>
       </c>
       <c r="K2" s="10">
         <f t="shared" ref="K2:K14" si="1">(E2+F2+($K$43*H2+$M$43)*$L$43)/(1-G2)/(1-$P$43)/(1-I2)/$N$43</f>
-        <v>18.4991786375869</v>
+        <v>18.8179371570375</v>
       </c>
       <c r="L2" s="1">
         <f t="shared" ref="L2:L14" si="2">E2+F2+($K$43*H2+$M$43)*$L$43</f>
-        <v>66.16</v>
+        <v>67.3</v>
       </c>
       <c r="M2" s="11">
         <f t="shared" ref="M2:M14" si="3">L2/(1-G2)/(1-$O$43)/$N$43</f>
-        <v>14.0691121743753</v>
+        <v>14.77821695213</v>
       </c>
       <c r="N2" s="11">
         <f t="shared" ref="N2:N14" si="4">L2/(1-G2)/(1-$P$43)/$N$43</f>
-        <v>15.7243018419489</v>
+        <v>15.9952465834819</v>
       </c>
       <c r="O2" s="11">
         <f>L2/(1-G2)/$N$43</f>
-        <v>13.3656565656566</v>
+        <v>13.5959595959596</v>
       </c>
       <c r="P2" s="12">
         <f>O2*$N$43-L2</f>
-        <v>22.0533333333333</v>
+        <v>22.4333333333333</v>
       </c>
       <c r="Q2" s="1">
         <v>1</v>
@@ -3040,31 +3040,31 @@
       </c>
       <c r="J3" s="9">
         <f t="shared" si="0"/>
-        <v>10.7630692893851</v>
+        <v>11.3599765773679</v>
       </c>
       <c r="K3" s="10">
         <f t="shared" si="1"/>
-        <v>12.0293127351951</v>
+        <v>12.2955040602099</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" si="2"/>
-        <v>37.96</v>
+        <v>38.8</v>
       </c>
       <c r="M3" s="11">
         <f t="shared" si="3"/>
-        <v>8.07230196703881</v>
+        <v>8.51998243302591</v>
       </c>
       <c r="N3" s="11">
         <f t="shared" si="4"/>
-        <v>9.02198455139632</v>
+        <v>9.22162804515746</v>
       </c>
       <c r="O3" s="11">
         <f>L3/(1-G3)/$N$43</f>
-        <v>7.66868686868687</v>
+        <v>7.83838383838384</v>
       </c>
       <c r="P3" s="12">
         <f>O3*$N$43-L3</f>
-        <v>12.6533333333333</v>
+        <v>12.9333333333333</v>
       </c>
       <c r="Q3" s="1">
         <v>1</v>
@@ -3101,31 +3101,31 @@
       </c>
       <c r="J4" s="9">
         <f t="shared" si="0"/>
-        <v>18.8228146122883</v>
+        <v>19.7001066566284</v>
       </c>
       <c r="K4" s="10">
         <f t="shared" si="1"/>
-        <v>21.0372633902046</v>
+        <v>21.3224683812919</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="2"/>
-        <v>61.96</v>
+        <v>62.8</v>
       </c>
       <c r="M4" s="11">
         <f t="shared" si="3"/>
-        <v>13.1759702286018</v>
+        <v>13.7900746596399</v>
       </c>
       <c r="N4" s="11">
         <f t="shared" si="4"/>
-        <v>14.7260843731432</v>
+        <v>14.9257278669043</v>
       </c>
       <c r="O4" s="11">
         <f>L4/(1-G4)/$N$43</f>
-        <v>12.5171717171717</v>
+        <v>12.6868686868687</v>
       </c>
       <c r="P4" s="12">
         <f>O4*$N$43-L4</f>
-        <v>20.6533333333333</v>
+        <v>20.9333333333333</v>
       </c>
       <c r="Q4" s="1">
         <v>1</v>
@@ -3162,31 +3162,31 @@
       </c>
       <c r="J5" s="9">
         <f t="shared" si="0"/>
-        <v>17.8528317228008</v>
+        <v>18.806995789093</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" si="1"/>
-        <v>19.9531648666597</v>
+        <v>20.3558072070183</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="2"/>
-        <v>71.36</v>
+        <v>72.8</v>
       </c>
       <c r="M5" s="11">
         <f t="shared" si="3"/>
-        <v>15.1749069643806</v>
+        <v>15.985946420729</v>
       </c>
       <c r="N5" s="11">
         <f t="shared" si="4"/>
-        <v>16.9601901366607</v>
+        <v>17.3024361259655</v>
       </c>
       <c r="O5" s="11">
         <f>L5/(1-G5)/$N$43</f>
-        <v>14.4161616161616</v>
+        <v>14.7070707070707</v>
       </c>
       <c r="P5" s="12">
         <f>O5*$N$43-L5</f>
-        <v>23.7866666666667</v>
+        <v>24.2666666666667</v>
       </c>
       <c r="Q5" s="1">
         <v>1</v>
@@ -3223,31 +3223,31 @@
       </c>
       <c r="J6" s="9">
         <f t="shared" si="0"/>
-        <v>15.0483159771085</v>
+        <v>15.815120514609</v>
       </c>
       <c r="K6" s="10">
         <f t="shared" si="1"/>
-        <v>16.8187060920625</v>
+        <v>17.1175422040474</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="2"/>
-        <v>64.16</v>
+        <v>65.3</v>
       </c>
       <c r="M6" s="11">
         <f t="shared" si="3"/>
-        <v>12.7910685805423</v>
+        <v>13.4428524374177</v>
       </c>
       <c r="N6" s="11">
         <f t="shared" si="4"/>
-        <v>14.2959001782531</v>
+        <v>14.5499108734403</v>
       </c>
       <c r="O6" s="11">
         <f t="shared" ref="O6:O14" si="5">L6/(1-G6)/$N$43</f>
-        <v>12.1515151515152</v>
+        <v>12.3674242424242</v>
       </c>
       <c r="P6" s="12">
         <f t="shared" ref="P6:P14" si="6">O6*$N$43-L6</f>
-        <v>16.04</v>
+        <v>16.325</v>
       </c>
       <c r="Q6" s="1">
         <v>0</v>
@@ -3287,31 +3287,31 @@
       </c>
       <c r="J7" s="9">
         <f t="shared" si="0"/>
-        <v>16.8521124558276</v>
+        <v>17.7736443721098</v>
       </c>
       <c r="K7" s="10">
         <f t="shared" si="1"/>
-        <v>18.8347139212191</v>
+        <v>19.2373562615777</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="2"/>
-        <v>67.36</v>
+        <v>68.8</v>
       </c>
       <c r="M7" s="11">
         <f t="shared" si="3"/>
-        <v>14.3242955874535</v>
+        <v>15.1075977162934</v>
       </c>
       <c r="N7" s="11">
         <f t="shared" si="4"/>
-        <v>16.0095068330362</v>
+        <v>16.3517528223411</v>
       </c>
       <c r="O7" s="11">
         <f t="shared" si="5"/>
-        <v>13.6080808080808</v>
+        <v>13.8989898989899</v>
       </c>
       <c r="P7" s="12">
         <f t="shared" si="6"/>
-        <v>22.4533333333333</v>
+        <v>22.9333333333333</v>
       </c>
       <c r="Q7" s="1">
         <v>1</v>
@@ -3347,31 +3347,31 @@
       </c>
       <c r="J8" s="9">
         <f t="shared" si="0"/>
-        <v>34.8724082934609</v>
+        <v>36.6641963109354</v>
       </c>
       <c r="K8" s="10">
         <f t="shared" si="1"/>
-        <v>38.9750445632799</v>
+        <v>39.6836007130125</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="2"/>
-        <v>87.46</v>
+        <v>89.05</v>
       </c>
       <c r="M8" s="11">
         <f t="shared" si="3"/>
-        <v>17.4362041467305</v>
+        <v>18.3320981554677</v>
       </c>
       <c r="N8" s="11">
         <f t="shared" si="4"/>
-        <v>19.4875222816399</v>
+        <v>19.8418003565062</v>
       </c>
       <c r="O8" s="11">
         <f t="shared" si="5"/>
-        <v>16.5643939393939</v>
+        <v>16.8655303030303</v>
       </c>
       <c r="P8" s="12">
         <f t="shared" si="6"/>
-        <v>21.865</v>
+        <v>22.2625</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -3407,31 +3407,31 @@
       </c>
       <c r="J9" s="9">
         <f t="shared" si="0"/>
-        <v>20.5901116427432</v>
+        <v>21.6979578392622</v>
       </c>
       <c r="K9" s="10">
         <f t="shared" si="1"/>
-        <v>23.0124777183601</v>
+        <v>23.4848484848485</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="2"/>
-        <v>77.46</v>
+        <v>79.05</v>
       </c>
       <c r="M9" s="11">
         <f t="shared" si="3"/>
-        <v>16.4720893141946</v>
+        <v>17.3583662714097</v>
       </c>
       <c r="N9" s="11">
         <f t="shared" si="4"/>
-        <v>18.4099821746881</v>
+        <v>18.7878787878788</v>
       </c>
       <c r="O9" s="11">
         <f t="shared" si="5"/>
-        <v>15.6484848484849</v>
+        <v>15.969696969697</v>
       </c>
       <c r="P9" s="12">
         <f t="shared" si="6"/>
-        <v>25.82</v>
+        <v>26.35</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -3467,31 +3467,31 @@
       </c>
       <c r="J10" s="9">
         <f t="shared" si="0"/>
-        <v>36.5033796612744</v>
+        <v>38.5218646088211</v>
       </c>
       <c r="K10" s="10">
         <f t="shared" si="1"/>
-        <v>40.797894915542</v>
+        <v>41.6942534589593</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="2"/>
-        <v>120.16</v>
+        <v>122.8</v>
       </c>
       <c r="M10" s="11">
         <f t="shared" si="3"/>
-        <v>25.5523657628921</v>
+        <v>26.9653052261748</v>
       </c>
       <c r="N10" s="11">
         <f t="shared" si="4"/>
-        <v>28.5585264408794</v>
+        <v>29.1859774212715</v>
       </c>
       <c r="O10" s="11">
         <f t="shared" si="5"/>
-        <v>24.2747474747475</v>
+        <v>24.8080808080808</v>
       </c>
       <c r="P10" s="12">
         <f t="shared" si="6"/>
-        <v>40.0533333333333</v>
+        <v>40.9333333333333</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -3527,31 +3527,31 @@
       </c>
       <c r="J11" s="9">
         <f t="shared" si="0"/>
-        <v>32.3632610939113</v>
+        <v>33.7905913353484</v>
       </c>
       <c r="K11" s="10">
         <f t="shared" si="1"/>
-        <v>36.1707035755479</v>
+        <v>36.5733459159065</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="2"/>
-        <v>129.36</v>
+        <v>130.8</v>
       </c>
       <c r="M11" s="11">
         <f t="shared" si="3"/>
-        <v>27.5087719298246</v>
+        <v>28.7220026350461</v>
       </c>
       <c r="N11" s="11">
         <f t="shared" si="4"/>
-        <v>30.7450980392157</v>
+        <v>31.0873440285205</v>
       </c>
       <c r="O11" s="11">
         <f t="shared" si="5"/>
-        <v>26.1333333333333</v>
+        <v>26.4242424242424</v>
       </c>
       <c r="P11" s="12">
         <f t="shared" si="6"/>
-        <v>43.12</v>
+        <v>43.6</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -3587,31 +3587,31 @@
       </c>
       <c r="J12" s="9">
         <f t="shared" si="0"/>
-        <v>32.3441933349054</v>
+        <v>33.8544775884929</v>
       </c>
       <c r="K12" s="10">
         <f t="shared" si="1"/>
-        <v>36.1493925507766</v>
+        <v>36.6424933898982</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="2"/>
-        <v>127.56</v>
+        <v>129.3</v>
       </c>
       <c r="M12" s="11">
         <f t="shared" si="3"/>
-        <v>27.4925643346696</v>
+        <v>28.776305950219</v>
       </c>
       <c r="N12" s="11">
         <f t="shared" si="4"/>
-        <v>30.7269836681601</v>
+        <v>31.1461193814135</v>
       </c>
       <c r="O12" s="11">
         <f t="shared" si="5"/>
-        <v>26.1179361179361</v>
+        <v>26.4742014742015</v>
       </c>
       <c r="P12" s="12">
         <f t="shared" si="6"/>
-        <v>44.8183783783784</v>
+        <v>45.4297297297297</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3647,31 +3647,31 @@
       </c>
       <c r="J13" s="9">
         <f t="shared" si="0"/>
-        <v>14.825655940207</v>
+        <v>15.6423570745821</v>
       </c>
       <c r="K13" s="10">
         <f t="shared" si="1"/>
-        <v>16.569850756702</v>
+        <v>16.9305511866066</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="2"/>
-        <v>59.26</v>
+        <v>60.55</v>
       </c>
       <c r="M13" s="11">
         <f t="shared" si="3"/>
-        <v>12.601807549176</v>
+        <v>13.2960035133948</v>
       </c>
       <c r="N13" s="11">
         <f t="shared" si="4"/>
-        <v>14.0843731431967</v>
+        <v>14.3909685086156</v>
       </c>
       <c r="O13" s="11">
         <f t="shared" si="5"/>
-        <v>11.9717171717172</v>
+        <v>12.2323232323232</v>
       </c>
       <c r="P13" s="12">
         <f t="shared" si="6"/>
-        <v>19.7533333333333</v>
+        <v>20.1833333333333</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -3707,31 +3707,31 @@
       </c>
       <c r="J14" s="9">
         <f t="shared" si="0"/>
-        <v>58.5901116427432</v>
+        <v>61.3965744400527</v>
       </c>
       <c r="K14" s="10">
         <f t="shared" si="1"/>
-        <v>65.4830659536542</v>
+        <v>66.4527629233512</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="2"/>
-        <v>137.76</v>
+        <v>139.8</v>
       </c>
       <c r="M14" s="11">
         <f t="shared" si="3"/>
-        <v>29.2950558213716</v>
+        <v>30.6982872200264</v>
       </c>
       <c r="N14" s="11">
         <f t="shared" si="4"/>
-        <v>32.7415329768271</v>
+        <v>33.2263814616756</v>
       </c>
       <c r="O14" s="11">
         <f t="shared" si="5"/>
-        <v>27.830303030303</v>
+        <v>28.2424242424242</v>
       </c>
       <c r="P14" s="12">
         <f t="shared" si="6"/>
-        <v>45.92</v>
+        <v>46.6</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -3767,31 +3767,31 @@
       </c>
       <c r="J15" s="9">
         <f>(E15+F15+(Sheet1!$K$43*H15+Sheet1!$M$43)*Sheet1!$L$43)/(1-G15)/(1-Sheet1!$O$43)/(1-I15)/Sheet1!$N$43</f>
-        <v>22.6062482409232</v>
+        <v>23.7154150197628</v>
       </c>
       <c r="K15" s="10">
         <f>(E15+F15+(Sheet1!$K$43*H15+Sheet1!$M$43)*Sheet1!$L$43)/(1-G15)/(1-Sheet1!$P$43)/(1-I15)/Sheet1!$N$43</f>
-        <v>25.2658068575024</v>
+        <v>25.668449197861</v>
       </c>
       <c r="L15" s="1">
         <f>E15+F15+(Sheet1!$K$43*H15+Sheet1!$M$43)*Sheet1!$L$43</f>
-        <v>90.36</v>
+        <v>91.8</v>
       </c>
       <c r="M15" s="11">
         <f>L15/(1-G15)/(1-Sheet1!$O$43)/Sheet1!$N$43</f>
-        <v>19.2153110047847</v>
+        <v>20.1581027667984</v>
       </c>
       <c r="N15" s="11">
         <f>L15/(1-G15)/(1-Sheet1!$P$43)/Sheet1!$N$43</f>
-        <v>21.475935828877</v>
+        <v>21.8181818181818</v>
       </c>
       <c r="O15" s="11">
         <f>L15/(1-G15)/Sheet1!$N$43</f>
-        <v>18.2545454545455</v>
+        <v>18.5454545454545</v>
       </c>
       <c r="P15" s="12">
         <f>O15*Sheet1!$N$43-L15</f>
-        <v>30.12</v>
+        <v>30.6</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -3827,31 +3827,31 @@
       </c>
       <c r="J16" s="9">
         <f>(E16+F16+(Sheet1!$K$43*H16+Sheet1!$M$43)*Sheet1!$L$43)/(1-G16)/(1-Sheet1!$O$43)/(1-I16)/Sheet1!$N$43</f>
-        <v>11.4194577352472</v>
+        <v>12.0223978919631</v>
       </c>
       <c r="K16" s="10">
         <f>(E16+F16+(Sheet1!$K$43*H16+Sheet1!$M$43)*Sheet1!$L$43)/(1-G16)/(1-Sheet1!$P$43)/(1-I16)/Sheet1!$N$43</f>
-        <v>12.7629233511586</v>
+        <v>13.0124777183601</v>
       </c>
       <c r="L16" s="1">
         <f>E16+F16+(Sheet1!$K$43*H16+Sheet1!$M$43)*Sheet1!$L$43</f>
-        <v>42.96</v>
+        <v>43.8</v>
       </c>
       <c r="M16" s="11">
         <f>L16/(1-G16)/(1-Sheet1!$O$43)/Sheet1!$N$43</f>
-        <v>8.56459330143541</v>
+        <v>9.01679841897233</v>
       </c>
       <c r="N16" s="11">
         <f>L16/(1-G16)/(1-Sheet1!$P$43)/Sheet1!$N$43</f>
-        <v>9.57219251336898</v>
+        <v>9.75935828877005</v>
       </c>
       <c r="O16" s="11">
         <f>L16/(1-G16)/Sheet1!$N$43</f>
-        <v>8.13636363636363</v>
+        <v>8.29545454545454</v>
       </c>
       <c r="P16" s="12">
         <f>O16*Sheet1!$N$43-L16</f>
-        <v>10.74</v>
+        <v>10.95</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -5230,7 +5230,7 @@
         <v>100</v>
       </c>
       <c r="L43" s="13">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="M43">
         <v>8</v>
@@ -5239,7 +5239,7 @@
         <v>6.6</v>
       </c>
       <c r="O43" s="13">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="P43" s="13">
         <v>0.15</v>
@@ -5247,6 +5247,9 @@
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28 C35 C36 C37 C38 C39 C40 C17:C21 C24:C26 C31:C34">
+      <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27 C2:C16 C29:C30">
       <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子,裤子"</formula1>
     </dataValidation>
@@ -5255,9 +5258,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q6 R2:R4">
       <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28 C35 C36 C37 C38 C39 C40 C17:C21 C24:C26 C31:C34">
-      <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/产品表单.xlsx
+++ b/产品表单.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
   <si>
     <t>产品标题</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>https://detail.1688.com/offer/531232169182.html?spm=a261y.7663282.0.0.1DCfuw</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/531965973421.html?spm=a2615.7691456.0.0.MQ5cDO</t>
   </si>
   <si>
     <t>国际运费 1kg/￥</t>
@@ -230,12 +233,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
   </numFmts>
@@ -273,7 +276,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,6 +284,29 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,15 +320,36 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -324,43 +371,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -371,7 +381,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,21 +410,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -423,7 +426,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,73 +552,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,7 +570,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,85 +594,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,69 +617,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -706,6 +646,69 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -722,10 +725,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -734,16 +737,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -752,115 +755,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -992,7 +995,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1030,7 +1033,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2" cstate="print"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1068,7 +1071,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3" cstate="print"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1106,7 +1109,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4" cstate="print"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1144,7 +1147,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5" cstate="print"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1182,7 +1185,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6" cstate="print"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1220,7 +1223,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7" cstate="print"/>
+        <a:blip r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1258,7 +1261,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8" cstate="print"/>
+        <a:blip r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1296,7 +1299,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9" cstate="print"/>
+        <a:blip r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1334,7 +1337,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10" cstate="print"/>
+        <a:blip r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1372,7 +1375,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11" cstate="print"/>
+        <a:blip r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1410,7 +1413,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12" cstate="print"/>
+        <a:blip r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1452,7 +1455,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13" cstate="print"/>
+        <a:blip r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1490,7 +1493,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId14" cstate="print"/>
+        <a:blip r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1528,7 +1531,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId15" cstate="print"/>
+        <a:blip r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1566,7 +1569,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId16" cstate="print"/>
+        <a:blip r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1608,7 +1611,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId17" cstate="print"/>
+        <a:blip r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1650,7 +1653,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId18" cstate="print"/>
+        <a:blip r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1692,7 +1695,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId19" cstate="print"/>
+        <a:blip r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1734,7 +1737,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId20" cstate="print"/>
+        <a:blip r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1776,7 +1779,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId21" cstate="print"/>
+        <a:blip r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1818,7 +1821,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId22" cstate="print"/>
+        <a:blip r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1860,7 +1863,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId23" cstate="print"/>
+        <a:blip r:embed="rId23"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1902,7 +1905,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId24" cstate="print"/>
+        <a:blip r:embed="rId24"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1944,7 +1947,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId25" cstate="print"/>
+        <a:blip r:embed="rId25"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2028,7 +2031,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId27" cstate="print"/>
+        <a:blip r:embed="rId27"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2070,7 +2073,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId28" cstate="print"/>
+        <a:blip r:embed="rId28"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2108,7 +2111,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId29" cstate="print"/>
+        <a:blip r:embed="rId29"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2150,7 +2153,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId30" cstate="print"/>
+        <a:blip r:embed="rId30"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2192,7 +2195,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId31" cstate="print"/>
+        <a:blip r:embed="rId31"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2234,7 +2237,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId32" cstate="print"/>
+        <a:blip r:embed="rId32"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2314,7 +2317,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId34" cstate="print"/>
+        <a:blip r:embed="rId34"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2509,8 +2512,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>975360</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>844550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2528,7 +2531,49 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27940" y="41549955"/>
-          <a:ext cx="947420" cy="1038225"/>
+          <a:ext cx="947420" cy="814070"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>14605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>968375</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1105535</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="图片 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22860" y="42600880"/>
+          <a:ext cx="945515" cy="1090930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2868,19 +2913,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S43"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N40" sqref="N40"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="14.1272727272727" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="9.62727272727273" customWidth="1"/>
+    <col min="3" max="3" width="7.50909090909091" customWidth="1"/>
     <col min="4" max="4" width="17.3727272727273" customWidth="1"/>
     <col min="5" max="5" width="8.12727272727273" customWidth="1"/>
     <col min="6" max="6" width="9.87272727272727" customWidth="1"/>
@@ -2978,31 +3023,31 @@
         <v>0.15</v>
       </c>
       <c r="J2" s="9">
-        <f t="shared" ref="J2:J14" si="0">(E2+F2+($K$43*H2+$M$43)*$L$43)/(1-G2)/(1-$O$43)/(1-I2)/$N$43</f>
+        <f t="shared" ref="J2:J14" si="0">(E2+F2+($K$45*H2+$M$45)*$L$45)/(1-G2)/(1-$O$45)/(1-I2)/$N$45</f>
         <v>17.3861375907412</v>
       </c>
       <c r="K2" s="10">
-        <f t="shared" ref="K2:K14" si="1">(E2+F2+($K$43*H2+$M$43)*$L$43)/(1-G2)/(1-$P$43)/(1-I2)/$N$43</f>
+        <f t="shared" ref="K2:K14" si="1">(E2+F2+($K$45*H2+$M$45)*$L$45)/(1-G2)/(1-$P$45)/(1-I2)/$N$45</f>
         <v>18.8179371570375</v>
       </c>
       <c r="L2" s="1">
-        <f t="shared" ref="L2:L14" si="2">E2+F2+($K$43*H2+$M$43)*$L$43</f>
+        <f t="shared" ref="L2:L14" si="2">E2+F2+($K$45*H2+$M$45)*$L$45</f>
         <v>67.3</v>
       </c>
       <c r="M2" s="11">
-        <f t="shared" ref="M2:M14" si="3">L2/(1-G2)/(1-$O$43)/$N$43</f>
+        <f t="shared" ref="M2:M14" si="3">L2/(1-G2)/(1-$O$45)/$N$45</f>
         <v>14.77821695213</v>
       </c>
       <c r="N2" s="11">
-        <f t="shared" ref="N2:N14" si="4">L2/(1-G2)/(1-$P$43)/$N$43</f>
+        <f t="shared" ref="N2:N14" si="4">L2/(1-G2)/(1-$P$45)/$N$45</f>
         <v>15.9952465834819</v>
       </c>
       <c r="O2" s="11">
-        <f>L2/(1-G2)/$N$43</f>
+        <f>L2/(1-G2)/$N$45</f>
         <v>13.5959595959596</v>
       </c>
       <c r="P2" s="12">
-        <f>O2*$N$43-L2</f>
+        <f>O2*$N$45-L2</f>
         <v>22.4333333333333</v>
       </c>
       <c r="Q2" s="1">
@@ -3059,11 +3104,11 @@
         <v>9.22162804515746</v>
       </c>
       <c r="O3" s="11">
-        <f>L3/(1-G3)/$N$43</f>
+        <f>L3/(1-G3)/$N$45</f>
         <v>7.83838383838384</v>
       </c>
       <c r="P3" s="12">
-        <f>O3*$N$43-L3</f>
+        <f>O3*$N$45-L3</f>
         <v>12.9333333333333</v>
       </c>
       <c r="Q3" s="1">
@@ -3120,11 +3165,11 @@
         <v>14.9257278669043</v>
       </c>
       <c r="O4" s="11">
-        <f>L4/(1-G4)/$N$43</f>
+        <f>L4/(1-G4)/$N$45</f>
         <v>12.6868686868687</v>
       </c>
       <c r="P4" s="12">
-        <f>O4*$N$43-L4</f>
+        <f>O4*$N$45-L4</f>
         <v>20.9333333333333</v>
       </c>
       <c r="Q4" s="1">
@@ -3181,11 +3226,11 @@
         <v>17.3024361259655</v>
       </c>
       <c r="O5" s="11">
-        <f>L5/(1-G5)/$N$43</f>
+        <f>L5/(1-G5)/$N$45</f>
         <v>14.7070707070707</v>
       </c>
       <c r="P5" s="12">
-        <f>O5*$N$43-L5</f>
+        <f>O5*$N$45-L5</f>
         <v>24.2666666666667</v>
       </c>
       <c r="Q5" s="1">
@@ -3242,11 +3287,11 @@
         <v>14.5499108734403</v>
       </c>
       <c r="O6" s="11">
-        <f t="shared" ref="O6:O14" si="5">L6/(1-G6)/$N$43</f>
+        <f t="shared" ref="O6:O14" si="5">L6/(1-G6)/$N$45</f>
         <v>12.3674242424242</v>
       </c>
       <c r="P6" s="12">
-        <f t="shared" ref="P6:P14" si="6">O6*$N$43-L6</f>
+        <f t="shared" ref="P6:P14" si="6">O6*$N$45-L6</f>
         <v>16.325</v>
       </c>
       <c r="Q6" s="1">
@@ -3766,31 +3811,31 @@
         <v>0.15</v>
       </c>
       <c r="J15" s="9">
-        <f>(E15+F15+(Sheet1!$K$43*H15+Sheet1!$M$43)*Sheet1!$L$43)/(1-G15)/(1-Sheet1!$O$43)/(1-I15)/Sheet1!$N$43</f>
+        <f>(E15+F15+(Sheet1!$K$45*H15+Sheet1!$M$45)*Sheet1!$L$45)/(1-G15)/(1-Sheet1!$O$45)/(1-I15)/Sheet1!$N$45</f>
         <v>23.7154150197628</v>
       </c>
       <c r="K15" s="10">
-        <f>(E15+F15+(Sheet1!$K$43*H15+Sheet1!$M$43)*Sheet1!$L$43)/(1-G15)/(1-Sheet1!$P$43)/(1-I15)/Sheet1!$N$43</f>
+        <f>(E15+F15+(Sheet1!$K$45*H15+Sheet1!$M$45)*Sheet1!$L$45)/(1-G15)/(1-Sheet1!$P$45)/(1-I15)/Sheet1!$N$45</f>
         <v>25.668449197861</v>
       </c>
       <c r="L15" s="1">
-        <f>E15+F15+(Sheet1!$K$43*H15+Sheet1!$M$43)*Sheet1!$L$43</f>
+        <f>E15+F15+(Sheet1!$K$45*H15+Sheet1!$M$45)*Sheet1!$L$45</f>
         <v>91.8</v>
       </c>
       <c r="M15" s="11">
-        <f>L15/(1-G15)/(1-Sheet1!$O$43)/Sheet1!$N$43</f>
+        <f>L15/(1-G15)/(1-Sheet1!$O$45)/Sheet1!$N$45</f>
         <v>20.1581027667984</v>
       </c>
       <c r="N15" s="11">
-        <f>L15/(1-G15)/(1-Sheet1!$P$43)/Sheet1!$N$43</f>
+        <f>L15/(1-G15)/(1-Sheet1!$P$45)/Sheet1!$N$45</f>
         <v>21.8181818181818</v>
       </c>
       <c r="O15" s="11">
-        <f>L15/(1-G15)/Sheet1!$N$43</f>
+        <f>L15/(1-G15)/Sheet1!$N$45</f>
         <v>18.5454545454545</v>
       </c>
       <c r="P15" s="12">
-        <f>O15*Sheet1!$N$43-L15</f>
+        <f>O15*Sheet1!$N$45-L15</f>
         <v>30.6</v>
       </c>
       <c r="Q15">
@@ -3826,31 +3871,31 @@
         <v>0.25</v>
       </c>
       <c r="J16" s="9">
-        <f>(E16+F16+(Sheet1!$K$43*H16+Sheet1!$M$43)*Sheet1!$L$43)/(1-G16)/(1-Sheet1!$O$43)/(1-I16)/Sheet1!$N$43</f>
+        <f>(E16+F16+(Sheet1!$K$45*H16+Sheet1!$M$45)*Sheet1!$L$45)/(1-G16)/(1-Sheet1!$O$45)/(1-I16)/Sheet1!$N$45</f>
         <v>12.0223978919631</v>
       </c>
       <c r="K16" s="10">
-        <f>(E16+F16+(Sheet1!$K$43*H16+Sheet1!$M$43)*Sheet1!$L$43)/(1-G16)/(1-Sheet1!$P$43)/(1-I16)/Sheet1!$N$43</f>
+        <f>(E16+F16+(Sheet1!$K$45*H16+Sheet1!$M$45)*Sheet1!$L$45)/(1-G16)/(1-Sheet1!$P$45)/(1-I16)/Sheet1!$N$45</f>
         <v>13.0124777183601</v>
       </c>
       <c r="L16" s="1">
-        <f>E16+F16+(Sheet1!$K$43*H16+Sheet1!$M$43)*Sheet1!$L$43</f>
+        <f>E16+F16+(Sheet1!$K$45*H16+Sheet1!$M$45)*Sheet1!$L$45</f>
         <v>43.8</v>
       </c>
       <c r="M16" s="11">
-        <f>L16/(1-G16)/(1-Sheet1!$O$43)/Sheet1!$N$43</f>
+        <f>L16/(1-G16)/(1-Sheet1!$O$45)/Sheet1!$N$45</f>
         <v>9.01679841897233</v>
       </c>
       <c r="N16" s="11">
-        <f>L16/(1-G16)/(1-Sheet1!$P$43)/Sheet1!$N$43</f>
+        <f>L16/(1-G16)/(1-Sheet1!$P$45)/Sheet1!$N$45</f>
         <v>9.75935828877005</v>
       </c>
       <c r="O16" s="11">
-        <f>L16/(1-G16)/Sheet1!$N$43</f>
+        <f>L16/(1-G16)/Sheet1!$N$45</f>
         <v>8.29545454545454</v>
       </c>
       <c r="P16" s="12">
-        <f>O16*Sheet1!$N$43-L16</f>
+        <f>O16*Sheet1!$N$45-L16</f>
         <v>10.95</v>
       </c>
       <c r="Q16">
@@ -5138,7 +5183,9 @@
       <c r="B39">
         <v>16122001</v>
       </c>
-      <c r="C39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D39" s="6" t="s">
         <v>60</v>
       </c>
@@ -5192,69 +5239,142 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" customFormat="1" ht="90.75" customHeight="1" spans="3:16">
-      <c r="C40" s="1"/>
-      <c r="D40" s="6"/>
-      <c r="G40" s="3"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="12"/>
+    <row r="40" customFormat="1" ht="90.75" customHeight="1" spans="2:18">
+      <c r="B40">
+        <v>17011301</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40">
+        <v>19</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H40">
+        <v>0.2</v>
+      </c>
+      <c r="I40" s="13">
+        <v>0.45</v>
+      </c>
+      <c r="J40" s="9">
+        <f>(E40+F40+([1]Sheet1!$K$26*H40+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G40)/(1-[1]Sheet1!$O$26)/(1-I40)/[1]Sheet1!$N$26</f>
+        <v>18.1566864820453</v>
+      </c>
+      <c r="K40" s="10">
+        <f>(E40+F40+([1]Sheet1!$K$26*H40+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G40)/(1-[1]Sheet1!$P$26)/(1-I40)/[1]Sheet1!$N$26</f>
+        <v>20.2927672446389</v>
+      </c>
+      <c r="L40" s="1">
+        <f>E40+F40+([1]Sheet1!$K$26*H40+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
+        <v>46.96</v>
+      </c>
+      <c r="M40" s="11">
+        <f>L40/(1-G40)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
+        <v>9.98617756512493</v>
+      </c>
+      <c r="N40" s="11">
+        <f>L40/(1-G40)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
+        <v>11.1610219845514</v>
+      </c>
+      <c r="O40" s="11">
+        <f>L40/(1-G40)/[1]Sheet1!$N$26</f>
+        <v>9.48686868686869</v>
+      </c>
+      <c r="P40" s="12">
+        <f>O40*[1]Sheet1!$N$26-L40</f>
+        <v>15.6533333333333</v>
+      </c>
+      <c r="Q40">
+        <v>20</v>
+      </c>
+      <c r="R40">
+        <v>45</v>
+      </c>
     </row>
-    <row r="42" spans="11:16">
-      <c r="K42" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L42" s="14" t="s">
+    <row r="41" customFormat="1" ht="90.75" customHeight="1" spans="3:16">
+      <c r="C41" s="1"/>
+      <c r="D41" s="6"/>
+      <c r="G41" s="3"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="12"/>
+    </row>
+    <row r="42" customFormat="1" ht="90.75" customHeight="1" spans="3:16">
+      <c r="C42" s="1"/>
+      <c r="D42" s="6"/>
+      <c r="G42" s="3"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="12"/>
+    </row>
+    <row r="44" spans="11:16">
+      <c r="K44" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="M42" s="14" t="s">
+      <c r="L44" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="N42" s="14" t="s">
+      <c r="M44" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="O42" s="14" t="s">
+      <c r="N44" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="P42" s="14" t="s">
+      <c r="O44" s="14" t="s">
         <v>66</v>
       </c>
+      <c r="P44" s="14" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="43" spans="11:16">
-      <c r="K43" s="15">
+    <row r="45" spans="11:16">
+      <c r="K45" s="15">
         <v>100</v>
       </c>
-      <c r="L43" s="13">
+      <c r="L45" s="13">
         <v>0.85</v>
       </c>
-      <c r="M43">
+      <c r="M45">
         <v>8</v>
       </c>
-      <c r="N43">
+      <c r="N45">
         <v>6.6</v>
       </c>
-      <c r="O43" s="13">
+      <c r="O45" s="13">
         <v>0.08</v>
       </c>
-      <c r="P43" s="13">
+      <c r="P45" s="13">
         <v>0.15</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28 C35 C36 C37 C38 C39 C40 C17:C21 C24:C26 C31:C34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28 C35 C36 C37 C38 C39 C40 C41 C42 C17:C21 C24:C26 C31:C34">
       <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>"爬爬服"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27 C2:C16 C29:C30">
       <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子,裤子"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
-      <formula1>"爬爬服"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q6 R2:R4">
       <formula1>"0,1"</formula1>
@@ -5293,6 +5413,7 @@
     <hyperlink ref="D37" r:id="rId28" display="https://detail.1688.com/offer/39363390916.html?spm=b26110380.sw56474001.0.0.AOuyqk"/>
     <hyperlink ref="D38" r:id="rId29" display="https://detail.1688.com/offer/523975460031.html?spm=b26110380.8015204.1688002.1.dPdaJX"/>
     <hyperlink ref="D39" r:id="rId30" display="https://detail.1688.com/offer/531232169182.html?spm=a261y.7663282.0.0.1DCfuw"/>
+    <hyperlink ref="D40" r:id="rId31" display="https://detail.1688.com/offer/531965973421.html?spm=a2615.7691456.0.0.MQ5cDO"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>

--- a/产品表单.xlsx
+++ b/产品表单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="8690"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="8685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$C$27</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="69">
   <si>
     <t>产品标题</t>
   </si>
@@ -226,23 +226,23 @@
   </si>
   <si>
     <t>wish费率</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/538656905495.html?spm=b26110380.sw1037004.0.0.dRfQA7&amp;sk=consign</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
+  <numFmts count="4">
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,140 +278,17 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -424,194 +301,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -619,255 +310,19 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -880,31 +335,31 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -913,67 +368,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
+    <cellStyle name="百分比" xfId="2" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -995,7 +408,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1033,7 +446,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1071,7 +484,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1109,7 +522,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1147,7 +560,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1185,7 +598,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1223,7 +636,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1261,7 +674,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1299,7 +712,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1337,7 +750,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1375,7 +788,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1413,7 +826,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1455,7 +868,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1493,7 +906,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1531,7 +944,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1569,7 +982,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1611,7 +1024,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1653,7 +1066,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1695,7 +1108,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1737,7 +1150,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1779,7 +1192,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId21"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1821,7 +1234,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId22"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1863,7 +1276,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId23"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1905,7 +1318,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId24"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1947,7 +1360,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId25"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1989,7 +1402,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId26"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2031,7 +1444,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId27"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2073,7 +1486,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId28"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2111,7 +1524,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId29"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2153,7 +1566,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId30"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2195,7 +1608,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId31"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2237,7 +1650,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId32"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2279,7 +1692,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId33"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2317,7 +1730,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId34"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2355,7 +1768,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId35"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2397,7 +1810,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId36"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2439,7 +1852,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId37"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2481,7 +1894,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId38"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2523,7 +1936,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId39"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2565,7 +1978,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId40"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2586,6 +1999,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1060173</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>1101586</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="图片 43" descr="组合图.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="43761163"/>
+          <a:ext cx="1060173" cy="1060173"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2598,7 +2049,7 @@
       <sheetName val="Sheet3"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="26">
           <cell r="K26">
             <v>100</v>
@@ -2620,8 +2071,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2911,36 +2362,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+      <selection pane="bottomLeft" activeCell="R42" sqref="R42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.1272727272727" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="7.50909090909091" customWidth="1"/>
-    <col min="4" max="4" width="17.3727272727273" customWidth="1"/>
-    <col min="5" max="5" width="8.12727272727273" customWidth="1"/>
-    <col min="6" max="6" width="9.87272727272727" customWidth="1"/>
-    <col min="7" max="7" width="8.25454545454545" customWidth="1"/>
-    <col min="10" max="10" width="11.2545454545455" customWidth="1"/>
-    <col min="11" max="11" width="11.1272727272727" customWidth="1"/>
-    <col min="12" max="12" width="7.62727272727273" customWidth="1"/>
-    <col min="13" max="13" width="11.8727272727273" customWidth="1"/>
-    <col min="14" max="15" width="11.6272727272727" customWidth="1"/>
-    <col min="16" max="16" width="9.87272727272727" customWidth="1"/>
+    <col min="3" max="3" width="7.5" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="8.125" customWidth="1"/>
+    <col min="6" max="6" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="8.25" customWidth="1"/>
+    <col min="10" max="10" width="11.25" customWidth="1"/>
+    <col min="11" max="11" width="11.125" customWidth="1"/>
+    <col min="12" max="12" width="7.625" customWidth="1"/>
+    <col min="13" max="13" width="11.875" customWidth="1"/>
+    <col min="14" max="15" width="11.625" customWidth="1"/>
+    <col min="16" max="16" width="9.875" customWidth="1"/>
     <col min="17" max="17" width="6.5" customWidth="1"/>
-    <col min="18" max="18" width="6.87272727272727" customWidth="1"/>
+    <col min="18" max="18" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2996,7 +2445,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="86.25" customHeight="1" spans="1:18">
+    <row r="2" spans="1:19" ht="86.25" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
         <v>16072601</v>
@@ -3024,11 +2473,11 @@
       </c>
       <c r="J2" s="9">
         <f t="shared" ref="J2:J14" si="0">(E2+F2+($K$45*H2+$M$45)*$L$45)/(1-G2)/(1-$O$45)/(1-I2)/$N$45</f>
-        <v>17.3861375907412</v>
+        <v>16.874780602778195</v>
       </c>
       <c r="K2" s="10">
         <f t="shared" ref="K2:K14" si="1">(E2+F2+($K$45*H2+$M$45)*$L$45)/(1-G2)/(1-$P$45)/(1-I2)/$N$45</f>
-        <v>18.8179371570375</v>
+        <v>18.26446841712464</v>
       </c>
       <c r="L2" s="1">
         <f t="shared" ref="L2:L14" si="2">E2+F2+($K$45*H2+$M$45)*$L$45</f>
@@ -3036,19 +2485,19 @@
       </c>
       <c r="M2" s="11">
         <f t="shared" ref="M2:M14" si="3">L2/(1-G2)/(1-$O$45)/$N$45</f>
-        <v>14.77821695213</v>
+        <v>14.343563512361467</v>
       </c>
       <c r="N2" s="11">
         <f t="shared" ref="N2:N14" si="4">L2/(1-G2)/(1-$P$45)/$N$45</f>
-        <v>15.9952465834819</v>
+        <v>15.524798154555942</v>
       </c>
       <c r="O2" s="11">
         <f>L2/(1-G2)/$N$45</f>
-        <v>13.5959595959596</v>
+        <v>13.19607843137255</v>
       </c>
       <c r="P2" s="12">
         <f>O2*$N$45-L2</f>
-        <v>22.4333333333333</v>
+        <v>22.433333333333337</v>
       </c>
       <c r="Q2" s="1">
         <v>1</v>
@@ -3057,7 +2506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="86.25" customHeight="1" spans="1:18">
+    <row r="3" spans="1:19" ht="86.25" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>16072701</v>
@@ -3085,31 +2534,31 @@
       </c>
       <c r="J3" s="9">
         <f t="shared" si="0"/>
-        <v>11.3599765773679</v>
+        <v>11.025859619210001</v>
       </c>
       <c r="K3" s="10">
         <f t="shared" si="1"/>
-        <v>12.2955040602099</v>
+        <v>11.933871587850826</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" si="2"/>
-        <v>38.8</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="M3" s="11">
         <f t="shared" si="3"/>
-        <v>8.51998243302591</v>
+        <v>8.2693947144075022</v>
       </c>
       <c r="N3" s="11">
         <f t="shared" si="4"/>
-        <v>9.22162804515746</v>
+        <v>8.9504036908881197</v>
       </c>
       <c r="O3" s="11">
         <f>L3/(1-G3)/$N$45</f>
-        <v>7.83838383838384</v>
+        <v>7.6078431372549016</v>
       </c>
       <c r="P3" s="12">
         <f>O3*$N$45-L3</f>
-        <v>12.9333333333333</v>
+        <v>12.93333333333333</v>
       </c>
       <c r="Q3" s="1">
         <v>1</v>
@@ -3118,7 +2567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="69.75" customHeight="1" spans="1:18">
+    <row r="4" spans="1:19" ht="69.75" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>16072901</v>
@@ -3146,11 +2595,11 @@
       </c>
       <c r="J4" s="9">
         <f t="shared" si="0"/>
-        <v>19.7001066566284</v>
+        <v>19.120691754962856</v>
       </c>
       <c r="K4" s="10">
         <f t="shared" si="1"/>
-        <v>21.3224683812919</v>
+        <v>20.69533695831274</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="2"/>
@@ -3158,19 +2607,19 @@
       </c>
       <c r="M4" s="11">
         <f t="shared" si="3"/>
-        <v>13.7900746596399</v>
+        <v>13.384484228473999</v>
       </c>
       <c r="N4" s="11">
         <f t="shared" si="4"/>
-        <v>14.9257278669043</v>
+        <v>14.486735870818917</v>
       </c>
       <c r="O4" s="11">
         <f>L4/(1-G4)/$N$45</f>
-        <v>12.6868686868687</v>
+        <v>12.313725490196079</v>
       </c>
       <c r="P4" s="12">
         <f>O4*$N$45-L4</f>
-        <v>20.9333333333333</v>
+        <v>20.933333333333337</v>
       </c>
       <c r="Q4" s="1">
         <v>1</v>
@@ -3179,7 +2628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="78" customHeight="1" spans="1:18">
+    <row r="5" spans="1:19" ht="78" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>16073001</v>
@@ -3207,11 +2656,11 @@
       </c>
       <c r="J5" s="9">
         <f t="shared" si="0"/>
-        <v>18.806995789093</v>
+        <v>18.253848854119653</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" si="1"/>
-        <v>20.3558072070183</v>
+        <v>19.757106995047156</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="2"/>
@@ -3219,19 +2668,19 @@
       </c>
       <c r="M5" s="11">
         <f t="shared" si="3"/>
-        <v>15.985946420729</v>
+        <v>15.515771526001704</v>
       </c>
       <c r="N5" s="11">
         <f t="shared" si="4"/>
-        <v>17.3024361259655</v>
+        <v>16.793540945790081</v>
       </c>
       <c r="O5" s="11">
         <f>L5/(1-G5)/$N$45</f>
-        <v>14.7070707070707</v>
+        <v>14.274509803921568</v>
       </c>
       <c r="P5" s="12">
         <f>O5*$N$45-L5</f>
-        <v>24.2666666666667</v>
+        <v>24.266666666666666</v>
       </c>
       <c r="Q5" s="1">
         <v>1</v>
@@ -3240,7 +2689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="78" customHeight="1" spans="1:19">
+    <row r="6" spans="1:19" ht="78" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="1">
         <v>16073002</v>
@@ -3268,11 +2717,11 @@
       </c>
       <c r="J6" s="9">
         <f t="shared" si="0"/>
-        <v>15.815120514609</v>
+        <v>15.34996991123815</v>
       </c>
       <c r="K6" s="10">
         <f t="shared" si="1"/>
-        <v>17.1175422040474</v>
+        <v>16.61408508039894</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="2"/>
@@ -3280,19 +2729,19 @@
       </c>
       <c r="M6" s="11">
         <f t="shared" si="3"/>
-        <v>13.4428524374177</v>
+        <v>13.047474424552426</v>
       </c>
       <c r="N6" s="11">
         <f t="shared" si="4"/>
-        <v>14.5499108734403</v>
+        <v>14.121972318339099</v>
       </c>
       <c r="O6" s="11">
         <f t="shared" ref="O6:O14" si="5">L6/(1-G6)/$N$45</f>
-        <v>12.3674242424242</v>
+        <v>12.003676470588234</v>
       </c>
       <c r="P6" s="12">
         <f t="shared" ref="P6:P14" si="6">O6*$N$45-L6</f>
-        <v>16.325</v>
+        <v>16.324999999999989</v>
       </c>
       <c r="Q6" s="1">
         <v>0</v>
@@ -3304,7 +2753,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" ht="69" customHeight="1" spans="1:18">
+    <row r="7" spans="1:19" ht="69" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>16080301</v>
@@ -3332,11 +2781,11 @@
       </c>
       <c r="J7" s="9">
         <f t="shared" si="0"/>
-        <v>17.7736443721098</v>
+        <v>17.250890125871322</v>
       </c>
       <c r="K7" s="10">
         <f t="shared" si="1"/>
-        <v>19.2373562615777</v>
+        <v>18.671551665648959</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="2"/>
@@ -3344,19 +2793,19 @@
       </c>
       <c r="M7" s="11">
         <f t="shared" si="3"/>
-        <v>15.1075977162934</v>
+        <v>14.663256606990624</v>
       </c>
       <c r="N7" s="11">
         <f t="shared" si="4"/>
-        <v>16.3517528223411</v>
+        <v>15.870818915801616</v>
       </c>
       <c r="O7" s="11">
         <f t="shared" si="5"/>
-        <v>13.8989898989899</v>
+        <v>13.490196078431373</v>
       </c>
       <c r="P7" s="12">
         <f t="shared" si="6"/>
-        <v>22.9333333333333</v>
+        <v>22.933333333333337</v>
       </c>
       <c r="Q7" s="1">
         <v>1</v>
@@ -3365,7 +2814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="78" customHeight="1" spans="2:18">
+    <row r="8" spans="1:19" ht="78" customHeight="1">
       <c r="B8">
         <v>16080401</v>
       </c>
@@ -3392,11 +2841,11 @@
       </c>
       <c r="J8" s="9">
         <f t="shared" si="0"/>
-        <v>36.6641963109354</v>
+        <v>35.585837595907925</v>
       </c>
       <c r="K8" s="10">
         <f t="shared" si="1"/>
-        <v>39.6836007130125</v>
+        <v>38.516435986159166</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="2"/>
@@ -3404,19 +2853,19 @@
       </c>
       <c r="M8" s="11">
         <f t="shared" si="3"/>
-        <v>18.3320981554677</v>
+        <v>17.792918797953963</v>
       </c>
       <c r="N8" s="11">
         <f t="shared" si="4"/>
-        <v>19.8418003565062</v>
+        <v>19.258217993079583</v>
       </c>
       <c r="O8" s="11">
         <f t="shared" si="5"/>
-        <v>16.8655303030303</v>
+        <v>16.369485294117645</v>
       </c>
       <c r="P8" s="12">
         <f t="shared" si="6"/>
-        <v>22.2625</v>
+        <v>22.262499999999989</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -3425,7 +2874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="92.25" customHeight="1" spans="2:18">
+    <row r="9" spans="1:19" ht="92.25" customHeight="1">
       <c r="B9">
         <v>16100801</v>
       </c>
@@ -3452,11 +2901,11 @@
       </c>
       <c r="J9" s="9">
         <f t="shared" si="0"/>
-        <v>21.6979578392622</v>
+        <v>21.059782608695649</v>
       </c>
       <c r="K9" s="10">
         <f t="shared" si="1"/>
-        <v>23.4848484848485</v>
+        <v>22.794117647058822</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="2"/>
@@ -3464,19 +2913,19 @@
       </c>
       <c r="M9" s="11">
         <f t="shared" si="3"/>
-        <v>17.3583662714097</v>
+        <v>16.84782608695652</v>
       </c>
       <c r="N9" s="11">
         <f t="shared" si="4"/>
-        <v>18.7878787878788</v>
+        <v>18.235294117647058</v>
       </c>
       <c r="O9" s="11">
         <f t="shared" si="5"/>
-        <v>15.969696969697</v>
+        <v>15.5</v>
       </c>
       <c r="P9" s="12">
         <f t="shared" si="6"/>
-        <v>26.35</v>
+        <v>26.349999999999994</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -3485,7 +2934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="89.25" customHeight="1" spans="2:18">
+    <row r="10" spans="1:19" ht="89.25" customHeight="1">
       <c r="B10">
         <v>16100901</v>
       </c>
@@ -3512,11 +2961,11 @@
       </c>
       <c r="J10" s="9">
         <f t="shared" si="0"/>
-        <v>38.5218646088211</v>
+        <v>37.388868590914626</v>
       </c>
       <c r="K10" s="10">
         <f t="shared" si="1"/>
-        <v>41.6942534589593</v>
+        <v>40.46795188663701</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="2"/>
@@ -3524,19 +2973,19 @@
       </c>
       <c r="M10" s="11">
         <f t="shared" si="3"/>
-        <v>26.9653052261748</v>
+        <v>26.172208013640237</v>
       </c>
       <c r="N10" s="11">
         <f t="shared" si="4"/>
-        <v>29.1859774212715</v>
+        <v>28.327566320645907</v>
       </c>
       <c r="O10" s="11">
         <f t="shared" si="5"/>
-        <v>24.8080808080808</v>
+        <v>24.078431372549019</v>
       </c>
       <c r="P10" s="12">
         <f t="shared" si="6"/>
-        <v>40.9333333333333</v>
+        <v>40.933333333333323</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -3545,7 +2994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="95.25" customHeight="1" spans="2:18">
+    <row r="11" spans="1:19" ht="95.25" customHeight="1">
       <c r="B11">
         <v>16101601</v>
       </c>
@@ -3572,31 +3021,31 @@
       </c>
       <c r="J11" s="9">
         <f t="shared" si="0"/>
-        <v>33.7905913353484</v>
+        <v>32.796750413720474</v>
       </c>
       <c r="K11" s="10">
         <f t="shared" si="1"/>
-        <v>36.5733459159065</v>
+        <v>35.497659271320991</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="2"/>
-        <v>130.8</v>
+        <v>130.80000000000001</v>
       </c>
       <c r="M11" s="11">
         <f t="shared" si="3"/>
-        <v>28.7220026350461</v>
+        <v>27.877237851662404</v>
       </c>
       <c r="N11" s="11">
         <f t="shared" si="4"/>
-        <v>31.0873440285205</v>
+        <v>30.173010380622841</v>
       </c>
       <c r="O11" s="11">
         <f t="shared" si="5"/>
-        <v>26.4242424242424</v>
+        <v>25.647058823529413</v>
       </c>
       <c r="P11" s="12">
         <f t="shared" si="6"/>
-        <v>43.6</v>
+        <v>43.599999999999994</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -3605,7 +3054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="81.75" customHeight="1" spans="2:18">
+    <row r="12" spans="1:19" ht="81.75" customHeight="1">
       <c r="B12">
         <v>16101602</v>
       </c>
@@ -3632,31 +3081,31 @@
       </c>
       <c r="J12" s="9">
         <f t="shared" si="0"/>
-        <v>33.8544775884929</v>
+        <v>32.858757659419616</v>
       </c>
       <c r="K12" s="10">
         <f t="shared" si="1"/>
-        <v>36.6424933898982</v>
+        <v>35.5647729960777</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="2"/>
-        <v>129.3</v>
+        <v>129.30000000000001</v>
       </c>
       <c r="M12" s="11">
         <f t="shared" si="3"/>
-        <v>28.776305950219</v>
+        <v>27.929944010506674</v>
       </c>
       <c r="N12" s="11">
         <f t="shared" si="4"/>
-        <v>31.1461193814135</v>
+        <v>30.230057046666044</v>
       </c>
       <c r="O12" s="11">
         <f t="shared" si="5"/>
-        <v>26.4742014742015</v>
+        <v>25.695548489666137</v>
       </c>
       <c r="P12" s="12">
         <f t="shared" si="6"/>
-        <v>45.4297297297297</v>
+        <v>45.429729729729729</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3665,7 +3114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="89.1" customHeight="1" spans="2:18">
+    <row r="13" spans="1:19" ht="89.1" customHeight="1">
       <c r="B13">
         <v>16101701</v>
       </c>
@@ -3692,11 +3141,11 @@
       </c>
       <c r="J13" s="9">
         <f t="shared" si="0"/>
-        <v>15.6423570745821</v>
+        <v>15.182287748859135</v>
       </c>
       <c r="K13" s="10">
         <f t="shared" si="1"/>
-        <v>16.9305511866066</v>
+        <v>16.432593798765183</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="2"/>
@@ -3704,19 +3153,19 @@
       </c>
       <c r="M13" s="11">
         <f t="shared" si="3"/>
-        <v>13.2960035133948</v>
+        <v>12.904944586530265</v>
       </c>
       <c r="N13" s="11">
         <f t="shared" si="4"/>
-        <v>14.3909685086156</v>
+        <v>13.967704728950405</v>
       </c>
       <c r="O13" s="11">
         <f t="shared" si="5"/>
-        <v>12.2323232323232</v>
+        <v>11.872549019607844</v>
       </c>
       <c r="P13" s="12">
         <f t="shared" si="6"/>
-        <v>20.1833333333333</v>
+        <v>20.183333333333337</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -3725,7 +3174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="84" customHeight="1" spans="2:18">
+    <row r="14" spans="1:19" ht="84" customHeight="1">
       <c r="B14">
         <v>16101703</v>
       </c>
@@ -3752,31 +3201,31 @@
       </c>
       <c r="J14" s="9">
         <f t="shared" si="0"/>
-        <v>61.3965744400527</v>
+        <v>59.590792838874677</v>
       </c>
       <c r="K14" s="10">
         <f t="shared" si="1"/>
-        <v>66.4527629233512</v>
+        <v>64.498269896193776</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="2"/>
-        <v>139.8</v>
+        <v>139.80000000000001</v>
       </c>
       <c r="M14" s="11">
         <f t="shared" si="3"/>
-        <v>30.6982872200264</v>
+        <v>29.795396419437338</v>
       </c>
       <c r="N14" s="11">
         <f t="shared" si="4"/>
-        <v>33.2263814616756</v>
+        <v>32.249134948096888</v>
       </c>
       <c r="O14" s="11">
         <f t="shared" si="5"/>
-        <v>28.2424242424242</v>
+        <v>27.411764705882355</v>
       </c>
       <c r="P14" s="12">
         <f t="shared" si="6"/>
-        <v>46.6</v>
+        <v>46.599999999999994</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -3785,7 +3234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="90.75" customHeight="1" spans="2:18">
+    <row r="15" spans="1:19" ht="90.75" customHeight="1">
       <c r="B15">
         <v>16101702</v>
       </c>
@@ -3812,11 +3261,11 @@
       </c>
       <c r="J15" s="9">
         <f>(E15+F15+(Sheet1!$K$45*H15+Sheet1!$M$45)*Sheet1!$L$45)/(1-G15)/(1-Sheet1!$O$45)/(1-I15)/Sheet1!$N$45</f>
-        <v>23.7154150197628</v>
+        <v>23.017902813299234</v>
       </c>
       <c r="K15" s="10">
         <f>(E15+F15+(Sheet1!$K$45*H15+Sheet1!$M$45)*Sheet1!$L$45)/(1-G15)/(1-Sheet1!$P$45)/(1-I15)/Sheet1!$N$45</f>
-        <v>25.668449197861</v>
+        <v>24.913494809688583</v>
       </c>
       <c r="L15" s="1">
         <f>E15+F15+(Sheet1!$K$45*H15+Sheet1!$M$45)*Sheet1!$L$45</f>
@@ -3824,19 +3273,19 @@
       </c>
       <c r="M15" s="11">
         <f>L15/(1-G15)/(1-Sheet1!$O$45)/Sheet1!$N$45</f>
-        <v>20.1581027667984</v>
+        <v>19.565217391304348</v>
       </c>
       <c r="N15" s="11">
         <f>L15/(1-G15)/(1-Sheet1!$P$45)/Sheet1!$N$45</f>
-        <v>21.8181818181818</v>
+        <v>21.176470588235293</v>
       </c>
       <c r="O15" s="11">
         <f>L15/(1-G15)/Sheet1!$N$45</f>
-        <v>18.5454545454545</v>
+        <v>18</v>
       </c>
       <c r="P15" s="12">
         <f>O15*Sheet1!$N$45-L15</f>
-        <v>30.6</v>
+        <v>30.599999999999994</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -3845,7 +3294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="90.75" customHeight="1" spans="2:18">
+    <row r="16" spans="1:19" ht="90.75" customHeight="1">
       <c r="B16">
         <v>16101901</v>
       </c>
@@ -3872,11 +3321,11 @@
       </c>
       <c r="J16" s="9">
         <f>(E16+F16+(Sheet1!$K$45*H16+Sheet1!$M$45)*Sheet1!$L$45)/(1-G16)/(1-Sheet1!$O$45)/(1-I16)/Sheet1!$N$45</f>
-        <v>12.0223978919631</v>
+        <v>11.668797953964194</v>
       </c>
       <c r="K16" s="10">
         <f>(E16+F16+(Sheet1!$K$45*H16+Sheet1!$M$45)*Sheet1!$L$45)/(1-G16)/(1-Sheet1!$P$45)/(1-I16)/Sheet1!$N$45</f>
-        <v>13.0124777183601</v>
+        <v>12.629757785467127</v>
       </c>
       <c r="L16" s="1">
         <f>E16+F16+(Sheet1!$K$45*H16+Sheet1!$M$45)*Sheet1!$L$45</f>
@@ -3884,19 +3333,19 @@
       </c>
       <c r="M16" s="11">
         <f>L16/(1-G16)/(1-Sheet1!$O$45)/Sheet1!$N$45</f>
-        <v>9.01679841897233</v>
+        <v>8.751598465473144</v>
       </c>
       <c r="N16" s="11">
         <f>L16/(1-G16)/(1-Sheet1!$P$45)/Sheet1!$N$45</f>
-        <v>9.75935828877005</v>
+        <v>9.4723183391003456</v>
       </c>
       <c r="O16" s="11">
         <f>L16/(1-G16)/Sheet1!$N$45</f>
-        <v>8.29545454545454</v>
+        <v>8.0514705882352935</v>
       </c>
       <c r="P16" s="12">
         <f>O16*Sheet1!$N$45-L16</f>
-        <v>10.95</v>
+        <v>10.949999999999996</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -3905,7 +3354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="90.75" customHeight="1" spans="2:18">
+    <row r="17" spans="2:18" ht="90.75" customHeight="1">
       <c r="B17">
         <v>16110801</v>
       </c>
@@ -3932,11 +3381,11 @@
       </c>
       <c r="J17" s="9">
         <f>(E17+F17+([1]Sheet1!$K$26*H17+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G17)/(1-[1]Sheet1!$O$26)/(1-I17)/[1]Sheet1!$N$26</f>
-        <v>16.1015730055978</v>
+        <v>16.101573005597775</v>
       </c>
       <c r="K17" s="10">
         <f>(E17+F17+([1]Sheet1!$K$26*H17+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G17)/(1-[1]Sheet1!$P$26)/(1-I17)/[1]Sheet1!$N$26</f>
-        <v>17.9958757121387</v>
+        <v>17.995875712138687</v>
       </c>
       <c r="L17" s="1">
         <f>E17+F17+([1]Sheet1!$K$26*H17+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -3944,19 +3393,19 @@
       </c>
       <c r="M17" s="11">
         <f>L17/(1-G17)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>13.6863370547581</v>
+        <v>13.686337054758109</v>
       </c>
       <c r="N17" s="11">
         <f>L17/(1-G17)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>15.2964943553179</v>
+        <v>15.296494355317884</v>
       </c>
       <c r="O17" s="11">
         <f>L17/(1-G17)/[1]Sheet1!$N$26</f>
-        <v>13.0020202020202</v>
+        <v>13.002020202020203</v>
       </c>
       <c r="P17" s="12">
         <f>O17*[1]Sheet1!$N$26-L17</f>
-        <v>21.4533333333333</v>
+        <v>21.453333333333333</v>
       </c>
       <c r="Q17" s="13">
         <v>0.15</v>
@@ -3965,7 +3414,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="18" ht="90.75" customHeight="1" spans="2:18">
+    <row r="18" spans="2:18" ht="90.75" customHeight="1">
       <c r="B18">
         <v>16110802</v>
       </c>
@@ -3992,11 +3441,11 @@
       </c>
       <c r="J18" s="9">
         <f>(E18+F18+([1]Sheet1!$K$26*H18+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G18)/(1-[1]Sheet1!$O$26)/(1-I18)/[1]Sheet1!$N$26</f>
-        <v>16.1015730055978</v>
+        <v>16.101573005597775</v>
       </c>
       <c r="K18" s="10">
         <f>(E18+F18+([1]Sheet1!$K$26*H18+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G18)/(1-[1]Sheet1!$P$26)/(1-I18)/[1]Sheet1!$N$26</f>
-        <v>17.9958757121387</v>
+        <v>17.995875712138687</v>
       </c>
       <c r="L18" s="1">
         <f>E18+F18+([1]Sheet1!$K$26*H18+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -4004,19 +3453,19 @@
       </c>
       <c r="M18" s="11">
         <f>L18/(1-G18)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>13.6863370547581</v>
+        <v>13.686337054758109</v>
       </c>
       <c r="N18" s="11">
         <f>L18/(1-G18)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>15.2964943553179</v>
+        <v>15.296494355317884</v>
       </c>
       <c r="O18" s="11">
         <f>L18/(1-G18)/[1]Sheet1!$N$26</f>
-        <v>13.0020202020202</v>
+        <v>13.002020202020203</v>
       </c>
       <c r="P18" s="12">
         <f>O18*[1]Sheet1!$N$26-L18</f>
-        <v>21.4533333333333</v>
+        <v>21.453333333333333</v>
       </c>
       <c r="Q18" s="13">
         <v>0.15</v>
@@ -4025,7 +3474,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" ht="90.75" customHeight="1" spans="2:18">
+    <row r="19" spans="2:18" ht="90.75" customHeight="1">
       <c r="B19">
         <v>16110901</v>
       </c>
@@ -4050,11 +3499,11 @@
       </c>
       <c r="J19" s="9">
         <f>(E19+F19+([1]Sheet1!$K$26*H19+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G19)/(1-[1]Sheet1!$O$26)/(1-I19)/[1]Sheet1!$N$26</f>
-        <v>16.7400318979266</v>
+        <v>16.740031897926634</v>
       </c>
       <c r="K19" s="10">
         <f>(E19+F19+([1]Sheet1!$K$26*H19+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G19)/(1-[1]Sheet1!$P$26)/(1-I19)/[1]Sheet1!$N$26</f>
-        <v>18.7094474153298</v>
+        <v>18.70944741532977</v>
       </c>
       <c r="L19" s="1">
         <f>E19+F19+([1]Sheet1!$K$26*H19+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -4062,19 +3511,19 @@
       </c>
       <c r="M19" s="11">
         <f>L19/(1-G19)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>8.37001594896332</v>
+        <v>8.3700159489633172</v>
       </c>
       <c r="N19" s="11">
         <f>L19/(1-G19)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>9.35472370766488</v>
+        <v>9.3547237076648848</v>
       </c>
       <c r="O19" s="11">
         <f>L19/(1-G19)/[1]Sheet1!$N$26</f>
-        <v>7.95151515151515</v>
+        <v>7.9515151515151512</v>
       </c>
       <c r="P19" s="12">
         <f>O19*[1]Sheet1!$N$26-L19</f>
-        <v>13.12</v>
+        <v>13.119999999999997</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -4083,7 +3532,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" ht="90.75" customHeight="1" spans="2:18">
+    <row r="20" spans="2:18" ht="90.75" customHeight="1">
       <c r="B20">
         <v>16111001</v>
       </c>
@@ -4108,11 +3557,11 @@
       </c>
       <c r="J20" s="9">
         <f>(E20+F20+([1]Sheet1!$K$26*H20+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G20)/(1-[1]Sheet1!$O$26)/(1-I20)/[1]Sheet1!$N$26</f>
-        <v>18.1240981240981</v>
+        <v>18.124098124098129</v>
       </c>
       <c r="K20" s="10">
         <f>(E20+F20+([1]Sheet1!$K$26*H20+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G20)/(1-[1]Sheet1!$P$26)/(1-I20)/[1]Sheet1!$N$26</f>
-        <v>20.2563449622273</v>
+        <v>20.256344962227317</v>
       </c>
       <c r="L20" s="1">
         <f>E20+F20+([1]Sheet1!$K$26*H20+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -4120,25 +3569,25 @@
       </c>
       <c r="M20" s="11">
         <f>L20/(1-G20)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>12.6868686868687</v>
+        <v>12.686868686868687</v>
       </c>
       <c r="N20" s="11">
         <f>L20/(1-G20)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>14.1794414735591</v>
+        <v>14.179441473559123</v>
       </c>
       <c r="O20" s="11">
         <f>L20/(1-G20)/[1]Sheet1!$N$26</f>
-        <v>12.0525252525253</v>
+        <v>12.052525252525253</v>
       </c>
       <c r="P20" s="12">
         <f>O20*[1]Sheet1!$N$26-L20</f>
-        <v>19.8866666666667</v>
+        <v>19.88666666666667</v>
       </c>
       <c r="R20">
         <v>30</v>
       </c>
     </row>
-    <row r="21" ht="90.75" customHeight="1" spans="2:18">
+    <row r="21" spans="2:18" ht="90.75" customHeight="1">
       <c r="B21">
         <v>16111901</v>
       </c>
@@ -4165,11 +3614,11 @@
       </c>
       <c r="J21" s="9">
         <f>(E21+F21+([1]Sheet1!$K$26*H21+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G21)/(1-[1]Sheet1!$O$26)/(1-I21)/[1]Sheet1!$N$26</f>
-        <v>25.541539799913</v>
+        <v>25.541539799913004</v>
       </c>
       <c r="K21" s="10">
         <f>(E21+F21+([1]Sheet1!$K$26*H21+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G21)/(1-[1]Sheet1!$P$26)/(1-I21)/[1]Sheet1!$N$26</f>
-        <v>28.5464268351969</v>
+        <v>28.54642683519689</v>
       </c>
       <c r="L21" s="1">
         <f>E21+F21+([1]Sheet1!$K$26*H21+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -4177,25 +3626,25 @@
       </c>
       <c r="M21" s="11">
         <f>L21/(1-G21)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.0478468899522</v>
+        <v>14.047846889952154</v>
       </c>
       <c r="N21" s="11">
         <f>L21/(1-G21)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>15.7005347593583</v>
+        <v>15.700534759358289</v>
       </c>
       <c r="O21" s="11">
         <f>L21/(1-G21)/[1]Sheet1!$N$26</f>
-        <v>13.3454545454545</v>
+        <v>13.345454545454546</v>
       </c>
       <c r="P21" s="12">
         <f>O21*[1]Sheet1!$N$26-L21</f>
-        <v>22.02</v>
+        <v>22.019999999999996</v>
       </c>
       <c r="R21">
         <v>45</v>
       </c>
     </row>
-    <row r="22" ht="90.95" customHeight="1" spans="2:18">
+    <row r="22" spans="2:18" ht="90.95" customHeight="1">
       <c r="B22">
         <v>16112001</v>
       </c>
@@ -4219,11 +3668,11 @@
       </c>
       <c r="J22" s="9">
         <f>(E22+F22+([1]Sheet1!$K$26*H22+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G22)/(1-[1]Sheet1!$O$26)/(1-I22)/[1]Sheet1!$N$26</f>
-        <v>25.541539799913</v>
+        <v>25.541539799913004</v>
       </c>
       <c r="K22" s="10">
         <f>(E22+F22+([1]Sheet1!$K$26*H22+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G22)/(1-[1]Sheet1!$P$26)/(1-I22)/[1]Sheet1!$N$26</f>
-        <v>28.5464268351969</v>
+        <v>28.54642683519689</v>
       </c>
       <c r="L22" s="1">
         <f>E22+F22+([1]Sheet1!$K$26*H22+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -4231,25 +3680,25 @@
       </c>
       <c r="M22" s="11">
         <f>L22/(1-G22)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.0478468899522</v>
+        <v>14.047846889952154</v>
       </c>
       <c r="N22" s="11">
         <f>L22/(1-G22)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>15.7005347593583</v>
+        <v>15.700534759358289</v>
       </c>
       <c r="O22" s="11">
         <f>L22/(1-G22)/[1]Sheet1!$N$26</f>
-        <v>13.3454545454545</v>
+        <v>13.345454545454546</v>
       </c>
       <c r="P22" s="12">
         <f>O22*[1]Sheet1!$N$26-L22</f>
-        <v>22.02</v>
+        <v>22.019999999999996</v>
       </c>
       <c r="R22">
         <v>45</v>
       </c>
     </row>
-    <row r="23" ht="90.95" customHeight="1" spans="2:18">
+    <row r="23" spans="2:18" ht="90.95" customHeight="1">
       <c r="B23">
         <v>16112002</v>
       </c>
@@ -4273,11 +3722,11 @@
       </c>
       <c r="J23" s="9">
         <f>(E23+F23+([1]Sheet1!$K$26*H23+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G23)/(1-[1]Sheet1!$O$26)/(1-I23)/[1]Sheet1!$N$26</f>
-        <v>27.0881059397806</v>
+        <v>27.088105939780586</v>
       </c>
       <c r="K23" s="10">
         <f>(E23+F23+([1]Sheet1!$K$26*H23+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G23)/(1-[1]Sheet1!$P$26)/(1-I23)/[1]Sheet1!$N$26</f>
-        <v>30.2749419326959</v>
+        <v>30.274941932695945</v>
       </c>
       <c r="L23" s="1">
         <f>E23+F23+([1]Sheet1!$K$26*H23+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -4285,25 +3734,25 @@
       </c>
       <c r="M23" s="11">
         <f>L23/(1-G23)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.8984582668793</v>
+        <v>14.898458266879324</v>
       </c>
       <c r="N23" s="11">
         <f>L23/(1-G23)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>16.6512180629828</v>
+        <v>16.651218062982771</v>
       </c>
       <c r="O23" s="11">
         <f>L23/(1-G23)/[1]Sheet1!$N$26</f>
-        <v>14.1535353535354</v>
+        <v>14.153535353535355</v>
       </c>
       <c r="P23" s="12">
         <f>O23*[1]Sheet1!$N$26-L23</f>
-        <v>23.3533333333333</v>
+        <v>23.353333333333339</v>
       </c>
       <c r="R23">
         <v>45</v>
       </c>
     </row>
-    <row r="24" ht="90.75" customHeight="1" spans="2:18">
+    <row r="24" spans="2:18" ht="90.75" customHeight="1">
       <c r="B24">
         <v>16112003</v>
       </c>
@@ -4330,11 +3779,11 @@
       </c>
       <c r="J24" s="9">
         <f>(E24+F24+([1]Sheet1!$K$26*H24+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G24)/(1-[1]Sheet1!$O$26)/(1-I24)/[1]Sheet1!$N$26</f>
-        <v>25.9281813348799</v>
+        <v>25.928181334879902</v>
       </c>
       <c r="K24" s="10">
         <f>(E24+F24+([1]Sheet1!$K$26*H24+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G24)/(1-[1]Sheet1!$P$26)/(1-I24)/[1]Sheet1!$N$26</f>
-        <v>28.9785556095717</v>
+        <v>28.978555609571654</v>
       </c>
       <c r="L24" s="1">
         <f>E24+F24+([1]Sheet1!$K$26*H24+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -4342,25 +3791,25 @@
       </c>
       <c r="M24" s="11">
         <f>L24/(1-G24)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.2604997341839</v>
+        <v>14.260499734183947</v>
       </c>
       <c r="N24" s="11">
         <f>L24/(1-G24)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>15.9382055852644</v>
+        <v>15.938205585264411</v>
       </c>
       <c r="O24" s="11">
         <f>L24/(1-G24)/[1]Sheet1!$N$26</f>
-        <v>13.5474747474747</v>
+        <v>13.54747474747475</v>
       </c>
       <c r="P24" s="12">
         <f>O24*[1]Sheet1!$N$26-L24</f>
-        <v>22.3533333333333</v>
+        <v>22.353333333333339</v>
       </c>
       <c r="R24">
         <v>45</v>
       </c>
     </row>
-    <row r="25" ht="90.75" customHeight="1" spans="2:18">
+    <row r="25" spans="2:18" ht="90.75" customHeight="1">
       <c r="B25">
         <v>16112301</v>
       </c>
@@ -4387,27 +3836,27 @@
       </c>
       <c r="J25" s="9">
         <f>(E25+F25+([1]Sheet1!$K$26*H25+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G25)/(1-[1]Sheet1!$O$26)/(1-I25)/[1]Sheet1!$N$26</f>
-        <v>24.9016480595428</v>
+        <v>24.901648059542801</v>
       </c>
       <c r="K25" s="10">
         <f>(E25+F25+([1]Sheet1!$K$26*H25+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G25)/(1-[1]Sheet1!$P$26)/(1-I25)/[1]Sheet1!$N$26</f>
-        <v>27.8312537136067</v>
+        <v>27.831253713606657</v>
       </c>
       <c r="L25" s="1">
         <f>E25+F25+([1]Sheet1!$K$26*H25+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
-        <v>70.26</v>
+        <v>70.259999999999991</v>
       </c>
       <c r="M25" s="11">
         <f>L25/(1-G25)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.9409888357257</v>
+        <v>14.940988835725678</v>
       </c>
       <c r="N25" s="11">
         <f>L25/(1-G25)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>16.698752228164</v>
+        <v>16.698752228163993</v>
       </c>
       <c r="O25" s="11">
         <f>L25/(1-G25)/[1]Sheet1!$N$26</f>
-        <v>14.1939393939394</v>
+        <v>14.193939393939393</v>
       </c>
       <c r="P25" s="12">
         <f>O25*[1]Sheet1!$N$26-L25</f>
@@ -4417,7 +3866,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" ht="90.75" customHeight="1" spans="2:18">
+    <row r="26" spans="2:18" ht="90.75" customHeight="1">
       <c r="B26">
         <v>16112302</v>
       </c>
@@ -4448,7 +3897,7 @@
       </c>
       <c r="K26" s="10">
         <f>(E26+F26+([1]Sheet1!$K$26*H26+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G26)/(1-[1]Sheet1!$P$26)/(1-I26)/[1]Sheet1!$N$26</f>
-        <v>24.9792038027332</v>
+        <v>24.979203802733217</v>
       </c>
       <c r="L26" s="1">
         <f>E26+F26+([1]Sheet1!$K$26*H26+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -4456,25 +3905,25 @@
       </c>
       <c r="M26" s="11">
         <f>L26/(1-G26)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>13.4098883572568</v>
+        <v>13.409888357256781</v>
       </c>
       <c r="N26" s="11">
         <f>L26/(1-G26)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>14.9875222816399</v>
+        <v>14.987522281639929</v>
       </c>
       <c r="O26" s="11">
         <f>L26/(1-G26)/[1]Sheet1!$N$26</f>
-        <v>12.7393939393939</v>
+        <v>12.73939393939394</v>
       </c>
       <c r="P26" s="12">
         <f>O26*[1]Sheet1!$N$26-L26</f>
-        <v>21.02</v>
+        <v>21.019999999999996</v>
       </c>
       <c r="R26">
         <v>40</v>
       </c>
     </row>
-    <row r="27" ht="90.75" customHeight="1" spans="2:18">
+    <row r="27" spans="2:18" ht="90.75" customHeight="1">
       <c r="B27">
         <v>16112401</v>
       </c>
@@ -4501,31 +3950,31 @@
       </c>
       <c r="J27" s="9">
         <f>(E27+F27+([1]Sheet1!$K$26*H27+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G27)/(1-[1]Sheet1!$O$26)/(1-I27)/[1]Sheet1!$N$26</f>
-        <v>19.0172400698717</v>
+        <v>19.017240069871651</v>
       </c>
       <c r="K27" s="10">
         <f>(E27+F27+([1]Sheet1!$K$26*H27+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G27)/(1-[1]Sheet1!$P$26)/(1-I27)/[1]Sheet1!$N$26</f>
-        <v>21.254562431033</v>
+        <v>21.254562431033019</v>
       </c>
       <c r="L27" s="1">
         <f>E27+F27+([1]Sheet1!$K$26*H27+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
-        <v>62.6</v>
+        <v>62.599999999999994</v>
       </c>
       <c r="M27" s="11">
         <f>L27/(1-G27)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>13.3120680489102</v>
+        <v>13.312068048910154</v>
       </c>
       <c r="N27" s="11">
         <f>L27/(1-G27)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>14.8781937017231</v>
+        <v>14.878193701723113</v>
       </c>
       <c r="O27" s="11">
         <f>L27/(1-G27)/[1]Sheet1!$N$26</f>
-        <v>12.6464646464646</v>
+        <v>12.646464646464645</v>
       </c>
       <c r="P27" s="12">
         <f>O27*[1]Sheet1!$N$26-L27</f>
-        <v>20.8666666666667</v>
+        <v>20.86666666666666</v>
       </c>
       <c r="Q27">
         <v>40</v>
@@ -4534,7 +3983,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" ht="90.75" customHeight="1" spans="2:18">
+    <row r="28" spans="2:18" ht="90.75" customHeight="1">
       <c r="B28">
         <v>16112501</v>
       </c>
@@ -4561,31 +4010,31 @@
       </c>
       <c r="J28" s="9">
         <f>(E28+F28+([1]Sheet1!$K$26*H28+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G28)/(1-[1]Sheet1!$O$26)/(1-I28)/[1]Sheet1!$N$26</f>
-        <v>28.0160456237011</v>
+        <v>28.016045623701128</v>
       </c>
       <c r="K28" s="10">
         <f>(E28+F28+([1]Sheet1!$K$26*H28+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G28)/(1-[1]Sheet1!$P$26)/(1-I28)/[1]Sheet1!$N$26</f>
-        <v>31.3120509911954</v>
+        <v>31.312050991195381</v>
       </c>
       <c r="L28" s="1">
         <f>E28+F28+([1]Sheet1!$K$26*H28+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
-        <v>72.46</v>
+        <v>72.460000000000008</v>
       </c>
       <c r="M28" s="11">
         <f>L28/(1-G28)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>15.4088250930356</v>
+        <v>15.408825093035622</v>
       </c>
       <c r="N28" s="11">
         <f>L28/(1-G28)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>17.2216280451575</v>
+        <v>17.221628045157463</v>
       </c>
       <c r="O28" s="11">
         <f>L28/(1-G28)/[1]Sheet1!$N$26</f>
-        <v>14.6383838383838</v>
+        <v>14.638383838383842</v>
       </c>
       <c r="P28" s="12">
         <f>O28*[1]Sheet1!$N$26-L28</f>
-        <v>24.1533333333333</v>
+        <v>24.153333333333336</v>
       </c>
       <c r="Q28">
         <v>45</v>
@@ -4594,7 +4043,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" ht="90.75" customHeight="1" spans="2:18">
+    <row r="29" spans="2:18" ht="90.75" customHeight="1">
       <c r="B29">
         <v>16112801</v>
       </c>
@@ -4621,31 +4070,31 @@
       </c>
       <c r="J29" s="9">
         <f>(E29+F29+([1]Sheet1!$K$26*H29+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G29)/(1-[1]Sheet1!$O$26)/(1-I29)/[1]Sheet1!$N$26</f>
-        <v>21.1121743753323</v>
+        <v>21.112174375332273</v>
       </c>
       <c r="K29" s="10">
         <f>(E29+F29+([1]Sheet1!$K$26*H29+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G29)/(1-[1]Sheet1!$P$26)/(1-I29)/[1]Sheet1!$N$26</f>
-        <v>23.5959595959596</v>
+        <v>23.595959595959602</v>
       </c>
       <c r="L29" s="1">
         <f>E29+F29+([1]Sheet1!$K$26*H29+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
-        <v>74.46</v>
+        <v>74.460000000000008</v>
       </c>
       <c r="M29" s="11">
         <f>L29/(1-G29)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>15.8341307814992</v>
+        <v>15.834130781499207</v>
       </c>
       <c r="N29" s="11">
         <f>L29/(1-G29)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>17.6969696969697</v>
+        <v>17.696969696969703</v>
       </c>
       <c r="O29" s="11">
         <f>L29/(1-G29)/[1]Sheet1!$N$26</f>
-        <v>15.0424242424242</v>
+        <v>15.042424242424245</v>
       </c>
       <c r="P29" s="12">
         <f>O29*[1]Sheet1!$N$26-L29</f>
-        <v>24.82</v>
+        <v>24.820000000000007</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -4654,7 +4103,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" ht="90.75" customHeight="1" spans="2:18">
+    <row r="30" spans="2:18" ht="90.75" customHeight="1">
       <c r="B30">
         <v>16112901</v>
       </c>
@@ -4681,11 +4130,11 @@
       </c>
       <c r="J30" s="9">
         <f>(E30+F30+([1]Sheet1!$K$26*H30+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G30)/(1-[1]Sheet1!$O$26)/(1-I30)/[1]Sheet1!$N$26</f>
-        <v>26.04417379537</v>
+        <v>26.044173795369968</v>
       </c>
       <c r="K30" s="10">
         <f>(E30+F30+([1]Sheet1!$K$26*H30+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G30)/(1-[1]Sheet1!$P$26)/(1-I30)/[1]Sheet1!$N$26</f>
-        <v>29.1081942418841</v>
+        <v>29.108194241884085</v>
       </c>
       <c r="L30" s="1">
         <f>E30+F30+([1]Sheet1!$K$26*H30+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -4693,19 +4142,19 @@
       </c>
       <c r="M30" s="11">
         <f>L30/(1-G30)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.3242955874535</v>
+        <v>14.324295587453484</v>
       </c>
       <c r="N30" s="11">
         <f>L30/(1-G30)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>16.0095068330362</v>
+        <v>16.009506833036248</v>
       </c>
       <c r="O30" s="11">
         <f>L30/(1-G30)/[1]Sheet1!$N$26</f>
-        <v>13.6080808080808</v>
+        <v>13.608080808080809</v>
       </c>
       <c r="P30" s="12">
         <f>O30*[1]Sheet1!$N$26-L30</f>
-        <v>22.4533333333333</v>
+        <v>22.453333333333333</v>
       </c>
       <c r="Q30">
         <v>30</v>
@@ -4714,7 +4163,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" ht="90.75" customHeight="1" spans="2:18">
+    <row r="31" spans="2:18" ht="90.75" customHeight="1">
       <c r="B31">
         <v>16113001</v>
       </c>
@@ -4741,11 +4190,11 @@
       </c>
       <c r="J31" s="9">
         <f>(E31+F31+([1]Sheet1!$K$26*H31+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G31)/(1-[1]Sheet1!$O$26)/(1-I31)/[1]Sheet1!$N$26</f>
-        <v>12.5093035619351</v>
+        <v>12.509303561935141</v>
       </c>
       <c r="K31" s="10">
         <f>(E31+F31+([1]Sheet1!$K$26*H31+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G31)/(1-[1]Sheet1!$P$26)/(1-I31)/[1]Sheet1!$N$26</f>
-        <v>13.9809863339275</v>
+        <v>13.980986333927513</v>
       </c>
       <c r="L31" s="1">
         <f>E31+F31+([1]Sheet1!$K$26*H31+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -4753,19 +4202,19 @@
       </c>
       <c r="M31" s="11">
         <f>L31/(1-G31)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>10.0074428495481</v>
+        <v>10.007442849548115</v>
       </c>
       <c r="N31" s="11">
         <f>L31/(1-G31)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>11.184789067142</v>
+        <v>11.18478906714201</v>
       </c>
       <c r="O31" s="11">
         <f>L31/(1-G31)/[1]Sheet1!$N$26</f>
-        <v>9.50707070707071</v>
+        <v>9.5070707070707083</v>
       </c>
       <c r="P31" s="12">
         <f>O31*[1]Sheet1!$N$26-L31</f>
-        <v>15.6866666666667</v>
+        <v>15.686666666666667</v>
       </c>
       <c r="Q31">
         <v>20</v>
@@ -4774,7 +4223,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" ht="90.75" customHeight="1" spans="2:18">
+    <row r="32" spans="2:18" ht="90.75" customHeight="1">
       <c r="B32">
         <v>16113002</v>
       </c>
@@ -4801,31 +4250,31 @@
       </c>
       <c r="J32" s="9">
         <f>(E32+F32+([1]Sheet1!$K$26*H32+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G32)/(1-[1]Sheet1!$O$26)/(1-I32)/[1]Sheet1!$N$26</f>
-        <v>17.7068934963672</v>
+        <v>17.706893496367179</v>
       </c>
       <c r="K32" s="10">
         <f>(E32+F32+([1]Sheet1!$K$26*H32+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G32)/(1-[1]Sheet1!$P$26)/(1-I32)/[1]Sheet1!$N$26</f>
-        <v>19.7900574371163</v>
+        <v>19.790057437116261</v>
       </c>
       <c r="L32" s="1">
         <f>E32+F32+([1]Sheet1!$K$26*H32+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
-        <v>49.96</v>
+        <v>49.959999999999994</v>
       </c>
       <c r="M32" s="11">
         <f>L32/(1-G32)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>10.6241360978203</v>
+        <v>10.624136097820308</v>
       </c>
       <c r="N32" s="11">
         <f>L32/(1-G32)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>11.8740344622698</v>
+        <v>11.874034462269755</v>
       </c>
       <c r="O32" s="11">
         <f>L32/(1-G32)/[1]Sheet1!$N$26</f>
-        <v>10.0929292929293</v>
+        <v>10.092929292929293</v>
       </c>
       <c r="P32" s="12">
         <f>O32*[1]Sheet1!$N$26-L32</f>
-        <v>16.6533333333333</v>
+        <v>16.653333333333336</v>
       </c>
       <c r="Q32">
         <v>20</v>
@@ -4834,7 +4283,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" ht="90.75" customHeight="1" spans="2:18">
+    <row r="33" spans="2:18" ht="90.75" customHeight="1">
       <c r="B33">
         <v>16113003</v>
       </c>
@@ -4861,11 +4310,11 @@
       </c>
       <c r="J33" s="9">
         <f>(E33+F33+([1]Sheet1!$K$26*H33+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G33)/(1-[1]Sheet1!$O$26)/(1-I33)/[1]Sheet1!$N$26</f>
-        <v>25.5802039534097</v>
+        <v>25.58020395340969</v>
       </c>
       <c r="K33" s="10">
         <f>(E33+F33+([1]Sheet1!$K$26*H33+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G33)/(1-[1]Sheet1!$P$26)/(1-I33)/[1]Sheet1!$N$26</f>
-        <v>28.5896397126344</v>
+        <v>28.589639712634362</v>
       </c>
       <c r="L33" s="1">
         <f>E33+F33+([1]Sheet1!$K$26*H33+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -4873,7 +4322,7 @@
       </c>
       <c r="M33" s="11">
         <f>L33/(1-G33)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.0691121743753</v>
+        <v>14.069112174375331</v>
       </c>
       <c r="N33" s="11">
         <f>L33/(1-G33)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
@@ -4881,11 +4330,11 @@
       </c>
       <c r="O33" s="11">
         <f>L33/(1-G33)/[1]Sheet1!$N$26</f>
-        <v>13.3656565656566</v>
+        <v>13.365656565656565</v>
       </c>
       <c r="P33" s="12">
         <f>O33*[1]Sheet1!$N$26-L33</f>
-        <v>22.0533333333333</v>
+        <v>22.053333333333327</v>
       </c>
       <c r="Q33">
         <v>45</v>
@@ -4894,7 +4343,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" ht="90.75" customHeight="1" spans="2:18">
+    <row r="34" spans="2:18" ht="90.75" customHeight="1">
       <c r="B34">
         <v>16113004</v>
       </c>
@@ -4921,11 +4370,11 @@
       </c>
       <c r="J34" s="9">
         <f>(E34+F34+([1]Sheet1!$K$26*H34+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G34)/(1-[1]Sheet1!$O$26)/(1-I34)/[1]Sheet1!$N$26</f>
-        <v>19.6094276094276</v>
+        <v>19.609427609427609</v>
       </c>
       <c r="K34" s="10">
         <f>(E34+F34+([1]Sheet1!$K$26*H34+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G34)/(1-[1]Sheet1!$P$26)/(1-I34)/[1]Sheet1!$N$26</f>
-        <v>21.9164190928897</v>
+        <v>21.916419092889683</v>
       </c>
       <c r="L34" s="1">
         <f>E34+F34+([1]Sheet1!$K$26*H34+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -4933,19 +4382,19 @@
       </c>
       <c r="M34" s="11">
         <f>L34/(1-G34)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.7070707070707</v>
+        <v>14.707070707070708</v>
       </c>
       <c r="N34" s="11">
         <f>L34/(1-G34)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>16.4373143196673</v>
+        <v>16.437314319667262</v>
       </c>
       <c r="O34" s="11">
         <f>L34/(1-G34)/[1]Sheet1!$N$26</f>
-        <v>13.9717171717172</v>
+        <v>13.97171717171717</v>
       </c>
       <c r="P34" s="12">
         <f>O34*[1]Sheet1!$N$26-L34</f>
-        <v>23.0533333333333</v>
+        <v>23.053333333333327</v>
       </c>
       <c r="Q34">
         <v>45</v>
@@ -4954,7 +4403,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" ht="90.75" customHeight="1" spans="2:18">
+    <row r="35" spans="2:18" ht="90.75" customHeight="1">
       <c r="B35">
         <v>16120201</v>
       </c>
@@ -4981,11 +4430,11 @@
       </c>
       <c r="J35" s="9">
         <f>(E35+F35+([1]Sheet1!$K$26*H35+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G35)/(1-[1]Sheet1!$O$26)/(1-I35)/[1]Sheet1!$N$26</f>
-        <v>15.725677830941</v>
+        <v>15.725677830940988</v>
       </c>
       <c r="K35" s="10">
         <f>(E35+F35+([1]Sheet1!$K$26*H35+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G35)/(1-[1]Sheet1!$P$26)/(1-I35)/[1]Sheet1!$N$26</f>
-        <v>17.5757575757576</v>
+        <v>17.575757575757574</v>
       </c>
       <c r="L35" s="1">
         <f>E35+F35+([1]Sheet1!$K$26*H35+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -4993,15 +4442,15 @@
       </c>
       <c r="M35" s="11">
         <f>L35/(1-G35)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>12.5805422647528</v>
+        <v>12.580542264752792</v>
       </c>
       <c r="N35" s="11">
         <f>L35/(1-G35)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>14.0606060606061</v>
+        <v>14.060606060606061</v>
       </c>
       <c r="O35" s="11">
         <f>L35/(1-G35)/[1]Sheet1!$N$26</f>
-        <v>11.9515151515152</v>
+        <v>11.951515151515151</v>
       </c>
       <c r="P35" s="12">
         <f>O35*[1]Sheet1!$N$26-L35</f>
@@ -5011,7 +4460,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" ht="90.75" customHeight="1" spans="2:17">
+    <row r="36" spans="2:18" ht="90.75" customHeight="1">
       <c r="B36">
         <v>16120301</v>
       </c>
@@ -5036,11 +4485,11 @@
       </c>
       <c r="J36" s="9">
         <f>(E36+F36+([1]Sheet1!$K$26*H36+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G36)/(1-[1]Sheet1!$O$26)/(1-I36)/[1]Sheet1!$N$26</f>
-        <v>24.0336378135421</v>
+        <v>24.033637813542118</v>
       </c>
       <c r="K36" s="10">
         <f>(E36+F36+([1]Sheet1!$K$26*H36+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G36)/(1-[1]Sheet1!$P$26)/(1-I36)/[1]Sheet1!$N$26</f>
-        <v>26.8611246151353</v>
+        <v>26.861124615135306</v>
       </c>
       <c r="L36" s="1">
         <f>E36+F36+([1]Sheet1!$K$26*H36+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -5048,15 +4497,15 @@
       </c>
       <c r="M36" s="11">
         <f>L36/(1-G36)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>13.2185007974482</v>
+        <v>13.218500797448167</v>
       </c>
       <c r="N36" s="11">
         <f>L36/(1-G36)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>14.7736185383244</v>
+        <v>14.773618538324421</v>
       </c>
       <c r="O36" s="11">
         <f>L36/(1-G36)/[1]Sheet1!$N$26</f>
-        <v>12.5575757575758</v>
+        <v>12.557575757575757</v>
       </c>
       <c r="P36" s="12">
         <f>O36*[1]Sheet1!$N$26-L36</f>
@@ -5066,7 +4515,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" ht="90.75" customHeight="1" spans="2:17">
+    <row r="37" spans="2:18" ht="90.75" customHeight="1">
       <c r="B37">
         <v>16120302</v>
       </c>
@@ -5091,11 +4540,11 @@
       </c>
       <c r="J37" s="9">
         <f>(E37+F37+([1]Sheet1!$K$26*H37+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G37)/(1-[1]Sheet1!$O$26)/(1-I37)/[1]Sheet1!$N$26</f>
-        <v>7.1398192450824</v>
+        <v>7.1398192450824025</v>
       </c>
       <c r="K37" s="10">
         <f>(E37+F37+([1]Sheet1!$K$26*H37+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G37)/(1-[1]Sheet1!$P$26)/(1-I37)/[1]Sheet1!$N$26</f>
-        <v>7.97979797979798</v>
+        <v>7.9797979797979801</v>
       </c>
       <c r="L37" s="1">
         <f>E37+F37+([1]Sheet1!$K$26*H37+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -5103,25 +4552,25 @@
       </c>
       <c r="M37" s="11">
         <f>L37/(1-G37)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>5.71185539606592</v>
+        <v>5.7118553960659231</v>
       </c>
       <c r="N37" s="11">
         <f>L37/(1-G37)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>6.38383838383838</v>
+        <v>6.3838383838383841</v>
       </c>
       <c r="O37" s="11">
         <f>L37/(1-G37)/[1]Sheet1!$N$26</f>
-        <v>5.42626262626263</v>
+        <v>5.4262626262626261</v>
       </c>
       <c r="P37" s="12">
         <f>O37*[1]Sheet1!$N$26-L37</f>
-        <v>8.95333333333333</v>
+        <v>8.9533333333333331</v>
       </c>
       <c r="Q37">
         <v>20</v>
       </c>
     </row>
-    <row r="38" customFormat="1" ht="90.75" customHeight="1" spans="2:18">
+    <row r="38" spans="2:18" ht="90.75" customHeight="1">
       <c r="B38">
         <v>16120401</v>
       </c>
@@ -5146,11 +4595,11 @@
       </c>
       <c r="J38" s="9">
         <f>(E38+F38+([1]Sheet1!$K$26*H38+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G38)/(1-[1]Sheet1!$O$26)/(1-I38)/[1]Sheet1!$N$26</f>
-        <v>16.0595427963849</v>
+        <v>16.059542796384903</v>
       </c>
       <c r="K38" s="10">
         <f>(E38+F38+([1]Sheet1!$K$26*H38+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G38)/(1-[1]Sheet1!$P$26)/(1-I38)/[1]Sheet1!$N$26</f>
-        <v>17.9489007724302</v>
+        <v>17.948900772430182</v>
       </c>
       <c r="L38" s="1">
         <f>E38+F38+([1]Sheet1!$K$26*H38+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -5158,19 +4607,19 @@
       </c>
       <c r="M38" s="11">
         <f>L38/(1-G38)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>8.02977139819245</v>
+        <v>8.0297713981924517</v>
       </c>
       <c r="N38" s="11">
         <f>L38/(1-G38)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>8.97445038621509</v>
+        <v>8.9744503862150911</v>
       </c>
       <c r="O38" s="11">
         <f>L38/(1-G38)/[1]Sheet1!$N$26</f>
-        <v>7.62828282828283</v>
+        <v>7.6282828282828286</v>
       </c>
       <c r="P38" s="12">
         <f>O38*[1]Sheet1!$N$26-L38</f>
-        <v>12.5866666666667</v>
+        <v>12.586666666666666</v>
       </c>
       <c r="Q38">
         <v>20</v>
@@ -5179,7 +4628,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" customFormat="1" ht="84" customHeight="1" spans="2:18">
+    <row r="39" spans="2:18" ht="84" customHeight="1">
       <c r="B39">
         <v>16122001</v>
       </c>
@@ -5206,31 +4655,31 @@
       </c>
       <c r="J39" s="9">
         <f>(E39+F39+([1]Sheet1!$K$26*H39+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G39)/(1-[1]Sheet1!$O$26)/(1-I39)/[1]Sheet1!$N$26</f>
-        <v>17.7068934963672</v>
+        <v>17.706893496367179</v>
       </c>
       <c r="K39" s="10">
         <f>(E39+F39+([1]Sheet1!$K$26*H39+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G39)/(1-[1]Sheet1!$P$26)/(1-I39)/[1]Sheet1!$N$26</f>
-        <v>19.7900574371163</v>
+        <v>19.790057437116261</v>
       </c>
       <c r="L39" s="1">
         <f>E39+F39+([1]Sheet1!$K$26*H39+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
-        <v>49.96</v>
+        <v>49.959999999999994</v>
       </c>
       <c r="M39" s="11">
         <f>L39/(1-G39)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>10.6241360978203</v>
+        <v>10.624136097820308</v>
       </c>
       <c r="N39" s="11">
         <f>L39/(1-G39)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>11.8740344622698</v>
+        <v>11.874034462269755</v>
       </c>
       <c r="O39" s="11">
         <f>L39/(1-G39)/[1]Sheet1!$N$26</f>
-        <v>10.0929292929293</v>
+        <v>10.092929292929293</v>
       </c>
       <c r="P39" s="12">
         <f>O39*[1]Sheet1!$N$26-L39</f>
-        <v>16.6533333333333</v>
+        <v>16.653333333333336</v>
       </c>
       <c r="Q39">
         <v>20</v>
@@ -5239,7 +4688,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" customFormat="1" ht="90.75" customHeight="1" spans="2:18">
+    <row r="40" spans="2:18" ht="90.75" customHeight="1">
       <c r="B40">
         <v>17011301</v>
       </c>
@@ -5266,31 +4715,31 @@
       </c>
       <c r="J40" s="9">
         <f>(E40+F40+([1]Sheet1!$K$26*H40+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G40)/(1-[1]Sheet1!$O$26)/(1-I40)/[1]Sheet1!$N$26</f>
-        <v>18.1566864820453</v>
+        <v>18.15668648204533</v>
       </c>
       <c r="K40" s="10">
         <f>(E40+F40+([1]Sheet1!$K$26*H40+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G40)/(1-[1]Sheet1!$P$26)/(1-I40)/[1]Sheet1!$N$26</f>
-        <v>20.2927672446389</v>
+        <v>20.292767244638899</v>
       </c>
       <c r="L40" s="1">
         <f>E40+F40+([1]Sheet1!$K$26*H40+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
-        <v>46.96</v>
+        <v>46.959999999999994</v>
       </c>
       <c r="M40" s="11">
         <f>L40/(1-G40)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>9.98617756512493</v>
+        <v>9.9861775651249332</v>
       </c>
       <c r="N40" s="11">
         <f>L40/(1-G40)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>11.1610219845514</v>
+        <v>11.161021984551397</v>
       </c>
       <c r="O40" s="11">
         <f>L40/(1-G40)/[1]Sheet1!$N$26</f>
-        <v>9.48686868686869</v>
+        <v>9.4868686868686858</v>
       </c>
       <c r="P40" s="12">
         <f>O40*[1]Sheet1!$N$26-L40</f>
-        <v>15.6533333333333</v>
+        <v>15.653333333333329</v>
       </c>
       <c r="Q40">
         <v>20</v>
@@ -5299,20 +4748,67 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" customFormat="1" ht="90.75" customHeight="1" spans="3:16">
-      <c r="C41" s="1"/>
-      <c r="D41" s="6"/>
-      <c r="G41" s="3"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="12"/>
+    <row r="41" spans="2:18" ht="90.75" customHeight="1">
+      <c r="B41">
+        <v>17011302</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41">
+        <v>18</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H41">
+        <v>0.16</v>
+      </c>
+      <c r="I41" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="J41" s="9">
+        <f>(E41+F41+([1]Sheet1!$K$26*H41+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G41)/(1-[1]Sheet1!$O$26)/(1-I41)/[1]Sheet1!$N$26</f>
+        <v>11.250753145489988</v>
+      </c>
+      <c r="K41" s="10">
+        <f>(E41+F41+([1]Sheet1!$K$26*H41+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G41)/(1-[1]Sheet1!$P$26)/(1-I41)/[1]Sheet1!$N$26</f>
+        <v>12.574371162606457</v>
+      </c>
+      <c r="L41" s="1">
+        <f>E41+F41+([1]Sheet1!$K$26*H41+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
+        <v>39.68</v>
+      </c>
+      <c r="M41" s="11">
+        <f>L41/(1-G41)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
+        <v>8.4380648591174907</v>
+      </c>
+      <c r="N41" s="11">
+        <f>L41/(1-G41)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
+        <v>9.4307783719548421</v>
+      </c>
+      <c r="O41" s="11">
+        <f>L41/(1-G41)/[1]Sheet1!$N$26</f>
+        <v>8.0161616161616163</v>
+      </c>
+      <c r="P41" s="12">
+        <f>O41*[1]Sheet1!$N$26-L41</f>
+        <v>13.226666666666667</v>
+      </c>
+      <c r="Q41">
+        <v>20</v>
+      </c>
+      <c r="R41">
+        <v>25</v>
+      </c>
     </row>
-    <row r="42" customFormat="1" ht="90.75" customHeight="1" spans="3:16">
+    <row r="42" spans="2:18" ht="90.75" customHeight="1">
       <c r="C42" s="1"/>
       <c r="D42" s="6"/>
       <c r="G42" s="3"/>
@@ -5325,7 +4821,7 @@
       <c r="O42" s="11"/>
       <c r="P42" s="12"/>
     </row>
-    <row r="44" spans="11:16">
+    <row r="44" spans="2:18">
       <c r="K44" s="14" t="s">
         <v>62</v>
       </c>
@@ -5345,7 +4841,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="11:16">
+    <row r="45" spans="2:18">
       <c r="K45" s="15">
         <v>100</v>
       </c>
@@ -5356,7 +4852,7 @@
         <v>8</v>
       </c>
       <c r="N45">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O45" s="13">
         <v>0.08</v>
@@ -5366,14 +4862,15 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28 C35 C36 C37 C38 C39 C40 C41 C42 C17:C21 C24:C26 C31:C34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28 C31:C40 C42 C17:C21 C24:C26">
       <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"爬爬服"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27 C2:C16 C29:C30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27 C2:C16 C29:C30 C41">
       <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子,裤子"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q6 R2:R4">
@@ -5381,77 +4878,71 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId2" display="https://detail.1688.com/offer/43388465240.html?spm=a2615.7691456.0.0.SVo0SF"/>
-    <hyperlink ref="D4" r:id="rId3" display="https://detail.1688.com/offer/532946594199.html?spm=a2615.7691456.0.0.KfqxAP"/>
-    <hyperlink ref="D6" r:id="rId4" display="https://item.taobao.com/item.htm?spm=a230r.1.0.0.NVkYXr&amp;id=535812571550&amp;ns=1#detail"/>
-    <hyperlink ref="S6" r:id="rId4" display="https://item.taobao.com/item.htm?spm=a230r.1.0.0.NVkYXr&amp;id=535812571550&amp;ns=1#detail"/>
-    <hyperlink ref="D8" r:id="rId5" display="https://detail.1688.com/offer/521926765457.html?spm=a2615.7691456.0.0.Iw9wYb"/>
-    <hyperlink ref="D9" r:id="rId6" display="https://detail.1688.com/offer/539601777542.html?spm=b26110380.8015204.1688002.1.tV3mIo"/>
-    <hyperlink ref="D10" r:id="rId7" display="https://detail.1688.com/offer/534650922032.html"/>
-    <hyperlink ref="D11" r:id="rId8" display="https://detail.1688.com/offer/525196220868.html?spm=b26110380.8015204.xshy005.911.FMmHAe"/>
-    <hyperlink ref="D12" r:id="rId9" display="https://detail.1688.com/offer/525739109360.html?spm=b26110380.sw311.0.0.2w3SJa"/>
-    <hyperlink ref="D13" r:id="rId10" display="https://detail.1688.com/offer/536964765017.html?spm=b26110380.8015204.1688002.2.0qEfTf"/>
-    <hyperlink ref="D14" r:id="rId11" display="https://detail.1688.com/offer/523084291442.html?spm=b26110380.8015204.tkhy006.2.7zxqcs"/>
-    <hyperlink ref="D15" r:id="rId12" display="https://detail.1688.com/offer/539464650849.html?spm=b26110380.8015204.tkhy006.13.LriGRm"/>
-    <hyperlink ref="D16" r:id="rId13" display="https://detail.1688.com/offer/539024831638.html?spm=a2615.7691456.0.0.erl0H2"/>
-    <hyperlink ref="D19" r:id="rId14" display="https://detail.1688.com/offer/37436493140.html?spm=a261y.7663282.0.0.Bdoqfg"/>
-    <hyperlink ref="D20" r:id="rId15" display="https://detail.1688.com/offer/525328573875.html?spm=a2615.2177701.0.0.inGNvk"/>
-    <hyperlink ref="D21" r:id="rId16" display="https://detail.1688.com/offer/531099455627.html?spm=b26110380.sw311.0.0.NlP3tV"/>
-    <hyperlink ref="D22" r:id="rId17" display="https://detail.1688.com/offer/539748592006.html?spm=a2615.7691456.0.0.gzA0aC"/>
-    <hyperlink ref="D23" r:id="rId18" display="https://detail.1688.com/offer/542005628301.html?spm=a2615.7691456.0.0.E27Va6" tooltip="https://detail.1688.com/offer/542005628301.html?spm=a2615.7691456.0.0.E27Va6"/>
-    <hyperlink ref="D24" r:id="rId16" display="https://detail.1688.com/offer/531099455627.html?spm=b26110380.sw311.0.0.NlP3tV"/>
-    <hyperlink ref="D25" r:id="rId19" display="https://detail.1688.com/offer/537712350771.html?spm=a261y.7663282.0.0.HGrgRG&amp;sk=consign"/>
-    <hyperlink ref="D26" r:id="rId20" display="https://detail.1688.com/offer/535604104982.html?spm=a2615.7691456.0.0.ceDRcB" tooltip="https://detail.1688.com/offer/535604104982.html?spm=a2615.7691456.0.0.ceDRcB"/>
-    <hyperlink ref="D18" r:id="rId21" display="https://detail.1688.com/offer/537572849225.html?spm=a2615.7691456.0.0.0jr1X8"/>
-    <hyperlink ref="D28" r:id="rId22" display="https://detail.1688.com/offer/538358020263.html?spm=a2615.7691456.0.0.BXbA7w"/>
-    <hyperlink ref="D29" r:id="rId23" display="https://detail.1688.com/offer/536605241945.html?spm=b26110380.8015204.xshy005.79.X6yxQK"/>
-    <hyperlink ref="D30" r:id="rId24" display="https://detail.1688.com/offer/522617209176.html?spm=0.0.0.0.OkHehB&amp;sk=consign"/>
-    <hyperlink ref="D31" r:id="rId25" display="https://detail.1688.com/offer/536564720843.html?spm=a261y.7663282.0.0.CfpkXA&amp;sk=consign"/>
-    <hyperlink ref="D32" r:id="rId26" display="https://detail.1688.com/offer/522866160965.html?spm=b26110380.8015204.1688002.2.oTUzYR" tooltip="https://detail.1688.com/offer/522866160965.html?spm=b26110380.8015204.1688002.2.oTUzYR"/>
-    <hyperlink ref="D33" r:id="rId27" display="https://detail.1688.com/offer/537733197961.html?spm=b26110380.8015204.tkhy006.2.6IBVa5"/>
-    <hyperlink ref="D34" r:id="rId27" display="https://detail.1688.com/offer/537733197961.html?spm=b26110380.8015204.tkhy006.2.6IBVa5"/>
-    <hyperlink ref="D37" r:id="rId28" display="https://detail.1688.com/offer/39363390916.html?spm=b26110380.sw56474001.0.0.AOuyqk"/>
-    <hyperlink ref="D38" r:id="rId29" display="https://detail.1688.com/offer/523975460031.html?spm=b26110380.8015204.1688002.1.dPdaJX"/>
-    <hyperlink ref="D39" r:id="rId30" display="https://detail.1688.com/offer/531232169182.html?spm=a261y.7663282.0.0.1DCfuw"/>
-    <hyperlink ref="D40" r:id="rId31" display="https://detail.1688.com/offer/531965973421.html?spm=a2615.7691456.0.0.MQ5cDO"/>
+    <hyperlink ref="D5" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="S6" r:id="rId4"/>
+    <hyperlink ref="D8" r:id="rId5"/>
+    <hyperlink ref="D9" r:id="rId6"/>
+    <hyperlink ref="D10" r:id="rId7"/>
+    <hyperlink ref="D11" r:id="rId8"/>
+    <hyperlink ref="D12" r:id="rId9"/>
+    <hyperlink ref="D13" r:id="rId10"/>
+    <hyperlink ref="D14" r:id="rId11"/>
+    <hyperlink ref="D15" r:id="rId12"/>
+    <hyperlink ref="D16" r:id="rId13"/>
+    <hyperlink ref="D19" r:id="rId14"/>
+    <hyperlink ref="D20" r:id="rId15"/>
+    <hyperlink ref="D21" r:id="rId16"/>
+    <hyperlink ref="D22" r:id="rId17"/>
+    <hyperlink ref="D23" r:id="rId18" tooltip="https://detail.1688.com/offer/542005628301.html?spm=a2615.7691456.0.0.E27Va6"/>
+    <hyperlink ref="D24" r:id="rId19"/>
+    <hyperlink ref="D25" r:id="rId20"/>
+    <hyperlink ref="D26" r:id="rId21" tooltip="https://detail.1688.com/offer/535604104982.html?spm=a2615.7691456.0.0.ceDRcB"/>
+    <hyperlink ref="D18" r:id="rId22"/>
+    <hyperlink ref="D28" r:id="rId23"/>
+    <hyperlink ref="D29" r:id="rId24"/>
+    <hyperlink ref="D30" r:id="rId25"/>
+    <hyperlink ref="D31" r:id="rId26"/>
+    <hyperlink ref="D32" r:id="rId27" tooltip="https://detail.1688.com/offer/522866160965.html?spm=b26110380.8015204.1688002.2.oTUzYR"/>
+    <hyperlink ref="D33" r:id="rId28"/>
+    <hyperlink ref="D34" r:id="rId29"/>
+    <hyperlink ref="D37" r:id="rId30"/>
+    <hyperlink ref="D38" r:id="rId31"/>
+    <hyperlink ref="D39" r:id="rId32"/>
+    <hyperlink ref="D40" r:id="rId33"/>
+    <hyperlink ref="D41" r:id="rId34"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId35"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/产品表单.xlsx
+++ b/产品表单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="8685"/>
+    <workbookView windowWidth="19100" windowHeight="8690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$C$27</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
   <si>
     <t>产品标题</t>
   </si>
@@ -210,6 +210,12 @@
     <t>https://detail.1688.com/offer/531965973421.html?spm=a2615.7691456.0.0.MQ5cDO</t>
   </si>
   <si>
+    <t>https://detail.1688.com/offer/538656905495.html?spm=b26110380.sw1037004.0.0.dRfQA7&amp;sk=consign</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/534135284523.html?spm=a2615.2177701.0.0.bCxxaP</t>
+  </si>
+  <si>
     <t>国际运费 1kg/￥</t>
   </si>
   <si>
@@ -226,23 +232,23 @@
   </si>
   <si>
     <t>wish费率</t>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/538656905495.html?spm=b26110380.sw1037004.0.0.dRfQA7&amp;sk=consign</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="8">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="180" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
+    <numFmt numFmtId="178" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,19 +282,142 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,8 +430,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -310,15 +625,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -335,58 +886,103 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="百分比" xfId="2" builtinId="5"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -408,7 +1004,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -446,7 +1042,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -484,7 +1080,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -522,7 +1118,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -560,7 +1156,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -598,7 +1194,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -636,7 +1232,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -674,7 +1270,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -712,7 +1308,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -750,7 +1346,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -788,7 +1384,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -826,7 +1422,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -868,7 +1464,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -906,7 +1502,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -944,7 +1540,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -982,7 +1578,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1024,7 +1620,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:blip r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1066,7 +1662,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1108,7 +1704,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:blip r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1150,7 +1746,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1192,7 +1788,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:blip r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1234,7 +1830,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:blip r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1276,7 +1872,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:blip r:embed="rId23"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1318,7 +1914,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:blip r:embed="rId24"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1360,7 +1956,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:blip r:embed="rId25"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1402,7 +1998,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:blip r:embed="rId26"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1444,7 +2040,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:blip r:embed="rId27"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1486,7 +2082,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:blip r:embed="rId28"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1524,7 +2120,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:blip r:embed="rId29"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1566,7 +2162,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:blip r:embed="rId30"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1608,7 +2204,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:blip r:embed="rId31"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1650,7 +2246,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:blip r:embed="rId32"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1692,7 +2288,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:blip r:embed="rId33"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1730,7 +2326,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:blip r:embed="rId34"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1768,7 +2364,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:blip r:embed="rId35"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1810,7 +2406,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:blip r:embed="rId36"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1852,7 +2448,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:blip r:embed="rId37"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1894,7 +2490,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:blip r:embed="rId38"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1936,7 +2532,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:blip r:embed="rId39"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1978,7 +2574,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:blip r:embed="rId40"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2007,8 +2603,8 @@
       <xdr:rowOff>41413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1060173</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>1101586</xdr:rowOff>
     </xdr:to>
@@ -2020,19 +2616,61 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41" cstate="print"/>
+        <a:blip r:embed="rId41"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="43761163"/>
-          <a:ext cx="1060173" cy="1060173"/>
+          <a:off x="0" y="43780075"/>
+          <a:ext cx="986790" cy="1059815"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>51435</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>80645</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>1087120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="图片 44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="51435" y="44971970"/>
+          <a:ext cx="882015" cy="1006475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2049,7 +2687,7 @@
       <sheetName val="Sheet3"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
+      <sheetData sheetId="0">
         <row r="26">
           <cell r="K26">
             <v>100</v>
@@ -2071,8 +2709,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2362,34 +3000,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R42" sqref="R42"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="14.1272727272727" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="7.5" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="8.125" customWidth="1"/>
-    <col min="6" max="6" width="9.875" customWidth="1"/>
-    <col min="7" max="7" width="8.25" customWidth="1"/>
-    <col min="10" max="10" width="11.25" customWidth="1"/>
-    <col min="11" max="11" width="11.125" customWidth="1"/>
-    <col min="12" max="12" width="7.625" customWidth="1"/>
-    <col min="13" max="13" width="11.875" customWidth="1"/>
-    <col min="14" max="15" width="11.625" customWidth="1"/>
-    <col min="16" max="16" width="9.875" customWidth="1"/>
+    <col min="4" max="4" width="17.3727272727273" customWidth="1"/>
+    <col min="5" max="5" width="8.12727272727273" customWidth="1"/>
+    <col min="6" max="6" width="9.87272727272727" customWidth="1"/>
+    <col min="7" max="7" width="8.25454545454545" customWidth="1"/>
+    <col min="10" max="10" width="11.2545454545455" customWidth="1"/>
+    <col min="11" max="11" width="11.1272727272727" customWidth="1"/>
+    <col min="12" max="12" width="7.62727272727273" customWidth="1"/>
+    <col min="13" max="13" width="11.8727272727273" customWidth="1"/>
+    <col min="14" max="15" width="11.6272727272727" customWidth="1"/>
+    <col min="16" max="16" width="9.87272727272727" customWidth="1"/>
     <col min="17" max="17" width="6.5" customWidth="1"/>
-    <col min="18" max="18" width="6.875" customWidth="1"/>
+    <col min="18" max="18" width="6.87272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2445,7 +3085,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="86.25" customHeight="1">
+    <row r="2" ht="86.25" customHeight="1" spans="1:18">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
         <v>16072601</v>
@@ -2471,33 +3111,33 @@
       <c r="I2" s="3">
         <v>0.15</v>
       </c>
-      <c r="J2" s="9">
-        <f t="shared" ref="J2:J14" si="0">(E2+F2+($K$45*H2+$M$45)*$L$45)/(1-G2)/(1-$O$45)/(1-I2)/$N$45</f>
-        <v>16.874780602778195</v>
-      </c>
-      <c r="K2" s="10">
-        <f t="shared" ref="K2:K14" si="1">(E2+F2+($K$45*H2+$M$45)*$L$45)/(1-G2)/(1-$P$45)/(1-I2)/$N$45</f>
-        <v>18.26446841712464</v>
+      <c r="J2" s="10">
+        <f t="shared" ref="J2:J14" si="0">(E2+F2+($K$46*H2+$M$46)*$L$46)/(1-G2)/(1-$O$46)/(1-I2)/$N$46</f>
+        <v>16.8747806027782</v>
+      </c>
+      <c r="K2" s="11">
+        <f t="shared" ref="K2:K14" si="1">(E2+F2+($K$46*H2+$M$46)*$L$46)/(1-G2)/(1-$P$46)/(1-I2)/$N$46</f>
+        <v>18.2644684171246</v>
       </c>
       <c r="L2" s="1">
-        <f t="shared" ref="L2:L14" si="2">E2+F2+($K$45*H2+$M$45)*$L$45</f>
+        <f t="shared" ref="L2:L14" si="2">E2+F2+($K$46*H2+$M$46)*$L$46</f>
         <v>67.3</v>
       </c>
-      <c r="M2" s="11">
-        <f t="shared" ref="M2:M14" si="3">L2/(1-G2)/(1-$O$45)/$N$45</f>
-        <v>14.343563512361467</v>
-      </c>
-      <c r="N2" s="11">
-        <f t="shared" ref="N2:N14" si="4">L2/(1-G2)/(1-$P$45)/$N$45</f>
-        <v>15.524798154555942</v>
-      </c>
-      <c r="O2" s="11">
-        <f>L2/(1-G2)/$N$45</f>
-        <v>13.19607843137255</v>
-      </c>
-      <c r="P2" s="12">
-        <f>O2*$N$45-L2</f>
-        <v>22.433333333333337</v>
+      <c r="M2" s="12">
+        <f t="shared" ref="M2:M14" si="3">L2/(1-G2)/(1-$O$46)/$N$46</f>
+        <v>14.3435635123615</v>
+      </c>
+      <c r="N2" s="12">
+        <f t="shared" ref="N2:N14" si="4">L2/(1-G2)/(1-$P$46)/$N$46</f>
+        <v>15.5247981545559</v>
+      </c>
+      <c r="O2" s="12">
+        <f>L2/(1-G2)/$N$46</f>
+        <v>13.1960784313726</v>
+      </c>
+      <c r="P2" s="13">
+        <f>O2*$N$46-L2</f>
+        <v>22.4333333333333</v>
       </c>
       <c r="Q2" s="1">
         <v>1</v>
@@ -2506,7 +3146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="86.25" customHeight="1">
+    <row r="3" ht="86.25" customHeight="1" spans="1:18">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>16072701</v>
@@ -2532,33 +3172,33 @@
       <c r="I3" s="3">
         <v>0.25</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="10">
         <f t="shared" si="0"/>
-        <v>11.025859619210001</v>
-      </c>
-      <c r="K3" s="10">
+        <v>11.02585961921</v>
+      </c>
+      <c r="K3" s="11">
         <f t="shared" si="1"/>
-        <v>11.933871587850826</v>
+        <v>11.9338715878508</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" si="2"/>
-        <v>38.799999999999997</v>
-      </c>
-      <c r="M3" s="11">
+        <v>38.8</v>
+      </c>
+      <c r="M3" s="12">
         <f t="shared" si="3"/>
-        <v>8.2693947144075022</v>
-      </c>
-      <c r="N3" s="11">
+        <v>8.2693947144075</v>
+      </c>
+      <c r="N3" s="12">
         <f t="shared" si="4"/>
-        <v>8.9504036908881197</v>
-      </c>
-      <c r="O3" s="11">
-        <f>L3/(1-G3)/$N$45</f>
-        <v>7.6078431372549016</v>
-      </c>
-      <c r="P3" s="12">
-        <f>O3*$N$45-L3</f>
-        <v>12.93333333333333</v>
+        <v>8.95040369088812</v>
+      </c>
+      <c r="O3" s="12">
+        <f>L3/(1-G3)/$N$46</f>
+        <v>7.6078431372549</v>
+      </c>
+      <c r="P3" s="13">
+        <f>O3*$N$46-L3</f>
+        <v>12.9333333333333</v>
       </c>
       <c r="Q3" s="1">
         <v>1</v>
@@ -2567,7 +3207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="69.75" customHeight="1">
+    <row r="4" ht="69.75" customHeight="1" spans="1:18">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>16072901</v>
@@ -2593,33 +3233,33 @@
       <c r="I4" s="3">
         <v>0.3</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="10">
         <f t="shared" si="0"/>
-        <v>19.120691754962856</v>
-      </c>
-      <c r="K4" s="10">
+        <v>19.1206917549629</v>
+      </c>
+      <c r="K4" s="11">
         <f t="shared" si="1"/>
-        <v>20.69533695831274</v>
+        <v>20.6953369583127</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="2"/>
         <v>62.8</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="12">
         <f t="shared" si="3"/>
-        <v>13.384484228473999</v>
-      </c>
-      <c r="N4" s="11">
+        <v>13.384484228474</v>
+      </c>
+      <c r="N4" s="12">
         <f t="shared" si="4"/>
-        <v>14.486735870818917</v>
-      </c>
-      <c r="O4" s="11">
-        <f>L4/(1-G4)/$N$45</f>
-        <v>12.313725490196079</v>
-      </c>
-      <c r="P4" s="12">
-        <f>O4*$N$45-L4</f>
-        <v>20.933333333333337</v>
+        <v>14.4867358708189</v>
+      </c>
+      <c r="O4" s="12">
+        <f>L4/(1-G4)/$N$46</f>
+        <v>12.3137254901961</v>
+      </c>
+      <c r="P4" s="13">
+        <f>O4*$N$46-L4</f>
+        <v>20.9333333333333</v>
       </c>
       <c r="Q4" s="1">
         <v>1</v>
@@ -2628,7 +3268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="78" customHeight="1">
+    <row r="5" ht="78" customHeight="1" spans="1:18">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>16073001</v>
@@ -2654,33 +3294,33 @@
       <c r="I5" s="3">
         <v>0.15</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="10">
         <f t="shared" si="0"/>
-        <v>18.253848854119653</v>
-      </c>
-      <c r="K5" s="10">
+        <v>18.2538488541197</v>
+      </c>
+      <c r="K5" s="11">
         <f t="shared" si="1"/>
-        <v>19.757106995047156</v>
+        <v>19.7571069950472</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="2"/>
         <v>72.8</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="12">
         <f t="shared" si="3"/>
-        <v>15.515771526001704</v>
-      </c>
-      <c r="N5" s="11">
+        <v>15.5157715260017</v>
+      </c>
+      <c r="N5" s="12">
         <f t="shared" si="4"/>
-        <v>16.793540945790081</v>
-      </c>
-      <c r="O5" s="11">
-        <f>L5/(1-G5)/$N$45</f>
-        <v>14.274509803921568</v>
-      </c>
-      <c r="P5" s="12">
-        <f>O5*$N$45-L5</f>
-        <v>24.266666666666666</v>
+        <v>16.7935409457901</v>
+      </c>
+      <c r="O5" s="12">
+        <f>L5/(1-G5)/$N$46</f>
+        <v>14.2745098039216</v>
+      </c>
+      <c r="P5" s="13">
+        <f>O5*$N$46-L5</f>
+        <v>24.2666666666667</v>
       </c>
       <c r="Q5" s="1">
         <v>1</v>
@@ -2689,7 +3329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="78" customHeight="1">
+    <row r="6" ht="78" customHeight="1" spans="1:19">
       <c r="A6" s="4"/>
       <c r="B6" s="1">
         <v>16073002</v>
@@ -2715,33 +3355,33 @@
       <c r="I6" s="3">
         <v>0.15</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="10">
         <f t="shared" si="0"/>
-        <v>15.34996991123815</v>
-      </c>
-      <c r="K6" s="10">
+        <v>15.3499699112381</v>
+      </c>
+      <c r="K6" s="11">
         <f t="shared" si="1"/>
-        <v>16.61408508039894</v>
+        <v>16.6140850803989</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="2"/>
         <v>65.3</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="12">
         <f t="shared" si="3"/>
-        <v>13.047474424552426</v>
-      </c>
-      <c r="N6" s="11">
+        <v>13.0474744245524</v>
+      </c>
+      <c r="N6" s="12">
         <f t="shared" si="4"/>
-        <v>14.121972318339099</v>
-      </c>
-      <c r="O6" s="11">
-        <f t="shared" ref="O6:O14" si="5">L6/(1-G6)/$N$45</f>
-        <v>12.003676470588234</v>
-      </c>
-      <c r="P6" s="12">
-        <f t="shared" ref="P6:P14" si="6">O6*$N$45-L6</f>
-        <v>16.324999999999989</v>
+        <v>14.1219723183391</v>
+      </c>
+      <c r="O6" s="12">
+        <f t="shared" ref="O6:O14" si="5">L6/(1-G6)/$N$46</f>
+        <v>12.0036764705882</v>
+      </c>
+      <c r="P6" s="13">
+        <f t="shared" ref="P6:P14" si="6">O6*$N$46-L6</f>
+        <v>16.325</v>
       </c>
       <c r="Q6" s="1">
         <v>0</v>
@@ -2753,7 +3393,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="69" customHeight="1">
+    <row r="7" ht="69" customHeight="1" spans="1:18">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>16080301</v>
@@ -2779,33 +3419,33 @@
       <c r="I7" s="3">
         <v>0.15</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="10">
         <f t="shared" si="0"/>
-        <v>17.250890125871322</v>
-      </c>
-      <c r="K7" s="10">
+        <v>17.2508901258713</v>
+      </c>
+      <c r="K7" s="11">
         <f t="shared" si="1"/>
-        <v>18.671551665648959</v>
+        <v>18.671551665649</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="2"/>
         <v>68.8</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="12">
         <f t="shared" si="3"/>
-        <v>14.663256606990624</v>
-      </c>
-      <c r="N7" s="11">
+        <v>14.6632566069906</v>
+      </c>
+      <c r="N7" s="12">
         <f t="shared" si="4"/>
-        <v>15.870818915801616</v>
-      </c>
-      <c r="O7" s="11">
+        <v>15.8708189158016</v>
+      </c>
+      <c r="O7" s="12">
         <f t="shared" si="5"/>
-        <v>13.490196078431373</v>
-      </c>
-      <c r="P7" s="12">
+        <v>13.4901960784314</v>
+      </c>
+      <c r="P7" s="13">
         <f t="shared" si="6"/>
-        <v>22.933333333333337</v>
+        <v>22.9333333333333</v>
       </c>
       <c r="Q7" s="1">
         <v>1</v>
@@ -2814,7 +3454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="78" customHeight="1">
+    <row r="8" ht="78" customHeight="1" spans="2:18">
       <c r="B8">
         <v>16080401</v>
       </c>
@@ -2836,36 +3476,36 @@
       <c r="H8">
         <v>0.45</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="14">
         <v>0.5</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="10">
         <f t="shared" si="0"/>
-        <v>35.585837595907925</v>
-      </c>
-      <c r="K8" s="10">
+        <v>35.5858375959079</v>
+      </c>
+      <c r="K8" s="11">
         <f t="shared" si="1"/>
-        <v>38.516435986159166</v>
+        <v>38.5164359861592</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="2"/>
         <v>89.05</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="12">
         <f t="shared" si="3"/>
-        <v>17.792918797953963</v>
-      </c>
-      <c r="N8" s="11">
+        <v>17.792918797954</v>
+      </c>
+      <c r="N8" s="12">
         <f t="shared" si="4"/>
-        <v>19.258217993079583</v>
-      </c>
-      <c r="O8" s="11">
+        <v>19.2582179930796</v>
+      </c>
+      <c r="O8" s="12">
         <f t="shared" si="5"/>
-        <v>16.369485294117645</v>
-      </c>
-      <c r="P8" s="12">
+        <v>16.3694852941176</v>
+      </c>
+      <c r="P8" s="13">
         <f t="shared" si="6"/>
-        <v>22.262499999999989</v>
+        <v>22.2625</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -2874,7 +3514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="92.25" customHeight="1">
+    <row r="9" ht="92.25" customHeight="1" spans="2:18">
       <c r="B9">
         <v>16100801</v>
       </c>
@@ -2896,36 +3536,36 @@
       <c r="H9">
         <v>0.45</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="14">
         <v>0.2</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="10">
         <f t="shared" si="0"/>
-        <v>21.059782608695649</v>
-      </c>
-      <c r="K9" s="10">
+        <v>21.0597826086956</v>
+      </c>
+      <c r="K9" s="11">
         <f t="shared" si="1"/>
-        <v>22.794117647058822</v>
+        <v>22.7941176470588</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="2"/>
         <v>79.05</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="12">
         <f t="shared" si="3"/>
-        <v>16.84782608695652</v>
-      </c>
-      <c r="N9" s="11">
+        <v>16.8478260869565</v>
+      </c>
+      <c r="N9" s="12">
         <f t="shared" si="4"/>
-        <v>18.235294117647058</v>
-      </c>
-      <c r="O9" s="11">
+        <v>18.2352941176471</v>
+      </c>
+      <c r="O9" s="12">
         <f t="shared" si="5"/>
         <v>15.5</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="13">
         <f t="shared" si="6"/>
-        <v>26.349999999999994</v>
+        <v>26.35</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2934,7 +3574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="89.25" customHeight="1">
+    <row r="10" ht="89.25" customHeight="1" spans="2:18">
       <c r="B10">
         <v>16100901</v>
       </c>
@@ -2956,36 +3596,36 @@
       <c r="H10">
         <v>0.8</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="14">
         <v>0.3</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="10">
         <f t="shared" si="0"/>
-        <v>37.388868590914626</v>
-      </c>
-      <c r="K10" s="10">
+        <v>37.3888685909146</v>
+      </c>
+      <c r="K10" s="11">
         <f t="shared" si="1"/>
-        <v>40.46795188663701</v>
+        <v>40.467951886637</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="2"/>
         <v>122.8</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="12">
         <f t="shared" si="3"/>
-        <v>26.172208013640237</v>
-      </c>
-      <c r="N10" s="11">
+        <v>26.1722080136402</v>
+      </c>
+      <c r="N10" s="12">
         <f t="shared" si="4"/>
-        <v>28.327566320645907</v>
-      </c>
-      <c r="O10" s="11">
+        <v>28.3275663206459</v>
+      </c>
+      <c r="O10" s="12">
         <f t="shared" si="5"/>
-        <v>24.078431372549019</v>
-      </c>
-      <c r="P10" s="12">
+        <v>24.078431372549</v>
+      </c>
+      <c r="P10" s="13">
         <f t="shared" si="6"/>
-        <v>40.933333333333323</v>
+        <v>40.9333333333333</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2994,7 +3634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="95.25" customHeight="1">
+    <row r="11" ht="95.25" customHeight="1" spans="2:18">
       <c r="B11">
         <v>16101601</v>
       </c>
@@ -3016,36 +3656,36 @@
       <c r="H11">
         <v>0.4</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="14">
         <v>0.15</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="10">
         <f t="shared" si="0"/>
-        <v>32.796750413720474</v>
-      </c>
-      <c r="K11" s="10">
+        <v>32.7967504137205</v>
+      </c>
+      <c r="K11" s="11">
         <f t="shared" si="1"/>
-        <v>35.497659271320991</v>
+        <v>35.497659271321</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="2"/>
-        <v>130.80000000000001</v>
-      </c>
-      <c r="M11" s="11">
+        <v>130.8</v>
+      </c>
+      <c r="M11" s="12">
         <f t="shared" si="3"/>
-        <v>27.877237851662404</v>
-      </c>
-      <c r="N11" s="11">
+        <v>27.8772378516624</v>
+      </c>
+      <c r="N11" s="12">
         <f t="shared" si="4"/>
-        <v>30.173010380622841</v>
-      </c>
-      <c r="O11" s="11">
+        <v>30.1730103806228</v>
+      </c>
+      <c r="O11" s="12">
         <f t="shared" si="5"/>
-        <v>25.647058823529413</v>
-      </c>
-      <c r="P11" s="12">
+        <v>25.6470588235294</v>
+      </c>
+      <c r="P11" s="13">
         <f t="shared" si="6"/>
-        <v>43.599999999999994</v>
+        <v>43.6</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -3054,7 +3694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="81.75" customHeight="1">
+    <row r="12" ht="81.75" customHeight="1" spans="2:18">
       <c r="B12">
         <v>16101602</v>
       </c>
@@ -3076,36 +3716,36 @@
       <c r="H12">
         <v>0.5</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="14">
         <v>0.15</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="10">
         <f t="shared" si="0"/>
-        <v>32.858757659419616</v>
-      </c>
-      <c r="K12" s="10">
+        <v>32.8587576594196</v>
+      </c>
+      <c r="K12" s="11">
         <f t="shared" si="1"/>
         <v>35.5647729960777</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="2"/>
-        <v>129.30000000000001</v>
-      </c>
-      <c r="M12" s="11">
+        <v>129.3</v>
+      </c>
+      <c r="M12" s="12">
         <f t="shared" si="3"/>
-        <v>27.929944010506674</v>
-      </c>
-      <c r="N12" s="11">
+        <v>27.9299440105067</v>
+      </c>
+      <c r="N12" s="12">
         <f t="shared" si="4"/>
-        <v>30.230057046666044</v>
-      </c>
-      <c r="O12" s="11">
+        <v>30.230057046666</v>
+      </c>
+      <c r="O12" s="12">
         <f t="shared" si="5"/>
-        <v>25.695548489666137</v>
-      </c>
-      <c r="P12" s="12">
+        <v>25.6955484896661</v>
+      </c>
+      <c r="P12" s="13">
         <f t="shared" si="6"/>
-        <v>45.429729729729729</v>
+        <v>45.4297297297297</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3114,7 +3754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="89.1" customHeight="1">
+    <row r="13" ht="89.1" customHeight="1" spans="2:18">
       <c r="B13">
         <v>16101701</v>
       </c>
@@ -3136,36 +3776,36 @@
       <c r="H13">
         <v>0.35</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="14">
         <v>0.15</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="10">
         <f t="shared" si="0"/>
-        <v>15.182287748859135</v>
-      </c>
-      <c r="K13" s="10">
+        <v>15.1822877488591</v>
+      </c>
+      <c r="K13" s="11">
         <f t="shared" si="1"/>
-        <v>16.432593798765183</v>
+        <v>16.4325937987652</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="2"/>
         <v>60.55</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="12">
         <f t="shared" si="3"/>
-        <v>12.904944586530265</v>
-      </c>
-      <c r="N13" s="11">
+        <v>12.9049445865303</v>
+      </c>
+      <c r="N13" s="12">
         <f t="shared" si="4"/>
-        <v>13.967704728950405</v>
-      </c>
-      <c r="O13" s="11">
+        <v>13.9677047289504</v>
+      </c>
+      <c r="O13" s="12">
         <f t="shared" si="5"/>
-        <v>11.872549019607844</v>
-      </c>
-      <c r="P13" s="12">
+        <v>11.8725490196078</v>
+      </c>
+      <c r="P13" s="13">
         <f t="shared" si="6"/>
-        <v>20.183333333333337</v>
+        <v>20.1833333333333</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -3174,7 +3814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="84" customHeight="1">
+    <row r="14" ht="84" customHeight="1" spans="2:18">
       <c r="B14">
         <v>16101703</v>
       </c>
@@ -3196,36 +3836,36 @@
       <c r="H14">
         <v>0.6</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="14">
         <v>0.5</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="10">
         <f t="shared" si="0"/>
-        <v>59.590792838874677</v>
-      </c>
-      <c r="K14" s="10">
+        <v>59.5907928388747</v>
+      </c>
+      <c r="K14" s="11">
         <f t="shared" si="1"/>
-        <v>64.498269896193776</v>
+        <v>64.4982698961938</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="2"/>
-        <v>139.80000000000001</v>
-      </c>
-      <c r="M14" s="11">
+        <v>139.8</v>
+      </c>
+      <c r="M14" s="12">
         <f t="shared" si="3"/>
-        <v>29.795396419437338</v>
-      </c>
-      <c r="N14" s="11">
+        <v>29.7953964194373</v>
+      </c>
+      <c r="N14" s="12">
         <f t="shared" si="4"/>
-        <v>32.249134948096888</v>
-      </c>
-      <c r="O14" s="11">
+        <v>32.2491349480969</v>
+      </c>
+      <c r="O14" s="12">
         <f t="shared" si="5"/>
-        <v>27.411764705882355</v>
-      </c>
-      <c r="P14" s="12">
+        <v>27.4117647058824</v>
+      </c>
+      <c r="P14" s="13">
         <f t="shared" si="6"/>
-        <v>46.599999999999994</v>
+        <v>46.6</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -3234,7 +3874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="90.75" customHeight="1">
+    <row r="15" ht="90.75" customHeight="1" spans="2:18">
       <c r="B15">
         <v>16101702</v>
       </c>
@@ -3256,36 +3896,36 @@
       <c r="H15">
         <v>0.4</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="14">
         <v>0.15</v>
       </c>
-      <c r="J15" s="9">
-        <f>(E15+F15+(Sheet1!$K$45*H15+Sheet1!$M$45)*Sheet1!$L$45)/(1-G15)/(1-Sheet1!$O$45)/(1-I15)/Sheet1!$N$45</f>
-        <v>23.017902813299234</v>
-      </c>
-      <c r="K15" s="10">
-        <f>(E15+F15+(Sheet1!$K$45*H15+Sheet1!$M$45)*Sheet1!$L$45)/(1-G15)/(1-Sheet1!$P$45)/(1-I15)/Sheet1!$N$45</f>
-        <v>24.913494809688583</v>
+      <c r="J15" s="10">
+        <f>(E15+F15+(Sheet1!$K$46*H15+Sheet1!$M$46)*Sheet1!$L$46)/(1-G15)/(1-Sheet1!$O$46)/(1-I15)/Sheet1!$N$46</f>
+        <v>23.0179028132992</v>
+      </c>
+      <c r="K15" s="11">
+        <f>(E15+F15+(Sheet1!$K$46*H15+Sheet1!$M$46)*Sheet1!$L$46)/(1-G15)/(1-Sheet1!$P$46)/(1-I15)/Sheet1!$N$46</f>
+        <v>24.9134948096886</v>
       </c>
       <c r="L15" s="1">
-        <f>E15+F15+(Sheet1!$K$45*H15+Sheet1!$M$45)*Sheet1!$L$45</f>
+        <f>E15+F15+(Sheet1!$K$46*H15+Sheet1!$M$46)*Sheet1!$L$46</f>
         <v>91.8</v>
       </c>
-      <c r="M15" s="11">
-        <f>L15/(1-G15)/(1-Sheet1!$O$45)/Sheet1!$N$45</f>
-        <v>19.565217391304348</v>
-      </c>
-      <c r="N15" s="11">
-        <f>L15/(1-G15)/(1-Sheet1!$P$45)/Sheet1!$N$45</f>
-        <v>21.176470588235293</v>
-      </c>
-      <c r="O15" s="11">
-        <f>L15/(1-G15)/Sheet1!$N$45</f>
+      <c r="M15" s="12">
+        <f>L15/(1-G15)/(1-Sheet1!$O$46)/Sheet1!$N$46</f>
+        <v>19.5652173913043</v>
+      </c>
+      <c r="N15" s="12">
+        <f>L15/(1-G15)/(1-Sheet1!$P$46)/Sheet1!$N$46</f>
+        <v>21.1764705882353</v>
+      </c>
+      <c r="O15" s="12">
+        <f>L15/(1-G15)/Sheet1!$N$46</f>
         <v>18</v>
       </c>
-      <c r="P15" s="12">
-        <f>O15*Sheet1!$N$45-L15</f>
-        <v>30.599999999999994</v>
+      <c r="P15" s="13">
+        <f>O15*Sheet1!$N$46-L15</f>
+        <v>30.6</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -3294,7 +3934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="90.75" customHeight="1">
+    <row r="16" ht="90.75" customHeight="1" spans="2:18">
       <c r="B16">
         <v>16101901</v>
       </c>
@@ -3316,36 +3956,36 @@
       <c r="H16">
         <v>0.2</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="14">
         <v>0.25</v>
       </c>
-      <c r="J16" s="9">
-        <f>(E16+F16+(Sheet1!$K$45*H16+Sheet1!$M$45)*Sheet1!$L$45)/(1-G16)/(1-Sheet1!$O$45)/(1-I16)/Sheet1!$N$45</f>
-        <v>11.668797953964194</v>
-      </c>
-      <c r="K16" s="10">
-        <f>(E16+F16+(Sheet1!$K$45*H16+Sheet1!$M$45)*Sheet1!$L$45)/(1-G16)/(1-Sheet1!$P$45)/(1-I16)/Sheet1!$N$45</f>
-        <v>12.629757785467127</v>
+      <c r="J16" s="10">
+        <f>(E16+F16+(Sheet1!$K$46*H16+Sheet1!$M$46)*Sheet1!$L$46)/(1-G16)/(1-Sheet1!$O$46)/(1-I16)/Sheet1!$N$46</f>
+        <v>11.6687979539642</v>
+      </c>
+      <c r="K16" s="11">
+        <f>(E16+F16+(Sheet1!$K$46*H16+Sheet1!$M$46)*Sheet1!$L$46)/(1-G16)/(1-Sheet1!$P$46)/(1-I16)/Sheet1!$N$46</f>
+        <v>12.6297577854671</v>
       </c>
       <c r="L16" s="1">
-        <f>E16+F16+(Sheet1!$K$45*H16+Sheet1!$M$45)*Sheet1!$L$45</f>
+        <f>E16+F16+(Sheet1!$K$46*H16+Sheet1!$M$46)*Sheet1!$L$46</f>
         <v>43.8</v>
       </c>
-      <c r="M16" s="11">
-        <f>L16/(1-G16)/(1-Sheet1!$O$45)/Sheet1!$N$45</f>
-        <v>8.751598465473144</v>
-      </c>
-      <c r="N16" s="11">
-        <f>L16/(1-G16)/(1-Sheet1!$P$45)/Sheet1!$N$45</f>
-        <v>9.4723183391003456</v>
-      </c>
-      <c r="O16" s="11">
-        <f>L16/(1-G16)/Sheet1!$N$45</f>
-        <v>8.0514705882352935</v>
-      </c>
-      <c r="P16" s="12">
-        <f>O16*Sheet1!$N$45-L16</f>
-        <v>10.949999999999996</v>
+      <c r="M16" s="12">
+        <f>L16/(1-G16)/(1-Sheet1!$O$46)/Sheet1!$N$46</f>
+        <v>8.75159846547314</v>
+      </c>
+      <c r="N16" s="12">
+        <f>L16/(1-G16)/(1-Sheet1!$P$46)/Sheet1!$N$46</f>
+        <v>9.47231833910035</v>
+      </c>
+      <c r="O16" s="12">
+        <f>L16/(1-G16)/Sheet1!$N$46</f>
+        <v>8.05147058823529</v>
+      </c>
+      <c r="P16" s="13">
+        <f>O16*Sheet1!$N$46-L16</f>
+        <v>10.95</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -3354,7 +3994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="90.75" customHeight="1">
+    <row r="17" ht="90.75" customHeight="1" spans="2:18">
       <c r="B17">
         <v>16110801</v>
       </c>
@@ -3376,45 +4016,45 @@
       <c r="H17">
         <v>0.4</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="14">
         <v>0.15</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="10">
         <f>(E17+F17+([1]Sheet1!$K$26*H17+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G17)/(1-[1]Sheet1!$O$26)/(1-I17)/[1]Sheet1!$N$26</f>
-        <v>16.101573005597775</v>
-      </c>
-      <c r="K17" s="10">
+        <v>16.1015730055978</v>
+      </c>
+      <c r="K17" s="11">
         <f>(E17+F17+([1]Sheet1!$K$26*H17+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G17)/(1-[1]Sheet1!$P$26)/(1-I17)/[1]Sheet1!$N$26</f>
-        <v>17.995875712138687</v>
+        <v>17.9958757121387</v>
       </c>
       <c r="L17" s="1">
         <f>E17+F17+([1]Sheet1!$K$26*H17+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>64.36</v>
       </c>
-      <c r="M17" s="11">
+      <c r="M17" s="12">
         <f>L17/(1-G17)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>13.686337054758109</v>
-      </c>
-      <c r="N17" s="11">
+        <v>13.6863370547581</v>
+      </c>
+      <c r="N17" s="12">
         <f>L17/(1-G17)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>15.296494355317884</v>
-      </c>
-      <c r="O17" s="11">
+        <v>15.2964943553179</v>
+      </c>
+      <c r="O17" s="12">
         <f>L17/(1-G17)/[1]Sheet1!$N$26</f>
-        <v>13.002020202020203</v>
-      </c>
-      <c r="P17" s="12">
+        <v>13.0020202020202</v>
+      </c>
+      <c r="P17" s="13">
         <f>O17*[1]Sheet1!$N$26-L17</f>
-        <v>21.453333333333333</v>
-      </c>
-      <c r="Q17" s="13">
+        <v>21.4533333333333</v>
+      </c>
+      <c r="Q17" s="14">
         <v>0.15</v>
       </c>
-      <c r="R17" s="13">
+      <c r="R17" s="14">
         <v>0.45</v>
       </c>
     </row>
-    <row r="18" spans="2:18" ht="90.75" customHeight="1">
+    <row r="18" ht="90.75" customHeight="1" spans="2:18">
       <c r="B18">
         <v>16110802</v>
       </c>
@@ -3436,45 +4076,45 @@
       <c r="H18">
         <v>0.4</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="14">
         <v>0.15</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="10">
         <f>(E18+F18+([1]Sheet1!$K$26*H18+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G18)/(1-[1]Sheet1!$O$26)/(1-I18)/[1]Sheet1!$N$26</f>
-        <v>16.101573005597775</v>
-      </c>
-      <c r="K18" s="10">
+        <v>16.1015730055978</v>
+      </c>
+      <c r="K18" s="11">
         <f>(E18+F18+([1]Sheet1!$K$26*H18+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G18)/(1-[1]Sheet1!$P$26)/(1-I18)/[1]Sheet1!$N$26</f>
-        <v>17.995875712138687</v>
+        <v>17.9958757121387</v>
       </c>
       <c r="L18" s="1">
         <f>E18+F18+([1]Sheet1!$K$26*H18+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>64.36</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M18" s="12">
         <f>L18/(1-G18)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>13.686337054758109</v>
-      </c>
-      <c r="N18" s="11">
+        <v>13.6863370547581</v>
+      </c>
+      <c r="N18" s="12">
         <f>L18/(1-G18)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>15.296494355317884</v>
-      </c>
-      <c r="O18" s="11">
+        <v>15.2964943553179</v>
+      </c>
+      <c r="O18" s="12">
         <f>L18/(1-G18)/[1]Sheet1!$N$26</f>
-        <v>13.002020202020203</v>
-      </c>
-      <c r="P18" s="12">
+        <v>13.0020202020202</v>
+      </c>
+      <c r="P18" s="13">
         <f>O18*[1]Sheet1!$N$26-L18</f>
-        <v>21.453333333333333</v>
-      </c>
-      <c r="Q18" s="13">
+        <v>21.4533333333333</v>
+      </c>
+      <c r="Q18" s="14">
         <v>0.15</v>
       </c>
-      <c r="R18" s="13">
+      <c r="R18" s="14">
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="2:18" ht="90.75" customHeight="1">
+    <row r="19" ht="90.75" customHeight="1" spans="2:18">
       <c r="B19">
         <v>16110901</v>
       </c>
@@ -3494,36 +4134,36 @@
       <c r="H19">
         <v>0.15</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="14">
         <v>0.5</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="10">
         <f>(E19+F19+([1]Sheet1!$K$26*H19+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G19)/(1-[1]Sheet1!$O$26)/(1-I19)/[1]Sheet1!$N$26</f>
-        <v>16.740031897926634</v>
-      </c>
-      <c r="K19" s="10">
+        <v>16.7400318979266</v>
+      </c>
+      <c r="K19" s="11">
         <f>(E19+F19+([1]Sheet1!$K$26*H19+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G19)/(1-[1]Sheet1!$P$26)/(1-I19)/[1]Sheet1!$N$26</f>
-        <v>18.70944741532977</v>
+        <v>18.7094474153298</v>
       </c>
       <c r="L19" s="1">
         <f>E19+F19+([1]Sheet1!$K$26*H19+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>39.36</v>
       </c>
-      <c r="M19" s="11">
+      <c r="M19" s="12">
         <f>L19/(1-G19)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>8.3700159489633172</v>
-      </c>
-      <c r="N19" s="11">
+        <v>8.37001594896332</v>
+      </c>
+      <c r="N19" s="12">
         <f>L19/(1-G19)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>9.3547237076648848</v>
-      </c>
-      <c r="O19" s="11">
+        <v>9.35472370766488</v>
+      </c>
+      <c r="O19" s="12">
         <f>L19/(1-G19)/[1]Sheet1!$N$26</f>
-        <v>7.9515151515151512</v>
-      </c>
-      <c r="P19" s="12">
+        <v>7.95151515151515</v>
+      </c>
+      <c r="P19" s="13">
         <f>O19*[1]Sheet1!$N$26-L19</f>
-        <v>13.119999999999997</v>
+        <v>13.12</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -3532,7 +4172,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:18" ht="90.75" customHeight="1">
+    <row r="20" ht="90.75" customHeight="1" spans="2:18">
       <c r="B20">
         <v>16111001</v>
       </c>
@@ -3552,42 +4192,42 @@
       <c r="H20">
         <v>0.3</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="14">
         <v>0.3</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="10">
         <f>(E20+F20+([1]Sheet1!$K$26*H20+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G20)/(1-[1]Sheet1!$O$26)/(1-I20)/[1]Sheet1!$N$26</f>
-        <v>18.124098124098129</v>
-      </c>
-      <c r="K20" s="10">
+        <v>18.1240981240981</v>
+      </c>
+      <c r="K20" s="11">
         <f>(E20+F20+([1]Sheet1!$K$26*H20+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G20)/(1-[1]Sheet1!$P$26)/(1-I20)/[1]Sheet1!$N$26</f>
-        <v>20.256344962227317</v>
+        <v>20.2563449622273</v>
       </c>
       <c r="L20" s="1">
         <f>E20+F20+([1]Sheet1!$K$26*H20+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>59.66</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M20" s="12">
         <f>L20/(1-G20)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>12.686868686868687</v>
-      </c>
-      <c r="N20" s="11">
+        <v>12.6868686868687</v>
+      </c>
+      <c r="N20" s="12">
         <f>L20/(1-G20)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>14.179441473559123</v>
-      </c>
-      <c r="O20" s="11">
+        <v>14.1794414735591</v>
+      </c>
+      <c r="O20" s="12">
         <f>L20/(1-G20)/[1]Sheet1!$N$26</f>
-        <v>12.052525252525253</v>
-      </c>
-      <c r="P20" s="12">
+        <v>12.0525252525253</v>
+      </c>
+      <c r="P20" s="13">
         <f>O20*[1]Sheet1!$N$26-L20</f>
-        <v>19.88666666666667</v>
+        <v>19.8866666666667</v>
       </c>
       <c r="R20">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="2:18" ht="90.75" customHeight="1">
+    <row r="21" ht="90.75" customHeight="1" spans="2:18">
       <c r="B21">
         <v>16111901</v>
       </c>
@@ -3609,42 +4249,42 @@
       <c r="H21">
         <v>0.25</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="14">
         <v>0.45</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="10">
         <f>(E21+F21+([1]Sheet1!$K$26*H21+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G21)/(1-[1]Sheet1!$O$26)/(1-I21)/[1]Sheet1!$N$26</f>
-        <v>25.541539799913004</v>
-      </c>
-      <c r="K21" s="10">
+        <v>25.541539799913</v>
+      </c>
+      <c r="K21" s="11">
         <f>(E21+F21+([1]Sheet1!$K$26*H21+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G21)/(1-[1]Sheet1!$P$26)/(1-I21)/[1]Sheet1!$N$26</f>
-        <v>28.54642683519689</v>
+        <v>28.5464268351969</v>
       </c>
       <c r="L21" s="1">
         <f>E21+F21+([1]Sheet1!$K$26*H21+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>66.06</v>
       </c>
-      <c r="M21" s="11">
+      <c r="M21" s="12">
         <f>L21/(1-G21)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.047846889952154</v>
-      </c>
-      <c r="N21" s="11">
+        <v>14.0478468899522</v>
+      </c>
+      <c r="N21" s="12">
         <f>L21/(1-G21)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>15.700534759358289</v>
-      </c>
-      <c r="O21" s="11">
+        <v>15.7005347593583</v>
+      </c>
+      <c r="O21" s="12">
         <f>L21/(1-G21)/[1]Sheet1!$N$26</f>
-        <v>13.345454545454546</v>
-      </c>
-      <c r="P21" s="12">
+        <v>13.3454545454545</v>
+      </c>
+      <c r="P21" s="13">
         <f>O21*[1]Sheet1!$N$26-L21</f>
-        <v>22.019999999999996</v>
+        <v>22.02</v>
       </c>
       <c r="R21">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:18" ht="90.95" customHeight="1">
+    <row r="22" ht="90.95" customHeight="1" spans="2:18">
       <c r="B22">
         <v>16112001</v>
       </c>
@@ -3663,42 +4303,42 @@
       <c r="H22">
         <v>0.25</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="14">
         <v>0.45</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="10">
         <f>(E22+F22+([1]Sheet1!$K$26*H22+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G22)/(1-[1]Sheet1!$O$26)/(1-I22)/[1]Sheet1!$N$26</f>
-        <v>25.541539799913004</v>
-      </c>
-      <c r="K22" s="10">
+        <v>25.541539799913</v>
+      </c>
+      <c r="K22" s="11">
         <f>(E22+F22+([1]Sheet1!$K$26*H22+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G22)/(1-[1]Sheet1!$P$26)/(1-I22)/[1]Sheet1!$N$26</f>
-        <v>28.54642683519689</v>
+        <v>28.5464268351969</v>
       </c>
       <c r="L22" s="1">
         <f>E22+F22+([1]Sheet1!$K$26*H22+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>66.06</v>
       </c>
-      <c r="M22" s="11">
+      <c r="M22" s="12">
         <f>L22/(1-G22)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.047846889952154</v>
-      </c>
-      <c r="N22" s="11">
+        <v>14.0478468899522</v>
+      </c>
+      <c r="N22" s="12">
         <f>L22/(1-G22)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>15.700534759358289</v>
-      </c>
-      <c r="O22" s="11">
+        <v>15.7005347593583</v>
+      </c>
+      <c r="O22" s="12">
         <f>L22/(1-G22)/[1]Sheet1!$N$26</f>
-        <v>13.345454545454546</v>
-      </c>
-      <c r="P22" s="12">
+        <v>13.3454545454545</v>
+      </c>
+      <c r="P22" s="13">
         <f>O22*[1]Sheet1!$N$26-L22</f>
-        <v>22.019999999999996</v>
+        <v>22.02</v>
       </c>
       <c r="R22">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="2:18" ht="90.95" customHeight="1">
+    <row r="23" ht="90.95" customHeight="1" spans="2:18">
       <c r="B23">
         <v>16112002</v>
       </c>
@@ -3717,42 +4357,42 @@
       <c r="H23">
         <v>0.25</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="14">
         <v>0.45</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="10">
         <f>(E23+F23+([1]Sheet1!$K$26*H23+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G23)/(1-[1]Sheet1!$O$26)/(1-I23)/[1]Sheet1!$N$26</f>
-        <v>27.088105939780586</v>
-      </c>
-      <c r="K23" s="10">
+        <v>27.0881059397806</v>
+      </c>
+      <c r="K23" s="11">
         <f>(E23+F23+([1]Sheet1!$K$26*H23+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G23)/(1-[1]Sheet1!$P$26)/(1-I23)/[1]Sheet1!$N$26</f>
-        <v>30.274941932695945</v>
+        <v>30.2749419326959</v>
       </c>
       <c r="L23" s="1">
         <f>E23+F23+([1]Sheet1!$K$26*H23+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>70.06</v>
       </c>
-      <c r="M23" s="11">
+      <c r="M23" s="12">
         <f>L23/(1-G23)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.898458266879324</v>
-      </c>
-      <c r="N23" s="11">
+        <v>14.8984582668793</v>
+      </c>
+      <c r="N23" s="12">
         <f>L23/(1-G23)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>16.651218062982771</v>
-      </c>
-      <c r="O23" s="11">
+        <v>16.6512180629828</v>
+      </c>
+      <c r="O23" s="12">
         <f>L23/(1-G23)/[1]Sheet1!$N$26</f>
-        <v>14.153535353535355</v>
-      </c>
-      <c r="P23" s="12">
+        <v>14.1535353535354</v>
+      </c>
+      <c r="P23" s="13">
         <f>O23*[1]Sheet1!$N$26-L23</f>
-        <v>23.353333333333339</v>
+        <v>23.3533333333333</v>
       </c>
       <c r="R23">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="2:18" ht="90.75" customHeight="1">
+    <row r="24" ht="90.75" customHeight="1" spans="2:18">
       <c r="B24">
         <v>16112003</v>
       </c>
@@ -3774,42 +4414,42 @@
       <c r="H24">
         <v>0.25</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="14">
         <v>0.45</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="10">
         <f>(E24+F24+([1]Sheet1!$K$26*H24+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G24)/(1-[1]Sheet1!$O$26)/(1-I24)/[1]Sheet1!$N$26</f>
-        <v>25.928181334879902</v>
-      </c>
-      <c r="K24" s="10">
+        <v>25.9281813348799</v>
+      </c>
+      <c r="K24" s="11">
         <f>(E24+F24+([1]Sheet1!$K$26*H24+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G24)/(1-[1]Sheet1!$P$26)/(1-I24)/[1]Sheet1!$N$26</f>
-        <v>28.978555609571654</v>
+        <v>28.9785556095717</v>
       </c>
       <c r="L24" s="1">
         <f>E24+F24+([1]Sheet1!$K$26*H24+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>67.06</v>
       </c>
-      <c r="M24" s="11">
+      <c r="M24" s="12">
         <f>L24/(1-G24)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.260499734183947</v>
-      </c>
-      <c r="N24" s="11">
+        <v>14.2604997341839</v>
+      </c>
+      <c r="N24" s="12">
         <f>L24/(1-G24)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>15.938205585264411</v>
-      </c>
-      <c r="O24" s="11">
+        <v>15.9382055852644</v>
+      </c>
+      <c r="O24" s="12">
         <f>L24/(1-G24)/[1]Sheet1!$N$26</f>
-        <v>13.54747474747475</v>
-      </c>
-      <c r="P24" s="12">
+        <v>13.5474747474747</v>
+      </c>
+      <c r="P24" s="13">
         <f>O24*[1]Sheet1!$N$26-L24</f>
-        <v>22.353333333333339</v>
+        <v>22.3533333333333</v>
       </c>
       <c r="R24">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:18" ht="90.75" customHeight="1">
+    <row r="25" ht="90.75" customHeight="1" spans="2:18">
       <c r="B25">
         <v>16112301</v>
       </c>
@@ -3831,34 +4471,34 @@
       <c r="H25">
         <v>0.35</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="14">
         <v>0.4</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="10">
         <f>(E25+F25+([1]Sheet1!$K$26*H25+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G25)/(1-[1]Sheet1!$O$26)/(1-I25)/[1]Sheet1!$N$26</f>
-        <v>24.901648059542801</v>
-      </c>
-      <c r="K25" s="10">
+        <v>24.9016480595428</v>
+      </c>
+      <c r="K25" s="11">
         <f>(E25+F25+([1]Sheet1!$K$26*H25+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G25)/(1-[1]Sheet1!$P$26)/(1-I25)/[1]Sheet1!$N$26</f>
-        <v>27.831253713606657</v>
+        <v>27.8312537136067</v>
       </c>
       <c r="L25" s="1">
         <f>E25+F25+([1]Sheet1!$K$26*H25+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
-        <v>70.259999999999991</v>
-      </c>
-      <c r="M25" s="11">
+        <v>70.26</v>
+      </c>
+      <c r="M25" s="12">
         <f>L25/(1-G25)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.940988835725678</v>
-      </c>
-      <c r="N25" s="11">
+        <v>14.9409888357257</v>
+      </c>
+      <c r="N25" s="12">
         <f>L25/(1-G25)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>16.698752228163993</v>
-      </c>
-      <c r="O25" s="11">
+        <v>16.698752228164</v>
+      </c>
+      <c r="O25" s="12">
         <f>L25/(1-G25)/[1]Sheet1!$N$26</f>
-        <v>14.193939393939393</v>
-      </c>
-      <c r="P25" s="12">
+        <v>14.1939393939394</v>
+      </c>
+      <c r="P25" s="13">
         <f>O25*[1]Sheet1!$N$26-L25</f>
         <v>23.42</v>
       </c>
@@ -3866,7 +4506,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="2:18" ht="90.75" customHeight="1">
+    <row r="26" ht="90.75" customHeight="1" spans="2:18">
       <c r="B26">
         <v>16112302</v>
       </c>
@@ -3888,42 +4528,42 @@
       <c r="H26">
         <v>0.25</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="14">
         <v>0.4</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="10">
         <f>(E26+F26+([1]Sheet1!$K$26*H26+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G26)/(1-[1]Sheet1!$O$26)/(1-I26)/[1]Sheet1!$N$26</f>
         <v>22.3498139287613</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K26" s="11">
         <f>(E26+F26+([1]Sheet1!$K$26*H26+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G26)/(1-[1]Sheet1!$P$26)/(1-I26)/[1]Sheet1!$N$26</f>
-        <v>24.979203802733217</v>
+        <v>24.9792038027332</v>
       </c>
       <c r="L26" s="1">
         <f>E26+F26+([1]Sheet1!$K$26*H26+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>63.06</v>
       </c>
-      <c r="M26" s="11">
+      <c r="M26" s="12">
         <f>L26/(1-G26)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>13.409888357256781</v>
-      </c>
-      <c r="N26" s="11">
+        <v>13.4098883572568</v>
+      </c>
+      <c r="N26" s="12">
         <f>L26/(1-G26)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>14.987522281639929</v>
-      </c>
-      <c r="O26" s="11">
+        <v>14.9875222816399</v>
+      </c>
+      <c r="O26" s="12">
         <f>L26/(1-G26)/[1]Sheet1!$N$26</f>
-        <v>12.73939393939394</v>
-      </c>
-      <c r="P26" s="12">
+        <v>12.7393939393939</v>
+      </c>
+      <c r="P26" s="13">
         <f>O26*[1]Sheet1!$N$26-L26</f>
-        <v>21.019999999999996</v>
+        <v>21.02</v>
       </c>
       <c r="R26">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="2:18" ht="90.75" customHeight="1">
+    <row r="27" ht="90.75" customHeight="1" spans="2:18">
       <c r="B27">
         <v>16112401</v>
       </c>
@@ -3945,36 +4585,36 @@
       <c r="H27">
         <v>0.22</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="14">
         <v>0.3</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="10">
         <f>(E27+F27+([1]Sheet1!$K$26*H27+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G27)/(1-[1]Sheet1!$O$26)/(1-I27)/[1]Sheet1!$N$26</f>
-        <v>19.017240069871651</v>
-      </c>
-      <c r="K27" s="10">
+        <v>19.0172400698717</v>
+      </c>
+      <c r="K27" s="11">
         <f>(E27+F27+([1]Sheet1!$K$26*H27+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G27)/(1-[1]Sheet1!$P$26)/(1-I27)/[1]Sheet1!$N$26</f>
-        <v>21.254562431033019</v>
+        <v>21.254562431033</v>
       </c>
       <c r="L27" s="1">
         <f>E27+F27+([1]Sheet1!$K$26*H27+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
-        <v>62.599999999999994</v>
-      </c>
-      <c r="M27" s="11">
+        <v>62.6</v>
+      </c>
+      <c r="M27" s="12">
         <f>L27/(1-G27)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>13.312068048910154</v>
-      </c>
-      <c r="N27" s="11">
+        <v>13.3120680489102</v>
+      </c>
+      <c r="N27" s="12">
         <f>L27/(1-G27)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>14.878193701723113</v>
-      </c>
-      <c r="O27" s="11">
+        <v>14.8781937017231</v>
+      </c>
+      <c r="O27" s="12">
         <f>L27/(1-G27)/[1]Sheet1!$N$26</f>
-        <v>12.646464646464645</v>
-      </c>
-      <c r="P27" s="12">
+        <v>12.6464646464646</v>
+      </c>
+      <c r="P27" s="13">
         <f>O27*[1]Sheet1!$N$26-L27</f>
-        <v>20.86666666666666</v>
+        <v>20.8666666666667</v>
       </c>
       <c r="Q27">
         <v>40</v>
@@ -3983,7 +4623,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="2:18" ht="90.75" customHeight="1">
+    <row r="28" ht="90.75" customHeight="1" spans="2:18">
       <c r="B28">
         <v>16112501</v>
       </c>
@@ -4005,36 +4645,36 @@
       <c r="H28">
         <v>0.45</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I28" s="14">
         <v>0.45</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="10">
         <f>(E28+F28+([1]Sheet1!$K$26*H28+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G28)/(1-[1]Sheet1!$O$26)/(1-I28)/[1]Sheet1!$N$26</f>
-        <v>28.016045623701128</v>
-      </c>
-      <c r="K28" s="10">
+        <v>28.0160456237011</v>
+      </c>
+      <c r="K28" s="11">
         <f>(E28+F28+([1]Sheet1!$K$26*H28+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G28)/(1-[1]Sheet1!$P$26)/(1-I28)/[1]Sheet1!$N$26</f>
-        <v>31.312050991195381</v>
+        <v>31.3120509911954</v>
       </c>
       <c r="L28" s="1">
         <f>E28+F28+([1]Sheet1!$K$26*H28+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
-        <v>72.460000000000008</v>
-      </c>
-      <c r="M28" s="11">
+        <v>72.46</v>
+      </c>
+      <c r="M28" s="12">
         <f>L28/(1-G28)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>15.408825093035622</v>
-      </c>
-      <c r="N28" s="11">
+        <v>15.4088250930356</v>
+      </c>
+      <c r="N28" s="12">
         <f>L28/(1-G28)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>17.221628045157463</v>
-      </c>
-      <c r="O28" s="11">
+        <v>17.2216280451575</v>
+      </c>
+      <c r="O28" s="12">
         <f>L28/(1-G28)/[1]Sheet1!$N$26</f>
-        <v>14.638383838383842</v>
-      </c>
-      <c r="P28" s="12">
+        <v>14.6383838383838</v>
+      </c>
+      <c r="P28" s="13">
         <f>O28*[1]Sheet1!$N$26-L28</f>
-        <v>24.153333333333336</v>
+        <v>24.1533333333333</v>
       </c>
       <c r="Q28">
         <v>45</v>
@@ -4043,7 +4683,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="2:18" ht="90.75" customHeight="1">
+    <row r="29" ht="90.75" customHeight="1" spans="2:18">
       <c r="B29">
         <v>16112801</v>
       </c>
@@ -4065,36 +4705,36 @@
       <c r="H29">
         <v>0.45</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I29" s="14">
         <v>0.25</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="10">
         <f>(E29+F29+([1]Sheet1!$K$26*H29+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G29)/(1-[1]Sheet1!$O$26)/(1-I29)/[1]Sheet1!$N$26</f>
-        <v>21.112174375332273</v>
-      </c>
-      <c r="K29" s="10">
+        <v>21.1121743753323</v>
+      </c>
+      <c r="K29" s="11">
         <f>(E29+F29+([1]Sheet1!$K$26*H29+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G29)/(1-[1]Sheet1!$P$26)/(1-I29)/[1]Sheet1!$N$26</f>
-        <v>23.595959595959602</v>
+        <v>23.5959595959596</v>
       </c>
       <c r="L29" s="1">
         <f>E29+F29+([1]Sheet1!$K$26*H29+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
-        <v>74.460000000000008</v>
-      </c>
-      <c r="M29" s="11">
+        <v>74.46</v>
+      </c>
+      <c r="M29" s="12">
         <f>L29/(1-G29)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>15.834130781499207</v>
-      </c>
-      <c r="N29" s="11">
+        <v>15.8341307814992</v>
+      </c>
+      <c r="N29" s="12">
         <f>L29/(1-G29)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>17.696969696969703</v>
-      </c>
-      <c r="O29" s="11">
+        <v>17.6969696969697</v>
+      </c>
+      <c r="O29" s="12">
         <f>L29/(1-G29)/[1]Sheet1!$N$26</f>
-        <v>15.042424242424245</v>
-      </c>
-      <c r="P29" s="12">
+        <v>15.0424242424242</v>
+      </c>
+      <c r="P29" s="13">
         <f>O29*[1]Sheet1!$N$26-L29</f>
-        <v>24.820000000000007</v>
+        <v>24.82</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -4103,7 +4743,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="2:18" ht="90.75" customHeight="1">
+    <row r="30" ht="90.75" customHeight="1" spans="2:18">
       <c r="B30">
         <v>16112901</v>
       </c>
@@ -4125,36 +4765,36 @@
       <c r="H30">
         <v>0.4</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I30" s="14">
         <v>0.45</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="10">
         <f>(E30+F30+([1]Sheet1!$K$26*H30+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G30)/(1-[1]Sheet1!$O$26)/(1-I30)/[1]Sheet1!$N$26</f>
-        <v>26.044173795369968</v>
-      </c>
-      <c r="K30" s="10">
+        <v>26.04417379537</v>
+      </c>
+      <c r="K30" s="11">
         <f>(E30+F30+([1]Sheet1!$K$26*H30+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G30)/(1-[1]Sheet1!$P$26)/(1-I30)/[1]Sheet1!$N$26</f>
-        <v>29.108194241884085</v>
+        <v>29.1081942418841</v>
       </c>
       <c r="L30" s="1">
         <f>E30+F30+([1]Sheet1!$K$26*H30+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>67.36</v>
       </c>
-      <c r="M30" s="11">
+      <c r="M30" s="12">
         <f>L30/(1-G30)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.324295587453484</v>
-      </c>
-      <c r="N30" s="11">
+        <v>14.3242955874535</v>
+      </c>
+      <c r="N30" s="12">
         <f>L30/(1-G30)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>16.009506833036248</v>
-      </c>
-      <c r="O30" s="11">
+        <v>16.0095068330362</v>
+      </c>
+      <c r="O30" s="12">
         <f>L30/(1-G30)/[1]Sheet1!$N$26</f>
-        <v>13.608080808080809</v>
-      </c>
-      <c r="P30" s="12">
+        <v>13.6080808080808</v>
+      </c>
+      <c r="P30" s="13">
         <f>O30*[1]Sheet1!$N$26-L30</f>
-        <v>22.453333333333333</v>
+        <v>22.4533333333333</v>
       </c>
       <c r="Q30">
         <v>30</v>
@@ -4163,7 +4803,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="2:18" ht="90.75" customHeight="1">
+    <row r="31" ht="90.75" customHeight="1" spans="2:18">
       <c r="B31">
         <v>16113001</v>
       </c>
@@ -4185,36 +4825,36 @@
       <c r="H31">
         <v>0.25</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I31" s="14">
         <v>0.2</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="10">
         <f>(E31+F31+([1]Sheet1!$K$26*H31+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G31)/(1-[1]Sheet1!$O$26)/(1-I31)/[1]Sheet1!$N$26</f>
-        <v>12.509303561935141</v>
-      </c>
-      <c r="K31" s="10">
+        <v>12.5093035619351</v>
+      </c>
+      <c r="K31" s="11">
         <f>(E31+F31+([1]Sheet1!$K$26*H31+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G31)/(1-[1]Sheet1!$P$26)/(1-I31)/[1]Sheet1!$N$26</f>
-        <v>13.980986333927513</v>
+        <v>13.9809863339275</v>
       </c>
       <c r="L31" s="1">
         <f>E31+F31+([1]Sheet1!$K$26*H31+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>47.06</v>
       </c>
-      <c r="M31" s="11">
+      <c r="M31" s="12">
         <f>L31/(1-G31)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>10.007442849548115</v>
-      </c>
-      <c r="N31" s="11">
+        <v>10.0074428495481</v>
+      </c>
+      <c r="N31" s="12">
         <f>L31/(1-G31)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>11.18478906714201</v>
-      </c>
-      <c r="O31" s="11">
+        <v>11.184789067142</v>
+      </c>
+      <c r="O31" s="12">
         <f>L31/(1-G31)/[1]Sheet1!$N$26</f>
-        <v>9.5070707070707083</v>
-      </c>
-      <c r="P31" s="12">
+        <v>9.50707070707071</v>
+      </c>
+      <c r="P31" s="13">
         <f>O31*[1]Sheet1!$N$26-L31</f>
-        <v>15.686666666666667</v>
+        <v>15.6866666666667</v>
       </c>
       <c r="Q31">
         <v>20</v>
@@ -4223,7 +4863,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="2:18" ht="90.75" customHeight="1">
+    <row r="32" ht="90.75" customHeight="1" spans="2:18">
       <c r="B32">
         <v>16113002</v>
       </c>
@@ -4245,36 +4885,36 @@
       <c r="H32">
         <v>0.2</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I32" s="14">
         <v>0.4</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="10">
         <f>(E32+F32+([1]Sheet1!$K$26*H32+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G32)/(1-[1]Sheet1!$O$26)/(1-I32)/[1]Sheet1!$N$26</f>
-        <v>17.706893496367179</v>
-      </c>
-      <c r="K32" s="10">
+        <v>17.7068934963672</v>
+      </c>
+      <c r="K32" s="11">
         <f>(E32+F32+([1]Sheet1!$K$26*H32+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G32)/(1-[1]Sheet1!$P$26)/(1-I32)/[1]Sheet1!$N$26</f>
-        <v>19.790057437116261</v>
+        <v>19.7900574371163</v>
       </c>
       <c r="L32" s="1">
         <f>E32+F32+([1]Sheet1!$K$26*H32+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
-        <v>49.959999999999994</v>
-      </c>
-      <c r="M32" s="11">
+        <v>49.96</v>
+      </c>
+      <c r="M32" s="12">
         <f>L32/(1-G32)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>10.624136097820308</v>
-      </c>
-      <c r="N32" s="11">
+        <v>10.6241360978203</v>
+      </c>
+      <c r="N32" s="12">
         <f>L32/(1-G32)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>11.874034462269755</v>
-      </c>
-      <c r="O32" s="11">
+        <v>11.8740344622698</v>
+      </c>
+      <c r="O32" s="12">
         <f>L32/(1-G32)/[1]Sheet1!$N$26</f>
-        <v>10.092929292929293</v>
-      </c>
-      <c r="P32" s="12">
+        <v>10.0929292929293</v>
+      </c>
+      <c r="P32" s="13">
         <f>O32*[1]Sheet1!$N$26-L32</f>
-        <v>16.653333333333336</v>
+        <v>16.6533333333333</v>
       </c>
       <c r="Q32">
         <v>20</v>
@@ -4283,7 +4923,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="2:18" ht="90.75" customHeight="1">
+    <row r="33" ht="90.75" customHeight="1" spans="2:18">
       <c r="B33">
         <v>16113003</v>
       </c>
@@ -4305,36 +4945,36 @@
       <c r="H33">
         <v>0.3</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I33" s="14">
         <v>0.45</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="10">
         <f>(E33+F33+([1]Sheet1!$K$26*H33+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G33)/(1-[1]Sheet1!$O$26)/(1-I33)/[1]Sheet1!$N$26</f>
-        <v>25.58020395340969</v>
-      </c>
-      <c r="K33" s="10">
+        <v>25.5802039534097</v>
+      </c>
+      <c r="K33" s="11">
         <f>(E33+F33+([1]Sheet1!$K$26*H33+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G33)/(1-[1]Sheet1!$P$26)/(1-I33)/[1]Sheet1!$N$26</f>
-        <v>28.589639712634362</v>
+        <v>28.5896397126344</v>
       </c>
       <c r="L33" s="1">
         <f>E33+F33+([1]Sheet1!$K$26*H33+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>66.16</v>
       </c>
-      <c r="M33" s="11">
+      <c r="M33" s="12">
         <f>L33/(1-G33)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.069112174375331</v>
-      </c>
-      <c r="N33" s="11">
+        <v>14.0691121743753</v>
+      </c>
+      <c r="N33" s="12">
         <f>L33/(1-G33)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
         <v>15.7243018419489</v>
       </c>
-      <c r="O33" s="11">
+      <c r="O33" s="12">
         <f>L33/(1-G33)/[1]Sheet1!$N$26</f>
-        <v>13.365656565656565</v>
-      </c>
-      <c r="P33" s="12">
+        <v>13.3656565656566</v>
+      </c>
+      <c r="P33" s="13">
         <f>O33*[1]Sheet1!$N$26-L33</f>
-        <v>22.053333333333327</v>
+        <v>22.0533333333333</v>
       </c>
       <c r="Q33">
         <v>45</v>
@@ -4343,7 +4983,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="2:18" ht="90.75" customHeight="1">
+    <row r="34" ht="90.75" customHeight="1" spans="2:18">
       <c r="B34">
         <v>16113004</v>
       </c>
@@ -4365,36 +5005,36 @@
       <c r="H34">
         <v>0.3</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I34" s="14">
         <v>0.25</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34" s="10">
         <f>(E34+F34+([1]Sheet1!$K$26*H34+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G34)/(1-[1]Sheet1!$O$26)/(1-I34)/[1]Sheet1!$N$26</f>
-        <v>19.609427609427609</v>
-      </c>
-      <c r="K34" s="10">
+        <v>19.6094276094276</v>
+      </c>
+      <c r="K34" s="11">
         <f>(E34+F34+([1]Sheet1!$K$26*H34+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G34)/(1-[1]Sheet1!$P$26)/(1-I34)/[1]Sheet1!$N$26</f>
-        <v>21.916419092889683</v>
+        <v>21.9164190928897</v>
       </c>
       <c r="L34" s="1">
         <f>E34+F34+([1]Sheet1!$K$26*H34+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>69.16</v>
       </c>
-      <c r="M34" s="11">
+      <c r="M34" s="12">
         <f>L34/(1-G34)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.707070707070708</v>
-      </c>
-      <c r="N34" s="11">
+        <v>14.7070707070707</v>
+      </c>
+      <c r="N34" s="12">
         <f>L34/(1-G34)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>16.437314319667262</v>
-      </c>
-      <c r="O34" s="11">
+        <v>16.4373143196673</v>
+      </c>
+      <c r="O34" s="12">
         <f>L34/(1-G34)/[1]Sheet1!$N$26</f>
-        <v>13.97171717171717</v>
-      </c>
-      <c r="P34" s="12">
+        <v>13.9717171717172</v>
+      </c>
+      <c r="P34" s="13">
         <f>O34*[1]Sheet1!$N$26-L34</f>
-        <v>23.053333333333327</v>
+        <v>23.0533333333333</v>
       </c>
       <c r="Q34">
         <v>45</v>
@@ -4403,7 +5043,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="2:18" ht="90.75" customHeight="1">
+    <row r="35" ht="90.75" customHeight="1" spans="2:18">
       <c r="B35">
         <v>16120201</v>
       </c>
@@ -4425,34 +5065,34 @@
       <c r="H35">
         <v>0.3</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I35" s="14">
         <v>0.2</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="10">
         <f>(E35+F35+([1]Sheet1!$K$26*H35+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G35)/(1-[1]Sheet1!$O$26)/(1-I35)/[1]Sheet1!$N$26</f>
-        <v>15.725677830940988</v>
-      </c>
-      <c r="K35" s="10">
+        <v>15.725677830941</v>
+      </c>
+      <c r="K35" s="11">
         <f>(E35+F35+([1]Sheet1!$K$26*H35+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G35)/(1-[1]Sheet1!$P$26)/(1-I35)/[1]Sheet1!$N$26</f>
-        <v>17.575757575757574</v>
+        <v>17.5757575757576</v>
       </c>
       <c r="L35" s="1">
         <f>E35+F35+([1]Sheet1!$K$26*H35+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>59.16</v>
       </c>
-      <c r="M35" s="11">
+      <c r="M35" s="12">
         <f>L35/(1-G35)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>12.580542264752792</v>
-      </c>
-      <c r="N35" s="11">
+        <v>12.5805422647528</v>
+      </c>
+      <c r="N35" s="12">
         <f>L35/(1-G35)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>14.060606060606061</v>
-      </c>
-      <c r="O35" s="11">
+        <v>14.0606060606061</v>
+      </c>
+      <c r="O35" s="12">
         <f>L35/(1-G35)/[1]Sheet1!$N$26</f>
-        <v>11.951515151515151</v>
-      </c>
-      <c r="P35" s="12">
+        <v>11.9515151515152</v>
+      </c>
+      <c r="P35" s="13">
         <f>O35*[1]Sheet1!$N$26-L35</f>
         <v>19.72</v>
       </c>
@@ -4460,7 +5100,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="2:18" ht="90.75" customHeight="1">
+    <row r="36" ht="90.75" customHeight="1" spans="2:17">
       <c r="B36">
         <v>16120301</v>
       </c>
@@ -4480,34 +5120,34 @@
       <c r="H36">
         <v>0.3</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I36" s="14">
         <v>0.45</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J36" s="10">
         <f>(E36+F36+([1]Sheet1!$K$26*H36+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G36)/(1-[1]Sheet1!$O$26)/(1-I36)/[1]Sheet1!$N$26</f>
-        <v>24.033637813542118</v>
-      </c>
-      <c r="K36" s="10">
+        <v>24.0336378135421</v>
+      </c>
+      <c r="K36" s="11">
         <f>(E36+F36+([1]Sheet1!$K$26*H36+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G36)/(1-[1]Sheet1!$P$26)/(1-I36)/[1]Sheet1!$N$26</f>
-        <v>26.861124615135306</v>
+        <v>26.8611246151353</v>
       </c>
       <c r="L36" s="1">
         <f>E36+F36+([1]Sheet1!$K$26*H36+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>62.16</v>
       </c>
-      <c r="M36" s="11">
+      <c r="M36" s="12">
         <f>L36/(1-G36)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>13.218500797448167</v>
-      </c>
-      <c r="N36" s="11">
+        <v>13.2185007974482</v>
+      </c>
+      <c r="N36" s="12">
         <f>L36/(1-G36)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>14.773618538324421</v>
-      </c>
-      <c r="O36" s="11">
+        <v>14.7736185383244</v>
+      </c>
+      <c r="O36" s="12">
         <f>L36/(1-G36)/[1]Sheet1!$N$26</f>
-        <v>12.557575757575757</v>
-      </c>
-      <c r="P36" s="12">
+        <v>12.5575757575758</v>
+      </c>
+      <c r="P36" s="13">
         <f>O36*[1]Sheet1!$N$26-L36</f>
         <v>20.72</v>
       </c>
@@ -4515,7 +5155,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="2:18" ht="90.75" customHeight="1">
+    <row r="37" ht="90.75" customHeight="1" spans="2:17">
       <c r="B37">
         <v>16120302</v>
       </c>
@@ -4535,42 +5175,42 @@
       <c r="H37">
         <v>0.15</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I37" s="14">
         <v>0.2</v>
       </c>
-      <c r="J37" s="9">
+      <c r="J37" s="10">
         <f>(E37+F37+([1]Sheet1!$K$26*H37+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G37)/(1-[1]Sheet1!$O$26)/(1-I37)/[1]Sheet1!$N$26</f>
-        <v>7.1398192450824025</v>
-      </c>
-      <c r="K37" s="10">
+        <v>7.1398192450824</v>
+      </c>
+      <c r="K37" s="11">
         <f>(E37+F37+([1]Sheet1!$K$26*H37+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G37)/(1-[1]Sheet1!$P$26)/(1-I37)/[1]Sheet1!$N$26</f>
-        <v>7.9797979797979801</v>
+        <v>7.97979797979798</v>
       </c>
       <c r="L37" s="1">
         <f>E37+F37+([1]Sheet1!$K$26*H37+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>26.86</v>
       </c>
-      <c r="M37" s="11">
+      <c r="M37" s="12">
         <f>L37/(1-G37)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>5.7118553960659231</v>
-      </c>
-      <c r="N37" s="11">
+        <v>5.71185539606592</v>
+      </c>
+      <c r="N37" s="12">
         <f>L37/(1-G37)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>6.3838383838383841</v>
-      </c>
-      <c r="O37" s="11">
+        <v>6.38383838383838</v>
+      </c>
+      <c r="O37" s="12">
         <f>L37/(1-G37)/[1]Sheet1!$N$26</f>
-        <v>5.4262626262626261</v>
-      </c>
-      <c r="P37" s="12">
+        <v>5.42626262626263</v>
+      </c>
+      <c r="P37" s="13">
         <f>O37*[1]Sheet1!$N$26-L37</f>
-        <v>8.9533333333333331</v>
+        <v>8.95333333333333</v>
       </c>
       <c r="Q37">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="2:18" ht="90.75" customHeight="1">
+    <row r="38" ht="90.75" customHeight="1" spans="2:18">
       <c r="B38">
         <v>16120401</v>
       </c>
@@ -4590,36 +5230,36 @@
       <c r="H38">
         <v>0.1</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I38" s="14">
         <v>0.5</v>
       </c>
-      <c r="J38" s="9">
+      <c r="J38" s="10">
         <f>(E38+F38+([1]Sheet1!$K$26*H38+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G38)/(1-[1]Sheet1!$O$26)/(1-I38)/[1]Sheet1!$N$26</f>
-        <v>16.059542796384903</v>
-      </c>
-      <c r="K38" s="10">
+        <v>16.0595427963849</v>
+      </c>
+      <c r="K38" s="11">
         <f>(E38+F38+([1]Sheet1!$K$26*H38+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G38)/(1-[1]Sheet1!$P$26)/(1-I38)/[1]Sheet1!$N$26</f>
-        <v>17.948900772430182</v>
+        <v>17.9489007724302</v>
       </c>
       <c r="L38" s="1">
         <f>E38+F38+([1]Sheet1!$K$26*H38+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>37.76</v>
       </c>
-      <c r="M38" s="11">
+      <c r="M38" s="12">
         <f>L38/(1-G38)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>8.0297713981924517</v>
-      </c>
-      <c r="N38" s="11">
+        <v>8.02977139819245</v>
+      </c>
+      <c r="N38" s="12">
         <f>L38/(1-G38)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>8.9744503862150911</v>
-      </c>
-      <c r="O38" s="11">
+        <v>8.97445038621509</v>
+      </c>
+      <c r="O38" s="12">
         <f>L38/(1-G38)/[1]Sheet1!$N$26</f>
-        <v>7.6282828282828286</v>
-      </c>
-      <c r="P38" s="12">
+        <v>7.62828282828283</v>
+      </c>
+      <c r="P38" s="13">
         <f>O38*[1]Sheet1!$N$26-L38</f>
-        <v>12.586666666666666</v>
+        <v>12.5866666666667</v>
       </c>
       <c r="Q38">
         <v>20</v>
@@ -4628,7 +5268,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="2:18" ht="84" customHeight="1">
+    <row r="39" ht="84" customHeight="1" spans="2:18">
       <c r="B39">
         <v>16122001</v>
       </c>
@@ -4650,36 +5290,36 @@
       <c r="H39">
         <v>0.2</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I39" s="14">
         <v>0.4</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J39" s="10">
         <f>(E39+F39+([1]Sheet1!$K$26*H39+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G39)/(1-[1]Sheet1!$O$26)/(1-I39)/[1]Sheet1!$N$26</f>
-        <v>17.706893496367179</v>
-      </c>
-      <c r="K39" s="10">
+        <v>17.7068934963672</v>
+      </c>
+      <c r="K39" s="11">
         <f>(E39+F39+([1]Sheet1!$K$26*H39+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G39)/(1-[1]Sheet1!$P$26)/(1-I39)/[1]Sheet1!$N$26</f>
-        <v>19.790057437116261</v>
+        <v>19.7900574371163</v>
       </c>
       <c r="L39" s="1">
         <f>E39+F39+([1]Sheet1!$K$26*H39+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
-        <v>49.959999999999994</v>
-      </c>
-      <c r="M39" s="11">
+        <v>49.96</v>
+      </c>
+      <c r="M39" s="12">
         <f>L39/(1-G39)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>10.624136097820308</v>
-      </c>
-      <c r="N39" s="11">
+        <v>10.6241360978203</v>
+      </c>
+      <c r="N39" s="12">
         <f>L39/(1-G39)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>11.874034462269755</v>
-      </c>
-      <c r="O39" s="11">
+        <v>11.8740344622698</v>
+      </c>
+      <c r="O39" s="12">
         <f>L39/(1-G39)/[1]Sheet1!$N$26</f>
-        <v>10.092929292929293</v>
-      </c>
-      <c r="P39" s="12">
+        <v>10.0929292929293</v>
+      </c>
+      <c r="P39" s="13">
         <f>O39*[1]Sheet1!$N$26-L39</f>
-        <v>16.653333333333336</v>
+        <v>16.6533333333333</v>
       </c>
       <c r="Q39">
         <v>20</v>
@@ -4688,7 +5328,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="2:18" ht="90.75" customHeight="1">
+    <row r="40" ht="90.75" customHeight="1" spans="2:18">
       <c r="B40">
         <v>17011301</v>
       </c>
@@ -4710,36 +5350,36 @@
       <c r="H40">
         <v>0.2</v>
       </c>
-      <c r="I40" s="13">
+      <c r="I40" s="14">
         <v>0.45</v>
       </c>
-      <c r="J40" s="9">
+      <c r="J40" s="10">
         <f>(E40+F40+([1]Sheet1!$K$26*H40+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G40)/(1-[1]Sheet1!$O$26)/(1-I40)/[1]Sheet1!$N$26</f>
-        <v>18.15668648204533</v>
-      </c>
-      <c r="K40" s="10">
+        <v>18.1566864820453</v>
+      </c>
+      <c r="K40" s="11">
         <f>(E40+F40+([1]Sheet1!$K$26*H40+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G40)/(1-[1]Sheet1!$P$26)/(1-I40)/[1]Sheet1!$N$26</f>
-        <v>20.292767244638899</v>
+        <v>20.2927672446389</v>
       </c>
       <c r="L40" s="1">
         <f>E40+F40+([1]Sheet1!$K$26*H40+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
-        <v>46.959999999999994</v>
-      </c>
-      <c r="M40" s="11">
+        <v>46.96</v>
+      </c>
+      <c r="M40" s="12">
         <f>L40/(1-G40)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>9.9861775651249332</v>
-      </c>
-      <c r="N40" s="11">
+        <v>9.98617756512493</v>
+      </c>
+      <c r="N40" s="12">
         <f>L40/(1-G40)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>11.161021984551397</v>
-      </c>
-      <c r="O40" s="11">
+        <v>11.1610219845514</v>
+      </c>
+      <c r="O40" s="12">
         <f>L40/(1-G40)/[1]Sheet1!$N$26</f>
-        <v>9.4868686868686858</v>
-      </c>
-      <c r="P40" s="12">
+        <v>9.48686868686869</v>
+      </c>
+      <c r="P40" s="13">
         <f>O40*[1]Sheet1!$N$26-L40</f>
-        <v>15.653333333333329</v>
+        <v>15.6533333333333</v>
       </c>
       <c r="Q40">
         <v>20</v>
@@ -4748,15 +5388,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="2:18" ht="90.75" customHeight="1">
+    <row r="41" ht="90.75" customHeight="1" spans="2:18">
       <c r="B41">
         <v>17011302</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="16" t="s">
-        <v>68</v>
+      <c r="D41" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="E41">
         <v>18</v>
@@ -4770,36 +5410,36 @@
       <c r="H41">
         <v>0.16</v>
       </c>
-      <c r="I41" s="13">
+      <c r="I41" s="14">
         <v>0.25</v>
       </c>
-      <c r="J41" s="9">
+      <c r="J41" s="10">
         <f>(E41+F41+([1]Sheet1!$K$26*H41+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G41)/(1-[1]Sheet1!$O$26)/(1-I41)/[1]Sheet1!$N$26</f>
-        <v>11.250753145489988</v>
-      </c>
-      <c r="K41" s="10">
+        <v>11.25075314549</v>
+      </c>
+      <c r="K41" s="11">
         <f>(E41+F41+([1]Sheet1!$K$26*H41+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G41)/(1-[1]Sheet1!$P$26)/(1-I41)/[1]Sheet1!$N$26</f>
-        <v>12.574371162606457</v>
+        <v>12.5743711626065</v>
       </c>
       <c r="L41" s="1">
         <f>E41+F41+([1]Sheet1!$K$26*H41+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
         <v>39.68</v>
       </c>
-      <c r="M41" s="11">
+      <c r="M41" s="12">
         <f>L41/(1-G41)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>8.4380648591174907</v>
-      </c>
-      <c r="N41" s="11">
+        <v>8.43806485911749</v>
+      </c>
+      <c r="N41" s="12">
         <f>L41/(1-G41)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>9.4307783719548421</v>
-      </c>
-      <c r="O41" s="11">
+        <v>9.43077837195484</v>
+      </c>
+      <c r="O41" s="12">
         <f>L41/(1-G41)/[1]Sheet1!$N$26</f>
-        <v>8.0161616161616163</v>
-      </c>
-      <c r="P41" s="12">
+        <v>8.01616161616162</v>
+      </c>
+      <c r="P41" s="13">
         <f>O41*[1]Sheet1!$N$26-L41</f>
-        <v>13.226666666666667</v>
+        <v>13.2266666666667</v>
       </c>
       <c r="Q41">
         <v>20</v>
@@ -4808,141 +5448,208 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="2:18" ht="90.75" customHeight="1">
-      <c r="C42" s="1"/>
-      <c r="D42" s="6"/>
-      <c r="G42" s="3"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="12"/>
+    <row r="42" ht="90.75" customHeight="1" spans="2:18">
+      <c r="B42">
+        <v>17011303</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42">
+        <v>33</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H42">
+        <v>0.25</v>
+      </c>
+      <c r="I42" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="J42" s="10">
+        <f>(E42+F42+([1]Sheet1!$K$26*H42+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G42)/(1-[1]Sheet1!$O$26)/(1-I42)/[1]Sheet1!$N$26</f>
+        <v>24.3816151950123</v>
+      </c>
+      <c r="K42" s="11">
+        <f>(E42+F42+([1]Sheet1!$K$26*H42+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G42)/(1-[1]Sheet1!$P$26)/(1-I42)/[1]Sheet1!$N$26</f>
+        <v>27.2500405120726</v>
+      </c>
+      <c r="L42" s="1">
+        <f>E42+F42+([1]Sheet1!$K$26*H42+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
+        <v>63.06</v>
+      </c>
+      <c r="M42" s="12">
+        <f>L42/(1-G42)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
+        <v>13.4098883572568</v>
+      </c>
+      <c r="N42" s="12">
+        <f>L42/(1-G42)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
+        <v>14.9875222816399</v>
+      </c>
+      <c r="O42" s="12">
+        <f>L42/(1-G42)/[1]Sheet1!$N$26</f>
+        <v>12.7393939393939</v>
+      </c>
+      <c r="P42" s="13">
+        <f>O42*[1]Sheet1!$N$26-L42</f>
+        <v>21.02</v>
+      </c>
+      <c r="Q42">
+        <v>45</v>
+      </c>
+      <c r="R42">
+        <v>15</v>
+      </c>
     </row>
-    <row r="44" spans="2:18">
-      <c r="K44" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="L44" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="M44" s="14" t="s">
+    <row r="43" ht="90.75" customHeight="1" spans="3:16">
+      <c r="C43" s="1"/>
+      <c r="D43" s="6"/>
+      <c r="G43" s="3"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="13"/>
+    </row>
+    <row r="45" spans="11:16">
+      <c r="K45" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="N44" s="14" t="s">
+      <c r="L45" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="O44" s="14" t="s">
+      <c r="M45" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P44" s="14" t="s">
+      <c r="N45" s="15" t="s">
         <v>67</v>
       </c>
+      <c r="O45" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="P45" s="15" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="45" spans="2:18">
-      <c r="K45" s="15">
+    <row r="46" spans="11:16">
+      <c r="K46" s="16">
         <v>100</v>
       </c>
-      <c r="L45" s="13">
+      <c r="L46" s="14">
         <v>0.85</v>
       </c>
-      <c r="M45">
+      <c r="M46">
         <v>8</v>
       </c>
-      <c r="N45">
+      <c r="N46">
         <v>6.8</v>
       </c>
-      <c r="O45" s="13">
+      <c r="O46" s="14">
         <v>0.08</v>
       </c>
-      <c r="P45" s="13">
+      <c r="P46" s="14">
         <v>0.15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28 C31:C40 C42 C17:C21 C24:C26">
-      <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子"</formula1>
-    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"爬爬服"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27 C2:C16 C29:C30 C41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27 C41 C42 C2:C16 C29:C30">
       <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子,裤子"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28 C43 C17:C21 C24:C26 C31:C40">
+      <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q6 R2:R4">
       <formula1>"0,1"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D6" r:id="rId3"/>
-    <hyperlink ref="S6" r:id="rId4"/>
-    <hyperlink ref="D8" r:id="rId5"/>
-    <hyperlink ref="D9" r:id="rId6"/>
-    <hyperlink ref="D10" r:id="rId7"/>
-    <hyperlink ref="D11" r:id="rId8"/>
-    <hyperlink ref="D12" r:id="rId9"/>
-    <hyperlink ref="D13" r:id="rId10"/>
-    <hyperlink ref="D14" r:id="rId11"/>
-    <hyperlink ref="D15" r:id="rId12"/>
-    <hyperlink ref="D16" r:id="rId13"/>
-    <hyperlink ref="D19" r:id="rId14"/>
-    <hyperlink ref="D20" r:id="rId15"/>
-    <hyperlink ref="D21" r:id="rId16"/>
-    <hyperlink ref="D22" r:id="rId17"/>
-    <hyperlink ref="D23" r:id="rId18" tooltip="https://detail.1688.com/offer/542005628301.html?spm=a2615.7691456.0.0.E27Va6"/>
-    <hyperlink ref="D24" r:id="rId19"/>
-    <hyperlink ref="D25" r:id="rId20"/>
-    <hyperlink ref="D26" r:id="rId21" tooltip="https://detail.1688.com/offer/535604104982.html?spm=a2615.7691456.0.0.ceDRcB"/>
-    <hyperlink ref="D18" r:id="rId22"/>
-    <hyperlink ref="D28" r:id="rId23"/>
-    <hyperlink ref="D29" r:id="rId24"/>
-    <hyperlink ref="D30" r:id="rId25"/>
-    <hyperlink ref="D31" r:id="rId26"/>
-    <hyperlink ref="D32" r:id="rId27" tooltip="https://detail.1688.com/offer/522866160965.html?spm=b26110380.8015204.1688002.2.oTUzYR"/>
-    <hyperlink ref="D33" r:id="rId28"/>
-    <hyperlink ref="D34" r:id="rId29"/>
-    <hyperlink ref="D37" r:id="rId30"/>
-    <hyperlink ref="D38" r:id="rId31"/>
-    <hyperlink ref="D39" r:id="rId32"/>
-    <hyperlink ref="D40" r:id="rId33"/>
-    <hyperlink ref="D41" r:id="rId34"/>
+    <hyperlink ref="D5" r:id="rId2" display="https://detail.1688.com/offer/43388465240.html?spm=a2615.7691456.0.0.SVo0SF"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://detail.1688.com/offer/532946594199.html?spm=a2615.7691456.0.0.KfqxAP"/>
+    <hyperlink ref="D6" r:id="rId4" display="https://item.taobao.com/item.htm?spm=a230r.1.0.0.NVkYXr&amp;id=535812571550&amp;ns=1#detail"/>
+    <hyperlink ref="S6" r:id="rId4" display="https://item.taobao.com/item.htm?spm=a230r.1.0.0.NVkYXr&amp;id=535812571550&amp;ns=1#detail"/>
+    <hyperlink ref="D8" r:id="rId5" display="https://detail.1688.com/offer/521926765457.html?spm=a2615.7691456.0.0.Iw9wYb"/>
+    <hyperlink ref="D9" r:id="rId6" display="https://detail.1688.com/offer/539601777542.html?spm=b26110380.8015204.1688002.1.tV3mIo"/>
+    <hyperlink ref="D10" r:id="rId7" display="https://detail.1688.com/offer/534650922032.html"/>
+    <hyperlink ref="D11" r:id="rId8" display="https://detail.1688.com/offer/525196220868.html?spm=b26110380.8015204.xshy005.911.FMmHAe"/>
+    <hyperlink ref="D12" r:id="rId9" display="https://detail.1688.com/offer/525739109360.html?spm=b26110380.sw311.0.0.2w3SJa"/>
+    <hyperlink ref="D13" r:id="rId10" display="https://detail.1688.com/offer/536964765017.html?spm=b26110380.8015204.1688002.2.0qEfTf"/>
+    <hyperlink ref="D14" r:id="rId11" display="https://detail.1688.com/offer/523084291442.html?spm=b26110380.8015204.tkhy006.2.7zxqcs"/>
+    <hyperlink ref="D15" r:id="rId12" display="https://detail.1688.com/offer/539464650849.html?spm=b26110380.8015204.tkhy006.13.LriGRm"/>
+    <hyperlink ref="D16" r:id="rId13" display="https://detail.1688.com/offer/539024831638.html?spm=a2615.7691456.0.0.erl0H2"/>
+    <hyperlink ref="D19" r:id="rId14" display="https://detail.1688.com/offer/37436493140.html?spm=a261y.7663282.0.0.Bdoqfg"/>
+    <hyperlink ref="D20" r:id="rId15" display="https://detail.1688.com/offer/525328573875.html?spm=a2615.2177701.0.0.inGNvk"/>
+    <hyperlink ref="D21" r:id="rId16" display="https://detail.1688.com/offer/531099455627.html?spm=b26110380.sw311.0.0.NlP3tV"/>
+    <hyperlink ref="D22" r:id="rId17" display="https://detail.1688.com/offer/539748592006.html?spm=a2615.7691456.0.0.gzA0aC"/>
+    <hyperlink ref="D23" r:id="rId18" display="https://detail.1688.com/offer/542005628301.html?spm=a2615.7691456.0.0.E27Va6" tooltip="https://detail.1688.com/offer/542005628301.html?spm=a2615.7691456.0.0.E27Va6"/>
+    <hyperlink ref="D24" r:id="rId16" display="https://detail.1688.com/offer/531099455627.html?spm=b26110380.sw311.0.0.NlP3tV"/>
+    <hyperlink ref="D25" r:id="rId19" display="https://detail.1688.com/offer/537712350771.html?spm=a261y.7663282.0.0.HGrgRG&amp;sk=consign"/>
+    <hyperlink ref="D26" r:id="rId20" display="https://detail.1688.com/offer/535604104982.html?spm=a2615.7691456.0.0.ceDRcB" tooltip="https://detail.1688.com/offer/535604104982.html?spm=a2615.7691456.0.0.ceDRcB"/>
+    <hyperlink ref="D18" r:id="rId21" display="https://detail.1688.com/offer/537572849225.html?spm=a2615.7691456.0.0.0jr1X8"/>
+    <hyperlink ref="D28" r:id="rId22" display="https://detail.1688.com/offer/538358020263.html?spm=a2615.7691456.0.0.BXbA7w"/>
+    <hyperlink ref="D29" r:id="rId23" display="https://detail.1688.com/offer/536605241945.html?spm=b26110380.8015204.xshy005.79.X6yxQK"/>
+    <hyperlink ref="D30" r:id="rId24" display="https://detail.1688.com/offer/522617209176.html?spm=0.0.0.0.OkHehB&amp;sk=consign"/>
+    <hyperlink ref="D31" r:id="rId25" display="https://detail.1688.com/offer/536564720843.html?spm=a261y.7663282.0.0.CfpkXA&amp;sk=consign"/>
+    <hyperlink ref="D32" r:id="rId26" display="https://detail.1688.com/offer/522866160965.html?spm=b26110380.8015204.1688002.2.oTUzYR" tooltip="https://detail.1688.com/offer/522866160965.html?spm=b26110380.8015204.1688002.2.oTUzYR"/>
+    <hyperlink ref="D33" r:id="rId27" display="https://detail.1688.com/offer/537733197961.html?spm=b26110380.8015204.tkhy006.2.6IBVa5"/>
+    <hyperlink ref="D34" r:id="rId27" display="https://detail.1688.com/offer/537733197961.html?spm=b26110380.8015204.tkhy006.2.6IBVa5"/>
+    <hyperlink ref="D37" r:id="rId28" display="https://detail.1688.com/offer/39363390916.html?spm=b26110380.sw56474001.0.0.AOuyqk"/>
+    <hyperlink ref="D38" r:id="rId29" display="https://detail.1688.com/offer/523975460031.html?spm=b26110380.8015204.1688002.1.dPdaJX"/>
+    <hyperlink ref="D39" r:id="rId30" display="https://detail.1688.com/offer/531232169182.html?spm=a261y.7663282.0.0.1DCfuw"/>
+    <hyperlink ref="D40" r:id="rId31" display="https://detail.1688.com/offer/531965973421.html?spm=a2615.7691456.0.0.MQ5cDO"/>
+    <hyperlink ref="D41" r:id="rId32" display="https://detail.1688.com/offer/538656905495.html?spm=b26110380.sw1037004.0.0.dRfQA7&amp;sk=consign"/>
+    <hyperlink ref="D42" r:id="rId33" display="https://detail.1688.com/offer/534135284523.html?spm=a2615.2177701.0.0.bCxxaP"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <drawing r:id="rId35"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/产品表单.xlsx
+++ b/产品表单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="8690"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="8685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$C$27</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
   <si>
     <t>产品标题</t>
   </si>
@@ -232,23 +232,33 @@
   </si>
   <si>
     <t>wish费率</t>
+  </si>
+  <si>
+    <t>衬衫</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/524129595472.html?spm=a2615.7691456.0.0.5vRcmp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>爬爬服</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>手套</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="4">
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
     <numFmt numFmtId="176" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
     <numFmt numFmtId="178" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,142 +292,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,194 +317,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -625,251 +326,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -889,19 +354,19 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -910,7 +375,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -926,63 +391,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
+    <cellStyle name="百分比" xfId="2" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1004,7 +424,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1042,7 +462,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1080,7 +500,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1118,7 +538,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1156,7 +576,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1194,7 +614,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1232,7 +652,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1270,7 +690,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1308,7 +728,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1346,7 +766,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1384,7 +804,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1422,7 +842,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1464,7 +884,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1502,7 +922,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1540,7 +960,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1578,7 +998,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1620,7 +1040,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1662,7 +1082,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1704,7 +1124,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1746,7 +1166,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1788,7 +1208,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId21"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1830,7 +1250,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId22"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1872,7 +1292,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId23"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1914,7 +1334,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId24"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1956,7 +1376,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId25"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1998,7 +1418,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId26"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2040,7 +1460,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId27"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2082,7 +1502,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId28"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2120,7 +1540,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId29"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2162,7 +1582,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId30"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2204,7 +1624,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId31"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2246,7 +1666,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId32"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2288,7 +1708,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId33"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2326,7 +1746,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId34"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2364,7 +1784,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId35"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2406,7 +1826,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId36"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2448,7 +1868,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId37"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2490,7 +1910,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId38"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2532,7 +1952,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId39"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2574,7 +1994,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId40"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2616,7 +2036,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId41"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2654,7 +2074,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId42"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2675,6 +2095,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>74545</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>115957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1017485</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1060175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="图片 45" descr="QQ截图20170114224128.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43" cstate="email"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="74545" y="44988232"/>
+          <a:ext cx="942940" cy="944218"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2687,7 +2145,7 @@
       <sheetName val="Sheet3"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="26">
           <cell r="K26">
             <v>100</v>
@@ -2709,8 +2167,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3000,36 +2458,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="N43" sqref="N43"/>
+      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.1272727272727" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="7.5" customWidth="1"/>
-    <col min="4" max="4" width="17.3727272727273" customWidth="1"/>
-    <col min="5" max="5" width="8.12727272727273" customWidth="1"/>
-    <col min="6" max="6" width="9.87272727272727" customWidth="1"/>
-    <col min="7" max="7" width="8.25454545454545" customWidth="1"/>
-    <col min="10" max="10" width="11.2545454545455" customWidth="1"/>
-    <col min="11" max="11" width="11.1272727272727" customWidth="1"/>
-    <col min="12" max="12" width="7.62727272727273" customWidth="1"/>
-    <col min="13" max="13" width="11.8727272727273" customWidth="1"/>
-    <col min="14" max="15" width="11.6272727272727" customWidth="1"/>
-    <col min="16" max="16" width="9.87272727272727" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="8.125" customWidth="1"/>
+    <col min="6" max="6" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="8.25" customWidth="1"/>
+    <col min="10" max="10" width="11.25" customWidth="1"/>
+    <col min="11" max="11" width="11.125" customWidth="1"/>
+    <col min="12" max="12" width="7.625" customWidth="1"/>
+    <col min="13" max="13" width="11.875" customWidth="1"/>
+    <col min="14" max="15" width="11.625" customWidth="1"/>
+    <col min="16" max="16" width="9.875" customWidth="1"/>
     <col min="17" max="17" width="6.5" customWidth="1"/>
-    <col min="18" max="18" width="6.87272727272727" customWidth="1"/>
+    <col min="18" max="18" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3085,13 +2541,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="86.25" customHeight="1" spans="1:18">
+    <row r="2" spans="1:19" ht="86.25" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
         <v>16072601</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>19</v>
@@ -3113,11 +2569,11 @@
       </c>
       <c r="J2" s="10">
         <f t="shared" ref="J2:J14" si="0">(E2+F2+($K$46*H2+$M$46)*$L$46)/(1-G2)/(1-$O$46)/(1-I2)/$N$46</f>
-        <v>16.8747806027782</v>
+        <v>16.874780602778198</v>
       </c>
       <c r="K2" s="11">
         <f t="shared" ref="K2:K14" si="1">(E2+F2+($K$46*H2+$M$46)*$L$46)/(1-G2)/(1-$P$46)/(1-I2)/$N$46</f>
-        <v>18.2644684171246</v>
+        <v>18.264468417124601</v>
       </c>
       <c r="L2" s="1">
         <f t="shared" ref="L2:L14" si="2">E2+F2+($K$46*H2+$M$46)*$L$46</f>
@@ -3129,7 +2585,7 @@
       </c>
       <c r="N2" s="12">
         <f t="shared" ref="N2:N14" si="4">L2/(1-G2)/(1-$P$46)/$N$46</f>
-        <v>15.5247981545559</v>
+        <v>15.524798154555899</v>
       </c>
       <c r="O2" s="12">
         <f>L2/(1-G2)/$N$46</f>
@@ -3137,7 +2593,7 @@
       </c>
       <c r="P2" s="13">
         <f>O2*$N$46-L2</f>
-        <v>22.4333333333333</v>
+        <v>22.433333333333302</v>
       </c>
       <c r="Q2" s="1">
         <v>1</v>
@@ -3146,7 +2602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="86.25" customHeight="1" spans="1:18">
+    <row r="3" spans="1:19" ht="86.25" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>16072701</v>
@@ -3174,27 +2630,27 @@
       </c>
       <c r="J3" s="10">
         <f t="shared" si="0"/>
-        <v>11.02585961921</v>
+        <v>11.025859619209999</v>
       </c>
       <c r="K3" s="11">
         <f t="shared" si="1"/>
-        <v>11.9338715878508</v>
+        <v>11.933871587850801</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" si="2"/>
-        <v>38.8</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="M3" s="12">
         <f t="shared" si="3"/>
-        <v>8.2693947144075</v>
+        <v>8.2693947144075004</v>
       </c>
       <c r="N3" s="12">
         <f t="shared" si="4"/>
-        <v>8.95040369088812</v>
+        <v>8.9504036908881197</v>
       </c>
       <c r="O3" s="12">
         <f>L3/(1-G3)/$N$46</f>
-        <v>7.6078431372549</v>
+        <v>7.6078431372548998</v>
       </c>
       <c r="P3" s="13">
         <f>O3*$N$46-L3</f>
@@ -3207,7 +2663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="69.75" customHeight="1" spans="1:18">
+    <row r="4" spans="1:19" ht="69.75" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>16072901</v>
@@ -3235,11 +2691,11 @@
       </c>
       <c r="J4" s="10">
         <f t="shared" si="0"/>
-        <v>19.1206917549629</v>
+        <v>19.120691754962898</v>
       </c>
       <c r="K4" s="11">
         <f t="shared" si="1"/>
-        <v>20.6953369583127</v>
+        <v>20.695336958312701</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="2"/>
@@ -3247,11 +2703,11 @@
       </c>
       <c r="M4" s="12">
         <f t="shared" si="3"/>
-        <v>13.384484228474</v>
+        <v>13.384484228473999</v>
       </c>
       <c r="N4" s="12">
         <f t="shared" si="4"/>
-        <v>14.4867358708189</v>
+        <v>14.486735870818899</v>
       </c>
       <c r="O4" s="12">
         <f>L4/(1-G4)/$N$46</f>
@@ -3259,7 +2715,7 @@
       </c>
       <c r="P4" s="13">
         <f>O4*$N$46-L4</f>
-        <v>20.9333333333333</v>
+        <v>20.933333333333302</v>
       </c>
       <c r="Q4" s="1">
         <v>1</v>
@@ -3268,7 +2724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="78" customHeight="1" spans="1:18">
+    <row r="5" spans="1:19" ht="78" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>16073001</v>
@@ -3296,11 +2752,11 @@
       </c>
       <c r="J5" s="10">
         <f t="shared" si="0"/>
-        <v>18.2538488541197</v>
+        <v>18.253848854119699</v>
       </c>
       <c r="K5" s="11">
         <f t="shared" si="1"/>
-        <v>19.7571069950472</v>
+        <v>19.757106995047199</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="2"/>
@@ -3312,7 +2768,7 @@
       </c>
       <c r="N5" s="12">
         <f t="shared" si="4"/>
-        <v>16.7935409457901</v>
+        <v>16.793540945790099</v>
       </c>
       <c r="O5" s="12">
         <f>L5/(1-G5)/$N$46</f>
@@ -3320,7 +2776,7 @@
       </c>
       <c r="P5" s="13">
         <f>O5*$N$46-L5</f>
-        <v>24.2666666666667</v>
+        <v>24.266666666666701</v>
       </c>
       <c r="Q5" s="1">
         <v>1</v>
@@ -3329,7 +2785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="78" customHeight="1" spans="1:19">
+    <row r="6" spans="1:19" ht="78" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="1">
         <v>16073002</v>
@@ -3361,7 +2817,7 @@
       </c>
       <c r="K6" s="11">
         <f t="shared" si="1"/>
-        <v>16.6140850803989</v>
+        <v>16.614085080398901</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="2"/>
@@ -3381,7 +2837,7 @@
       </c>
       <c r="P6" s="13">
         <f t="shared" ref="P6:P14" si="6">O6*$N$46-L6</f>
-        <v>16.325</v>
+        <v>16.324999999999999</v>
       </c>
       <c r="Q6" s="1">
         <v>0</v>
@@ -3393,7 +2849,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" ht="69" customHeight="1" spans="1:18">
+    <row r="7" spans="1:19" ht="69" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>16080301</v>
@@ -3421,11 +2877,11 @@
       </c>
       <c r="J7" s="10">
         <f t="shared" si="0"/>
-        <v>17.2508901258713</v>
+        <v>17.250890125871301</v>
       </c>
       <c r="K7" s="11">
         <f t="shared" si="1"/>
-        <v>18.671551665649</v>
+        <v>18.671551665649002</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="2"/>
@@ -3433,7 +2889,7 @@
       </c>
       <c r="M7" s="12">
         <f t="shared" si="3"/>
-        <v>14.6632566069906</v>
+        <v>14.663256606990601</v>
       </c>
       <c r="N7" s="12">
         <f t="shared" si="4"/>
@@ -3441,11 +2897,11 @@
       </c>
       <c r="O7" s="12">
         <f t="shared" si="5"/>
-        <v>13.4901960784314</v>
+        <v>13.490196078431399</v>
       </c>
       <c r="P7" s="13">
         <f t="shared" si="6"/>
-        <v>22.9333333333333</v>
+        <v>22.933333333333302</v>
       </c>
       <c r="Q7" s="1">
         <v>1</v>
@@ -3454,7 +2910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="78" customHeight="1" spans="2:18">
+    <row r="8" spans="1:19" ht="78" customHeight="1">
       <c r="B8">
         <v>16080401</v>
       </c>
@@ -3481,11 +2937,11 @@
       </c>
       <c r="J8" s="10">
         <f t="shared" si="0"/>
-        <v>35.5858375959079</v>
+        <v>35.585837595907897</v>
       </c>
       <c r="K8" s="11">
         <f t="shared" si="1"/>
-        <v>38.5164359861592</v>
+        <v>38.516435986159202</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="2"/>
@@ -3493,19 +2949,19 @@
       </c>
       <c r="M8" s="12">
         <f t="shared" si="3"/>
-        <v>17.792918797954</v>
+        <v>17.792918797954002</v>
       </c>
       <c r="N8" s="12">
         <f t="shared" si="4"/>
-        <v>19.2582179930796</v>
+        <v>19.258217993079601</v>
       </c>
       <c r="O8" s="12">
         <f t="shared" si="5"/>
-        <v>16.3694852941176</v>
+        <v>16.369485294117599</v>
       </c>
       <c r="P8" s="13">
         <f t="shared" si="6"/>
-        <v>22.2625</v>
+        <v>22.262499999999999</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -3514,7 +2970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="92.25" customHeight="1" spans="2:18">
+    <row r="9" spans="1:19" ht="92.25" customHeight="1">
       <c r="B9">
         <v>16100801</v>
       </c>
@@ -3541,11 +2997,11 @@
       </c>
       <c r="J9" s="10">
         <f t="shared" si="0"/>
-        <v>21.0597826086956</v>
+        <v>21.059782608695599</v>
       </c>
       <c r="K9" s="11">
         <f t="shared" si="1"/>
-        <v>22.7941176470588</v>
+        <v>22.794117647058801</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="2"/>
@@ -3553,11 +3009,11 @@
       </c>
       <c r="M9" s="12">
         <f t="shared" si="3"/>
-        <v>16.8478260869565</v>
+        <v>16.847826086956498</v>
       </c>
       <c r="N9" s="12">
         <f t="shared" si="4"/>
-        <v>18.2352941176471</v>
+        <v>18.235294117647101</v>
       </c>
       <c r="O9" s="12">
         <f t="shared" si="5"/>
@@ -3574,7 +3030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="89.25" customHeight="1" spans="2:18">
+    <row r="10" spans="1:19" ht="89.25" customHeight="1">
       <c r="B10">
         <v>16100901</v>
       </c>
@@ -3601,11 +3057,11 @@
       </c>
       <c r="J10" s="10">
         <f t="shared" si="0"/>
-        <v>37.3888685909146</v>
+        <v>37.388868590914598</v>
       </c>
       <c r="K10" s="11">
         <f t="shared" si="1"/>
-        <v>40.467951886637</v>
+        <v>40.467951886637003</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="2"/>
@@ -3613,7 +3069,7 @@
       </c>
       <c r="M10" s="12">
         <f t="shared" si="3"/>
-        <v>26.1722080136402</v>
+        <v>26.172208013640201</v>
       </c>
       <c r="N10" s="12">
         <f t="shared" si="4"/>
@@ -3621,11 +3077,11 @@
       </c>
       <c r="O10" s="12">
         <f t="shared" si="5"/>
-        <v>24.078431372549</v>
+        <v>24.078431372549002</v>
       </c>
       <c r="P10" s="13">
         <f t="shared" si="6"/>
-        <v>40.9333333333333</v>
+        <v>40.933333333333302</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -3634,7 +3090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="95.25" customHeight="1" spans="2:18">
+    <row r="11" spans="1:19" ht="95.25" customHeight="1">
       <c r="B11">
         <v>16101601</v>
       </c>
@@ -3661,15 +3117,15 @@
       </c>
       <c r="J11" s="10">
         <f t="shared" si="0"/>
-        <v>32.7967504137205</v>
+        <v>32.796750413720503</v>
       </c>
       <c r="K11" s="11">
         <f t="shared" si="1"/>
-        <v>35.497659271321</v>
+        <v>35.497659271320998</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="2"/>
-        <v>130.8</v>
+        <v>130.80000000000001</v>
       </c>
       <c r="M11" s="12">
         <f t="shared" si="3"/>
@@ -3677,11 +3133,11 @@
       </c>
       <c r="N11" s="12">
         <f t="shared" si="4"/>
-        <v>30.1730103806228</v>
+        <v>30.173010380622799</v>
       </c>
       <c r="O11" s="12">
         <f t="shared" si="5"/>
-        <v>25.6470588235294</v>
+        <v>25.647058823529399</v>
       </c>
       <c r="P11" s="13">
         <f t="shared" si="6"/>
@@ -3694,7 +3150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="81.75" customHeight="1" spans="2:18">
+    <row r="12" spans="1:19" ht="81.75" customHeight="1">
       <c r="B12">
         <v>16101602</v>
       </c>
@@ -3721,7 +3177,7 @@
       </c>
       <c r="J12" s="10">
         <f t="shared" si="0"/>
-        <v>32.8587576594196</v>
+        <v>32.858757659419602</v>
       </c>
       <c r="K12" s="11">
         <f t="shared" si="1"/>
@@ -3729,23 +3185,23 @@
       </c>
       <c r="L12" s="1">
         <f t="shared" si="2"/>
-        <v>129.3</v>
+        <v>129.30000000000001</v>
       </c>
       <c r="M12" s="12">
         <f t="shared" si="3"/>
-        <v>27.9299440105067</v>
+        <v>27.929944010506699</v>
       </c>
       <c r="N12" s="12">
         <f t="shared" si="4"/>
-        <v>30.230057046666</v>
+        <v>30.230057046666001</v>
       </c>
       <c r="O12" s="12">
         <f t="shared" si="5"/>
-        <v>25.6955484896661</v>
+        <v>25.695548489666098</v>
       </c>
       <c r="P12" s="13">
         <f t="shared" si="6"/>
-        <v>45.4297297297297</v>
+        <v>45.429729729729701</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3754,7 +3210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="89.1" customHeight="1" spans="2:18">
+    <row r="13" spans="1:19" ht="89.1" customHeight="1">
       <c r="B13">
         <v>16101701</v>
       </c>
@@ -3801,11 +3257,11 @@
       </c>
       <c r="O13" s="12">
         <f t="shared" si="5"/>
-        <v>11.8725490196078</v>
+        <v>11.872549019607799</v>
       </c>
       <c r="P13" s="13">
         <f t="shared" si="6"/>
-        <v>20.1833333333333</v>
+        <v>20.183333333333302</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -3814,7 +3270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="84" customHeight="1" spans="2:18">
+    <row r="14" spans="1:19" ht="84" customHeight="1">
       <c r="B14">
         <v>16101703</v>
       </c>
@@ -3841,27 +3297,27 @@
       </c>
       <c r="J14" s="10">
         <f t="shared" si="0"/>
-        <v>59.5907928388747</v>
+        <v>59.590792838874698</v>
       </c>
       <c r="K14" s="11">
         <f t="shared" si="1"/>
-        <v>64.4982698961938</v>
+        <v>64.498269896193804</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="2"/>
-        <v>139.8</v>
+        <v>139.80000000000001</v>
       </c>
       <c r="M14" s="12">
         <f t="shared" si="3"/>
-        <v>29.7953964194373</v>
+        <v>29.795396419437299</v>
       </c>
       <c r="N14" s="12">
         <f t="shared" si="4"/>
-        <v>32.2491349480969</v>
+        <v>32.249134948096902</v>
       </c>
       <c r="O14" s="12">
         <f t="shared" si="5"/>
-        <v>27.4117647058824</v>
+        <v>27.411764705882401</v>
       </c>
       <c r="P14" s="13">
         <f t="shared" si="6"/>
@@ -3874,7 +3330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="90.75" customHeight="1" spans="2:18">
+    <row r="15" spans="1:19" ht="90.75" customHeight="1">
       <c r="B15">
         <v>16101702</v>
       </c>
@@ -3901,11 +3357,11 @@
       </c>
       <c r="J15" s="10">
         <f>(E15+F15+(Sheet1!$K$46*H15+Sheet1!$M$46)*Sheet1!$L$46)/(1-G15)/(1-Sheet1!$O$46)/(1-I15)/Sheet1!$N$46</f>
-        <v>23.0179028132992</v>
+        <v>23.017902813299202</v>
       </c>
       <c r="K15" s="11">
         <f>(E15+F15+(Sheet1!$K$46*H15+Sheet1!$M$46)*Sheet1!$L$46)/(1-G15)/(1-Sheet1!$P$46)/(1-I15)/Sheet1!$N$46</f>
-        <v>24.9134948096886</v>
+        <v>24.913494809688601</v>
       </c>
       <c r="L15" s="1">
         <f>E15+F15+(Sheet1!$K$46*H15+Sheet1!$M$46)*Sheet1!$L$46</f>
@@ -3913,11 +3369,11 @@
       </c>
       <c r="M15" s="12">
         <f>L15/(1-G15)/(1-Sheet1!$O$46)/Sheet1!$N$46</f>
-        <v>19.5652173913043</v>
+        <v>19.565217391304301</v>
       </c>
       <c r="N15" s="12">
         <f>L15/(1-G15)/(1-Sheet1!$P$46)/Sheet1!$N$46</f>
-        <v>21.1764705882353</v>
+        <v>21.176470588235301</v>
       </c>
       <c r="O15" s="12">
         <f>L15/(1-G15)/Sheet1!$N$46</f>
@@ -3934,7 +3390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="90.75" customHeight="1" spans="2:18">
+    <row r="16" spans="1:19" ht="90.75" customHeight="1">
       <c r="B16">
         <v>16101901</v>
       </c>
@@ -3965,7 +3421,7 @@
       </c>
       <c r="K16" s="11">
         <f>(E16+F16+(Sheet1!$K$46*H16+Sheet1!$M$46)*Sheet1!$L$46)/(1-G16)/(1-Sheet1!$P$46)/(1-I16)/Sheet1!$N$46</f>
-        <v>12.6297577854671</v>
+        <v>12.629757785467101</v>
       </c>
       <c r="L16" s="1">
         <f>E16+F16+(Sheet1!$K$46*H16+Sheet1!$M$46)*Sheet1!$L$46</f>
@@ -3973,15 +3429,15 @@
       </c>
       <c r="M16" s="12">
         <f>L16/(1-G16)/(1-Sheet1!$O$46)/Sheet1!$N$46</f>
-        <v>8.75159846547314</v>
+        <v>8.7515984654731405</v>
       </c>
       <c r="N16" s="12">
         <f>L16/(1-G16)/(1-Sheet1!$P$46)/Sheet1!$N$46</f>
-        <v>9.47231833910035</v>
+        <v>9.4723183391003491</v>
       </c>
       <c r="O16" s="12">
         <f>L16/(1-G16)/Sheet1!$N$46</f>
-        <v>8.05147058823529</v>
+        <v>8.0514705882352899</v>
       </c>
       <c r="P16" s="13">
         <f>O16*Sheet1!$N$46-L16</f>
@@ -3994,7 +3450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="90.75" customHeight="1" spans="2:18">
+    <row r="17" spans="2:18" ht="90.75" customHeight="1">
       <c r="B17">
         <v>16110801</v>
       </c>
@@ -4021,11 +3477,11 @@
       </c>
       <c r="J17" s="10">
         <f>(E17+F17+([1]Sheet1!$K$26*H17+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G17)/(1-[1]Sheet1!$O$26)/(1-I17)/[1]Sheet1!$N$26</f>
-        <v>16.1015730055978</v>
+        <v>16.101573005597775</v>
       </c>
       <c r="K17" s="11">
         <f>(E17+F17+([1]Sheet1!$K$26*H17+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G17)/(1-[1]Sheet1!$P$26)/(1-I17)/[1]Sheet1!$N$26</f>
-        <v>17.9958757121387</v>
+        <v>17.995875712138687</v>
       </c>
       <c r="L17" s="1">
         <f>E17+F17+([1]Sheet1!$K$26*H17+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -4033,19 +3489,19 @@
       </c>
       <c r="M17" s="12">
         <f>L17/(1-G17)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>13.6863370547581</v>
+        <v>13.686337054758109</v>
       </c>
       <c r="N17" s="12">
         <f>L17/(1-G17)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>15.2964943553179</v>
+        <v>15.296494355317884</v>
       </c>
       <c r="O17" s="12">
         <f>L17/(1-G17)/[1]Sheet1!$N$26</f>
-        <v>13.0020202020202</v>
+        <v>13.002020202020203</v>
       </c>
       <c r="P17" s="13">
         <f>O17*[1]Sheet1!$N$26-L17</f>
-        <v>21.4533333333333</v>
+        <v>21.453333333333333</v>
       </c>
       <c r="Q17" s="14">
         <v>0.15</v>
@@ -4054,7 +3510,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="18" ht="90.75" customHeight="1" spans="2:18">
+    <row r="18" spans="2:18" ht="90.75" customHeight="1">
       <c r="B18">
         <v>16110802</v>
       </c>
@@ -4081,11 +3537,11 @@
       </c>
       <c r="J18" s="10">
         <f>(E18+F18+([1]Sheet1!$K$26*H18+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G18)/(1-[1]Sheet1!$O$26)/(1-I18)/[1]Sheet1!$N$26</f>
-        <v>16.1015730055978</v>
+        <v>16.101573005597775</v>
       </c>
       <c r="K18" s="11">
         <f>(E18+F18+([1]Sheet1!$K$26*H18+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G18)/(1-[1]Sheet1!$P$26)/(1-I18)/[1]Sheet1!$N$26</f>
-        <v>17.9958757121387</v>
+        <v>17.995875712138687</v>
       </c>
       <c r="L18" s="1">
         <f>E18+F18+([1]Sheet1!$K$26*H18+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -4093,19 +3549,19 @@
       </c>
       <c r="M18" s="12">
         <f>L18/(1-G18)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>13.6863370547581</v>
+        <v>13.686337054758109</v>
       </c>
       <c r="N18" s="12">
         <f>L18/(1-G18)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>15.2964943553179</v>
+        <v>15.296494355317884</v>
       </c>
       <c r="O18" s="12">
         <f>L18/(1-G18)/[1]Sheet1!$N$26</f>
-        <v>13.0020202020202</v>
+        <v>13.002020202020203</v>
       </c>
       <c r="P18" s="13">
         <f>O18*[1]Sheet1!$N$26-L18</f>
-        <v>21.4533333333333</v>
+        <v>21.453333333333333</v>
       </c>
       <c r="Q18" s="14">
         <v>0.15</v>
@@ -4114,11 +3570,13 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" ht="90.75" customHeight="1" spans="2:18">
+    <row r="19" spans="2:18" ht="90.75" customHeight="1">
       <c r="B19">
         <v>16110901</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="D19" s="7" t="s">
         <v>42</v>
       </c>
@@ -4139,11 +3597,11 @@
       </c>
       <c r="J19" s="10">
         <f>(E19+F19+([1]Sheet1!$K$26*H19+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G19)/(1-[1]Sheet1!$O$26)/(1-I19)/[1]Sheet1!$N$26</f>
-        <v>16.7400318979266</v>
+        <v>16.740031897926634</v>
       </c>
       <c r="K19" s="11">
         <f>(E19+F19+([1]Sheet1!$K$26*H19+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G19)/(1-[1]Sheet1!$P$26)/(1-I19)/[1]Sheet1!$N$26</f>
-        <v>18.7094474153298</v>
+        <v>18.70944741532977</v>
       </c>
       <c r="L19" s="1">
         <f>E19+F19+([1]Sheet1!$K$26*H19+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -4151,19 +3609,19 @@
       </c>
       <c r="M19" s="12">
         <f>L19/(1-G19)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>8.37001594896332</v>
+        <v>8.3700159489633172</v>
       </c>
       <c r="N19" s="12">
         <f>L19/(1-G19)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>9.35472370766488</v>
+        <v>9.3547237076648848</v>
       </c>
       <c r="O19" s="12">
         <f>L19/(1-G19)/[1]Sheet1!$N$26</f>
-        <v>7.95151515151515</v>
+        <v>7.9515151515151512</v>
       </c>
       <c r="P19" s="13">
         <f>O19*[1]Sheet1!$N$26-L19</f>
-        <v>13.12</v>
+        <v>13.119999999999997</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -4172,11 +3630,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" ht="90.75" customHeight="1" spans="2:18">
+    <row r="20" spans="2:18" ht="90.75" customHeight="1">
       <c r="B20">
         <v>16111001</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D20" s="7" t="s">
         <v>43</v>
       </c>
@@ -4197,11 +3657,11 @@
       </c>
       <c r="J20" s="10">
         <f>(E20+F20+([1]Sheet1!$K$26*H20+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G20)/(1-[1]Sheet1!$O$26)/(1-I20)/[1]Sheet1!$N$26</f>
-        <v>18.1240981240981</v>
+        <v>18.124098124098129</v>
       </c>
       <c r="K20" s="11">
         <f>(E20+F20+([1]Sheet1!$K$26*H20+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G20)/(1-[1]Sheet1!$P$26)/(1-I20)/[1]Sheet1!$N$26</f>
-        <v>20.2563449622273</v>
+        <v>20.256344962227317</v>
       </c>
       <c r="L20" s="1">
         <f>E20+F20+([1]Sheet1!$K$26*H20+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -4209,25 +3669,25 @@
       </c>
       <c r="M20" s="12">
         <f>L20/(1-G20)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>12.6868686868687</v>
+        <v>12.686868686868687</v>
       </c>
       <c r="N20" s="12">
         <f>L20/(1-G20)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>14.1794414735591</v>
+        <v>14.179441473559123</v>
       </c>
       <c r="O20" s="12">
         <f>L20/(1-G20)/[1]Sheet1!$N$26</f>
-        <v>12.0525252525253</v>
+        <v>12.052525252525253</v>
       </c>
       <c r="P20" s="13">
         <f>O20*[1]Sheet1!$N$26-L20</f>
-        <v>19.8866666666667</v>
+        <v>19.88666666666667</v>
       </c>
       <c r="R20">
         <v>30</v>
       </c>
     </row>
-    <row r="21" ht="90.75" customHeight="1" spans="2:18">
+    <row r="21" spans="2:18" ht="90.75" customHeight="1">
       <c r="B21">
         <v>16111901</v>
       </c>
@@ -4254,11 +3714,11 @@
       </c>
       <c r="J21" s="10">
         <f>(E21+F21+([1]Sheet1!$K$26*H21+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G21)/(1-[1]Sheet1!$O$26)/(1-I21)/[1]Sheet1!$N$26</f>
-        <v>25.541539799913</v>
+        <v>25.541539799913004</v>
       </c>
       <c r="K21" s="11">
         <f>(E21+F21+([1]Sheet1!$K$26*H21+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G21)/(1-[1]Sheet1!$P$26)/(1-I21)/[1]Sheet1!$N$26</f>
-        <v>28.5464268351969</v>
+        <v>28.54642683519689</v>
       </c>
       <c r="L21" s="1">
         <f>E21+F21+([1]Sheet1!$K$26*H21+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -4266,28 +3726,31 @@
       </c>
       <c r="M21" s="12">
         <f>L21/(1-G21)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.0478468899522</v>
+        <v>14.047846889952154</v>
       </c>
       <c r="N21" s="12">
         <f>L21/(1-G21)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>15.7005347593583</v>
+        <v>15.700534759358289</v>
       </c>
       <c r="O21" s="12">
         <f>L21/(1-G21)/[1]Sheet1!$N$26</f>
-        <v>13.3454545454545</v>
+        <v>13.345454545454546</v>
       </c>
       <c r="P21" s="13">
         <f>O21*[1]Sheet1!$N$26-L21</f>
-        <v>22.02</v>
+        <v>22.019999999999996</v>
       </c>
       <c r="R21">
         <v>45</v>
       </c>
     </row>
-    <row r="22" ht="90.95" customHeight="1" spans="2:18">
+    <row r="22" spans="2:18" ht="90.95" customHeight="1">
       <c r="B22">
         <v>16112001</v>
       </c>
+      <c r="C22" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D22" s="7" t="s">
         <v>45</v>
       </c>
@@ -4308,11 +3771,11 @@
       </c>
       <c r="J22" s="10">
         <f>(E22+F22+([1]Sheet1!$K$26*H22+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G22)/(1-[1]Sheet1!$O$26)/(1-I22)/[1]Sheet1!$N$26</f>
-        <v>25.541539799913</v>
+        <v>25.541539799913004</v>
       </c>
       <c r="K22" s="11">
         <f>(E22+F22+([1]Sheet1!$K$26*H22+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G22)/(1-[1]Sheet1!$P$26)/(1-I22)/[1]Sheet1!$N$26</f>
-        <v>28.5464268351969</v>
+        <v>28.54642683519689</v>
       </c>
       <c r="L22" s="1">
         <f>E22+F22+([1]Sheet1!$K$26*H22+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -4320,28 +3783,31 @@
       </c>
       <c r="M22" s="12">
         <f>L22/(1-G22)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.0478468899522</v>
+        <v>14.047846889952154</v>
       </c>
       <c r="N22" s="12">
         <f>L22/(1-G22)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>15.7005347593583</v>
+        <v>15.700534759358289</v>
       </c>
       <c r="O22" s="12">
         <f>L22/(1-G22)/[1]Sheet1!$N$26</f>
-        <v>13.3454545454545</v>
+        <v>13.345454545454546</v>
       </c>
       <c r="P22" s="13">
         <f>O22*[1]Sheet1!$N$26-L22</f>
-        <v>22.02</v>
+        <v>22.019999999999996</v>
       </c>
       <c r="R22">
         <v>45</v>
       </c>
     </row>
-    <row r="23" ht="90.95" customHeight="1" spans="2:18">
+    <row r="23" spans="2:18" ht="90.95" customHeight="1">
       <c r="B23">
         <v>16112002</v>
       </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
       <c r="D23" s="7" t="s">
         <v>46</v>
       </c>
@@ -4362,11 +3828,11 @@
       </c>
       <c r="J23" s="10">
         <f>(E23+F23+([1]Sheet1!$K$26*H23+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G23)/(1-[1]Sheet1!$O$26)/(1-I23)/[1]Sheet1!$N$26</f>
-        <v>27.0881059397806</v>
+        <v>27.088105939780586</v>
       </c>
       <c r="K23" s="11">
         <f>(E23+F23+([1]Sheet1!$K$26*H23+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G23)/(1-[1]Sheet1!$P$26)/(1-I23)/[1]Sheet1!$N$26</f>
-        <v>30.2749419326959</v>
+        <v>30.274941932695945</v>
       </c>
       <c r="L23" s="1">
         <f>E23+F23+([1]Sheet1!$K$26*H23+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -4374,25 +3840,25 @@
       </c>
       <c r="M23" s="12">
         <f>L23/(1-G23)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.8984582668793</v>
+        <v>14.898458266879324</v>
       </c>
       <c r="N23" s="12">
         <f>L23/(1-G23)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>16.6512180629828</v>
+        <v>16.651218062982771</v>
       </c>
       <c r="O23" s="12">
         <f>L23/(1-G23)/[1]Sheet1!$N$26</f>
-        <v>14.1535353535354</v>
+        <v>14.153535353535355</v>
       </c>
       <c r="P23" s="13">
         <f>O23*[1]Sheet1!$N$26-L23</f>
-        <v>23.3533333333333</v>
+        <v>23.353333333333339</v>
       </c>
       <c r="R23">
         <v>45</v>
       </c>
     </row>
-    <row r="24" ht="90.75" customHeight="1" spans="2:18">
+    <row r="24" spans="2:18" ht="90.75" customHeight="1">
       <c r="B24">
         <v>16112003</v>
       </c>
@@ -4419,11 +3885,11 @@
       </c>
       <c r="J24" s="10">
         <f>(E24+F24+([1]Sheet1!$K$26*H24+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G24)/(1-[1]Sheet1!$O$26)/(1-I24)/[1]Sheet1!$N$26</f>
-        <v>25.9281813348799</v>
+        <v>25.928181334879902</v>
       </c>
       <c r="K24" s="11">
         <f>(E24+F24+([1]Sheet1!$K$26*H24+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G24)/(1-[1]Sheet1!$P$26)/(1-I24)/[1]Sheet1!$N$26</f>
-        <v>28.9785556095717</v>
+        <v>28.978555609571654</v>
       </c>
       <c r="L24" s="1">
         <f>E24+F24+([1]Sheet1!$K$26*H24+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -4431,25 +3897,25 @@
       </c>
       <c r="M24" s="12">
         <f>L24/(1-G24)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.2604997341839</v>
+        <v>14.260499734183947</v>
       </c>
       <c r="N24" s="12">
         <f>L24/(1-G24)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>15.9382055852644</v>
+        <v>15.938205585264411</v>
       </c>
       <c r="O24" s="12">
         <f>L24/(1-G24)/[1]Sheet1!$N$26</f>
-        <v>13.5474747474747</v>
+        <v>13.54747474747475</v>
       </c>
       <c r="P24" s="13">
         <f>O24*[1]Sheet1!$N$26-L24</f>
-        <v>22.3533333333333</v>
+        <v>22.353333333333339</v>
       </c>
       <c r="R24">
         <v>45</v>
       </c>
     </row>
-    <row r="25" ht="90.75" customHeight="1" spans="2:18">
+    <row r="25" spans="2:18" ht="90.75" customHeight="1">
       <c r="B25">
         <v>16112301</v>
       </c>
@@ -4476,27 +3942,27 @@
       </c>
       <c r="J25" s="10">
         <f>(E25+F25+([1]Sheet1!$K$26*H25+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G25)/(1-[1]Sheet1!$O$26)/(1-I25)/[1]Sheet1!$N$26</f>
-        <v>24.9016480595428</v>
+        <v>24.901648059542801</v>
       </c>
       <c r="K25" s="11">
         <f>(E25+F25+([1]Sheet1!$K$26*H25+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G25)/(1-[1]Sheet1!$P$26)/(1-I25)/[1]Sheet1!$N$26</f>
-        <v>27.8312537136067</v>
+        <v>27.831253713606657</v>
       </c>
       <c r="L25" s="1">
         <f>E25+F25+([1]Sheet1!$K$26*H25+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
-        <v>70.26</v>
+        <v>70.259999999999991</v>
       </c>
       <c r="M25" s="12">
         <f>L25/(1-G25)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.9409888357257</v>
+        <v>14.940988835725678</v>
       </c>
       <c r="N25" s="12">
         <f>L25/(1-G25)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>16.698752228164</v>
+        <v>16.698752228163993</v>
       </c>
       <c r="O25" s="12">
         <f>L25/(1-G25)/[1]Sheet1!$N$26</f>
-        <v>14.1939393939394</v>
+        <v>14.193939393939393</v>
       </c>
       <c r="P25" s="13">
         <f>O25*[1]Sheet1!$N$26-L25</f>
@@ -4506,7 +3972,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" ht="90.75" customHeight="1" spans="2:18">
+    <row r="26" spans="2:18" ht="90.75" customHeight="1">
       <c r="B26">
         <v>16112302</v>
       </c>
@@ -4537,7 +4003,7 @@
       </c>
       <c r="K26" s="11">
         <f>(E26+F26+([1]Sheet1!$K$26*H26+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G26)/(1-[1]Sheet1!$P$26)/(1-I26)/[1]Sheet1!$N$26</f>
-        <v>24.9792038027332</v>
+        <v>24.979203802733217</v>
       </c>
       <c r="L26" s="1">
         <f>E26+F26+([1]Sheet1!$K$26*H26+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -4545,25 +4011,25 @@
       </c>
       <c r="M26" s="12">
         <f>L26/(1-G26)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>13.4098883572568</v>
+        <v>13.409888357256781</v>
       </c>
       <c r="N26" s="12">
         <f>L26/(1-G26)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>14.9875222816399</v>
+        <v>14.987522281639929</v>
       </c>
       <c r="O26" s="12">
         <f>L26/(1-G26)/[1]Sheet1!$N$26</f>
-        <v>12.7393939393939</v>
+        <v>12.73939393939394</v>
       </c>
       <c r="P26" s="13">
         <f>O26*[1]Sheet1!$N$26-L26</f>
-        <v>21.02</v>
+        <v>21.019999999999996</v>
       </c>
       <c r="R26">
         <v>40</v>
       </c>
     </row>
-    <row r="27" ht="90.75" customHeight="1" spans="2:18">
+    <row r="27" spans="2:18" ht="90.75" customHeight="1">
       <c r="B27">
         <v>16112401</v>
       </c>
@@ -4590,31 +4056,31 @@
       </c>
       <c r="J27" s="10">
         <f>(E27+F27+([1]Sheet1!$K$26*H27+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G27)/(1-[1]Sheet1!$O$26)/(1-I27)/[1]Sheet1!$N$26</f>
-        <v>19.0172400698717</v>
+        <v>19.017240069871651</v>
       </c>
       <c r="K27" s="11">
         <f>(E27+F27+([1]Sheet1!$K$26*H27+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G27)/(1-[1]Sheet1!$P$26)/(1-I27)/[1]Sheet1!$N$26</f>
-        <v>21.254562431033</v>
+        <v>21.254562431033019</v>
       </c>
       <c r="L27" s="1">
         <f>E27+F27+([1]Sheet1!$K$26*H27+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
-        <v>62.6</v>
+        <v>62.599999999999994</v>
       </c>
       <c r="M27" s="12">
         <f>L27/(1-G27)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>13.3120680489102</v>
+        <v>13.312068048910154</v>
       </c>
       <c r="N27" s="12">
         <f>L27/(1-G27)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>14.8781937017231</v>
+        <v>14.878193701723113</v>
       </c>
       <c r="O27" s="12">
         <f>L27/(1-G27)/[1]Sheet1!$N$26</f>
-        <v>12.6464646464646</v>
+        <v>12.646464646464645</v>
       </c>
       <c r="P27" s="13">
         <f>O27*[1]Sheet1!$N$26-L27</f>
-        <v>20.8666666666667</v>
+        <v>20.86666666666666</v>
       </c>
       <c r="Q27">
         <v>40</v>
@@ -4623,7 +4089,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" ht="90.75" customHeight="1" spans="2:18">
+    <row r="28" spans="2:18" ht="90.75" customHeight="1">
       <c r="B28">
         <v>16112501</v>
       </c>
@@ -4650,31 +4116,31 @@
       </c>
       <c r="J28" s="10">
         <f>(E28+F28+([1]Sheet1!$K$26*H28+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G28)/(1-[1]Sheet1!$O$26)/(1-I28)/[1]Sheet1!$N$26</f>
-        <v>28.0160456237011</v>
+        <v>28.016045623701128</v>
       </c>
       <c r="K28" s="11">
         <f>(E28+F28+([1]Sheet1!$K$26*H28+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G28)/(1-[1]Sheet1!$P$26)/(1-I28)/[1]Sheet1!$N$26</f>
-        <v>31.3120509911954</v>
+        <v>31.312050991195381</v>
       </c>
       <c r="L28" s="1">
         <f>E28+F28+([1]Sheet1!$K$26*H28+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
-        <v>72.46</v>
+        <v>72.460000000000008</v>
       </c>
       <c r="M28" s="12">
         <f>L28/(1-G28)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>15.4088250930356</v>
+        <v>15.408825093035622</v>
       </c>
       <c r="N28" s="12">
         <f>L28/(1-G28)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>17.2216280451575</v>
+        <v>17.221628045157463</v>
       </c>
       <c r="O28" s="12">
         <f>L28/(1-G28)/[1]Sheet1!$N$26</f>
-        <v>14.6383838383838</v>
+        <v>14.638383838383842</v>
       </c>
       <c r="P28" s="13">
         <f>O28*[1]Sheet1!$N$26-L28</f>
-        <v>24.1533333333333</v>
+        <v>24.153333333333336</v>
       </c>
       <c r="Q28">
         <v>45</v>
@@ -4683,7 +4149,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" ht="90.75" customHeight="1" spans="2:18">
+    <row r="29" spans="2:18" ht="90.75" customHeight="1">
       <c r="B29">
         <v>16112801</v>
       </c>
@@ -4710,31 +4176,31 @@
       </c>
       <c r="J29" s="10">
         <f>(E29+F29+([1]Sheet1!$K$26*H29+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G29)/(1-[1]Sheet1!$O$26)/(1-I29)/[1]Sheet1!$N$26</f>
-        <v>21.1121743753323</v>
+        <v>21.112174375332273</v>
       </c>
       <c r="K29" s="11">
         <f>(E29+F29+([1]Sheet1!$K$26*H29+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G29)/(1-[1]Sheet1!$P$26)/(1-I29)/[1]Sheet1!$N$26</f>
-        <v>23.5959595959596</v>
+        <v>23.595959595959602</v>
       </c>
       <c r="L29" s="1">
         <f>E29+F29+([1]Sheet1!$K$26*H29+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
-        <v>74.46</v>
+        <v>74.460000000000008</v>
       </c>
       <c r="M29" s="12">
         <f>L29/(1-G29)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>15.8341307814992</v>
+        <v>15.834130781499207</v>
       </c>
       <c r="N29" s="12">
         <f>L29/(1-G29)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>17.6969696969697</v>
+        <v>17.696969696969703</v>
       </c>
       <c r="O29" s="12">
         <f>L29/(1-G29)/[1]Sheet1!$N$26</f>
-        <v>15.0424242424242</v>
+        <v>15.042424242424245</v>
       </c>
       <c r="P29" s="13">
         <f>O29*[1]Sheet1!$N$26-L29</f>
-        <v>24.82</v>
+        <v>24.820000000000007</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -4743,7 +4209,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" ht="90.75" customHeight="1" spans="2:18">
+    <row r="30" spans="2:18" ht="90.75" customHeight="1">
       <c r="B30">
         <v>16112901</v>
       </c>
@@ -4770,11 +4236,11 @@
       </c>
       <c r="J30" s="10">
         <f>(E30+F30+([1]Sheet1!$K$26*H30+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G30)/(1-[1]Sheet1!$O$26)/(1-I30)/[1]Sheet1!$N$26</f>
-        <v>26.04417379537</v>
+        <v>26.044173795369968</v>
       </c>
       <c r="K30" s="11">
         <f>(E30+F30+([1]Sheet1!$K$26*H30+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G30)/(1-[1]Sheet1!$P$26)/(1-I30)/[1]Sheet1!$N$26</f>
-        <v>29.1081942418841</v>
+        <v>29.108194241884085</v>
       </c>
       <c r="L30" s="1">
         <f>E30+F30+([1]Sheet1!$K$26*H30+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -4782,19 +4248,19 @@
       </c>
       <c r="M30" s="12">
         <f>L30/(1-G30)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.3242955874535</v>
+        <v>14.324295587453484</v>
       </c>
       <c r="N30" s="12">
         <f>L30/(1-G30)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>16.0095068330362</v>
+        <v>16.009506833036248</v>
       </c>
       <c r="O30" s="12">
         <f>L30/(1-G30)/[1]Sheet1!$N$26</f>
-        <v>13.6080808080808</v>
+        <v>13.608080808080809</v>
       </c>
       <c r="P30" s="13">
         <f>O30*[1]Sheet1!$N$26-L30</f>
-        <v>22.4533333333333</v>
+        <v>22.453333333333333</v>
       </c>
       <c r="Q30">
         <v>30</v>
@@ -4803,7 +4269,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" ht="90.75" customHeight="1" spans="2:18">
+    <row r="31" spans="2:18" ht="90.75" customHeight="1">
       <c r="B31">
         <v>16113001</v>
       </c>
@@ -4830,11 +4296,11 @@
       </c>
       <c r="J31" s="10">
         <f>(E31+F31+([1]Sheet1!$K$26*H31+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G31)/(1-[1]Sheet1!$O$26)/(1-I31)/[1]Sheet1!$N$26</f>
-        <v>12.5093035619351</v>
+        <v>12.509303561935141</v>
       </c>
       <c r="K31" s="11">
         <f>(E31+F31+([1]Sheet1!$K$26*H31+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G31)/(1-[1]Sheet1!$P$26)/(1-I31)/[1]Sheet1!$N$26</f>
-        <v>13.9809863339275</v>
+        <v>13.980986333927513</v>
       </c>
       <c r="L31" s="1">
         <f>E31+F31+([1]Sheet1!$K$26*H31+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -4842,19 +4308,19 @@
       </c>
       <c r="M31" s="12">
         <f>L31/(1-G31)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>10.0074428495481</v>
+        <v>10.007442849548115</v>
       </c>
       <c r="N31" s="12">
         <f>L31/(1-G31)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>11.184789067142</v>
+        <v>11.18478906714201</v>
       </c>
       <c r="O31" s="12">
         <f>L31/(1-G31)/[1]Sheet1!$N$26</f>
-        <v>9.50707070707071</v>
+        <v>9.5070707070707083</v>
       </c>
       <c r="P31" s="13">
         <f>O31*[1]Sheet1!$N$26-L31</f>
-        <v>15.6866666666667</v>
+        <v>15.686666666666667</v>
       </c>
       <c r="Q31">
         <v>20</v>
@@ -4863,7 +4329,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" ht="90.75" customHeight="1" spans="2:18">
+    <row r="32" spans="2:18" ht="90.75" customHeight="1">
       <c r="B32">
         <v>16113002</v>
       </c>
@@ -4890,31 +4356,31 @@
       </c>
       <c r="J32" s="10">
         <f>(E32+F32+([1]Sheet1!$K$26*H32+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G32)/(1-[1]Sheet1!$O$26)/(1-I32)/[1]Sheet1!$N$26</f>
-        <v>17.7068934963672</v>
+        <v>17.706893496367179</v>
       </c>
       <c r="K32" s="11">
         <f>(E32+F32+([1]Sheet1!$K$26*H32+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G32)/(1-[1]Sheet1!$P$26)/(1-I32)/[1]Sheet1!$N$26</f>
-        <v>19.7900574371163</v>
+        <v>19.790057437116261</v>
       </c>
       <c r="L32" s="1">
         <f>E32+F32+([1]Sheet1!$K$26*H32+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
-        <v>49.96</v>
+        <v>49.959999999999994</v>
       </c>
       <c r="M32" s="12">
         <f>L32/(1-G32)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>10.6241360978203</v>
+        <v>10.624136097820308</v>
       </c>
       <c r="N32" s="12">
         <f>L32/(1-G32)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>11.8740344622698</v>
+        <v>11.874034462269755</v>
       </c>
       <c r="O32" s="12">
         <f>L32/(1-G32)/[1]Sheet1!$N$26</f>
-        <v>10.0929292929293</v>
+        <v>10.092929292929293</v>
       </c>
       <c r="P32" s="13">
         <f>O32*[1]Sheet1!$N$26-L32</f>
-        <v>16.6533333333333</v>
+        <v>16.653333333333336</v>
       </c>
       <c r="Q32">
         <v>20</v>
@@ -4923,7 +4389,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" ht="90.75" customHeight="1" spans="2:18">
+    <row r="33" spans="2:18" ht="90.75" customHeight="1">
       <c r="B33">
         <v>16113003</v>
       </c>
@@ -4950,11 +4416,11 @@
       </c>
       <c r="J33" s="10">
         <f>(E33+F33+([1]Sheet1!$K$26*H33+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G33)/(1-[1]Sheet1!$O$26)/(1-I33)/[1]Sheet1!$N$26</f>
-        <v>25.5802039534097</v>
+        <v>25.58020395340969</v>
       </c>
       <c r="K33" s="11">
         <f>(E33+F33+([1]Sheet1!$K$26*H33+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G33)/(1-[1]Sheet1!$P$26)/(1-I33)/[1]Sheet1!$N$26</f>
-        <v>28.5896397126344</v>
+        <v>28.589639712634362</v>
       </c>
       <c r="L33" s="1">
         <f>E33+F33+([1]Sheet1!$K$26*H33+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -4962,7 +4428,7 @@
       </c>
       <c r="M33" s="12">
         <f>L33/(1-G33)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.0691121743753</v>
+        <v>14.069112174375331</v>
       </c>
       <c r="N33" s="12">
         <f>L33/(1-G33)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
@@ -4970,11 +4436,11 @@
       </c>
       <c r="O33" s="12">
         <f>L33/(1-G33)/[1]Sheet1!$N$26</f>
-        <v>13.3656565656566</v>
+        <v>13.365656565656565</v>
       </c>
       <c r="P33" s="13">
         <f>O33*[1]Sheet1!$N$26-L33</f>
-        <v>22.0533333333333</v>
+        <v>22.053333333333327</v>
       </c>
       <c r="Q33">
         <v>45</v>
@@ -4983,7 +4449,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" ht="90.75" customHeight="1" spans="2:18">
+    <row r="34" spans="2:18" ht="90.75" customHeight="1">
       <c r="B34">
         <v>16113004</v>
       </c>
@@ -5010,11 +4476,11 @@
       </c>
       <c r="J34" s="10">
         <f>(E34+F34+([1]Sheet1!$K$26*H34+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G34)/(1-[1]Sheet1!$O$26)/(1-I34)/[1]Sheet1!$N$26</f>
-        <v>19.6094276094276</v>
+        <v>19.609427609427609</v>
       </c>
       <c r="K34" s="11">
         <f>(E34+F34+([1]Sheet1!$K$26*H34+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G34)/(1-[1]Sheet1!$P$26)/(1-I34)/[1]Sheet1!$N$26</f>
-        <v>21.9164190928897</v>
+        <v>21.916419092889683</v>
       </c>
       <c r="L34" s="1">
         <f>E34+F34+([1]Sheet1!$K$26*H34+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -5022,19 +4488,19 @@
       </c>
       <c r="M34" s="12">
         <f>L34/(1-G34)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.7070707070707</v>
+        <v>14.707070707070708</v>
       </c>
       <c r="N34" s="12">
         <f>L34/(1-G34)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>16.4373143196673</v>
+        <v>16.437314319667262</v>
       </c>
       <c r="O34" s="12">
         <f>L34/(1-G34)/[1]Sheet1!$N$26</f>
-        <v>13.9717171717172</v>
+        <v>13.97171717171717</v>
       </c>
       <c r="P34" s="13">
         <f>O34*[1]Sheet1!$N$26-L34</f>
-        <v>23.0533333333333</v>
+        <v>23.053333333333327</v>
       </c>
       <c r="Q34">
         <v>45</v>
@@ -5043,7 +4509,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" ht="90.75" customHeight="1" spans="2:18">
+    <row r="35" spans="2:18" ht="90.75" customHeight="1">
       <c r="B35">
         <v>16120201</v>
       </c>
@@ -5070,11 +4536,11 @@
       </c>
       <c r="J35" s="10">
         <f>(E35+F35+([1]Sheet1!$K$26*H35+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G35)/(1-[1]Sheet1!$O$26)/(1-I35)/[1]Sheet1!$N$26</f>
-        <v>15.725677830941</v>
+        <v>15.725677830940988</v>
       </c>
       <c r="K35" s="11">
         <f>(E35+F35+([1]Sheet1!$K$26*H35+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G35)/(1-[1]Sheet1!$P$26)/(1-I35)/[1]Sheet1!$N$26</f>
-        <v>17.5757575757576</v>
+        <v>17.575757575757574</v>
       </c>
       <c r="L35" s="1">
         <f>E35+F35+([1]Sheet1!$K$26*H35+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -5082,15 +4548,15 @@
       </c>
       <c r="M35" s="12">
         <f>L35/(1-G35)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>12.5805422647528</v>
+        <v>12.580542264752792</v>
       </c>
       <c r="N35" s="12">
         <f>L35/(1-G35)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>14.0606060606061</v>
+        <v>14.060606060606061</v>
       </c>
       <c r="O35" s="12">
         <f>L35/(1-G35)/[1]Sheet1!$N$26</f>
-        <v>11.9515151515152</v>
+        <v>11.951515151515151</v>
       </c>
       <c r="P35" s="13">
         <f>O35*[1]Sheet1!$N$26-L35</f>
@@ -5100,7 +4566,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" ht="90.75" customHeight="1" spans="2:17">
+    <row r="36" spans="2:18" ht="90.75" customHeight="1">
       <c r="B36">
         <v>16120301</v>
       </c>
@@ -5125,11 +4591,11 @@
       </c>
       <c r="J36" s="10">
         <f>(E36+F36+([1]Sheet1!$K$26*H36+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G36)/(1-[1]Sheet1!$O$26)/(1-I36)/[1]Sheet1!$N$26</f>
-        <v>24.0336378135421</v>
+        <v>24.033637813542118</v>
       </c>
       <c r="K36" s="11">
         <f>(E36+F36+([1]Sheet1!$K$26*H36+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G36)/(1-[1]Sheet1!$P$26)/(1-I36)/[1]Sheet1!$N$26</f>
-        <v>26.8611246151353</v>
+        <v>26.861124615135306</v>
       </c>
       <c r="L36" s="1">
         <f>E36+F36+([1]Sheet1!$K$26*H36+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -5137,15 +4603,15 @@
       </c>
       <c r="M36" s="12">
         <f>L36/(1-G36)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>13.2185007974482</v>
+        <v>13.218500797448167</v>
       </c>
       <c r="N36" s="12">
         <f>L36/(1-G36)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>14.7736185383244</v>
+        <v>14.773618538324421</v>
       </c>
       <c r="O36" s="12">
         <f>L36/(1-G36)/[1]Sheet1!$N$26</f>
-        <v>12.5575757575758</v>
+        <v>12.557575757575757</v>
       </c>
       <c r="P36" s="13">
         <f>O36*[1]Sheet1!$N$26-L36</f>
@@ -5155,7 +4621,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" ht="90.75" customHeight="1" spans="2:17">
+    <row r="37" spans="2:18" ht="90.75" customHeight="1">
       <c r="B37">
         <v>16120302</v>
       </c>
@@ -5180,11 +4646,11 @@
       </c>
       <c r="J37" s="10">
         <f>(E37+F37+([1]Sheet1!$K$26*H37+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G37)/(1-[1]Sheet1!$O$26)/(1-I37)/[1]Sheet1!$N$26</f>
-        <v>7.1398192450824</v>
+        <v>7.1398192450824025</v>
       </c>
       <c r="K37" s="11">
         <f>(E37+F37+([1]Sheet1!$K$26*H37+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G37)/(1-[1]Sheet1!$P$26)/(1-I37)/[1]Sheet1!$N$26</f>
-        <v>7.97979797979798</v>
+        <v>7.9797979797979801</v>
       </c>
       <c r="L37" s="1">
         <f>E37+F37+([1]Sheet1!$K$26*H37+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -5192,25 +4658,25 @@
       </c>
       <c r="M37" s="12">
         <f>L37/(1-G37)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>5.71185539606592</v>
+        <v>5.7118553960659231</v>
       </c>
       <c r="N37" s="12">
         <f>L37/(1-G37)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>6.38383838383838</v>
+        <v>6.3838383838383841</v>
       </c>
       <c r="O37" s="12">
         <f>L37/(1-G37)/[1]Sheet1!$N$26</f>
-        <v>5.42626262626263</v>
+        <v>5.4262626262626261</v>
       </c>
       <c r="P37" s="13">
         <f>O37*[1]Sheet1!$N$26-L37</f>
-        <v>8.95333333333333</v>
+        <v>8.9533333333333331</v>
       </c>
       <c r="Q37">
         <v>20</v>
       </c>
     </row>
-    <row r="38" ht="90.75" customHeight="1" spans="2:18">
+    <row r="38" spans="2:18" ht="90.75" customHeight="1">
       <c r="B38">
         <v>16120401</v>
       </c>
@@ -5235,11 +4701,11 @@
       </c>
       <c r="J38" s="10">
         <f>(E38+F38+([1]Sheet1!$K$26*H38+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G38)/(1-[1]Sheet1!$O$26)/(1-I38)/[1]Sheet1!$N$26</f>
-        <v>16.0595427963849</v>
+        <v>16.059542796384903</v>
       </c>
       <c r="K38" s="11">
         <f>(E38+F38+([1]Sheet1!$K$26*H38+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G38)/(1-[1]Sheet1!$P$26)/(1-I38)/[1]Sheet1!$N$26</f>
-        <v>17.9489007724302</v>
+        <v>17.948900772430182</v>
       </c>
       <c r="L38" s="1">
         <f>E38+F38+([1]Sheet1!$K$26*H38+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -5247,19 +4713,19 @@
       </c>
       <c r="M38" s="12">
         <f>L38/(1-G38)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>8.02977139819245</v>
+        <v>8.0297713981924517</v>
       </c>
       <c r="N38" s="12">
         <f>L38/(1-G38)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>8.97445038621509</v>
+        <v>8.9744503862150911</v>
       </c>
       <c r="O38" s="12">
         <f>L38/(1-G38)/[1]Sheet1!$N$26</f>
-        <v>7.62828282828283</v>
+        <v>7.6282828282828286</v>
       </c>
       <c r="P38" s="13">
         <f>O38*[1]Sheet1!$N$26-L38</f>
-        <v>12.5866666666667</v>
+        <v>12.586666666666666</v>
       </c>
       <c r="Q38">
         <v>20</v>
@@ -5268,7 +4734,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" ht="84" customHeight="1" spans="2:18">
+    <row r="39" spans="2:18" ht="84" customHeight="1">
       <c r="B39">
         <v>16122001</v>
       </c>
@@ -5295,31 +4761,31 @@
       </c>
       <c r="J39" s="10">
         <f>(E39+F39+([1]Sheet1!$K$26*H39+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G39)/(1-[1]Sheet1!$O$26)/(1-I39)/[1]Sheet1!$N$26</f>
-        <v>17.7068934963672</v>
+        <v>17.706893496367179</v>
       </c>
       <c r="K39" s="11">
         <f>(E39+F39+([1]Sheet1!$K$26*H39+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G39)/(1-[1]Sheet1!$P$26)/(1-I39)/[1]Sheet1!$N$26</f>
-        <v>19.7900574371163</v>
+        <v>19.790057437116261</v>
       </c>
       <c r="L39" s="1">
         <f>E39+F39+([1]Sheet1!$K$26*H39+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
-        <v>49.96</v>
+        <v>49.959999999999994</v>
       </c>
       <c r="M39" s="12">
         <f>L39/(1-G39)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>10.6241360978203</v>
+        <v>10.624136097820308</v>
       </c>
       <c r="N39" s="12">
         <f>L39/(1-G39)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>11.8740344622698</v>
+        <v>11.874034462269755</v>
       </c>
       <c r="O39" s="12">
         <f>L39/(1-G39)/[1]Sheet1!$N$26</f>
-        <v>10.0929292929293</v>
+        <v>10.092929292929293</v>
       </c>
       <c r="P39" s="13">
         <f>O39*[1]Sheet1!$N$26-L39</f>
-        <v>16.6533333333333</v>
+        <v>16.653333333333336</v>
       </c>
       <c r="Q39">
         <v>20</v>
@@ -5328,7 +4794,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" ht="90.75" customHeight="1" spans="2:18">
+    <row r="40" spans="2:18" ht="90.75" customHeight="1">
       <c r="B40">
         <v>17011301</v>
       </c>
@@ -5355,31 +4821,31 @@
       </c>
       <c r="J40" s="10">
         <f>(E40+F40+([1]Sheet1!$K$26*H40+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G40)/(1-[1]Sheet1!$O$26)/(1-I40)/[1]Sheet1!$N$26</f>
-        <v>18.1566864820453</v>
+        <v>18.15668648204533</v>
       </c>
       <c r="K40" s="11">
         <f>(E40+F40+([1]Sheet1!$K$26*H40+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G40)/(1-[1]Sheet1!$P$26)/(1-I40)/[1]Sheet1!$N$26</f>
-        <v>20.2927672446389</v>
+        <v>20.292767244638899</v>
       </c>
       <c r="L40" s="1">
         <f>E40+F40+([1]Sheet1!$K$26*H40+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
-        <v>46.96</v>
+        <v>46.959999999999994</v>
       </c>
       <c r="M40" s="12">
         <f>L40/(1-G40)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>9.98617756512493</v>
+        <v>9.9861775651249332</v>
       </c>
       <c r="N40" s="12">
         <f>L40/(1-G40)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>11.1610219845514</v>
+        <v>11.161021984551397</v>
       </c>
       <c r="O40" s="12">
         <f>L40/(1-G40)/[1]Sheet1!$N$26</f>
-        <v>9.48686868686869</v>
+        <v>9.4868686868686858</v>
       </c>
       <c r="P40" s="13">
         <f>O40*[1]Sheet1!$N$26-L40</f>
-        <v>15.6533333333333</v>
+        <v>15.653333333333329</v>
       </c>
       <c r="Q40">
         <v>20</v>
@@ -5388,7 +4854,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" ht="90.75" customHeight="1" spans="2:18">
+    <row r="41" spans="2:18" ht="90.75" customHeight="1">
       <c r="B41">
         <v>17011302</v>
       </c>
@@ -5415,11 +4881,11 @@
       </c>
       <c r="J41" s="10">
         <f>(E41+F41+([1]Sheet1!$K$26*H41+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G41)/(1-[1]Sheet1!$O$26)/(1-I41)/[1]Sheet1!$N$26</f>
-        <v>11.25075314549</v>
+        <v>11.250753145489988</v>
       </c>
       <c r="K41" s="11">
         <f>(E41+F41+([1]Sheet1!$K$26*H41+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G41)/(1-[1]Sheet1!$P$26)/(1-I41)/[1]Sheet1!$N$26</f>
-        <v>12.5743711626065</v>
+        <v>12.574371162606457</v>
       </c>
       <c r="L41" s="1">
         <f>E41+F41+([1]Sheet1!$K$26*H41+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -5427,19 +4893,19 @@
       </c>
       <c r="M41" s="12">
         <f>L41/(1-G41)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>8.43806485911749</v>
+        <v>8.4380648591174907</v>
       </c>
       <c r="N41" s="12">
         <f>L41/(1-G41)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>9.43077837195484</v>
+        <v>9.4307783719548421</v>
       </c>
       <c r="O41" s="12">
         <f>L41/(1-G41)/[1]Sheet1!$N$26</f>
-        <v>8.01616161616162</v>
+        <v>8.0161616161616163</v>
       </c>
       <c r="P41" s="13">
         <f>O41*[1]Sheet1!$N$26-L41</f>
-        <v>13.2266666666667</v>
+        <v>13.226666666666667</v>
       </c>
       <c r="Q41">
         <v>20</v>
@@ -5448,7 +4914,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" ht="90.75" customHeight="1" spans="2:18">
+    <row r="42" spans="2:18" ht="90.75" customHeight="1">
       <c r="B42">
         <v>17011303</v>
       </c>
@@ -5475,11 +4941,11 @@
       </c>
       <c r="J42" s="10">
         <f>(E42+F42+([1]Sheet1!$K$26*H42+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G42)/(1-[1]Sheet1!$O$26)/(1-I42)/[1]Sheet1!$N$26</f>
-        <v>24.3816151950123</v>
+        <v>24.381615195012326</v>
       </c>
       <c r="K42" s="11">
         <f>(E42+F42+([1]Sheet1!$K$26*H42+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G42)/(1-[1]Sheet1!$P$26)/(1-I42)/[1]Sheet1!$N$26</f>
-        <v>27.2500405120726</v>
+        <v>27.250040512072598</v>
       </c>
       <c r="L42" s="1">
         <f>E42+F42+([1]Sheet1!$K$26*H42+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -5487,19 +4953,19 @@
       </c>
       <c r="M42" s="12">
         <f>L42/(1-G42)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>13.4098883572568</v>
+        <v>13.409888357256781</v>
       </c>
       <c r="N42" s="12">
         <f>L42/(1-G42)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>14.9875222816399</v>
+        <v>14.987522281639929</v>
       </c>
       <c r="O42" s="12">
         <f>L42/(1-G42)/[1]Sheet1!$N$26</f>
-        <v>12.7393939393939</v>
+        <v>12.73939393939394</v>
       </c>
       <c r="P42" s="13">
         <f>O42*[1]Sheet1!$N$26-L42</f>
-        <v>21.02</v>
+        <v>21.019999999999996</v>
       </c>
       <c r="Q42">
         <v>45</v>
@@ -5508,20 +4974,67 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" ht="90.75" customHeight="1" spans="3:16">
-      <c r="C43" s="1"/>
-      <c r="D43" s="6"/>
-      <c r="G43" s="3"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="13"/>
+    <row r="43" spans="2:18" ht="90.75" customHeight="1">
+      <c r="B43">
+        <v>17011401</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43">
+        <v>19</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H43">
+        <v>0.2</v>
+      </c>
+      <c r="I43" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="J43" s="10">
+        <f>(E43+F43+([1]Sheet1!$K$26*H43+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G43)/(1-[1]Sheet1!$O$26)/(1-I43)/[1]Sheet1!$N$26</f>
+        <v>12.464292043239411</v>
+      </c>
+      <c r="K43" s="11">
+        <f>(E43+F43+([1]Sheet1!$K$26*H43+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G43)/(1-[1]Sheet1!$P$26)/(1-I43)/[1]Sheet1!$N$26</f>
+        <v>13.930679342444044</v>
+      </c>
+      <c r="L43" s="1">
+        <f>E43+F43+([1]Sheet1!$K$26*H43+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
+        <v>43.959999999999994</v>
+      </c>
+      <c r="M43" s="12">
+        <f>L43/(1-G43)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
+        <v>9.348219032429558</v>
+      </c>
+      <c r="N43" s="12">
+        <f>L43/(1-G43)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
+        <v>10.448009506833035</v>
+      </c>
+      <c r="O43" s="12">
+        <f>L43/(1-G43)/[1]Sheet1!$N$26</f>
+        <v>8.8808080808080803</v>
+      </c>
+      <c r="P43" s="13">
+        <f>O43*[1]Sheet1!$N$26-L43</f>
+        <v>14.653333333333336</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>25</v>
+      </c>
     </row>
-    <row r="45" spans="11:16">
+    <row r="45" spans="2:18">
       <c r="K45" s="15" t="s">
         <v>64</v>
       </c>
@@ -5541,7 +5054,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="11:16">
+    <row r="46" spans="2:18">
       <c r="K46" s="16">
         <v>100</v>
       </c>
@@ -5562,94 +5075,86 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="3">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"爬爬服"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27 C41 C42 C2:C16 C29:C30">
-      <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子,裤子"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28 C43 C17:C21 C24:C26 C31:C40">
-      <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q6 R2:R4">
       <formula1>"0,1"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C43">
+      <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子,裤子,衬衫,T-shirt,袜子,口水巾,手套"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId2" display="https://detail.1688.com/offer/43388465240.html?spm=a2615.7691456.0.0.SVo0SF"/>
-    <hyperlink ref="D4" r:id="rId3" display="https://detail.1688.com/offer/532946594199.html?spm=a2615.7691456.0.0.KfqxAP"/>
-    <hyperlink ref="D6" r:id="rId4" display="https://item.taobao.com/item.htm?spm=a230r.1.0.0.NVkYXr&amp;id=535812571550&amp;ns=1#detail"/>
-    <hyperlink ref="S6" r:id="rId4" display="https://item.taobao.com/item.htm?spm=a230r.1.0.0.NVkYXr&amp;id=535812571550&amp;ns=1#detail"/>
-    <hyperlink ref="D8" r:id="rId5" display="https://detail.1688.com/offer/521926765457.html?spm=a2615.7691456.0.0.Iw9wYb"/>
-    <hyperlink ref="D9" r:id="rId6" display="https://detail.1688.com/offer/539601777542.html?spm=b26110380.8015204.1688002.1.tV3mIo"/>
-    <hyperlink ref="D10" r:id="rId7" display="https://detail.1688.com/offer/534650922032.html"/>
-    <hyperlink ref="D11" r:id="rId8" display="https://detail.1688.com/offer/525196220868.html?spm=b26110380.8015204.xshy005.911.FMmHAe"/>
-    <hyperlink ref="D12" r:id="rId9" display="https://detail.1688.com/offer/525739109360.html?spm=b26110380.sw311.0.0.2w3SJa"/>
-    <hyperlink ref="D13" r:id="rId10" display="https://detail.1688.com/offer/536964765017.html?spm=b26110380.8015204.1688002.2.0qEfTf"/>
-    <hyperlink ref="D14" r:id="rId11" display="https://detail.1688.com/offer/523084291442.html?spm=b26110380.8015204.tkhy006.2.7zxqcs"/>
-    <hyperlink ref="D15" r:id="rId12" display="https://detail.1688.com/offer/539464650849.html?spm=b26110380.8015204.tkhy006.13.LriGRm"/>
-    <hyperlink ref="D16" r:id="rId13" display="https://detail.1688.com/offer/539024831638.html?spm=a2615.7691456.0.0.erl0H2"/>
-    <hyperlink ref="D19" r:id="rId14" display="https://detail.1688.com/offer/37436493140.html?spm=a261y.7663282.0.0.Bdoqfg"/>
-    <hyperlink ref="D20" r:id="rId15" display="https://detail.1688.com/offer/525328573875.html?spm=a2615.2177701.0.0.inGNvk"/>
-    <hyperlink ref="D21" r:id="rId16" display="https://detail.1688.com/offer/531099455627.html?spm=b26110380.sw311.0.0.NlP3tV"/>
-    <hyperlink ref="D22" r:id="rId17" display="https://detail.1688.com/offer/539748592006.html?spm=a2615.7691456.0.0.gzA0aC"/>
-    <hyperlink ref="D23" r:id="rId18" display="https://detail.1688.com/offer/542005628301.html?spm=a2615.7691456.0.0.E27Va6" tooltip="https://detail.1688.com/offer/542005628301.html?spm=a2615.7691456.0.0.E27Va6"/>
-    <hyperlink ref="D24" r:id="rId16" display="https://detail.1688.com/offer/531099455627.html?spm=b26110380.sw311.0.0.NlP3tV"/>
-    <hyperlink ref="D25" r:id="rId19" display="https://detail.1688.com/offer/537712350771.html?spm=a261y.7663282.0.0.HGrgRG&amp;sk=consign"/>
-    <hyperlink ref="D26" r:id="rId20" display="https://detail.1688.com/offer/535604104982.html?spm=a2615.7691456.0.0.ceDRcB" tooltip="https://detail.1688.com/offer/535604104982.html?spm=a2615.7691456.0.0.ceDRcB"/>
-    <hyperlink ref="D18" r:id="rId21" display="https://detail.1688.com/offer/537572849225.html?spm=a2615.7691456.0.0.0jr1X8"/>
-    <hyperlink ref="D28" r:id="rId22" display="https://detail.1688.com/offer/538358020263.html?spm=a2615.7691456.0.0.BXbA7w"/>
-    <hyperlink ref="D29" r:id="rId23" display="https://detail.1688.com/offer/536605241945.html?spm=b26110380.8015204.xshy005.79.X6yxQK"/>
-    <hyperlink ref="D30" r:id="rId24" display="https://detail.1688.com/offer/522617209176.html?spm=0.0.0.0.OkHehB&amp;sk=consign"/>
-    <hyperlink ref="D31" r:id="rId25" display="https://detail.1688.com/offer/536564720843.html?spm=a261y.7663282.0.0.CfpkXA&amp;sk=consign"/>
-    <hyperlink ref="D32" r:id="rId26" display="https://detail.1688.com/offer/522866160965.html?spm=b26110380.8015204.1688002.2.oTUzYR" tooltip="https://detail.1688.com/offer/522866160965.html?spm=b26110380.8015204.1688002.2.oTUzYR"/>
-    <hyperlink ref="D33" r:id="rId27" display="https://detail.1688.com/offer/537733197961.html?spm=b26110380.8015204.tkhy006.2.6IBVa5"/>
-    <hyperlink ref="D34" r:id="rId27" display="https://detail.1688.com/offer/537733197961.html?spm=b26110380.8015204.tkhy006.2.6IBVa5"/>
-    <hyperlink ref="D37" r:id="rId28" display="https://detail.1688.com/offer/39363390916.html?spm=b26110380.sw56474001.0.0.AOuyqk"/>
-    <hyperlink ref="D38" r:id="rId29" display="https://detail.1688.com/offer/523975460031.html?spm=b26110380.8015204.1688002.1.dPdaJX"/>
-    <hyperlink ref="D39" r:id="rId30" display="https://detail.1688.com/offer/531232169182.html?spm=a261y.7663282.0.0.1DCfuw"/>
-    <hyperlink ref="D40" r:id="rId31" display="https://detail.1688.com/offer/531965973421.html?spm=a2615.7691456.0.0.MQ5cDO"/>
-    <hyperlink ref="D41" r:id="rId32" display="https://detail.1688.com/offer/538656905495.html?spm=b26110380.sw1037004.0.0.dRfQA7&amp;sk=consign"/>
-    <hyperlink ref="D42" r:id="rId33" display="https://detail.1688.com/offer/534135284523.html?spm=a2615.2177701.0.0.bCxxaP"/>
+    <hyperlink ref="D5" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="S6" r:id="rId4"/>
+    <hyperlink ref="D8" r:id="rId5"/>
+    <hyperlink ref="D9" r:id="rId6"/>
+    <hyperlink ref="D10" r:id="rId7"/>
+    <hyperlink ref="D11" r:id="rId8"/>
+    <hyperlink ref="D12" r:id="rId9"/>
+    <hyperlink ref="D13" r:id="rId10"/>
+    <hyperlink ref="D14" r:id="rId11"/>
+    <hyperlink ref="D15" r:id="rId12"/>
+    <hyperlink ref="D16" r:id="rId13"/>
+    <hyperlink ref="D19" r:id="rId14"/>
+    <hyperlink ref="D20" r:id="rId15"/>
+    <hyperlink ref="D21" r:id="rId16"/>
+    <hyperlink ref="D22" r:id="rId17"/>
+    <hyperlink ref="D23" r:id="rId18" tooltip="https://detail.1688.com/offer/542005628301.html?spm=a2615.7691456.0.0.E27Va6"/>
+    <hyperlink ref="D24" r:id="rId19"/>
+    <hyperlink ref="D25" r:id="rId20"/>
+    <hyperlink ref="D26" r:id="rId21" tooltip="https://detail.1688.com/offer/535604104982.html?spm=a2615.7691456.0.0.ceDRcB"/>
+    <hyperlink ref="D18" r:id="rId22"/>
+    <hyperlink ref="D28" r:id="rId23"/>
+    <hyperlink ref="D29" r:id="rId24"/>
+    <hyperlink ref="D30" r:id="rId25"/>
+    <hyperlink ref="D31" r:id="rId26"/>
+    <hyperlink ref="D32" r:id="rId27" tooltip="https://detail.1688.com/offer/522866160965.html?spm=b26110380.8015204.1688002.2.oTUzYR"/>
+    <hyperlink ref="D33" r:id="rId28"/>
+    <hyperlink ref="D34" r:id="rId29"/>
+    <hyperlink ref="D37" r:id="rId30"/>
+    <hyperlink ref="D38" r:id="rId31"/>
+    <hyperlink ref="D39" r:id="rId32"/>
+    <hyperlink ref="D40" r:id="rId33"/>
+    <hyperlink ref="D41" r:id="rId34"/>
+    <hyperlink ref="D42" r:id="rId35"/>
+    <hyperlink ref="D43" r:id="rId36"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId37"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/产品表单.xlsx
+++ b/产品表单.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
   <si>
     <t>产品标题</t>
   </si>
@@ -246,6 +246,10 @@
   </si>
   <si>
     <t>手套</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/538321839564.html?spm=b26110380.sw1037005.0.0.jmc4NW</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2125,6 +2129,44 @@
         <a:xfrm>
           <a:off x="74545" y="44988232"/>
           <a:ext cx="942940" cy="944218"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>33131</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>16568</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>997851</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>977350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="图片 47" descr="QQ截图20170115132517.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33131" y="47169459"/>
+          <a:ext cx="964720" cy="960782"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2459,11 +2501,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S46"/>
+  <dimension ref="A1:S47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2568,31 +2610,31 @@
         <v>0.15</v>
       </c>
       <c r="J2" s="10">
-        <f t="shared" ref="J2:J14" si="0">(E2+F2+($K$46*H2+$M$46)*$L$46)/(1-G2)/(1-$O$46)/(1-I2)/$N$46</f>
+        <f t="shared" ref="J2:J14" si="0">(E2+F2+($K$47*H2+$M$47)*$L$47)/(1-G2)/(1-$O$47)/(1-I2)/$N$47</f>
         <v>16.874780602778198</v>
       </c>
       <c r="K2" s="11">
-        <f t="shared" ref="K2:K14" si="1">(E2+F2+($K$46*H2+$M$46)*$L$46)/(1-G2)/(1-$P$46)/(1-I2)/$N$46</f>
+        <f t="shared" ref="K2:K14" si="1">(E2+F2+($K$47*H2+$M$47)*$L$47)/(1-G2)/(1-$P$47)/(1-I2)/$N$47</f>
         <v>18.264468417124601</v>
       </c>
       <c r="L2" s="1">
-        <f t="shared" ref="L2:L14" si="2">E2+F2+($K$46*H2+$M$46)*$L$46</f>
+        <f t="shared" ref="L2:L14" si="2">E2+F2+($K$47*H2+$M$47)*$L$47</f>
         <v>67.3</v>
       </c>
       <c r="M2" s="12">
-        <f t="shared" ref="M2:M14" si="3">L2/(1-G2)/(1-$O$46)/$N$46</f>
+        <f t="shared" ref="M2:M14" si="3">L2/(1-G2)/(1-$O$47)/$N$47</f>
         <v>14.3435635123615</v>
       </c>
       <c r="N2" s="12">
-        <f t="shared" ref="N2:N14" si="4">L2/(1-G2)/(1-$P$46)/$N$46</f>
+        <f t="shared" ref="N2:N14" si="4">L2/(1-G2)/(1-$P$47)/$N$47</f>
         <v>15.524798154555899</v>
       </c>
       <c r="O2" s="12">
-        <f>L2/(1-G2)/$N$46</f>
+        <f>L2/(1-G2)/$N$47</f>
         <v>13.1960784313726</v>
       </c>
       <c r="P2" s="13">
-        <f>O2*$N$46-L2</f>
+        <f>O2*$N$47-L2</f>
         <v>22.433333333333302</v>
       </c>
       <c r="Q2" s="1">
@@ -2649,11 +2691,11 @@
         <v>8.9504036908881197</v>
       </c>
       <c r="O3" s="12">
-        <f>L3/(1-G3)/$N$46</f>
+        <f>L3/(1-G3)/$N$47</f>
         <v>7.6078431372548998</v>
       </c>
       <c r="P3" s="13">
-        <f>O3*$N$46-L3</f>
+        <f>O3*$N$47-L3</f>
         <v>12.9333333333333</v>
       </c>
       <c r="Q3" s="1">
@@ -2710,11 +2752,11 @@
         <v>14.486735870818899</v>
       </c>
       <c r="O4" s="12">
-        <f>L4/(1-G4)/$N$46</f>
+        <f>L4/(1-G4)/$N$47</f>
         <v>12.3137254901961</v>
       </c>
       <c r="P4" s="13">
-        <f>O4*$N$46-L4</f>
+        <f>O4*$N$47-L4</f>
         <v>20.933333333333302</v>
       </c>
       <c r="Q4" s="1">
@@ -2771,11 +2813,11 @@
         <v>16.793540945790099</v>
       </c>
       <c r="O5" s="12">
-        <f>L5/(1-G5)/$N$46</f>
+        <f>L5/(1-G5)/$N$47</f>
         <v>14.2745098039216</v>
       </c>
       <c r="P5" s="13">
-        <f>O5*$N$46-L5</f>
+        <f>O5*$N$47-L5</f>
         <v>24.266666666666701</v>
       </c>
       <c r="Q5" s="1">
@@ -2832,11 +2874,11 @@
         <v>14.1219723183391</v>
       </c>
       <c r="O6" s="12">
-        <f t="shared" ref="O6:O14" si="5">L6/(1-G6)/$N$46</f>
+        <f t="shared" ref="O6:O14" si="5">L6/(1-G6)/$N$47</f>
         <v>12.0036764705882</v>
       </c>
       <c r="P6" s="13">
-        <f t="shared" ref="P6:P14" si="6">O6*$N$46-L6</f>
+        <f t="shared" ref="P6:P14" si="6">O6*$N$47-L6</f>
         <v>16.324999999999999</v>
       </c>
       <c r="Q6" s="1">
@@ -3356,32 +3398,32 @@
         <v>0.15</v>
       </c>
       <c r="J15" s="10">
-        <f>(E15+F15+(Sheet1!$K$46*H15+Sheet1!$M$46)*Sheet1!$L$46)/(1-G15)/(1-Sheet1!$O$46)/(1-I15)/Sheet1!$N$46</f>
-        <v>23.017902813299202</v>
+        <f>(E15+F15+(Sheet1!$K$47*H15+Sheet1!$M$47)*Sheet1!$L$47)/(1-G15)/(1-Sheet1!$O$47)/(1-I15)/Sheet1!$N$47</f>
+        <v>23.017902813299234</v>
       </c>
       <c r="K15" s="11">
-        <f>(E15+F15+(Sheet1!$K$46*H15+Sheet1!$M$46)*Sheet1!$L$46)/(1-G15)/(1-Sheet1!$P$46)/(1-I15)/Sheet1!$N$46</f>
-        <v>24.913494809688601</v>
+        <f>(E15+F15+(Sheet1!$K$47*H15+Sheet1!$M$47)*Sheet1!$L$47)/(1-G15)/(1-Sheet1!$P$47)/(1-I15)/Sheet1!$N$47</f>
+        <v>24.913494809688583</v>
       </c>
       <c r="L15" s="1">
-        <f>E15+F15+(Sheet1!$K$46*H15+Sheet1!$M$46)*Sheet1!$L$46</f>
+        <f>E15+F15+(Sheet1!$K$47*H15+Sheet1!$M$47)*Sheet1!$L$47</f>
         <v>91.8</v>
       </c>
       <c r="M15" s="12">
-        <f>L15/(1-G15)/(1-Sheet1!$O$46)/Sheet1!$N$46</f>
-        <v>19.565217391304301</v>
+        <f>L15/(1-G15)/(1-Sheet1!$O$47)/Sheet1!$N$47</f>
+        <v>19.565217391304348</v>
       </c>
       <c r="N15" s="12">
-        <f>L15/(1-G15)/(1-Sheet1!$P$46)/Sheet1!$N$46</f>
-        <v>21.176470588235301</v>
+        <f>L15/(1-G15)/(1-Sheet1!$P$47)/Sheet1!$N$47</f>
+        <v>21.176470588235293</v>
       </c>
       <c r="O15" s="12">
-        <f>L15/(1-G15)/Sheet1!$N$46</f>
+        <f>L15/(1-G15)/Sheet1!$N$47</f>
         <v>18</v>
       </c>
       <c r="P15" s="13">
-        <f>O15*Sheet1!$N$46-L15</f>
-        <v>30.6</v>
+        <f>O15*Sheet1!$N$47-L15</f>
+        <v>30.599999999999994</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -3416,32 +3458,32 @@
         <v>0.25</v>
       </c>
       <c r="J16" s="10">
-        <f>(E16+F16+(Sheet1!$K$46*H16+Sheet1!$M$46)*Sheet1!$L$46)/(1-G16)/(1-Sheet1!$O$46)/(1-I16)/Sheet1!$N$46</f>
-        <v>11.6687979539642</v>
+        <f>(E16+F16+(Sheet1!$K$47*H16+Sheet1!$M$47)*Sheet1!$L$47)/(1-G16)/(1-Sheet1!$O$47)/(1-I16)/Sheet1!$N$47</f>
+        <v>11.668797953964194</v>
       </c>
       <c r="K16" s="11">
-        <f>(E16+F16+(Sheet1!$K$46*H16+Sheet1!$M$46)*Sheet1!$L$46)/(1-G16)/(1-Sheet1!$P$46)/(1-I16)/Sheet1!$N$46</f>
-        <v>12.629757785467101</v>
+        <f>(E16+F16+(Sheet1!$K$47*H16+Sheet1!$M$47)*Sheet1!$L$47)/(1-G16)/(1-Sheet1!$P$47)/(1-I16)/Sheet1!$N$47</f>
+        <v>12.629757785467127</v>
       </c>
       <c r="L16" s="1">
-        <f>E16+F16+(Sheet1!$K$46*H16+Sheet1!$M$46)*Sheet1!$L$46</f>
+        <f>E16+F16+(Sheet1!$K$47*H16+Sheet1!$M$47)*Sheet1!$L$47</f>
         <v>43.8</v>
       </c>
       <c r="M16" s="12">
-        <f>L16/(1-G16)/(1-Sheet1!$O$46)/Sheet1!$N$46</f>
-        <v>8.7515984654731405</v>
+        <f>L16/(1-G16)/(1-Sheet1!$O$47)/Sheet1!$N$47</f>
+        <v>8.751598465473144</v>
       </c>
       <c r="N16" s="12">
-        <f>L16/(1-G16)/(1-Sheet1!$P$46)/Sheet1!$N$46</f>
-        <v>9.4723183391003491</v>
+        <f>L16/(1-G16)/(1-Sheet1!$P$47)/Sheet1!$N$47</f>
+        <v>9.4723183391003456</v>
       </c>
       <c r="O16" s="12">
-        <f>L16/(1-G16)/Sheet1!$N$46</f>
-        <v>8.0514705882352899</v>
+        <f>L16/(1-G16)/Sheet1!$N$47</f>
+        <v>8.0514705882352935</v>
       </c>
       <c r="P16" s="13">
-        <f>O16*Sheet1!$N$46-L16</f>
-        <v>10.95</v>
+        <f>O16*Sheet1!$N$47-L16</f>
+        <v>10.949999999999996</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -5034,43 +5076,103 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="2:18">
-      <c r="K45" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="L45" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="M45" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="N45" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="O45" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="P45" s="15" t="s">
-        <v>69</v>
+    <row r="44" spans="2:18" ht="90.75" customHeight="1">
+      <c r="B44">
+        <v>17011501</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44">
+        <v>26</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H44">
+        <v>0.3</v>
+      </c>
+      <c r="I44" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="J44" s="10">
+        <f>(E44+F44+([1]Sheet1!$K$26*H44+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G44)/(1-[1]Sheet1!$O$26)/(1-I44)/[1]Sheet1!$N$26</f>
+        <v>16.774056353003722</v>
+      </c>
+      <c r="K44" s="11">
+        <f>(E44+F44+([1]Sheet1!$K$26*H44+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G44)/(1-[1]Sheet1!$P$26)/(1-I44)/[1]Sheet1!$N$26</f>
+        <v>18.747474747474747</v>
+      </c>
+      <c r="L44" s="1">
+        <f>E44+F44+([1]Sheet1!$K$26*H44+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
+        <v>59.16</v>
+      </c>
+      <c r="M44" s="12">
+        <f>L44/(1-G44)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
+        <v>12.580542264752792</v>
+      </c>
+      <c r="N44" s="12">
+        <f>L44/(1-G44)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
+        <v>14.060606060606061</v>
+      </c>
+      <c r="O44" s="12">
+        <f>L44/(1-G44)/[1]Sheet1!$N$26</f>
+        <v>11.951515151515151</v>
+      </c>
+      <c r="P44" s="13">
+        <f>O44*[1]Sheet1!$N$26-L44</f>
+        <v>19.72</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="2:18">
-      <c r="K46" s="16">
+      <c r="K46" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L46" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M46" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="N46" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="O46" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="P46" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18">
+      <c r="K47" s="16">
         <v>100</v>
       </c>
-      <c r="L46" s="14">
+      <c r="L47" s="14">
         <v>0.85</v>
       </c>
-      <c r="M46">
+      <c r="M47">
         <v>8</v>
       </c>
-      <c r="N46">
+      <c r="N47">
         <v>6.8</v>
       </c>
-      <c r="O46" s="14">
+      <c r="O47" s="14">
         <v>0.08</v>
       </c>
-      <c r="P46" s="14">
+      <c r="P47" s="14">
         <v>0.15</v>
       </c>
     </row>
@@ -5083,7 +5185,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q6 R2:R4">
       <formula1>"0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C43">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C44">
       <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子,裤子,衬衫,T-shirt,袜子,口水巾,手套"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5124,10 +5226,11 @@
     <hyperlink ref="D41" r:id="rId34"/>
     <hyperlink ref="D42" r:id="rId35"/>
     <hyperlink ref="D43" r:id="rId36"/>
+    <hyperlink ref="D44" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <drawing r:id="rId37"/>
+  <drawing r:id="rId38"/>
 </worksheet>
 </file>
 

--- a/产品表单.xlsx
+++ b/产品表单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="8685"/>
+    <workbookView windowWidth="19100" windowHeight="8690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$C$27</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
   <si>
     <t>产品标题</t>
   </si>
@@ -150,6 +150,9 @@
     <t>https://detail.1688.com/offer/537572849225.html?spm=a2615.7691456.0.0.0jr1X8</t>
   </si>
   <si>
+    <t>手套</t>
+  </si>
+  <si>
     <t>https://detail.1688.com/offer/37436493140.html?spm=a261y.7663282.0.0.Bdoqfg</t>
   </si>
   <si>
@@ -216,6 +219,18 @@
     <t>https://detail.1688.com/offer/534135284523.html?spm=a2615.2177701.0.0.bCxxaP</t>
   </si>
   <si>
+    <t>衬衫</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/524129595472.html?spm=a2615.7691456.0.0.5vRcmp</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/538321839564.html?spm=b26110380.sw1037005.0.0.jmc4NW</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/525494755952.html?spm=a2615.7691456.0.0.2qsBMx</t>
+  </si>
+  <si>
     <t>国际运费 1kg/￥</t>
   </si>
   <si>
@@ -232,37 +247,23 @@
   </si>
   <si>
     <t>wish费率</t>
-  </si>
-  <si>
-    <t>衬衫</t>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/524129595472.html?spm=a2615.7691456.0.0.5vRcmp</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>爬爬服</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>手套</t>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/538321839564.html?spm=b26110380.sw1037005.0.0.jmc4NW</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+  <numFmts count="8">
     <numFmt numFmtId="176" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
     <numFmt numFmtId="178" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,17 +299,140 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,8 +445,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -330,15 +640,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -358,19 +904,19 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -379,7 +925,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -395,18 +941,63 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="百分比" xfId="2" builtinId="5"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -428,7 +1019,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email"/>
+        <a:blip r:embed="rId1" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -466,7 +1057,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="email"/>
+        <a:blip r:embed="rId2" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -504,7 +1095,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="email"/>
+        <a:blip r:embed="rId3" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -542,7 +1133,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="email"/>
+        <a:blip r:embed="rId4" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -580,7 +1171,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="email"/>
+        <a:blip r:embed="rId5" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -618,7 +1209,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="email"/>
+        <a:blip r:embed="rId6" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -656,7 +1247,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="email"/>
+        <a:blip r:embed="rId7" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -694,7 +1285,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="email"/>
+        <a:blip r:embed="rId8" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -732,7 +1323,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="email"/>
+        <a:blip r:embed="rId9" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -770,7 +1361,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="email"/>
+        <a:blip r:embed="rId10" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -808,7 +1399,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="email"/>
+        <a:blip r:embed="rId11" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -846,7 +1437,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="email"/>
+        <a:blip r:embed="rId12" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -888,7 +1479,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="email"/>
+        <a:blip r:embed="rId13" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -926,7 +1517,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="email"/>
+        <a:blip r:embed="rId14" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -964,7 +1555,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="email"/>
+        <a:blip r:embed="rId15" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1002,7 +1593,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="email"/>
+        <a:blip r:embed="rId16" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1044,7 +1635,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="email"/>
+        <a:blip r:embed="rId17" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1086,7 +1677,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="email"/>
+        <a:blip r:embed="rId18" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1128,7 +1719,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="email"/>
+        <a:blip r:embed="rId19" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1170,7 +1761,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="email"/>
+        <a:blip r:embed="rId20" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1212,7 +1803,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="email"/>
+        <a:blip r:embed="rId21" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1254,7 +1845,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="email"/>
+        <a:blip r:embed="rId22" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1296,7 +1887,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="email"/>
+        <a:blip r:embed="rId23" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1338,7 +1929,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="email"/>
+        <a:blip r:embed="rId24" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1380,7 +1971,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="email"/>
+        <a:blip r:embed="rId25" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1422,7 +2013,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="email"/>
+        <a:blip r:embed="rId26" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1464,7 +2055,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="email"/>
+        <a:blip r:embed="rId27" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1506,7 +2097,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="email"/>
+        <a:blip r:embed="rId28" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1544,7 +2135,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="email"/>
+        <a:blip r:embed="rId29" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1586,7 +2177,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="email"/>
+        <a:blip r:embed="rId30" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1628,7 +2219,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="email"/>
+        <a:blip r:embed="rId31" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1670,7 +2261,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32" cstate="email"/>
+        <a:blip r:embed="rId32" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1712,7 +2303,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:blip r:embed="rId33"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1750,7 +2341,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34" cstate="email"/>
+        <a:blip r:embed="rId34" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1788,7 +2379,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35" cstate="email"/>
+        <a:blip r:embed="rId35" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1830,7 +2421,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36" cstate="email"/>
+        <a:blip r:embed="rId36" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1872,7 +2463,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" cstate="email"/>
+        <a:blip r:embed="rId37" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1914,7 +2505,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38" cstate="email"/>
+        <a:blip r:embed="rId38" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1956,7 +2547,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39" cstate="email"/>
+        <a:blip r:embed="rId39" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1998,7 +2589,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40" cstate="email"/>
+        <a:blip r:embed="rId40" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2040,7 +2631,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41" cstate="email"/>
+        <a:blip r:embed="rId41" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2078,7 +2669,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42" cstate="email"/>
+        <a:blip r:embed="rId42" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2107,8 +2698,8 @@
       <xdr:rowOff>115957</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1017485</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>1060175</xdr:rowOff>
     </xdr:to>
@@ -2120,15 +2711,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43" cstate="email"/>
+        <a:blip r:embed="rId43" cstate="email"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="74545" y="44988232"/>
-          <a:ext cx="942940" cy="944218"/>
+          <a:off x="74295" y="46159420"/>
+          <a:ext cx="912495" cy="944245"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2140,15 +2731,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>33131</xdr:colOff>
+      <xdr:colOff>60960</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>16568</xdr:rowOff>
+      <xdr:rowOff>43815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>997851</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>27829</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>977350</xdr:rowOff>
+      <xdr:rowOff>1004597</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2158,19 +2749,61 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44" cstate="print"/>
+        <a:blip r:embed="rId44" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="33131" y="47169459"/>
-          <a:ext cx="964720" cy="960782"/>
+          <a:off x="60960" y="47240190"/>
+          <a:ext cx="953135" cy="960755"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>104140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>1036320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="图片 42"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11430" y="48453040"/>
+          <a:ext cx="836295" cy="932180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2187,7 +2820,7 @@
       <sheetName val="Sheet3"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
+      <sheetData sheetId="0">
         <row r="26">
           <cell r="K26">
             <v>100</v>
@@ -2209,8 +2842,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2500,34 +3133,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="Q52" sqref="Q52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="14.1272727272727" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="7.5" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="8.125" customWidth="1"/>
-    <col min="6" max="6" width="9.875" customWidth="1"/>
-    <col min="7" max="7" width="8.25" customWidth="1"/>
-    <col min="10" max="10" width="11.25" customWidth="1"/>
-    <col min="11" max="11" width="11.125" customWidth="1"/>
-    <col min="12" max="12" width="7.625" customWidth="1"/>
-    <col min="13" max="13" width="11.875" customWidth="1"/>
-    <col min="14" max="15" width="11.625" customWidth="1"/>
-    <col min="16" max="16" width="9.875" customWidth="1"/>
+    <col min="4" max="4" width="17.3727272727273" customWidth="1"/>
+    <col min="5" max="5" width="8.12727272727273" customWidth="1"/>
+    <col min="6" max="6" width="9.87272727272727" customWidth="1"/>
+    <col min="7" max="7" width="8.25454545454545" customWidth="1"/>
+    <col min="10" max="10" width="11.2545454545455" customWidth="1"/>
+    <col min="11" max="11" width="11.1272727272727" customWidth="1"/>
+    <col min="12" max="12" width="7.62727272727273" customWidth="1"/>
+    <col min="13" max="13" width="11.8727272727273" customWidth="1"/>
+    <col min="14" max="15" width="11.6272727272727" customWidth="1"/>
+    <col min="16" max="16" width="9.87272727272727" customWidth="1"/>
     <col min="17" max="17" width="6.5" customWidth="1"/>
-    <col min="18" max="18" width="6.875" customWidth="1"/>
+    <col min="18" max="18" width="6.87272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2583,13 +3218,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="86.25" customHeight="1">
+    <row r="2" ht="86.25" customHeight="1" spans="1:18">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
         <v>16072601</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>19</v>
@@ -2610,32 +3245,32 @@
         <v>0.15</v>
       </c>
       <c r="J2" s="10">
-        <f t="shared" ref="J2:J14" si="0">(E2+F2+($K$47*H2+$M$47)*$L$47)/(1-G2)/(1-$O$47)/(1-I2)/$N$47</f>
-        <v>16.874780602778198</v>
+        <f t="shared" ref="J2:J14" si="0">(E2+F2+($K$48*H2+$M$48)*$L$48)/(1-G2)/(1-$O$48)/(1-I2)/$N$48</f>
+        <v>16.8747806027782</v>
       </c>
       <c r="K2" s="11">
-        <f t="shared" ref="K2:K14" si="1">(E2+F2+($K$47*H2+$M$47)*$L$47)/(1-G2)/(1-$P$47)/(1-I2)/$N$47</f>
-        <v>18.264468417124601</v>
+        <f t="shared" ref="K2:K14" si="1">(E2+F2+($K$48*H2+$M$48)*$L$48)/(1-G2)/(1-$P$48)/(1-I2)/$N$48</f>
+        <v>18.2644684171246</v>
       </c>
       <c r="L2" s="1">
-        <f t="shared" ref="L2:L14" si="2">E2+F2+($K$47*H2+$M$47)*$L$47</f>
+        <f t="shared" ref="L2:L14" si="2">E2+F2+($K$48*H2+$M$48)*$L$48</f>
         <v>67.3</v>
       </c>
       <c r="M2" s="12">
-        <f t="shared" ref="M2:M14" si="3">L2/(1-G2)/(1-$O$47)/$N$47</f>
+        <f t="shared" ref="M2:M14" si="3">L2/(1-G2)/(1-$O$48)/$N$48</f>
         <v>14.3435635123615</v>
       </c>
       <c r="N2" s="12">
-        <f t="shared" ref="N2:N14" si="4">L2/(1-G2)/(1-$P$47)/$N$47</f>
-        <v>15.524798154555899</v>
+        <f t="shared" ref="N2:N14" si="4">L2/(1-G2)/(1-$P$48)/$N$48</f>
+        <v>15.5247981545559</v>
       </c>
       <c r="O2" s="12">
-        <f>L2/(1-G2)/$N$47</f>
+        <f>L2/(1-G2)/$N$48</f>
         <v>13.1960784313726</v>
       </c>
       <c r="P2" s="13">
-        <f>O2*$N$47-L2</f>
-        <v>22.433333333333302</v>
+        <f>O2*$N$48-L2</f>
+        <v>22.4333333333333</v>
       </c>
       <c r="Q2" s="1">
         <v>1</v>
@@ -2644,7 +3279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="86.25" customHeight="1">
+    <row r="3" ht="86.25" customHeight="1" spans="1:18">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>16072701</v>
@@ -2672,30 +3307,30 @@
       </c>
       <c r="J3" s="10">
         <f t="shared" si="0"/>
-        <v>11.025859619209999</v>
+        <v>11.02585961921</v>
       </c>
       <c r="K3" s="11">
         <f t="shared" si="1"/>
-        <v>11.933871587850801</v>
+        <v>11.9338715878508</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" si="2"/>
-        <v>38.799999999999997</v>
+        <v>38.8</v>
       </c>
       <c r="M3" s="12">
         <f t="shared" si="3"/>
-        <v>8.2693947144075004</v>
+        <v>8.2693947144075</v>
       </c>
       <c r="N3" s="12">
         <f t="shared" si="4"/>
-        <v>8.9504036908881197</v>
+        <v>8.95040369088812</v>
       </c>
       <c r="O3" s="12">
-        <f>L3/(1-G3)/$N$47</f>
-        <v>7.6078431372548998</v>
+        <f>L3/(1-G3)/$N$48</f>
+        <v>7.6078431372549</v>
       </c>
       <c r="P3" s="13">
-        <f>O3*$N$47-L3</f>
+        <f>O3*$N$48-L3</f>
         <v>12.9333333333333</v>
       </c>
       <c r="Q3" s="1">
@@ -2705,7 +3340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="69.75" customHeight="1">
+    <row r="4" ht="69.75" customHeight="1" spans="1:18">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>16072901</v>
@@ -2733,11 +3368,11 @@
       </c>
       <c r="J4" s="10">
         <f t="shared" si="0"/>
-        <v>19.120691754962898</v>
+        <v>19.1206917549629</v>
       </c>
       <c r="K4" s="11">
         <f t="shared" si="1"/>
-        <v>20.695336958312701</v>
+        <v>20.6953369583127</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="2"/>
@@ -2745,19 +3380,19 @@
       </c>
       <c r="M4" s="12">
         <f t="shared" si="3"/>
-        <v>13.384484228473999</v>
+        <v>13.384484228474</v>
       </c>
       <c r="N4" s="12">
         <f t="shared" si="4"/>
-        <v>14.486735870818899</v>
+        <v>14.4867358708189</v>
       </c>
       <c r="O4" s="12">
-        <f>L4/(1-G4)/$N$47</f>
+        <f>L4/(1-G4)/$N$48</f>
         <v>12.3137254901961</v>
       </c>
       <c r="P4" s="13">
-        <f>O4*$N$47-L4</f>
-        <v>20.933333333333302</v>
+        <f>O4*$N$48-L4</f>
+        <v>20.9333333333333</v>
       </c>
       <c r="Q4" s="1">
         <v>1</v>
@@ -2766,7 +3401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="78" customHeight="1">
+    <row r="5" ht="78" customHeight="1" spans="1:18">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>16073001</v>
@@ -2794,11 +3429,11 @@
       </c>
       <c r="J5" s="10">
         <f t="shared" si="0"/>
-        <v>18.253848854119699</v>
+        <v>18.2538488541197</v>
       </c>
       <c r="K5" s="11">
         <f t="shared" si="1"/>
-        <v>19.757106995047199</v>
+        <v>19.7571069950472</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="2"/>
@@ -2810,15 +3445,15 @@
       </c>
       <c r="N5" s="12">
         <f t="shared" si="4"/>
-        <v>16.793540945790099</v>
+        <v>16.7935409457901</v>
       </c>
       <c r="O5" s="12">
-        <f>L5/(1-G5)/$N$47</f>
+        <f>L5/(1-G5)/$N$48</f>
         <v>14.2745098039216</v>
       </c>
       <c r="P5" s="13">
-        <f>O5*$N$47-L5</f>
-        <v>24.266666666666701</v>
+        <f>O5*$N$48-L5</f>
+        <v>24.2666666666667</v>
       </c>
       <c r="Q5" s="1">
         <v>1</v>
@@ -2827,7 +3462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="78" customHeight="1">
+    <row r="6" ht="78" customHeight="1" spans="1:19">
       <c r="A6" s="4"/>
       <c r="B6" s="1">
         <v>16073002</v>
@@ -2859,7 +3494,7 @@
       </c>
       <c r="K6" s="11">
         <f t="shared" si="1"/>
-        <v>16.614085080398901</v>
+        <v>16.6140850803989</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="2"/>
@@ -2874,12 +3509,12 @@
         <v>14.1219723183391</v>
       </c>
       <c r="O6" s="12">
-        <f t="shared" ref="O6:O14" si="5">L6/(1-G6)/$N$47</f>
+        <f t="shared" ref="O6:O14" si="5">L6/(1-G6)/$N$48</f>
         <v>12.0036764705882</v>
       </c>
       <c r="P6" s="13">
-        <f t="shared" ref="P6:P14" si="6">O6*$N$47-L6</f>
-        <v>16.324999999999999</v>
+        <f t="shared" ref="P6:P14" si="6">O6*$N$48-L6</f>
+        <v>16.325</v>
       </c>
       <c r="Q6" s="1">
         <v>0</v>
@@ -2891,7 +3526,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="69" customHeight="1">
+    <row r="7" ht="69" customHeight="1" spans="1:18">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>16080301</v>
@@ -2919,11 +3554,11 @@
       </c>
       <c r="J7" s="10">
         <f t="shared" si="0"/>
-        <v>17.250890125871301</v>
+        <v>17.2508901258713</v>
       </c>
       <c r="K7" s="11">
         <f t="shared" si="1"/>
-        <v>18.671551665649002</v>
+        <v>18.671551665649</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="2"/>
@@ -2931,7 +3566,7 @@
       </c>
       <c r="M7" s="12">
         <f t="shared" si="3"/>
-        <v>14.663256606990601</v>
+        <v>14.6632566069906</v>
       </c>
       <c r="N7" s="12">
         <f t="shared" si="4"/>
@@ -2939,11 +3574,11 @@
       </c>
       <c r="O7" s="12">
         <f t="shared" si="5"/>
-        <v>13.490196078431399</v>
+        <v>13.4901960784314</v>
       </c>
       <c r="P7" s="13">
         <f t="shared" si="6"/>
-        <v>22.933333333333302</v>
+        <v>22.9333333333333</v>
       </c>
       <c r="Q7" s="1">
         <v>1</v>
@@ -2952,7 +3587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="78" customHeight="1">
+    <row r="8" ht="78" customHeight="1" spans="2:18">
       <c r="B8">
         <v>16080401</v>
       </c>
@@ -2979,11 +3614,11 @@
       </c>
       <c r="J8" s="10">
         <f t="shared" si="0"/>
-        <v>35.585837595907897</v>
+        <v>35.5858375959079</v>
       </c>
       <c r="K8" s="11">
         <f t="shared" si="1"/>
-        <v>38.516435986159202</v>
+        <v>38.5164359861592</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="2"/>
@@ -2991,19 +3626,19 @@
       </c>
       <c r="M8" s="12">
         <f t="shared" si="3"/>
-        <v>17.792918797954002</v>
+        <v>17.792918797954</v>
       </c>
       <c r="N8" s="12">
         <f t="shared" si="4"/>
-        <v>19.258217993079601</v>
+        <v>19.2582179930796</v>
       </c>
       <c r="O8" s="12">
         <f t="shared" si="5"/>
-        <v>16.369485294117599</v>
+        <v>16.3694852941176</v>
       </c>
       <c r="P8" s="13">
         <f t="shared" si="6"/>
-        <v>22.262499999999999</v>
+        <v>22.2625</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -3012,7 +3647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="92.25" customHeight="1">
+    <row r="9" ht="92.25" customHeight="1" spans="2:18">
       <c r="B9">
         <v>16100801</v>
       </c>
@@ -3039,11 +3674,11 @@
       </c>
       <c r="J9" s="10">
         <f t="shared" si="0"/>
-        <v>21.059782608695599</v>
+        <v>21.0597826086956</v>
       </c>
       <c r="K9" s="11">
         <f t="shared" si="1"/>
-        <v>22.794117647058801</v>
+        <v>22.7941176470588</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="2"/>
@@ -3051,11 +3686,11 @@
       </c>
       <c r="M9" s="12">
         <f t="shared" si="3"/>
-        <v>16.847826086956498</v>
+        <v>16.8478260869565</v>
       </c>
       <c r="N9" s="12">
         <f t="shared" si="4"/>
-        <v>18.235294117647101</v>
+        <v>18.2352941176471</v>
       </c>
       <c r="O9" s="12">
         <f t="shared" si="5"/>
@@ -3072,7 +3707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="89.25" customHeight="1">
+    <row r="10" ht="89.25" customHeight="1" spans="2:18">
       <c r="B10">
         <v>16100901</v>
       </c>
@@ -3099,11 +3734,11 @@
       </c>
       <c r="J10" s="10">
         <f t="shared" si="0"/>
-        <v>37.388868590914598</v>
+        <v>37.3888685909146</v>
       </c>
       <c r="K10" s="11">
         <f t="shared" si="1"/>
-        <v>40.467951886637003</v>
+        <v>40.467951886637</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="2"/>
@@ -3111,7 +3746,7 @@
       </c>
       <c r="M10" s="12">
         <f t="shared" si="3"/>
-        <v>26.172208013640201</v>
+        <v>26.1722080136402</v>
       </c>
       <c r="N10" s="12">
         <f t="shared" si="4"/>
@@ -3119,11 +3754,11 @@
       </c>
       <c r="O10" s="12">
         <f t="shared" si="5"/>
-        <v>24.078431372549002</v>
+        <v>24.078431372549</v>
       </c>
       <c r="P10" s="13">
         <f t="shared" si="6"/>
-        <v>40.933333333333302</v>
+        <v>40.9333333333333</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -3132,7 +3767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="95.25" customHeight="1">
+    <row r="11" ht="95.25" customHeight="1" spans="2:18">
       <c r="B11">
         <v>16101601</v>
       </c>
@@ -3159,15 +3794,15 @@
       </c>
       <c r="J11" s="10">
         <f t="shared" si="0"/>
-        <v>32.796750413720503</v>
+        <v>32.7967504137205</v>
       </c>
       <c r="K11" s="11">
         <f t="shared" si="1"/>
-        <v>35.497659271320998</v>
+        <v>35.497659271321</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="2"/>
-        <v>130.80000000000001</v>
+        <v>130.8</v>
       </c>
       <c r="M11" s="12">
         <f t="shared" si="3"/>
@@ -3175,11 +3810,11 @@
       </c>
       <c r="N11" s="12">
         <f t="shared" si="4"/>
-        <v>30.173010380622799</v>
+        <v>30.1730103806228</v>
       </c>
       <c r="O11" s="12">
         <f t="shared" si="5"/>
-        <v>25.647058823529399</v>
+        <v>25.6470588235294</v>
       </c>
       <c r="P11" s="13">
         <f t="shared" si="6"/>
@@ -3192,7 +3827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="81.75" customHeight="1">
+    <row r="12" ht="81.75" customHeight="1" spans="2:18">
       <c r="B12">
         <v>16101602</v>
       </c>
@@ -3219,7 +3854,7 @@
       </c>
       <c r="J12" s="10">
         <f t="shared" si="0"/>
-        <v>32.858757659419602</v>
+        <v>32.8587576594196</v>
       </c>
       <c r="K12" s="11">
         <f t="shared" si="1"/>
@@ -3227,23 +3862,23 @@
       </c>
       <c r="L12" s="1">
         <f t="shared" si="2"/>
-        <v>129.30000000000001</v>
+        <v>129.3</v>
       </c>
       <c r="M12" s="12">
         <f t="shared" si="3"/>
-        <v>27.929944010506699</v>
+        <v>27.9299440105067</v>
       </c>
       <c r="N12" s="12">
         <f t="shared" si="4"/>
-        <v>30.230057046666001</v>
+        <v>30.230057046666</v>
       </c>
       <c r="O12" s="12">
         <f t="shared" si="5"/>
-        <v>25.695548489666098</v>
+        <v>25.6955484896661</v>
       </c>
       <c r="P12" s="13">
         <f t="shared" si="6"/>
-        <v>45.429729729729701</v>
+        <v>45.4297297297297</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3252,7 +3887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="89.1" customHeight="1">
+    <row r="13" ht="89.1" customHeight="1" spans="2:18">
       <c r="B13">
         <v>16101701</v>
       </c>
@@ -3299,11 +3934,11 @@
       </c>
       <c r="O13" s="12">
         <f t="shared" si="5"/>
-        <v>11.872549019607799</v>
+        <v>11.8725490196078</v>
       </c>
       <c r="P13" s="13">
         <f t="shared" si="6"/>
-        <v>20.183333333333302</v>
+        <v>20.1833333333333</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -3312,7 +3947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="84" customHeight="1">
+    <row r="14" ht="84" customHeight="1" spans="2:18">
       <c r="B14">
         <v>16101703</v>
       </c>
@@ -3339,27 +3974,27 @@
       </c>
       <c r="J14" s="10">
         <f t="shared" si="0"/>
-        <v>59.590792838874698</v>
+        <v>59.5907928388747</v>
       </c>
       <c r="K14" s="11">
         <f t="shared" si="1"/>
-        <v>64.498269896193804</v>
+        <v>64.4982698961938</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="2"/>
-        <v>139.80000000000001</v>
+        <v>139.8</v>
       </c>
       <c r="M14" s="12">
         <f t="shared" si="3"/>
-        <v>29.795396419437299</v>
+        <v>29.7953964194373</v>
       </c>
       <c r="N14" s="12">
         <f t="shared" si="4"/>
-        <v>32.249134948096902</v>
+        <v>32.2491349480969</v>
       </c>
       <c r="O14" s="12">
         <f t="shared" si="5"/>
-        <v>27.411764705882401</v>
+        <v>27.4117647058824</v>
       </c>
       <c r="P14" s="13">
         <f t="shared" si="6"/>
@@ -3372,7 +4007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="90.75" customHeight="1">
+    <row r="15" ht="90.75" customHeight="1" spans="2:18">
       <c r="B15">
         <v>16101702</v>
       </c>
@@ -3398,32 +4033,32 @@
         <v>0.15</v>
       </c>
       <c r="J15" s="10">
-        <f>(E15+F15+(Sheet1!$K$47*H15+Sheet1!$M$47)*Sheet1!$L$47)/(1-G15)/(1-Sheet1!$O$47)/(1-I15)/Sheet1!$N$47</f>
-        <v>23.017902813299234</v>
+        <f>(E15+F15+(Sheet1!$K$48*H15+Sheet1!$M$48)*Sheet1!$L$48)/(1-G15)/(1-Sheet1!$O$48)/(1-I15)/Sheet1!$N$48</f>
+        <v>23.0179028132992</v>
       </c>
       <c r="K15" s="11">
-        <f>(E15+F15+(Sheet1!$K$47*H15+Sheet1!$M$47)*Sheet1!$L$47)/(1-G15)/(1-Sheet1!$P$47)/(1-I15)/Sheet1!$N$47</f>
-        <v>24.913494809688583</v>
+        <f>(E15+F15+(Sheet1!$K$48*H15+Sheet1!$M$48)*Sheet1!$L$48)/(1-G15)/(1-Sheet1!$P$48)/(1-I15)/Sheet1!$N$48</f>
+        <v>24.9134948096886</v>
       </c>
       <c r="L15" s="1">
-        <f>E15+F15+(Sheet1!$K$47*H15+Sheet1!$M$47)*Sheet1!$L$47</f>
+        <f>E15+F15+(Sheet1!$K$48*H15+Sheet1!$M$48)*Sheet1!$L$48</f>
         <v>91.8</v>
       </c>
       <c r="M15" s="12">
-        <f>L15/(1-G15)/(1-Sheet1!$O$47)/Sheet1!$N$47</f>
-        <v>19.565217391304348</v>
+        <f>L15/(1-G15)/(1-Sheet1!$O$48)/Sheet1!$N$48</f>
+        <v>19.5652173913043</v>
       </c>
       <c r="N15" s="12">
-        <f>L15/(1-G15)/(1-Sheet1!$P$47)/Sheet1!$N$47</f>
-        <v>21.176470588235293</v>
+        <f>L15/(1-G15)/(1-Sheet1!$P$48)/Sheet1!$N$48</f>
+        <v>21.1764705882353</v>
       </c>
       <c r="O15" s="12">
-        <f>L15/(1-G15)/Sheet1!$N$47</f>
+        <f>L15/(1-G15)/Sheet1!$N$48</f>
         <v>18</v>
       </c>
       <c r="P15" s="13">
-        <f>O15*Sheet1!$N$47-L15</f>
-        <v>30.599999999999994</v>
+        <f>O15*Sheet1!$N$48-L15</f>
+        <v>30.6</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -3432,7 +4067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="90.75" customHeight="1">
+    <row r="16" ht="90.75" customHeight="1" spans="2:18">
       <c r="B16">
         <v>16101901</v>
       </c>
@@ -3458,32 +4093,32 @@
         <v>0.25</v>
       </c>
       <c r="J16" s="10">
-        <f>(E16+F16+(Sheet1!$K$47*H16+Sheet1!$M$47)*Sheet1!$L$47)/(1-G16)/(1-Sheet1!$O$47)/(1-I16)/Sheet1!$N$47</f>
-        <v>11.668797953964194</v>
+        <f>(E16+F16+(Sheet1!$K$48*H16+Sheet1!$M$48)*Sheet1!$L$48)/(1-G16)/(1-Sheet1!$O$48)/(1-I16)/Sheet1!$N$48</f>
+        <v>11.6687979539642</v>
       </c>
       <c r="K16" s="11">
-        <f>(E16+F16+(Sheet1!$K$47*H16+Sheet1!$M$47)*Sheet1!$L$47)/(1-G16)/(1-Sheet1!$P$47)/(1-I16)/Sheet1!$N$47</f>
-        <v>12.629757785467127</v>
+        <f>(E16+F16+(Sheet1!$K$48*H16+Sheet1!$M$48)*Sheet1!$L$48)/(1-G16)/(1-Sheet1!$P$48)/(1-I16)/Sheet1!$N$48</f>
+        <v>12.6297577854671</v>
       </c>
       <c r="L16" s="1">
-        <f>E16+F16+(Sheet1!$K$47*H16+Sheet1!$M$47)*Sheet1!$L$47</f>
+        <f>E16+F16+(Sheet1!$K$48*H16+Sheet1!$M$48)*Sheet1!$L$48</f>
         <v>43.8</v>
       </c>
       <c r="M16" s="12">
-        <f>L16/(1-G16)/(1-Sheet1!$O$47)/Sheet1!$N$47</f>
-        <v>8.751598465473144</v>
+        <f>L16/(1-G16)/(1-Sheet1!$O$48)/Sheet1!$N$48</f>
+        <v>8.75159846547314</v>
       </c>
       <c r="N16" s="12">
-        <f>L16/(1-G16)/(1-Sheet1!$P$47)/Sheet1!$N$47</f>
-        <v>9.4723183391003456</v>
+        <f>L16/(1-G16)/(1-Sheet1!$P$48)/Sheet1!$N$48</f>
+        <v>9.47231833910035</v>
       </c>
       <c r="O16" s="12">
-        <f>L16/(1-G16)/Sheet1!$N$47</f>
-        <v>8.0514705882352935</v>
+        <f>L16/(1-G16)/Sheet1!$N$48</f>
+        <v>8.05147058823529</v>
       </c>
       <c r="P16" s="13">
-        <f>O16*Sheet1!$N$47-L16</f>
-        <v>10.949999999999996</v>
+        <f>O16*Sheet1!$N$48-L16</f>
+        <v>10.95</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -3492,7 +4127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="90.75" customHeight="1">
+    <row r="17" ht="90.75" customHeight="1" spans="2:18">
       <c r="B17">
         <v>16110801</v>
       </c>
@@ -3519,11 +4154,11 @@
       </c>
       <c r="J17" s="10">
         <f>(E17+F17+([1]Sheet1!$K$26*H17+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G17)/(1-[1]Sheet1!$O$26)/(1-I17)/[1]Sheet1!$N$26</f>
-        <v>16.101573005597775</v>
+        <v>16.1015730055978</v>
       </c>
       <c r="K17" s="11">
         <f>(E17+F17+([1]Sheet1!$K$26*H17+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G17)/(1-[1]Sheet1!$P$26)/(1-I17)/[1]Sheet1!$N$26</f>
-        <v>17.995875712138687</v>
+        <v>17.9958757121387</v>
       </c>
       <c r="L17" s="1">
         <f>E17+F17+([1]Sheet1!$K$26*H17+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -3531,19 +4166,19 @@
       </c>
       <c r="M17" s="12">
         <f>L17/(1-G17)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>13.686337054758109</v>
+        <v>13.6863370547581</v>
       </c>
       <c r="N17" s="12">
         <f>L17/(1-G17)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>15.296494355317884</v>
+        <v>15.2964943553179</v>
       </c>
       <c r="O17" s="12">
         <f>L17/(1-G17)/[1]Sheet1!$N$26</f>
-        <v>13.002020202020203</v>
+        <v>13.0020202020202</v>
       </c>
       <c r="P17" s="13">
         <f>O17*[1]Sheet1!$N$26-L17</f>
-        <v>21.453333333333333</v>
+        <v>21.4533333333333</v>
       </c>
       <c r="Q17" s="14">
         <v>0.15</v>
@@ -3552,7 +4187,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="18" spans="2:18" ht="90.75" customHeight="1">
+    <row r="18" ht="90.75" customHeight="1" spans="2:18">
       <c r="B18">
         <v>16110802</v>
       </c>
@@ -3579,11 +4214,11 @@
       </c>
       <c r="J18" s="10">
         <f>(E18+F18+([1]Sheet1!$K$26*H18+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G18)/(1-[1]Sheet1!$O$26)/(1-I18)/[1]Sheet1!$N$26</f>
-        <v>16.101573005597775</v>
+        <v>16.1015730055978</v>
       </c>
       <c r="K18" s="11">
         <f>(E18+F18+([1]Sheet1!$K$26*H18+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G18)/(1-[1]Sheet1!$P$26)/(1-I18)/[1]Sheet1!$N$26</f>
-        <v>17.995875712138687</v>
+        <v>17.9958757121387</v>
       </c>
       <c r="L18" s="1">
         <f>E18+F18+([1]Sheet1!$K$26*H18+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -3591,19 +4226,19 @@
       </c>
       <c r="M18" s="12">
         <f>L18/(1-G18)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>13.686337054758109</v>
+        <v>13.6863370547581</v>
       </c>
       <c r="N18" s="12">
         <f>L18/(1-G18)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>15.296494355317884</v>
+        <v>15.2964943553179</v>
       </c>
       <c r="O18" s="12">
         <f>L18/(1-G18)/[1]Sheet1!$N$26</f>
-        <v>13.002020202020203</v>
+        <v>13.0020202020202</v>
       </c>
       <c r="P18" s="13">
         <f>O18*[1]Sheet1!$N$26-L18</f>
-        <v>21.453333333333333</v>
+        <v>21.4533333333333</v>
       </c>
       <c r="Q18" s="14">
         <v>0.15</v>
@@ -3612,15 +4247,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="2:18" ht="90.75" customHeight="1">
+    <row r="19" ht="90.75" customHeight="1" spans="2:18">
       <c r="B19">
         <v>16110901</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E19">
         <v>18.5</v>
@@ -3639,11 +4274,11 @@
       </c>
       <c r="J19" s="10">
         <f>(E19+F19+([1]Sheet1!$K$26*H19+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G19)/(1-[1]Sheet1!$O$26)/(1-I19)/[1]Sheet1!$N$26</f>
-        <v>16.740031897926634</v>
+        <v>16.7400318979266</v>
       </c>
       <c r="K19" s="11">
         <f>(E19+F19+([1]Sheet1!$K$26*H19+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G19)/(1-[1]Sheet1!$P$26)/(1-I19)/[1]Sheet1!$N$26</f>
-        <v>18.70944741532977</v>
+        <v>18.7094474153298</v>
       </c>
       <c r="L19" s="1">
         <f>E19+F19+([1]Sheet1!$K$26*H19+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -3651,19 +4286,19 @@
       </c>
       <c r="M19" s="12">
         <f>L19/(1-G19)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>8.3700159489633172</v>
+        <v>8.37001594896332</v>
       </c>
       <c r="N19" s="12">
         <f>L19/(1-G19)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>9.3547237076648848</v>
+        <v>9.35472370766488</v>
       </c>
       <c r="O19" s="12">
         <f>L19/(1-G19)/[1]Sheet1!$N$26</f>
-        <v>7.9515151515151512</v>
+        <v>7.95151515151515</v>
       </c>
       <c r="P19" s="13">
         <f>O19*[1]Sheet1!$N$26-L19</f>
-        <v>13.119999999999997</v>
+        <v>13.12</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -3672,7 +4307,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:18" ht="90.75" customHeight="1">
+    <row r="20" ht="90.75" customHeight="1" spans="2:18">
       <c r="B20">
         <v>16111001</v>
       </c>
@@ -3680,7 +4315,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E20">
         <v>25.5</v>
@@ -3699,11 +4334,11 @@
       </c>
       <c r="J20" s="10">
         <f>(E20+F20+([1]Sheet1!$K$26*H20+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G20)/(1-[1]Sheet1!$O$26)/(1-I20)/[1]Sheet1!$N$26</f>
-        <v>18.124098124098129</v>
+        <v>18.1240981240981</v>
       </c>
       <c r="K20" s="11">
         <f>(E20+F20+([1]Sheet1!$K$26*H20+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G20)/(1-[1]Sheet1!$P$26)/(1-I20)/[1]Sheet1!$N$26</f>
-        <v>20.256344962227317</v>
+        <v>20.2563449622273</v>
       </c>
       <c r="L20" s="1">
         <f>E20+F20+([1]Sheet1!$K$26*H20+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -3711,25 +4346,25 @@
       </c>
       <c r="M20" s="12">
         <f>L20/(1-G20)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>12.686868686868687</v>
+        <v>12.6868686868687</v>
       </c>
       <c r="N20" s="12">
         <f>L20/(1-G20)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>14.179441473559123</v>
+        <v>14.1794414735591</v>
       </c>
       <c r="O20" s="12">
         <f>L20/(1-G20)/[1]Sheet1!$N$26</f>
-        <v>12.052525252525253</v>
+        <v>12.0525252525253</v>
       </c>
       <c r="P20" s="13">
         <f>O20*[1]Sheet1!$N$26-L20</f>
-        <v>19.88666666666667</v>
+        <v>19.8866666666667</v>
       </c>
       <c r="R20">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="2:18" ht="90.75" customHeight="1">
+    <row r="21" ht="90.75" customHeight="1" spans="2:18">
       <c r="B21">
         <v>16111901</v>
       </c>
@@ -3737,7 +4372,7 @@
         <v>21</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E21">
         <v>34</v>
@@ -3756,11 +4391,11 @@
       </c>
       <c r="J21" s="10">
         <f>(E21+F21+([1]Sheet1!$K$26*H21+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G21)/(1-[1]Sheet1!$O$26)/(1-I21)/[1]Sheet1!$N$26</f>
-        <v>25.541539799913004</v>
+        <v>25.541539799913</v>
       </c>
       <c r="K21" s="11">
         <f>(E21+F21+([1]Sheet1!$K$26*H21+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G21)/(1-[1]Sheet1!$P$26)/(1-I21)/[1]Sheet1!$N$26</f>
-        <v>28.54642683519689</v>
+        <v>28.5464268351969</v>
       </c>
       <c r="L21" s="1">
         <f>E21+F21+([1]Sheet1!$K$26*H21+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -3768,25 +4403,25 @@
       </c>
       <c r="M21" s="12">
         <f>L21/(1-G21)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.047846889952154</v>
+        <v>14.0478468899522</v>
       </c>
       <c r="N21" s="12">
         <f>L21/(1-G21)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>15.700534759358289</v>
+        <v>15.7005347593583</v>
       </c>
       <c r="O21" s="12">
         <f>L21/(1-G21)/[1]Sheet1!$N$26</f>
-        <v>13.345454545454546</v>
+        <v>13.3454545454545</v>
       </c>
       <c r="P21" s="13">
         <f>O21*[1]Sheet1!$N$26-L21</f>
-        <v>22.019999999999996</v>
+        <v>22.02</v>
       </c>
       <c r="R21">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:18" ht="90.95" customHeight="1">
+    <row r="22" ht="90.95" customHeight="1" spans="2:18">
       <c r="B22">
         <v>16112001</v>
       </c>
@@ -3794,7 +4429,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E22">
         <v>34</v>
@@ -3813,11 +4448,11 @@
       </c>
       <c r="J22" s="10">
         <f>(E22+F22+([1]Sheet1!$K$26*H22+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G22)/(1-[1]Sheet1!$O$26)/(1-I22)/[1]Sheet1!$N$26</f>
-        <v>25.541539799913004</v>
+        <v>25.541539799913</v>
       </c>
       <c r="K22" s="11">
         <f>(E22+F22+([1]Sheet1!$K$26*H22+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G22)/(1-[1]Sheet1!$P$26)/(1-I22)/[1]Sheet1!$N$26</f>
-        <v>28.54642683519689</v>
+        <v>28.5464268351969</v>
       </c>
       <c r="L22" s="1">
         <f>E22+F22+([1]Sheet1!$K$26*H22+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -3825,25 +4460,25 @@
       </c>
       <c r="M22" s="12">
         <f>L22/(1-G22)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.047846889952154</v>
+        <v>14.0478468899522</v>
       </c>
       <c r="N22" s="12">
         <f>L22/(1-G22)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>15.700534759358289</v>
+        <v>15.7005347593583</v>
       </c>
       <c r="O22" s="12">
         <f>L22/(1-G22)/[1]Sheet1!$N$26</f>
-        <v>13.345454545454546</v>
+        <v>13.3454545454545</v>
       </c>
       <c r="P22" s="13">
         <f>O22*[1]Sheet1!$N$26-L22</f>
-        <v>22.019999999999996</v>
+        <v>22.02</v>
       </c>
       <c r="R22">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="2:18" ht="90.95" customHeight="1">
+    <row r="23" ht="90.95" customHeight="1" spans="2:18">
       <c r="B23">
         <v>16112002</v>
       </c>
@@ -3851,7 +4486,7 @@
         <v>21</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E23">
         <v>38</v>
@@ -3870,11 +4505,11 @@
       </c>
       <c r="J23" s="10">
         <f>(E23+F23+([1]Sheet1!$K$26*H23+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G23)/(1-[1]Sheet1!$O$26)/(1-I23)/[1]Sheet1!$N$26</f>
-        <v>27.088105939780586</v>
+        <v>27.0881059397806</v>
       </c>
       <c r="K23" s="11">
         <f>(E23+F23+([1]Sheet1!$K$26*H23+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G23)/(1-[1]Sheet1!$P$26)/(1-I23)/[1]Sheet1!$N$26</f>
-        <v>30.274941932695945</v>
+        <v>30.2749419326959</v>
       </c>
       <c r="L23" s="1">
         <f>E23+F23+([1]Sheet1!$K$26*H23+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -3882,25 +4517,25 @@
       </c>
       <c r="M23" s="12">
         <f>L23/(1-G23)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.898458266879324</v>
+        <v>14.8984582668793</v>
       </c>
       <c r="N23" s="12">
         <f>L23/(1-G23)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>16.651218062982771</v>
+        <v>16.6512180629828</v>
       </c>
       <c r="O23" s="12">
         <f>L23/(1-G23)/[1]Sheet1!$N$26</f>
-        <v>14.153535353535355</v>
+        <v>14.1535353535354</v>
       </c>
       <c r="P23" s="13">
         <f>O23*[1]Sheet1!$N$26-L23</f>
-        <v>23.353333333333339</v>
+        <v>23.3533333333333</v>
       </c>
       <c r="R23">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="2:18" ht="90.75" customHeight="1">
+    <row r="24" ht="90.75" customHeight="1" spans="2:18">
       <c r="B24">
         <v>16112003</v>
       </c>
@@ -3908,7 +4543,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E24">
         <v>35</v>
@@ -3927,11 +4562,11 @@
       </c>
       <c r="J24" s="10">
         <f>(E24+F24+([1]Sheet1!$K$26*H24+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G24)/(1-[1]Sheet1!$O$26)/(1-I24)/[1]Sheet1!$N$26</f>
-        <v>25.928181334879902</v>
+        <v>25.9281813348799</v>
       </c>
       <c r="K24" s="11">
         <f>(E24+F24+([1]Sheet1!$K$26*H24+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G24)/(1-[1]Sheet1!$P$26)/(1-I24)/[1]Sheet1!$N$26</f>
-        <v>28.978555609571654</v>
+        <v>28.9785556095717</v>
       </c>
       <c r="L24" s="1">
         <f>E24+F24+([1]Sheet1!$K$26*H24+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -3939,25 +4574,25 @@
       </c>
       <c r="M24" s="12">
         <f>L24/(1-G24)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.260499734183947</v>
+        <v>14.2604997341839</v>
       </c>
       <c r="N24" s="12">
         <f>L24/(1-G24)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>15.938205585264411</v>
+        <v>15.9382055852644</v>
       </c>
       <c r="O24" s="12">
         <f>L24/(1-G24)/[1]Sheet1!$N$26</f>
-        <v>13.54747474747475</v>
+        <v>13.5474747474747</v>
       </c>
       <c r="P24" s="13">
         <f>O24*[1]Sheet1!$N$26-L24</f>
-        <v>22.353333333333339</v>
+        <v>22.3533333333333</v>
       </c>
       <c r="R24">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:18" ht="90.75" customHeight="1">
+    <row r="25" ht="90.75" customHeight="1" spans="2:18">
       <c r="B25">
         <v>16112301</v>
       </c>
@@ -3965,7 +4600,7 @@
         <v>28</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E25">
         <v>32</v>
@@ -3984,27 +4619,27 @@
       </c>
       <c r="J25" s="10">
         <f>(E25+F25+([1]Sheet1!$K$26*H25+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G25)/(1-[1]Sheet1!$O$26)/(1-I25)/[1]Sheet1!$N$26</f>
-        <v>24.901648059542801</v>
+        <v>24.9016480595428</v>
       </c>
       <c r="K25" s="11">
         <f>(E25+F25+([1]Sheet1!$K$26*H25+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G25)/(1-[1]Sheet1!$P$26)/(1-I25)/[1]Sheet1!$N$26</f>
-        <v>27.831253713606657</v>
+        <v>27.8312537136067</v>
       </c>
       <c r="L25" s="1">
         <f>E25+F25+([1]Sheet1!$K$26*H25+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
-        <v>70.259999999999991</v>
+        <v>70.26</v>
       </c>
       <c r="M25" s="12">
         <f>L25/(1-G25)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.940988835725678</v>
+        <v>14.9409888357257</v>
       </c>
       <c r="N25" s="12">
         <f>L25/(1-G25)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>16.698752228163993</v>
+        <v>16.698752228164</v>
       </c>
       <c r="O25" s="12">
         <f>L25/(1-G25)/[1]Sheet1!$N$26</f>
-        <v>14.193939393939393</v>
+        <v>14.1939393939394</v>
       </c>
       <c r="P25" s="13">
         <f>O25*[1]Sheet1!$N$26-L25</f>
@@ -4014,7 +4649,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="2:18" ht="90.75" customHeight="1">
+    <row r="26" ht="90.75" customHeight="1" spans="2:18">
       <c r="B26">
         <v>16112302</v>
       </c>
@@ -4022,7 +4657,7 @@
         <v>28</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E26">
         <v>33</v>
@@ -4045,7 +4680,7 @@
       </c>
       <c r="K26" s="11">
         <f>(E26+F26+([1]Sheet1!$K$26*H26+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G26)/(1-[1]Sheet1!$P$26)/(1-I26)/[1]Sheet1!$N$26</f>
-        <v>24.979203802733217</v>
+        <v>24.9792038027332</v>
       </c>
       <c r="L26" s="1">
         <f>E26+F26+([1]Sheet1!$K$26*H26+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -4053,25 +4688,25 @@
       </c>
       <c r="M26" s="12">
         <f>L26/(1-G26)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>13.409888357256781</v>
+        <v>13.4098883572568</v>
       </c>
       <c r="N26" s="12">
         <f>L26/(1-G26)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>14.987522281639929</v>
+        <v>14.9875222816399</v>
       </c>
       <c r="O26" s="12">
         <f>L26/(1-G26)/[1]Sheet1!$N$26</f>
-        <v>12.73939393939394</v>
+        <v>12.7393939393939</v>
       </c>
       <c r="P26" s="13">
         <f>O26*[1]Sheet1!$N$26-L26</f>
-        <v>21.019999999999996</v>
+        <v>21.02</v>
       </c>
       <c r="R26">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="2:18" ht="90.75" customHeight="1">
+    <row r="27" ht="90.75" customHeight="1" spans="2:18">
       <c r="B27">
         <v>16112401</v>
       </c>
@@ -4079,7 +4714,7 @@
         <v>28</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E27">
         <v>35</v>
@@ -4098,31 +4733,31 @@
       </c>
       <c r="J27" s="10">
         <f>(E27+F27+([1]Sheet1!$K$26*H27+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G27)/(1-[1]Sheet1!$O$26)/(1-I27)/[1]Sheet1!$N$26</f>
-        <v>19.017240069871651</v>
+        <v>19.0172400698717</v>
       </c>
       <c r="K27" s="11">
         <f>(E27+F27+([1]Sheet1!$K$26*H27+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G27)/(1-[1]Sheet1!$P$26)/(1-I27)/[1]Sheet1!$N$26</f>
-        <v>21.254562431033019</v>
+        <v>21.254562431033</v>
       </c>
       <c r="L27" s="1">
         <f>E27+F27+([1]Sheet1!$K$26*H27+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
-        <v>62.599999999999994</v>
+        <v>62.6</v>
       </c>
       <c r="M27" s="12">
         <f>L27/(1-G27)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>13.312068048910154</v>
+        <v>13.3120680489102</v>
       </c>
       <c r="N27" s="12">
         <f>L27/(1-G27)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>14.878193701723113</v>
+        <v>14.8781937017231</v>
       </c>
       <c r="O27" s="12">
         <f>L27/(1-G27)/[1]Sheet1!$N$26</f>
-        <v>12.646464646464645</v>
+        <v>12.6464646464646</v>
       </c>
       <c r="P27" s="13">
         <f>O27*[1]Sheet1!$N$26-L27</f>
-        <v>20.86666666666666</v>
+        <v>20.8666666666667</v>
       </c>
       <c r="Q27">
         <v>40</v>
@@ -4131,7 +4766,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="2:18" ht="90.75" customHeight="1">
+    <row r="28" ht="90.75" customHeight="1" spans="2:18">
       <c r="B28">
         <v>16112501</v>
       </c>
@@ -4139,7 +4774,7 @@
         <v>23</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E28">
         <v>26</v>
@@ -4158,31 +4793,31 @@
       </c>
       <c r="J28" s="10">
         <f>(E28+F28+([1]Sheet1!$K$26*H28+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G28)/(1-[1]Sheet1!$O$26)/(1-I28)/[1]Sheet1!$N$26</f>
-        <v>28.016045623701128</v>
+        <v>28.0160456237011</v>
       </c>
       <c r="K28" s="11">
         <f>(E28+F28+([1]Sheet1!$K$26*H28+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G28)/(1-[1]Sheet1!$P$26)/(1-I28)/[1]Sheet1!$N$26</f>
-        <v>31.312050991195381</v>
+        <v>31.3120509911954</v>
       </c>
       <c r="L28" s="1">
         <f>E28+F28+([1]Sheet1!$K$26*H28+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
-        <v>72.460000000000008</v>
+        <v>72.46</v>
       </c>
       <c r="M28" s="12">
         <f>L28/(1-G28)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>15.408825093035622</v>
+        <v>15.4088250930356</v>
       </c>
       <c r="N28" s="12">
         <f>L28/(1-G28)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>17.221628045157463</v>
+        <v>17.2216280451575</v>
       </c>
       <c r="O28" s="12">
         <f>L28/(1-G28)/[1]Sheet1!$N$26</f>
-        <v>14.638383838383842</v>
+        <v>14.6383838383838</v>
       </c>
       <c r="P28" s="13">
         <f>O28*[1]Sheet1!$N$26-L28</f>
-        <v>24.153333333333336</v>
+        <v>24.1533333333333</v>
       </c>
       <c r="Q28">
         <v>45</v>
@@ -4191,7 +4826,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="2:18" ht="90.75" customHeight="1">
+    <row r="29" ht="90.75" customHeight="1" spans="2:18">
       <c r="B29">
         <v>16112801</v>
       </c>
@@ -4199,7 +4834,7 @@
         <v>38</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E29">
         <v>30</v>
@@ -4218,31 +4853,31 @@
       </c>
       <c r="J29" s="10">
         <f>(E29+F29+([1]Sheet1!$K$26*H29+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G29)/(1-[1]Sheet1!$O$26)/(1-I29)/[1]Sheet1!$N$26</f>
-        <v>21.112174375332273</v>
+        <v>21.1121743753323</v>
       </c>
       <c r="K29" s="11">
         <f>(E29+F29+([1]Sheet1!$K$26*H29+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G29)/(1-[1]Sheet1!$P$26)/(1-I29)/[1]Sheet1!$N$26</f>
-        <v>23.595959595959602</v>
+        <v>23.5959595959596</v>
       </c>
       <c r="L29" s="1">
         <f>E29+F29+([1]Sheet1!$K$26*H29+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
-        <v>74.460000000000008</v>
+        <v>74.46</v>
       </c>
       <c r="M29" s="12">
         <f>L29/(1-G29)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>15.834130781499207</v>
+        <v>15.8341307814992</v>
       </c>
       <c r="N29" s="12">
         <f>L29/(1-G29)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>17.696969696969703</v>
+        <v>17.6969696969697</v>
       </c>
       <c r="O29" s="12">
         <f>L29/(1-G29)/[1]Sheet1!$N$26</f>
-        <v>15.042424242424245</v>
+        <v>15.0424242424242</v>
       </c>
       <c r="P29" s="13">
         <f>O29*[1]Sheet1!$N$26-L29</f>
-        <v>24.820000000000007</v>
+        <v>24.82</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -4251,7 +4886,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="2:18" ht="90.75" customHeight="1">
+    <row r="30" ht="90.75" customHeight="1" spans="2:18">
       <c r="B30">
         <v>16112901</v>
       </c>
@@ -4259,7 +4894,7 @@
         <v>23</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E30">
         <v>25</v>
@@ -4278,11 +4913,11 @@
       </c>
       <c r="J30" s="10">
         <f>(E30+F30+([1]Sheet1!$K$26*H30+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G30)/(1-[1]Sheet1!$O$26)/(1-I30)/[1]Sheet1!$N$26</f>
-        <v>26.044173795369968</v>
+        <v>26.04417379537</v>
       </c>
       <c r="K30" s="11">
         <f>(E30+F30+([1]Sheet1!$K$26*H30+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G30)/(1-[1]Sheet1!$P$26)/(1-I30)/[1]Sheet1!$N$26</f>
-        <v>29.108194241884085</v>
+        <v>29.1081942418841</v>
       </c>
       <c r="L30" s="1">
         <f>E30+F30+([1]Sheet1!$K$26*H30+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -4290,19 +4925,19 @@
       </c>
       <c r="M30" s="12">
         <f>L30/(1-G30)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.324295587453484</v>
+        <v>14.3242955874535</v>
       </c>
       <c r="N30" s="12">
         <f>L30/(1-G30)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>16.009506833036248</v>
+        <v>16.0095068330362</v>
       </c>
       <c r="O30" s="12">
         <f>L30/(1-G30)/[1]Sheet1!$N$26</f>
-        <v>13.608080808080809</v>
+        <v>13.6080808080808</v>
       </c>
       <c r="P30" s="13">
         <f>O30*[1]Sheet1!$N$26-L30</f>
-        <v>22.453333333333333</v>
+        <v>22.4533333333333</v>
       </c>
       <c r="Q30">
         <v>30</v>
@@ -4311,7 +4946,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="2:18" ht="90.75" customHeight="1">
+    <row r="31" ht="90.75" customHeight="1" spans="2:18">
       <c r="B31">
         <v>16113001</v>
       </c>
@@ -4319,7 +4954,7 @@
         <v>23</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E31">
         <v>15</v>
@@ -4338,11 +4973,11 @@
       </c>
       <c r="J31" s="10">
         <f>(E31+F31+([1]Sheet1!$K$26*H31+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G31)/(1-[1]Sheet1!$O$26)/(1-I31)/[1]Sheet1!$N$26</f>
-        <v>12.509303561935141</v>
+        <v>12.5093035619351</v>
       </c>
       <c r="K31" s="11">
         <f>(E31+F31+([1]Sheet1!$K$26*H31+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G31)/(1-[1]Sheet1!$P$26)/(1-I31)/[1]Sheet1!$N$26</f>
-        <v>13.980986333927513</v>
+        <v>13.9809863339275</v>
       </c>
       <c r="L31" s="1">
         <f>E31+F31+([1]Sheet1!$K$26*H31+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -4350,19 +4985,19 @@
       </c>
       <c r="M31" s="12">
         <f>L31/(1-G31)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>10.007442849548115</v>
+        <v>10.0074428495481</v>
       </c>
       <c r="N31" s="12">
         <f>L31/(1-G31)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>11.18478906714201</v>
+        <v>11.184789067142</v>
       </c>
       <c r="O31" s="12">
         <f>L31/(1-G31)/[1]Sheet1!$N$26</f>
-        <v>9.5070707070707083</v>
+        <v>9.50707070707071</v>
       </c>
       <c r="P31" s="13">
         <f>O31*[1]Sheet1!$N$26-L31</f>
-        <v>15.686666666666667</v>
+        <v>15.6866666666667</v>
       </c>
       <c r="Q31">
         <v>20</v>
@@ -4371,7 +5006,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="2:18" ht="90.75" customHeight="1">
+    <row r="32" ht="90.75" customHeight="1" spans="2:18">
       <c r="B32">
         <v>16113002</v>
       </c>
@@ -4379,7 +5014,7 @@
         <v>21</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E32">
         <v>22</v>
@@ -4398,31 +5033,31 @@
       </c>
       <c r="J32" s="10">
         <f>(E32+F32+([1]Sheet1!$K$26*H32+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G32)/(1-[1]Sheet1!$O$26)/(1-I32)/[1]Sheet1!$N$26</f>
-        <v>17.706893496367179</v>
+        <v>17.7068934963672</v>
       </c>
       <c r="K32" s="11">
         <f>(E32+F32+([1]Sheet1!$K$26*H32+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G32)/(1-[1]Sheet1!$P$26)/(1-I32)/[1]Sheet1!$N$26</f>
-        <v>19.790057437116261</v>
+        <v>19.7900574371163</v>
       </c>
       <c r="L32" s="1">
         <f>E32+F32+([1]Sheet1!$K$26*H32+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
-        <v>49.959999999999994</v>
+        <v>49.96</v>
       </c>
       <c r="M32" s="12">
         <f>L32/(1-G32)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>10.624136097820308</v>
+        <v>10.6241360978203</v>
       </c>
       <c r="N32" s="12">
         <f>L32/(1-G32)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>11.874034462269755</v>
+        <v>11.8740344622698</v>
       </c>
       <c r="O32" s="12">
         <f>L32/(1-G32)/[1]Sheet1!$N$26</f>
-        <v>10.092929292929293</v>
+        <v>10.0929292929293</v>
       </c>
       <c r="P32" s="13">
         <f>O32*[1]Sheet1!$N$26-L32</f>
-        <v>16.653333333333336</v>
+        <v>16.6533333333333</v>
       </c>
       <c r="Q32">
         <v>20</v>
@@ -4431,7 +5066,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="2:18" ht="90.75" customHeight="1">
+    <row r="33" ht="90.75" customHeight="1" spans="2:18">
       <c r="B33">
         <v>16113003</v>
       </c>
@@ -4439,7 +5074,7 @@
         <v>25</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E33">
         <v>32</v>
@@ -4458,11 +5093,11 @@
       </c>
       <c r="J33" s="10">
         <f>(E33+F33+([1]Sheet1!$K$26*H33+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G33)/(1-[1]Sheet1!$O$26)/(1-I33)/[1]Sheet1!$N$26</f>
-        <v>25.58020395340969</v>
+        <v>25.5802039534097</v>
       </c>
       <c r="K33" s="11">
         <f>(E33+F33+([1]Sheet1!$K$26*H33+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G33)/(1-[1]Sheet1!$P$26)/(1-I33)/[1]Sheet1!$N$26</f>
-        <v>28.589639712634362</v>
+        <v>28.5896397126344</v>
       </c>
       <c r="L33" s="1">
         <f>E33+F33+([1]Sheet1!$K$26*H33+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -4470,7 +5105,7 @@
       </c>
       <c r="M33" s="12">
         <f>L33/(1-G33)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.069112174375331</v>
+        <v>14.0691121743753</v>
       </c>
       <c r="N33" s="12">
         <f>L33/(1-G33)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
@@ -4478,11 +5113,11 @@
       </c>
       <c r="O33" s="12">
         <f>L33/(1-G33)/[1]Sheet1!$N$26</f>
-        <v>13.365656565656565</v>
+        <v>13.3656565656566</v>
       </c>
       <c r="P33" s="13">
         <f>O33*[1]Sheet1!$N$26-L33</f>
-        <v>22.053333333333327</v>
+        <v>22.0533333333333</v>
       </c>
       <c r="Q33">
         <v>45</v>
@@ -4491,7 +5126,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="2:18" ht="90.75" customHeight="1">
+    <row r="34" ht="90.75" customHeight="1" spans="2:18">
       <c r="B34">
         <v>16113004</v>
       </c>
@@ -4499,7 +5134,7 @@
         <v>18</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E34">
         <v>36</v>
@@ -4518,11 +5153,11 @@
       </c>
       <c r="J34" s="10">
         <f>(E34+F34+([1]Sheet1!$K$26*H34+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G34)/(1-[1]Sheet1!$O$26)/(1-I34)/[1]Sheet1!$N$26</f>
-        <v>19.609427609427609</v>
+        <v>19.6094276094276</v>
       </c>
       <c r="K34" s="11">
         <f>(E34+F34+([1]Sheet1!$K$26*H34+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G34)/(1-[1]Sheet1!$P$26)/(1-I34)/[1]Sheet1!$N$26</f>
-        <v>21.916419092889683</v>
+        <v>21.9164190928897</v>
       </c>
       <c r="L34" s="1">
         <f>E34+F34+([1]Sheet1!$K$26*H34+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -4530,19 +5165,19 @@
       </c>
       <c r="M34" s="12">
         <f>L34/(1-G34)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>14.707070707070708</v>
+        <v>14.7070707070707</v>
       </c>
       <c r="N34" s="12">
         <f>L34/(1-G34)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>16.437314319667262</v>
+        <v>16.4373143196673</v>
       </c>
       <c r="O34" s="12">
         <f>L34/(1-G34)/[1]Sheet1!$N$26</f>
-        <v>13.97171717171717</v>
+        <v>13.9717171717172</v>
       </c>
       <c r="P34" s="13">
         <f>O34*[1]Sheet1!$N$26-L34</f>
-        <v>23.053333333333327</v>
+        <v>23.0533333333333</v>
       </c>
       <c r="Q34">
         <v>45</v>
@@ -4551,7 +5186,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="2:18" ht="90.75" customHeight="1">
+    <row r="35" ht="90.75" customHeight="1" spans="2:18">
       <c r="B35">
         <v>16120201</v>
       </c>
@@ -4559,7 +5194,7 @@
         <v>18</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E35">
         <v>24</v>
@@ -4578,11 +5213,11 @@
       </c>
       <c r="J35" s="10">
         <f>(E35+F35+([1]Sheet1!$K$26*H35+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G35)/(1-[1]Sheet1!$O$26)/(1-I35)/[1]Sheet1!$N$26</f>
-        <v>15.725677830940988</v>
+        <v>15.725677830941</v>
       </c>
       <c r="K35" s="11">
         <f>(E35+F35+([1]Sheet1!$K$26*H35+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G35)/(1-[1]Sheet1!$P$26)/(1-I35)/[1]Sheet1!$N$26</f>
-        <v>17.575757575757574</v>
+        <v>17.5757575757576</v>
       </c>
       <c r="L35" s="1">
         <f>E35+F35+([1]Sheet1!$K$26*H35+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -4590,15 +5225,15 @@
       </c>
       <c r="M35" s="12">
         <f>L35/(1-G35)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>12.580542264752792</v>
+        <v>12.5805422647528</v>
       </c>
       <c r="N35" s="12">
         <f>L35/(1-G35)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>14.060606060606061</v>
+        <v>14.0606060606061</v>
       </c>
       <c r="O35" s="12">
         <f>L35/(1-G35)/[1]Sheet1!$N$26</f>
-        <v>11.951515151515151</v>
+        <v>11.9515151515152</v>
       </c>
       <c r="P35" s="13">
         <f>O35*[1]Sheet1!$N$26-L35</f>
@@ -4608,13 +5243,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="2:18" ht="90.75" customHeight="1">
+    <row r="36" ht="90.75" customHeight="1" spans="2:17">
       <c r="B36">
         <v>16120301</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E36">
         <v>28</v>
@@ -4633,11 +5268,11 @@
       </c>
       <c r="J36" s="10">
         <f>(E36+F36+([1]Sheet1!$K$26*H36+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G36)/(1-[1]Sheet1!$O$26)/(1-I36)/[1]Sheet1!$N$26</f>
-        <v>24.033637813542118</v>
+        <v>24.0336378135421</v>
       </c>
       <c r="K36" s="11">
         <f>(E36+F36+([1]Sheet1!$K$26*H36+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G36)/(1-[1]Sheet1!$P$26)/(1-I36)/[1]Sheet1!$N$26</f>
-        <v>26.861124615135306</v>
+        <v>26.8611246151353</v>
       </c>
       <c r="L36" s="1">
         <f>E36+F36+([1]Sheet1!$K$26*H36+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -4645,15 +5280,15 @@
       </c>
       <c r="M36" s="12">
         <f>L36/(1-G36)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>13.218500797448167</v>
+        <v>13.2185007974482</v>
       </c>
       <c r="N36" s="12">
         <f>L36/(1-G36)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>14.773618538324421</v>
+        <v>14.7736185383244</v>
       </c>
       <c r="O36" s="12">
         <f>L36/(1-G36)/[1]Sheet1!$N$26</f>
-        <v>12.557575757575757</v>
+        <v>12.5575757575758</v>
       </c>
       <c r="P36" s="13">
         <f>O36*[1]Sheet1!$N$26-L36</f>
@@ -4663,13 +5298,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="2:18" ht="90.75" customHeight="1">
+    <row r="37" ht="90.75" customHeight="1" spans="2:17">
       <c r="B37">
         <v>16120302</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E37">
         <v>6</v>
@@ -4688,11 +5323,11 @@
       </c>
       <c r="J37" s="10">
         <f>(E37+F37+([1]Sheet1!$K$26*H37+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G37)/(1-[1]Sheet1!$O$26)/(1-I37)/[1]Sheet1!$N$26</f>
-        <v>7.1398192450824025</v>
+        <v>7.1398192450824</v>
       </c>
       <c r="K37" s="11">
         <f>(E37+F37+([1]Sheet1!$K$26*H37+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G37)/(1-[1]Sheet1!$P$26)/(1-I37)/[1]Sheet1!$N$26</f>
-        <v>7.9797979797979801</v>
+        <v>7.97979797979798</v>
       </c>
       <c r="L37" s="1">
         <f>E37+F37+([1]Sheet1!$K$26*H37+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -4700,31 +5335,31 @@
       </c>
       <c r="M37" s="12">
         <f>L37/(1-G37)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>5.7118553960659231</v>
+        <v>5.71185539606592</v>
       </c>
       <c r="N37" s="12">
         <f>L37/(1-G37)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>6.3838383838383841</v>
+        <v>6.38383838383838</v>
       </c>
       <c r="O37" s="12">
         <f>L37/(1-G37)/[1]Sheet1!$N$26</f>
-        <v>5.4262626262626261</v>
+        <v>5.42626262626263</v>
       </c>
       <c r="P37" s="13">
         <f>O37*[1]Sheet1!$N$26-L37</f>
-        <v>8.9533333333333331</v>
+        <v>8.95333333333333</v>
       </c>
       <c r="Q37">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="2:18" ht="90.75" customHeight="1">
+    <row r="38" ht="90.75" customHeight="1" spans="2:18">
       <c r="B38">
         <v>16120401</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E38">
         <v>21</v>
@@ -4743,11 +5378,11 @@
       </c>
       <c r="J38" s="10">
         <f>(E38+F38+([1]Sheet1!$K$26*H38+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G38)/(1-[1]Sheet1!$O$26)/(1-I38)/[1]Sheet1!$N$26</f>
-        <v>16.059542796384903</v>
+        <v>16.0595427963849</v>
       </c>
       <c r="K38" s="11">
         <f>(E38+F38+([1]Sheet1!$K$26*H38+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G38)/(1-[1]Sheet1!$P$26)/(1-I38)/[1]Sheet1!$N$26</f>
-        <v>17.948900772430182</v>
+        <v>17.9489007724302</v>
       </c>
       <c r="L38" s="1">
         <f>E38+F38+([1]Sheet1!$K$26*H38+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -4755,19 +5390,19 @@
       </c>
       <c r="M38" s="12">
         <f>L38/(1-G38)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>8.0297713981924517</v>
+        <v>8.02977139819245</v>
       </c>
       <c r="N38" s="12">
         <f>L38/(1-G38)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>8.9744503862150911</v>
+        <v>8.97445038621509</v>
       </c>
       <c r="O38" s="12">
         <f>L38/(1-G38)/[1]Sheet1!$N$26</f>
-        <v>7.6282828282828286</v>
+        <v>7.62828282828283</v>
       </c>
       <c r="P38" s="13">
         <f>O38*[1]Sheet1!$N$26-L38</f>
-        <v>12.586666666666666</v>
+        <v>12.5866666666667</v>
       </c>
       <c r="Q38">
         <v>20</v>
@@ -4776,7 +5411,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="2:18" ht="84" customHeight="1">
+    <row r="39" ht="84" customHeight="1" spans="2:18">
       <c r="B39">
         <v>16122001</v>
       </c>
@@ -4784,7 +5419,7 @@
         <v>21</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E39">
         <v>22</v>
@@ -4803,31 +5438,31 @@
       </c>
       <c r="J39" s="10">
         <f>(E39+F39+([1]Sheet1!$K$26*H39+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G39)/(1-[1]Sheet1!$O$26)/(1-I39)/[1]Sheet1!$N$26</f>
-        <v>17.706893496367179</v>
+        <v>17.7068934963672</v>
       </c>
       <c r="K39" s="11">
         <f>(E39+F39+([1]Sheet1!$K$26*H39+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G39)/(1-[1]Sheet1!$P$26)/(1-I39)/[1]Sheet1!$N$26</f>
-        <v>19.790057437116261</v>
+        <v>19.7900574371163</v>
       </c>
       <c r="L39" s="1">
         <f>E39+F39+([1]Sheet1!$K$26*H39+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
-        <v>49.959999999999994</v>
+        <v>49.96</v>
       </c>
       <c r="M39" s="12">
         <f>L39/(1-G39)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>10.624136097820308</v>
+        <v>10.6241360978203</v>
       </c>
       <c r="N39" s="12">
         <f>L39/(1-G39)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>11.874034462269755</v>
+        <v>11.8740344622698</v>
       </c>
       <c r="O39" s="12">
         <f>L39/(1-G39)/[1]Sheet1!$N$26</f>
-        <v>10.092929292929293</v>
+        <v>10.0929292929293</v>
       </c>
       <c r="P39" s="13">
         <f>O39*[1]Sheet1!$N$26-L39</f>
-        <v>16.653333333333336</v>
+        <v>16.6533333333333</v>
       </c>
       <c r="Q39">
         <v>20</v>
@@ -4836,7 +5471,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="2:18" ht="90.75" customHeight="1">
+    <row r="40" ht="90.75" customHeight="1" spans="2:18">
       <c r="B40">
         <v>17011301</v>
       </c>
@@ -4844,7 +5479,7 @@
         <v>21</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E40">
         <v>19</v>
@@ -4863,31 +5498,31 @@
       </c>
       <c r="J40" s="10">
         <f>(E40+F40+([1]Sheet1!$K$26*H40+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G40)/(1-[1]Sheet1!$O$26)/(1-I40)/[1]Sheet1!$N$26</f>
-        <v>18.15668648204533</v>
+        <v>18.1566864820453</v>
       </c>
       <c r="K40" s="11">
         <f>(E40+F40+([1]Sheet1!$K$26*H40+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G40)/(1-[1]Sheet1!$P$26)/(1-I40)/[1]Sheet1!$N$26</f>
-        <v>20.292767244638899</v>
+        <v>20.2927672446389</v>
       </c>
       <c r="L40" s="1">
         <f>E40+F40+([1]Sheet1!$K$26*H40+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
-        <v>46.959999999999994</v>
+        <v>46.96</v>
       </c>
       <c r="M40" s="12">
         <f>L40/(1-G40)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>9.9861775651249332</v>
+        <v>9.98617756512493</v>
       </c>
       <c r="N40" s="12">
         <f>L40/(1-G40)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>11.161021984551397</v>
+        <v>11.1610219845514</v>
       </c>
       <c r="O40" s="12">
         <f>L40/(1-G40)/[1]Sheet1!$N$26</f>
-        <v>9.4868686868686858</v>
+        <v>9.48686868686869</v>
       </c>
       <c r="P40" s="13">
         <f>O40*[1]Sheet1!$N$26-L40</f>
-        <v>15.653333333333329</v>
+        <v>15.6533333333333</v>
       </c>
       <c r="Q40">
         <v>20</v>
@@ -4896,7 +5531,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="2:18" ht="90.75" customHeight="1">
+    <row r="41" ht="90.75" customHeight="1" spans="2:18">
       <c r="B41">
         <v>17011302</v>
       </c>
@@ -4904,7 +5539,7 @@
         <v>38</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E41">
         <v>18</v>
@@ -4923,11 +5558,11 @@
       </c>
       <c r="J41" s="10">
         <f>(E41+F41+([1]Sheet1!$K$26*H41+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G41)/(1-[1]Sheet1!$O$26)/(1-I41)/[1]Sheet1!$N$26</f>
-        <v>11.250753145489988</v>
+        <v>11.25075314549</v>
       </c>
       <c r="K41" s="11">
         <f>(E41+F41+([1]Sheet1!$K$26*H41+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G41)/(1-[1]Sheet1!$P$26)/(1-I41)/[1]Sheet1!$N$26</f>
-        <v>12.574371162606457</v>
+        <v>12.5743711626065</v>
       </c>
       <c r="L41" s="1">
         <f>E41+F41+([1]Sheet1!$K$26*H41+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -4935,19 +5570,19 @@
       </c>
       <c r="M41" s="12">
         <f>L41/(1-G41)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>8.4380648591174907</v>
+        <v>8.43806485911749</v>
       </c>
       <c r="N41" s="12">
         <f>L41/(1-G41)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>9.4307783719548421</v>
+        <v>9.43077837195484</v>
       </c>
       <c r="O41" s="12">
         <f>L41/(1-G41)/[1]Sheet1!$N$26</f>
-        <v>8.0161616161616163</v>
+        <v>8.01616161616162</v>
       </c>
       <c r="P41" s="13">
         <f>O41*[1]Sheet1!$N$26-L41</f>
-        <v>13.226666666666667</v>
+        <v>13.2266666666667</v>
       </c>
       <c r="Q41">
         <v>20</v>
@@ -4956,7 +5591,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="2:18" ht="90.75" customHeight="1">
+    <row r="42" ht="90.75" customHeight="1" spans="2:18">
       <c r="B42">
         <v>17011303</v>
       </c>
@@ -4964,7 +5599,7 @@
         <v>25</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E42">
         <v>33</v>
@@ -4983,11 +5618,11 @@
       </c>
       <c r="J42" s="10">
         <f>(E42+F42+([1]Sheet1!$K$26*H42+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G42)/(1-[1]Sheet1!$O$26)/(1-I42)/[1]Sheet1!$N$26</f>
-        <v>24.381615195012326</v>
+        <v>24.3816151950123</v>
       </c>
       <c r="K42" s="11">
         <f>(E42+F42+([1]Sheet1!$K$26*H42+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G42)/(1-[1]Sheet1!$P$26)/(1-I42)/[1]Sheet1!$N$26</f>
-        <v>27.250040512072598</v>
+        <v>27.2500405120726</v>
       </c>
       <c r="L42" s="1">
         <f>E42+F42+([1]Sheet1!$K$26*H42+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -4995,19 +5630,19 @@
       </c>
       <c r="M42" s="12">
         <f>L42/(1-G42)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>13.409888357256781</v>
+        <v>13.4098883572568</v>
       </c>
       <c r="N42" s="12">
         <f>L42/(1-G42)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>14.987522281639929</v>
+        <v>14.9875222816399</v>
       </c>
       <c r="O42" s="12">
         <f>L42/(1-G42)/[1]Sheet1!$N$26</f>
-        <v>12.73939393939394</v>
+        <v>12.7393939393939</v>
       </c>
       <c r="P42" s="13">
         <f>O42*[1]Sheet1!$N$26-L42</f>
-        <v>21.019999999999996</v>
+        <v>21.02</v>
       </c>
       <c r="Q42">
         <v>45</v>
@@ -5016,15 +5651,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="2:18" ht="90.75" customHeight="1">
+    <row r="43" ht="90.75" customHeight="1" spans="2:18">
       <c r="B43">
         <v>17011401</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E43">
         <v>19</v>
@@ -5043,31 +5678,31 @@
       </c>
       <c r="J43" s="10">
         <f>(E43+F43+([1]Sheet1!$K$26*H43+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G43)/(1-[1]Sheet1!$O$26)/(1-I43)/[1]Sheet1!$N$26</f>
-        <v>12.464292043239411</v>
+        <v>12.4642920432394</v>
       </c>
       <c r="K43" s="11">
         <f>(E43+F43+([1]Sheet1!$K$26*H43+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G43)/(1-[1]Sheet1!$P$26)/(1-I43)/[1]Sheet1!$N$26</f>
-        <v>13.930679342444044</v>
+        <v>13.930679342444</v>
       </c>
       <c r="L43" s="1">
         <f>E43+F43+([1]Sheet1!$K$26*H43+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
-        <v>43.959999999999994</v>
+        <v>43.96</v>
       </c>
       <c r="M43" s="12">
         <f>L43/(1-G43)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>9.348219032429558</v>
+        <v>9.34821903242956</v>
       </c>
       <c r="N43" s="12">
         <f>L43/(1-G43)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>10.448009506833035</v>
+        <v>10.448009506833</v>
       </c>
       <c r="O43" s="12">
         <f>L43/(1-G43)/[1]Sheet1!$N$26</f>
-        <v>8.8808080808080803</v>
+        <v>8.88080808080808</v>
       </c>
       <c r="P43" s="13">
         <f>O43*[1]Sheet1!$N$26-L43</f>
-        <v>14.653333333333336</v>
+        <v>14.6533333333333</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -5076,7 +5711,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="2:18" ht="90.75" customHeight="1">
+    <row r="44" ht="90.75" customHeight="1" spans="2:18">
       <c r="B44">
         <v>17011501</v>
       </c>
@@ -5084,7 +5719,7 @@
         <v>21</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E44">
         <v>26</v>
@@ -5103,11 +5738,11 @@
       </c>
       <c r="J44" s="10">
         <f>(E44+F44+([1]Sheet1!$K$26*H44+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G44)/(1-[1]Sheet1!$O$26)/(1-I44)/[1]Sheet1!$N$26</f>
-        <v>16.774056353003722</v>
+        <v>16.7740563530037</v>
       </c>
       <c r="K44" s="11">
         <f>(E44+F44+([1]Sheet1!$K$26*H44+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G44)/(1-[1]Sheet1!$P$26)/(1-I44)/[1]Sheet1!$N$26</f>
-        <v>18.747474747474747</v>
+        <v>18.7474747474747</v>
       </c>
       <c r="L44" s="1">
         <f>E44+F44+([1]Sheet1!$K$26*H44+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
@@ -5115,15 +5750,15 @@
       </c>
       <c r="M44" s="12">
         <f>L44/(1-G44)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
-        <v>12.580542264752792</v>
+        <v>12.5805422647528</v>
       </c>
       <c r="N44" s="12">
         <f>L44/(1-G44)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
-        <v>14.060606060606061</v>
+        <v>14.0606060606061</v>
       </c>
       <c r="O44" s="12">
         <f>L44/(1-G44)/[1]Sheet1!$N$26</f>
-        <v>11.951515151515151</v>
+        <v>11.9515151515152</v>
       </c>
       <c r="P44" s="13">
         <f>O44*[1]Sheet1!$N$26-L44</f>
@@ -5136,128 +5771,195 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="2:18">
-      <c r="K46" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="L46" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="M46" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="N46" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="O46" s="15" t="s">
+    <row r="45" ht="90.75" customHeight="1" spans="2:18">
+      <c r="B45">
+        <v>17011502</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="P46" s="15" t="s">
+      <c r="E45">
+        <v>25</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H45">
+        <v>0.25</v>
+      </c>
+      <c r="I45" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="J45" s="10">
+        <f>(E45+F45+([1]Sheet1!$K$26*H45+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G45)/(1-[1]Sheet1!$O$26)/(1-I45)/[1]Sheet1!$N$26</f>
+        <v>20.9018413803103</v>
+      </c>
+      <c r="K45" s="11">
+        <f>(E45+F45+([1]Sheet1!$K$26*H45+[1]Sheet1!$M$26)*[1]Sheet1!$L$26)/(1-G45)/(1-[1]Sheet1!$P$26)/(1-I45)/[1]Sheet1!$N$26</f>
+        <v>23.3608815426997</v>
+      </c>
+      <c r="L45" s="1">
+        <f>E45+F45+([1]Sheet1!$K$26*H45+[1]Sheet1!$M$26)*[1]Sheet1!$L$26</f>
+        <v>54.06</v>
+      </c>
+      <c r="M45" s="12">
+        <f>L45/(1-G45)/(1-[1]Sheet1!$O$26)/[1]Sheet1!$N$26</f>
+        <v>11.4960127591707</v>
+      </c>
+      <c r="N45" s="12">
+        <f>L45/(1-G45)/(1-[1]Sheet1!$P$26)/[1]Sheet1!$N$26</f>
+        <v>12.8484848484848</v>
+      </c>
+      <c r="O45" s="12">
+        <f>L45/(1-G45)/[1]Sheet1!$N$26</f>
+        <v>10.9212121212121</v>
+      </c>
+      <c r="P45" s="13">
+        <f>O45*[1]Sheet1!$N$26-L45</f>
+        <v>18.02</v>
+      </c>
+      <c r="Q45">
+        <v>45</v>
+      </c>
+      <c r="R45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="11:16">
+      <c r="K47" s="15" t="s">
         <v>69</v>
       </c>
+      <c r="L47" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="M47" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="N47" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="O47" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="P47" s="15" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="47" spans="2:18">
-      <c r="K47" s="16">
+    <row r="48" spans="11:16">
+      <c r="K48" s="16">
         <v>100</v>
       </c>
-      <c r="L47" s="14">
+      <c r="L48" s="14">
         <v>0.85</v>
       </c>
-      <c r="M47">
+      <c r="M48">
         <v>8</v>
       </c>
-      <c r="N47">
+      <c r="N48">
         <v>6.8</v>
       </c>
-      <c r="O47" s="14">
+      <c r="O48" s="14">
         <v>0.08</v>
       </c>
-      <c r="P47" s="14">
+      <c r="P48" s="14">
         <v>0.15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"爬爬服"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C45 C2:C44">
+      <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子,裤子,衬衫,T-shirt,袜子,口水巾,手套"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q6 R2:R4">
       <formula1>"0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C44">
-      <formula1>"爬爬服,婴儿套装,连衣裙,套装,外套,鞋子,裤子,衬衫,T-shirt,袜子,口水巾,手套"</formula1>
-    </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D6" r:id="rId3"/>
-    <hyperlink ref="S6" r:id="rId4"/>
-    <hyperlink ref="D8" r:id="rId5"/>
-    <hyperlink ref="D9" r:id="rId6"/>
-    <hyperlink ref="D10" r:id="rId7"/>
-    <hyperlink ref="D11" r:id="rId8"/>
-    <hyperlink ref="D12" r:id="rId9"/>
-    <hyperlink ref="D13" r:id="rId10"/>
-    <hyperlink ref="D14" r:id="rId11"/>
-    <hyperlink ref="D15" r:id="rId12"/>
-    <hyperlink ref="D16" r:id="rId13"/>
-    <hyperlink ref="D19" r:id="rId14"/>
-    <hyperlink ref="D20" r:id="rId15"/>
-    <hyperlink ref="D21" r:id="rId16"/>
-    <hyperlink ref="D22" r:id="rId17"/>
-    <hyperlink ref="D23" r:id="rId18" tooltip="https://detail.1688.com/offer/542005628301.html?spm=a2615.7691456.0.0.E27Va6"/>
-    <hyperlink ref="D24" r:id="rId19"/>
-    <hyperlink ref="D25" r:id="rId20"/>
-    <hyperlink ref="D26" r:id="rId21" tooltip="https://detail.1688.com/offer/535604104982.html?spm=a2615.7691456.0.0.ceDRcB"/>
-    <hyperlink ref="D18" r:id="rId22"/>
-    <hyperlink ref="D28" r:id="rId23"/>
-    <hyperlink ref="D29" r:id="rId24"/>
-    <hyperlink ref="D30" r:id="rId25"/>
-    <hyperlink ref="D31" r:id="rId26"/>
-    <hyperlink ref="D32" r:id="rId27" tooltip="https://detail.1688.com/offer/522866160965.html?spm=b26110380.8015204.1688002.2.oTUzYR"/>
-    <hyperlink ref="D33" r:id="rId28"/>
-    <hyperlink ref="D34" r:id="rId29"/>
-    <hyperlink ref="D37" r:id="rId30"/>
-    <hyperlink ref="D38" r:id="rId31"/>
-    <hyperlink ref="D39" r:id="rId32"/>
-    <hyperlink ref="D40" r:id="rId33"/>
-    <hyperlink ref="D41" r:id="rId34"/>
-    <hyperlink ref="D42" r:id="rId35"/>
-    <hyperlink ref="D43" r:id="rId36"/>
-    <hyperlink ref="D44" r:id="rId37"/>
+    <hyperlink ref="D5" r:id="rId2" display="https://detail.1688.com/offer/43388465240.html?spm=a2615.7691456.0.0.SVo0SF"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://detail.1688.com/offer/532946594199.html?spm=a2615.7691456.0.0.KfqxAP"/>
+    <hyperlink ref="D6" r:id="rId4" display="https://item.taobao.com/item.htm?spm=a230r.1.0.0.NVkYXr&amp;id=535812571550&amp;ns=1#detail"/>
+    <hyperlink ref="S6" r:id="rId4" display="https://item.taobao.com/item.htm?spm=a230r.1.0.0.NVkYXr&amp;id=535812571550&amp;ns=1#detail"/>
+    <hyperlink ref="D8" r:id="rId5" display="https://detail.1688.com/offer/521926765457.html?spm=a2615.7691456.0.0.Iw9wYb"/>
+    <hyperlink ref="D9" r:id="rId6" display="https://detail.1688.com/offer/539601777542.html?spm=b26110380.8015204.1688002.1.tV3mIo"/>
+    <hyperlink ref="D10" r:id="rId7" display="https://detail.1688.com/offer/534650922032.html"/>
+    <hyperlink ref="D11" r:id="rId8" display="https://detail.1688.com/offer/525196220868.html?spm=b26110380.8015204.xshy005.911.FMmHAe"/>
+    <hyperlink ref="D12" r:id="rId9" display="https://detail.1688.com/offer/525739109360.html?spm=b26110380.sw311.0.0.2w3SJa"/>
+    <hyperlink ref="D13" r:id="rId10" display="https://detail.1688.com/offer/536964765017.html?spm=b26110380.8015204.1688002.2.0qEfTf"/>
+    <hyperlink ref="D14" r:id="rId11" display="https://detail.1688.com/offer/523084291442.html?spm=b26110380.8015204.tkhy006.2.7zxqcs"/>
+    <hyperlink ref="D15" r:id="rId12" display="https://detail.1688.com/offer/539464650849.html?spm=b26110380.8015204.tkhy006.13.LriGRm"/>
+    <hyperlink ref="D16" r:id="rId13" display="https://detail.1688.com/offer/539024831638.html?spm=a2615.7691456.0.0.erl0H2"/>
+    <hyperlink ref="D19" r:id="rId14" display="https://detail.1688.com/offer/37436493140.html?spm=a261y.7663282.0.0.Bdoqfg"/>
+    <hyperlink ref="D20" r:id="rId15" display="https://detail.1688.com/offer/525328573875.html?spm=a2615.2177701.0.0.inGNvk"/>
+    <hyperlink ref="D21" r:id="rId16" display="https://detail.1688.com/offer/531099455627.html?spm=b26110380.sw311.0.0.NlP3tV"/>
+    <hyperlink ref="D22" r:id="rId17" display="https://detail.1688.com/offer/539748592006.html?spm=a2615.7691456.0.0.gzA0aC"/>
+    <hyperlink ref="D23" r:id="rId18" display="https://detail.1688.com/offer/542005628301.html?spm=a2615.7691456.0.0.E27Va6" tooltip="https://detail.1688.com/offer/542005628301.html?spm=a2615.7691456.0.0.E27Va6"/>
+    <hyperlink ref="D24" r:id="rId16" display="https://detail.1688.com/offer/531099455627.html?spm=b26110380.sw311.0.0.NlP3tV"/>
+    <hyperlink ref="D25" r:id="rId19" display="https://detail.1688.com/offer/537712350771.html?spm=a261y.7663282.0.0.HGrgRG&amp;sk=consign"/>
+    <hyperlink ref="D26" r:id="rId20" display="https://detail.1688.com/offer/535604104982.html?spm=a2615.7691456.0.0.ceDRcB" tooltip="https://detail.1688.com/offer/535604104982.html?spm=a2615.7691456.0.0.ceDRcB"/>
+    <hyperlink ref="D18" r:id="rId21" display="https://detail.1688.com/offer/537572849225.html?spm=a2615.7691456.0.0.0jr1X8"/>
+    <hyperlink ref="D28" r:id="rId22" display="https://detail.1688.com/offer/538358020263.html?spm=a2615.7691456.0.0.BXbA7w"/>
+    <hyperlink ref="D29" r:id="rId23" display="https://detail.1688.com/offer/536605241945.html?spm=b26110380.8015204.xshy005.79.X6yxQK"/>
+    <hyperlink ref="D30" r:id="rId24" display="https://detail.1688.com/offer/522617209176.html?spm=0.0.0.0.OkHehB&amp;sk=consign"/>
+    <hyperlink ref="D31" r:id="rId25" display="https://detail.1688.com/offer/536564720843.html?spm=a261y.7663282.0.0.CfpkXA&amp;sk=consign"/>
+    <hyperlink ref="D32" r:id="rId26" display="https://detail.1688.com/offer/522866160965.html?spm=b26110380.8015204.1688002.2.oTUzYR" tooltip="https://detail.1688.com/offer/522866160965.html?spm=b26110380.8015204.1688002.2.oTUzYR"/>
+    <hyperlink ref="D33" r:id="rId27" display="https://detail.1688.com/offer/537733197961.html?spm=b26110380.8015204.tkhy006.2.6IBVa5"/>
+    <hyperlink ref="D34" r:id="rId27" display="https://detail.1688.com/offer/537733197961.html?spm=b26110380.8015204.tkhy006.2.6IBVa5"/>
+    <hyperlink ref="D37" r:id="rId28" display="https://detail.1688.com/offer/39363390916.html?spm=b26110380.sw56474001.0.0.AOuyqk"/>
+    <hyperlink ref="D38" r:id="rId29" display="https://detail.1688.com/offer/523975460031.html?spm=b26110380.8015204.1688002.1.dPdaJX"/>
+    <hyperlink ref="D39" r:id="rId30" display="https://detail.1688.com/offer/531232169182.html?spm=a261y.7663282.0.0.1DCfuw"/>
+    <hyperlink ref="D40" r:id="rId31" display="https://detail.1688.com/offer/531965973421.html?spm=a2615.7691456.0.0.MQ5cDO"/>
+    <hyperlink ref="D41" r:id="rId32" display="https://detail.1688.com/offer/538656905495.html?spm=b26110380.sw1037004.0.0.dRfQA7&amp;sk=consign"/>
+    <hyperlink ref="D42" r:id="rId33" display="https://detail.1688.com/offer/534135284523.html?spm=a2615.2177701.0.0.bCxxaP"/>
+    <hyperlink ref="D43" r:id="rId34" display="https://detail.1688.com/offer/524129595472.html?spm=a2615.7691456.0.0.5vRcmp"/>
+    <hyperlink ref="D44" r:id="rId35" display="https://detail.1688.com/offer/538321839564.html?spm=b26110380.sw1037005.0.0.jmc4NW"/>
+    <hyperlink ref="D45" r:id="rId36" display="https://detail.1688.com/offer/525494755952.html?spm=a2615.7691456.0.0.2qsBMx"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <drawing r:id="rId38"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/产品表单.xlsx
+++ b/产品表单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="8690"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="8685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$C$27</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="81">
   <si>
     <t>产品标题</t>
   </si>
@@ -247,23 +247,37 @@
   </si>
   <si>
     <t>wish费率</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/544066428048.html?spm=a2615.7691456.0.0.6lamIf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> US$17.25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> US$11.57 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> US$12.94 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> US$11.00 </t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/544097830756.html?spm=a2615.7691456.0.0.L8S8fu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="4">
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
     <numFmt numFmtId="176" formatCode="_-&quot;US$&quot;* #,##0.00_ ;_-&quot;US$&quot;* \-#,##0.00\ ;_-&quot;US$&quot;* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
     <numFmt numFmtId="178" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,140 +313,17 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,194 +336,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -640,251 +345,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" 